--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="173">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -391,6 +391,15 @@
     <t>['59']</t>
   </si>
   <si>
+    <t>['33', '48', '50']</t>
+  </si>
+  <si>
+    <t>['16', '36', '44', '90+1']</t>
+  </si>
+  <si>
+    <t>['73']</t>
+  </si>
+  <si>
     <t>['81', '90+3']</t>
   </si>
   <si>
@@ -515,6 +524,15 @@
   </si>
   <si>
     <t>['11']</t>
+  </si>
+  <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>['52']</t>
+  </si>
+  <si>
+    <t>['45+7']</t>
   </si>
 </sst>
 </file>
@@ -876,7 +894,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP64"/>
+  <dimension ref="A1:BP68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1135,7 +1153,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1213,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1341,7 +1359,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -1422,7 +1440,7 @@
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1547,7 +1565,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q4">
         <v>1.9</v>
@@ -1753,7 +1771,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q5">
         <v>2.55</v>
@@ -1831,10 +1849,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ5">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1959,7 +1977,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2040,7 +2058,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ6">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2449,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ8">
         <v>1.5</v>
@@ -2577,7 +2595,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -2655,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ9">
         <v>2.6</v>
@@ -3070,7 +3088,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ11">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3195,7 +3213,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -3479,10 +3497,10 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ13">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR13">
         <v>2.48</v>
@@ -3685,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ14">
         <v>1.67</v>
@@ -3813,7 +3831,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4225,7 +4243,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4431,7 +4449,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4637,7 +4655,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -4718,7 +4736,7 @@
         <v>1</v>
       </c>
       <c r="AQ19">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4924,7 +4942,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ20">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>1.66</v>
@@ -5336,7 +5354,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ22">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR22">
         <v>2.37</v>
@@ -5461,7 +5479,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -5667,7 +5685,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5745,7 +5763,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ24">
         <v>2.6</v>
@@ -5873,7 +5891,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -5951,7 +5969,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ25">
         <v>1</v>
@@ -6079,7 +6097,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6285,7 +6303,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -6491,7 +6509,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6697,7 +6715,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6903,7 +6921,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7315,7 +7333,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7393,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ32">
         <v>2</v>
@@ -7521,7 +7539,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q33">
         <v>1.73</v>
@@ -7599,10 +7617,10 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ33">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR33">
         <v>0.79</v>
@@ -7727,7 +7745,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q34">
         <v>6.4</v>
@@ -7933,7 +7951,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q35">
         <v>1.96</v>
@@ -8011,10 +8029,10 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ35">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR35">
         <v>1.8</v>
@@ -8139,7 +8157,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q36">
         <v>1.98</v>
@@ -8345,7 +8363,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -8551,7 +8569,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q38">
         <v>3.25</v>
@@ -9247,7 +9265,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ41">
         <v>0.8</v>
@@ -9375,7 +9393,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9456,7 +9474,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ42">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR42">
         <v>1.84</v>
@@ -9581,7 +9599,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q43">
         <v>2.3</v>
@@ -9662,7 +9680,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ43">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR43">
         <v>2.56</v>
@@ -9787,7 +9805,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q44">
         <v>4.75</v>
@@ -10071,7 +10089,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ45">
         <v>1.25</v>
@@ -10199,7 +10217,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10405,7 +10423,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10486,7 +10504,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ47">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR47">
         <v>1.03</v>
@@ -11023,7 +11041,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11101,7 +11119,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ50">
         <v>1.8</v>
@@ -11229,7 +11247,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11307,7 +11325,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ51">
         <v>1.33</v>
@@ -11435,7 +11453,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q52">
         <v>1.83</v>
@@ -11847,7 +11865,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q54">
         <v>7.5</v>
@@ -12340,7 +12358,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ56">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR56">
         <v>1.29</v>
@@ -12465,7 +12483,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12546,7 +12564,7 @@
         <v>1</v>
       </c>
       <c r="AQ57">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR57">
         <v>1.14</v>
@@ -12671,7 +12689,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q58">
         <v>2.8</v>
@@ -12877,7 +12895,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q59">
         <v>3.15</v>
@@ -13083,7 +13101,7 @@
         <v>106</v>
       </c>
       <c r="P60" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13161,10 +13179,10 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ60">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR60">
         <v>1.57</v>
@@ -13289,7 +13307,7 @@
         <v>90</v>
       </c>
       <c r="P61" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13495,7 +13513,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q62">
         <v>3.11</v>
@@ -13576,7 +13594,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ62">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR62">
         <v>1.2</v>
@@ -13701,7 +13719,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q63">
         <v>2.75</v>
@@ -14064,6 +14082,830 @@
       </c>
       <c r="BP64">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7347821</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45412.29166666666</v>
+      </c>
+      <c r="F65">
+        <v>9</v>
+      </c>
+      <c r="G65" t="s">
+        <v>70</v>
+      </c>
+      <c r="H65" t="s">
+        <v>81</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>2</v>
+      </c>
+      <c r="L65">
+        <v>3</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>4</v>
+      </c>
+      <c r="O65" t="s">
+        <v>125</v>
+      </c>
+      <c r="P65" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q65">
+        <v>1.8</v>
+      </c>
+      <c r="R65">
+        <v>2.5</v>
+      </c>
+      <c r="S65">
+        <v>8</v>
+      </c>
+      <c r="T65">
+        <v>1.3</v>
+      </c>
+      <c r="U65">
+        <v>3.4</v>
+      </c>
+      <c r="V65">
+        <v>2.5</v>
+      </c>
+      <c r="W65">
+        <v>1.5</v>
+      </c>
+      <c r="X65">
+        <v>6</v>
+      </c>
+      <c r="Y65">
+        <v>1.13</v>
+      </c>
+      <c r="Z65">
+        <v>1.33</v>
+      </c>
+      <c r="AA65">
+        <v>5</v>
+      </c>
+      <c r="AB65">
+        <v>7</v>
+      </c>
+      <c r="AC65">
+        <v>1.04</v>
+      </c>
+      <c r="AD65">
+        <v>9</v>
+      </c>
+      <c r="AE65">
+        <v>1.22</v>
+      </c>
+      <c r="AF65">
+        <v>4</v>
+      </c>
+      <c r="AG65">
+        <v>1.57</v>
+      </c>
+      <c r="AH65">
+        <v>2.25</v>
+      </c>
+      <c r="AI65">
+        <v>2</v>
+      </c>
+      <c r="AJ65">
+        <v>1.75</v>
+      </c>
+      <c r="AK65">
+        <v>1.08</v>
+      </c>
+      <c r="AL65">
+        <v>1.18</v>
+      </c>
+      <c r="AM65">
+        <v>3.15</v>
+      </c>
+      <c r="AN65">
+        <v>1.6</v>
+      </c>
+      <c r="AO65">
+        <v>1.25</v>
+      </c>
+      <c r="AP65">
+        <v>1.83</v>
+      </c>
+      <c r="AQ65">
+        <v>1</v>
+      </c>
+      <c r="AR65">
+        <v>2.08</v>
+      </c>
+      <c r="AS65">
+        <v>1.22</v>
+      </c>
+      <c r="AT65">
+        <v>3.3</v>
+      </c>
+      <c r="AU65">
+        <v>8</v>
+      </c>
+      <c r="AV65">
+        <v>3</v>
+      </c>
+      <c r="AW65">
+        <v>5</v>
+      </c>
+      <c r="AX65">
+        <v>6</v>
+      </c>
+      <c r="AY65">
+        <v>13</v>
+      </c>
+      <c r="AZ65">
+        <v>9</v>
+      </c>
+      <c r="BA65">
+        <v>6</v>
+      </c>
+      <c r="BB65">
+        <v>6</v>
+      </c>
+      <c r="BC65">
+        <v>12</v>
+      </c>
+      <c r="BD65">
+        <v>1.24</v>
+      </c>
+      <c r="BE65">
+        <v>11</v>
+      </c>
+      <c r="BF65">
+        <v>4.8</v>
+      </c>
+      <c r="BG65">
+        <v>1.24</v>
+      </c>
+      <c r="BH65">
+        <v>3.48</v>
+      </c>
+      <c r="BI65">
+        <v>1.45</v>
+      </c>
+      <c r="BJ65">
+        <v>2.48</v>
+      </c>
+      <c r="BK65">
+        <v>1.81</v>
+      </c>
+      <c r="BL65">
+        <v>1.89</v>
+      </c>
+      <c r="BM65">
+        <v>2.3</v>
+      </c>
+      <c r="BN65">
+        <v>1.52</v>
+      </c>
+      <c r="BO65">
+        <v>3.08</v>
+      </c>
+      <c r="BP65">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7347822</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45412.35763888889</v>
+      </c>
+      <c r="F66">
+        <v>9</v>
+      </c>
+      <c r="G66" t="s">
+        <v>73</v>
+      </c>
+      <c r="H66" t="s">
+        <v>85</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66" t="s">
+        <v>90</v>
+      </c>
+      <c r="P66" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q66">
+        <v>3.45</v>
+      </c>
+      <c r="R66">
+        <v>2.05</v>
+      </c>
+      <c r="S66">
+        <v>2.9</v>
+      </c>
+      <c r="T66">
+        <v>1.38</v>
+      </c>
+      <c r="U66">
+        <v>2.8</v>
+      </c>
+      <c r="V66">
+        <v>2.75</v>
+      </c>
+      <c r="W66">
+        <v>1.4</v>
+      </c>
+      <c r="X66">
+        <v>6.9</v>
+      </c>
+      <c r="Y66">
+        <v>1.08</v>
+      </c>
+      <c r="Z66">
+        <v>3.05</v>
+      </c>
+      <c r="AA66">
+        <v>3.45</v>
+      </c>
+      <c r="AB66">
+        <v>2.05</v>
+      </c>
+      <c r="AC66">
+        <v>1.05</v>
+      </c>
+      <c r="AD66">
+        <v>8.5</v>
+      </c>
+      <c r="AE66">
+        <v>1.28</v>
+      </c>
+      <c r="AF66">
+        <v>3.4</v>
+      </c>
+      <c r="AG66">
+        <v>1.75</v>
+      </c>
+      <c r="AH66">
+        <v>1.95</v>
+      </c>
+      <c r="AI66">
+        <v>1.65</v>
+      </c>
+      <c r="AJ66">
+        <v>2.05</v>
+      </c>
+      <c r="AK66">
+        <v>1.57</v>
+      </c>
+      <c r="AL66">
+        <v>1.25</v>
+      </c>
+      <c r="AM66">
+        <v>1.38</v>
+      </c>
+      <c r="AN66">
+        <v>0.67</v>
+      </c>
+      <c r="AO66">
+        <v>2.2</v>
+      </c>
+      <c r="AP66">
+        <v>0.5</v>
+      </c>
+      <c r="AQ66">
+        <v>2.33</v>
+      </c>
+      <c r="AR66">
+        <v>1.59</v>
+      </c>
+      <c r="AS66">
+        <v>1.19</v>
+      </c>
+      <c r="AT66">
+        <v>2.78</v>
+      </c>
+      <c r="AU66">
+        <v>9</v>
+      </c>
+      <c r="AV66">
+        <v>3</v>
+      </c>
+      <c r="AW66">
+        <v>15</v>
+      </c>
+      <c r="AX66">
+        <v>4</v>
+      </c>
+      <c r="AY66">
+        <v>24</v>
+      </c>
+      <c r="AZ66">
+        <v>7</v>
+      </c>
+      <c r="BA66">
+        <v>12</v>
+      </c>
+      <c r="BB66">
+        <v>8</v>
+      </c>
+      <c r="BC66">
+        <v>20</v>
+      </c>
+      <c r="BD66">
+        <v>2.22</v>
+      </c>
+      <c r="BE66">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF66">
+        <v>1.85</v>
+      </c>
+      <c r="BG66">
+        <v>1.21</v>
+      </c>
+      <c r="BH66">
+        <v>3.74</v>
+      </c>
+      <c r="BI66">
+        <v>1.41</v>
+      </c>
+      <c r="BJ66">
+        <v>2.6</v>
+      </c>
+      <c r="BK66">
+        <v>1.78</v>
+      </c>
+      <c r="BL66">
+        <v>2.01</v>
+      </c>
+      <c r="BM66">
+        <v>2.23</v>
+      </c>
+      <c r="BN66">
+        <v>1.63</v>
+      </c>
+      <c r="BO66">
+        <v>2.91</v>
+      </c>
+      <c r="BP66">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7347823</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45412.375</v>
+      </c>
+      <c r="F67">
+        <v>9</v>
+      </c>
+      <c r="G67" t="s">
+        <v>76</v>
+      </c>
+      <c r="H67" t="s">
+        <v>80</v>
+      </c>
+      <c r="I67">
+        <v>3</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>4</v>
+      </c>
+      <c r="L67">
+        <v>4</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>5</v>
+      </c>
+      <c r="O67" t="s">
+        <v>126</v>
+      </c>
+      <c r="P67" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q67">
+        <v>2.38</v>
+      </c>
+      <c r="R67">
+        <v>2.3</v>
+      </c>
+      <c r="S67">
+        <v>4.5</v>
+      </c>
+      <c r="T67">
+        <v>1.33</v>
+      </c>
+      <c r="U67">
+        <v>3.25</v>
+      </c>
+      <c r="V67">
+        <v>2.5</v>
+      </c>
+      <c r="W67">
+        <v>1.5</v>
+      </c>
+      <c r="X67">
+        <v>6.5</v>
+      </c>
+      <c r="Y67">
+        <v>1.11</v>
+      </c>
+      <c r="Z67">
+        <v>1.83</v>
+      </c>
+      <c r="AA67">
+        <v>3.65</v>
+      </c>
+      <c r="AB67">
+        <v>3.5</v>
+      </c>
+      <c r="AC67">
+        <v>1.04</v>
+      </c>
+      <c r="AD67">
+        <v>9</v>
+      </c>
+      <c r="AE67">
+        <v>1.22</v>
+      </c>
+      <c r="AF67">
+        <v>3.95</v>
+      </c>
+      <c r="AG67">
+        <v>1.6</v>
+      </c>
+      <c r="AH67">
+        <v>2.2</v>
+      </c>
+      <c r="AI67">
+        <v>1.67</v>
+      </c>
+      <c r="AJ67">
+        <v>2.1</v>
+      </c>
+      <c r="AK67">
+        <v>1.17</v>
+      </c>
+      <c r="AL67">
+        <v>1.25</v>
+      </c>
+      <c r="AM67">
+        <v>1.95</v>
+      </c>
+      <c r="AN67">
+        <v>1.4</v>
+      </c>
+      <c r="AO67">
+        <v>1.25</v>
+      </c>
+      <c r="AP67">
+        <v>1.67</v>
+      </c>
+      <c r="AQ67">
+        <v>1</v>
+      </c>
+      <c r="AR67">
+        <v>1.71</v>
+      </c>
+      <c r="AS67">
+        <v>1.44</v>
+      </c>
+      <c r="AT67">
+        <v>3.15</v>
+      </c>
+      <c r="AU67">
+        <v>11</v>
+      </c>
+      <c r="AV67">
+        <v>6</v>
+      </c>
+      <c r="AW67">
+        <v>8</v>
+      </c>
+      <c r="AX67">
+        <v>6</v>
+      </c>
+      <c r="AY67">
+        <v>19</v>
+      </c>
+      <c r="AZ67">
+        <v>12</v>
+      </c>
+      <c r="BA67">
+        <v>7</v>
+      </c>
+      <c r="BB67">
+        <v>6</v>
+      </c>
+      <c r="BC67">
+        <v>13</v>
+      </c>
+      <c r="BD67">
+        <v>1.65</v>
+      </c>
+      <c r="BE67">
+        <v>9.1</v>
+      </c>
+      <c r="BF67">
+        <v>2.57</v>
+      </c>
+      <c r="BG67">
+        <v>1.17</v>
+      </c>
+      <c r="BH67">
+        <v>4.2</v>
+      </c>
+      <c r="BI67">
+        <v>1.35</v>
+      </c>
+      <c r="BJ67">
+        <v>2.84</v>
+      </c>
+      <c r="BK67">
+        <v>1.61</v>
+      </c>
+      <c r="BL67">
+        <v>2.12</v>
+      </c>
+      <c r="BM67">
+        <v>2.03</v>
+      </c>
+      <c r="BN67">
+        <v>1.7</v>
+      </c>
+      <c r="BO67">
+        <v>2.64</v>
+      </c>
+      <c r="BP67">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7347824</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45412.375</v>
+      </c>
+      <c r="F68">
+        <v>9</v>
+      </c>
+      <c r="G68" t="s">
+        <v>77</v>
+      </c>
+      <c r="H68" t="s">
+        <v>71</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>2</v>
+      </c>
+      <c r="O68" t="s">
+        <v>127</v>
+      </c>
+      <c r="P68" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q68">
+        <v>2.88</v>
+      </c>
+      <c r="R68">
+        <v>2.1</v>
+      </c>
+      <c r="S68">
+        <v>4</v>
+      </c>
+      <c r="T68">
+        <v>1.44</v>
+      </c>
+      <c r="U68">
+        <v>2.63</v>
+      </c>
+      <c r="V68">
+        <v>3.25</v>
+      </c>
+      <c r="W68">
+        <v>1.33</v>
+      </c>
+      <c r="X68">
+        <v>9</v>
+      </c>
+      <c r="Y68">
+        <v>1.07</v>
+      </c>
+      <c r="Z68">
+        <v>2.1</v>
+      </c>
+      <c r="AA68">
+        <v>3.2</v>
+      </c>
+      <c r="AB68">
+        <v>3.2</v>
+      </c>
+      <c r="AC68">
+        <v>1.06</v>
+      </c>
+      <c r="AD68">
+        <v>8</v>
+      </c>
+      <c r="AE68">
+        <v>1.35</v>
+      </c>
+      <c r="AF68">
+        <v>3</v>
+      </c>
+      <c r="AG68">
+        <v>2.1</v>
+      </c>
+      <c r="AH68">
+        <v>1.65</v>
+      </c>
+      <c r="AI68">
+        <v>1.8</v>
+      </c>
+      <c r="AJ68">
+        <v>1.95</v>
+      </c>
+      <c r="AK68">
+        <v>1.3</v>
+      </c>
+      <c r="AL68">
+        <v>1.28</v>
+      </c>
+      <c r="AM68">
+        <v>1.67</v>
+      </c>
+      <c r="AN68">
+        <v>0.33</v>
+      </c>
+      <c r="AO68">
+        <v>0.75</v>
+      </c>
+      <c r="AP68">
+        <v>0.5</v>
+      </c>
+      <c r="AQ68">
+        <v>0.8</v>
+      </c>
+      <c r="AR68">
+        <v>1.05</v>
+      </c>
+      <c r="AS68">
+        <v>1.36</v>
+      </c>
+      <c r="AT68">
+        <v>2.41</v>
+      </c>
+      <c r="AU68">
+        <v>-1</v>
+      </c>
+      <c r="AV68">
+        <v>-1</v>
+      </c>
+      <c r="AW68">
+        <v>-1</v>
+      </c>
+      <c r="AX68">
+        <v>-1</v>
+      </c>
+      <c r="AY68">
+        <v>-1</v>
+      </c>
+      <c r="AZ68">
+        <v>-1</v>
+      </c>
+      <c r="BA68">
+        <v>-1</v>
+      </c>
+      <c r="BB68">
+        <v>-1</v>
+      </c>
+      <c r="BC68">
+        <v>-1</v>
+      </c>
+      <c r="BD68">
+        <v>1.78</v>
+      </c>
+      <c r="BE68">
+        <v>8.9</v>
+      </c>
+      <c r="BF68">
+        <v>2.32</v>
+      </c>
+      <c r="BG68">
+        <v>1.2</v>
+      </c>
+      <c r="BH68">
+        <v>3.84</v>
+      </c>
+      <c r="BI68">
+        <v>1.4</v>
+      </c>
+      <c r="BJ68">
+        <v>2.64</v>
+      </c>
+      <c r="BK68">
+        <v>1.71</v>
+      </c>
+      <c r="BL68">
+        <v>2.02</v>
+      </c>
+      <c r="BM68">
+        <v>2.14</v>
+      </c>
+      <c r="BN68">
+        <v>1.6</v>
+      </c>
+      <c r="BO68">
+        <v>2.84</v>
+      </c>
+      <c r="BP68">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="176">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -400,6 +400,12 @@
     <t>['73']</t>
   </si>
   <si>
+    <t>['22', '55']</t>
+  </si>
+  <si>
+    <t>['3', '50', '76', '90+5']</t>
+  </si>
+  <si>
     <t>['81', '90+3']</t>
   </si>
   <si>
@@ -529,10 +535,13 @@
     <t>['28']</t>
   </si>
   <si>
-    <t>['52']</t>
-  </si>
-  <si>
     <t>['45+7']</t>
+  </si>
+  <si>
+    <t>['27', '30', '60', '78', '87']</t>
+  </si>
+  <si>
+    <t>['14', '81']</t>
   </si>
 </sst>
 </file>
@@ -894,7 +903,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP68"/>
+  <dimension ref="A1:BP72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1153,7 +1162,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1359,7 +1368,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -1565,7 +1574,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q4">
         <v>1.9</v>
@@ -1771,7 +1780,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q5">
         <v>2.55</v>
@@ -1977,7 +1986,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2261,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ7">
         <v>0.8</v>
@@ -2470,7 +2479,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ8">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2595,7 +2604,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -2879,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -3085,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ11">
         <v>0.8</v>
@@ -3213,7 +3222,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -3706,7 +3715,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ14">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR14">
         <v>0.7</v>
@@ -3831,7 +3840,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4243,7 +4252,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4449,7 +4458,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4530,7 +4539,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ18">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR18">
         <v>1.67</v>
@@ -4655,7 +4664,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -4939,7 +4948,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -5479,7 +5488,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -5557,7 +5566,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AQ23">
         <v>1.8</v>
@@ -5685,7 +5694,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5891,7 +5900,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6097,7 +6106,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6178,7 +6187,7 @@
         <v>1</v>
       </c>
       <c r="AQ26">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR26">
         <v>0.87</v>
@@ -6303,7 +6312,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -6381,7 +6390,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AQ27">
         <v>2.6</v>
@@ -6509,7 +6518,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6590,7 +6599,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ28">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR28">
         <v>2.4</v>
@@ -6715,7 +6724,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6793,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ29">
         <v>2</v>
@@ -6921,7 +6930,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7002,7 +7011,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ30">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7333,7 +7342,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7539,7 +7548,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q33">
         <v>1.73</v>
@@ -7745,7 +7754,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q34">
         <v>6.4</v>
@@ -7826,7 +7835,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ34">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR34">
         <v>1</v>
@@ -7951,7 +7960,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q35">
         <v>1.96</v>
@@ -8157,7 +8166,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q36">
         <v>1.98</v>
@@ -8238,7 +8247,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ36">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR36">
         <v>1.16</v>
@@ -8363,7 +8372,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -8441,7 +8450,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ37">
         <v>1</v>
@@ -8569,7 +8578,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q38">
         <v>3.25</v>
@@ -9059,7 +9068,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ40">
         <v>1</v>
@@ -9393,7 +9402,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9599,7 +9608,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q43">
         <v>2.3</v>
@@ -9677,7 +9686,7 @@
         <v>2.33</v>
       </c>
       <c r="AP43">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ43">
         <v>2.33</v>
@@ -9805,7 +9814,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q44">
         <v>4.75</v>
@@ -9883,7 +9892,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AQ44">
         <v>2</v>
@@ -10217,7 +10226,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10423,7 +10432,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10707,7 +10716,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -11041,7 +11050,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11247,7 +11256,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11328,7 +11337,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ51">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR51">
         <v>1.89</v>
@@ -11453,7 +11462,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q52">
         <v>1.83</v>
@@ -11531,10 +11540,10 @@
         <v>2</v>
       </c>
       <c r="AP52">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ52">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR52">
         <v>1.36</v>
@@ -11865,7 +11874,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q54">
         <v>7.5</v>
@@ -12483,7 +12492,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12689,7 +12698,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q58">
         <v>2.8</v>
@@ -12895,7 +12904,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q59">
         <v>3.15</v>
@@ -13101,7 +13110,7 @@
         <v>106</v>
       </c>
       <c r="P60" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13307,7 +13316,7 @@
         <v>90</v>
       </c>
       <c r="P61" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13385,7 +13394,7 @@
         <v>0.67</v>
       </c>
       <c r="AP61">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AQ61">
         <v>1.25</v>
@@ -13513,7 +13522,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q62">
         <v>3.11</v>
@@ -13719,7 +13728,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q63">
         <v>2.75</v>
@@ -13797,7 +13806,7 @@
         <v>1.5</v>
       </c>
       <c r="AP63">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ63">
         <v>2</v>
@@ -14131,7 +14140,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q65">
         <v>1.8</v>
@@ -14227,19 +14236,19 @@
         <v>8</v>
       </c>
       <c r="AV65">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW65">
         <v>5</v>
       </c>
       <c r="AX65">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY65">
         <v>13</v>
       </c>
       <c r="AZ65">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA65">
         <v>6</v>
@@ -14337,7 +14346,7 @@
         <v>90</v>
       </c>
       <c r="P66" t="s">
-        <v>171</v>
+        <v>89</v>
       </c>
       <c r="Q66">
         <v>3.45</v>
@@ -14543,7 +14552,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q67">
         <v>2.38</v>
@@ -14639,19 +14648,19 @@
         <v>11</v>
       </c>
       <c r="AV67">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW67">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AX67">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY67">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AZ67">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA67">
         <v>7</v>
@@ -14749,7 +14758,7 @@
         <v>127</v>
       </c>
       <c r="P68" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -14842,31 +14851,31 @@
         <v>2.41</v>
       </c>
       <c r="AU68">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV68">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW68">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AX68">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY68">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AZ68">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BA68">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB68">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC68">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD68">
         <v>1.78</v>
@@ -14906,6 +14915,830 @@
       </c>
       <c r="BP68">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7347825</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45413.1875</v>
+      </c>
+      <c r="F69">
+        <v>9</v>
+      </c>
+      <c r="G69" t="s">
+        <v>84</v>
+      </c>
+      <c r="H69" t="s">
+        <v>82</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>2</v>
+      </c>
+      <c r="O69" t="s">
+        <v>110</v>
+      </c>
+      <c r="P69" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q69">
+        <v>2.75</v>
+      </c>
+      <c r="R69">
+        <v>2.15</v>
+      </c>
+      <c r="S69">
+        <v>3.5</v>
+      </c>
+      <c r="T69">
+        <v>1.35</v>
+      </c>
+      <c r="U69">
+        <v>2.95</v>
+      </c>
+      <c r="V69">
+        <v>2.5</v>
+      </c>
+      <c r="W69">
+        <v>1.48</v>
+      </c>
+      <c r="X69">
+        <v>5.75</v>
+      </c>
+      <c r="Y69">
+        <v>1.11</v>
+      </c>
+      <c r="Z69">
+        <v>2.13</v>
+      </c>
+      <c r="AA69">
+        <v>3.27</v>
+      </c>
+      <c r="AB69">
+        <v>2.98</v>
+      </c>
+      <c r="AC69">
+        <v>1.05</v>
+      </c>
+      <c r="AD69">
+        <v>8.5</v>
+      </c>
+      <c r="AE69">
+        <v>1.25</v>
+      </c>
+      <c r="AF69">
+        <v>3.8</v>
+      </c>
+      <c r="AG69">
+        <v>1.75</v>
+      </c>
+      <c r="AH69">
+        <v>2.05</v>
+      </c>
+      <c r="AI69">
+        <v>1.55</v>
+      </c>
+      <c r="AJ69">
+        <v>2.2</v>
+      </c>
+      <c r="AK69">
+        <v>1.35</v>
+      </c>
+      <c r="AL69">
+        <v>1.25</v>
+      </c>
+      <c r="AM69">
+        <v>1.65</v>
+      </c>
+      <c r="AN69">
+        <v>0</v>
+      </c>
+      <c r="AO69">
+        <v>1.5</v>
+      </c>
+      <c r="AP69">
+        <v>0.2</v>
+      </c>
+      <c r="AQ69">
+        <v>1.4</v>
+      </c>
+      <c r="AR69">
+        <v>1.09</v>
+      </c>
+      <c r="AS69">
+        <v>1.42</v>
+      </c>
+      <c r="AT69">
+        <v>2.51</v>
+      </c>
+      <c r="AU69">
+        <v>3</v>
+      </c>
+      <c r="AV69">
+        <v>2</v>
+      </c>
+      <c r="AW69">
+        <v>7</v>
+      </c>
+      <c r="AX69">
+        <v>3</v>
+      </c>
+      <c r="AY69">
+        <v>10</v>
+      </c>
+      <c r="AZ69">
+        <v>5</v>
+      </c>
+      <c r="BA69">
+        <v>3</v>
+      </c>
+      <c r="BB69">
+        <v>3</v>
+      </c>
+      <c r="BC69">
+        <v>6</v>
+      </c>
+      <c r="BD69">
+        <v>1.95</v>
+      </c>
+      <c r="BE69">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF69">
+        <v>2.12</v>
+      </c>
+      <c r="BG69">
+        <v>1.36</v>
+      </c>
+      <c r="BH69">
+        <v>2.79</v>
+      </c>
+      <c r="BI69">
+        <v>1.67</v>
+      </c>
+      <c r="BJ69">
+        <v>2.08</v>
+      </c>
+      <c r="BK69">
+        <v>2.11</v>
+      </c>
+      <c r="BL69">
+        <v>1.62</v>
+      </c>
+      <c r="BM69">
+        <v>2.84</v>
+      </c>
+      <c r="BN69">
+        <v>1.35</v>
+      </c>
+      <c r="BO69">
+        <v>4</v>
+      </c>
+      <c r="BP69">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7347826</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45413.29166666666</v>
+      </c>
+      <c r="F70">
+        <v>9</v>
+      </c>
+      <c r="G70" t="s">
+        <v>78</v>
+      </c>
+      <c r="H70" t="s">
+        <v>72</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>2</v>
+      </c>
+      <c r="K70">
+        <v>2</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>5</v>
+      </c>
+      <c r="N70">
+        <v>5</v>
+      </c>
+      <c r="O70" t="s">
+        <v>90</v>
+      </c>
+      <c r="P70" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q70">
+        <v>5.5</v>
+      </c>
+      <c r="R70">
+        <v>2.4</v>
+      </c>
+      <c r="S70">
+        <v>2.1</v>
+      </c>
+      <c r="T70">
+        <v>1.3</v>
+      </c>
+      <c r="U70">
+        <v>3.4</v>
+      </c>
+      <c r="V70">
+        <v>2.5</v>
+      </c>
+      <c r="W70">
+        <v>1.5</v>
+      </c>
+      <c r="X70">
+        <v>6</v>
+      </c>
+      <c r="Y70">
+        <v>1.13</v>
+      </c>
+      <c r="Z70">
+        <v>7.5</v>
+      </c>
+      <c r="AA70">
+        <v>5</v>
+      </c>
+      <c r="AB70">
+        <v>1.33</v>
+      </c>
+      <c r="AC70">
+        <v>1.04</v>
+      </c>
+      <c r="AD70">
+        <v>9</v>
+      </c>
+      <c r="AE70">
+        <v>1.2</v>
+      </c>
+      <c r="AF70">
+        <v>4.2</v>
+      </c>
+      <c r="AG70">
+        <v>1.59</v>
+      </c>
+      <c r="AH70">
+        <v>2.26</v>
+      </c>
+      <c r="AI70">
+        <v>1.75</v>
+      </c>
+      <c r="AJ70">
+        <v>2</v>
+      </c>
+      <c r="AK70">
+        <v>2.4</v>
+      </c>
+      <c r="AL70">
+        <v>1.2</v>
+      </c>
+      <c r="AM70">
+        <v>1.09</v>
+      </c>
+      <c r="AN70">
+        <v>1</v>
+      </c>
+      <c r="AO70">
+        <v>1.67</v>
+      </c>
+      <c r="AP70">
+        <v>0.75</v>
+      </c>
+      <c r="AQ70">
+        <v>2</v>
+      </c>
+      <c r="AR70">
+        <v>1.34</v>
+      </c>
+      <c r="AS70">
+        <v>1.82</v>
+      </c>
+      <c r="AT70">
+        <v>3.16</v>
+      </c>
+      <c r="AU70">
+        <v>7</v>
+      </c>
+      <c r="AV70">
+        <v>11</v>
+      </c>
+      <c r="AW70">
+        <v>4</v>
+      </c>
+      <c r="AX70">
+        <v>7</v>
+      </c>
+      <c r="AY70">
+        <v>11</v>
+      </c>
+      <c r="AZ70">
+        <v>18</v>
+      </c>
+      <c r="BA70">
+        <v>7</v>
+      </c>
+      <c r="BB70">
+        <v>7</v>
+      </c>
+      <c r="BC70">
+        <v>14</v>
+      </c>
+      <c r="BD70">
+        <v>6.45</v>
+      </c>
+      <c r="BE70">
+        <v>12</v>
+      </c>
+      <c r="BF70">
+        <v>1.15</v>
+      </c>
+      <c r="BG70">
+        <v>1.35</v>
+      </c>
+      <c r="BH70">
+        <v>2.84</v>
+      </c>
+      <c r="BI70">
+        <v>1.65</v>
+      </c>
+      <c r="BJ70">
+        <v>2.11</v>
+      </c>
+      <c r="BK70">
+        <v>2.07</v>
+      </c>
+      <c r="BL70">
+        <v>1.64</v>
+      </c>
+      <c r="BM70">
+        <v>2.78</v>
+      </c>
+      <c r="BN70">
+        <v>1.36</v>
+      </c>
+      <c r="BO70">
+        <v>3.88</v>
+      </c>
+      <c r="BP70">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7347827</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45413.35763888889</v>
+      </c>
+      <c r="F71">
+        <v>9</v>
+      </c>
+      <c r="G71" t="s">
+        <v>75</v>
+      </c>
+      <c r="H71" t="s">
+        <v>83</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>2</v>
+      </c>
+      <c r="L71">
+        <v>2</v>
+      </c>
+      <c r="M71">
+        <v>2</v>
+      </c>
+      <c r="N71">
+        <v>4</v>
+      </c>
+      <c r="O71" t="s">
+        <v>128</v>
+      </c>
+      <c r="P71" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q71">
+        <v>2.45</v>
+      </c>
+      <c r="R71">
+        <v>2.15</v>
+      </c>
+      <c r="S71">
+        <v>4</v>
+      </c>
+      <c r="T71">
+        <v>1.33</v>
+      </c>
+      <c r="U71">
+        <v>3</v>
+      </c>
+      <c r="V71">
+        <v>2.45</v>
+      </c>
+      <c r="W71">
+        <v>1.48</v>
+      </c>
+      <c r="X71">
+        <v>5.5</v>
+      </c>
+      <c r="Y71">
+        <v>1.11</v>
+      </c>
+      <c r="Z71">
+        <v>1.65</v>
+      </c>
+      <c r="AA71">
+        <v>3.8</v>
+      </c>
+      <c r="AB71">
+        <v>4.6</v>
+      </c>
+      <c r="AC71">
+        <v>1.05</v>
+      </c>
+      <c r="AD71">
+        <v>8.5</v>
+      </c>
+      <c r="AE71">
+        <v>1.25</v>
+      </c>
+      <c r="AF71">
+        <v>3.8</v>
+      </c>
+      <c r="AG71">
+        <v>1.63</v>
+      </c>
+      <c r="AH71">
+        <v>2.16</v>
+      </c>
+      <c r="AI71">
+        <v>1.57</v>
+      </c>
+      <c r="AJ71">
+        <v>2.15</v>
+      </c>
+      <c r="AK71">
+        <v>1.25</v>
+      </c>
+      <c r="AL71">
+        <v>1.25</v>
+      </c>
+      <c r="AM71">
+        <v>1.8</v>
+      </c>
+      <c r="AN71">
+        <v>2.4</v>
+      </c>
+      <c r="AO71">
+        <v>1</v>
+      </c>
+      <c r="AP71">
+        <v>2.17</v>
+      </c>
+      <c r="AQ71">
+        <v>1</v>
+      </c>
+      <c r="AR71">
+        <v>1.59</v>
+      </c>
+      <c r="AS71">
+        <v>1.2</v>
+      </c>
+      <c r="AT71">
+        <v>2.79</v>
+      </c>
+      <c r="AU71">
+        <v>6</v>
+      </c>
+      <c r="AV71">
+        <v>3</v>
+      </c>
+      <c r="AW71">
+        <v>6</v>
+      </c>
+      <c r="AX71">
+        <v>0</v>
+      </c>
+      <c r="AY71">
+        <v>12</v>
+      </c>
+      <c r="AZ71">
+        <v>3</v>
+      </c>
+      <c r="BA71">
+        <v>8</v>
+      </c>
+      <c r="BB71">
+        <v>0</v>
+      </c>
+      <c r="BC71">
+        <v>8</v>
+      </c>
+      <c r="BD71">
+        <v>1.27</v>
+      </c>
+      <c r="BE71">
+        <v>10.25</v>
+      </c>
+      <c r="BF71">
+        <v>4.55</v>
+      </c>
+      <c r="BG71">
+        <v>1.36</v>
+      </c>
+      <c r="BH71">
+        <v>2.79</v>
+      </c>
+      <c r="BI71">
+        <v>1.67</v>
+      </c>
+      <c r="BJ71">
+        <v>2.08</v>
+      </c>
+      <c r="BK71">
+        <v>2.11</v>
+      </c>
+      <c r="BL71">
+        <v>1.62</v>
+      </c>
+      <c r="BM71">
+        <v>2.84</v>
+      </c>
+      <c r="BN71">
+        <v>1.35</v>
+      </c>
+      <c r="BO71">
+        <v>3.98</v>
+      </c>
+      <c r="BP71">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7347828</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45413.375</v>
+      </c>
+      <c r="F72">
+        <v>9</v>
+      </c>
+      <c r="G72" t="s">
+        <v>79</v>
+      </c>
+      <c r="H72" t="s">
+        <v>74</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>4</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>4</v>
+      </c>
+      <c r="O72" t="s">
+        <v>129</v>
+      </c>
+      <c r="P72" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q72">
+        <v>1.73</v>
+      </c>
+      <c r="R72">
+        <v>2.6</v>
+      </c>
+      <c r="S72">
+        <v>6.5</v>
+      </c>
+      <c r="T72">
+        <v>1.25</v>
+      </c>
+      <c r="U72">
+        <v>3.45</v>
+      </c>
+      <c r="V72">
+        <v>2.25</v>
+      </c>
+      <c r="W72">
+        <v>1.57</v>
+      </c>
+      <c r="X72">
+        <v>5.25</v>
+      </c>
+      <c r="Y72">
+        <v>1.14</v>
+      </c>
+      <c r="Z72">
+        <v>1.22</v>
+      </c>
+      <c r="AA72">
+        <v>5.8</v>
+      </c>
+      <c r="AB72">
+        <v>10</v>
+      </c>
+      <c r="AC72">
+        <v>1.03</v>
+      </c>
+      <c r="AD72">
+        <v>10</v>
+      </c>
+      <c r="AE72">
+        <v>1.17</v>
+      </c>
+      <c r="AF72">
+        <v>4.75</v>
+      </c>
+      <c r="AG72">
+        <v>1.4</v>
+      </c>
+      <c r="AH72">
+        <v>2.75</v>
+      </c>
+      <c r="AI72">
+        <v>1.85</v>
+      </c>
+      <c r="AJ72">
+        <v>1.8</v>
+      </c>
+      <c r="AK72">
+        <v>1.03</v>
+      </c>
+      <c r="AL72">
+        <v>1.11</v>
+      </c>
+      <c r="AM72">
+        <v>3.3</v>
+      </c>
+      <c r="AN72">
+        <v>2.33</v>
+      </c>
+      <c r="AO72">
+        <v>1.33</v>
+      </c>
+      <c r="AP72">
+        <v>2.5</v>
+      </c>
+      <c r="AQ72">
+        <v>1</v>
+      </c>
+      <c r="AR72">
+        <v>2.16</v>
+      </c>
+      <c r="AS72">
+        <v>1.11</v>
+      </c>
+      <c r="AT72">
+        <v>3.27</v>
+      </c>
+      <c r="AU72">
+        <v>12</v>
+      </c>
+      <c r="AV72">
+        <v>3</v>
+      </c>
+      <c r="AW72">
+        <v>15</v>
+      </c>
+      <c r="AX72">
+        <v>6</v>
+      </c>
+      <c r="AY72">
+        <v>27</v>
+      </c>
+      <c r="AZ72">
+        <v>9</v>
+      </c>
+      <c r="BA72">
+        <v>5</v>
+      </c>
+      <c r="BB72">
+        <v>0</v>
+      </c>
+      <c r="BC72">
+        <v>5</v>
+      </c>
+      <c r="BD72">
+        <v>1.18</v>
+      </c>
+      <c r="BE72">
+        <v>11.75</v>
+      </c>
+      <c r="BF72">
+        <v>5.7</v>
+      </c>
+      <c r="BG72">
+        <v>1.28</v>
+      </c>
+      <c r="BH72">
+        <v>3.2</v>
+      </c>
+      <c r="BI72">
+        <v>1.51</v>
+      </c>
+      <c r="BJ72">
+        <v>2.32</v>
+      </c>
+      <c r="BK72">
+        <v>1.89</v>
+      </c>
+      <c r="BL72">
+        <v>1.81</v>
+      </c>
+      <c r="BM72">
+        <v>2.45</v>
+      </c>
+      <c r="BN72">
+        <v>1.46</v>
+      </c>
+      <c r="BO72">
+        <v>3.34</v>
+      </c>
+      <c r="BP72">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="178">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -406,6 +406,9 @@
     <t>['3', '50', '76', '90+5']</t>
   </si>
   <si>
+    <t>['14']</t>
+  </si>
+  <si>
     <t>['81', '90+3']</t>
   </si>
   <si>
@@ -542,6 +545,9 @@
   </si>
   <si>
     <t>['14', '81']</t>
+  </si>
+  <si>
+    <t>['63', '78']</t>
   </si>
 </sst>
 </file>
@@ -903,7 +909,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP72"/>
+  <dimension ref="A1:BP74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1162,7 +1168,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1368,7 +1374,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -1574,7 +1580,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q4">
         <v>1.9</v>
@@ -1780,7 +1786,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q5">
         <v>2.55</v>
@@ -1986,7 +1992,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2604,7 +2610,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -3222,7 +3228,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -3300,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
         <v>1.25</v>
@@ -3840,7 +3846,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4252,7 +4258,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4333,7 +4339,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ17">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4458,7 +4464,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4664,7 +4670,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5488,7 +5494,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -5569,7 +5575,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ23">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -5694,7 +5700,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5900,7 +5906,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6106,7 +6112,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6312,7 +6318,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -6518,7 +6524,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6596,7 +6602,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ28">
         <v>1.4</v>
@@ -6724,7 +6730,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6805,7 +6811,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ29">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR29">
         <v>1.72</v>
@@ -6930,7 +6936,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7342,7 +7348,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7548,7 +7554,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q33">
         <v>1.73</v>
@@ -7754,7 +7760,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q34">
         <v>6.4</v>
@@ -7960,7 +7966,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q35">
         <v>1.96</v>
@@ -8166,7 +8172,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q36">
         <v>1.98</v>
@@ -8372,7 +8378,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -8578,7 +8584,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q38">
         <v>3.25</v>
@@ -8659,7 +8665,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR38">
         <v>1.05</v>
@@ -9402,7 +9408,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9480,7 +9486,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ42">
         <v>1</v>
@@ -9608,7 +9614,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q43">
         <v>2.3</v>
@@ -9814,7 +9820,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q44">
         <v>4.75</v>
@@ -10226,7 +10232,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10307,7 +10313,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ46">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR46">
         <v>1.97</v>
@@ -10432,7 +10438,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -11050,7 +11056,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11131,7 +11137,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ50">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR50">
         <v>1.28</v>
@@ -11256,7 +11262,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11462,7 +11468,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q52">
         <v>1.83</v>
@@ -11874,7 +11880,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q54">
         <v>7.5</v>
@@ -12158,7 +12164,7 @@
         <v>0.33</v>
       </c>
       <c r="AP55">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ55">
         <v>0.8</v>
@@ -12492,7 +12498,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12698,7 +12704,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q58">
         <v>2.8</v>
@@ -12904,7 +12910,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q59">
         <v>3.15</v>
@@ -12985,7 +12991,7 @@
         <v>1</v>
       </c>
       <c r="AQ59">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR59">
         <v>1.86</v>
@@ -13110,7 +13116,7 @@
         <v>106</v>
       </c>
       <c r="P60" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13316,7 +13322,7 @@
         <v>90</v>
       </c>
       <c r="P61" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13522,7 +13528,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q62">
         <v>3.11</v>
@@ -13728,7 +13734,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q63">
         <v>2.75</v>
@@ -13809,7 +13815,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ63">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR63">
         <v>1.51</v>
@@ -14140,7 +14146,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q65">
         <v>1.8</v>
@@ -14552,7 +14558,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q67">
         <v>2.38</v>
@@ -14758,7 +14764,7 @@
         <v>127</v>
       </c>
       <c r="P68" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15170,7 +15176,7 @@
         <v>90</v>
       </c>
       <c r="P70" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q70">
         <v>5.5</v>
@@ -15376,7 +15382,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q71">
         <v>2.45</v>
@@ -15739,6 +15745,418 @@
       </c>
       <c r="BP72">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7347829</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45416.35763888889</v>
+      </c>
+      <c r="F73">
+        <v>10</v>
+      </c>
+      <c r="G73" t="s">
+        <v>71</v>
+      </c>
+      <c r="H73" t="s">
+        <v>70</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73" t="s">
+        <v>90</v>
+      </c>
+      <c r="P73" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q73">
+        <v>5.5</v>
+      </c>
+      <c r="R73">
+        <v>2.5</v>
+      </c>
+      <c r="S73">
+        <v>1.95</v>
+      </c>
+      <c r="T73">
+        <v>1.29</v>
+      </c>
+      <c r="U73">
+        <v>3.5</v>
+      </c>
+      <c r="V73">
+        <v>2.25</v>
+      </c>
+      <c r="W73">
+        <v>1.57</v>
+      </c>
+      <c r="X73">
+        <v>5.5</v>
+      </c>
+      <c r="Y73">
+        <v>1.14</v>
+      </c>
+      <c r="Z73">
+        <v>5.68</v>
+      </c>
+      <c r="AA73">
+        <v>4.35</v>
+      </c>
+      <c r="AB73">
+        <v>1.45</v>
+      </c>
+      <c r="AC73">
+        <v>1.03</v>
+      </c>
+      <c r="AD73">
+        <v>10</v>
+      </c>
+      <c r="AE73">
+        <v>1.17</v>
+      </c>
+      <c r="AF73">
+        <v>4.75</v>
+      </c>
+      <c r="AG73">
+        <v>1.57</v>
+      </c>
+      <c r="AH73">
+        <v>2.35</v>
+      </c>
+      <c r="AI73">
+        <v>1.75</v>
+      </c>
+      <c r="AJ73">
+        <v>2</v>
+      </c>
+      <c r="AK73">
+        <v>2.6</v>
+      </c>
+      <c r="AL73">
+        <v>1.14</v>
+      </c>
+      <c r="AM73">
+        <v>1.09</v>
+      </c>
+      <c r="AN73">
+        <v>1</v>
+      </c>
+      <c r="AO73">
+        <v>2</v>
+      </c>
+      <c r="AP73">
+        <v>1</v>
+      </c>
+      <c r="AQ73">
+        <v>1.75</v>
+      </c>
+      <c r="AR73">
+        <v>1.06</v>
+      </c>
+      <c r="AS73">
+        <v>1.36</v>
+      </c>
+      <c r="AT73">
+        <v>2.42</v>
+      </c>
+      <c r="AU73">
+        <v>0</v>
+      </c>
+      <c r="AV73">
+        <v>7</v>
+      </c>
+      <c r="AW73">
+        <v>6</v>
+      </c>
+      <c r="AX73">
+        <v>9</v>
+      </c>
+      <c r="AY73">
+        <v>6</v>
+      </c>
+      <c r="AZ73">
+        <v>16</v>
+      </c>
+      <c r="BA73">
+        <v>5</v>
+      </c>
+      <c r="BB73">
+        <v>7</v>
+      </c>
+      <c r="BC73">
+        <v>12</v>
+      </c>
+      <c r="BD73">
+        <v>3.6</v>
+      </c>
+      <c r="BE73">
+        <v>9.5</v>
+      </c>
+      <c r="BF73">
+        <v>1.36</v>
+      </c>
+      <c r="BG73">
+        <v>1.2</v>
+      </c>
+      <c r="BH73">
+        <v>3.9</v>
+      </c>
+      <c r="BI73">
+        <v>1.39</v>
+      </c>
+      <c r="BJ73">
+        <v>2.77</v>
+      </c>
+      <c r="BK73">
+        <v>1.73</v>
+      </c>
+      <c r="BL73">
+        <v>1.99</v>
+      </c>
+      <c r="BM73">
+        <v>2.2</v>
+      </c>
+      <c r="BN73">
+        <v>1.6</v>
+      </c>
+      <c r="BO73">
+        <v>2.95</v>
+      </c>
+      <c r="BP73">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7347830</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45416.375</v>
+      </c>
+      <c r="F74">
+        <v>10</v>
+      </c>
+      <c r="G74" t="s">
+        <v>80</v>
+      </c>
+      <c r="H74" t="s">
+        <v>73</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>2</v>
+      </c>
+      <c r="N74">
+        <v>3</v>
+      </c>
+      <c r="O74" t="s">
+        <v>130</v>
+      </c>
+      <c r="P74" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q74">
+        <v>2.65</v>
+      </c>
+      <c r="R74">
+        <v>2.05</v>
+      </c>
+      <c r="S74">
+        <v>3.9</v>
+      </c>
+      <c r="T74">
+        <v>1.4</v>
+      </c>
+      <c r="U74">
+        <v>2.75</v>
+      </c>
+      <c r="V74">
+        <v>2.8</v>
+      </c>
+      <c r="W74">
+        <v>1.38</v>
+      </c>
+      <c r="X74">
+        <v>7</v>
+      </c>
+      <c r="Y74">
+        <v>1.08</v>
+      </c>
+      <c r="Z74">
+        <v>2.11</v>
+      </c>
+      <c r="AA74">
+        <v>3.3</v>
+      </c>
+      <c r="AB74">
+        <v>3.39</v>
+      </c>
+      <c r="AC74">
+        <v>1.06</v>
+      </c>
+      <c r="AD74">
+        <v>8</v>
+      </c>
+      <c r="AE74">
+        <v>1.3</v>
+      </c>
+      <c r="AF74">
+        <v>3.3</v>
+      </c>
+      <c r="AG74">
+        <v>1.93</v>
+      </c>
+      <c r="AH74">
+        <v>1.83</v>
+      </c>
+      <c r="AI74">
+        <v>1.7</v>
+      </c>
+      <c r="AJ74">
+        <v>1.95</v>
+      </c>
+      <c r="AK74">
+        <v>1.3</v>
+      </c>
+      <c r="AL74">
+        <v>1.28</v>
+      </c>
+      <c r="AM74">
+        <v>1.67</v>
+      </c>
+      <c r="AN74">
+        <v>1.25</v>
+      </c>
+      <c r="AO74">
+        <v>1.8</v>
+      </c>
+      <c r="AP74">
+        <v>1</v>
+      </c>
+      <c r="AQ74">
+        <v>2</v>
+      </c>
+      <c r="AR74">
+        <v>1.58</v>
+      </c>
+      <c r="AS74">
+        <v>1.44</v>
+      </c>
+      <c r="AT74">
+        <v>3.02</v>
+      </c>
+      <c r="AU74">
+        <v>3</v>
+      </c>
+      <c r="AV74">
+        <v>6</v>
+      </c>
+      <c r="AW74">
+        <v>10</v>
+      </c>
+      <c r="AX74">
+        <v>5</v>
+      </c>
+      <c r="AY74">
+        <v>13</v>
+      </c>
+      <c r="AZ74">
+        <v>11</v>
+      </c>
+      <c r="BA74">
+        <v>8</v>
+      </c>
+      <c r="BB74">
+        <v>5</v>
+      </c>
+      <c r="BC74">
+        <v>13</v>
+      </c>
+      <c r="BD74">
+        <v>1.83</v>
+      </c>
+      <c r="BE74">
+        <v>8</v>
+      </c>
+      <c r="BF74">
+        <v>2.25</v>
+      </c>
+      <c r="BG74">
+        <v>1.18</v>
+      </c>
+      <c r="BH74">
+        <v>4.15</v>
+      </c>
+      <c r="BI74">
+        <v>1.46</v>
+      </c>
+      <c r="BJ74">
+        <v>2.52</v>
+      </c>
+      <c r="BK74">
+        <v>1.85</v>
+      </c>
+      <c r="BL74">
+        <v>1.85</v>
+      </c>
+      <c r="BM74">
+        <v>2.37</v>
+      </c>
+      <c r="BN74">
+        <v>1.51</v>
+      </c>
+      <c r="BO74">
+        <v>3.2</v>
+      </c>
+      <c r="BP74">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="185">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -409,18 +409,27 @@
     <t>['14']</t>
   </si>
   <si>
+    <t>['41', '90+10']</t>
+  </si>
+  <si>
+    <t>['42', '45+1', '79', '90+3']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
+    <t>['20']</t>
+  </si>
+  <si>
+    <t>['12', '45+1']</t>
+  </si>
+  <si>
     <t>['81', '90+3']</t>
   </si>
   <si>
     <t>['18']</t>
   </si>
   <si>
-    <t>['20']</t>
-  </si>
-  <si>
-    <t>['67']</t>
-  </si>
-  <si>
     <t>['14', '90+6']</t>
   </si>
   <si>
@@ -548,6 +557,18 @@
   </si>
   <si>
     <t>['63', '78']</t>
+  </si>
+  <si>
+    <t>['7', '60', '72']</t>
+  </si>
+  <si>
+    <t>['29']</t>
+  </si>
+  <si>
+    <t>['52']</t>
+  </si>
+  <si>
+    <t>['27', '29', '45+4', '50', '56', '79']</t>
   </si>
 </sst>
 </file>
@@ -909,7 +930,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP74"/>
+  <dimension ref="A1:BP80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1168,7 +1189,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1249,7 +1270,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1374,7 +1395,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -1580,7 +1601,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q4">
         <v>1.9</v>
@@ -1786,7 +1807,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q5">
         <v>2.55</v>
@@ -1992,7 +2013,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2279,7 +2300,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ7">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2610,7 +2631,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -2688,7 +2709,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ9">
         <v>2.6</v>
@@ -2897,7 +2918,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3100,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ11">
         <v>0.8</v>
@@ -3228,7 +3249,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -3721,7 +3742,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ14">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR14">
         <v>0.7</v>
@@ -3846,7 +3867,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -3924,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -4133,7 +4154,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ16">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR16">
         <v>1.14</v>
@@ -4258,7 +4279,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4336,7 +4357,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ17">
         <v>2</v>
@@ -4464,7 +4485,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4542,7 +4563,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ18">
         <v>1</v>
@@ -4670,7 +4691,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -4748,7 +4769,7 @@
         <v>2</v>
       </c>
       <c r="AP19">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ19">
         <v>2.33</v>
@@ -5163,7 +5184,7 @@
         <v>1</v>
       </c>
       <c r="AQ21">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR21">
         <v>0.99</v>
@@ -5494,7 +5515,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -5700,7 +5721,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5906,7 +5927,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -5984,10 +6005,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR25">
         <v>0.67</v>
@@ -6112,7 +6133,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6190,7 +6211,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -6318,7 +6339,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -6524,7 +6545,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6730,7 +6751,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6936,7 +6957,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7014,10 +7035,10 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ30">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7220,7 +7241,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ31">
         <v>1.25</v>
@@ -7348,7 +7369,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7429,7 +7450,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ32">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR32">
         <v>1.5</v>
@@ -7554,7 +7575,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q33">
         <v>1.73</v>
@@ -7760,7 +7781,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q34">
         <v>6.4</v>
@@ -7838,10 +7859,10 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ34">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR34">
         <v>1</v>
@@ -7966,7 +7987,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q35">
         <v>1.96</v>
@@ -8172,7 +8193,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q36">
         <v>1.98</v>
@@ -8250,7 +8271,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ36">
         <v>1.4</v>
@@ -8378,7 +8399,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -8456,7 +8477,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ37">
         <v>1</v>
@@ -8584,7 +8605,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q38">
         <v>3.25</v>
@@ -8871,7 +8892,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR39">
         <v>1.09</v>
@@ -9077,7 +9098,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR40">
         <v>1.36</v>
@@ -9280,10 +9301,10 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ41">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR41">
         <v>0.89</v>
@@ -9408,7 +9429,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9614,7 +9635,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q43">
         <v>2.3</v>
@@ -9692,7 +9713,7 @@
         <v>2.33</v>
       </c>
       <c r="AP43">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ43">
         <v>2.33</v>
@@ -9820,7 +9841,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q44">
         <v>4.75</v>
@@ -9901,7 +9922,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ44">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR44">
         <v>1.03</v>
@@ -10232,7 +10253,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10438,7 +10459,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10725,7 +10746,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ48">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR48">
         <v>1.33</v>
@@ -10928,7 +10949,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ49">
         <v>1</v>
@@ -11056,7 +11077,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11262,7 +11283,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11468,7 +11489,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q52">
         <v>1.83</v>
@@ -11752,10 +11773,10 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ53">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR53">
         <v>1.78</v>
@@ -11880,7 +11901,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q54">
         <v>7.5</v>
@@ -11958,7 +11979,7 @@
         <v>3</v>
       </c>
       <c r="AP54">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ54">
         <v>2.6</v>
@@ -12167,7 +12188,7 @@
         <v>1</v>
       </c>
       <c r="AQ55">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR55">
         <v>1.53</v>
@@ -12370,7 +12391,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ56">
         <v>0.8</v>
@@ -12498,7 +12519,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12704,7 +12725,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q58">
         <v>2.8</v>
@@ -12782,10 +12803,10 @@
         <v>0.25</v>
       </c>
       <c r="AP58">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ58">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR58">
         <v>1.44</v>
@@ -12910,7 +12931,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q59">
         <v>3.15</v>
@@ -12988,7 +13009,7 @@
         <v>2.25</v>
       </c>
       <c r="AP59">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ59">
         <v>2</v>
@@ -13116,7 +13137,7 @@
         <v>106</v>
       </c>
       <c r="P60" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13322,7 +13343,7 @@
         <v>90</v>
       </c>
       <c r="P61" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13528,7 +13549,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q62">
         <v>3.11</v>
@@ -13734,7 +13755,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q63">
         <v>2.75</v>
@@ -14146,7 +14167,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q65">
         <v>1.8</v>
@@ -14558,7 +14579,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q67">
         <v>2.38</v>
@@ -14764,7 +14785,7 @@
         <v>127</v>
       </c>
       <c r="P68" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -14842,7 +14863,7 @@
         <v>0.75</v>
       </c>
       <c r="AP68">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ68">
         <v>0.8</v>
@@ -15176,7 +15197,7 @@
         <v>90</v>
       </c>
       <c r="P70" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q70">
         <v>5.5</v>
@@ -15257,7 +15278,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ70">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR70">
         <v>1.34</v>
@@ -15382,7 +15403,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q71">
         <v>2.45</v>
@@ -15666,7 +15687,7 @@
         <v>1.33</v>
       </c>
       <c r="AP72">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ72">
         <v>1</v>
@@ -16000,7 +16021,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q74">
         <v>2.65</v>
@@ -16156,6 +16177,1242 @@
         <v>3.2</v>
       </c>
       <c r="BP74">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7347831</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45417.1875</v>
+      </c>
+      <c r="F75">
+        <v>10</v>
+      </c>
+      <c r="G75" t="s">
+        <v>81</v>
+      </c>
+      <c r="H75" t="s">
+        <v>84</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>2</v>
+      </c>
+      <c r="L75">
+        <v>2</v>
+      </c>
+      <c r="M75">
+        <v>3</v>
+      </c>
+      <c r="N75">
+        <v>5</v>
+      </c>
+      <c r="O75" t="s">
+        <v>131</v>
+      </c>
+      <c r="P75" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q75">
+        <v>3.1</v>
+      </c>
+      <c r="R75">
+        <v>2.05</v>
+      </c>
+      <c r="S75">
+        <v>3.75</v>
+      </c>
+      <c r="T75">
+        <v>1.44</v>
+      </c>
+      <c r="U75">
+        <v>2.63</v>
+      </c>
+      <c r="V75">
+        <v>3.4</v>
+      </c>
+      <c r="W75">
+        <v>1.3</v>
+      </c>
+      <c r="X75">
+        <v>10</v>
+      </c>
+      <c r="Y75">
+        <v>1.06</v>
+      </c>
+      <c r="Z75">
+        <v>2.23</v>
+      </c>
+      <c r="AA75">
+        <v>3.2</v>
+      </c>
+      <c r="AB75">
+        <v>2.99</v>
+      </c>
+      <c r="AC75">
+        <v>1.06</v>
+      </c>
+      <c r="AD75">
+        <v>8</v>
+      </c>
+      <c r="AE75">
+        <v>1.38</v>
+      </c>
+      <c r="AF75">
+        <v>2.9</v>
+      </c>
+      <c r="AG75">
+        <v>2.02</v>
+      </c>
+      <c r="AH75">
+        <v>1.71</v>
+      </c>
+      <c r="AI75">
+        <v>1.95</v>
+      </c>
+      <c r="AJ75">
+        <v>1.8</v>
+      </c>
+      <c r="AK75">
+        <v>1.36</v>
+      </c>
+      <c r="AL75">
+        <v>1.28</v>
+      </c>
+      <c r="AM75">
+        <v>1.57</v>
+      </c>
+      <c r="AN75">
+        <v>0.75</v>
+      </c>
+      <c r="AO75">
+        <v>1</v>
+      </c>
+      <c r="AP75">
+        <v>0.6</v>
+      </c>
+      <c r="AQ75">
+        <v>1.4</v>
+      </c>
+      <c r="AR75">
+        <v>1</v>
+      </c>
+      <c r="AS75">
+        <v>0.83</v>
+      </c>
+      <c r="AT75">
+        <v>1.83</v>
+      </c>
+      <c r="AU75">
+        <v>5</v>
+      </c>
+      <c r="AV75">
+        <v>4</v>
+      </c>
+      <c r="AW75">
+        <v>3</v>
+      </c>
+      <c r="AX75">
+        <v>4</v>
+      </c>
+      <c r="AY75">
+        <v>8</v>
+      </c>
+      <c r="AZ75">
+        <v>8</v>
+      </c>
+      <c r="BA75">
+        <v>0</v>
+      </c>
+      <c r="BB75">
+        <v>2</v>
+      </c>
+      <c r="BC75">
+        <v>2</v>
+      </c>
+      <c r="BD75">
+        <v>1.5</v>
+      </c>
+      <c r="BE75">
+        <v>8.5</v>
+      </c>
+      <c r="BF75">
+        <v>3.1</v>
+      </c>
+      <c r="BG75">
+        <v>1.3</v>
+      </c>
+      <c r="BH75">
+        <v>3.3</v>
+      </c>
+      <c r="BI75">
+        <v>1.48</v>
+      </c>
+      <c r="BJ75">
+        <v>2.47</v>
+      </c>
+      <c r="BK75">
+        <v>1.85</v>
+      </c>
+      <c r="BL75">
+        <v>1.85</v>
+      </c>
+      <c r="BM75">
+        <v>2.37</v>
+      </c>
+      <c r="BN75">
+        <v>1.51</v>
+      </c>
+      <c r="BO75">
+        <v>3.2</v>
+      </c>
+      <c r="BP75">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7347832</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45417.29166666666</v>
+      </c>
+      <c r="F76">
+        <v>10</v>
+      </c>
+      <c r="G76" t="s">
+        <v>79</v>
+      </c>
+      <c r="H76" t="s">
+        <v>76</v>
+      </c>
+      <c r="I76">
+        <v>2</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>2</v>
+      </c>
+      <c r="L76">
+        <v>4</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>4</v>
+      </c>
+      <c r="O76" t="s">
+        <v>132</v>
+      </c>
+      <c r="P76" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q76">
+        <v>2.2</v>
+      </c>
+      <c r="R76">
+        <v>2.38</v>
+      </c>
+      <c r="S76">
+        <v>5.5</v>
+      </c>
+      <c r="T76">
+        <v>1.33</v>
+      </c>
+      <c r="U76">
+        <v>3.25</v>
+      </c>
+      <c r="V76">
+        <v>2.63</v>
+      </c>
+      <c r="W76">
+        <v>1.44</v>
+      </c>
+      <c r="X76">
+        <v>6.5</v>
+      </c>
+      <c r="Y76">
+        <v>1.11</v>
+      </c>
+      <c r="Z76">
+        <v>1.52</v>
+      </c>
+      <c r="AA76">
+        <v>4.1</v>
+      </c>
+      <c r="AB76">
+        <v>5.18</v>
+      </c>
+      <c r="AC76">
+        <v>1.04</v>
+      </c>
+      <c r="AD76">
+        <v>9</v>
+      </c>
+      <c r="AE76">
+        <v>1.22</v>
+      </c>
+      <c r="AF76">
+        <v>3.9</v>
+      </c>
+      <c r="AG76">
+        <v>1.59</v>
+      </c>
+      <c r="AH76">
+        <v>2.21</v>
+      </c>
+      <c r="AI76">
+        <v>1.8</v>
+      </c>
+      <c r="AJ76">
+        <v>1.95</v>
+      </c>
+      <c r="AK76">
+        <v>1.11</v>
+      </c>
+      <c r="AL76">
+        <v>1.2</v>
+      </c>
+      <c r="AM76">
+        <v>2.3</v>
+      </c>
+      <c r="AN76">
+        <v>2.5</v>
+      </c>
+      <c r="AO76">
+        <v>1</v>
+      </c>
+      <c r="AP76">
+        <v>2.6</v>
+      </c>
+      <c r="AQ76">
+        <v>0.75</v>
+      </c>
+      <c r="AR76">
+        <v>2.43</v>
+      </c>
+      <c r="AS76">
+        <v>1.64</v>
+      </c>
+      <c r="AT76">
+        <v>4.07</v>
+      </c>
+      <c r="AU76">
+        <v>11</v>
+      </c>
+      <c r="AV76">
+        <v>0</v>
+      </c>
+      <c r="AW76">
+        <v>9</v>
+      </c>
+      <c r="AX76">
+        <v>10</v>
+      </c>
+      <c r="AY76">
+        <v>20</v>
+      </c>
+      <c r="AZ76">
+        <v>10</v>
+      </c>
+      <c r="BA76">
+        <v>7</v>
+      </c>
+      <c r="BB76">
+        <v>2</v>
+      </c>
+      <c r="BC76">
+        <v>9</v>
+      </c>
+      <c r="BD76">
+        <v>1.62</v>
+      </c>
+      <c r="BE76">
+        <v>8</v>
+      </c>
+      <c r="BF76">
+        <v>2.62</v>
+      </c>
+      <c r="BG76">
+        <v>1.3</v>
+      </c>
+      <c r="BH76">
+        <v>3.3</v>
+      </c>
+      <c r="BI76">
+        <v>1.51</v>
+      </c>
+      <c r="BJ76">
+        <v>2.37</v>
+      </c>
+      <c r="BK76">
+        <v>2</v>
+      </c>
+      <c r="BL76">
+        <v>1.8</v>
+      </c>
+      <c r="BM76">
+        <v>2.47</v>
+      </c>
+      <c r="BN76">
+        <v>1.48</v>
+      </c>
+      <c r="BO76">
+        <v>3.2</v>
+      </c>
+      <c r="BP76">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7347833</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45417.33333333334</v>
+      </c>
+      <c r="F77">
+        <v>10</v>
+      </c>
+      <c r="G77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H77" t="s">
+        <v>74</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>2</v>
+      </c>
+      <c r="O77" t="s">
+        <v>133</v>
+      </c>
+      <c r="P77" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q77">
+        <v>3.4</v>
+      </c>
+      <c r="R77">
+        <v>2.2</v>
+      </c>
+      <c r="S77">
+        <v>3.1</v>
+      </c>
+      <c r="T77">
+        <v>1.4</v>
+      </c>
+      <c r="U77">
+        <v>2.75</v>
+      </c>
+      <c r="V77">
+        <v>2.75</v>
+      </c>
+      <c r="W77">
+        <v>1.4</v>
+      </c>
+      <c r="X77">
+        <v>8</v>
+      </c>
+      <c r="Y77">
+        <v>1.08</v>
+      </c>
+      <c r="Z77">
+        <v>2.3</v>
+      </c>
+      <c r="AA77">
+        <v>3.3</v>
+      </c>
+      <c r="AB77">
+        <v>2.8</v>
+      </c>
+      <c r="AC77">
+        <v>1.05</v>
+      </c>
+      <c r="AD77">
+        <v>8.5</v>
+      </c>
+      <c r="AE77">
+        <v>1.28</v>
+      </c>
+      <c r="AF77">
+        <v>3.4</v>
+      </c>
+      <c r="AG77">
+        <v>1.85</v>
+      </c>
+      <c r="AH77">
+        <v>1.85</v>
+      </c>
+      <c r="AI77">
+        <v>1.7</v>
+      </c>
+      <c r="AJ77">
+        <v>2.05</v>
+      </c>
+      <c r="AK77">
+        <v>1.51</v>
+      </c>
+      <c r="AL77">
+        <v>1.31</v>
+      </c>
+      <c r="AM77">
+        <v>1.46</v>
+      </c>
+      <c r="AN77">
+        <v>0.5</v>
+      </c>
+      <c r="AO77">
+        <v>1</v>
+      </c>
+      <c r="AP77">
+        <v>0.6</v>
+      </c>
+      <c r="AQ77">
+        <v>1</v>
+      </c>
+      <c r="AR77">
+        <v>1.1</v>
+      </c>
+      <c r="AS77">
+        <v>1.04</v>
+      </c>
+      <c r="AT77">
+        <v>2.14</v>
+      </c>
+      <c r="AU77">
+        <v>7</v>
+      </c>
+      <c r="AV77">
+        <v>3</v>
+      </c>
+      <c r="AW77">
+        <v>9</v>
+      </c>
+      <c r="AX77">
+        <v>7</v>
+      </c>
+      <c r="AY77">
+        <v>16</v>
+      </c>
+      <c r="AZ77">
+        <v>10</v>
+      </c>
+      <c r="BA77">
+        <v>8</v>
+      </c>
+      <c r="BB77">
+        <v>2</v>
+      </c>
+      <c r="BC77">
+        <v>10</v>
+      </c>
+      <c r="BD77">
+        <v>2.1</v>
+      </c>
+      <c r="BE77">
+        <v>8</v>
+      </c>
+      <c r="BF77">
+        <v>1.91</v>
+      </c>
+      <c r="BG77">
+        <v>1.3</v>
+      </c>
+      <c r="BH77">
+        <v>3.3</v>
+      </c>
+      <c r="BI77">
+        <v>1.5</v>
+      </c>
+      <c r="BJ77">
+        <v>2.4</v>
+      </c>
+      <c r="BK77">
+        <v>1.9</v>
+      </c>
+      <c r="BL77">
+        <v>1.9</v>
+      </c>
+      <c r="BM77">
+        <v>2.4</v>
+      </c>
+      <c r="BN77">
+        <v>1.5</v>
+      </c>
+      <c r="BO77">
+        <v>3.2</v>
+      </c>
+      <c r="BP77">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7347834</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45417.35763888889</v>
+      </c>
+      <c r="F78">
+        <v>10</v>
+      </c>
+      <c r="G78" t="s">
+        <v>83</v>
+      </c>
+      <c r="H78" t="s">
+        <v>78</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78" t="s">
+        <v>134</v>
+      </c>
+      <c r="P78" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q78">
+        <v>2.38</v>
+      </c>
+      <c r="R78">
+        <v>2.3</v>
+      </c>
+      <c r="S78">
+        <v>4.5</v>
+      </c>
+      <c r="T78">
+        <v>1.33</v>
+      </c>
+      <c r="U78">
+        <v>3.25</v>
+      </c>
+      <c r="V78">
+        <v>2.63</v>
+      </c>
+      <c r="W78">
+        <v>1.44</v>
+      </c>
+      <c r="X78">
+        <v>6.5</v>
+      </c>
+      <c r="Y78">
+        <v>1.11</v>
+      </c>
+      <c r="Z78">
+        <v>1.67</v>
+      </c>
+      <c r="AA78">
+        <v>3.8</v>
+      </c>
+      <c r="AB78">
+        <v>4.29</v>
+      </c>
+      <c r="AC78">
+        <v>1.04</v>
+      </c>
+      <c r="AD78">
+        <v>14.25</v>
+      </c>
+      <c r="AE78">
+        <v>1.24</v>
+      </c>
+      <c r="AF78">
+        <v>4.17</v>
+      </c>
+      <c r="AG78">
+        <v>1.7</v>
+      </c>
+      <c r="AH78">
+        <v>2.03</v>
+      </c>
+      <c r="AI78">
+        <v>1.7</v>
+      </c>
+      <c r="AJ78">
+        <v>2.05</v>
+      </c>
+      <c r="AK78">
+        <v>1.18</v>
+      </c>
+      <c r="AL78">
+        <v>1.22</v>
+      </c>
+      <c r="AM78">
+        <v>2.1</v>
+      </c>
+      <c r="AN78">
+        <v>1</v>
+      </c>
+      <c r="AO78">
+        <v>0.8</v>
+      </c>
+      <c r="AP78">
+        <v>1.4</v>
+      </c>
+      <c r="AQ78">
+        <v>0.67</v>
+      </c>
+      <c r="AR78">
+        <v>1.72</v>
+      </c>
+      <c r="AS78">
+        <v>1.26</v>
+      </c>
+      <c r="AT78">
+        <v>2.98</v>
+      </c>
+      <c r="AU78">
+        <v>11</v>
+      </c>
+      <c r="AV78">
+        <v>6</v>
+      </c>
+      <c r="AW78">
+        <v>7</v>
+      </c>
+      <c r="AX78">
+        <v>3</v>
+      </c>
+      <c r="AY78">
+        <v>18</v>
+      </c>
+      <c r="AZ78">
+        <v>9</v>
+      </c>
+      <c r="BA78">
+        <v>8</v>
+      </c>
+      <c r="BB78">
+        <v>2</v>
+      </c>
+      <c r="BC78">
+        <v>10</v>
+      </c>
+      <c r="BD78">
+        <v>1.62</v>
+      </c>
+      <c r="BE78">
+        <v>8</v>
+      </c>
+      <c r="BF78">
+        <v>2.75</v>
+      </c>
+      <c r="BG78">
+        <v>1.29</v>
+      </c>
+      <c r="BH78">
+        <v>3.3</v>
+      </c>
+      <c r="BI78">
+        <v>1.49</v>
+      </c>
+      <c r="BJ78">
+        <v>2.56</v>
+      </c>
+      <c r="BK78">
+        <v>1.95</v>
+      </c>
+      <c r="BL78">
+        <v>1.85</v>
+      </c>
+      <c r="BM78">
+        <v>2.31</v>
+      </c>
+      <c r="BN78">
+        <v>1.59</v>
+      </c>
+      <c r="BO78">
+        <v>3.1</v>
+      </c>
+      <c r="BP78">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7347835</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45417.35763888889</v>
+      </c>
+      <c r="F79">
+        <v>10</v>
+      </c>
+      <c r="G79" t="s">
+        <v>85</v>
+      </c>
+      <c r="H79" t="s">
+        <v>75</v>
+      </c>
+      <c r="I79">
+        <v>2</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>2</v>
+      </c>
+      <c r="L79">
+        <v>2</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>3</v>
+      </c>
+      <c r="O79" t="s">
+        <v>135</v>
+      </c>
+      <c r="P79" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q79">
+        <v>3.25</v>
+      </c>
+      <c r="R79">
+        <v>2.05</v>
+      </c>
+      <c r="S79">
+        <v>3.6</v>
+      </c>
+      <c r="T79">
+        <v>1.44</v>
+      </c>
+      <c r="U79">
+        <v>2.63</v>
+      </c>
+      <c r="V79">
+        <v>3.4</v>
+      </c>
+      <c r="W79">
+        <v>1.3</v>
+      </c>
+      <c r="X79">
+        <v>10</v>
+      </c>
+      <c r="Y79">
+        <v>1.06</v>
+      </c>
+      <c r="Z79">
+        <v>2.28</v>
+      </c>
+      <c r="AA79">
+        <v>3.2</v>
+      </c>
+      <c r="AB79">
+        <v>2.91</v>
+      </c>
+      <c r="AC79">
+        <v>1.06</v>
+      </c>
+      <c r="AD79">
+        <v>8</v>
+      </c>
+      <c r="AE79">
+        <v>1.36</v>
+      </c>
+      <c r="AF79">
+        <v>2.95</v>
+      </c>
+      <c r="AG79">
+        <v>1.85</v>
+      </c>
+      <c r="AH79">
+        <v>1.85</v>
+      </c>
+      <c r="AI79">
+        <v>1.95</v>
+      </c>
+      <c r="AJ79">
+        <v>1.8</v>
+      </c>
+      <c r="AK79">
+        <v>1.42</v>
+      </c>
+      <c r="AL79">
+        <v>1.28</v>
+      </c>
+      <c r="AM79">
+        <v>1.5</v>
+      </c>
+      <c r="AN79">
+        <v>1.33</v>
+      </c>
+      <c r="AO79">
+        <v>2</v>
+      </c>
+      <c r="AP79">
+        <v>1.75</v>
+      </c>
+      <c r="AQ79">
+        <v>1.5</v>
+      </c>
+      <c r="AR79">
+        <v>2.06</v>
+      </c>
+      <c r="AS79">
+        <v>1.65</v>
+      </c>
+      <c r="AT79">
+        <v>3.71</v>
+      </c>
+      <c r="AU79">
+        <v>5</v>
+      </c>
+      <c r="AV79">
+        <v>5</v>
+      </c>
+      <c r="AW79">
+        <v>3</v>
+      </c>
+      <c r="AX79">
+        <v>10</v>
+      </c>
+      <c r="AY79">
+        <v>8</v>
+      </c>
+      <c r="AZ79">
+        <v>15</v>
+      </c>
+      <c r="BA79">
+        <v>2</v>
+      </c>
+      <c r="BB79">
+        <v>4</v>
+      </c>
+      <c r="BC79">
+        <v>6</v>
+      </c>
+      <c r="BD79">
+        <v>1.8</v>
+      </c>
+      <c r="BE79">
+        <v>8</v>
+      </c>
+      <c r="BF79">
+        <v>2.38</v>
+      </c>
+      <c r="BG79">
+        <v>1.3</v>
+      </c>
+      <c r="BH79">
+        <v>3.3</v>
+      </c>
+      <c r="BI79">
+        <v>1.46</v>
+      </c>
+      <c r="BJ79">
+        <v>2.52</v>
+      </c>
+      <c r="BK79">
+        <v>1.92</v>
+      </c>
+      <c r="BL79">
+        <v>1.88</v>
+      </c>
+      <c r="BM79">
+        <v>2.37</v>
+      </c>
+      <c r="BN79">
+        <v>1.51</v>
+      </c>
+      <c r="BO79">
+        <v>3.2</v>
+      </c>
+      <c r="BP79">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7347836</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45417.375</v>
+      </c>
+      <c r="F80">
+        <v>10</v>
+      </c>
+      <c r="G80" t="s">
+        <v>82</v>
+      </c>
+      <c r="H80" t="s">
+        <v>72</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>3</v>
+      </c>
+      <c r="K80">
+        <v>3</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>6</v>
+      </c>
+      <c r="N80">
+        <v>6</v>
+      </c>
+      <c r="O80" t="s">
+        <v>90</v>
+      </c>
+      <c r="P80" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q80">
+        <v>6</v>
+      </c>
+      <c r="R80">
+        <v>2.5</v>
+      </c>
+      <c r="S80">
+        <v>1.91</v>
+      </c>
+      <c r="T80">
+        <v>1.29</v>
+      </c>
+      <c r="U80">
+        <v>3.5</v>
+      </c>
+      <c r="V80">
+        <v>2.25</v>
+      </c>
+      <c r="W80">
+        <v>1.57</v>
+      </c>
+      <c r="X80">
+        <v>5.5</v>
+      </c>
+      <c r="Y80">
+        <v>1.14</v>
+      </c>
+      <c r="Z80">
+        <v>6.02</v>
+      </c>
+      <c r="AA80">
+        <v>4.34</v>
+      </c>
+      <c r="AB80">
+        <v>1.4</v>
+      </c>
+      <c r="AC80">
+        <v>1.03</v>
+      </c>
+      <c r="AD80">
+        <v>10</v>
+      </c>
+      <c r="AE80">
+        <v>1.18</v>
+      </c>
+      <c r="AF80">
+        <v>4.5</v>
+      </c>
+      <c r="AG80">
+        <v>1.57</v>
+      </c>
+      <c r="AH80">
+        <v>2.35</v>
+      </c>
+      <c r="AI80">
+        <v>1.75</v>
+      </c>
+      <c r="AJ80">
+        <v>2</v>
+      </c>
+      <c r="AK80">
+        <v>2.75</v>
+      </c>
+      <c r="AL80">
+        <v>1.14</v>
+      </c>
+      <c r="AM80">
+        <v>1.07</v>
+      </c>
+      <c r="AN80">
+        <v>0.5</v>
+      </c>
+      <c r="AO80">
+        <v>2</v>
+      </c>
+      <c r="AP80">
+        <v>0.4</v>
+      </c>
+      <c r="AQ80">
+        <v>2.2</v>
+      </c>
+      <c r="AR80">
+        <v>1.55</v>
+      </c>
+      <c r="AS80">
+        <v>1.99</v>
+      </c>
+      <c r="AT80">
+        <v>3.54</v>
+      </c>
+      <c r="AU80">
+        <v>2</v>
+      </c>
+      <c r="AV80">
+        <v>10</v>
+      </c>
+      <c r="AW80">
+        <v>1</v>
+      </c>
+      <c r="AX80">
+        <v>11</v>
+      </c>
+      <c r="AY80">
+        <v>3</v>
+      </c>
+      <c r="AZ80">
+        <v>21</v>
+      </c>
+      <c r="BA80">
+        <v>9</v>
+      </c>
+      <c r="BB80">
+        <v>13</v>
+      </c>
+      <c r="BC80">
+        <v>22</v>
+      </c>
+      <c r="BD80">
+        <v>3.75</v>
+      </c>
+      <c r="BE80">
+        <v>9</v>
+      </c>
+      <c r="BF80">
+        <v>1.36</v>
+      </c>
+      <c r="BG80">
+        <v>1.32</v>
+      </c>
+      <c r="BH80">
+        <v>3.2</v>
+      </c>
+      <c r="BI80">
+        <v>1.49</v>
+      </c>
+      <c r="BJ80">
+        <v>2.45</v>
+      </c>
+      <c r="BK80">
+        <v>1.98</v>
+      </c>
+      <c r="BL80">
+        <v>1.82</v>
+      </c>
+      <c r="BM80">
+        <v>2.47</v>
+      </c>
+      <c r="BN80">
+        <v>1.48</v>
+      </c>
+      <c r="BO80">
+        <v>3.3</v>
+      </c>
+      <c r="BP80">
         <v>1.3</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="191">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -424,6 +424,15 @@
     <t>['12', '45+1']</t>
   </si>
   <si>
+    <t>['69', '79']</t>
+  </si>
+  <si>
+    <t>['5', '39', '45+2', '90+5']</t>
+  </si>
+  <si>
+    <t>['10', '26', '44', '49', '72']</t>
+  </si>
+  <si>
     <t>['81', '90+3']</t>
   </si>
   <si>
@@ -569,6 +578,15 @@
   </si>
   <si>
     <t>['27', '29', '45+4', '50', '56', '79']</t>
+  </si>
+  <si>
+    <t>['90', '90+9']</t>
+  </si>
+  <si>
+    <t>['21', '38']</t>
+  </si>
+  <si>
+    <t>['32', '58']</t>
   </si>
 </sst>
 </file>
@@ -930,7 +948,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP80"/>
+  <dimension ref="A1:BP83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1189,7 +1207,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1270,7 +1288,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ2">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1395,7 +1413,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -1476,7 +1494,7 @@
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1679,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -2013,7 +2031,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2297,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ7">
         <v>0.67</v>
@@ -2631,7 +2649,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -2915,10 +2933,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ10">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3249,7 +3267,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -3867,7 +3885,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4279,7 +4297,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4485,7 +4503,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4691,7 +4709,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -4975,7 +4993,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -5387,10 +5405,10 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR22">
         <v>2.37</v>
@@ -5515,7 +5533,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -5721,7 +5739,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5927,7 +5945,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6133,7 +6151,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6339,7 +6357,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -6545,7 +6563,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6751,7 +6769,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6829,7 +6847,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ29">
         <v>1.75</v>
@@ -6957,7 +6975,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7369,7 +7387,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7575,7 +7593,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q33">
         <v>1.73</v>
@@ -7781,7 +7799,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q34">
         <v>6.4</v>
@@ -7987,7 +8005,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q35">
         <v>1.96</v>
@@ -8068,7 +8086,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR35">
         <v>1.8</v>
@@ -8193,7 +8211,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q36">
         <v>1.98</v>
@@ -8399,7 +8417,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -8605,7 +8623,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q38">
         <v>3.25</v>
@@ -8892,7 +8910,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ39">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR39">
         <v>1.09</v>
@@ -9095,7 +9113,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ40">
         <v>0.75</v>
@@ -9429,7 +9447,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9635,7 +9653,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q43">
         <v>2.3</v>
@@ -9841,7 +9859,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q44">
         <v>4.75</v>
@@ -10253,7 +10271,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10331,7 +10349,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ46">
         <v>1.75</v>
@@ -10459,7 +10477,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10743,7 +10761,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ48">
         <v>0.75</v>
@@ -11077,7 +11095,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11283,7 +11301,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11489,7 +11507,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q52">
         <v>1.83</v>
@@ -11567,7 +11585,7 @@
         <v>2</v>
       </c>
       <c r="AP52">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ52">
         <v>1.4</v>
@@ -11776,7 +11794,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ53">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR53">
         <v>1.78</v>
@@ -11901,7 +11919,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q54">
         <v>7.5</v>
@@ -12519,7 +12537,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12725,7 +12743,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q58">
         <v>2.8</v>
@@ -12931,7 +12949,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q59">
         <v>3.15</v>
@@ -13137,7 +13155,7 @@
         <v>106</v>
       </c>
       <c r="P60" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13343,7 +13361,7 @@
         <v>90</v>
       </c>
       <c r="P61" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13549,7 +13567,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q62">
         <v>3.11</v>
@@ -13630,7 +13648,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ62">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR62">
         <v>1.2</v>
@@ -13755,7 +13773,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q63">
         <v>2.75</v>
@@ -13833,7 +13851,7 @@
         <v>1.5</v>
       </c>
       <c r="AP63">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ63">
         <v>1.75</v>
@@ -14039,7 +14057,7 @@
         <v>3</v>
       </c>
       <c r="AP64">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ64">
         <v>2.6</v>
@@ -14167,7 +14185,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q65">
         <v>1.8</v>
@@ -14579,7 +14597,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q67">
         <v>2.38</v>
@@ -14660,7 +14678,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ67">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR67">
         <v>1.71</v>
@@ -14785,7 +14803,7 @@
         <v>127</v>
       </c>
       <c r="P68" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15197,7 +15215,7 @@
         <v>90</v>
       </c>
       <c r="P70" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q70">
         <v>5.5</v>
@@ -15275,7 +15293,7 @@
         <v>1.67</v>
       </c>
       <c r="AP70">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ70">
         <v>2.2</v>
@@ -15403,7 +15421,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q71">
         <v>2.45</v>
@@ -15481,7 +15499,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ71">
         <v>1</v>
@@ -16021,7 +16039,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q74">
         <v>2.65</v>
@@ -16227,7 +16245,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -16308,7 +16326,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ75">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR75">
         <v>1</v>
@@ -16639,7 +16657,7 @@
         <v>133</v>
       </c>
       <c r="P77" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17051,7 +17069,7 @@
         <v>135</v>
       </c>
       <c r="P79" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17257,7 +17275,7 @@
         <v>90</v>
       </c>
       <c r="P80" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -17414,6 +17432,624 @@
       </c>
       <c r="BP80">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7347837</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45422.33333333334</v>
+      </c>
+      <c r="F81">
+        <v>11</v>
+      </c>
+      <c r="G81" t="s">
+        <v>78</v>
+      </c>
+      <c r="H81" t="s">
+        <v>81</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>2</v>
+      </c>
+      <c r="M81">
+        <v>2</v>
+      </c>
+      <c r="N81">
+        <v>4</v>
+      </c>
+      <c r="O81" t="s">
+        <v>136</v>
+      </c>
+      <c r="P81" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q81">
+        <v>3.2</v>
+      </c>
+      <c r="R81">
+        <v>2.1</v>
+      </c>
+      <c r="S81">
+        <v>3.4</v>
+      </c>
+      <c r="T81">
+        <v>1.4</v>
+      </c>
+      <c r="U81">
+        <v>2.75</v>
+      </c>
+      <c r="V81">
+        <v>2.75</v>
+      </c>
+      <c r="W81">
+        <v>1.4</v>
+      </c>
+      <c r="X81">
+        <v>8</v>
+      </c>
+      <c r="Y81">
+        <v>1.08</v>
+      </c>
+      <c r="Z81">
+        <v>2.25</v>
+      </c>
+      <c r="AA81">
+        <v>3.1</v>
+      </c>
+      <c r="AB81">
+        <v>2.8</v>
+      </c>
+      <c r="AC81">
+        <v>1.05</v>
+      </c>
+      <c r="AD81">
+        <v>8.5</v>
+      </c>
+      <c r="AE81">
+        <v>1.28</v>
+      </c>
+      <c r="AF81">
+        <v>3.4</v>
+      </c>
+      <c r="AG81">
+        <v>1.91</v>
+      </c>
+      <c r="AH81">
+        <v>1.73</v>
+      </c>
+      <c r="AI81">
+        <v>1.7</v>
+      </c>
+      <c r="AJ81">
+        <v>2.05</v>
+      </c>
+      <c r="AK81">
+        <v>1.45</v>
+      </c>
+      <c r="AL81">
+        <v>1.28</v>
+      </c>
+      <c r="AM81">
+        <v>1.5</v>
+      </c>
+      <c r="AN81">
+        <v>0.75</v>
+      </c>
+      <c r="AO81">
+        <v>1</v>
+      </c>
+      <c r="AP81">
+        <v>0.8</v>
+      </c>
+      <c r="AQ81">
+        <v>1</v>
+      </c>
+      <c r="AR81">
+        <v>1.34</v>
+      </c>
+      <c r="AS81">
+        <v>1.22</v>
+      </c>
+      <c r="AT81">
+        <v>2.56</v>
+      </c>
+      <c r="AU81">
+        <v>-1</v>
+      </c>
+      <c r="AV81">
+        <v>-1</v>
+      </c>
+      <c r="AW81">
+        <v>-1</v>
+      </c>
+      <c r="AX81">
+        <v>-1</v>
+      </c>
+      <c r="AY81">
+        <v>-1</v>
+      </c>
+      <c r="AZ81">
+        <v>-1</v>
+      </c>
+      <c r="BA81">
+        <v>-1</v>
+      </c>
+      <c r="BB81">
+        <v>-1</v>
+      </c>
+      <c r="BC81">
+        <v>-1</v>
+      </c>
+      <c r="BD81">
+        <v>2.38</v>
+      </c>
+      <c r="BE81">
+        <v>8</v>
+      </c>
+      <c r="BF81">
+        <v>1.8</v>
+      </c>
+      <c r="BG81">
+        <v>1.32</v>
+      </c>
+      <c r="BH81">
+        <v>3.2</v>
+      </c>
+      <c r="BI81">
+        <v>1.48</v>
+      </c>
+      <c r="BJ81">
+        <v>2.47</v>
+      </c>
+      <c r="BK81">
+        <v>2</v>
+      </c>
+      <c r="BL81">
+        <v>1.8</v>
+      </c>
+      <c r="BM81">
+        <v>2.47</v>
+      </c>
+      <c r="BN81">
+        <v>1.48</v>
+      </c>
+      <c r="BO81">
+        <v>3.3</v>
+      </c>
+      <c r="BP81">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7347838</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45422.35763888889</v>
+      </c>
+      <c r="F82">
+        <v>11</v>
+      </c>
+      <c r="G82" t="s">
+        <v>75</v>
+      </c>
+      <c r="H82" t="s">
+        <v>80</v>
+      </c>
+      <c r="I82">
+        <v>3</v>
+      </c>
+      <c r="J82">
+        <v>2</v>
+      </c>
+      <c r="K82">
+        <v>5</v>
+      </c>
+      <c r="L82">
+        <v>4</v>
+      </c>
+      <c r="M82">
+        <v>2</v>
+      </c>
+      <c r="N82">
+        <v>6</v>
+      </c>
+      <c r="O82" t="s">
+        <v>137</v>
+      </c>
+      <c r="P82" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q82">
+        <v>1.91</v>
+      </c>
+      <c r="R82">
+        <v>2.4</v>
+      </c>
+      <c r="S82">
+        <v>7</v>
+      </c>
+      <c r="T82">
+        <v>1.33</v>
+      </c>
+      <c r="U82">
+        <v>3.25</v>
+      </c>
+      <c r="V82">
+        <v>2.5</v>
+      </c>
+      <c r="W82">
+        <v>1.5</v>
+      </c>
+      <c r="X82">
+        <v>6.5</v>
+      </c>
+      <c r="Y82">
+        <v>1.11</v>
+      </c>
+      <c r="Z82">
+        <v>1.39</v>
+      </c>
+      <c r="AA82">
+        <v>4.11</v>
+      </c>
+      <c r="AB82">
+        <v>6.83</v>
+      </c>
+      <c r="AC82">
+        <v>1.04</v>
+      </c>
+      <c r="AD82">
+        <v>9</v>
+      </c>
+      <c r="AE82">
+        <v>1.22</v>
+      </c>
+      <c r="AF82">
+        <v>3.95</v>
+      </c>
+      <c r="AG82">
+        <v>1.7</v>
+      </c>
+      <c r="AH82">
+        <v>2.1</v>
+      </c>
+      <c r="AI82">
+        <v>1.95</v>
+      </c>
+      <c r="AJ82">
+        <v>1.8</v>
+      </c>
+      <c r="AK82">
+        <v>1.04</v>
+      </c>
+      <c r="AL82">
+        <v>1.17</v>
+      </c>
+      <c r="AM82">
+        <v>2.85</v>
+      </c>
+      <c r="AN82">
+        <v>2.17</v>
+      </c>
+      <c r="AO82">
+        <v>1</v>
+      </c>
+      <c r="AP82">
+        <v>2.29</v>
+      </c>
+      <c r="AQ82">
+        <v>0.83</v>
+      </c>
+      <c r="AR82">
+        <v>1.62</v>
+      </c>
+      <c r="AS82">
+        <v>1.41</v>
+      </c>
+      <c r="AT82">
+        <v>3.03</v>
+      </c>
+      <c r="AU82">
+        <v>7</v>
+      </c>
+      <c r="AV82">
+        <v>5</v>
+      </c>
+      <c r="AW82">
+        <v>5</v>
+      </c>
+      <c r="AX82">
+        <v>4</v>
+      </c>
+      <c r="AY82">
+        <v>12</v>
+      </c>
+      <c r="AZ82">
+        <v>9</v>
+      </c>
+      <c r="BA82">
+        <v>7</v>
+      </c>
+      <c r="BB82">
+        <v>3</v>
+      </c>
+      <c r="BC82">
+        <v>10</v>
+      </c>
+      <c r="BD82">
+        <v>1.29</v>
+      </c>
+      <c r="BE82">
+        <v>10</v>
+      </c>
+      <c r="BF82">
+        <v>4.33</v>
+      </c>
+      <c r="BG82">
+        <v>1.3</v>
+      </c>
+      <c r="BH82">
+        <v>3.3</v>
+      </c>
+      <c r="BI82">
+        <v>1.46</v>
+      </c>
+      <c r="BJ82">
+        <v>2.52</v>
+      </c>
+      <c r="BK82">
+        <v>1.95</v>
+      </c>
+      <c r="BL82">
+        <v>1.85</v>
+      </c>
+      <c r="BM82">
+        <v>2.37</v>
+      </c>
+      <c r="BN82">
+        <v>1.51</v>
+      </c>
+      <c r="BO82">
+        <v>3.2</v>
+      </c>
+      <c r="BP82">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7347839</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45422.375</v>
+      </c>
+      <c r="F83">
+        <v>11</v>
+      </c>
+      <c r="G83" t="s">
+        <v>72</v>
+      </c>
+      <c r="H83" t="s">
+        <v>84</v>
+      </c>
+      <c r="I83">
+        <v>3</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>4</v>
+      </c>
+      <c r="L83">
+        <v>5</v>
+      </c>
+      <c r="M83">
+        <v>2</v>
+      </c>
+      <c r="N83">
+        <v>7</v>
+      </c>
+      <c r="O83" t="s">
+        <v>138</v>
+      </c>
+      <c r="P83" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q83">
+        <v>1.62</v>
+      </c>
+      <c r="R83">
+        <v>2.88</v>
+      </c>
+      <c r="S83">
+        <v>9.5</v>
+      </c>
+      <c r="T83">
+        <v>1.25</v>
+      </c>
+      <c r="U83">
+        <v>3.75</v>
+      </c>
+      <c r="V83">
+        <v>2.25</v>
+      </c>
+      <c r="W83">
+        <v>1.57</v>
+      </c>
+      <c r="X83">
+        <v>5.5</v>
+      </c>
+      <c r="Y83">
+        <v>1.14</v>
+      </c>
+      <c r="Z83">
+        <v>1.18</v>
+      </c>
+      <c r="AA83">
+        <v>6</v>
+      </c>
+      <c r="AB83">
+        <v>10</v>
+      </c>
+      <c r="AC83">
+        <v>1.02</v>
+      </c>
+      <c r="AD83">
+        <v>26</v>
+      </c>
+      <c r="AE83">
+        <v>1.2</v>
+      </c>
+      <c r="AF83">
+        <v>4.67</v>
+      </c>
+      <c r="AG83">
+        <v>1.44</v>
+      </c>
+      <c r="AH83">
+        <v>2.59</v>
+      </c>
+      <c r="AI83">
+        <v>2.25</v>
+      </c>
+      <c r="AJ83">
+        <v>1.57</v>
+      </c>
+      <c r="AK83">
+        <v>1.04</v>
+      </c>
+      <c r="AL83">
+        <v>1.07</v>
+      </c>
+      <c r="AM83">
+        <v>3.55</v>
+      </c>
+      <c r="AN83">
+        <v>2.5</v>
+      </c>
+      <c r="AO83">
+        <v>1.4</v>
+      </c>
+      <c r="AP83">
+        <v>2.6</v>
+      </c>
+      <c r="AQ83">
+        <v>1.17</v>
+      </c>
+      <c r="AR83">
+        <v>1.9</v>
+      </c>
+      <c r="AS83">
+        <v>0.85</v>
+      </c>
+      <c r="AT83">
+        <v>2.75</v>
+      </c>
+      <c r="AU83">
+        <v>9</v>
+      </c>
+      <c r="AV83">
+        <v>6</v>
+      </c>
+      <c r="AW83">
+        <v>11</v>
+      </c>
+      <c r="AX83">
+        <v>8</v>
+      </c>
+      <c r="AY83">
+        <v>20</v>
+      </c>
+      <c r="AZ83">
+        <v>14</v>
+      </c>
+      <c r="BA83">
+        <v>4</v>
+      </c>
+      <c r="BB83">
+        <v>2</v>
+      </c>
+      <c r="BC83">
+        <v>6</v>
+      </c>
+      <c r="BD83">
+        <v>1.11</v>
+      </c>
+      <c r="BE83">
+        <v>12</v>
+      </c>
+      <c r="BF83">
+        <v>7.5</v>
+      </c>
+      <c r="BG83">
+        <v>1.31</v>
+      </c>
+      <c r="BH83">
+        <v>3.15</v>
+      </c>
+      <c r="BI83">
+        <v>1.52</v>
+      </c>
+      <c r="BJ83">
+        <v>2.35</v>
+      </c>
+      <c r="BK83">
+        <v>1.99</v>
+      </c>
+      <c r="BL83">
+        <v>1.73</v>
+      </c>
+      <c r="BM83">
+        <v>2.6</v>
+      </c>
+      <c r="BN83">
+        <v>1.44</v>
+      </c>
+      <c r="BO83">
+        <v>3.2</v>
+      </c>
+      <c r="BP83">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="194">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -433,6 +433,9 @@
     <t>['10', '26', '44', '49', '72']</t>
   </si>
   <si>
+    <t>['76', '82', '84']</t>
+  </si>
+  <si>
     <t>['81', '90+3']</t>
   </si>
   <si>
@@ -587,6 +590,12 @@
   </si>
   <si>
     <t>['32', '58']</t>
+  </si>
+  <si>
+    <t>['25', '59']</t>
+  </si>
+  <si>
+    <t>['19', '45+1']</t>
   </si>
 </sst>
 </file>
@@ -948,7 +957,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP83"/>
+  <dimension ref="A1:BP86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1207,7 +1216,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1413,7 +1422,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -1903,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -2031,7 +2040,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2649,7 +2658,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -2730,7 +2739,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ9">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3267,7 +3276,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -3348,7 +3357,7 @@
         <v>1</v>
       </c>
       <c r="AQ12">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3885,7 +3894,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4297,7 +4306,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4503,7 +4512,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4709,7 +4718,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -4787,7 +4796,7 @@
         <v>2</v>
       </c>
       <c r="AP19">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ19">
         <v>2.33</v>
@@ -5533,7 +5542,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -5739,7 +5748,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5820,7 +5829,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ24">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AR24">
         <v>1.89</v>
@@ -5945,7 +5954,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6151,7 +6160,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6229,7 +6238,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -6357,7 +6366,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -6438,7 +6447,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ27">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AR27">
         <v>1.22</v>
@@ -6563,7 +6572,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6769,7 +6778,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6850,7 +6859,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ29">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR29">
         <v>1.72</v>
@@ -6975,7 +6984,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7053,7 +7062,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ30">
         <v>2.2</v>
@@ -7262,7 +7271,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ31">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR31">
         <v>1.04</v>
@@ -7387,7 +7396,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7465,7 +7474,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ32">
         <v>1.5</v>
@@ -7593,7 +7602,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q33">
         <v>1.73</v>
@@ -7799,7 +7808,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q34">
         <v>6.4</v>
@@ -8005,7 +8014,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q35">
         <v>1.96</v>
@@ -8211,7 +8220,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q36">
         <v>1.98</v>
@@ -8289,7 +8298,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ36">
         <v>1.4</v>
@@ -8417,7 +8426,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -8623,7 +8632,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q38">
         <v>3.25</v>
@@ -9447,7 +9456,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9653,7 +9662,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q43">
         <v>2.3</v>
@@ -9859,7 +9868,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q44">
         <v>4.75</v>
@@ -10143,10 +10152,10 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ45">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR45">
         <v>1.43</v>
@@ -10271,7 +10280,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10352,7 +10361,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ46">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR46">
         <v>1.97</v>
@@ -10477,7 +10486,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -11095,7 +11104,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11301,7 +11310,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11507,7 +11516,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q52">
         <v>1.83</v>
@@ -11791,7 +11800,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ53">
         <v>1.17</v>
@@ -11919,7 +11928,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q54">
         <v>7.5</v>
@@ -12000,7 +12009,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ54">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AR54">
         <v>0.95</v>
@@ -12409,7 +12418,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ56">
         <v>0.8</v>
@@ -12537,7 +12546,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12743,7 +12752,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q58">
         <v>2.8</v>
@@ -12949,7 +12958,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q59">
         <v>3.15</v>
@@ -13027,7 +13036,7 @@
         <v>2.25</v>
       </c>
       <c r="AP59">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ59">
         <v>2</v>
@@ -13155,7 +13164,7 @@
         <v>106</v>
       </c>
       <c r="P60" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13361,7 +13370,7 @@
         <v>90</v>
       </c>
       <c r="P61" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13442,7 +13451,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ61">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR61">
         <v>0.98</v>
@@ -13567,7 +13576,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q62">
         <v>3.11</v>
@@ -13773,7 +13782,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q63">
         <v>2.75</v>
@@ -13854,7 +13863,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ63">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR63">
         <v>1.51</v>
@@ -14060,7 +14069,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ64">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AR64">
         <v>2.2</v>
@@ -14185,7 +14194,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q65">
         <v>1.8</v>
@@ -14469,7 +14478,7 @@
         <v>2.2</v>
       </c>
       <c r="AP66">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ66">
         <v>2.33</v>
@@ -14597,7 +14606,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q67">
         <v>2.38</v>
@@ -14803,7 +14812,7 @@
         <v>127</v>
       </c>
       <c r="P68" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15215,7 +15224,7 @@
         <v>90</v>
       </c>
       <c r="P70" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q70">
         <v>5.5</v>
@@ -15421,7 +15430,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q71">
         <v>2.45</v>
@@ -15914,7 +15923,7 @@
         <v>1</v>
       </c>
       <c r="AQ73">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR73">
         <v>1.06</v>
@@ -16039,7 +16048,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q74">
         <v>2.65</v>
@@ -16245,7 +16254,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -16657,7 +16666,7 @@
         <v>133</v>
       </c>
       <c r="P77" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -16941,7 +16950,7 @@
         <v>0.8</v>
       </c>
       <c r="AP78">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ78">
         <v>0.67</v>
@@ -17069,7 +17078,7 @@
         <v>135</v>
       </c>
       <c r="P79" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17147,7 +17156,7 @@
         <v>2</v>
       </c>
       <c r="AP79">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ79">
         <v>1.5</v>
@@ -17275,7 +17284,7 @@
         <v>90</v>
       </c>
       <c r="P80" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -17481,7 +17490,7 @@
         <v>136</v>
       </c>
       <c r="P81" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17574,31 +17583,31 @@
         <v>2.56</v>
       </c>
       <c r="AU81">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV81">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW81">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX81">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY81">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AZ81">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BA81">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BB81">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BC81">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BD81">
         <v>2.38</v>
@@ -17687,7 +17696,7 @@
         <v>137</v>
       </c>
       <c r="P82" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q82">
         <v>1.91</v>
@@ -17893,7 +17902,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q83">
         <v>1.62</v>
@@ -18050,6 +18059,624 @@
       </c>
       <c r="BP83">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7347840</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45423.33333333334</v>
+      </c>
+      <c r="F84">
+        <v>11</v>
+      </c>
+      <c r="G84" t="s">
+        <v>73</v>
+      </c>
+      <c r="H84" t="s">
+        <v>79</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84" t="s">
+        <v>90</v>
+      </c>
+      <c r="P84" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q84">
+        <v>6</v>
+      </c>
+      <c r="R84">
+        <v>2.2</v>
+      </c>
+      <c r="S84">
+        <v>2.05</v>
+      </c>
+      <c r="T84">
+        <v>1.38</v>
+      </c>
+      <c r="U84">
+        <v>2.8</v>
+      </c>
+      <c r="V84">
+        <v>2.8</v>
+      </c>
+      <c r="W84">
+        <v>1.38</v>
+      </c>
+      <c r="X84">
+        <v>6.5</v>
+      </c>
+      <c r="Y84">
+        <v>1.08</v>
+      </c>
+      <c r="Z84">
+        <v>5.5</v>
+      </c>
+      <c r="AA84">
+        <v>3.75</v>
+      </c>
+      <c r="AB84">
+        <v>1.5</v>
+      </c>
+      <c r="AC84">
+        <v>1.06</v>
+      </c>
+      <c r="AD84">
+        <v>11.25</v>
+      </c>
+      <c r="AE84">
+        <v>1.31</v>
+      </c>
+      <c r="AF84">
+        <v>3.48</v>
+      </c>
+      <c r="AG84">
+        <v>1.8</v>
+      </c>
+      <c r="AH84">
+        <v>1.93</v>
+      </c>
+      <c r="AI84">
+        <v>2</v>
+      </c>
+      <c r="AJ84">
+        <v>1.72</v>
+      </c>
+      <c r="AK84">
+        <v>2.4</v>
+      </c>
+      <c r="AL84">
+        <v>1.25</v>
+      </c>
+      <c r="AM84">
+        <v>1.14</v>
+      </c>
+      <c r="AN84">
+        <v>0.5</v>
+      </c>
+      <c r="AO84">
+        <v>2.6</v>
+      </c>
+      <c r="AP84">
+        <v>0.6</v>
+      </c>
+      <c r="AQ84">
+        <v>2.33</v>
+      </c>
+      <c r="AR84">
+        <v>1.89</v>
+      </c>
+      <c r="AS84">
+        <v>1.63</v>
+      </c>
+      <c r="AT84">
+        <v>3.52</v>
+      </c>
+      <c r="AU84">
+        <v>0</v>
+      </c>
+      <c r="AV84">
+        <v>5</v>
+      </c>
+      <c r="AW84">
+        <v>2</v>
+      </c>
+      <c r="AX84">
+        <v>6</v>
+      </c>
+      <c r="AY84">
+        <v>2</v>
+      </c>
+      <c r="AZ84">
+        <v>11</v>
+      </c>
+      <c r="BA84">
+        <v>2</v>
+      </c>
+      <c r="BB84">
+        <v>4</v>
+      </c>
+      <c r="BC84">
+        <v>6</v>
+      </c>
+      <c r="BD84">
+        <v>3.6</v>
+      </c>
+      <c r="BE84">
+        <v>9</v>
+      </c>
+      <c r="BF84">
+        <v>1.4</v>
+      </c>
+      <c r="BG84">
+        <v>1.16</v>
+      </c>
+      <c r="BH84">
+        <v>4.3</v>
+      </c>
+      <c r="BI84">
+        <v>1.46</v>
+      </c>
+      <c r="BJ84">
+        <v>2.52</v>
+      </c>
+      <c r="BK84">
+        <v>2</v>
+      </c>
+      <c r="BL84">
+        <v>1.8</v>
+      </c>
+      <c r="BM84">
+        <v>2.37</v>
+      </c>
+      <c r="BN84">
+        <v>1.51</v>
+      </c>
+      <c r="BO84">
+        <v>3.2</v>
+      </c>
+      <c r="BP84">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7347841</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45423.35763888889</v>
+      </c>
+      <c r="F85">
+        <v>11</v>
+      </c>
+      <c r="G85" t="s">
+        <v>83</v>
+      </c>
+      <c r="H85" t="s">
+        <v>70</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>2</v>
+      </c>
+      <c r="N85">
+        <v>3</v>
+      </c>
+      <c r="O85" t="s">
+        <v>99</v>
+      </c>
+      <c r="P85" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q85">
+        <v>3.75</v>
+      </c>
+      <c r="R85">
+        <v>2.25</v>
+      </c>
+      <c r="S85">
+        <v>2.75</v>
+      </c>
+      <c r="T85">
+        <v>1.33</v>
+      </c>
+      <c r="U85">
+        <v>3.25</v>
+      </c>
+      <c r="V85">
+        <v>2.63</v>
+      </c>
+      <c r="W85">
+        <v>1.44</v>
+      </c>
+      <c r="X85">
+        <v>6.5</v>
+      </c>
+      <c r="Y85">
+        <v>1.11</v>
+      </c>
+      <c r="Z85">
+        <v>3.7</v>
+      </c>
+      <c r="AA85">
+        <v>3.5</v>
+      </c>
+      <c r="AB85">
+        <v>1.75</v>
+      </c>
+      <c r="AC85">
+        <v>1.06</v>
+      </c>
+      <c r="AD85">
+        <v>10.5</v>
+      </c>
+      <c r="AE85">
+        <v>1.32</v>
+      </c>
+      <c r="AF85">
+        <v>3.4</v>
+      </c>
+      <c r="AG85">
+        <v>1.7</v>
+      </c>
+      <c r="AH85">
+        <v>2.05</v>
+      </c>
+      <c r="AI85">
+        <v>1.62</v>
+      </c>
+      <c r="AJ85">
+        <v>2.2</v>
+      </c>
+      <c r="AK85">
+        <v>1.48</v>
+      </c>
+      <c r="AL85">
+        <v>1.35</v>
+      </c>
+      <c r="AM85">
+        <v>1.48</v>
+      </c>
+      <c r="AN85">
+        <v>1.4</v>
+      </c>
+      <c r="AO85">
+        <v>1.75</v>
+      </c>
+      <c r="AP85">
+        <v>1.17</v>
+      </c>
+      <c r="AQ85">
+        <v>2</v>
+      </c>
+      <c r="AR85">
+        <v>1.84</v>
+      </c>
+      <c r="AS85">
+        <v>1.52</v>
+      </c>
+      <c r="AT85">
+        <v>3.36</v>
+      </c>
+      <c r="AU85">
+        <v>5</v>
+      </c>
+      <c r="AV85">
+        <v>8</v>
+      </c>
+      <c r="AW85">
+        <v>4</v>
+      </c>
+      <c r="AX85">
+        <v>4</v>
+      </c>
+      <c r="AY85">
+        <v>9</v>
+      </c>
+      <c r="AZ85">
+        <v>12</v>
+      </c>
+      <c r="BA85">
+        <v>4</v>
+      </c>
+      <c r="BB85">
+        <v>6</v>
+      </c>
+      <c r="BC85">
+        <v>10</v>
+      </c>
+      <c r="BD85">
+        <v>2.4</v>
+      </c>
+      <c r="BE85">
+        <v>8</v>
+      </c>
+      <c r="BF85">
+        <v>1.73</v>
+      </c>
+      <c r="BG85">
+        <v>1.29</v>
+      </c>
+      <c r="BH85">
+        <v>3.14</v>
+      </c>
+      <c r="BI85">
+        <v>1.48</v>
+      </c>
+      <c r="BJ85">
+        <v>2.47</v>
+      </c>
+      <c r="BK85">
+        <v>2</v>
+      </c>
+      <c r="BL85">
+        <v>1.8</v>
+      </c>
+      <c r="BM85">
+        <v>2.47</v>
+      </c>
+      <c r="BN85">
+        <v>1.48</v>
+      </c>
+      <c r="BO85">
+        <v>3.48</v>
+      </c>
+      <c r="BP85">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7347842</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45423.375</v>
+      </c>
+      <c r="F86">
+        <v>11</v>
+      </c>
+      <c r="G86" t="s">
+        <v>85</v>
+      </c>
+      <c r="H86" t="s">
+        <v>77</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>2</v>
+      </c>
+      <c r="K86">
+        <v>2</v>
+      </c>
+      <c r="L86">
+        <v>3</v>
+      </c>
+      <c r="M86">
+        <v>2</v>
+      </c>
+      <c r="N86">
+        <v>5</v>
+      </c>
+      <c r="O86" t="s">
+        <v>139</v>
+      </c>
+      <c r="P86" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q86">
+        <v>1.83</v>
+      </c>
+      <c r="R86">
+        <v>2.5</v>
+      </c>
+      <c r="S86">
+        <v>7.5</v>
+      </c>
+      <c r="T86">
+        <v>1.33</v>
+      </c>
+      <c r="U86">
+        <v>3.25</v>
+      </c>
+      <c r="V86">
+        <v>2.63</v>
+      </c>
+      <c r="W86">
+        <v>1.44</v>
+      </c>
+      <c r="X86">
+        <v>6.5</v>
+      </c>
+      <c r="Y86">
+        <v>1.11</v>
+      </c>
+      <c r="Z86">
+        <v>1.2</v>
+      </c>
+      <c r="AA86">
+        <v>5.25</v>
+      </c>
+      <c r="AB86">
+        <v>10.5</v>
+      </c>
+      <c r="AC86">
+        <v>1.04</v>
+      </c>
+      <c r="AD86">
+        <v>14</v>
+      </c>
+      <c r="AE86">
+        <v>1.24</v>
+      </c>
+      <c r="AF86">
+        <v>4.05</v>
+      </c>
+      <c r="AG86">
+        <v>1.62</v>
+      </c>
+      <c r="AH86">
+        <v>2.2</v>
+      </c>
+      <c r="AI86">
+        <v>2.05</v>
+      </c>
+      <c r="AJ86">
+        <v>1.7</v>
+      </c>
+      <c r="AK86">
+        <v>1.11</v>
+      </c>
+      <c r="AL86">
+        <v>1.2</v>
+      </c>
+      <c r="AM86">
+        <v>2.75</v>
+      </c>
+      <c r="AN86">
+        <v>1.75</v>
+      </c>
+      <c r="AO86">
+        <v>1.25</v>
+      </c>
+      <c r="AP86">
+        <v>2</v>
+      </c>
+      <c r="AQ86">
+        <v>1</v>
+      </c>
+      <c r="AR86">
+        <v>1.8</v>
+      </c>
+      <c r="AS86">
+        <v>0.92</v>
+      </c>
+      <c r="AT86">
+        <v>2.72</v>
+      </c>
+      <c r="AU86">
+        <v>10</v>
+      </c>
+      <c r="AV86">
+        <v>4</v>
+      </c>
+      <c r="AW86">
+        <v>8</v>
+      </c>
+      <c r="AX86">
+        <v>2</v>
+      </c>
+      <c r="AY86">
+        <v>18</v>
+      </c>
+      <c r="AZ86">
+        <v>6</v>
+      </c>
+      <c r="BA86">
+        <v>10</v>
+      </c>
+      <c r="BB86">
+        <v>0</v>
+      </c>
+      <c r="BC86">
+        <v>10</v>
+      </c>
+      <c r="BD86">
+        <v>1.18</v>
+      </c>
+      <c r="BE86">
+        <v>11</v>
+      </c>
+      <c r="BF86">
+        <v>5.5</v>
+      </c>
+      <c r="BG86">
+        <v>1.22</v>
+      </c>
+      <c r="BH86">
+        <v>3.64</v>
+      </c>
+      <c r="BI86">
+        <v>1.44</v>
+      </c>
+      <c r="BJ86">
+        <v>2.6</v>
+      </c>
+      <c r="BK86">
+        <v>1.9</v>
+      </c>
+      <c r="BL86">
+        <v>1.9</v>
+      </c>
+      <c r="BM86">
+        <v>2.32</v>
+      </c>
+      <c r="BN86">
+        <v>1.54</v>
+      </c>
+      <c r="BO86">
+        <v>3.1</v>
+      </c>
+      <c r="BP86">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -18613,31 +18613,31 @@
         <v>2.72</v>
       </c>
       <c r="AU86">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="AV86">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AW86">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AX86">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AY86">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="AZ86">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BA86">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="BB86">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BC86">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="BD86">
         <v>1.18</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="197">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -436,6 +436,9 @@
     <t>['76', '82', '84']</t>
   </si>
   <si>
+    <t>['17']</t>
+  </si>
+  <si>
     <t>['81', '90+3']</t>
   </si>
   <si>
@@ -596,6 +599,12 @@
   </si>
   <si>
     <t>['19', '45+1']</t>
+  </si>
+  <si>
+    <t>['77']</t>
+  </si>
+  <si>
+    <t>['15', '65']</t>
   </si>
 </sst>
 </file>
@@ -957,7 +966,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP86"/>
+  <dimension ref="A1:BP88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1216,7 +1225,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1422,7 +1431,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -2040,7 +2049,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2118,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ6">
         <v>2.33</v>
@@ -2658,7 +2667,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -3151,7 +3160,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ11">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3276,7 +3285,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -3894,7 +3903,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4178,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ16">
         <v>1.5</v>
@@ -4306,7 +4315,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4384,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ17">
         <v>2</v>
@@ -4512,7 +4521,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4590,7 +4599,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ18">
         <v>1</v>
@@ -4718,7 +4727,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5542,7 +5551,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -5748,7 +5757,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5954,7 +5963,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6035,7 +6044,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ25">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR25">
         <v>0.67</v>
@@ -6160,7 +6169,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6366,7 +6375,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -6572,7 +6581,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6778,7 +6787,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6984,7 +6993,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7396,7 +7405,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7602,7 +7611,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q33">
         <v>1.73</v>
@@ -7683,7 +7692,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ33">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR33">
         <v>0.79</v>
@@ -7808,7 +7817,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q34">
         <v>6.4</v>
@@ -8014,7 +8023,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q35">
         <v>1.96</v>
@@ -8220,7 +8229,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q36">
         <v>1.98</v>
@@ -8426,7 +8435,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -8632,7 +8641,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q38">
         <v>3.25</v>
@@ -8916,7 +8925,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ39">
         <v>1.17</v>
@@ -9125,7 +9134,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ40">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR40">
         <v>1.36</v>
@@ -9456,7 +9465,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9662,7 +9671,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q43">
         <v>2.3</v>
@@ -9868,7 +9877,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q44">
         <v>4.75</v>
@@ -10280,7 +10289,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10486,7 +10495,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10564,10 +10573,10 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ47">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR47">
         <v>1.03</v>
@@ -10773,7 +10782,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ48">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR48">
         <v>1.33</v>
@@ -10976,7 +10985,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ49">
         <v>1</v>
@@ -11104,7 +11113,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11310,7 +11319,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11516,7 +11525,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q52">
         <v>1.83</v>
@@ -11928,7 +11937,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q54">
         <v>7.5</v>
@@ -12421,7 +12430,7 @@
         <v>2</v>
       </c>
       <c r="AQ56">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR56">
         <v>1.29</v>
@@ -12546,7 +12555,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12752,7 +12761,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q58">
         <v>2.8</v>
@@ -12830,7 +12839,7 @@
         <v>0.25</v>
       </c>
       <c r="AP58">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ58">
         <v>0.67</v>
@@ -12958,7 +12967,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q59">
         <v>3.15</v>
@@ -13164,7 +13173,7 @@
         <v>106</v>
       </c>
       <c r="P60" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13370,7 +13379,7 @@
         <v>90</v>
       </c>
       <c r="P61" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13576,7 +13585,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q62">
         <v>3.11</v>
@@ -13654,7 +13663,7 @@
         <v>0.67</v>
       </c>
       <c r="AP62">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ62">
         <v>0.83</v>
@@ -13782,7 +13791,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q63">
         <v>2.75</v>
@@ -14194,7 +14203,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q65">
         <v>1.8</v>
@@ -14606,7 +14615,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q67">
         <v>2.38</v>
@@ -14812,7 +14821,7 @@
         <v>127</v>
       </c>
       <c r="P68" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -14893,7 +14902,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ68">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR68">
         <v>1.05</v>
@@ -15224,7 +15233,7 @@
         <v>90</v>
       </c>
       <c r="P70" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q70">
         <v>5.5</v>
@@ -15430,7 +15439,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q71">
         <v>2.45</v>
@@ -16048,7 +16057,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q74">
         <v>2.65</v>
@@ -16254,7 +16263,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -16541,7 +16550,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ76">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR76">
         <v>2.43</v>
@@ -16666,7 +16675,7 @@
         <v>133</v>
       </c>
       <c r="P77" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17078,7 +17087,7 @@
         <v>135</v>
       </c>
       <c r="P79" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17284,7 +17293,7 @@
         <v>90</v>
       </c>
       <c r="P80" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -17362,7 +17371,7 @@
         <v>2</v>
       </c>
       <c r="AP80">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ80">
         <v>2.2</v>
@@ -17490,7 +17499,7 @@
         <v>136</v>
       </c>
       <c r="P81" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17696,7 +17705,7 @@
         <v>137</v>
       </c>
       <c r="P82" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q82">
         <v>1.91</v>
@@ -17902,7 +17911,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q83">
         <v>1.62</v>
@@ -18314,7 +18323,7 @@
         <v>99</v>
       </c>
       <c r="P85" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18520,7 +18529,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q86">
         <v>1.83</v>
@@ -18613,31 +18622,31 @@
         <v>2.72</v>
       </c>
       <c r="AU86">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AV86">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW86">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AX86">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY86">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="AZ86">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BA86">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BB86">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BC86">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD86">
         <v>1.18</v>
@@ -18677,6 +18686,418 @@
       </c>
       <c r="BP86">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7347843</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45424.35763888889</v>
+      </c>
+      <c r="F87">
+        <v>11</v>
+      </c>
+      <c r="G87" t="s">
+        <v>74</v>
+      </c>
+      <c r="H87" t="s">
+        <v>76</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87" t="s">
+        <v>90</v>
+      </c>
+      <c r="P87" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q87">
+        <v>4</v>
+      </c>
+      <c r="R87">
+        <v>2.38</v>
+      </c>
+      <c r="S87">
+        <v>2.5</v>
+      </c>
+      <c r="T87">
+        <v>1.3</v>
+      </c>
+      <c r="U87">
+        <v>3.4</v>
+      </c>
+      <c r="V87">
+        <v>2.5</v>
+      </c>
+      <c r="W87">
+        <v>1.5</v>
+      </c>
+      <c r="X87">
+        <v>6</v>
+      </c>
+      <c r="Y87">
+        <v>1.13</v>
+      </c>
+      <c r="Z87">
+        <v>3.84</v>
+      </c>
+      <c r="AA87">
+        <v>3.64</v>
+      </c>
+      <c r="AB87">
+        <v>1.86</v>
+      </c>
+      <c r="AC87">
+        <v>1.04</v>
+      </c>
+      <c r="AD87">
+        <v>15.25</v>
+      </c>
+      <c r="AE87">
+        <v>1.2</v>
+      </c>
+      <c r="AF87">
+        <v>4.58</v>
+      </c>
+      <c r="AG87">
+        <v>1.65</v>
+      </c>
+      <c r="AH87">
+        <v>2.2</v>
+      </c>
+      <c r="AI87">
+        <v>1.57</v>
+      </c>
+      <c r="AJ87">
+        <v>2.25</v>
+      </c>
+      <c r="AK87">
+        <v>1.82</v>
+      </c>
+      <c r="AL87">
+        <v>1.3</v>
+      </c>
+      <c r="AM87">
+        <v>1.28</v>
+      </c>
+      <c r="AN87">
+        <v>1.8</v>
+      </c>
+      <c r="AO87">
+        <v>0.75</v>
+      </c>
+      <c r="AP87">
+        <v>1.5</v>
+      </c>
+      <c r="AQ87">
+        <v>1.2</v>
+      </c>
+      <c r="AR87">
+        <v>1.16</v>
+      </c>
+      <c r="AS87">
+        <v>1.49</v>
+      </c>
+      <c r="AT87">
+        <v>2.65</v>
+      </c>
+      <c r="AU87">
+        <v>0</v>
+      </c>
+      <c r="AV87">
+        <v>7</v>
+      </c>
+      <c r="AW87">
+        <v>6</v>
+      </c>
+      <c r="AX87">
+        <v>15</v>
+      </c>
+      <c r="AY87">
+        <v>6</v>
+      </c>
+      <c r="AZ87">
+        <v>22</v>
+      </c>
+      <c r="BA87">
+        <v>3</v>
+      </c>
+      <c r="BB87">
+        <v>6</v>
+      </c>
+      <c r="BC87">
+        <v>9</v>
+      </c>
+      <c r="BD87">
+        <v>2.05</v>
+      </c>
+      <c r="BE87">
+        <v>8</v>
+      </c>
+      <c r="BF87">
+        <v>2</v>
+      </c>
+      <c r="BG87">
+        <v>1.22</v>
+      </c>
+      <c r="BH87">
+        <v>3.65</v>
+      </c>
+      <c r="BI87">
+        <v>1.43</v>
+      </c>
+      <c r="BJ87">
+        <v>2.54</v>
+      </c>
+      <c r="BK87">
+        <v>1.8</v>
+      </c>
+      <c r="BL87">
+        <v>2</v>
+      </c>
+      <c r="BM87">
+        <v>2.23</v>
+      </c>
+      <c r="BN87">
+        <v>1.55</v>
+      </c>
+      <c r="BO87">
+        <v>2.98</v>
+      </c>
+      <c r="BP87">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7347844</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45424.375</v>
+      </c>
+      <c r="F88">
+        <v>11</v>
+      </c>
+      <c r="G88" t="s">
+        <v>82</v>
+      </c>
+      <c r="H88" t="s">
+        <v>71</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>2</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>2</v>
+      </c>
+      <c r="N88">
+        <v>3</v>
+      </c>
+      <c r="O88" t="s">
+        <v>140</v>
+      </c>
+      <c r="P88" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q88">
+        <v>2.75</v>
+      </c>
+      <c r="R88">
+        <v>2.2</v>
+      </c>
+      <c r="S88">
+        <v>3.75</v>
+      </c>
+      <c r="T88">
+        <v>1.4</v>
+      </c>
+      <c r="U88">
+        <v>2.75</v>
+      </c>
+      <c r="V88">
+        <v>2.75</v>
+      </c>
+      <c r="W88">
+        <v>1.4</v>
+      </c>
+      <c r="X88">
+        <v>8</v>
+      </c>
+      <c r="Y88">
+        <v>1.08</v>
+      </c>
+      <c r="Z88">
+        <v>2.03</v>
+      </c>
+      <c r="AA88">
+        <v>3.11</v>
+      </c>
+      <c r="AB88">
+        <v>3.17</v>
+      </c>
+      <c r="AC88">
+        <v>1.04</v>
+      </c>
+      <c r="AD88">
+        <v>12.25</v>
+      </c>
+      <c r="AE88">
+        <v>1.25</v>
+      </c>
+      <c r="AF88">
+        <v>3.6</v>
+      </c>
+      <c r="AG88">
+        <v>1.9</v>
+      </c>
+      <c r="AH88">
+        <v>1.9</v>
+      </c>
+      <c r="AI88">
+        <v>1.7</v>
+      </c>
+      <c r="AJ88">
+        <v>2.05</v>
+      </c>
+      <c r="AK88">
+        <v>1.38</v>
+      </c>
+      <c r="AL88">
+        <v>1.32</v>
+      </c>
+      <c r="AM88">
+        <v>1.62</v>
+      </c>
+      <c r="AN88">
+        <v>0.4</v>
+      </c>
+      <c r="AO88">
+        <v>0.8</v>
+      </c>
+      <c r="AP88">
+        <v>0.33</v>
+      </c>
+      <c r="AQ88">
+        <v>1.17</v>
+      </c>
+      <c r="AR88">
+        <v>1.33</v>
+      </c>
+      <c r="AS88">
+        <v>1.35</v>
+      </c>
+      <c r="AT88">
+        <v>2.68</v>
+      </c>
+      <c r="AU88">
+        <v>3</v>
+      </c>
+      <c r="AV88">
+        <v>5</v>
+      </c>
+      <c r="AW88">
+        <v>3</v>
+      </c>
+      <c r="AX88">
+        <v>7</v>
+      </c>
+      <c r="AY88">
+        <v>6</v>
+      </c>
+      <c r="AZ88">
+        <v>12</v>
+      </c>
+      <c r="BA88">
+        <v>7</v>
+      </c>
+      <c r="BB88">
+        <v>4</v>
+      </c>
+      <c r="BC88">
+        <v>11</v>
+      </c>
+      <c r="BD88">
+        <v>1.73</v>
+      </c>
+      <c r="BE88">
+        <v>8</v>
+      </c>
+      <c r="BF88">
+        <v>2.38</v>
+      </c>
+      <c r="BG88">
+        <v>1.27</v>
+      </c>
+      <c r="BH88">
+        <v>3.28</v>
+      </c>
+      <c r="BI88">
+        <v>1.57</v>
+      </c>
+      <c r="BJ88">
+        <v>2.34</v>
+      </c>
+      <c r="BK88">
+        <v>1.8</v>
+      </c>
+      <c r="BL88">
+        <v>2</v>
+      </c>
+      <c r="BM88">
+        <v>2.5</v>
+      </c>
+      <c r="BN88">
+        <v>1.5</v>
+      </c>
+      <c r="BO88">
+        <v>3.34</v>
+      </c>
+      <c r="BP88">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="200">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -439,6 +439,12 @@
     <t>['17']</t>
   </si>
   <si>
+    <t>['88', '90+4']</t>
+  </si>
+  <si>
+    <t>['26', '41', '68']</t>
+  </si>
+  <si>
     <t>['81', '90+3']</t>
   </si>
   <si>
@@ -605,6 +611,9 @@
   </si>
   <si>
     <t>['15', '65']</t>
+  </si>
+  <si>
+    <t>['11', '82']</t>
   </si>
 </sst>
 </file>
@@ -966,7 +975,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP88"/>
+  <dimension ref="A1:BP90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1225,7 +1234,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1303,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ2">
         <v>1.17</v>
@@ -1431,7 +1440,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -2049,7 +2058,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2336,7 +2345,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ7">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2542,7 +2551,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ8">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2667,7 +2676,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -3157,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ11">
         <v>1.17</v>
@@ -3285,7 +3294,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -3569,7 +3578,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ13">
         <v>2.33</v>
@@ -3903,7 +3912,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4315,7 +4324,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4521,7 +4530,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4727,7 +4736,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5220,7 +5229,7 @@
         <v>1</v>
       </c>
       <c r="AQ21">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR21">
         <v>0.99</v>
@@ -5551,7 +5560,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -5757,7 +5766,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5835,7 +5844,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ24">
         <v>2.33</v>
@@ -5963,7 +5972,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6169,7 +6178,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6375,7 +6384,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -6581,7 +6590,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6662,7 +6671,7 @@
         <v>1</v>
       </c>
       <c r="AQ28">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR28">
         <v>2.4</v>
@@ -6787,7 +6796,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6993,7 +7002,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7405,7 +7414,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7611,7 +7620,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q33">
         <v>1.73</v>
@@ -7817,7 +7826,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q34">
         <v>6.4</v>
@@ -8023,7 +8032,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q35">
         <v>1.96</v>
@@ -8101,7 +8110,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ35">
         <v>0.83</v>
@@ -8229,7 +8238,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q36">
         <v>1.98</v>
@@ -8310,7 +8319,7 @@
         <v>2</v>
       </c>
       <c r="AQ36">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR36">
         <v>1.16</v>
@@ -8435,7 +8444,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -8513,7 +8522,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ37">
         <v>1</v>
@@ -8641,7 +8650,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q38">
         <v>3.25</v>
@@ -9340,7 +9349,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ41">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR41">
         <v>0.89</v>
@@ -9465,7 +9474,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9671,7 +9680,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q43">
         <v>2.3</v>
@@ -9749,7 +9758,7 @@
         <v>2.33</v>
       </c>
       <c r="AP43">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ43">
         <v>2.33</v>
@@ -9877,7 +9886,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q44">
         <v>4.75</v>
@@ -10289,7 +10298,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10495,7 +10504,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -11113,7 +11122,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11319,7 +11328,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11397,7 +11406,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ51">
         <v>1</v>
@@ -11525,7 +11534,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q52">
         <v>1.83</v>
@@ -11606,7 +11615,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ52">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR52">
         <v>1.36</v>
@@ -11937,7 +11946,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q54">
         <v>7.5</v>
@@ -12224,7 +12233,7 @@
         <v>1</v>
       </c>
       <c r="AQ55">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR55">
         <v>1.53</v>
@@ -12555,7 +12564,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12761,7 +12770,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q58">
         <v>2.8</v>
@@ -12842,7 +12851,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ58">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR58">
         <v>1.44</v>
@@ -12967,7 +12976,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q59">
         <v>3.15</v>
@@ -13173,7 +13182,7 @@
         <v>106</v>
       </c>
       <c r="P60" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13379,7 +13388,7 @@
         <v>90</v>
       </c>
       <c r="P61" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13585,7 +13594,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q62">
         <v>3.11</v>
@@ -13791,7 +13800,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q63">
         <v>2.75</v>
@@ -14203,7 +14212,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q65">
         <v>1.8</v>
@@ -14281,7 +14290,7 @@
         <v>1.25</v>
       </c>
       <c r="AP65">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ65">
         <v>1</v>
@@ -14615,7 +14624,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q67">
         <v>2.38</v>
@@ -14821,7 +14830,7 @@
         <v>127</v>
       </c>
       <c r="P68" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15108,7 +15117,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ69">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR69">
         <v>1.09</v>
@@ -15233,7 +15242,7 @@
         <v>90</v>
       </c>
       <c r="P70" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q70">
         <v>5.5</v>
@@ -15439,7 +15448,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q71">
         <v>2.45</v>
@@ -15723,7 +15732,7 @@
         <v>1.33</v>
       </c>
       <c r="AP72">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ72">
         <v>1</v>
@@ -16057,7 +16066,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q74">
         <v>2.65</v>
@@ -16263,7 +16272,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -16547,7 +16556,7 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ76">
         <v>1.2</v>
@@ -16675,7 +16684,7 @@
         <v>133</v>
       </c>
       <c r="P77" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -16962,7 +16971,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ78">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR78">
         <v>1.72</v>
@@ -17087,7 +17096,7 @@
         <v>135</v>
       </c>
       <c r="P79" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17293,7 +17302,7 @@
         <v>90</v>
       </c>
       <c r="P80" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -17499,7 +17508,7 @@
         <v>136</v>
       </c>
       <c r="P81" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17705,7 +17714,7 @@
         <v>137</v>
       </c>
       <c r="P82" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q82">
         <v>1.91</v>
@@ -17911,7 +17920,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q83">
         <v>1.62</v>
@@ -18323,7 +18332,7 @@
         <v>99</v>
       </c>
       <c r="P85" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18529,7 +18538,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q86">
         <v>1.83</v>
@@ -18735,7 +18744,7 @@
         <v>90</v>
       </c>
       <c r="P87" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -18941,7 +18950,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19098,6 +19107,418 @@
       </c>
       <c r="BP88">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7347845</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45427.35763888889</v>
+      </c>
+      <c r="F89">
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>79</v>
+      </c>
+      <c r="H89" t="s">
+        <v>78</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>2</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>2</v>
+      </c>
+      <c r="O89" t="s">
+        <v>141</v>
+      </c>
+      <c r="P89" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q89">
+        <v>1.77</v>
+      </c>
+      <c r="R89">
+        <v>2.65</v>
+      </c>
+      <c r="S89">
+        <v>7.67</v>
+      </c>
+      <c r="T89">
+        <v>1.25</v>
+      </c>
+      <c r="U89">
+        <v>3.6</v>
+      </c>
+      <c r="V89">
+        <v>2.47</v>
+      </c>
+      <c r="W89">
+        <v>1.52</v>
+      </c>
+      <c r="X89">
+        <v>4.95</v>
+      </c>
+      <c r="Y89">
+        <v>1.14</v>
+      </c>
+      <c r="Z89">
+        <v>1.17</v>
+      </c>
+      <c r="AA89">
+        <v>7.5</v>
+      </c>
+      <c r="AB89">
+        <v>13</v>
+      </c>
+      <c r="AC89">
+        <v>1.02</v>
+      </c>
+      <c r="AD89">
+        <v>14.4</v>
+      </c>
+      <c r="AE89">
+        <v>1.2</v>
+      </c>
+      <c r="AF89">
+        <v>4.34</v>
+      </c>
+      <c r="AG89">
+        <v>1.44</v>
+      </c>
+      <c r="AH89">
+        <v>2.6</v>
+      </c>
+      <c r="AI89">
+        <v>1.9</v>
+      </c>
+      <c r="AJ89">
+        <v>1.87</v>
+      </c>
+      <c r="AK89">
+        <v>1.03</v>
+      </c>
+      <c r="AL89">
+        <v>1.1</v>
+      </c>
+      <c r="AM89">
+        <v>3.3</v>
+      </c>
+      <c r="AN89">
+        <v>2.6</v>
+      </c>
+      <c r="AO89">
+        <v>0.67</v>
+      </c>
+      <c r="AP89">
+        <v>2.67</v>
+      </c>
+      <c r="AQ89">
+        <v>0.57</v>
+      </c>
+      <c r="AR89">
+        <v>2.42</v>
+      </c>
+      <c r="AS89">
+        <v>1.27</v>
+      </c>
+      <c r="AT89">
+        <v>3.69</v>
+      </c>
+      <c r="AU89">
+        <v>11</v>
+      </c>
+      <c r="AV89">
+        <v>4</v>
+      </c>
+      <c r="AW89">
+        <v>8</v>
+      </c>
+      <c r="AX89">
+        <v>2</v>
+      </c>
+      <c r="AY89">
+        <v>19</v>
+      </c>
+      <c r="AZ89">
+        <v>6</v>
+      </c>
+      <c r="BA89">
+        <v>10</v>
+      </c>
+      <c r="BB89">
+        <v>2</v>
+      </c>
+      <c r="BC89">
+        <v>12</v>
+      </c>
+      <c r="BD89">
+        <v>1.2</v>
+      </c>
+      <c r="BE89">
+        <v>12</v>
+      </c>
+      <c r="BF89">
+        <v>4.6</v>
+      </c>
+      <c r="BG89">
+        <v>1.22</v>
+      </c>
+      <c r="BH89">
+        <v>3.8</v>
+      </c>
+      <c r="BI89">
+        <v>1.38</v>
+      </c>
+      <c r="BJ89">
+        <v>2.8</v>
+      </c>
+      <c r="BK89">
+        <v>1.61</v>
+      </c>
+      <c r="BL89">
+        <v>2.26</v>
+      </c>
+      <c r="BM89">
+        <v>2.01</v>
+      </c>
+      <c r="BN89">
+        <v>1.78</v>
+      </c>
+      <c r="BO89">
+        <v>2.4</v>
+      </c>
+      <c r="BP89">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7347846</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45428.35763888889</v>
+      </c>
+      <c r="F90">
+        <v>12</v>
+      </c>
+      <c r="G90" t="s">
+        <v>70</v>
+      </c>
+      <c r="H90" t="s">
+        <v>82</v>
+      </c>
+      <c r="I90">
+        <v>2</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>3</v>
+      </c>
+      <c r="L90">
+        <v>3</v>
+      </c>
+      <c r="M90">
+        <v>2</v>
+      </c>
+      <c r="N90">
+        <v>5</v>
+      </c>
+      <c r="O90" t="s">
+        <v>142</v>
+      </c>
+      <c r="P90" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q90">
+        <v>1.61</v>
+      </c>
+      <c r="R90">
+        <v>2.99</v>
+      </c>
+      <c r="S90">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="T90">
+        <v>1.25</v>
+      </c>
+      <c r="U90">
+        <v>3.72</v>
+      </c>
+      <c r="V90">
+        <v>2.1</v>
+      </c>
+      <c r="W90">
+        <v>1.71</v>
+      </c>
+      <c r="X90">
+        <v>4.8</v>
+      </c>
+      <c r="Y90">
+        <v>1.16</v>
+      </c>
+      <c r="Z90">
+        <v>1.27</v>
+      </c>
+      <c r="AA90">
+        <v>5.74</v>
+      </c>
+      <c r="AB90">
+        <v>9.02</v>
+      </c>
+      <c r="AC90">
+        <v>1.01</v>
+      </c>
+      <c r="AD90">
+        <v>13</v>
+      </c>
+      <c r="AE90">
+        <v>1.12</v>
+      </c>
+      <c r="AF90">
+        <v>5.05</v>
+      </c>
+      <c r="AG90">
+        <v>1.45</v>
+      </c>
+      <c r="AH90">
+        <v>2.48</v>
+      </c>
+      <c r="AI90">
+        <v>1.74</v>
+      </c>
+      <c r="AJ90">
+        <v>2.04</v>
+      </c>
+      <c r="AK90">
+        <v>1.08</v>
+      </c>
+      <c r="AL90">
+        <v>1.16</v>
+      </c>
+      <c r="AM90">
+        <v>3.16</v>
+      </c>
+      <c r="AN90">
+        <v>1.83</v>
+      </c>
+      <c r="AO90">
+        <v>1.4</v>
+      </c>
+      <c r="AP90">
+        <v>2</v>
+      </c>
+      <c r="AQ90">
+        <v>1.17</v>
+      </c>
+      <c r="AR90">
+        <v>2.05</v>
+      </c>
+      <c r="AS90">
+        <v>1.3</v>
+      </c>
+      <c r="AT90">
+        <v>3.35</v>
+      </c>
+      <c r="AU90">
+        <v>6</v>
+      </c>
+      <c r="AV90">
+        <v>5</v>
+      </c>
+      <c r="AW90">
+        <v>1</v>
+      </c>
+      <c r="AX90">
+        <v>3</v>
+      </c>
+      <c r="AY90">
+        <v>7</v>
+      </c>
+      <c r="AZ90">
+        <v>8</v>
+      </c>
+      <c r="BA90">
+        <v>1</v>
+      </c>
+      <c r="BB90">
+        <v>4</v>
+      </c>
+      <c r="BC90">
+        <v>5</v>
+      </c>
+      <c r="BD90">
+        <v>1.14</v>
+      </c>
+      <c r="BE90">
+        <v>12</v>
+      </c>
+      <c r="BF90">
+        <v>6.5</v>
+      </c>
+      <c r="BG90">
+        <v>1.3</v>
+      </c>
+      <c r="BH90">
+        <v>3.3</v>
+      </c>
+      <c r="BI90">
+        <v>1.44</v>
+      </c>
+      <c r="BJ90">
+        <v>2.6</v>
+      </c>
+      <c r="BK90">
+        <v>1.85</v>
+      </c>
+      <c r="BL90">
+        <v>1.85</v>
+      </c>
+      <c r="BM90">
+        <v>2.35</v>
+      </c>
+      <c r="BN90">
+        <v>1.52</v>
+      </c>
+      <c r="BO90">
+        <v>3.2</v>
+      </c>
+      <c r="BP90">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="210">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -445,6 +445,21 @@
     <t>['26', '41', '68']</t>
   </si>
   <si>
+    <t>['13', '37', '45', '61', '90+7']</t>
+  </si>
+  <si>
+    <t>['53', '63']</t>
+  </si>
+  <si>
+    <t>['30', '62']</t>
+  </si>
+  <si>
+    <t>['76']</t>
+  </si>
+  <si>
+    <t>['4', '67', '90+9']</t>
+  </si>
+  <si>
     <t>['81', '90+3']</t>
   </si>
   <si>
@@ -614,6 +629,21 @@
   </si>
   <si>
     <t>['11', '82']</t>
+  </si>
+  <si>
+    <t>['25', '83']</t>
+  </si>
+  <si>
+    <t>['15', '49', '74', '80']</t>
+  </si>
+  <si>
+    <t>['14', '39', '84']</t>
+  </si>
+  <si>
+    <t>['19', '48', '71', '86']</t>
+  </si>
+  <si>
+    <t>['30', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -975,7 +1005,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP90"/>
+  <dimension ref="A1:BP95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1234,7 +1264,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1440,7 +1470,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -1727,7 +1757,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1933,7 +1963,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2058,7 +2088,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2136,10 +2166,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ6">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2548,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ8">
         <v>1.17</v>
@@ -2676,7 +2706,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -2754,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ9">
         <v>2.33</v>
@@ -3294,7 +3324,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -3372,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ12">
         <v>1</v>
@@ -3581,7 +3611,7 @@
         <v>2</v>
       </c>
       <c r="AQ13">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR13">
         <v>2.48</v>
@@ -3784,7 +3814,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ14">
         <v>2.2</v>
@@ -3912,7 +3942,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -3993,7 +4023,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4196,10 +4226,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ16">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR16">
         <v>1.14</v>
@@ -4324,7 +4354,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4405,7 +4435,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ17">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4530,7 +4560,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4736,7 +4766,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -4817,7 +4847,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ19">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5023,7 +5053,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR20">
         <v>1.66</v>
@@ -5560,7 +5590,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -5638,10 +5668,10 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ23">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -5766,7 +5796,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5972,7 +6002,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6050,7 +6080,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ25">
         <v>1.2</v>
@@ -6178,7 +6208,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6384,7 +6414,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -6462,7 +6492,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ27">
         <v>2.33</v>
@@ -6590,7 +6620,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6668,7 +6698,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ28">
         <v>1.17</v>
@@ -6796,7 +6826,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -7002,7 +7032,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7414,7 +7444,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7495,7 +7525,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ32">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR32">
         <v>1.5</v>
@@ -7620,7 +7650,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q33">
         <v>1.73</v>
@@ -7698,7 +7728,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ33">
         <v>1.17</v>
@@ -7826,7 +7856,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q34">
         <v>6.4</v>
@@ -8032,7 +8062,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q35">
         <v>1.96</v>
@@ -8238,7 +8268,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q36">
         <v>1.98</v>
@@ -8444,7 +8474,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -8525,7 +8555,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ37">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR37">
         <v>2.37</v>
@@ -8650,7 +8680,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q38">
         <v>3.25</v>
@@ -8731,7 +8761,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR38">
         <v>1.05</v>
@@ -8934,7 +8964,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ39">
         <v>1.17</v>
@@ -9346,7 +9376,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ41">
         <v>0.57</v>
@@ -9474,7 +9504,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9552,10 +9582,10 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR42">
         <v>1.84</v>
@@ -9680,7 +9710,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q43">
         <v>2.3</v>
@@ -9761,7 +9791,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ43">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR43">
         <v>2.56</v>
@@ -9886,7 +9916,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q44">
         <v>4.75</v>
@@ -9964,10 +9994,10 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ44">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR44">
         <v>1.03</v>
@@ -10298,7 +10328,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10504,7 +10534,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10582,7 +10612,7 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ47">
         <v>1.17</v>
@@ -10997,7 +11027,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ49">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR49">
         <v>1.41</v>
@@ -11122,7 +11152,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11200,10 +11230,10 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ50">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR50">
         <v>1.28</v>
@@ -11328,7 +11358,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11534,7 +11564,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q52">
         <v>1.83</v>
@@ -11946,7 +11976,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q54">
         <v>7.5</v>
@@ -12230,7 +12260,7 @@
         <v>0.33</v>
       </c>
       <c r="AP55">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ55">
         <v>0.57</v>
@@ -12564,7 +12594,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12645,7 +12675,7 @@
         <v>1</v>
       </c>
       <c r="AQ57">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR57">
         <v>1.14</v>
@@ -12770,7 +12800,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q58">
         <v>2.8</v>
@@ -12976,7 +13006,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q59">
         <v>3.15</v>
@@ -13057,7 +13087,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ59">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR59">
         <v>1.86</v>
@@ -13182,7 +13212,7 @@
         <v>106</v>
       </c>
       <c r="P60" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13260,10 +13290,10 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ60">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR60">
         <v>1.57</v>
@@ -13388,7 +13418,7 @@
         <v>90</v>
       </c>
       <c r="P61" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13466,7 +13496,7 @@
         <v>0.67</v>
       </c>
       <c r="AP61">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ61">
         <v>1</v>
@@ -13594,7 +13624,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q62">
         <v>3.11</v>
@@ -13672,7 +13702,7 @@
         <v>0.67</v>
       </c>
       <c r="AP62">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ62">
         <v>0.83</v>
@@ -13800,7 +13830,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q63">
         <v>2.75</v>
@@ -14212,7 +14242,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q65">
         <v>1.8</v>
@@ -14293,7 +14323,7 @@
         <v>2</v>
       </c>
       <c r="AQ65">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR65">
         <v>2.08</v>
@@ -14499,7 +14529,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ66">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR66">
         <v>1.59</v>
@@ -14624,7 +14654,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q67">
         <v>2.38</v>
@@ -14702,7 +14732,7 @@
         <v>1.25</v>
       </c>
       <c r="AP67">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ67">
         <v>0.83</v>
@@ -14830,7 +14860,7 @@
         <v>127</v>
       </c>
       <c r="P68" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -14908,7 +14938,7 @@
         <v>0.75</v>
       </c>
       <c r="AP68">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ68">
         <v>1.17</v>
@@ -15114,7 +15144,7 @@
         <v>1.5</v>
       </c>
       <c r="AP69">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ69">
         <v>1.17</v>
@@ -15242,7 +15272,7 @@
         <v>90</v>
       </c>
       <c r="P70" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q70">
         <v>5.5</v>
@@ -15448,7 +15478,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q71">
         <v>2.45</v>
@@ -15529,7 +15559,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ71">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR71">
         <v>1.59</v>
@@ -16066,7 +16096,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q74">
         <v>2.65</v>
@@ -16144,10 +16174,10 @@
         <v>1.8</v>
       </c>
       <c r="AP74">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ74">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR74">
         <v>1.58</v>
@@ -16272,7 +16302,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -16684,7 +16714,7 @@
         <v>133</v>
       </c>
       <c r="P77" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -16762,7 +16792,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ77">
         <v>1</v>
@@ -17096,7 +17126,7 @@
         <v>135</v>
       </c>
       <c r="P79" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17177,7 +17207,7 @@
         <v>2</v>
       </c>
       <c r="AQ79">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR79">
         <v>2.06</v>
@@ -17302,7 +17332,7 @@
         <v>90</v>
       </c>
       <c r="P80" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -17508,7 +17538,7 @@
         <v>136</v>
       </c>
       <c r="P81" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17589,7 +17619,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ81">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR81">
         <v>1.34</v>
@@ -17714,7 +17744,7 @@
         <v>137</v>
       </c>
       <c r="P82" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q82">
         <v>1.91</v>
@@ -17920,7 +17950,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q83">
         <v>1.62</v>
@@ -18332,7 +18362,7 @@
         <v>99</v>
       </c>
       <c r="P85" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18538,7 +18568,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q86">
         <v>1.83</v>
@@ -18744,7 +18774,7 @@
         <v>90</v>
       </c>
       <c r="P87" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -18822,7 +18852,7 @@
         <v>0.75</v>
       </c>
       <c r="AP87">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ87">
         <v>1.2</v>
@@ -18950,7 +18980,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19362,7 +19392,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q90">
         <v>1.61</v>
@@ -19519,6 +19549,1036 @@
       </c>
       <c r="BP90">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7347847</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45429.33333333334</v>
+      </c>
+      <c r="F91">
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>76</v>
+      </c>
+      <c r="H91" t="s">
+        <v>81</v>
+      </c>
+      <c r="I91">
+        <v>3</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>4</v>
+      </c>
+      <c r="L91">
+        <v>5</v>
+      </c>
+      <c r="M91">
+        <v>2</v>
+      </c>
+      <c r="N91">
+        <v>7</v>
+      </c>
+      <c r="O91" t="s">
+        <v>143</v>
+      </c>
+      <c r="P91" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q91">
+        <v>1.8</v>
+      </c>
+      <c r="R91">
+        <v>2.56</v>
+      </c>
+      <c r="S91">
+        <v>6.25</v>
+      </c>
+      <c r="T91">
+        <v>1.26</v>
+      </c>
+      <c r="U91">
+        <v>3.62</v>
+      </c>
+      <c r="V91">
+        <v>2.23</v>
+      </c>
+      <c r="W91">
+        <v>1.61</v>
+      </c>
+      <c r="X91">
+        <v>5</v>
+      </c>
+      <c r="Y91">
+        <v>1.15</v>
+      </c>
+      <c r="Z91">
+        <v>1.49</v>
+      </c>
+      <c r="AA91">
+        <v>3.95</v>
+      </c>
+      <c r="AB91">
+        <v>5.1</v>
+      </c>
+      <c r="AC91">
+        <v>1.03</v>
+      </c>
+      <c r="AD91">
+        <v>10</v>
+      </c>
+      <c r="AE91">
+        <v>1.13</v>
+      </c>
+      <c r="AF91">
+        <v>4.75</v>
+      </c>
+      <c r="AG91">
+        <v>1.53</v>
+      </c>
+      <c r="AH91">
+        <v>2.24</v>
+      </c>
+      <c r="AI91">
+        <v>1.74</v>
+      </c>
+      <c r="AJ91">
+        <v>1.98</v>
+      </c>
+      <c r="AK91">
+        <v>1.07</v>
+      </c>
+      <c r="AL91">
+        <v>1.15</v>
+      </c>
+      <c r="AM91">
+        <v>2.96</v>
+      </c>
+      <c r="AN91">
+        <v>1.67</v>
+      </c>
+      <c r="AO91">
+        <v>1</v>
+      </c>
+      <c r="AP91">
+        <v>1.86</v>
+      </c>
+      <c r="AQ91">
+        <v>0.86</v>
+      </c>
+      <c r="AR91">
+        <v>1.74</v>
+      </c>
+      <c r="AS91">
+        <v>1.29</v>
+      </c>
+      <c r="AT91">
+        <v>3.03</v>
+      </c>
+      <c r="AU91">
+        <v>-1</v>
+      </c>
+      <c r="AV91">
+        <v>-1</v>
+      </c>
+      <c r="AW91">
+        <v>-1</v>
+      </c>
+      <c r="AX91">
+        <v>-1</v>
+      </c>
+      <c r="AY91">
+        <v>-1</v>
+      </c>
+      <c r="AZ91">
+        <v>-1</v>
+      </c>
+      <c r="BA91">
+        <v>-1</v>
+      </c>
+      <c r="BB91">
+        <v>-1</v>
+      </c>
+      <c r="BC91">
+        <v>-1</v>
+      </c>
+      <c r="BD91">
+        <v>1.36</v>
+      </c>
+      <c r="BE91">
+        <v>9.5</v>
+      </c>
+      <c r="BF91">
+        <v>3.6</v>
+      </c>
+      <c r="BG91">
+        <v>1.14</v>
+      </c>
+      <c r="BH91">
+        <v>5.1</v>
+      </c>
+      <c r="BI91">
+        <v>1.28</v>
+      </c>
+      <c r="BJ91">
+        <v>3.4</v>
+      </c>
+      <c r="BK91">
+        <v>1.45</v>
+      </c>
+      <c r="BL91">
+        <v>2.55</v>
+      </c>
+      <c r="BM91">
+        <v>1.8</v>
+      </c>
+      <c r="BN91">
+        <v>2</v>
+      </c>
+      <c r="BO91">
+        <v>2.3</v>
+      </c>
+      <c r="BP91">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7347848</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45429.35763888889</v>
+      </c>
+      <c r="F92">
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>74</v>
+      </c>
+      <c r="H92" t="s">
+        <v>73</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>2</v>
+      </c>
+      <c r="M92">
+        <v>4</v>
+      </c>
+      <c r="N92">
+        <v>6</v>
+      </c>
+      <c r="O92" t="s">
+        <v>144</v>
+      </c>
+      <c r="P92" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q92">
+        <v>3.8</v>
+      </c>
+      <c r="R92">
+        <v>2.25</v>
+      </c>
+      <c r="S92">
+        <v>2.45</v>
+      </c>
+      <c r="T92">
+        <v>1.32</v>
+      </c>
+      <c r="U92">
+        <v>3.25</v>
+      </c>
+      <c r="V92">
+        <v>2.4</v>
+      </c>
+      <c r="W92">
+        <v>1.5</v>
+      </c>
+      <c r="X92">
+        <v>5.25</v>
+      </c>
+      <c r="Y92">
+        <v>1.12</v>
+      </c>
+      <c r="Z92">
+        <v>3.5</v>
+      </c>
+      <c r="AA92">
+        <v>3.7</v>
+      </c>
+      <c r="AB92">
+        <v>1.98</v>
+      </c>
+      <c r="AC92">
+        <v>1.03</v>
+      </c>
+      <c r="AD92">
+        <v>16</v>
+      </c>
+      <c r="AE92">
+        <v>1.21</v>
+      </c>
+      <c r="AF92">
+        <v>4.5</v>
+      </c>
+      <c r="AG92">
+        <v>1.67</v>
+      </c>
+      <c r="AH92">
+        <v>2.22</v>
+      </c>
+      <c r="AI92">
+        <v>1.58</v>
+      </c>
+      <c r="AJ92">
+        <v>2.25</v>
+      </c>
+      <c r="AK92">
+        <v>1.78</v>
+      </c>
+      <c r="AL92">
+        <v>1.28</v>
+      </c>
+      <c r="AM92">
+        <v>1.3</v>
+      </c>
+      <c r="AN92">
+        <v>1.5</v>
+      </c>
+      <c r="AO92">
+        <v>2</v>
+      </c>
+      <c r="AP92">
+        <v>1.29</v>
+      </c>
+      <c r="AQ92">
+        <v>2.14</v>
+      </c>
+      <c r="AR92">
+        <v>1.07</v>
+      </c>
+      <c r="AS92">
+        <v>1.41</v>
+      </c>
+      <c r="AT92">
+        <v>2.48</v>
+      </c>
+      <c r="AU92">
+        <v>0</v>
+      </c>
+      <c r="AV92">
+        <v>2</v>
+      </c>
+      <c r="AW92">
+        <v>8</v>
+      </c>
+      <c r="AX92">
+        <v>2</v>
+      </c>
+      <c r="AY92">
+        <v>8</v>
+      </c>
+      <c r="AZ92">
+        <v>4</v>
+      </c>
+      <c r="BA92">
+        <v>5</v>
+      </c>
+      <c r="BB92">
+        <v>5</v>
+      </c>
+      <c r="BC92">
+        <v>10</v>
+      </c>
+      <c r="BD92">
+        <v>2.38</v>
+      </c>
+      <c r="BE92">
+        <v>8</v>
+      </c>
+      <c r="BF92">
+        <v>1.8</v>
+      </c>
+      <c r="BG92">
+        <v>1.24</v>
+      </c>
+      <c r="BH92">
+        <v>3.8</v>
+      </c>
+      <c r="BI92">
+        <v>1.39</v>
+      </c>
+      <c r="BJ92">
+        <v>2.77</v>
+      </c>
+      <c r="BK92">
+        <v>1.73</v>
+      </c>
+      <c r="BL92">
+        <v>1.99</v>
+      </c>
+      <c r="BM92">
+        <v>2.2</v>
+      </c>
+      <c r="BN92">
+        <v>1.6</v>
+      </c>
+      <c r="BO92">
+        <v>2.95</v>
+      </c>
+      <c r="BP92">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7347849</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45429.35763888889</v>
+      </c>
+      <c r="F93">
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>80</v>
+      </c>
+      <c r="H93" t="s">
+        <v>83</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>2</v>
+      </c>
+      <c r="K93">
+        <v>3</v>
+      </c>
+      <c r="L93">
+        <v>2</v>
+      </c>
+      <c r="M93">
+        <v>3</v>
+      </c>
+      <c r="N93">
+        <v>5</v>
+      </c>
+      <c r="O93" t="s">
+        <v>145</v>
+      </c>
+      <c r="P93" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q93">
+        <v>2.55</v>
+      </c>
+      <c r="R93">
+        <v>2.2</v>
+      </c>
+      <c r="S93">
+        <v>3.88</v>
+      </c>
+      <c r="T93">
+        <v>1.35</v>
+      </c>
+      <c r="U93">
+        <v>3.04</v>
+      </c>
+      <c r="V93">
+        <v>2.6</v>
+      </c>
+      <c r="W93">
+        <v>1.46</v>
+      </c>
+      <c r="X93">
+        <v>6.35</v>
+      </c>
+      <c r="Y93">
+        <v>1.1</v>
+      </c>
+      <c r="Z93">
+        <v>1.92</v>
+      </c>
+      <c r="AA93">
+        <v>3.4</v>
+      </c>
+      <c r="AB93">
+        <v>3.25</v>
+      </c>
+      <c r="AC93">
+        <v>1.01</v>
+      </c>
+      <c r="AD93">
+        <v>10</v>
+      </c>
+      <c r="AE93">
+        <v>1.22</v>
+      </c>
+      <c r="AF93">
+        <v>3.65</v>
+      </c>
+      <c r="AG93">
+        <v>1.73</v>
+      </c>
+      <c r="AH93">
+        <v>2.03</v>
+      </c>
+      <c r="AI93">
+        <v>1.65</v>
+      </c>
+      <c r="AJ93">
+        <v>2.11</v>
+      </c>
+      <c r="AK93">
+        <v>1.3</v>
+      </c>
+      <c r="AL93">
+        <v>1.27</v>
+      </c>
+      <c r="AM93">
+        <v>1.74</v>
+      </c>
+      <c r="AN93">
+        <v>1</v>
+      </c>
+      <c r="AO93">
+        <v>1</v>
+      </c>
+      <c r="AP93">
+        <v>0.83</v>
+      </c>
+      <c r="AQ93">
+        <v>1.33</v>
+      </c>
+      <c r="AR93">
+        <v>1.57</v>
+      </c>
+      <c r="AS93">
+        <v>1.08</v>
+      </c>
+      <c r="AT93">
+        <v>2.65</v>
+      </c>
+      <c r="AU93">
+        <v>4</v>
+      </c>
+      <c r="AV93">
+        <v>4</v>
+      </c>
+      <c r="AW93">
+        <v>6</v>
+      </c>
+      <c r="AX93">
+        <v>4</v>
+      </c>
+      <c r="AY93">
+        <v>10</v>
+      </c>
+      <c r="AZ93">
+        <v>8</v>
+      </c>
+      <c r="BA93">
+        <v>11</v>
+      </c>
+      <c r="BB93">
+        <v>1</v>
+      </c>
+      <c r="BC93">
+        <v>12</v>
+      </c>
+      <c r="BD93">
+        <v>1.62</v>
+      </c>
+      <c r="BE93">
+        <v>8</v>
+      </c>
+      <c r="BF93">
+        <v>2.62</v>
+      </c>
+      <c r="BG93">
+        <v>1.32</v>
+      </c>
+      <c r="BH93">
+        <v>3.2</v>
+      </c>
+      <c r="BI93">
+        <v>1.51</v>
+      </c>
+      <c r="BJ93">
+        <v>2.37</v>
+      </c>
+      <c r="BK93">
+        <v>1.98</v>
+      </c>
+      <c r="BL93">
+        <v>1.82</v>
+      </c>
+      <c r="BM93">
+        <v>2.5</v>
+      </c>
+      <c r="BN93">
+        <v>1.47</v>
+      </c>
+      <c r="BO93">
+        <v>3.3</v>
+      </c>
+      <c r="BP93">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7347850</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45429.35763888889</v>
+      </c>
+      <c r="F94">
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>77</v>
+      </c>
+      <c r="H94" t="s">
+        <v>75</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>4</v>
+      </c>
+      <c r="N94">
+        <v>5</v>
+      </c>
+      <c r="O94" t="s">
+        <v>146</v>
+      </c>
+      <c r="P94" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q94">
+        <v>4.5</v>
+      </c>
+      <c r="R94">
+        <v>2.25</v>
+      </c>
+      <c r="S94">
+        <v>2.2</v>
+      </c>
+      <c r="T94">
+        <v>1.33</v>
+      </c>
+      <c r="U94">
+        <v>3</v>
+      </c>
+      <c r="V94">
+        <v>2.45</v>
+      </c>
+      <c r="W94">
+        <v>1.48</v>
+      </c>
+      <c r="X94">
+        <v>5.75</v>
+      </c>
+      <c r="Y94">
+        <v>1.1</v>
+      </c>
+      <c r="Z94">
+        <v>4.35</v>
+      </c>
+      <c r="AA94">
+        <v>3.6</v>
+      </c>
+      <c r="AB94">
+        <v>1.63</v>
+      </c>
+      <c r="AC94">
+        <v>1.04</v>
+      </c>
+      <c r="AD94">
+        <v>9</v>
+      </c>
+      <c r="AE94">
+        <v>1.22</v>
+      </c>
+      <c r="AF94">
+        <v>3.95</v>
+      </c>
+      <c r="AG94">
+        <v>1.77</v>
+      </c>
+      <c r="AH94">
+        <v>1.96</v>
+      </c>
+      <c r="AI94">
+        <v>1.7</v>
+      </c>
+      <c r="AJ94">
+        <v>1.95</v>
+      </c>
+      <c r="AK94">
+        <v>2.15</v>
+      </c>
+      <c r="AL94">
+        <v>1.2</v>
+      </c>
+      <c r="AM94">
+        <v>1.15</v>
+      </c>
+      <c r="AN94">
+        <v>0.6</v>
+      </c>
+      <c r="AO94">
+        <v>1.5</v>
+      </c>
+      <c r="AP94">
+        <v>0.5</v>
+      </c>
+      <c r="AQ94">
+        <v>1.8</v>
+      </c>
+      <c r="AR94">
+        <v>1.27</v>
+      </c>
+      <c r="AS94">
+        <v>1.66</v>
+      </c>
+      <c r="AT94">
+        <v>2.93</v>
+      </c>
+      <c r="AU94">
+        <v>3</v>
+      </c>
+      <c r="AV94">
+        <v>2</v>
+      </c>
+      <c r="AW94">
+        <v>11</v>
+      </c>
+      <c r="AX94">
+        <v>2</v>
+      </c>
+      <c r="AY94">
+        <v>14</v>
+      </c>
+      <c r="AZ94">
+        <v>4</v>
+      </c>
+      <c r="BA94">
+        <v>6</v>
+      </c>
+      <c r="BB94">
+        <v>3</v>
+      </c>
+      <c r="BC94">
+        <v>9</v>
+      </c>
+      <c r="BD94">
+        <v>3.1</v>
+      </c>
+      <c r="BE94">
+        <v>8.5</v>
+      </c>
+      <c r="BF94">
+        <v>1.5</v>
+      </c>
+      <c r="BG94">
+        <v>1.3</v>
+      </c>
+      <c r="BH94">
+        <v>3.3</v>
+      </c>
+      <c r="BI94">
+        <v>1.48</v>
+      </c>
+      <c r="BJ94">
+        <v>2.47</v>
+      </c>
+      <c r="BK94">
+        <v>1.9</v>
+      </c>
+      <c r="BL94">
+        <v>1.9</v>
+      </c>
+      <c r="BM94">
+        <v>2.37</v>
+      </c>
+      <c r="BN94">
+        <v>1.51</v>
+      </c>
+      <c r="BO94">
+        <v>3.3</v>
+      </c>
+      <c r="BP94">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7347851</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45429.375</v>
+      </c>
+      <c r="F95">
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>84</v>
+      </c>
+      <c r="H95" t="s">
+        <v>85</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>2</v>
+      </c>
+      <c r="L95">
+        <v>3</v>
+      </c>
+      <c r="M95">
+        <v>2</v>
+      </c>
+      <c r="N95">
+        <v>5</v>
+      </c>
+      <c r="O95" t="s">
+        <v>147</v>
+      </c>
+      <c r="P95" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q95">
+        <v>4.5</v>
+      </c>
+      <c r="R95">
+        <v>2.22</v>
+      </c>
+      <c r="S95">
+        <v>2.32</v>
+      </c>
+      <c r="T95">
+        <v>1.35</v>
+      </c>
+      <c r="U95">
+        <v>3.04</v>
+      </c>
+      <c r="V95">
+        <v>2.6</v>
+      </c>
+      <c r="W95">
+        <v>1.46</v>
+      </c>
+      <c r="X95">
+        <v>6.35</v>
+      </c>
+      <c r="Y95">
+        <v>1.1</v>
+      </c>
+      <c r="Z95">
+        <v>3.6</v>
+      </c>
+      <c r="AA95">
+        <v>3.5</v>
+      </c>
+      <c r="AB95">
+        <v>1.79</v>
+      </c>
+      <c r="AC95">
+        <v>1.04</v>
+      </c>
+      <c r="AD95">
+        <v>10.25</v>
+      </c>
+      <c r="AE95">
+        <v>1.22</v>
+      </c>
+      <c r="AF95">
+        <v>3.65</v>
+      </c>
+      <c r="AG95">
+        <v>1.73</v>
+      </c>
+      <c r="AH95">
+        <v>2.03</v>
+      </c>
+      <c r="AI95">
+        <v>1.7</v>
+      </c>
+      <c r="AJ95">
+        <v>2.03</v>
+      </c>
+      <c r="AK95">
+        <v>1.95</v>
+      </c>
+      <c r="AL95">
+        <v>1.25</v>
+      </c>
+      <c r="AM95">
+        <v>1.22</v>
+      </c>
+      <c r="AN95">
+        <v>0.2</v>
+      </c>
+      <c r="AO95">
+        <v>2.33</v>
+      </c>
+      <c r="AP95">
+        <v>0.67</v>
+      </c>
+      <c r="AQ95">
+        <v>2</v>
+      </c>
+      <c r="AR95">
+        <v>1.1</v>
+      </c>
+      <c r="AS95">
+        <v>1.13</v>
+      </c>
+      <c r="AT95">
+        <v>2.23</v>
+      </c>
+      <c r="AU95">
+        <v>3</v>
+      </c>
+      <c r="AV95">
+        <v>2</v>
+      </c>
+      <c r="AW95">
+        <v>5</v>
+      </c>
+      <c r="AX95">
+        <v>6</v>
+      </c>
+      <c r="AY95">
+        <v>8</v>
+      </c>
+      <c r="AZ95">
+        <v>8</v>
+      </c>
+      <c r="BA95">
+        <v>3</v>
+      </c>
+      <c r="BB95">
+        <v>3</v>
+      </c>
+      <c r="BC95">
+        <v>6</v>
+      </c>
+      <c r="BD95">
+        <v>3</v>
+      </c>
+      <c r="BE95">
+        <v>8</v>
+      </c>
+      <c r="BF95">
+        <v>1.5</v>
+      </c>
+      <c r="BG95">
+        <v>1.37</v>
+      </c>
+      <c r="BH95">
+        <v>2.85</v>
+      </c>
+      <c r="BI95">
+        <v>1.73</v>
+      </c>
+      <c r="BJ95">
+        <v>1.99</v>
+      </c>
+      <c r="BK95">
+        <v>2.23</v>
+      </c>
+      <c r="BL95">
+        <v>1.58</v>
+      </c>
+      <c r="BM95">
+        <v>3.05</v>
+      </c>
+      <c r="BN95">
+        <v>1.33</v>
+      </c>
+      <c r="BO95">
+        <v>4</v>
+      </c>
+      <c r="BP95">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="212">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -460,6 +460,9 @@
     <t>['4', '67', '90+9']</t>
   </si>
   <si>
+    <t>['35', '56', '62']</t>
+  </si>
+  <si>
     <t>['81', '90+3']</t>
   </si>
   <si>
@@ -644,6 +647,9 @@
   </si>
   <si>
     <t>['30', '90+3']</t>
+  </si>
+  <si>
+    <t>['24', '31', '43', '51', '80']</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1011,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP95"/>
+  <dimension ref="A1:BP96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1264,7 +1270,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1470,7 +1476,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -1548,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ3">
         <v>0.83</v>
@@ -2088,7 +2094,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2706,7 +2712,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -3324,7 +3330,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -3817,7 +3823,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ14">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR14">
         <v>0.7</v>
@@ -3942,7 +3948,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4354,7 +4360,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4560,7 +4566,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4766,7 +4772,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5256,7 +5262,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ21">
         <v>0.57</v>
@@ -5590,7 +5596,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -5796,7 +5802,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6002,7 +6008,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6208,7 +6214,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6414,7 +6420,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -6620,7 +6626,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6826,7 +6832,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -7032,7 +7038,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7113,7 +7119,7 @@
         <v>2</v>
       </c>
       <c r="AQ30">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7444,7 +7450,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7650,7 +7656,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q33">
         <v>1.73</v>
@@ -7856,7 +7862,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q34">
         <v>6.4</v>
@@ -7937,7 +7943,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ34">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR34">
         <v>1</v>
@@ -8062,7 +8068,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q35">
         <v>1.96</v>
@@ -8268,7 +8274,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q36">
         <v>1.98</v>
@@ -8474,7 +8480,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -8680,7 +8686,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q38">
         <v>3.25</v>
@@ -8758,7 +8764,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ38">
         <v>2.14</v>
@@ -9504,7 +9510,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9710,7 +9716,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q43">
         <v>2.3</v>
@@ -9916,7 +9922,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q44">
         <v>4.75</v>
@@ -10328,7 +10334,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10534,7 +10540,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -11152,7 +11158,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11358,7 +11364,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11564,7 +11570,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q52">
         <v>1.83</v>
@@ -11976,7 +11982,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q54">
         <v>7.5</v>
@@ -12594,7 +12600,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12672,7 +12678,7 @@
         <v>0.67</v>
       </c>
       <c r="AP57">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ57">
         <v>0.86</v>
@@ -12800,7 +12806,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q58">
         <v>2.8</v>
@@ -13006,7 +13012,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q59">
         <v>3.15</v>
@@ -13212,7 +13218,7 @@
         <v>106</v>
       </c>
       <c r="P60" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13418,7 +13424,7 @@
         <v>90</v>
       </c>
       <c r="P61" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13624,7 +13630,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q62">
         <v>3.11</v>
@@ -13830,7 +13836,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q63">
         <v>2.75</v>
@@ -14242,7 +14248,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q65">
         <v>1.8</v>
@@ -14654,7 +14660,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q67">
         <v>2.38</v>
@@ -14860,7 +14866,7 @@
         <v>127</v>
       </c>
       <c r="P68" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15272,7 +15278,7 @@
         <v>90</v>
       </c>
       <c r="P70" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q70">
         <v>5.5</v>
@@ -15353,7 +15359,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ70">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR70">
         <v>1.34</v>
@@ -15478,7 +15484,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q71">
         <v>2.45</v>
@@ -15968,7 +15974,7 @@
         <v>2</v>
       </c>
       <c r="AP73">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ73">
         <v>2</v>
@@ -16096,7 +16102,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q74">
         <v>2.65</v>
@@ -16302,7 +16308,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -16714,7 +16720,7 @@
         <v>133</v>
       </c>
       <c r="P77" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17126,7 +17132,7 @@
         <v>135</v>
       </c>
       <c r="P79" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17332,7 +17338,7 @@
         <v>90</v>
       </c>
       <c r="P80" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -17413,7 +17419,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ80">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR80">
         <v>1.55</v>
@@ -17538,7 +17544,7 @@
         <v>136</v>
       </c>
       <c r="P81" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17744,7 +17750,7 @@
         <v>137</v>
       </c>
       <c r="P82" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q82">
         <v>1.91</v>
@@ -17950,7 +17956,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q83">
         <v>1.62</v>
@@ -18362,7 +18368,7 @@
         <v>99</v>
       </c>
       <c r="P85" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18568,7 +18574,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q86">
         <v>1.83</v>
@@ -18774,7 +18780,7 @@
         <v>90</v>
       </c>
       <c r="P87" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -18980,7 +18986,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19392,7 +19398,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q90">
         <v>1.61</v>
@@ -19598,7 +19604,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q91">
         <v>1.8</v>
@@ -19691,31 +19697,31 @@
         <v>3.03</v>
       </c>
       <c r="AU91">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AV91">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW91">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX91">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY91">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AZ91">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BA91">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BB91">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC91">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD91">
         <v>1.36</v>
@@ -19804,7 +19810,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q92">
         <v>3.8</v>
@@ -20010,7 +20016,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q93">
         <v>2.55</v>
@@ -20216,7 +20222,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q94">
         <v>4.5</v>
@@ -20422,7 +20428,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q95">
         <v>4.5</v>
@@ -20579,6 +20585,212 @@
       </c>
       <c r="BP95">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7347852</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45430.35763888889</v>
+      </c>
+      <c r="F96">
+        <v>12</v>
+      </c>
+      <c r="G96" t="s">
+        <v>71</v>
+      </c>
+      <c r="H96" t="s">
+        <v>72</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>3</v>
+      </c>
+      <c r="K96">
+        <v>4</v>
+      </c>
+      <c r="L96">
+        <v>3</v>
+      </c>
+      <c r="M96">
+        <v>5</v>
+      </c>
+      <c r="N96">
+        <v>8</v>
+      </c>
+      <c r="O96" t="s">
+        <v>148</v>
+      </c>
+      <c r="P96" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q96">
+        <v>9</v>
+      </c>
+      <c r="R96">
+        <v>3.2</v>
+      </c>
+      <c r="S96">
+        <v>1.48</v>
+      </c>
+      <c r="T96">
+        <v>1.18</v>
+      </c>
+      <c r="U96">
+        <v>4.33</v>
+      </c>
+      <c r="V96">
+        <v>1.85</v>
+      </c>
+      <c r="W96">
+        <v>1.85</v>
+      </c>
+      <c r="X96">
+        <v>3.6</v>
+      </c>
+      <c r="Y96">
+        <v>1.25</v>
+      </c>
+      <c r="Z96">
+        <v>11</v>
+      </c>
+      <c r="AA96">
+        <v>7.5</v>
+      </c>
+      <c r="AB96">
+        <v>1.13</v>
+      </c>
+      <c r="AC96">
+        <v>1.01</v>
+      </c>
+      <c r="AD96">
+        <v>31</v>
+      </c>
+      <c r="AE96">
+        <v>1.09</v>
+      </c>
+      <c r="AF96">
+        <v>6</v>
+      </c>
+      <c r="AG96">
+        <v>1.35</v>
+      </c>
+      <c r="AH96">
+        <v>2.79</v>
+      </c>
+      <c r="AI96">
+        <v>1.95</v>
+      </c>
+      <c r="AJ96">
+        <v>1.75</v>
+      </c>
+      <c r="AK96">
+        <v>4.75</v>
+      </c>
+      <c r="AL96">
+        <v>1.09</v>
+      </c>
+      <c r="AM96">
+        <v>1.03</v>
+      </c>
+      <c r="AN96">
+        <v>1</v>
+      </c>
+      <c r="AO96">
+        <v>2.2</v>
+      </c>
+      <c r="AP96">
+        <v>0.83</v>
+      </c>
+      <c r="AQ96">
+        <v>2.33</v>
+      </c>
+      <c r="AR96">
+        <v>0.98</v>
+      </c>
+      <c r="AS96">
+        <v>2.11</v>
+      </c>
+      <c r="AT96">
+        <v>3.09</v>
+      </c>
+      <c r="AU96">
+        <v>7</v>
+      </c>
+      <c r="AV96">
+        <v>18</v>
+      </c>
+      <c r="AW96">
+        <v>1</v>
+      </c>
+      <c r="AX96">
+        <v>21</v>
+      </c>
+      <c r="AY96">
+        <v>8</v>
+      </c>
+      <c r="AZ96">
+        <v>39</v>
+      </c>
+      <c r="BA96">
+        <v>-1</v>
+      </c>
+      <c r="BB96">
+        <v>-1</v>
+      </c>
+      <c r="BC96">
+        <v>-1</v>
+      </c>
+      <c r="BD96">
+        <v>6</v>
+      </c>
+      <c r="BE96">
+        <v>11</v>
+      </c>
+      <c r="BF96">
+        <v>1.17</v>
+      </c>
+      <c r="BG96">
+        <v>1.18</v>
+      </c>
+      <c r="BH96">
+        <v>4.1</v>
+      </c>
+      <c r="BI96">
+        <v>1.34</v>
+      </c>
+      <c r="BJ96">
+        <v>3</v>
+      </c>
+      <c r="BK96">
+        <v>1.64</v>
+      </c>
+      <c r="BL96">
+        <v>2.12</v>
+      </c>
+      <c r="BM96">
+        <v>2.07</v>
+      </c>
+      <c r="BN96">
+        <v>1.67</v>
+      </c>
+      <c r="BO96">
+        <v>2.75</v>
+      </c>
+      <c r="BP96">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -20727,22 +20727,22 @@
         <v>3.09</v>
       </c>
       <c r="AU96">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AV96">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="AW96">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AX96">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="AY96">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AZ96">
-        <v>39</v>
+        <v>-1</v>
       </c>
       <c r="BA96">
         <v>-1</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -20727,31 +20727,31 @@
         <v>3.09</v>
       </c>
       <c r="AU96">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV96">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="AW96">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AX96">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="AY96">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AZ96">
-        <v>-1</v>
+        <v>39</v>
       </c>
       <c r="BA96">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BB96">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="BC96">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="BD96">
         <v>6</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="217">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -463,6 +463,18 @@
     <t>['35', '56', '62']</t>
   </si>
   <si>
+    <t>['9', '21', '51']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['72']</t>
+  </si>
+  <si>
+    <t>['41']</t>
+  </si>
+  <si>
     <t>['81', '90+3']</t>
   </si>
   <si>
@@ -574,9 +586,6 @@
     <t>['45+3', '52']</t>
   </si>
   <si>
-    <t>['90+3']</t>
-  </si>
-  <si>
     <t>['33', '79', '83']</t>
   </si>
   <si>
@@ -650,6 +659,12 @@
   </si>
   <si>
     <t>['24', '31', '43', '51', '80']</t>
+  </si>
+  <si>
+    <t>['23']</t>
+  </si>
+  <si>
+    <t>['13', '24']</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1026,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP96"/>
+  <dimension ref="A1:BP102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1270,7 +1285,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1476,7 +1491,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -1763,7 +1778,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ4">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1966,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ5">
         <v>0.86</v>
@@ -2094,7 +2109,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2175,7 +2190,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ6">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2584,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ8">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2712,7 +2727,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -2790,10 +2805,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ9">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2996,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ10">
         <v>1.17</v>
@@ -3330,7 +3345,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -3408,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ12">
         <v>1</v>
@@ -3617,7 +3632,7 @@
         <v>2</v>
       </c>
       <c r="AQ13">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR13">
         <v>2.48</v>
@@ -3820,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
         <v>2.33</v>
@@ -3948,7 +3963,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4026,10 +4041,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ15">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4360,7 +4375,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4566,7 +4581,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4772,7 +4787,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -4853,7 +4868,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ19">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5596,7 +5611,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -5802,7 +5817,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5883,7 +5898,7 @@
         <v>2</v>
       </c>
       <c r="AQ24">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR24">
         <v>1.89</v>
@@ -6008,7 +6023,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6086,7 +6101,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ25">
         <v>1.2</v>
@@ -6214,7 +6229,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6420,7 +6435,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -6501,7 +6516,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ27">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR27">
         <v>1.22</v>
@@ -6626,7 +6641,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6704,10 +6719,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ28">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR28">
         <v>2.4</v>
@@ -6832,7 +6847,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6910,10 +6925,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ29">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR29">
         <v>1.72</v>
@@ -7038,7 +7053,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7322,7 +7337,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ31">
         <v>1</v>
@@ -7450,7 +7465,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7528,7 +7543,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ32">
         <v>1.8</v>
@@ -7656,7 +7671,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q33">
         <v>1.73</v>
@@ -7734,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ33">
         <v>1.17</v>
@@ -7862,7 +7877,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q34">
         <v>6.4</v>
@@ -7940,7 +7955,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ34">
         <v>2.33</v>
@@ -8068,7 +8083,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q35">
         <v>1.96</v>
@@ -8274,7 +8289,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q36">
         <v>1.98</v>
@@ -8355,7 +8370,7 @@
         <v>2</v>
       </c>
       <c r="AQ36">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR36">
         <v>1.16</v>
@@ -8480,7 +8495,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -8561,7 +8576,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ37">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR37">
         <v>2.37</v>
@@ -8686,7 +8701,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q38">
         <v>3.25</v>
@@ -9382,7 +9397,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ41">
         <v>0.57</v>
@@ -9510,7 +9525,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9588,7 +9603,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ42">
         <v>0.86</v>
@@ -9716,7 +9731,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q43">
         <v>2.3</v>
@@ -9797,7 +9812,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ43">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR43">
         <v>2.56</v>
@@ -9922,7 +9937,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q44">
         <v>4.75</v>
@@ -10206,7 +10221,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ45">
         <v>1</v>
@@ -10334,7 +10349,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10415,7 +10430,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ46">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR46">
         <v>1.97</v>
@@ -10540,7 +10555,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10824,7 +10839,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ48">
         <v>1.2</v>
@@ -11033,7 +11048,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ49">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR49">
         <v>1.41</v>
@@ -11158,7 +11173,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11236,7 +11251,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ50">
         <v>2.14</v>
@@ -11364,7 +11379,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11570,7 +11585,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q52">
         <v>1.83</v>
@@ -11651,7 +11666,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ52">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR52">
         <v>1.36</v>
@@ -11982,7 +11997,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q54">
         <v>7.5</v>
@@ -12060,10 +12075,10 @@
         <v>3</v>
       </c>
       <c r="AP54">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ54">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR54">
         <v>0.95</v>
@@ -12266,7 +12281,7 @@
         <v>0.33</v>
       </c>
       <c r="AP55">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ55">
         <v>0.57</v>
@@ -12600,7 +12615,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12806,7 +12821,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q58">
         <v>2.8</v>
@@ -13012,7 +13027,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q59">
         <v>3.15</v>
@@ -13218,7 +13233,7 @@
         <v>106</v>
       </c>
       <c r="P60" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13296,10 +13311,10 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ60">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR60">
         <v>1.57</v>
@@ -13424,7 +13439,7 @@
         <v>90</v>
       </c>
       <c r="P61" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13630,7 +13645,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q62">
         <v>3.11</v>
@@ -13836,7 +13851,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q63">
         <v>2.75</v>
@@ -13917,7 +13932,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ63">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR63">
         <v>1.51</v>
@@ -14123,7 +14138,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ64">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR64">
         <v>2.2</v>
@@ -14248,7 +14263,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q65">
         <v>1.8</v>
@@ -14532,10 +14547,10 @@
         <v>2.2</v>
       </c>
       <c r="AP66">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ66">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR66">
         <v>1.59</v>
@@ -14660,7 +14675,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q67">
         <v>2.38</v>
@@ -14738,7 +14753,7 @@
         <v>1.25</v>
       </c>
       <c r="AP67">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ67">
         <v>0.83</v>
@@ -14866,7 +14881,7 @@
         <v>127</v>
       </c>
       <c r="P68" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -14944,7 +14959,7 @@
         <v>0.75</v>
       </c>
       <c r="AP68">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ68">
         <v>1.17</v>
@@ -15153,7 +15168,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ69">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR69">
         <v>1.09</v>
@@ -15278,7 +15293,7 @@
         <v>90</v>
       </c>
       <c r="P70" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q70">
         <v>5.5</v>
@@ -15356,7 +15371,7 @@
         <v>1.67</v>
       </c>
       <c r="AP70">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ70">
         <v>2.33</v>
@@ -15484,7 +15499,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q71">
         <v>2.45</v>
@@ -15565,7 +15580,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ71">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR71">
         <v>1.59</v>
@@ -15977,7 +15992,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ73">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR73">
         <v>1.06</v>
@@ -16102,7 +16117,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q74">
         <v>2.65</v>
@@ -16180,7 +16195,7 @@
         <v>1.8</v>
       </c>
       <c r="AP74">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ74">
         <v>2.14</v>
@@ -16308,7 +16323,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -16386,7 +16401,7 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ75">
         <v>1.17</v>
@@ -16720,7 +16735,7 @@
         <v>133</v>
       </c>
       <c r="P77" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -16798,7 +16813,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ77">
         <v>1</v>
@@ -17132,7 +17147,7 @@
         <v>135</v>
       </c>
       <c r="P79" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17338,7 +17353,7 @@
         <v>90</v>
       </c>
       <c r="P80" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -17544,7 +17559,7 @@
         <v>136</v>
       </c>
       <c r="P81" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17622,7 +17637,7 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ81">
         <v>0.86</v>
@@ -17750,7 +17765,7 @@
         <v>137</v>
       </c>
       <c r="P82" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q82">
         <v>1.91</v>
@@ -17956,7 +17971,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q83">
         <v>1.62</v>
@@ -18240,10 +18255,10 @@
         <v>2.6</v>
       </c>
       <c r="AP84">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ84">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR84">
         <v>1.89</v>
@@ -18368,7 +18383,7 @@
         <v>99</v>
       </c>
       <c r="P85" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18449,7 +18464,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ85">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR85">
         <v>1.84</v>
@@ -18574,7 +18589,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q86">
         <v>1.83</v>
@@ -18780,7 +18795,7 @@
         <v>90</v>
       </c>
       <c r="P87" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -18986,7 +19001,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19398,7 +19413,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q90">
         <v>1.61</v>
@@ -19479,7 +19494,7 @@
         <v>2</v>
       </c>
       <c r="AQ90">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR90">
         <v>2.05</v>
@@ -19604,7 +19619,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q91">
         <v>1.8</v>
@@ -19682,7 +19697,7 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ91">
         <v>0.86</v>
@@ -19810,7 +19825,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q92">
         <v>3.8</v>
@@ -20016,7 +20031,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q93">
         <v>2.55</v>
@@ -20094,10 +20109,10 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ93">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR93">
         <v>1.57</v>
@@ -20222,7 +20237,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q94">
         <v>4.5</v>
@@ -20300,7 +20315,7 @@
         <v>1.5</v>
       </c>
       <c r="AP94">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ94">
         <v>1.8</v>
@@ -20428,7 +20443,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q95">
         <v>4.5</v>
@@ -20509,7 +20524,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ95">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR95">
         <v>1.1</v>
@@ -20634,7 +20649,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q96">
         <v>9</v>
@@ -20791,6 +20806,1242 @@
       </c>
       <c r="BP96">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7347853</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45433.33333333334</v>
+      </c>
+      <c r="F97">
+        <v>13</v>
+      </c>
+      <c r="G97" t="s">
+        <v>77</v>
+      </c>
+      <c r="H97" t="s">
+        <v>82</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97" t="s">
+        <v>90</v>
+      </c>
+      <c r="P97" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q97">
+        <v>2.72</v>
+      </c>
+      <c r="R97">
+        <v>2.24</v>
+      </c>
+      <c r="S97">
+        <v>3.44</v>
+      </c>
+      <c r="T97">
+        <v>1.32</v>
+      </c>
+      <c r="U97">
+        <v>3.22</v>
+      </c>
+      <c r="V97">
+        <v>2.48</v>
+      </c>
+      <c r="W97">
+        <v>1.5</v>
+      </c>
+      <c r="X97">
+        <v>5.9</v>
+      </c>
+      <c r="Y97">
+        <v>1.11</v>
+      </c>
+      <c r="Z97">
+        <v>2.2</v>
+      </c>
+      <c r="AA97">
+        <v>3.4</v>
+      </c>
+      <c r="AB97">
+        <v>2.9</v>
+      </c>
+      <c r="AC97">
+        <v>1.01</v>
+      </c>
+      <c r="AD97">
+        <v>11</v>
+      </c>
+      <c r="AE97">
+        <v>1.2</v>
+      </c>
+      <c r="AF97">
+        <v>4</v>
+      </c>
+      <c r="AG97">
+        <v>1.67</v>
+      </c>
+      <c r="AH97">
+        <v>2.1</v>
+      </c>
+      <c r="AI97">
+        <v>1.57</v>
+      </c>
+      <c r="AJ97">
+        <v>2.25</v>
+      </c>
+      <c r="AK97">
+        <v>1.4</v>
+      </c>
+      <c r="AL97">
+        <v>1.29</v>
+      </c>
+      <c r="AM97">
+        <v>1.65</v>
+      </c>
+      <c r="AN97">
+        <v>0.5</v>
+      </c>
+      <c r="AO97">
+        <v>1.17</v>
+      </c>
+      <c r="AP97">
+        <v>0.57</v>
+      </c>
+      <c r="AQ97">
+        <v>1.14</v>
+      </c>
+      <c r="AR97">
+        <v>1.33</v>
+      </c>
+      <c r="AS97">
+        <v>1.26</v>
+      </c>
+      <c r="AT97">
+        <v>2.59</v>
+      </c>
+      <c r="AU97">
+        <v>2</v>
+      </c>
+      <c r="AV97">
+        <v>8</v>
+      </c>
+      <c r="AW97">
+        <v>10</v>
+      </c>
+      <c r="AX97">
+        <v>10</v>
+      </c>
+      <c r="AY97">
+        <v>12</v>
+      </c>
+      <c r="AZ97">
+        <v>18</v>
+      </c>
+      <c r="BA97">
+        <v>1</v>
+      </c>
+      <c r="BB97">
+        <v>6</v>
+      </c>
+      <c r="BC97">
+        <v>7</v>
+      </c>
+      <c r="BD97">
+        <v>1.82</v>
+      </c>
+      <c r="BE97">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF97">
+        <v>2.27</v>
+      </c>
+      <c r="BG97">
+        <v>1.24</v>
+      </c>
+      <c r="BH97">
+        <v>3.48</v>
+      </c>
+      <c r="BI97">
+        <v>1.46</v>
+      </c>
+      <c r="BJ97">
+        <v>2.45</v>
+      </c>
+      <c r="BK97">
+        <v>1.82</v>
+      </c>
+      <c r="BL97">
+        <v>1.88</v>
+      </c>
+      <c r="BM97">
+        <v>2.32</v>
+      </c>
+      <c r="BN97">
+        <v>1.51</v>
+      </c>
+      <c r="BO97">
+        <v>3.08</v>
+      </c>
+      <c r="BP97">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7347854</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45433.35763888889</v>
+      </c>
+      <c r="F98">
+        <v>13</v>
+      </c>
+      <c r="G98" t="s">
+        <v>76</v>
+      </c>
+      <c r="H98" t="s">
+        <v>83</v>
+      </c>
+      <c r="I98">
+        <v>2</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>3</v>
+      </c>
+      <c r="L98">
+        <v>3</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>4</v>
+      </c>
+      <c r="O98" t="s">
+        <v>149</v>
+      </c>
+      <c r="P98" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q98">
+        <v>2.31</v>
+      </c>
+      <c r="R98">
+        <v>2.51</v>
+      </c>
+      <c r="S98">
+        <v>4.22</v>
+      </c>
+      <c r="T98">
+        <v>1.27</v>
+      </c>
+      <c r="U98">
+        <v>3.54</v>
+      </c>
+      <c r="V98">
+        <v>2.27</v>
+      </c>
+      <c r="W98">
+        <v>1.57</v>
+      </c>
+      <c r="X98">
+        <v>5.15</v>
+      </c>
+      <c r="Y98">
+        <v>1.14</v>
+      </c>
+      <c r="Z98">
+        <v>1.86</v>
+      </c>
+      <c r="AA98">
+        <v>4</v>
+      </c>
+      <c r="AB98">
+        <v>4.1</v>
+      </c>
+      <c r="AC98">
+        <v>1.03</v>
+      </c>
+      <c r="AD98">
+        <v>19</v>
+      </c>
+      <c r="AE98">
+        <v>1.14</v>
+      </c>
+      <c r="AF98">
+        <v>4.65</v>
+      </c>
+      <c r="AG98">
+        <v>1.5</v>
+      </c>
+      <c r="AH98">
+        <v>2.31</v>
+      </c>
+      <c r="AI98">
+        <v>1.52</v>
+      </c>
+      <c r="AJ98">
+        <v>2.35</v>
+      </c>
+      <c r="AK98">
+        <v>1.27</v>
+      </c>
+      <c r="AL98">
+        <v>1.27</v>
+      </c>
+      <c r="AM98">
+        <v>1.95</v>
+      </c>
+      <c r="AN98">
+        <v>1.86</v>
+      </c>
+      <c r="AO98">
+        <v>1.33</v>
+      </c>
+      <c r="AP98">
+        <v>2</v>
+      </c>
+      <c r="AQ98">
+        <v>1.14</v>
+      </c>
+      <c r="AR98">
+        <v>1.77</v>
+      </c>
+      <c r="AS98">
+        <v>1.07</v>
+      </c>
+      <c r="AT98">
+        <v>2.84</v>
+      </c>
+      <c r="AU98">
+        <v>6</v>
+      </c>
+      <c r="AV98">
+        <v>4</v>
+      </c>
+      <c r="AW98">
+        <v>9</v>
+      </c>
+      <c r="AX98">
+        <v>8</v>
+      </c>
+      <c r="AY98">
+        <v>15</v>
+      </c>
+      <c r="AZ98">
+        <v>12</v>
+      </c>
+      <c r="BA98">
+        <v>2</v>
+      </c>
+      <c r="BB98">
+        <v>5</v>
+      </c>
+      <c r="BC98">
+        <v>7</v>
+      </c>
+      <c r="BD98">
+        <v>1.46</v>
+      </c>
+      <c r="BE98">
+        <v>9.6</v>
+      </c>
+      <c r="BF98">
+        <v>3.16</v>
+      </c>
+      <c r="BG98">
+        <v>1.21</v>
+      </c>
+      <c r="BH98">
+        <v>3.74</v>
+      </c>
+      <c r="BI98">
+        <v>1.4</v>
+      </c>
+      <c r="BJ98">
+        <v>2.64</v>
+      </c>
+      <c r="BK98">
+        <v>1.74</v>
+      </c>
+      <c r="BL98">
+        <v>2.05</v>
+      </c>
+      <c r="BM98">
+        <v>2.19</v>
+      </c>
+      <c r="BN98">
+        <v>1.65</v>
+      </c>
+      <c r="BO98">
+        <v>2.88</v>
+      </c>
+      <c r="BP98">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7347855</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45433.35763888889</v>
+      </c>
+      <c r="F99">
+        <v>13</v>
+      </c>
+      <c r="G99" t="s">
+        <v>80</v>
+      </c>
+      <c r="H99" t="s">
+        <v>79</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>2</v>
+      </c>
+      <c r="K99">
+        <v>2</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>2</v>
+      </c>
+      <c r="N99">
+        <v>3</v>
+      </c>
+      <c r="O99" t="s">
+        <v>150</v>
+      </c>
+      <c r="P99" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q99">
+        <v>4.5</v>
+      </c>
+      <c r="R99">
+        <v>2.3</v>
+      </c>
+      <c r="S99">
+        <v>2.25</v>
+      </c>
+      <c r="T99">
+        <v>1.32</v>
+      </c>
+      <c r="U99">
+        <v>3.22</v>
+      </c>
+      <c r="V99">
+        <v>2.48</v>
+      </c>
+      <c r="W99">
+        <v>1.5</v>
+      </c>
+      <c r="X99">
+        <v>5.85</v>
+      </c>
+      <c r="Y99">
+        <v>1.11</v>
+      </c>
+      <c r="Z99">
+        <v>4.7</v>
+      </c>
+      <c r="AA99">
+        <v>4.1</v>
+      </c>
+      <c r="AB99">
+        <v>1.74</v>
+      </c>
+      <c r="AC99">
+        <v>1.01</v>
+      </c>
+      <c r="AD99">
+        <v>11</v>
+      </c>
+      <c r="AE99">
+        <v>1.2</v>
+      </c>
+      <c r="AF99">
+        <v>4</v>
+      </c>
+      <c r="AG99">
+        <v>1.61</v>
+      </c>
+      <c r="AH99">
+        <v>2.23</v>
+      </c>
+      <c r="AI99">
+        <v>1.65</v>
+      </c>
+      <c r="AJ99">
+        <v>2.1</v>
+      </c>
+      <c r="AK99">
+        <v>2.15</v>
+      </c>
+      <c r="AL99">
+        <v>1.25</v>
+      </c>
+      <c r="AM99">
+        <v>1.2</v>
+      </c>
+      <c r="AN99">
+        <v>0.83</v>
+      </c>
+      <c r="AO99">
+        <v>2.33</v>
+      </c>
+      <c r="AP99">
+        <v>0.71</v>
+      </c>
+      <c r="AQ99">
+        <v>2.43</v>
+      </c>
+      <c r="AR99">
+        <v>1.53</v>
+      </c>
+      <c r="AS99">
+        <v>1.62</v>
+      </c>
+      <c r="AT99">
+        <v>3.15</v>
+      </c>
+      <c r="AU99">
+        <v>4</v>
+      </c>
+      <c r="AV99">
+        <v>7</v>
+      </c>
+      <c r="AW99">
+        <v>11</v>
+      </c>
+      <c r="AX99">
+        <v>6</v>
+      </c>
+      <c r="AY99">
+        <v>15</v>
+      </c>
+      <c r="AZ99">
+        <v>13</v>
+      </c>
+      <c r="BA99">
+        <v>10</v>
+      </c>
+      <c r="BB99">
+        <v>2</v>
+      </c>
+      <c r="BC99">
+        <v>12</v>
+      </c>
+      <c r="BD99">
+        <v>2.45</v>
+      </c>
+      <c r="BE99">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF99">
+        <v>1.7</v>
+      </c>
+      <c r="BG99">
+        <v>1.18</v>
+      </c>
+      <c r="BH99">
+        <v>4.15</v>
+      </c>
+      <c r="BI99">
+        <v>1.35</v>
+      </c>
+      <c r="BJ99">
+        <v>2.84</v>
+      </c>
+      <c r="BK99">
+        <v>1.63</v>
+      </c>
+      <c r="BL99">
+        <v>2.09</v>
+      </c>
+      <c r="BM99">
+        <v>2.06</v>
+      </c>
+      <c r="BN99">
+        <v>1.68</v>
+      </c>
+      <c r="BO99">
+        <v>2.67</v>
+      </c>
+      <c r="BP99">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7347856</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45433.35763888889</v>
+      </c>
+      <c r="F100">
+        <v>13</v>
+      </c>
+      <c r="G100" t="s">
+        <v>78</v>
+      </c>
+      <c r="H100" t="s">
+        <v>85</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>2</v>
+      </c>
+      <c r="O100" t="s">
+        <v>151</v>
+      </c>
+      <c r="P100" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q100">
+        <v>4.63</v>
+      </c>
+      <c r="R100">
+        <v>2.32</v>
+      </c>
+      <c r="S100">
+        <v>2.37</v>
+      </c>
+      <c r="T100">
+        <v>1.34</v>
+      </c>
+      <c r="U100">
+        <v>3.17</v>
+      </c>
+      <c r="V100">
+        <v>2.71</v>
+      </c>
+      <c r="W100">
+        <v>1.44</v>
+      </c>
+      <c r="X100">
+        <v>6.45</v>
+      </c>
+      <c r="Y100">
+        <v>1.09</v>
+      </c>
+      <c r="Z100">
+        <v>4</v>
+      </c>
+      <c r="AA100">
+        <v>3.65</v>
+      </c>
+      <c r="AB100">
+        <v>1.97</v>
+      </c>
+      <c r="AC100">
+        <v>1.05</v>
+      </c>
+      <c r="AD100">
+        <v>8.5</v>
+      </c>
+      <c r="AE100">
+        <v>1.28</v>
+      </c>
+      <c r="AF100">
+        <v>3.5</v>
+      </c>
+      <c r="AG100">
+        <v>1.88</v>
+      </c>
+      <c r="AH100">
+        <v>2</v>
+      </c>
+      <c r="AI100">
+        <v>1.75</v>
+      </c>
+      <c r="AJ100">
+        <v>2</v>
+      </c>
+      <c r="AK100">
+        <v>1.87</v>
+      </c>
+      <c r="AL100">
+        <v>1.22</v>
+      </c>
+      <c r="AM100">
+        <v>1.2</v>
+      </c>
+      <c r="AN100">
+        <v>0.8</v>
+      </c>
+      <c r="AO100">
+        <v>2</v>
+      </c>
+      <c r="AP100">
+        <v>0.83</v>
+      </c>
+      <c r="AQ100">
+        <v>1.88</v>
+      </c>
+      <c r="AR100">
+        <v>1.45</v>
+      </c>
+      <c r="AS100">
+        <v>1.09</v>
+      </c>
+      <c r="AT100">
+        <v>2.54</v>
+      </c>
+      <c r="AU100">
+        <v>4</v>
+      </c>
+      <c r="AV100">
+        <v>4</v>
+      </c>
+      <c r="AW100">
+        <v>9</v>
+      </c>
+      <c r="AX100">
+        <v>11</v>
+      </c>
+      <c r="AY100">
+        <v>13</v>
+      </c>
+      <c r="AZ100">
+        <v>15</v>
+      </c>
+      <c r="BA100">
+        <v>5</v>
+      </c>
+      <c r="BB100">
+        <v>6</v>
+      </c>
+      <c r="BC100">
+        <v>11</v>
+      </c>
+      <c r="BD100">
+        <v>2.88</v>
+      </c>
+      <c r="BE100">
+        <v>9.5</v>
+      </c>
+      <c r="BF100">
+        <v>1.53</v>
+      </c>
+      <c r="BG100">
+        <v>1.17</v>
+      </c>
+      <c r="BH100">
+        <v>4.15</v>
+      </c>
+      <c r="BI100">
+        <v>1.35</v>
+      </c>
+      <c r="BJ100">
+        <v>2.84</v>
+      </c>
+      <c r="BK100">
+        <v>1.62</v>
+      </c>
+      <c r="BL100">
+        <v>2.11</v>
+      </c>
+      <c r="BM100">
+        <v>2.04</v>
+      </c>
+      <c r="BN100">
+        <v>1.69</v>
+      </c>
+      <c r="BO100">
+        <v>2.64</v>
+      </c>
+      <c r="BP100">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7347857</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45433.375</v>
+      </c>
+      <c r="F101">
+        <v>13</v>
+      </c>
+      <c r="G101" t="s">
+        <v>81</v>
+      </c>
+      <c r="H101" t="s">
+        <v>74</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101">
+        <v>2</v>
+      </c>
+      <c r="O101" t="s">
+        <v>150</v>
+      </c>
+      <c r="P101" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q101">
+        <v>2.43</v>
+      </c>
+      <c r="R101">
+        <v>2.4</v>
+      </c>
+      <c r="S101">
+        <v>4.2</v>
+      </c>
+      <c r="T101">
+        <v>1.31</v>
+      </c>
+      <c r="U101">
+        <v>3.28</v>
+      </c>
+      <c r="V101">
+        <v>2.48</v>
+      </c>
+      <c r="W101">
+        <v>1.49</v>
+      </c>
+      <c r="X101">
+        <v>5.8</v>
+      </c>
+      <c r="Y101">
+        <v>1.12</v>
+      </c>
+      <c r="Z101">
+        <v>1.93</v>
+      </c>
+      <c r="AA101">
+        <v>3.95</v>
+      </c>
+      <c r="AB101">
+        <v>3.9</v>
+      </c>
+      <c r="AC101">
+        <v>1.04</v>
+      </c>
+      <c r="AD101">
+        <v>15.5</v>
+      </c>
+      <c r="AE101">
+        <v>1.18</v>
+      </c>
+      <c r="AF101">
+        <v>4.05</v>
+      </c>
+      <c r="AG101">
+        <v>1.66</v>
+      </c>
+      <c r="AH101">
+        <v>2.14</v>
+      </c>
+      <c r="AI101">
+        <v>1.6</v>
+      </c>
+      <c r="AJ101">
+        <v>2.19</v>
+      </c>
+      <c r="AK101">
+        <v>1.26</v>
+      </c>
+      <c r="AL101">
+        <v>1.26</v>
+      </c>
+      <c r="AM101">
+        <v>1.85</v>
+      </c>
+      <c r="AN101">
+        <v>0.6</v>
+      </c>
+      <c r="AO101">
+        <v>1</v>
+      </c>
+      <c r="AP101">
+        <v>0.67</v>
+      </c>
+      <c r="AQ101">
+        <v>1</v>
+      </c>
+      <c r="AR101">
+        <v>1.06</v>
+      </c>
+      <c r="AS101">
+        <v>1.03</v>
+      </c>
+      <c r="AT101">
+        <v>2.09</v>
+      </c>
+      <c r="AU101">
+        <v>7</v>
+      </c>
+      <c r="AV101">
+        <v>2</v>
+      </c>
+      <c r="AW101">
+        <v>22</v>
+      </c>
+      <c r="AX101">
+        <v>2</v>
+      </c>
+      <c r="AY101">
+        <v>29</v>
+      </c>
+      <c r="AZ101">
+        <v>4</v>
+      </c>
+      <c r="BA101">
+        <v>9</v>
+      </c>
+      <c r="BB101">
+        <v>0</v>
+      </c>
+      <c r="BC101">
+        <v>9</v>
+      </c>
+      <c r="BD101">
+        <v>1.49</v>
+      </c>
+      <c r="BE101">
+        <v>9.5</v>
+      </c>
+      <c r="BF101">
+        <v>3.04</v>
+      </c>
+      <c r="BG101">
+        <v>1.21</v>
+      </c>
+      <c r="BH101">
+        <v>3.74</v>
+      </c>
+      <c r="BI101">
+        <v>1.4</v>
+      </c>
+      <c r="BJ101">
+        <v>2.64</v>
+      </c>
+      <c r="BK101">
+        <v>1.76</v>
+      </c>
+      <c r="BL101">
+        <v>2.04</v>
+      </c>
+      <c r="BM101">
+        <v>2.22</v>
+      </c>
+      <c r="BN101">
+        <v>1.65</v>
+      </c>
+      <c r="BO101">
+        <v>2.84</v>
+      </c>
+      <c r="BP101">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>7347858</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45433.375</v>
+      </c>
+      <c r="F102">
+        <v>13</v>
+      </c>
+      <c r="G102" t="s">
+        <v>73</v>
+      </c>
+      <c r="H102" t="s">
+        <v>70</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>2</v>
+      </c>
+      <c r="O102" t="s">
+        <v>152</v>
+      </c>
+      <c r="P102" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q102">
+        <v>4</v>
+      </c>
+      <c r="R102">
+        <v>2.25</v>
+      </c>
+      <c r="S102">
+        <v>2.4</v>
+      </c>
+      <c r="T102">
+        <v>1.32</v>
+      </c>
+      <c r="U102">
+        <v>3.15</v>
+      </c>
+      <c r="V102">
+        <v>2.4</v>
+      </c>
+      <c r="W102">
+        <v>1.51</v>
+      </c>
+      <c r="X102">
+        <v>5.45</v>
+      </c>
+      <c r="Y102">
+        <v>1.12</v>
+      </c>
+      <c r="Z102">
+        <v>3.55</v>
+      </c>
+      <c r="AA102">
+        <v>3.75</v>
+      </c>
+      <c r="AB102">
+        <v>2.07</v>
+      </c>
+      <c r="AC102">
+        <v>1.01</v>
+      </c>
+      <c r="AD102">
+        <v>11</v>
+      </c>
+      <c r="AE102">
+        <v>1.2</v>
+      </c>
+      <c r="AF102">
+        <v>4</v>
+      </c>
+      <c r="AG102">
+        <v>1.66</v>
+      </c>
+      <c r="AH102">
+        <v>2.15</v>
+      </c>
+      <c r="AI102">
+        <v>1.6</v>
+      </c>
+      <c r="AJ102">
+        <v>2.25</v>
+      </c>
+      <c r="AK102">
+        <v>1.9</v>
+      </c>
+      <c r="AL102">
+        <v>1.2</v>
+      </c>
+      <c r="AM102">
+        <v>1.2</v>
+      </c>
+      <c r="AN102">
+        <v>0.6</v>
+      </c>
+      <c r="AO102">
+        <v>2</v>
+      </c>
+      <c r="AP102">
+        <v>0.67</v>
+      </c>
+      <c r="AQ102">
+        <v>1.83</v>
+      </c>
+      <c r="AR102">
+        <v>1.58</v>
+      </c>
+      <c r="AS102">
+        <v>1.55</v>
+      </c>
+      <c r="AT102">
+        <v>3.13</v>
+      </c>
+      <c r="AU102">
+        <v>3</v>
+      </c>
+      <c r="AV102">
+        <v>7</v>
+      </c>
+      <c r="AW102">
+        <v>12</v>
+      </c>
+      <c r="AX102">
+        <v>14</v>
+      </c>
+      <c r="AY102">
+        <v>15</v>
+      </c>
+      <c r="AZ102">
+        <v>21</v>
+      </c>
+      <c r="BA102">
+        <v>5</v>
+      </c>
+      <c r="BB102">
+        <v>6</v>
+      </c>
+      <c r="BC102">
+        <v>11</v>
+      </c>
+      <c r="BD102">
+        <v>2.68</v>
+      </c>
+      <c r="BE102">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF102">
+        <v>1.6</v>
+      </c>
+      <c r="BG102">
+        <v>1.16</v>
+      </c>
+      <c r="BH102">
+        <v>4.33</v>
+      </c>
+      <c r="BI102">
+        <v>1.33</v>
+      </c>
+      <c r="BJ102">
+        <v>2.93</v>
+      </c>
+      <c r="BK102">
+        <v>1.64</v>
+      </c>
+      <c r="BL102">
+        <v>2.22</v>
+      </c>
+      <c r="BM102">
+        <v>2.01</v>
+      </c>
+      <c r="BN102">
+        <v>1.78</v>
+      </c>
+      <c r="BO102">
+        <v>2.57</v>
+      </c>
+      <c r="BP102">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="220">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -475,6 +475,12 @@
     <t>['41']</t>
   </si>
   <si>
+    <t>['57', '90+2']</t>
+  </si>
+  <si>
+    <t>['87', '90+12']</t>
+  </si>
+  <si>
     <t>['81', '90+3']</t>
   </si>
   <si>
@@ -665,6 +671,9 @@
   </si>
   <si>
     <t>['13', '24']</t>
+  </si>
+  <si>
+    <t>['8', '44']</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1035,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP102"/>
+  <dimension ref="A1:BP104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1285,7 +1294,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1366,7 +1375,7 @@
         <v>2</v>
       </c>
       <c r="AQ2">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1491,7 +1500,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -1569,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ3">
         <v>0.83</v>
@@ -1775,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ4">
         <v>1.14</v>
@@ -2109,7 +2118,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2727,7 +2736,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -3014,7 +3023,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ10">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3345,7 +3354,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -3963,7 +3972,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4250,7 +4259,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ16">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR16">
         <v>1.14</v>
@@ -4375,7 +4384,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4581,7 +4590,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4787,7 +4796,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5277,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ21">
         <v>0.57</v>
@@ -5483,7 +5492,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ22">
         <v>0.83</v>
@@ -5611,7 +5620,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -5817,7 +5826,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6023,7 +6032,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6229,7 +6238,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6435,7 +6444,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -6641,7 +6650,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6847,7 +6856,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -7053,7 +7062,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7465,7 +7474,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7546,7 +7555,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ32">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR32">
         <v>1.5</v>
@@ -7671,7 +7680,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q33">
         <v>1.73</v>
@@ -7877,7 +7886,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q34">
         <v>6.4</v>
@@ -8083,7 +8092,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q35">
         <v>1.96</v>
@@ -8289,7 +8298,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q36">
         <v>1.98</v>
@@ -8495,7 +8504,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -8701,7 +8710,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q38">
         <v>3.25</v>
@@ -8779,7 +8788,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ38">
         <v>2.14</v>
@@ -8988,7 +8997,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ39">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR39">
         <v>1.09</v>
@@ -9525,7 +9534,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9731,7 +9740,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q43">
         <v>2.3</v>
@@ -9937,7 +9946,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q44">
         <v>4.75</v>
@@ -10018,7 +10027,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ44">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR44">
         <v>1.03</v>
@@ -10349,7 +10358,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10427,7 +10436,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ46">
         <v>1.83</v>
@@ -10555,7 +10564,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -11173,7 +11182,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11379,7 +11388,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11585,7 +11594,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q52">
         <v>1.83</v>
@@ -11872,7 +11881,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ53">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR53">
         <v>1.78</v>
@@ -11997,7 +12006,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q54">
         <v>7.5</v>
@@ -12615,7 +12624,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12693,7 +12702,7 @@
         <v>0.67</v>
       </c>
       <c r="AP57">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ57">
         <v>0.86</v>
@@ -12821,7 +12830,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q58">
         <v>2.8</v>
@@ -13027,7 +13036,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q59">
         <v>3.15</v>
@@ -13233,7 +13242,7 @@
         <v>106</v>
       </c>
       <c r="P60" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13645,7 +13654,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q62">
         <v>3.11</v>
@@ -13851,7 +13860,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q63">
         <v>2.75</v>
@@ -14135,7 +14144,7 @@
         <v>3</v>
       </c>
       <c r="AP64">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ64">
         <v>2.43</v>
@@ -14263,7 +14272,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q65">
         <v>1.8</v>
@@ -14675,7 +14684,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q67">
         <v>2.38</v>
@@ -14881,7 +14890,7 @@
         <v>127</v>
       </c>
       <c r="P68" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15293,7 +15302,7 @@
         <v>90</v>
       </c>
       <c r="P70" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q70">
         <v>5.5</v>
@@ -15499,7 +15508,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q71">
         <v>2.45</v>
@@ -15989,7 +15998,7 @@
         <v>2</v>
       </c>
       <c r="AP73">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ73">
         <v>1.83</v>
@@ -16117,7 +16126,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q74">
         <v>2.65</v>
@@ -16323,7 +16332,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -16404,7 +16413,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ75">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR75">
         <v>1</v>
@@ -16735,7 +16744,7 @@
         <v>133</v>
       </c>
       <c r="P77" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17147,7 +17156,7 @@
         <v>135</v>
       </c>
       <c r="P79" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17228,7 +17237,7 @@
         <v>2</v>
       </c>
       <c r="AQ79">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR79">
         <v>2.06</v>
@@ -17353,7 +17362,7 @@
         <v>90</v>
       </c>
       <c r="P80" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -17559,7 +17568,7 @@
         <v>136</v>
       </c>
       <c r="P81" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17765,7 +17774,7 @@
         <v>137</v>
       </c>
       <c r="P82" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q82">
         <v>1.91</v>
@@ -17971,7 +17980,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q83">
         <v>1.62</v>
@@ -18049,10 +18058,10 @@
         <v>1.4</v>
       </c>
       <c r="AP83">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ83">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR83">
         <v>1.9</v>
@@ -18383,7 +18392,7 @@
         <v>99</v>
       </c>
       <c r="P85" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18589,7 +18598,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q86">
         <v>1.83</v>
@@ -18795,7 +18804,7 @@
         <v>90</v>
       </c>
       <c r="P87" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -19001,7 +19010,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19413,7 +19422,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q90">
         <v>1.61</v>
@@ -19619,7 +19628,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q91">
         <v>1.8</v>
@@ -19825,7 +19834,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q92">
         <v>3.8</v>
@@ -20031,7 +20040,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q93">
         <v>2.55</v>
@@ -20237,7 +20246,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q94">
         <v>4.5</v>
@@ -20318,7 +20327,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ94">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR94">
         <v>1.27</v>
@@ -20443,7 +20452,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q95">
         <v>4.5</v>
@@ -20649,7 +20658,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q96">
         <v>9</v>
@@ -20727,7 +20736,7 @@
         <v>2.2</v>
       </c>
       <c r="AP96">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ96">
         <v>2.33</v>
@@ -21061,7 +21070,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q98">
         <v>2.31</v>
@@ -21267,7 +21276,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q99">
         <v>4.5</v>
@@ -21473,7 +21482,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q100">
         <v>4.63</v>
@@ -21679,7 +21688,7 @@
         <v>150</v>
       </c>
       <c r="P101" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q101">
         <v>2.43</v>
@@ -21885,7 +21894,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -22042,6 +22051,418 @@
       </c>
       <c r="BP102">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7347859</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45434.35763888889</v>
+      </c>
+      <c r="F103">
+        <v>13</v>
+      </c>
+      <c r="G103" t="s">
+        <v>71</v>
+      </c>
+      <c r="H103" t="s">
+        <v>84</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>2</v>
+      </c>
+      <c r="K103">
+        <v>2</v>
+      </c>
+      <c r="L103">
+        <v>2</v>
+      </c>
+      <c r="M103">
+        <v>2</v>
+      </c>
+      <c r="N103">
+        <v>4</v>
+      </c>
+      <c r="O103" t="s">
+        <v>153</v>
+      </c>
+      <c r="P103" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q103">
+        <v>3.2</v>
+      </c>
+      <c r="R103">
+        <v>2.1</v>
+      </c>
+      <c r="S103">
+        <v>3</v>
+      </c>
+      <c r="T103">
+        <v>1.36</v>
+      </c>
+      <c r="U103">
+        <v>2.9</v>
+      </c>
+      <c r="V103">
+        <v>2.55</v>
+      </c>
+      <c r="W103">
+        <v>1.45</v>
+      </c>
+      <c r="X103">
+        <v>6.35</v>
+      </c>
+      <c r="Y103">
+        <v>1.1</v>
+      </c>
+      <c r="Z103">
+        <v>2.37</v>
+      </c>
+      <c r="AA103">
+        <v>3.29</v>
+      </c>
+      <c r="AB103">
+        <v>2.86</v>
+      </c>
+      <c r="AC103">
+        <v>1.02</v>
+      </c>
+      <c r="AD103">
+        <v>10</v>
+      </c>
+      <c r="AE103">
+        <v>1.22</v>
+      </c>
+      <c r="AF103">
+        <v>3.8</v>
+      </c>
+      <c r="AG103">
+        <v>1.77</v>
+      </c>
+      <c r="AH103">
+        <v>2.05</v>
+      </c>
+      <c r="AI103">
+        <v>1.6</v>
+      </c>
+      <c r="AJ103">
+        <v>2.2</v>
+      </c>
+      <c r="AK103">
+        <v>1.5</v>
+      </c>
+      <c r="AL103">
+        <v>1.25</v>
+      </c>
+      <c r="AM103">
+        <v>1.44</v>
+      </c>
+      <c r="AN103">
+        <v>0.83</v>
+      </c>
+      <c r="AO103">
+        <v>1.17</v>
+      </c>
+      <c r="AP103">
+        <v>0.86</v>
+      </c>
+      <c r="AQ103">
+        <v>1.14</v>
+      </c>
+      <c r="AR103">
+        <v>1</v>
+      </c>
+      <c r="AS103">
+        <v>0.97</v>
+      </c>
+      <c r="AT103">
+        <v>1.97</v>
+      </c>
+      <c r="AU103">
+        <v>10</v>
+      </c>
+      <c r="AV103">
+        <v>5</v>
+      </c>
+      <c r="AW103">
+        <v>7</v>
+      </c>
+      <c r="AX103">
+        <v>6</v>
+      </c>
+      <c r="AY103">
+        <v>17</v>
+      </c>
+      <c r="AZ103">
+        <v>11</v>
+      </c>
+      <c r="BA103">
+        <v>3</v>
+      </c>
+      <c r="BB103">
+        <v>3</v>
+      </c>
+      <c r="BC103">
+        <v>6</v>
+      </c>
+      <c r="BD103">
+        <v>2.03</v>
+      </c>
+      <c r="BE103">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF103">
+        <v>2.03</v>
+      </c>
+      <c r="BG103">
+        <v>1.35</v>
+      </c>
+      <c r="BH103">
+        <v>2.84</v>
+      </c>
+      <c r="BI103">
+        <v>1.65</v>
+      </c>
+      <c r="BJ103">
+        <v>2.11</v>
+      </c>
+      <c r="BK103">
+        <v>2.09</v>
+      </c>
+      <c r="BL103">
+        <v>1.63</v>
+      </c>
+      <c r="BM103">
+        <v>2.79</v>
+      </c>
+      <c r="BN103">
+        <v>1.36</v>
+      </c>
+      <c r="BO103">
+        <v>3.92</v>
+      </c>
+      <c r="BP103">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:68">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7347860</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45434.375</v>
+      </c>
+      <c r="F104">
+        <v>13</v>
+      </c>
+      <c r="G104" t="s">
+        <v>72</v>
+      </c>
+      <c r="H104" t="s">
+        <v>75</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>2</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>2</v>
+      </c>
+      <c r="O104" t="s">
+        <v>154</v>
+      </c>
+      <c r="P104" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q104">
+        <v>1.88</v>
+      </c>
+      <c r="R104">
+        <v>2.7</v>
+      </c>
+      <c r="S104">
+        <v>5</v>
+      </c>
+      <c r="T104">
+        <v>1.21</v>
+      </c>
+      <c r="U104">
+        <v>4.15</v>
+      </c>
+      <c r="V104">
+        <v>2.02</v>
+      </c>
+      <c r="W104">
+        <v>1.68</v>
+      </c>
+      <c r="X104">
+        <v>4.15</v>
+      </c>
+      <c r="Y104">
+        <v>1.21</v>
+      </c>
+      <c r="Z104">
+        <v>1.45</v>
+      </c>
+      <c r="AA104">
+        <v>4.75</v>
+      </c>
+      <c r="AB104">
+        <v>5.25</v>
+      </c>
+      <c r="AC104">
+        <v>1.01</v>
+      </c>
+      <c r="AD104">
+        <v>28.5</v>
+      </c>
+      <c r="AE104">
+        <v>1.1</v>
+      </c>
+      <c r="AF104">
+        <v>5.75</v>
+      </c>
+      <c r="AG104">
+        <v>1.36</v>
+      </c>
+      <c r="AH104">
+        <v>2.88</v>
+      </c>
+      <c r="AI104">
+        <v>1.5</v>
+      </c>
+      <c r="AJ104">
+        <v>2.4</v>
+      </c>
+      <c r="AK104">
+        <v>1.15</v>
+      </c>
+      <c r="AL104">
+        <v>1.18</v>
+      </c>
+      <c r="AM104">
+        <v>2.6</v>
+      </c>
+      <c r="AN104">
+        <v>2.6</v>
+      </c>
+      <c r="AO104">
+        <v>1.8</v>
+      </c>
+      <c r="AP104">
+        <v>2.67</v>
+      </c>
+      <c r="AQ104">
+        <v>1.5</v>
+      </c>
+      <c r="AR104">
+        <v>2.01</v>
+      </c>
+      <c r="AS104">
+        <v>1.45</v>
+      </c>
+      <c r="AT104">
+        <v>3.46</v>
+      </c>
+      <c r="AU104">
+        <v>6</v>
+      </c>
+      <c r="AV104">
+        <v>6</v>
+      </c>
+      <c r="AW104">
+        <v>10</v>
+      </c>
+      <c r="AX104">
+        <v>6</v>
+      </c>
+      <c r="AY104">
+        <v>16</v>
+      </c>
+      <c r="AZ104">
+        <v>12</v>
+      </c>
+      <c r="BA104">
+        <v>2</v>
+      </c>
+      <c r="BB104">
+        <v>7</v>
+      </c>
+      <c r="BC104">
+        <v>9</v>
+      </c>
+      <c r="BD104">
+        <v>1.4</v>
+      </c>
+      <c r="BE104">
+        <v>9.5</v>
+      </c>
+      <c r="BF104">
+        <v>3.5</v>
+      </c>
+      <c r="BG104">
+        <v>1.28</v>
+      </c>
+      <c r="BH104">
+        <v>3.2</v>
+      </c>
+      <c r="BI104">
+        <v>1.53</v>
+      </c>
+      <c r="BJ104">
+        <v>2.28</v>
+      </c>
+      <c r="BK104">
+        <v>1.92</v>
+      </c>
+      <c r="BL104">
+        <v>1.79</v>
+      </c>
+      <c r="BM104">
+        <v>2.5</v>
+      </c>
+      <c r="BN104">
+        <v>1.44</v>
+      </c>
+      <c r="BO104">
+        <v>3.42</v>
+      </c>
+      <c r="BP104">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="221">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -479,6 +479,9 @@
   </si>
   <si>
     <t>['87', '90+12']</t>
+  </si>
+  <si>
+    <t>['14', '20', '43']</t>
   </si>
   <si>
     <t>['81', '90+3']</t>
@@ -1035,7 +1038,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP104"/>
+  <dimension ref="A1:BP106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1294,7 +1297,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1372,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ2">
         <v>1.14</v>
@@ -1500,7 +1503,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -2118,7 +2121,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2736,7 +2739,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -3354,7 +3357,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -3435,7 +3438,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3638,7 +3641,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ13">
         <v>1.88</v>
@@ -3972,7 +3975,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4384,7 +4387,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4590,7 +4593,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4796,7 +4799,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -4874,7 +4877,7 @@
         <v>2</v>
       </c>
       <c r="AP19">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
         <v>1.88</v>
@@ -5620,7 +5623,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -5826,7 +5829,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5904,7 +5907,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ24">
         <v>2.43</v>
@@ -6032,7 +6035,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6113,7 +6116,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ25">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR25">
         <v>0.67</v>
@@ -6238,7 +6241,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6316,7 +6319,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -6444,7 +6447,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -6650,7 +6653,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6856,7 +6859,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -7062,7 +7065,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7349,7 +7352,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ31">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR31">
         <v>1.04</v>
@@ -7474,7 +7477,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7680,7 +7683,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q33">
         <v>1.73</v>
@@ -7886,7 +7889,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q34">
         <v>6.4</v>
@@ -8092,7 +8095,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q35">
         <v>1.96</v>
@@ -8170,7 +8173,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ35">
         <v>0.83</v>
@@ -8298,7 +8301,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q36">
         <v>1.98</v>
@@ -8504,7 +8507,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -8710,7 +8713,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q38">
         <v>3.25</v>
@@ -9203,7 +9206,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ40">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR40">
         <v>1.36</v>
@@ -9534,7 +9537,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9740,7 +9743,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q43">
         <v>2.3</v>
@@ -9946,7 +9949,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q44">
         <v>4.75</v>
@@ -10233,7 +10236,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ45">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR45">
         <v>1.43</v>
@@ -10358,7 +10361,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10564,7 +10567,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10851,7 +10854,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ48">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR48">
         <v>1.33</v>
@@ -11182,7 +11185,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11388,7 +11391,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11466,7 +11469,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ51">
         <v>1</v>
@@ -11594,7 +11597,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q52">
         <v>1.83</v>
@@ -11878,7 +11881,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ53">
         <v>1.14</v>
@@ -12006,7 +12009,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q54">
         <v>7.5</v>
@@ -12624,7 +12627,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12830,7 +12833,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q58">
         <v>2.8</v>
@@ -13036,7 +13039,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q59">
         <v>3.15</v>
@@ -13114,7 +13117,7 @@
         <v>2.25</v>
       </c>
       <c r="AP59">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ59">
         <v>2.14</v>
@@ -13242,7 +13245,7 @@
         <v>106</v>
       </c>
       <c r="P60" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13529,7 +13532,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ61">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR61">
         <v>0.98</v>
@@ -13654,7 +13657,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q62">
         <v>3.11</v>
@@ -13860,7 +13863,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q63">
         <v>2.75</v>
@@ -14272,7 +14275,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q65">
         <v>1.8</v>
@@ -14350,7 +14353,7 @@
         <v>1.25</v>
       </c>
       <c r="AP65">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ65">
         <v>0.86</v>
@@ -14684,7 +14687,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q67">
         <v>2.38</v>
@@ -14890,7 +14893,7 @@
         <v>127</v>
       </c>
       <c r="P68" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15302,7 +15305,7 @@
         <v>90</v>
       </c>
       <c r="P70" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q70">
         <v>5.5</v>
@@ -15508,7 +15511,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q71">
         <v>2.45</v>
@@ -16126,7 +16129,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q74">
         <v>2.65</v>
@@ -16332,7 +16335,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -16619,7 +16622,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ76">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR76">
         <v>2.43</v>
@@ -16744,7 +16747,7 @@
         <v>133</v>
       </c>
       <c r="P77" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17028,7 +17031,7 @@
         <v>0.8</v>
       </c>
       <c r="AP78">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ78">
         <v>0.57</v>
@@ -17156,7 +17159,7 @@
         <v>135</v>
       </c>
       <c r="P79" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17362,7 +17365,7 @@
         <v>90</v>
       </c>
       <c r="P80" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -17568,7 +17571,7 @@
         <v>136</v>
       </c>
       <c r="P81" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17774,7 +17777,7 @@
         <v>137</v>
       </c>
       <c r="P82" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q82">
         <v>1.91</v>
@@ -17980,7 +17983,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q83">
         <v>1.62</v>
@@ -18392,7 +18395,7 @@
         <v>99</v>
       </c>
       <c r="P85" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18470,7 +18473,7 @@
         <v>1.75</v>
       </c>
       <c r="AP85">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ85">
         <v>1.83</v>
@@ -18598,7 +18601,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q86">
         <v>1.83</v>
@@ -18679,7 +18682,7 @@
         <v>2</v>
       </c>
       <c r="AQ86">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR86">
         <v>1.8</v>
@@ -18804,7 +18807,7 @@
         <v>90</v>
       </c>
       <c r="P87" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -18885,7 +18888,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ87">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR87">
         <v>1.16</v>
@@ -19010,7 +19013,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19422,7 +19425,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q90">
         <v>1.61</v>
@@ -19500,7 +19503,7 @@
         <v>1.4</v>
       </c>
       <c r="AP90">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ90">
         <v>1.14</v>
@@ -19628,7 +19631,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q91">
         <v>1.8</v>
@@ -19834,7 +19837,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q92">
         <v>3.8</v>
@@ -20040,7 +20043,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q93">
         <v>2.55</v>
@@ -20246,7 +20249,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q94">
         <v>4.5</v>
@@ -20452,7 +20455,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q95">
         <v>4.5</v>
@@ -20658,7 +20661,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q96">
         <v>9</v>
@@ -21070,7 +21073,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q98">
         <v>2.31</v>
@@ -21276,7 +21279,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q99">
         <v>4.5</v>
@@ -21482,7 +21485,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q100">
         <v>4.63</v>
@@ -21688,7 +21691,7 @@
         <v>150</v>
       </c>
       <c r="P101" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q101">
         <v>2.43</v>
@@ -21894,7 +21897,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -22100,7 +22103,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -22463,6 +22466,418 @@
       </c>
       <c r="BP104">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:68">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>7347861</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45437.35763888889</v>
+      </c>
+      <c r="F105">
+        <v>14</v>
+      </c>
+      <c r="G105" t="s">
+        <v>70</v>
+      </c>
+      <c r="H105" t="s">
+        <v>76</v>
+      </c>
+      <c r="I105">
+        <v>3</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>3</v>
+      </c>
+      <c r="L105">
+        <v>3</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>3</v>
+      </c>
+      <c r="O105" t="s">
+        <v>155</v>
+      </c>
+      <c r="P105" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q105">
+        <v>2.3</v>
+      </c>
+      <c r="R105">
+        <v>2.45</v>
+      </c>
+      <c r="S105">
+        <v>3.75</v>
+      </c>
+      <c r="T105">
+        <v>1.21</v>
+      </c>
+      <c r="U105">
+        <v>3.95</v>
+      </c>
+      <c r="V105">
+        <v>2.09</v>
+      </c>
+      <c r="W105">
+        <v>1.67</v>
+      </c>
+      <c r="X105">
+        <v>4.45</v>
+      </c>
+      <c r="Y105">
+        <v>1.17</v>
+      </c>
+      <c r="Z105">
+        <v>1.78</v>
+      </c>
+      <c r="AA105">
+        <v>3.91</v>
+      </c>
+      <c r="AB105">
+        <v>3.67</v>
+      </c>
+      <c r="AC105">
+        <v>1.02</v>
+      </c>
+      <c r="AD105">
+        <v>23.5</v>
+      </c>
+      <c r="AE105">
+        <v>1.13</v>
+      </c>
+      <c r="AF105">
+        <v>5.25</v>
+      </c>
+      <c r="AG105">
+        <v>1.44</v>
+      </c>
+      <c r="AH105">
+        <v>2.6</v>
+      </c>
+      <c r="AI105">
+        <v>1.42</v>
+      </c>
+      <c r="AJ105">
+        <v>2.75</v>
+      </c>
+      <c r="AK105">
+        <v>1.22</v>
+      </c>
+      <c r="AL105">
+        <v>1.18</v>
+      </c>
+      <c r="AM105">
+        <v>1.95</v>
+      </c>
+      <c r="AN105">
+        <v>2</v>
+      </c>
+      <c r="AO105">
+        <v>1.2</v>
+      </c>
+      <c r="AP105">
+        <v>2.13</v>
+      </c>
+      <c r="AQ105">
+        <v>1</v>
+      </c>
+      <c r="AR105">
+        <v>1.91</v>
+      </c>
+      <c r="AS105">
+        <v>1.68</v>
+      </c>
+      <c r="AT105">
+        <v>3.59</v>
+      </c>
+      <c r="AU105">
+        <v>11</v>
+      </c>
+      <c r="AV105">
+        <v>5</v>
+      </c>
+      <c r="AW105">
+        <v>7</v>
+      </c>
+      <c r="AX105">
+        <v>14</v>
+      </c>
+      <c r="AY105">
+        <v>18</v>
+      </c>
+      <c r="AZ105">
+        <v>19</v>
+      </c>
+      <c r="BA105">
+        <v>11</v>
+      </c>
+      <c r="BB105">
+        <v>6</v>
+      </c>
+      <c r="BC105">
+        <v>17</v>
+      </c>
+      <c r="BD105">
+        <v>1.5</v>
+      </c>
+      <c r="BE105">
+        <v>8.5</v>
+      </c>
+      <c r="BF105">
+        <v>3</v>
+      </c>
+      <c r="BG105">
+        <v>1.19</v>
+      </c>
+      <c r="BH105">
+        <v>3.98</v>
+      </c>
+      <c r="BI105">
+        <v>1.37</v>
+      </c>
+      <c r="BJ105">
+        <v>2.75</v>
+      </c>
+      <c r="BK105">
+        <v>1.92</v>
+      </c>
+      <c r="BL105">
+        <v>1.88</v>
+      </c>
+      <c r="BM105">
+        <v>2.09</v>
+      </c>
+      <c r="BN105">
+        <v>1.63</v>
+      </c>
+      <c r="BO105">
+        <v>2.75</v>
+      </c>
+      <c r="BP105">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="106" spans="1:68">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>7347862</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45437.375</v>
+      </c>
+      <c r="F106">
+        <v>14</v>
+      </c>
+      <c r="G106" t="s">
+        <v>83</v>
+      </c>
+      <c r="H106" t="s">
+        <v>77</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106">
+        <v>1</v>
+      </c>
+      <c r="O106" t="s">
+        <v>90</v>
+      </c>
+      <c r="P106" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q106">
+        <v>2.2</v>
+      </c>
+      <c r="R106">
+        <v>2.3</v>
+      </c>
+      <c r="S106">
+        <v>5</v>
+      </c>
+      <c r="T106">
+        <v>1.33</v>
+      </c>
+      <c r="U106">
+        <v>3.25</v>
+      </c>
+      <c r="V106">
+        <v>2.5</v>
+      </c>
+      <c r="W106">
+        <v>1.5</v>
+      </c>
+      <c r="X106">
+        <v>6.5</v>
+      </c>
+      <c r="Y106">
+        <v>1.11</v>
+      </c>
+      <c r="Z106">
+        <v>1.58</v>
+      </c>
+      <c r="AA106">
+        <v>3.62</v>
+      </c>
+      <c r="AB106">
+        <v>5.03</v>
+      </c>
+      <c r="AC106">
+        <v>1.04</v>
+      </c>
+      <c r="AD106">
+        <v>9</v>
+      </c>
+      <c r="AE106">
+        <v>1.22</v>
+      </c>
+      <c r="AF106">
+        <v>3.95</v>
+      </c>
+      <c r="AG106">
+        <v>1.72</v>
+      </c>
+      <c r="AH106">
+        <v>2.06</v>
+      </c>
+      <c r="AI106">
+        <v>1.75</v>
+      </c>
+      <c r="AJ106">
+        <v>2</v>
+      </c>
+      <c r="AK106">
+        <v>1.11</v>
+      </c>
+      <c r="AL106">
+        <v>1.2</v>
+      </c>
+      <c r="AM106">
+        <v>2.25</v>
+      </c>
+      <c r="AN106">
+        <v>1.17</v>
+      </c>
+      <c r="AO106">
+        <v>1</v>
+      </c>
+      <c r="AP106">
+        <v>1</v>
+      </c>
+      <c r="AQ106">
+        <v>1.33</v>
+      </c>
+      <c r="AR106">
+        <v>1.74</v>
+      </c>
+      <c r="AS106">
+        <v>0.9</v>
+      </c>
+      <c r="AT106">
+        <v>2.64</v>
+      </c>
+      <c r="AU106">
+        <v>6</v>
+      </c>
+      <c r="AV106">
+        <v>9</v>
+      </c>
+      <c r="AW106">
+        <v>14</v>
+      </c>
+      <c r="AX106">
+        <v>9</v>
+      </c>
+      <c r="AY106">
+        <v>20</v>
+      </c>
+      <c r="AZ106">
+        <v>18</v>
+      </c>
+      <c r="BA106">
+        <v>9</v>
+      </c>
+      <c r="BB106">
+        <v>10</v>
+      </c>
+      <c r="BC106">
+        <v>19</v>
+      </c>
+      <c r="BD106">
+        <v>1.36</v>
+      </c>
+      <c r="BE106">
+        <v>9</v>
+      </c>
+      <c r="BF106">
+        <v>3.75</v>
+      </c>
+      <c r="BG106">
+        <v>1.24</v>
+      </c>
+      <c r="BH106">
+        <v>3.48</v>
+      </c>
+      <c r="BI106">
+        <v>1.45</v>
+      </c>
+      <c r="BJ106">
+        <v>2.48</v>
+      </c>
+      <c r="BK106">
+        <v>1.92</v>
+      </c>
+      <c r="BL106">
+        <v>1.88</v>
+      </c>
+      <c r="BM106">
+        <v>2.28</v>
+      </c>
+      <c r="BN106">
+        <v>1.53</v>
+      </c>
+      <c r="BO106">
+        <v>3.08</v>
+      </c>
+      <c r="BP106">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="228">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -484,6 +484,18 @@
     <t>['14', '20', '43']</t>
   </si>
   <si>
+    <t>['40', '44', '87']</t>
+  </si>
+  <si>
+    <t>['5', '8', '63', '88', '90+1']</t>
+  </si>
+  <si>
+    <t>['5', '11', '41', '51', '69', '84', '90+2']</t>
+  </si>
+  <si>
+    <t>['13', '51', '73', '90+2']</t>
+  </si>
+  <si>
     <t>['81', '90+3']</t>
   </si>
   <si>
@@ -677,6 +689,15 @@
   </si>
   <si>
     <t>['8', '44']</t>
+  </si>
+  <si>
+    <t>['79']</t>
+  </si>
+  <si>
+    <t>['23', '73']</t>
+  </si>
+  <si>
+    <t>['30']</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1059,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP106"/>
+  <dimension ref="A1:BP112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1297,7 +1318,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1503,7 +1524,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -1584,7 +1605,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ3">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1787,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ4">
         <v>1.14</v>
@@ -1996,7 +2017,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ5">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2121,7 +2142,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2405,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ7">
         <v>0.57</v>
@@ -2739,7 +2760,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -2820,7 +2841,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ9">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3023,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ10">
         <v>1.14</v>
@@ -3232,7 +3253,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ11">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3357,7 +3378,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -3975,7 +3996,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4387,7 +4408,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4465,10 +4486,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ17">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4593,7 +4614,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4671,10 +4692,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR18">
         <v>1.67</v>
@@ -4799,7 +4820,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5083,10 +5104,10 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ20">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR20">
         <v>1.66</v>
@@ -5495,10 +5516,10 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ22">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR22">
         <v>2.37</v>
@@ -5623,7 +5644,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -5701,10 +5722,10 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ23">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -5829,7 +5850,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5910,7 +5931,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ24">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR24">
         <v>1.89</v>
@@ -6035,7 +6056,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6241,7 +6262,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6322,7 +6343,7 @@
         <v>1</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR26">
         <v>0.87</v>
@@ -6447,7 +6468,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -6525,10 +6546,10 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ27">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR27">
         <v>1.22</v>
@@ -6653,7 +6674,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6859,7 +6880,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6937,7 +6958,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ29">
         <v>1.83</v>
@@ -7065,7 +7086,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7143,7 +7164,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ30">
         <v>2.33</v>
@@ -7477,7 +7498,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7683,7 +7704,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q33">
         <v>1.73</v>
@@ -7764,7 +7785,7 @@
         <v>2</v>
       </c>
       <c r="AQ33">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR33">
         <v>0.79</v>
@@ -7889,7 +7910,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q34">
         <v>6.4</v>
@@ -8095,7 +8116,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q35">
         <v>1.96</v>
@@ -8176,7 +8197,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ35">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR35">
         <v>1.8</v>
@@ -8301,7 +8322,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q36">
         <v>1.98</v>
@@ -8379,7 +8400,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ36">
         <v>1.14</v>
@@ -8507,7 +8528,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -8713,7 +8734,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q38">
         <v>3.25</v>
@@ -8794,7 +8815,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ38">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR38">
         <v>1.05</v>
@@ -9203,7 +9224,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ40">
         <v>1</v>
@@ -9537,7 +9558,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9618,7 +9639,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ42">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR42">
         <v>1.84</v>
@@ -9743,7 +9764,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q43">
         <v>2.3</v>
@@ -9949,7 +9970,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q44">
         <v>4.75</v>
@@ -10027,7 +10048,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ44">
         <v>1.5</v>
@@ -10361,7 +10382,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10439,7 +10460,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ46">
         <v>1.83</v>
@@ -10567,7 +10588,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10648,7 +10669,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ47">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR47">
         <v>1.03</v>
@@ -10851,7 +10872,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -11057,7 +11078,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ49">
         <v>1.14</v>
@@ -11185,7 +11206,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11266,7 +11287,7 @@
         <v>2</v>
       </c>
       <c r="AQ50">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR50">
         <v>1.28</v>
@@ -11391,7 +11412,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11472,7 +11493,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ51">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR51">
         <v>1.89</v>
@@ -11597,7 +11618,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q52">
         <v>1.83</v>
@@ -11675,7 +11696,7 @@
         <v>2</v>
       </c>
       <c r="AP52">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ52">
         <v>1.14</v>
@@ -12009,7 +12030,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q54">
         <v>7.5</v>
@@ -12090,7 +12111,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ54">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR54">
         <v>0.95</v>
@@ -12499,10 +12520,10 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ56">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR56">
         <v>1.29</v>
@@ -12627,7 +12648,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12708,7 +12729,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ57">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR57">
         <v>1.14</v>
@@ -12833,7 +12854,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q58">
         <v>2.8</v>
@@ -12911,7 +12932,7 @@
         <v>0.25</v>
       </c>
       <c r="AP58">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ58">
         <v>0.57</v>
@@ -13039,7 +13060,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q59">
         <v>3.15</v>
@@ -13120,7 +13141,7 @@
         <v>1</v>
       </c>
       <c r="AQ59">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR59">
         <v>1.86</v>
@@ -13245,7 +13266,7 @@
         <v>106</v>
       </c>
       <c r="P60" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13529,7 +13550,7 @@
         <v>0.67</v>
       </c>
       <c r="AP61">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ61">
         <v>1.33</v>
@@ -13657,7 +13678,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q62">
         <v>3.11</v>
@@ -13738,7 +13759,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ62">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR62">
         <v>1.2</v>
@@ -13863,7 +13884,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q63">
         <v>2.75</v>
@@ -13941,7 +13962,7 @@
         <v>1.5</v>
       </c>
       <c r="AP63">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ63">
         <v>1.83</v>
@@ -14147,10 +14168,10 @@
         <v>3</v>
       </c>
       <c r="AP64">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ64">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR64">
         <v>2.2</v>
@@ -14275,7 +14296,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q65">
         <v>1.8</v>
@@ -14356,7 +14377,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ65">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR65">
         <v>2.08</v>
@@ -14687,7 +14708,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q67">
         <v>2.38</v>
@@ -14768,7 +14789,7 @@
         <v>2</v>
       </c>
       <c r="AQ67">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR67">
         <v>1.71</v>
@@ -14893,7 +14914,7 @@
         <v>127</v>
       </c>
       <c r="P68" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -14974,7 +14995,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ68">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR68">
         <v>1.05</v>
@@ -15177,7 +15198,7 @@
         <v>1.5</v>
       </c>
       <c r="AP69">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ69">
         <v>1.14</v>
@@ -15305,7 +15326,7 @@
         <v>90</v>
       </c>
       <c r="P70" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q70">
         <v>5.5</v>
@@ -15383,7 +15404,7 @@
         <v>1.67</v>
       </c>
       <c r="AP70">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ70">
         <v>2.33</v>
@@ -15511,7 +15532,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q71">
         <v>2.45</v>
@@ -15589,7 +15610,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ71">
         <v>1.14</v>
@@ -15798,7 +15819,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ72">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR72">
         <v>2.16</v>
@@ -16129,7 +16150,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q74">
         <v>2.65</v>
@@ -16210,7 +16231,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ74">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR74">
         <v>1.58</v>
@@ -16335,7 +16356,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -16747,7 +16768,7 @@
         <v>133</v>
       </c>
       <c r="P77" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -16828,7 +16849,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ77">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR77">
         <v>1.1</v>
@@ -17159,7 +17180,7 @@
         <v>135</v>
       </c>
       <c r="P79" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17237,7 +17258,7 @@
         <v>2</v>
       </c>
       <c r="AP79">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ79">
         <v>1.5</v>
@@ -17365,7 +17386,7 @@
         <v>90</v>
       </c>
       <c r="P80" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -17443,7 +17464,7 @@
         <v>2</v>
       </c>
       <c r="AP80">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ80">
         <v>2.33</v>
@@ -17571,7 +17592,7 @@
         <v>136</v>
       </c>
       <c r="P81" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17649,10 +17670,10 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ81">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR81">
         <v>1.34</v>
@@ -17777,7 +17798,7 @@
         <v>137</v>
       </c>
       <c r="P82" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q82">
         <v>1.91</v>
@@ -17855,10 +17876,10 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ82">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR82">
         <v>1.62</v>
@@ -17983,7 +18004,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q83">
         <v>1.62</v>
@@ -18061,7 +18082,7 @@
         <v>1.4</v>
       </c>
       <c r="AP83">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ83">
         <v>1.14</v>
@@ -18270,7 +18291,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ84">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR84">
         <v>1.89</v>
@@ -18395,7 +18416,7 @@
         <v>99</v>
       </c>
       <c r="P85" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18601,7 +18622,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q86">
         <v>1.83</v>
@@ -18679,7 +18700,7 @@
         <v>1.25</v>
       </c>
       <c r="AP86">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ86">
         <v>1.33</v>
@@ -18807,7 +18828,7 @@
         <v>90</v>
       </c>
       <c r="P87" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -19013,7 +19034,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19091,10 +19112,10 @@
         <v>0.8</v>
       </c>
       <c r="AP88">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ88">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR88">
         <v>1.33</v>
@@ -19425,7 +19446,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q90">
         <v>1.61</v>
@@ -19631,7 +19652,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q91">
         <v>1.8</v>
@@ -19712,7 +19733,7 @@
         <v>2</v>
       </c>
       <c r="AQ91">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR91">
         <v>1.74</v>
@@ -19837,7 +19858,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q92">
         <v>3.8</v>
@@ -19918,7 +19939,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ92">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR92">
         <v>1.07</v>
@@ -20043,7 +20064,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q93">
         <v>2.55</v>
@@ -20249,7 +20270,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q94">
         <v>4.5</v>
@@ -20455,7 +20476,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q95">
         <v>4.5</v>
@@ -20533,7 +20554,7 @@
         <v>2.33</v>
       </c>
       <c r="AP95">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ95">
         <v>1.88</v>
@@ -20661,7 +20682,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q96">
         <v>9</v>
@@ -21073,7 +21094,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q98">
         <v>2.31</v>
@@ -21279,7 +21300,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q99">
         <v>4.5</v>
@@ -21360,7 +21381,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ99">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR99">
         <v>1.53</v>
@@ -21485,7 +21506,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q100">
         <v>4.63</v>
@@ -21563,7 +21584,7 @@
         <v>2</v>
       </c>
       <c r="AP100">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ100">
         <v>1.88</v>
@@ -21691,7 +21712,7 @@
         <v>150</v>
       </c>
       <c r="P101" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q101">
         <v>2.43</v>
@@ -21772,7 +21793,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ101">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR101">
         <v>1.06</v>
@@ -21897,7 +21918,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -22103,7 +22124,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -22387,7 +22408,7 @@
         <v>1.8</v>
       </c>
       <c r="AP104">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ104">
         <v>1.5</v>
@@ -22878,6 +22899,1242 @@
       </c>
       <c r="BP106">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:68">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>7347863</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45438.29166666666</v>
+      </c>
+      <c r="F107">
+        <v>14</v>
+      </c>
+      <c r="G107" t="s">
+        <v>82</v>
+      </c>
+      <c r="H107" t="s">
+        <v>79</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107">
+        <v>1</v>
+      </c>
+      <c r="O107" t="s">
+        <v>90</v>
+      </c>
+      <c r="P107" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q107">
+        <v>5</v>
+      </c>
+      <c r="R107">
+        <v>2.4</v>
+      </c>
+      <c r="S107">
+        <v>2</v>
+      </c>
+      <c r="T107">
+        <v>1.3</v>
+      </c>
+      <c r="U107">
+        <v>3.25</v>
+      </c>
+      <c r="V107">
+        <v>2.4</v>
+      </c>
+      <c r="W107">
+        <v>1.51</v>
+      </c>
+      <c r="X107">
+        <v>5.45</v>
+      </c>
+      <c r="Y107">
+        <v>1.12</v>
+      </c>
+      <c r="Z107">
+        <v>6</v>
+      </c>
+      <c r="AA107">
+        <v>4.33</v>
+      </c>
+      <c r="AB107">
+        <v>1.5</v>
+      </c>
+      <c r="AC107">
+        <v>1.03</v>
+      </c>
+      <c r="AD107">
+        <v>10</v>
+      </c>
+      <c r="AE107">
+        <v>1.2</v>
+      </c>
+      <c r="AF107">
+        <v>4.2</v>
+      </c>
+      <c r="AG107">
+        <v>1.66</v>
+      </c>
+      <c r="AH107">
+        <v>2.15</v>
+      </c>
+      <c r="AI107">
+        <v>1.75</v>
+      </c>
+      <c r="AJ107">
+        <v>2</v>
+      </c>
+      <c r="AK107">
+        <v>2.5</v>
+      </c>
+      <c r="AL107">
+        <v>1.16</v>
+      </c>
+      <c r="AM107">
+        <v>1.09</v>
+      </c>
+      <c r="AN107">
+        <v>0.33</v>
+      </c>
+      <c r="AO107">
+        <v>2.43</v>
+      </c>
+      <c r="AP107">
+        <v>0.29</v>
+      </c>
+      <c r="AQ107">
+        <v>2.5</v>
+      </c>
+      <c r="AR107">
+        <v>1.26</v>
+      </c>
+      <c r="AS107">
+        <v>1.61</v>
+      </c>
+      <c r="AT107">
+        <v>2.87</v>
+      </c>
+      <c r="AU107">
+        <v>3</v>
+      </c>
+      <c r="AV107">
+        <v>5</v>
+      </c>
+      <c r="AW107">
+        <v>10</v>
+      </c>
+      <c r="AX107">
+        <v>3</v>
+      </c>
+      <c r="AY107">
+        <v>13</v>
+      </c>
+      <c r="AZ107">
+        <v>8</v>
+      </c>
+      <c r="BA107">
+        <v>7</v>
+      </c>
+      <c r="BB107">
+        <v>6</v>
+      </c>
+      <c r="BC107">
+        <v>13</v>
+      </c>
+      <c r="BD107">
+        <v>3.5</v>
+      </c>
+      <c r="BE107">
+        <v>9</v>
+      </c>
+      <c r="BF107">
+        <v>1.4</v>
+      </c>
+      <c r="BG107">
+        <v>1.21</v>
+      </c>
+      <c r="BH107">
+        <v>3.74</v>
+      </c>
+      <c r="BI107">
+        <v>1.4</v>
+      </c>
+      <c r="BJ107">
+        <v>2.64</v>
+      </c>
+      <c r="BK107">
+        <v>1.82</v>
+      </c>
+      <c r="BL107">
+        <v>1.98</v>
+      </c>
+      <c r="BM107">
+        <v>2.15</v>
+      </c>
+      <c r="BN107">
+        <v>1.59</v>
+      </c>
+      <c r="BO107">
+        <v>2.88</v>
+      </c>
+      <c r="BP107">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="108" spans="1:68">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>7347864</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" t="s">
+        <v>69</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45438.33333333334</v>
+      </c>
+      <c r="F108">
+        <v>14</v>
+      </c>
+      <c r="G108" t="s">
+        <v>78</v>
+      </c>
+      <c r="H108" t="s">
+        <v>73</v>
+      </c>
+      <c r="I108">
+        <v>2</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>2</v>
+      </c>
+      <c r="L108">
+        <v>3</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+      <c r="N108">
+        <v>4</v>
+      </c>
+      <c r="O108" t="s">
+        <v>156</v>
+      </c>
+      <c r="P108" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q108">
+        <v>3.4</v>
+      </c>
+      <c r="R108">
+        <v>2.1</v>
+      </c>
+      <c r="S108">
+        <v>2.85</v>
+      </c>
+      <c r="T108">
+        <v>1.36</v>
+      </c>
+      <c r="U108">
+        <v>2.85</v>
+      </c>
+      <c r="V108">
+        <v>2.65</v>
+      </c>
+      <c r="W108">
+        <v>1.42</v>
+      </c>
+      <c r="X108">
+        <v>6</v>
+      </c>
+      <c r="Y108">
+        <v>1.09</v>
+      </c>
+      <c r="Z108">
+        <v>3</v>
+      </c>
+      <c r="AA108">
+        <v>3.4</v>
+      </c>
+      <c r="AB108">
+        <v>2.25</v>
+      </c>
+      <c r="AC108">
+        <v>1.05</v>
+      </c>
+      <c r="AD108">
+        <v>8.5</v>
+      </c>
+      <c r="AE108">
+        <v>1.28</v>
+      </c>
+      <c r="AF108">
+        <v>3.55</v>
+      </c>
+      <c r="AG108">
+        <v>1.8</v>
+      </c>
+      <c r="AH108">
+        <v>1.93</v>
+      </c>
+      <c r="AI108">
+        <v>1.62</v>
+      </c>
+      <c r="AJ108">
+        <v>2.1</v>
+      </c>
+      <c r="AK108">
+        <v>1.6</v>
+      </c>
+      <c r="AL108">
+        <v>1.25</v>
+      </c>
+      <c r="AM108">
+        <v>1.38</v>
+      </c>
+      <c r="AN108">
+        <v>0.83</v>
+      </c>
+      <c r="AO108">
+        <v>2.14</v>
+      </c>
+      <c r="AP108">
+        <v>1.14</v>
+      </c>
+      <c r="AQ108">
+        <v>1.88</v>
+      </c>
+      <c r="AR108">
+        <v>1.44</v>
+      </c>
+      <c r="AS108">
+        <v>1.31</v>
+      </c>
+      <c r="AT108">
+        <v>2.75</v>
+      </c>
+      <c r="AU108">
+        <v>7</v>
+      </c>
+      <c r="AV108">
+        <v>7</v>
+      </c>
+      <c r="AW108">
+        <v>7</v>
+      </c>
+      <c r="AX108">
+        <v>8</v>
+      </c>
+      <c r="AY108">
+        <v>14</v>
+      </c>
+      <c r="AZ108">
+        <v>15</v>
+      </c>
+      <c r="BA108">
+        <v>7</v>
+      </c>
+      <c r="BB108">
+        <v>3</v>
+      </c>
+      <c r="BC108">
+        <v>10</v>
+      </c>
+      <c r="BD108">
+        <v>2.2</v>
+      </c>
+      <c r="BE108">
+        <v>8</v>
+      </c>
+      <c r="BF108">
+        <v>1.91</v>
+      </c>
+      <c r="BG108">
+        <v>1.18</v>
+      </c>
+      <c r="BH108">
+        <v>4.05</v>
+      </c>
+      <c r="BI108">
+        <v>1.36</v>
+      </c>
+      <c r="BJ108">
+        <v>2.78</v>
+      </c>
+      <c r="BK108">
+        <v>1.95</v>
+      </c>
+      <c r="BL108">
+        <v>1.85</v>
+      </c>
+      <c r="BM108">
+        <v>2.07</v>
+      </c>
+      <c r="BN108">
+        <v>1.64</v>
+      </c>
+      <c r="BO108">
+        <v>2.75</v>
+      </c>
+      <c r="BP108">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="109" spans="1:68">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>7347865</v>
+      </c>
+      <c r="C109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45438.33333333334</v>
+      </c>
+      <c r="F109">
+        <v>14</v>
+      </c>
+      <c r="G109" t="s">
+        <v>85</v>
+      </c>
+      <c r="H109" t="s">
+        <v>81</v>
+      </c>
+      <c r="I109">
+        <v>2</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109">
+        <v>3</v>
+      </c>
+      <c r="L109">
+        <v>5</v>
+      </c>
+      <c r="M109">
+        <v>2</v>
+      </c>
+      <c r="N109">
+        <v>7</v>
+      </c>
+      <c r="O109" t="s">
+        <v>157</v>
+      </c>
+      <c r="P109" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q109">
+        <v>1.95</v>
+      </c>
+      <c r="R109">
+        <v>2.35</v>
+      </c>
+      <c r="S109">
+        <v>5.75</v>
+      </c>
+      <c r="T109">
+        <v>1.3</v>
+      </c>
+      <c r="U109">
+        <v>3.2</v>
+      </c>
+      <c r="V109">
+        <v>2.4</v>
+      </c>
+      <c r="W109">
+        <v>1.5</v>
+      </c>
+      <c r="X109">
+        <v>5.25</v>
+      </c>
+      <c r="Y109">
+        <v>1.12</v>
+      </c>
+      <c r="Z109">
+        <v>1.36</v>
+      </c>
+      <c r="AA109">
+        <v>4.5</v>
+      </c>
+      <c r="AB109">
+        <v>7.5</v>
+      </c>
+      <c r="AC109">
+        <v>1.03</v>
+      </c>
+      <c r="AD109">
+        <v>10</v>
+      </c>
+      <c r="AE109">
+        <v>1.2</v>
+      </c>
+      <c r="AF109">
+        <v>4.2</v>
+      </c>
+      <c r="AG109">
+        <v>1.65</v>
+      </c>
+      <c r="AH109">
+        <v>2.1</v>
+      </c>
+      <c r="AI109">
+        <v>1.8</v>
+      </c>
+      <c r="AJ109">
+        <v>1.85</v>
+      </c>
+      <c r="AK109">
+        <v>1.06</v>
+      </c>
+      <c r="AL109">
+        <v>1.12</v>
+      </c>
+      <c r="AM109">
+        <v>2.85</v>
+      </c>
+      <c r="AN109">
+        <v>2</v>
+      </c>
+      <c r="AO109">
+        <v>0.86</v>
+      </c>
+      <c r="AP109">
+        <v>2.17</v>
+      </c>
+      <c r="AQ109">
+        <v>0.75</v>
+      </c>
+      <c r="AR109">
+        <v>1.9</v>
+      </c>
+      <c r="AS109">
+        <v>1.22</v>
+      </c>
+      <c r="AT109">
+        <v>3.12</v>
+      </c>
+      <c r="AU109">
+        <v>8</v>
+      </c>
+      <c r="AV109">
+        <v>5</v>
+      </c>
+      <c r="AW109">
+        <v>6</v>
+      </c>
+      <c r="AX109">
+        <v>10</v>
+      </c>
+      <c r="AY109">
+        <v>14</v>
+      </c>
+      <c r="AZ109">
+        <v>15</v>
+      </c>
+      <c r="BA109">
+        <v>7</v>
+      </c>
+      <c r="BB109">
+        <v>3</v>
+      </c>
+      <c r="BC109">
+        <v>10</v>
+      </c>
+      <c r="BD109">
+        <v>1.4</v>
+      </c>
+      <c r="BE109">
+        <v>9</v>
+      </c>
+      <c r="BF109">
+        <v>3.4</v>
+      </c>
+      <c r="BG109">
+        <v>1.18</v>
+      </c>
+      <c r="BH109">
+        <v>4.05</v>
+      </c>
+      <c r="BI109">
+        <v>1.36</v>
+      </c>
+      <c r="BJ109">
+        <v>2.78</v>
+      </c>
+      <c r="BK109">
+        <v>1.82</v>
+      </c>
+      <c r="BL109">
+        <v>1.98</v>
+      </c>
+      <c r="BM109">
+        <v>2.09</v>
+      </c>
+      <c r="BN109">
+        <v>1.66</v>
+      </c>
+      <c r="BO109">
+        <v>2.71</v>
+      </c>
+      <c r="BP109">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="110" spans="1:68">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>7347866</v>
+      </c>
+      <c r="C110" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45438.35763888889</v>
+      </c>
+      <c r="F110">
+        <v>14</v>
+      </c>
+      <c r="G110" t="s">
+        <v>84</v>
+      </c>
+      <c r="H110" t="s">
+        <v>80</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110" t="s">
+        <v>90</v>
+      </c>
+      <c r="P110" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q110">
+        <v>2.63</v>
+      </c>
+      <c r="R110">
+        <v>2.2</v>
+      </c>
+      <c r="S110">
+        <v>4.33</v>
+      </c>
+      <c r="T110">
+        <v>1.4</v>
+      </c>
+      <c r="U110">
+        <v>2.75</v>
+      </c>
+      <c r="V110">
+        <v>2.75</v>
+      </c>
+      <c r="W110">
+        <v>1.4</v>
+      </c>
+      <c r="X110">
+        <v>8</v>
+      </c>
+      <c r="Y110">
+        <v>1.08</v>
+      </c>
+      <c r="Z110">
+        <v>2.4</v>
+      </c>
+      <c r="AA110">
+        <v>3.3</v>
+      </c>
+      <c r="AB110">
+        <v>2.7</v>
+      </c>
+      <c r="AC110">
+        <v>1.05</v>
+      </c>
+      <c r="AD110">
+        <v>8.5</v>
+      </c>
+      <c r="AE110">
+        <v>1.28</v>
+      </c>
+      <c r="AF110">
+        <v>3.4</v>
+      </c>
+      <c r="AG110">
+        <v>1.73</v>
+      </c>
+      <c r="AH110">
+        <v>2</v>
+      </c>
+      <c r="AI110">
+        <v>1.75</v>
+      </c>
+      <c r="AJ110">
+        <v>2</v>
+      </c>
+      <c r="AK110">
+        <v>1.25</v>
+      </c>
+      <c r="AL110">
+        <v>1.25</v>
+      </c>
+      <c r="AM110">
+        <v>1.77</v>
+      </c>
+      <c r="AN110">
+        <v>0.67</v>
+      </c>
+      <c r="AO110">
+        <v>0.83</v>
+      </c>
+      <c r="AP110">
+        <v>0.71</v>
+      </c>
+      <c r="AQ110">
+        <v>0.86</v>
+      </c>
+      <c r="AR110">
+        <v>1.08</v>
+      </c>
+      <c r="AS110">
+        <v>1.4</v>
+      </c>
+      <c r="AT110">
+        <v>2.48</v>
+      </c>
+      <c r="AU110">
+        <v>4</v>
+      </c>
+      <c r="AV110">
+        <v>5</v>
+      </c>
+      <c r="AW110">
+        <v>9</v>
+      </c>
+      <c r="AX110">
+        <v>9</v>
+      </c>
+      <c r="AY110">
+        <v>13</v>
+      </c>
+      <c r="AZ110">
+        <v>14</v>
+      </c>
+      <c r="BA110">
+        <v>3</v>
+      </c>
+      <c r="BB110">
+        <v>4</v>
+      </c>
+      <c r="BC110">
+        <v>7</v>
+      </c>
+      <c r="BD110">
+        <v>1.73</v>
+      </c>
+      <c r="BE110">
+        <v>8</v>
+      </c>
+      <c r="BF110">
+        <v>2.4</v>
+      </c>
+      <c r="BG110">
+        <v>1.25</v>
+      </c>
+      <c r="BH110">
+        <v>3.42</v>
+      </c>
+      <c r="BI110">
+        <v>1.48</v>
+      </c>
+      <c r="BJ110">
+        <v>2.4</v>
+      </c>
+      <c r="BK110">
+        <v>1.95</v>
+      </c>
+      <c r="BL110">
+        <v>1.85</v>
+      </c>
+      <c r="BM110">
+        <v>2.38</v>
+      </c>
+      <c r="BN110">
+        <v>1.49</v>
+      </c>
+      <c r="BO110">
+        <v>3.2</v>
+      </c>
+      <c r="BP110">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="111" spans="1:68">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>7347867</v>
+      </c>
+      <c r="C111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" t="s">
+        <v>69</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45438.35763888889</v>
+      </c>
+      <c r="F111">
+        <v>14</v>
+      </c>
+      <c r="G111" t="s">
+        <v>75</v>
+      </c>
+      <c r="H111" t="s">
+        <v>71</v>
+      </c>
+      <c r="I111">
+        <v>3</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>3</v>
+      </c>
+      <c r="L111">
+        <v>7</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>7</v>
+      </c>
+      <c r="O111" t="s">
+        <v>158</v>
+      </c>
+      <c r="P111" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q111">
+        <v>1.91</v>
+      </c>
+      <c r="R111">
+        <v>2.5</v>
+      </c>
+      <c r="S111">
+        <v>6.5</v>
+      </c>
+      <c r="T111">
+        <v>1.29</v>
+      </c>
+      <c r="U111">
+        <v>3.5</v>
+      </c>
+      <c r="V111">
+        <v>2.38</v>
+      </c>
+      <c r="W111">
+        <v>1.53</v>
+      </c>
+      <c r="X111">
+        <v>5.5</v>
+      </c>
+      <c r="Y111">
+        <v>1.14</v>
+      </c>
+      <c r="Z111">
+        <v>1.41</v>
+      </c>
+      <c r="AA111">
+        <v>4.05</v>
+      </c>
+      <c r="AB111">
+        <v>6.59</v>
+      </c>
+      <c r="AC111">
+        <v>1.04</v>
+      </c>
+      <c r="AD111">
+        <v>9.5</v>
+      </c>
+      <c r="AE111">
+        <v>1.18</v>
+      </c>
+      <c r="AF111">
+        <v>4.5</v>
+      </c>
+      <c r="AG111">
+        <v>1.6</v>
+      </c>
+      <c r="AH111">
+        <v>2.3</v>
+      </c>
+      <c r="AI111">
+        <v>1.8</v>
+      </c>
+      <c r="AJ111">
+        <v>1.95</v>
+      </c>
+      <c r="AK111">
+        <v>1.05</v>
+      </c>
+      <c r="AL111">
+        <v>1.17</v>
+      </c>
+      <c r="AM111">
+        <v>2.75</v>
+      </c>
+      <c r="AN111">
+        <v>2.29</v>
+      </c>
+      <c r="AO111">
+        <v>1.17</v>
+      </c>
+      <c r="AP111">
+        <v>2.38</v>
+      </c>
+      <c r="AQ111">
+        <v>1</v>
+      </c>
+      <c r="AR111">
+        <v>1.64</v>
+      </c>
+      <c r="AS111">
+        <v>1.34</v>
+      </c>
+      <c r="AT111">
+        <v>2.98</v>
+      </c>
+      <c r="AU111">
+        <v>9</v>
+      </c>
+      <c r="AV111">
+        <v>0</v>
+      </c>
+      <c r="AW111">
+        <v>11</v>
+      </c>
+      <c r="AX111">
+        <v>4</v>
+      </c>
+      <c r="AY111">
+        <v>20</v>
+      </c>
+      <c r="AZ111">
+        <v>4</v>
+      </c>
+      <c r="BA111">
+        <v>4</v>
+      </c>
+      <c r="BB111">
+        <v>1</v>
+      </c>
+      <c r="BC111">
+        <v>5</v>
+      </c>
+      <c r="BD111">
+        <v>1.2</v>
+      </c>
+      <c r="BE111">
+        <v>11</v>
+      </c>
+      <c r="BF111">
+        <v>5.5</v>
+      </c>
+      <c r="BG111">
+        <v>1.21</v>
+      </c>
+      <c r="BH111">
+        <v>3.74</v>
+      </c>
+      <c r="BI111">
+        <v>1.4</v>
+      </c>
+      <c r="BJ111">
+        <v>2.64</v>
+      </c>
+      <c r="BK111">
+        <v>2</v>
+      </c>
+      <c r="BL111">
+        <v>1.8</v>
+      </c>
+      <c r="BM111">
+        <v>2.15</v>
+      </c>
+      <c r="BN111">
+        <v>1.59</v>
+      </c>
+      <c r="BO111">
+        <v>2.84</v>
+      </c>
+      <c r="BP111">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="112" spans="1:68">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>7347868</v>
+      </c>
+      <c r="C112" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45438.375</v>
+      </c>
+      <c r="F112">
+        <v>14</v>
+      </c>
+      <c r="G112" t="s">
+        <v>72</v>
+      </c>
+      <c r="H112" t="s">
+        <v>74</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112">
+        <v>2</v>
+      </c>
+      <c r="L112">
+        <v>4</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+      <c r="N112">
+        <v>5</v>
+      </c>
+      <c r="O112" t="s">
+        <v>159</v>
+      </c>
+      <c r="P112" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q112">
+        <v>1.73</v>
+      </c>
+      <c r="R112">
+        <v>2.75</v>
+      </c>
+      <c r="S112">
+        <v>7.5</v>
+      </c>
+      <c r="T112">
+        <v>1.25</v>
+      </c>
+      <c r="U112">
+        <v>3.75</v>
+      </c>
+      <c r="V112">
+        <v>2.2</v>
+      </c>
+      <c r="W112">
+        <v>1.62</v>
+      </c>
+      <c r="X112">
+        <v>5</v>
+      </c>
+      <c r="Y112">
+        <v>1.17</v>
+      </c>
+      <c r="Z112">
+        <v>1.24</v>
+      </c>
+      <c r="AA112">
+        <v>5.76</v>
+      </c>
+      <c r="AB112">
+        <v>6.72</v>
+      </c>
+      <c r="AC112">
+        <v>1.02</v>
+      </c>
+      <c r="AD112">
+        <v>19</v>
+      </c>
+      <c r="AE112">
+        <v>1.13</v>
+      </c>
+      <c r="AF112">
+        <v>5.25</v>
+      </c>
+      <c r="AG112">
+        <v>1.5</v>
+      </c>
+      <c r="AH112">
+        <v>2.5</v>
+      </c>
+      <c r="AI112">
+        <v>1.95</v>
+      </c>
+      <c r="AJ112">
+        <v>1.8</v>
+      </c>
+      <c r="AK112">
+        <v>1.04</v>
+      </c>
+      <c r="AL112">
+        <v>1.07</v>
+      </c>
+      <c r="AM112">
+        <v>3.55</v>
+      </c>
+      <c r="AN112">
+        <v>2.67</v>
+      </c>
+      <c r="AO112">
+        <v>1</v>
+      </c>
+      <c r="AP112">
+        <v>2.71</v>
+      </c>
+      <c r="AQ112">
+        <v>0.86</v>
+      </c>
+      <c r="AR112">
+        <v>1.97</v>
+      </c>
+      <c r="AS112">
+        <v>0.95</v>
+      </c>
+      <c r="AT112">
+        <v>2.92</v>
+      </c>
+      <c r="AU112">
+        <v>13</v>
+      </c>
+      <c r="AV112">
+        <v>4</v>
+      </c>
+      <c r="AW112">
+        <v>31</v>
+      </c>
+      <c r="AX112">
+        <v>6</v>
+      </c>
+      <c r="AY112">
+        <v>44</v>
+      </c>
+      <c r="AZ112">
+        <v>10</v>
+      </c>
+      <c r="BA112">
+        <v>13</v>
+      </c>
+      <c r="BB112">
+        <v>2</v>
+      </c>
+      <c r="BC112">
+        <v>15</v>
+      </c>
+      <c r="BD112">
+        <v>1.18</v>
+      </c>
+      <c r="BE112">
+        <v>11</v>
+      </c>
+      <c r="BF112">
+        <v>5.5</v>
+      </c>
+      <c r="BG112">
+        <v>1.24</v>
+      </c>
+      <c r="BH112">
+        <v>3.48</v>
+      </c>
+      <c r="BI112">
+        <v>1.45</v>
+      </c>
+      <c r="BJ112">
+        <v>2.48</v>
+      </c>
+      <c r="BK112">
+        <v>1.95</v>
+      </c>
+      <c r="BL112">
+        <v>1.85</v>
+      </c>
+      <c r="BM112">
+        <v>2.28</v>
+      </c>
+      <c r="BN112">
+        <v>1.53</v>
+      </c>
+      <c r="BO112">
+        <v>3.04</v>
+      </c>
+      <c r="BP112">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -493,7 +493,7 @@
     <t>['5', '11', '41', '51', '69', '84', '90+2']</t>
   </si>
   <si>
-    <t>['13', '51', '73', '90+2']</t>
+    <t>['14', '51', '73', '90+2']</t>
   </si>
   <si>
     <t>['81', '90+3']</t>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -463,13 +463,13 @@
     <t>['35', '56', '62']</t>
   </si>
   <si>
+    <t>['72']</t>
+  </si>
+  <si>
     <t>['9', '21', '51']</t>
   </si>
   <si>
     <t>['90+3']</t>
-  </si>
-  <si>
-    <t>['72']</t>
   </si>
   <si>
     <t>['41']</t>
@@ -13430,7 +13430,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>7347816</v>
+        <v>7347815</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -13445,184 +13445,184 @@
         <v>8</v>
       </c>
       <c r="G61" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H61" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O61" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="Q61">
-        <v>2.75</v>
+        <v>3.11</v>
       </c>
       <c r="R61">
-        <v>2.05</v>
+        <v>2.27</v>
       </c>
       <c r="S61">
-        <v>4.33</v>
+        <v>3.3</v>
       </c>
       <c r="T61">
+        <v>1.34</v>
+      </c>
+      <c r="U61">
+        <v>3.15</v>
+      </c>
+      <c r="V61">
+        <v>2.73</v>
+      </c>
+      <c r="W61">
+        <v>1.44</v>
+      </c>
+      <c r="X61">
+        <v>6.6</v>
+      </c>
+      <c r="Y61">
+        <v>1.09</v>
+      </c>
+      <c r="Z61">
+        <v>2.52</v>
+      </c>
+      <c r="AA61">
+        <v>3.42</v>
+      </c>
+      <c r="AB61">
+        <v>2.69</v>
+      </c>
+      <c r="AC61">
+        <v>1.05</v>
+      </c>
+      <c r="AD61">
+        <v>8.5</v>
+      </c>
+      <c r="AE61">
+        <v>1.28</v>
+      </c>
+      <c r="AF61">
+        <v>3.55</v>
+      </c>
+      <c r="AG61">
+        <v>1.85</v>
+      </c>
+      <c r="AH61">
+        <v>1.96</v>
+      </c>
+      <c r="AI61">
+        <v>1.62</v>
+      </c>
+      <c r="AJ61">
+        <v>2.1</v>
+      </c>
+      <c r="AK61">
+        <v>1.45</v>
+      </c>
+      <c r="AL61">
+        <v>1.25</v>
+      </c>
+      <c r="AM61">
         <v>1.5</v>
       </c>
-      <c r="U61">
-        <v>2.5</v>
-      </c>
-      <c r="V61">
-        <v>3.25</v>
-      </c>
-      <c r="W61">
-        <v>1.33</v>
-      </c>
-      <c r="X61">
-        <v>10</v>
-      </c>
-      <c r="Y61">
-        <v>1.06</v>
-      </c>
-      <c r="Z61">
-        <v>1.78</v>
-      </c>
-      <c r="AA61">
-        <v>3.25</v>
-      </c>
-      <c r="AB61">
-        <v>3.53</v>
-      </c>
-      <c r="AC61">
-        <v>1.07</v>
-      </c>
-      <c r="AD61">
-        <v>7.5</v>
-      </c>
-      <c r="AE61">
-        <v>1.38</v>
-      </c>
-      <c r="AF61">
-        <v>2.88</v>
-      </c>
-      <c r="AG61">
-        <v>1.91</v>
-      </c>
-      <c r="AH61">
-        <v>1.69</v>
-      </c>
-      <c r="AI61">
-        <v>1.95</v>
-      </c>
-      <c r="AJ61">
-        <v>1.8</v>
-      </c>
-      <c r="AK61">
-        <v>1.25</v>
-      </c>
-      <c r="AL61">
-        <v>1.28</v>
-      </c>
-      <c r="AM61">
-        <v>1.73</v>
-      </c>
       <c r="AN61">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AO61">
         <v>0.67</v>
       </c>
       <c r="AP61">
-        <v>0.71</v>
+        <v>1.29</v>
       </c>
       <c r="AQ61">
-        <v>1.33</v>
+        <v>0.86</v>
       </c>
       <c r="AR61">
-        <v>0.98</v>
+        <v>1.2</v>
       </c>
       <c r="AS61">
-        <v>0.79</v>
+        <v>1.07</v>
       </c>
       <c r="AT61">
-        <v>1.77</v>
+        <v>2.27</v>
       </c>
       <c r="AU61">
         <v>5</v>
       </c>
       <c r="AV61">
+        <v>11</v>
+      </c>
+      <c r="AW61">
+        <v>2</v>
+      </c>
+      <c r="AX61">
+        <v>9</v>
+      </c>
+      <c r="AY61">
+        <v>7</v>
+      </c>
+      <c r="AZ61">
+        <v>20</v>
+      </c>
+      <c r="BA61">
+        <v>4</v>
+      </c>
+      <c r="BB61">
         <v>6</v>
       </c>
-      <c r="AW61">
-        <v>5</v>
-      </c>
-      <c r="AX61">
-        <v>4</v>
-      </c>
-      <c r="AY61">
+      <c r="BC61">
         <v>10</v>
       </c>
-      <c r="AZ61">
-        <v>10</v>
-      </c>
-      <c r="BA61">
-        <v>7</v>
-      </c>
-      <c r="BB61">
-        <v>4</v>
-      </c>
-      <c r="BC61">
-        <v>11</v>
-      </c>
       <c r="BD61">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="BE61">
         <v>7.5</v>
       </c>
       <c r="BF61">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="BG61">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="BH61">
-        <v>2.9</v>
+        <v>3.15</v>
       </c>
       <c r="BI61">
+        <v>1.58</v>
+      </c>
+      <c r="BJ61">
+        <v>2.23</v>
+      </c>
+      <c r="BK61">
+        <v>2.07</v>
+      </c>
+      <c r="BL61">
         <v>1.67</v>
       </c>
-      <c r="BJ61">
-        <v>2.07</v>
-      </c>
-      <c r="BK61">
-        <v>2.13</v>
-      </c>
-      <c r="BL61">
-        <v>1.63</v>
-      </c>
       <c r="BM61">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="BN61">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="BO61">
         <v>3.7</v>
@@ -13636,7 +13636,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>7347815</v>
+        <v>7347816</v>
       </c>
       <c r="C62" t="s">
         <v>68</v>
@@ -13651,184 +13651,184 @@
         <v>8</v>
       </c>
       <c r="G62" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H62" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N62">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O62" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="P62" t="s">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c r="Q62">
-        <v>3.11</v>
+        <v>2.75</v>
       </c>
       <c r="R62">
-        <v>2.27</v>
+        <v>2.05</v>
       </c>
       <c r="S62">
-        <v>3.3</v>
+        <v>4.33</v>
       </c>
       <c r="T62">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
       <c r="U62">
-        <v>3.15</v>
+        <v>2.5</v>
       </c>
       <c r="V62">
-        <v>2.73</v>
+        <v>3.25</v>
       </c>
       <c r="W62">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="X62">
-        <v>6.6</v>
+        <v>10</v>
       </c>
       <c r="Y62">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="Z62">
-        <v>2.52</v>
+        <v>1.78</v>
       </c>
       <c r="AA62">
-        <v>3.42</v>
+        <v>3.25</v>
       </c>
       <c r="AB62">
-        <v>2.69</v>
+        <v>3.53</v>
       </c>
       <c r="AC62">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AD62">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE62">
+        <v>1.38</v>
+      </c>
+      <c r="AF62">
+        <v>2.88</v>
+      </c>
+      <c r="AG62">
+        <v>1.91</v>
+      </c>
+      <c r="AH62">
+        <v>1.69</v>
+      </c>
+      <c r="AI62">
+        <v>1.95</v>
+      </c>
+      <c r="AJ62">
+        <v>1.8</v>
+      </c>
+      <c r="AK62">
+        <v>1.25</v>
+      </c>
+      <c r="AL62">
         <v>1.28</v>
       </c>
-      <c r="AF62">
-        <v>3.55</v>
-      </c>
-      <c r="AG62">
-        <v>1.85</v>
-      </c>
-      <c r="AH62">
-        <v>1.96</v>
-      </c>
-      <c r="AI62">
-        <v>1.62</v>
-      </c>
-      <c r="AJ62">
-        <v>2.1</v>
-      </c>
-      <c r="AK62">
-        <v>1.45</v>
-      </c>
-      <c r="AL62">
-        <v>1.25</v>
-      </c>
       <c r="AM62">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="AN62">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="AO62">
         <v>0.67</v>
       </c>
       <c r="AP62">
-        <v>1.29</v>
+        <v>0.71</v>
       </c>
       <c r="AQ62">
-        <v>0.86</v>
+        <v>1.33</v>
       </c>
       <c r="AR62">
-        <v>1.2</v>
+        <v>0.98</v>
       </c>
       <c r="AS62">
-        <v>1.07</v>
+        <v>0.79</v>
       </c>
       <c r="AT62">
-        <v>2.27</v>
+        <v>1.77</v>
       </c>
       <c r="AU62">
         <v>5</v>
       </c>
       <c r="AV62">
+        <v>6</v>
+      </c>
+      <c r="AW62">
+        <v>5</v>
+      </c>
+      <c r="AX62">
+        <v>4</v>
+      </c>
+      <c r="AY62">
+        <v>10</v>
+      </c>
+      <c r="AZ62">
+        <v>10</v>
+      </c>
+      <c r="BA62">
+        <v>7</v>
+      </c>
+      <c r="BB62">
+        <v>4</v>
+      </c>
+      <c r="BC62">
         <v>11</v>
       </c>
-      <c r="AW62">
-        <v>2</v>
-      </c>
-      <c r="AX62">
-        <v>9</v>
-      </c>
-      <c r="AY62">
-        <v>7</v>
-      </c>
-      <c r="AZ62">
-        <v>20</v>
-      </c>
-      <c r="BA62">
-        <v>4</v>
-      </c>
-      <c r="BB62">
-        <v>6</v>
-      </c>
-      <c r="BC62">
-        <v>10</v>
-      </c>
       <c r="BD62">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="BE62">
         <v>7.5</v>
       </c>
       <c r="BF62">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="BG62">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="BH62">
-        <v>3.15</v>
+        <v>2.9</v>
       </c>
       <c r="BI62">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="BJ62">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="BK62">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="BL62">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="BM62">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="BN62">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="BO62">
         <v>3.7</v>
@@ -21052,7 +21052,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>7347854</v>
+        <v>7347856</v>
       </c>
       <c r="C98" t="s">
         <v>68</v>
@@ -21067,127 +21067,127 @@
         <v>13</v>
       </c>
       <c r="G98" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H98" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K98">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M98">
         <v>1</v>
       </c>
       <c r="N98">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O98" t="s">
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>222</v>
+        <v>182</v>
       </c>
       <c r="Q98">
-        <v>2.31</v>
+        <v>4.63</v>
       </c>
       <c r="R98">
-        <v>2.51</v>
+        <v>2.32</v>
       </c>
       <c r="S98">
-        <v>4.22</v>
+        <v>2.37</v>
       </c>
       <c r="T98">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="U98">
-        <v>3.54</v>
+        <v>3.17</v>
       </c>
       <c r="V98">
-        <v>2.27</v>
+        <v>2.71</v>
       </c>
       <c r="W98">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="X98">
-        <v>5.15</v>
+        <v>6.45</v>
       </c>
       <c r="Y98">
+        <v>1.09</v>
+      </c>
+      <c r="Z98">
+        <v>4</v>
+      </c>
+      <c r="AA98">
+        <v>3.65</v>
+      </c>
+      <c r="AB98">
+        <v>1.97</v>
+      </c>
+      <c r="AC98">
+        <v>1.05</v>
+      </c>
+      <c r="AD98">
+        <v>8.5</v>
+      </c>
+      <c r="AE98">
+        <v>1.28</v>
+      </c>
+      <c r="AF98">
+        <v>3.5</v>
+      </c>
+      <c r="AG98">
+        <v>1.88</v>
+      </c>
+      <c r="AH98">
+        <v>2</v>
+      </c>
+      <c r="AI98">
+        <v>1.75</v>
+      </c>
+      <c r="AJ98">
+        <v>2</v>
+      </c>
+      <c r="AK98">
+        <v>1.87</v>
+      </c>
+      <c r="AL98">
+        <v>1.22</v>
+      </c>
+      <c r="AM98">
+        <v>1.2</v>
+      </c>
+      <c r="AN98">
+        <v>0.8</v>
+      </c>
+      <c r="AO98">
+        <v>2</v>
+      </c>
+      <c r="AP98">
         <v>1.14</v>
       </c>
-      <c r="Z98">
-        <v>1.86</v>
-      </c>
-      <c r="AA98">
+      <c r="AQ98">
+        <v>1.88</v>
+      </c>
+      <c r="AR98">
+        <v>1.45</v>
+      </c>
+      <c r="AS98">
+        <v>1.09</v>
+      </c>
+      <c r="AT98">
+        <v>2.54</v>
+      </c>
+      <c r="AU98">
         <v>4</v>
-      </c>
-      <c r="AB98">
-        <v>4.1</v>
-      </c>
-      <c r="AC98">
-        <v>1.03</v>
-      </c>
-      <c r="AD98">
-        <v>19</v>
-      </c>
-      <c r="AE98">
-        <v>1.14</v>
-      </c>
-      <c r="AF98">
-        <v>4.65</v>
-      </c>
-      <c r="AG98">
-        <v>1.5</v>
-      </c>
-      <c r="AH98">
-        <v>2.31</v>
-      </c>
-      <c r="AI98">
-        <v>1.52</v>
-      </c>
-      <c r="AJ98">
-        <v>2.35</v>
-      </c>
-      <c r="AK98">
-        <v>1.27</v>
-      </c>
-      <c r="AL98">
-        <v>1.27</v>
-      </c>
-      <c r="AM98">
-        <v>1.95</v>
-      </c>
-      <c r="AN98">
-        <v>1.86</v>
-      </c>
-      <c r="AO98">
-        <v>1.33</v>
-      </c>
-      <c r="AP98">
-        <v>2</v>
-      </c>
-      <c r="AQ98">
-        <v>1.14</v>
-      </c>
-      <c r="AR98">
-        <v>1.77</v>
-      </c>
-      <c r="AS98">
-        <v>1.07</v>
-      </c>
-      <c r="AT98">
-        <v>2.84</v>
-      </c>
-      <c r="AU98">
-        <v>6</v>
       </c>
       <c r="AV98">
         <v>4</v>
@@ -21196,61 +21196,61 @@
         <v>9</v>
       </c>
       <c r="AX98">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AY98">
+        <v>13</v>
+      </c>
+      <c r="AZ98">
         <v>15</v>
       </c>
-      <c r="AZ98">
-        <v>12</v>
-      </c>
       <c r="BA98">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BB98">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC98">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BD98">
-        <v>1.46</v>
+        <v>2.88</v>
       </c>
       <c r="BE98">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="BF98">
-        <v>3.16</v>
+        <v>1.53</v>
       </c>
       <c r="BG98">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="BH98">
-        <v>3.74</v>
+        <v>4.15</v>
       </c>
       <c r="BI98">
+        <v>1.35</v>
+      </c>
+      <c r="BJ98">
+        <v>2.84</v>
+      </c>
+      <c r="BK98">
+        <v>1.62</v>
+      </c>
+      <c r="BL98">
+        <v>2.11</v>
+      </c>
+      <c r="BM98">
+        <v>2.04</v>
+      </c>
+      <c r="BN98">
+        <v>1.69</v>
+      </c>
+      <c r="BO98">
+        <v>2.64</v>
+      </c>
+      <c r="BP98">
         <v>1.4</v>
-      </c>
-      <c r="BJ98">
-        <v>2.64</v>
-      </c>
-      <c r="BK98">
-        <v>1.74</v>
-      </c>
-      <c r="BL98">
-        <v>2.05</v>
-      </c>
-      <c r="BM98">
-        <v>2.19</v>
-      </c>
-      <c r="BN98">
-        <v>1.65</v>
-      </c>
-      <c r="BO98">
-        <v>2.88</v>
-      </c>
-      <c r="BP98">
-        <v>1.34</v>
       </c>
     </row>
     <row r="99" spans="1:68">
@@ -21258,7 +21258,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>7347855</v>
+        <v>7347854</v>
       </c>
       <c r="C99" t="s">
         <v>68</v>
@@ -21273,190 +21273,190 @@
         <v>13</v>
       </c>
       <c r="G99" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H99" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N99">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O99" t="s">
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q99">
-        <v>4.5</v>
+        <v>2.31</v>
       </c>
       <c r="R99">
-        <v>2.3</v>
+        <v>2.51</v>
       </c>
       <c r="S99">
-        <v>2.25</v>
+        <v>4.22</v>
       </c>
       <c r="T99">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="U99">
-        <v>3.22</v>
+        <v>3.54</v>
       </c>
       <c r="V99">
-        <v>2.48</v>
+        <v>2.27</v>
       </c>
       <c r="W99">
+        <v>1.57</v>
+      </c>
+      <c r="X99">
+        <v>5.15</v>
+      </c>
+      <c r="Y99">
+        <v>1.14</v>
+      </c>
+      <c r="Z99">
+        <v>1.86</v>
+      </c>
+      <c r="AA99">
+        <v>4</v>
+      </c>
+      <c r="AB99">
+        <v>4.1</v>
+      </c>
+      <c r="AC99">
+        <v>1.03</v>
+      </c>
+      <c r="AD99">
+        <v>19</v>
+      </c>
+      <c r="AE99">
+        <v>1.14</v>
+      </c>
+      <c r="AF99">
+        <v>4.65</v>
+      </c>
+      <c r="AG99">
         <v>1.5</v>
       </c>
-      <c r="X99">
-        <v>5.85</v>
-      </c>
-      <c r="Y99">
-        <v>1.11</v>
-      </c>
-      <c r="Z99">
-        <v>4.7</v>
-      </c>
-      <c r="AA99">
-        <v>4.1</v>
-      </c>
-      <c r="AB99">
-        <v>1.74</v>
-      </c>
-      <c r="AC99">
-        <v>1.01</v>
-      </c>
-      <c r="AD99">
-        <v>11</v>
-      </c>
-      <c r="AE99">
-        <v>1.2</v>
-      </c>
-      <c r="AF99">
+      <c r="AH99">
+        <v>2.31</v>
+      </c>
+      <c r="AI99">
+        <v>1.52</v>
+      </c>
+      <c r="AJ99">
+        <v>2.35</v>
+      </c>
+      <c r="AK99">
+        <v>1.27</v>
+      </c>
+      <c r="AL99">
+        <v>1.27</v>
+      </c>
+      <c r="AM99">
+        <v>1.95</v>
+      </c>
+      <c r="AN99">
+        <v>1.86</v>
+      </c>
+      <c r="AO99">
+        <v>1.33</v>
+      </c>
+      <c r="AP99">
+        <v>2</v>
+      </c>
+      <c r="AQ99">
+        <v>1.14</v>
+      </c>
+      <c r="AR99">
+        <v>1.77</v>
+      </c>
+      <c r="AS99">
+        <v>1.07</v>
+      </c>
+      <c r="AT99">
+        <v>2.84</v>
+      </c>
+      <c r="AU99">
+        <v>6</v>
+      </c>
+      <c r="AV99">
         <v>4</v>
       </c>
-      <c r="AG99">
-        <v>1.61</v>
-      </c>
-      <c r="AH99">
-        <v>2.23</v>
-      </c>
-      <c r="AI99">
-        <v>1.65</v>
-      </c>
-      <c r="AJ99">
-        <v>2.1</v>
-      </c>
-      <c r="AK99">
-        <v>2.15</v>
-      </c>
-      <c r="AL99">
-        <v>1.25</v>
-      </c>
-      <c r="AM99">
-        <v>1.2</v>
-      </c>
-      <c r="AN99">
-        <v>0.83</v>
-      </c>
-      <c r="AO99">
-        <v>2.33</v>
-      </c>
-      <c r="AP99">
-        <v>0.71</v>
-      </c>
-      <c r="AQ99">
-        <v>2.5</v>
-      </c>
-      <c r="AR99">
-        <v>1.53</v>
-      </c>
-      <c r="AS99">
-        <v>1.62</v>
-      </c>
-      <c r="AT99">
-        <v>3.15</v>
-      </c>
-      <c r="AU99">
-        <v>4</v>
-      </c>
-      <c r="AV99">
-        <v>7</v>
-      </c>
       <c r="AW99">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AX99">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY99">
         <v>15</v>
       </c>
       <c r="AZ99">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA99">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="BB99">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC99">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BD99">
-        <v>2.45</v>
+        <v>1.46</v>
       </c>
       <c r="BE99">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="BF99">
-        <v>1.7</v>
+        <v>3.16</v>
       </c>
       <c r="BG99">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="BH99">
-        <v>4.15</v>
+        <v>3.74</v>
       </c>
       <c r="BI99">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="BJ99">
-        <v>2.84</v>
+        <v>2.64</v>
       </c>
       <c r="BK99">
-        <v>1.63</v>
+        <v>1.74</v>
       </c>
       <c r="BL99">
-        <v>2.09</v>
+        <v>2.05</v>
       </c>
       <c r="BM99">
-        <v>2.06</v>
+        <v>2.19</v>
       </c>
       <c r="BN99">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="BO99">
-        <v>2.67</v>
+        <v>2.88</v>
       </c>
       <c r="BP99">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="100" spans="1:68">
@@ -21464,7 +21464,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>7347856</v>
+        <v>7347855</v>
       </c>
       <c r="C100" t="s">
         <v>68</v>
@@ -21479,163 +21479,163 @@
         <v>13</v>
       </c>
       <c r="G100" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H100" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I100">
         <v>0</v>
       </c>
       <c r="J100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L100">
         <v>1</v>
       </c>
       <c r="M100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O100" t="s">
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>182</v>
+        <v>223</v>
       </c>
       <c r="Q100">
-        <v>4.63</v>
+        <v>4.5</v>
       </c>
       <c r="R100">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="S100">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="T100">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="U100">
-        <v>3.17</v>
+        <v>3.22</v>
       </c>
       <c r="V100">
-        <v>2.71</v>
+        <v>2.48</v>
       </c>
       <c r="W100">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X100">
-        <v>6.45</v>
+        <v>5.85</v>
       </c>
       <c r="Y100">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="Z100">
+        <v>4.7</v>
+      </c>
+      <c r="AA100">
+        <v>4.1</v>
+      </c>
+      <c r="AB100">
+        <v>1.74</v>
+      </c>
+      <c r="AC100">
+        <v>1.01</v>
+      </c>
+      <c r="AD100">
+        <v>11</v>
+      </c>
+      <c r="AE100">
+        <v>1.2</v>
+      </c>
+      <c r="AF100">
         <v>4</v>
       </c>
-      <c r="AA100">
-        <v>3.65</v>
-      </c>
-      <c r="AB100">
-        <v>1.97</v>
-      </c>
-      <c r="AC100">
-        <v>1.05</v>
-      </c>
-      <c r="AD100">
-        <v>8.5</v>
-      </c>
-      <c r="AE100">
-        <v>1.28</v>
-      </c>
-      <c r="AF100">
-        <v>3.5</v>
-      </c>
       <c r="AG100">
-        <v>1.88</v>
+        <v>1.61</v>
       </c>
       <c r="AH100">
-        <v>2</v>
+        <v>2.23</v>
       </c>
       <c r="AI100">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AJ100">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AK100">
-        <v>1.87</v>
+        <v>2.15</v>
       </c>
       <c r="AL100">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AM100">
         <v>1.2</v>
       </c>
       <c r="AN100">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AO100">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AP100">
-        <v>1.14</v>
+        <v>0.71</v>
       </c>
       <c r="AQ100">
-        <v>1.88</v>
+        <v>2.5</v>
       </c>
       <c r="AR100">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="AS100">
-        <v>1.09</v>
+        <v>1.62</v>
       </c>
       <c r="AT100">
-        <v>2.54</v>
+        <v>3.15</v>
       </c>
       <c r="AU100">
         <v>4</v>
       </c>
       <c r="AV100">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW100">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AX100">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AY100">
+        <v>15</v>
+      </c>
+      <c r="AZ100">
         <v>13</v>
       </c>
-      <c r="AZ100">
-        <v>15</v>
-      </c>
       <c r="BA100">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BB100">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BC100">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD100">
-        <v>2.88</v>
+        <v>2.45</v>
       </c>
       <c r="BE100">
-        <v>9.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BF100">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="BG100">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="BH100">
         <v>4.15</v>
@@ -21647,22 +21647,22 @@
         <v>2.84</v>
       </c>
       <c r="BK100">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="BL100">
-        <v>2.11</v>
+        <v>2.09</v>
       </c>
       <c r="BM100">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="BN100">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="BO100">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="BP100">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="101" spans="1:68">
@@ -21709,7 +21709,7 @@
         <v>2</v>
       </c>
       <c r="O101" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P101" t="s">
         <v>184</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="230">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -699,6 +699,12 @@
   <si>
     <t>['30']</t>
   </si>
+  <si>
+    <t>['14', '33', '71']</t>
+  </si>
+  <si>
+    <t>['90+2']</t>
+  </si>
 </sst>
 </file>
 
@@ -1059,7 +1065,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP112"/>
+  <dimension ref="A1:BP115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2014,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ5">
         <v>0.75</v>
@@ -2635,7 +2641,7 @@
         <v>2</v>
       </c>
       <c r="AQ8">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2838,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ9">
         <v>2.5</v>
@@ -3871,7 +3877,7 @@
         <v>2</v>
       </c>
       <c r="AQ14">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR14">
         <v>0.7</v>
@@ -4074,7 +4080,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ15">
         <v>1.14</v>
@@ -6134,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ25">
         <v>1</v>
@@ -6755,7 +6761,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ28">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR28">
         <v>2.4</v>
@@ -6961,7 +6967,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ29">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR29">
         <v>1.72</v>
@@ -7167,7 +7173,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ30">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7370,7 +7376,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ31">
         <v>1.33</v>
@@ -7576,7 +7582,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ32">
         <v>1.5</v>
@@ -7988,10 +7994,10 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ34">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR34">
         <v>1</v>
@@ -8403,7 +8409,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ36">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR36">
         <v>1.16</v>
@@ -9430,7 +9436,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ41">
         <v>0.57</v>
@@ -10254,7 +10260,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ45">
         <v>1.33</v>
@@ -10463,7 +10469,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ46">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR46">
         <v>1.97</v>
@@ -11699,7 +11705,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ52">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR52">
         <v>1.36</v>
@@ -12108,7 +12114,7 @@
         <v>3</v>
       </c>
       <c r="AP54">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ54">
         <v>2.5</v>
@@ -13965,7 +13971,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ63">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR63">
         <v>1.51</v>
@@ -14580,7 +14586,7 @@
         <v>2.2</v>
       </c>
       <c r="AP66">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ66">
         <v>1.88</v>
@@ -14992,7 +14998,7 @@
         <v>0.75</v>
       </c>
       <c r="AP68">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ68">
         <v>1</v>
@@ -15201,7 +15207,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ69">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR69">
         <v>1.09</v>
@@ -15407,7 +15413,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ70">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR70">
         <v>1.34</v>
@@ -16025,7 +16031,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ73">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR73">
         <v>1.06</v>
@@ -16434,7 +16440,7 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ75">
         <v>1.14</v>
@@ -16846,7 +16852,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ77">
         <v>0.86</v>
@@ -17467,7 +17473,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ80">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR80">
         <v>1.55</v>
@@ -18288,7 +18294,7 @@
         <v>2.6</v>
       </c>
       <c r="AP84">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ84">
         <v>2.5</v>
@@ -18497,7 +18503,7 @@
         <v>1</v>
       </c>
       <c r="AQ85">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR85">
         <v>1.84</v>
@@ -19527,7 +19533,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ90">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR90">
         <v>2.05</v>
@@ -20348,7 +20354,7 @@
         <v>1.5</v>
       </c>
       <c r="AP94">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ94">
         <v>1.5</v>
@@ -20763,7 +20769,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ96">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR96">
         <v>0.98</v>
@@ -20966,10 +20972,10 @@
         <v>1.17</v>
       </c>
       <c r="AP97">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ97">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR97">
         <v>1.33</v>
@@ -21790,7 +21796,7 @@
         <v>1</v>
       </c>
       <c r="AP101">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ101">
         <v>0.86</v>
@@ -21996,10 +22002,10 @@
         <v>2</v>
       </c>
       <c r="AP102">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ102">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR102">
         <v>1.58</v>
@@ -24135,6 +24141,624 @@
       </c>
       <c r="BP112">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="113" spans="1:68">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>7347869</v>
+      </c>
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45457.35763888889</v>
+      </c>
+      <c r="F113">
+        <v>15</v>
+      </c>
+      <c r="G113" t="s">
+        <v>77</v>
+      </c>
+      <c r="H113" t="s">
+        <v>70</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113" t="s">
+        <v>90</v>
+      </c>
+      <c r="P113" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q113">
+        <v>6</v>
+      </c>
+      <c r="R113">
+        <v>2.4</v>
+      </c>
+      <c r="S113">
+        <v>2</v>
+      </c>
+      <c r="T113">
+        <v>1.3</v>
+      </c>
+      <c r="U113">
+        <v>3.4</v>
+      </c>
+      <c r="V113">
+        <v>2.5</v>
+      </c>
+      <c r="W113">
+        <v>1.5</v>
+      </c>
+      <c r="X113">
+        <v>6</v>
+      </c>
+      <c r="Y113">
+        <v>1.13</v>
+      </c>
+      <c r="Z113">
+        <v>8</v>
+      </c>
+      <c r="AA113">
+        <v>4.75</v>
+      </c>
+      <c r="AB113">
+        <v>1.36</v>
+      </c>
+      <c r="AC113">
+        <v>1.04</v>
+      </c>
+      <c r="AD113">
+        <v>10.5</v>
+      </c>
+      <c r="AE113">
+        <v>1.19</v>
+      </c>
+      <c r="AF113">
+        <v>3.95</v>
+      </c>
+      <c r="AG113">
+        <v>1.65</v>
+      </c>
+      <c r="AH113">
+        <v>2.15</v>
+      </c>
+      <c r="AI113">
+        <v>1.8</v>
+      </c>
+      <c r="AJ113">
+        <v>1.95</v>
+      </c>
+      <c r="AK113">
+        <v>2.6</v>
+      </c>
+      <c r="AL113">
+        <v>1.16</v>
+      </c>
+      <c r="AM113">
+        <v>1.08</v>
+      </c>
+      <c r="AN113">
+        <v>0.57</v>
+      </c>
+      <c r="AO113">
+        <v>1.83</v>
+      </c>
+      <c r="AP113">
+        <v>0.63</v>
+      </c>
+      <c r="AQ113">
+        <v>1.71</v>
+      </c>
+      <c r="AR113">
+        <v>1.3</v>
+      </c>
+      <c r="AS113">
+        <v>1.68</v>
+      </c>
+      <c r="AT113">
+        <v>2.98</v>
+      </c>
+      <c r="AU113">
+        <v>-1</v>
+      </c>
+      <c r="AV113">
+        <v>-1</v>
+      </c>
+      <c r="AW113">
+        <v>-1</v>
+      </c>
+      <c r="AX113">
+        <v>-1</v>
+      </c>
+      <c r="AY113">
+        <v>-1</v>
+      </c>
+      <c r="AZ113">
+        <v>-1</v>
+      </c>
+      <c r="BA113">
+        <v>-1</v>
+      </c>
+      <c r="BB113">
+        <v>-1</v>
+      </c>
+      <c r="BC113">
+        <v>-1</v>
+      </c>
+      <c r="BD113">
+        <v>4</v>
+      </c>
+      <c r="BE113">
+        <v>9.5</v>
+      </c>
+      <c r="BF113">
+        <v>1.3</v>
+      </c>
+      <c r="BG113">
+        <v>1.25</v>
+      </c>
+      <c r="BH113">
+        <v>3.6</v>
+      </c>
+      <c r="BI113">
+        <v>1.38</v>
+      </c>
+      <c r="BJ113">
+        <v>2.8</v>
+      </c>
+      <c r="BK113">
+        <v>1.92</v>
+      </c>
+      <c r="BL113">
+        <v>1.88</v>
+      </c>
+      <c r="BM113">
+        <v>2.03</v>
+      </c>
+      <c r="BN113">
+        <v>1.76</v>
+      </c>
+      <c r="BO113">
+        <v>2.85</v>
+      </c>
+      <c r="BP113">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="114" spans="1:68">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>7347871</v>
+      </c>
+      <c r="C114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45457.375</v>
+      </c>
+      <c r="F114">
+        <v>15</v>
+      </c>
+      <c r="G114" t="s">
+        <v>73</v>
+      </c>
+      <c r="H114" t="s">
+        <v>72</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>2</v>
+      </c>
+      <c r="K114">
+        <v>2</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>3</v>
+      </c>
+      <c r="N114">
+        <v>3</v>
+      </c>
+      <c r="O114" t="s">
+        <v>90</v>
+      </c>
+      <c r="P114" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q114">
+        <v>6</v>
+      </c>
+      <c r="R114">
+        <v>2.63</v>
+      </c>
+      <c r="S114">
+        <v>1.83</v>
+      </c>
+      <c r="T114">
+        <v>1.25</v>
+      </c>
+      <c r="U114">
+        <v>3.75</v>
+      </c>
+      <c r="V114">
+        <v>2.1</v>
+      </c>
+      <c r="W114">
+        <v>1.67</v>
+      </c>
+      <c r="X114">
+        <v>4.5</v>
+      </c>
+      <c r="Y114">
+        <v>1.18</v>
+      </c>
+      <c r="Z114">
+        <v>6.5</v>
+      </c>
+      <c r="AA114">
+        <v>5</v>
+      </c>
+      <c r="AB114">
+        <v>1.4</v>
+      </c>
+      <c r="AC114">
+        <v>1.02</v>
+      </c>
+      <c r="AD114">
+        <v>23</v>
+      </c>
+      <c r="AE114">
+        <v>1.11</v>
+      </c>
+      <c r="AF114">
+        <v>5.2</v>
+      </c>
+      <c r="AG114">
+        <v>1.65</v>
+      </c>
+      <c r="AH114">
+        <v>2.12</v>
+      </c>
+      <c r="AI114">
+        <v>1.62</v>
+      </c>
+      <c r="AJ114">
+        <v>2.2</v>
+      </c>
+      <c r="AK114">
+        <v>2.9</v>
+      </c>
+      <c r="AL114">
+        <v>1.12</v>
+      </c>
+      <c r="AM114">
+        <v>1.06</v>
+      </c>
+      <c r="AN114">
+        <v>0.67</v>
+      </c>
+      <c r="AO114">
+        <v>2.33</v>
+      </c>
+      <c r="AP114">
+        <v>0.57</v>
+      </c>
+      <c r="AQ114">
+        <v>2.43</v>
+      </c>
+      <c r="AR114">
+        <v>1.55</v>
+      </c>
+      <c r="AS114">
+        <v>2.49</v>
+      </c>
+      <c r="AT114">
+        <v>4.04</v>
+      </c>
+      <c r="AU114">
+        <v>-1</v>
+      </c>
+      <c r="AV114">
+        <v>-1</v>
+      </c>
+      <c r="AW114">
+        <v>-1</v>
+      </c>
+      <c r="AX114">
+        <v>-1</v>
+      </c>
+      <c r="AY114">
+        <v>-1</v>
+      </c>
+      <c r="AZ114">
+        <v>-1</v>
+      </c>
+      <c r="BA114">
+        <v>-1</v>
+      </c>
+      <c r="BB114">
+        <v>-1</v>
+      </c>
+      <c r="BC114">
+        <v>-1</v>
+      </c>
+      <c r="BD114">
+        <v>4.33</v>
+      </c>
+      <c r="BE114">
+        <v>10</v>
+      </c>
+      <c r="BF114">
+        <v>1.29</v>
+      </c>
+      <c r="BG114">
+        <v>1.2</v>
+      </c>
+      <c r="BH114">
+        <v>4</v>
+      </c>
+      <c r="BI114">
+        <v>1.33</v>
+      </c>
+      <c r="BJ114">
+        <v>3</v>
+      </c>
+      <c r="BK114">
+        <v>1.57</v>
+      </c>
+      <c r="BL114">
+        <v>2.32</v>
+      </c>
+      <c r="BM114">
+        <v>2</v>
+      </c>
+      <c r="BN114">
+        <v>1.73</v>
+      </c>
+      <c r="BO114">
+        <v>2.39</v>
+      </c>
+      <c r="BP114">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="115" spans="1:68">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>7347870</v>
+      </c>
+      <c r="C115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45457.375</v>
+      </c>
+      <c r="F115">
+        <v>15</v>
+      </c>
+      <c r="G115" t="s">
+        <v>81</v>
+      </c>
+      <c r="H115" t="s">
+        <v>82</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115">
+        <v>1</v>
+      </c>
+      <c r="O115" t="s">
+        <v>90</v>
+      </c>
+      <c r="P115" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q115">
+        <v>3.4</v>
+      </c>
+      <c r="R115">
+        <v>2.2</v>
+      </c>
+      <c r="S115">
+        <v>3.1</v>
+      </c>
+      <c r="T115">
+        <v>1.36</v>
+      </c>
+      <c r="U115">
+        <v>3</v>
+      </c>
+      <c r="V115">
+        <v>2.75</v>
+      </c>
+      <c r="W115">
+        <v>1.4</v>
+      </c>
+      <c r="X115">
+        <v>8</v>
+      </c>
+      <c r="Y115">
+        <v>1.08</v>
+      </c>
+      <c r="Z115">
+        <v>2.8</v>
+      </c>
+      <c r="AA115">
+        <v>3.4</v>
+      </c>
+      <c r="AB115">
+        <v>2.45</v>
+      </c>
+      <c r="AC115">
+        <v>1.01</v>
+      </c>
+      <c r="AD115">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE115">
+        <v>1.28</v>
+      </c>
+      <c r="AF115">
+        <v>3.5</v>
+      </c>
+      <c r="AG115">
+        <v>1.85</v>
+      </c>
+      <c r="AH115">
+        <v>1.95</v>
+      </c>
+      <c r="AI115">
+        <v>1.7</v>
+      </c>
+      <c r="AJ115">
+        <v>2.05</v>
+      </c>
+      <c r="AK115">
+        <v>1.45</v>
+      </c>
+      <c r="AL115">
+        <v>1.25</v>
+      </c>
+      <c r="AM115">
+        <v>1.52</v>
+      </c>
+      <c r="AN115">
+        <v>0.67</v>
+      </c>
+      <c r="AO115">
+        <v>1.14</v>
+      </c>
+      <c r="AP115">
+        <v>0.57</v>
+      </c>
+      <c r="AQ115">
+        <v>1.38</v>
+      </c>
+      <c r="AR115">
+        <v>1.37</v>
+      </c>
+      <c r="AS115">
+        <v>1.37</v>
+      </c>
+      <c r="AT115">
+        <v>2.74</v>
+      </c>
+      <c r="AU115">
+        <v>-1</v>
+      </c>
+      <c r="AV115">
+        <v>-1</v>
+      </c>
+      <c r="AW115">
+        <v>-1</v>
+      </c>
+      <c r="AX115">
+        <v>-1</v>
+      </c>
+      <c r="AY115">
+        <v>-1</v>
+      </c>
+      <c r="AZ115">
+        <v>-1</v>
+      </c>
+      <c r="BA115">
+        <v>-1</v>
+      </c>
+      <c r="BB115">
+        <v>-1</v>
+      </c>
+      <c r="BC115">
+        <v>-1</v>
+      </c>
+      <c r="BD115">
+        <v>1.91</v>
+      </c>
+      <c r="BE115">
+        <v>8</v>
+      </c>
+      <c r="BF115">
+        <v>2.2</v>
+      </c>
+      <c r="BG115">
+        <v>1.25</v>
+      </c>
+      <c r="BH115">
+        <v>3.6</v>
+      </c>
+      <c r="BI115">
+        <v>1.42</v>
+      </c>
+      <c r="BJ115">
+        <v>2.65</v>
+      </c>
+      <c r="BK115">
+        <v>1.88</v>
+      </c>
+      <c r="BL115">
+        <v>1.92</v>
+      </c>
+      <c r="BM115">
+        <v>2.14</v>
+      </c>
+      <c r="BN115">
+        <v>1.67</v>
+      </c>
+      <c r="BO115">
+        <v>2.85</v>
+      </c>
+      <c r="BP115">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="234">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -496,6 +496,12 @@
     <t>['14', '51', '73', '90+2']</t>
   </si>
   <si>
+    <t>['48', '89', '90+2']</t>
+  </si>
+  <si>
+    <t>['52', '90+1']</t>
+  </si>
+  <si>
     <t>['81', '90+3']</t>
   </si>
   <si>
@@ -704,6 +710,12 @@
   </si>
   <si>
     <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['19']</t>
+  </si>
+  <si>
+    <t>['35']</t>
   </si>
 </sst>
 </file>
@@ -1065,7 +1077,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP115"/>
+  <dimension ref="A1:BP117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1324,7 +1336,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1405,7 +1417,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ2">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1530,7 +1542,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -2148,7 +2160,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2229,7 +2241,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ6">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2638,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ8">
         <v>1.38</v>
@@ -2766,7 +2778,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -3053,7 +3065,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ10">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3384,7 +3396,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -3462,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
         <v>1.33</v>
@@ -3671,7 +3683,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ13">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR13">
         <v>2.48</v>
@@ -3874,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ14">
         <v>2.43</v>
@@ -4002,7 +4014,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4414,7 +4426,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4620,7 +4632,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4826,7 +4838,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -4907,7 +4919,7 @@
         <v>1</v>
       </c>
       <c r="AQ19">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5650,7 +5662,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -5856,7 +5868,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6062,7 +6074,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6268,7 +6280,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6474,7 +6486,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -6680,7 +6692,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6758,7 +6770,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ28">
         <v>1.38</v>
@@ -6886,7 +6898,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -7092,7 +7104,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7504,7 +7516,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7710,7 +7722,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q33">
         <v>1.73</v>
@@ -7788,7 +7800,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ33">
         <v>1</v>
@@ -7916,7 +7928,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q34">
         <v>6.4</v>
@@ -8122,7 +8134,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q35">
         <v>1.96</v>
@@ -8328,7 +8340,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q36">
         <v>1.98</v>
@@ -8534,7 +8546,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -8740,7 +8752,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q38">
         <v>3.25</v>
@@ -9027,7 +9039,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ39">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR39">
         <v>1.09</v>
@@ -9564,7 +9576,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9642,7 +9654,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ42">
         <v>0.75</v>
@@ -9770,7 +9782,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q43">
         <v>2.3</v>
@@ -9851,7 +9863,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ43">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR43">
         <v>2.56</v>
@@ -9976,7 +9988,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q44">
         <v>4.75</v>
@@ -10388,7 +10400,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10594,7 +10606,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -11212,7 +11224,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11290,7 +11302,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ50">
         <v>1.88</v>
@@ -11418,7 +11430,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11624,7 +11636,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q52">
         <v>1.83</v>
@@ -11911,7 +11923,7 @@
         <v>1</v>
       </c>
       <c r="AQ53">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR53">
         <v>1.78</v>
@@ -12036,7 +12048,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q54">
         <v>7.5</v>
@@ -12320,7 +12332,7 @@
         <v>0.33</v>
       </c>
       <c r="AP55">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ55">
         <v>0.57</v>
@@ -12654,7 +12666,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12860,7 +12872,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q58">
         <v>2.8</v>
@@ -13066,7 +13078,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q59">
         <v>3.15</v>
@@ -13272,7 +13284,7 @@
         <v>106</v>
       </c>
       <c r="P60" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13350,10 +13362,10 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ60">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR60">
         <v>1.57</v>
@@ -13478,7 +13490,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q61">
         <v>3.11</v>
@@ -13890,7 +13902,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q63">
         <v>2.75</v>
@@ -14302,7 +14314,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q65">
         <v>1.8</v>
@@ -14589,7 +14601,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ66">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR66">
         <v>1.59</v>
@@ -14714,7 +14726,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q67">
         <v>2.38</v>
@@ -14792,7 +14804,7 @@
         <v>1.25</v>
       </c>
       <c r="AP67">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ67">
         <v>0.86</v>
@@ -14920,7 +14932,7 @@
         <v>127</v>
       </c>
       <c r="P68" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15332,7 +15344,7 @@
         <v>90</v>
       </c>
       <c r="P70" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q70">
         <v>5.5</v>
@@ -15538,7 +15550,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q71">
         <v>2.45</v>
@@ -16156,7 +16168,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q74">
         <v>2.65</v>
@@ -16234,7 +16246,7 @@
         <v>1.8</v>
       </c>
       <c r="AP74">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ74">
         <v>1.88</v>
@@ -16362,7 +16374,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -16443,7 +16455,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ75">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR75">
         <v>1</v>
@@ -16774,7 +16786,7 @@
         <v>133</v>
       </c>
       <c r="P77" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17186,7 +17198,7 @@
         <v>135</v>
       </c>
       <c r="P79" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17392,7 +17404,7 @@
         <v>90</v>
       </c>
       <c r="P80" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -17598,7 +17610,7 @@
         <v>136</v>
       </c>
       <c r="P81" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17804,7 +17816,7 @@
         <v>137</v>
       </c>
       <c r="P82" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q82">
         <v>1.91</v>
@@ -18010,7 +18022,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q83">
         <v>1.62</v>
@@ -18091,7 +18103,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ83">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR83">
         <v>1.9</v>
@@ -18422,7 +18434,7 @@
         <v>99</v>
       </c>
       <c r="P85" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18628,7 +18640,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q86">
         <v>1.83</v>
@@ -18834,7 +18846,7 @@
         <v>90</v>
       </c>
       <c r="P87" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -19040,7 +19052,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19452,7 +19464,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q90">
         <v>1.61</v>
@@ -19658,7 +19670,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q91">
         <v>1.8</v>
@@ -19736,7 +19748,7 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ91">
         <v>0.75</v>
@@ -19864,7 +19876,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q92">
         <v>3.8</v>
@@ -20070,7 +20082,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q93">
         <v>2.55</v>
@@ -20148,7 +20160,7 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ93">
         <v>1.14</v>
@@ -20276,7 +20288,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q94">
         <v>4.5</v>
@@ -20482,7 +20494,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q95">
         <v>4.5</v>
@@ -20563,7 +20575,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ95">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR95">
         <v>1.1</v>
@@ -20688,7 +20700,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q96">
         <v>9</v>
@@ -21100,7 +21112,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q98">
         <v>4.63</v>
@@ -21181,7 +21193,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ98">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR98">
         <v>1.45</v>
@@ -21306,7 +21318,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q99">
         <v>2.31</v>
@@ -21384,7 +21396,7 @@
         <v>1.33</v>
       </c>
       <c r="AP99">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ99">
         <v>1.14</v>
@@ -21512,7 +21524,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21590,7 +21602,7 @@
         <v>2.33</v>
       </c>
       <c r="AP100">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ100">
         <v>2.5</v>
@@ -21718,7 +21730,7 @@
         <v>151</v>
       </c>
       <c r="P101" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q101">
         <v>2.43</v>
@@ -21924,7 +21936,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -22130,7 +22142,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -22211,7 +22223,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ103">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR103">
         <v>1</v>
@@ -23160,7 +23172,7 @@
         <v>156</v>
       </c>
       <c r="P108" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q108">
         <v>3.4</v>
@@ -23366,7 +23378,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q109">
         <v>1.95</v>
@@ -23984,7 +23996,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q112">
         <v>1.73</v>
@@ -24283,31 +24295,31 @@
         <v>2.98</v>
       </c>
       <c r="AU113">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV113">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW113">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX113">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AY113">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AZ113">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BA113">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB113">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC113">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD113">
         <v>4</v>
@@ -24396,7 +24408,7 @@
         <v>90</v>
       </c>
       <c r="P114" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -24489,31 +24501,31 @@
         <v>4.04</v>
       </c>
       <c r="AU114">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV114">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AW114">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AX114">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY114">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AZ114">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BA114">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB114">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BC114">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD114">
         <v>4.33</v>
@@ -24602,7 +24614,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -24695,31 +24707,31 @@
         <v>2.74</v>
       </c>
       <c r="AU115">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AV115">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW115">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AX115">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AY115">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AZ115">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BA115">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB115">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC115">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD115">
         <v>1.91</v>
@@ -24759,6 +24771,418 @@
       </c>
       <c r="BP115">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="116" spans="1:68">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>7347872</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" t="s">
+        <v>69</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45458.35763888889</v>
+      </c>
+      <c r="F116">
+        <v>15</v>
+      </c>
+      <c r="G116" t="s">
+        <v>76</v>
+      </c>
+      <c r="H116" t="s">
+        <v>84</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <v>3</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>4</v>
+      </c>
+      <c r="O116" t="s">
+        <v>160</v>
+      </c>
+      <c r="P116" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q116">
+        <v>1.95</v>
+      </c>
+      <c r="R116">
+        <v>2.6</v>
+      </c>
+      <c r="S116">
+        <v>5.5</v>
+      </c>
+      <c r="T116">
+        <v>1.25</v>
+      </c>
+      <c r="U116">
+        <v>3.75</v>
+      </c>
+      <c r="V116">
+        <v>2.2</v>
+      </c>
+      <c r="W116">
+        <v>1.62</v>
+      </c>
+      <c r="X116">
+        <v>5</v>
+      </c>
+      <c r="Y116">
+        <v>1.17</v>
+      </c>
+      <c r="Z116">
+        <v>1.44</v>
+      </c>
+      <c r="AA116">
+        <v>4.5</v>
+      </c>
+      <c r="AB116">
+        <v>5.61</v>
+      </c>
+      <c r="AC116">
+        <v>1.01</v>
+      </c>
+      <c r="AD116">
+        <v>10.5</v>
+      </c>
+      <c r="AE116">
+        <v>1.12</v>
+      </c>
+      <c r="AF116">
+        <v>5</v>
+      </c>
+      <c r="AG116">
+        <v>1.4</v>
+      </c>
+      <c r="AH116">
+        <v>2.73</v>
+      </c>
+      <c r="AI116">
+        <v>1.62</v>
+      </c>
+      <c r="AJ116">
+        <v>2.2</v>
+      </c>
+      <c r="AK116">
+        <v>1.09</v>
+      </c>
+      <c r="AL116">
+        <v>1.15</v>
+      </c>
+      <c r="AM116">
+        <v>2.65</v>
+      </c>
+      <c r="AN116">
+        <v>2</v>
+      </c>
+      <c r="AO116">
+        <v>1.14</v>
+      </c>
+      <c r="AP116">
+        <v>2.11</v>
+      </c>
+      <c r="AQ116">
+        <v>1</v>
+      </c>
+      <c r="AR116">
+        <v>1.76</v>
+      </c>
+      <c r="AS116">
+        <v>1.01</v>
+      </c>
+      <c r="AT116">
+        <v>2.77</v>
+      </c>
+      <c r="AU116">
+        <v>-1</v>
+      </c>
+      <c r="AV116">
+        <v>-1</v>
+      </c>
+      <c r="AW116">
+        <v>-1</v>
+      </c>
+      <c r="AX116">
+        <v>-1</v>
+      </c>
+      <c r="AY116">
+        <v>-1</v>
+      </c>
+      <c r="AZ116">
+        <v>-1</v>
+      </c>
+      <c r="BA116">
+        <v>-1</v>
+      </c>
+      <c r="BB116">
+        <v>-1</v>
+      </c>
+      <c r="BC116">
+        <v>-1</v>
+      </c>
+      <c r="BD116">
+        <v>1.2</v>
+      </c>
+      <c r="BE116">
+        <v>10</v>
+      </c>
+      <c r="BF116">
+        <v>5</v>
+      </c>
+      <c r="BG116">
+        <v>1.22</v>
+      </c>
+      <c r="BH116">
+        <v>3.65</v>
+      </c>
+      <c r="BI116">
+        <v>1.42</v>
+      </c>
+      <c r="BJ116">
+        <v>2.57</v>
+      </c>
+      <c r="BK116">
+        <v>1.95</v>
+      </c>
+      <c r="BL116">
+        <v>1.85</v>
+      </c>
+      <c r="BM116">
+        <v>2.21</v>
+      </c>
+      <c r="BN116">
+        <v>1.56</v>
+      </c>
+      <c r="BO116">
+        <v>2.93</v>
+      </c>
+      <c r="BP116">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="117" spans="1:68">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>7347873</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45458.375</v>
+      </c>
+      <c r="F117">
+        <v>15</v>
+      </c>
+      <c r="G117" t="s">
+        <v>80</v>
+      </c>
+      <c r="H117" t="s">
+        <v>85</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <v>2</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+      <c r="N117">
+        <v>3</v>
+      </c>
+      <c r="O117" t="s">
+        <v>161</v>
+      </c>
+      <c r="P117" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q117">
+        <v>3.1</v>
+      </c>
+      <c r="R117">
+        <v>2.3</v>
+      </c>
+      <c r="S117">
+        <v>3.1</v>
+      </c>
+      <c r="T117">
+        <v>1.33</v>
+      </c>
+      <c r="U117">
+        <v>3.25</v>
+      </c>
+      <c r="V117">
+        <v>2.5</v>
+      </c>
+      <c r="W117">
+        <v>1.5</v>
+      </c>
+      <c r="X117">
+        <v>6.5</v>
+      </c>
+      <c r="Y117">
+        <v>1.11</v>
+      </c>
+      <c r="Z117">
+        <v>2.67</v>
+      </c>
+      <c r="AA117">
+        <v>3.35</v>
+      </c>
+      <c r="AB117">
+        <v>2.37</v>
+      </c>
+      <c r="AC117">
+        <v>1.05</v>
+      </c>
+      <c r="AD117">
+        <v>8.5</v>
+      </c>
+      <c r="AE117">
+        <v>1.22</v>
+      </c>
+      <c r="AF117">
+        <v>4</v>
+      </c>
+      <c r="AG117">
+        <v>1.65</v>
+      </c>
+      <c r="AH117">
+        <v>2.11</v>
+      </c>
+      <c r="AI117">
+        <v>1.53</v>
+      </c>
+      <c r="AJ117">
+        <v>2.38</v>
+      </c>
+      <c r="AK117">
+        <v>1.5</v>
+      </c>
+      <c r="AL117">
+        <v>1.25</v>
+      </c>
+      <c r="AM117">
+        <v>1.47</v>
+      </c>
+      <c r="AN117">
+        <v>0.71</v>
+      </c>
+      <c r="AO117">
+        <v>1.88</v>
+      </c>
+      <c r="AP117">
+        <v>1</v>
+      </c>
+      <c r="AQ117">
+        <v>1.67</v>
+      </c>
+      <c r="AR117">
+        <v>1.56</v>
+      </c>
+      <c r="AS117">
+        <v>1.15</v>
+      </c>
+      <c r="AT117">
+        <v>2.71</v>
+      </c>
+      <c r="AU117">
+        <v>-1</v>
+      </c>
+      <c r="AV117">
+        <v>-1</v>
+      </c>
+      <c r="AW117">
+        <v>-1</v>
+      </c>
+      <c r="AX117">
+        <v>-1</v>
+      </c>
+      <c r="AY117">
+        <v>-1</v>
+      </c>
+      <c r="AZ117">
+        <v>-1</v>
+      </c>
+      <c r="BA117">
+        <v>-1</v>
+      </c>
+      <c r="BB117">
+        <v>-1</v>
+      </c>
+      <c r="BC117">
+        <v>-1</v>
+      </c>
+      <c r="BD117">
+        <v>2.2</v>
+      </c>
+      <c r="BE117">
+        <v>8</v>
+      </c>
+      <c r="BF117">
+        <v>1.91</v>
+      </c>
+      <c r="BG117">
+        <v>1.16</v>
+      </c>
+      <c r="BH117">
+        <v>4.3</v>
+      </c>
+      <c r="BI117">
+        <v>1.33</v>
+      </c>
+      <c r="BJ117">
+        <v>2.93</v>
+      </c>
+      <c r="BK117">
+        <v>1.59</v>
+      </c>
+      <c r="BL117">
+        <v>2.16</v>
+      </c>
+      <c r="BM117">
+        <v>2</v>
+      </c>
+      <c r="BN117">
+        <v>1.73</v>
+      </c>
+      <c r="BO117">
+        <v>2.57</v>
+      </c>
+      <c r="BP117">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="238">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -502,6 +502,9 @@
     <t>['52', '90+1']</t>
   </si>
   <si>
+    <t>['16']</t>
+  </si>
+  <si>
     <t>['81', '90+3']</t>
   </si>
   <si>
@@ -716,6 +719,15 @@
   </si>
   <si>
     <t>['35']</t>
+  </si>
+  <si>
+    <t>['2']</t>
+  </si>
+  <si>
+    <t>['4']</t>
+  </si>
+  <si>
+    <t>['42']</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1089,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP117"/>
+  <dimension ref="A1:BP120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1336,7 +1348,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1542,7 +1554,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -1620,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ3">
         <v>0.86</v>
@@ -1829,7 +1841,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ4">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2160,7 +2172,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2238,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ6">
         <v>1.67</v>
@@ -2447,7 +2459,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ7">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2778,7 +2790,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -3268,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -3396,7 +3408,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -4014,7 +4026,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4095,7 +4107,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ15">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4298,10 +4310,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ16">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR16">
         <v>1.14</v>
@@ -4426,7 +4438,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4632,7 +4644,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4838,7 +4850,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5328,10 +5340,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ21">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR21">
         <v>0.99</v>
@@ -5662,7 +5674,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -5868,7 +5880,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6074,7 +6086,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6280,7 +6292,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6486,7 +6498,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -6692,7 +6704,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6898,7 +6910,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -7104,7 +7116,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7516,7 +7528,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7597,7 +7609,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ32">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR32">
         <v>1.5</v>
@@ -7722,7 +7734,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q33">
         <v>1.73</v>
@@ -7928,7 +7940,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q34">
         <v>6.4</v>
@@ -8134,7 +8146,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q35">
         <v>1.96</v>
@@ -8340,7 +8352,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q36">
         <v>1.98</v>
@@ -8546,7 +8558,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -8624,10 +8636,10 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ37">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR37">
         <v>2.37</v>
@@ -8752,7 +8764,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q38">
         <v>3.25</v>
@@ -8830,7 +8842,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ38">
         <v>1.88</v>
@@ -9036,7 +9048,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -9451,7 +9463,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ41">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR41">
         <v>0.89</v>
@@ -9576,7 +9588,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9782,7 +9794,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q43">
         <v>2.3</v>
@@ -9860,7 +9872,7 @@
         <v>2.33</v>
       </c>
       <c r="AP43">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ43">
         <v>1.67</v>
@@ -9988,7 +10000,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q44">
         <v>4.75</v>
@@ -10069,7 +10081,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ44">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR44">
         <v>1.03</v>
@@ -10400,7 +10412,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10606,7 +10618,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10684,7 +10696,7 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ47">
         <v>1</v>
@@ -11099,7 +11111,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ49">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR49">
         <v>1.41</v>
@@ -11224,7 +11236,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11430,7 +11442,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11636,7 +11648,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q52">
         <v>1.83</v>
@@ -12048,7 +12060,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q54">
         <v>7.5</v>
@@ -12335,7 +12347,7 @@
         <v>1</v>
       </c>
       <c r="AQ55">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR55">
         <v>1.53</v>
@@ -12666,7 +12678,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12744,7 +12756,7 @@
         <v>0.67</v>
       </c>
       <c r="AP57">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ57">
         <v>0.75</v>
@@ -12872,7 +12884,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q58">
         <v>2.8</v>
@@ -12953,7 +12965,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ58">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR58">
         <v>1.44</v>
@@ -13078,7 +13090,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q59">
         <v>3.15</v>
@@ -13284,7 +13296,7 @@
         <v>106</v>
       </c>
       <c r="P60" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13490,7 +13502,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q61">
         <v>3.11</v>
@@ -13568,7 +13580,7 @@
         <v>0.67</v>
       </c>
       <c r="AP61">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ61">
         <v>0.86</v>
@@ -13902,7 +13914,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q63">
         <v>2.75</v>
@@ -14314,7 +14326,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q65">
         <v>1.8</v>
@@ -14726,7 +14738,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q67">
         <v>2.38</v>
@@ -14932,7 +14944,7 @@
         <v>127</v>
       </c>
       <c r="P68" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15344,7 +15356,7 @@
         <v>90</v>
       </c>
       <c r="P70" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q70">
         <v>5.5</v>
@@ -15550,7 +15562,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q71">
         <v>2.45</v>
@@ -15631,7 +15643,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ71">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR71">
         <v>1.59</v>
@@ -15834,7 +15846,7 @@
         <v>1.33</v>
       </c>
       <c r="AP72">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ72">
         <v>0.86</v>
@@ -16040,7 +16052,7 @@
         <v>2</v>
       </c>
       <c r="AP73">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ73">
         <v>1.71</v>
@@ -16168,7 +16180,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q74">
         <v>2.65</v>
@@ -16374,7 +16386,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -16658,7 +16670,7 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ76">
         <v>1</v>
@@ -16786,7 +16798,7 @@
         <v>133</v>
       </c>
       <c r="P77" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17073,7 +17085,7 @@
         <v>1</v>
       </c>
       <c r="AQ78">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR78">
         <v>1.72</v>
@@ -17198,7 +17210,7 @@
         <v>135</v>
       </c>
       <c r="P79" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17279,7 +17291,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ79">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR79">
         <v>2.06</v>
@@ -17404,7 +17416,7 @@
         <v>90</v>
       </c>
       <c r="P80" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -17610,7 +17622,7 @@
         <v>136</v>
       </c>
       <c r="P81" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17816,7 +17828,7 @@
         <v>137</v>
       </c>
       <c r="P82" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q82">
         <v>1.91</v>
@@ -18022,7 +18034,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q83">
         <v>1.62</v>
@@ -18434,7 +18446,7 @@
         <v>99</v>
       </c>
       <c r="P85" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18640,7 +18652,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q86">
         <v>1.83</v>
@@ -18846,7 +18858,7 @@
         <v>90</v>
       </c>
       <c r="P87" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -18924,7 +18936,7 @@
         <v>0.75</v>
       </c>
       <c r="AP87">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ87">
         <v>1</v>
@@ -19052,7 +19064,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19336,10 +19348,10 @@
         <v>0.67</v>
       </c>
       <c r="AP89">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ89">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR89">
         <v>2.42</v>
@@ -19464,7 +19476,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q90">
         <v>1.61</v>
@@ -19670,7 +19682,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q91">
         <v>1.8</v>
@@ -19876,7 +19888,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q92">
         <v>3.8</v>
@@ -19954,7 +19966,7 @@
         <v>2</v>
       </c>
       <c r="AP92">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ92">
         <v>1.88</v>
@@ -20082,7 +20094,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q93">
         <v>2.55</v>
@@ -20163,7 +20175,7 @@
         <v>1</v>
       </c>
       <c r="AQ93">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR93">
         <v>1.57</v>
@@ -20288,7 +20300,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q94">
         <v>4.5</v>
@@ -20369,7 +20381,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ94">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR94">
         <v>1.27</v>
@@ -20494,7 +20506,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q95">
         <v>4.5</v>
@@ -20700,7 +20712,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q96">
         <v>9</v>
@@ -20778,7 +20790,7 @@
         <v>2.2</v>
       </c>
       <c r="AP96">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ96">
         <v>2.43</v>
@@ -21112,7 +21124,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q98">
         <v>4.63</v>
@@ -21318,7 +21330,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q99">
         <v>2.31</v>
@@ -21399,7 +21411,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ99">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR99">
         <v>1.77</v>
@@ -21524,7 +21536,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21730,7 +21742,7 @@
         <v>151</v>
       </c>
       <c r="P101" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q101">
         <v>2.43</v>
@@ -21936,7 +21948,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -22142,7 +22154,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -22220,7 +22232,7 @@
         <v>1.17</v>
       </c>
       <c r="AP103">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ103">
         <v>1</v>
@@ -22429,7 +22441,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ104">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR104">
         <v>2.01</v>
@@ -23172,7 +23184,7 @@
         <v>156</v>
       </c>
       <c r="P108" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q108">
         <v>3.4</v>
@@ -23378,7 +23390,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q109">
         <v>1.95</v>
@@ -23996,7 +24008,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q112">
         <v>1.73</v>
@@ -24408,7 +24420,7 @@
         <v>90</v>
       </c>
       <c r="P114" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -24614,7 +24626,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -24820,7 +24832,7 @@
         <v>160</v>
       </c>
       <c r="P116" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q116">
         <v>1.95</v>
@@ -24913,31 +24925,31 @@
         <v>2.77</v>
       </c>
       <c r="AU116">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AV116">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW116">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AX116">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY116">
-        <v>-1</v>
+        <v>25</v>
       </c>
       <c r="AZ116">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BA116">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BB116">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC116">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BD116">
         <v>1.2</v>
@@ -25026,7 +25038,7 @@
         <v>161</v>
       </c>
       <c r="P117" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q117">
         <v>3.1</v>
@@ -25119,31 +25131,31 @@
         <v>2.71</v>
       </c>
       <c r="AU117">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AV117">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW117">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AX117">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY117">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="AZ117">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BA117">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BB117">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BC117">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD117">
         <v>2.2</v>
@@ -25183,6 +25195,624 @@
       </c>
       <c r="BP117">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="118" spans="1:68">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>7347874</v>
+      </c>
+      <c r="C118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45459.33333333334</v>
+      </c>
+      <c r="F118">
+        <v>15</v>
+      </c>
+      <c r="G118" t="s">
+        <v>74</v>
+      </c>
+      <c r="H118" t="s">
+        <v>78</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118">
+        <v>1</v>
+      </c>
+      <c r="O118" t="s">
+        <v>90</v>
+      </c>
+      <c r="P118" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q118">
+        <v>3.75</v>
+      </c>
+      <c r="R118">
+        <v>2.3</v>
+      </c>
+      <c r="S118">
+        <v>2.63</v>
+      </c>
+      <c r="T118">
+        <v>1.33</v>
+      </c>
+      <c r="U118">
+        <v>3.25</v>
+      </c>
+      <c r="V118">
+        <v>2.5</v>
+      </c>
+      <c r="W118">
+        <v>1.5</v>
+      </c>
+      <c r="X118">
+        <v>6.5</v>
+      </c>
+      <c r="Y118">
+        <v>1.11</v>
+      </c>
+      <c r="Z118">
+        <v>3.5</v>
+      </c>
+      <c r="AA118">
+        <v>3.5</v>
+      </c>
+      <c r="AB118">
+        <v>2.1</v>
+      </c>
+      <c r="AC118">
+        <v>1.03</v>
+      </c>
+      <c r="AD118">
+        <v>10.5</v>
+      </c>
+      <c r="AE118">
+        <v>1.18</v>
+      </c>
+      <c r="AF118">
+        <v>4.05</v>
+      </c>
+      <c r="AG118">
+        <v>1.7</v>
+      </c>
+      <c r="AH118">
+        <v>2.1</v>
+      </c>
+      <c r="AI118">
+        <v>1.62</v>
+      </c>
+      <c r="AJ118">
+        <v>2.2</v>
+      </c>
+      <c r="AK118">
+        <v>1.73</v>
+      </c>
+      <c r="AL118">
+        <v>1.25</v>
+      </c>
+      <c r="AM118">
+        <v>1.3</v>
+      </c>
+      <c r="AN118">
+        <v>1.29</v>
+      </c>
+      <c r="AO118">
+        <v>0.57</v>
+      </c>
+      <c r="AP118">
+        <v>1.13</v>
+      </c>
+      <c r="AQ118">
+        <v>0.88</v>
+      </c>
+      <c r="AR118">
+        <v>1.03</v>
+      </c>
+      <c r="AS118">
+        <v>1.21</v>
+      </c>
+      <c r="AT118">
+        <v>2.24</v>
+      </c>
+      <c r="AU118">
+        <v>2</v>
+      </c>
+      <c r="AV118">
+        <v>6</v>
+      </c>
+      <c r="AW118">
+        <v>7</v>
+      </c>
+      <c r="AX118">
+        <v>5</v>
+      </c>
+      <c r="AY118">
+        <v>9</v>
+      </c>
+      <c r="AZ118">
+        <v>11</v>
+      </c>
+      <c r="BA118">
+        <v>3</v>
+      </c>
+      <c r="BB118">
+        <v>7</v>
+      </c>
+      <c r="BC118">
+        <v>10</v>
+      </c>
+      <c r="BD118">
+        <v>1.73</v>
+      </c>
+      <c r="BE118">
+        <v>8</v>
+      </c>
+      <c r="BF118">
+        <v>2.4</v>
+      </c>
+      <c r="BG118">
+        <v>1.23</v>
+      </c>
+      <c r="BH118">
+        <v>3.56</v>
+      </c>
+      <c r="BI118">
+        <v>1.44</v>
+      </c>
+      <c r="BJ118">
+        <v>2.5</v>
+      </c>
+      <c r="BK118">
+        <v>1.85</v>
+      </c>
+      <c r="BL118">
+        <v>1.85</v>
+      </c>
+      <c r="BM118">
+        <v>2.28</v>
+      </c>
+      <c r="BN118">
+        <v>1.53</v>
+      </c>
+      <c r="BO118">
+        <v>3.08</v>
+      </c>
+      <c r="BP118">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:68">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7347875</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45459.35763888889</v>
+      </c>
+      <c r="F119">
+        <v>15</v>
+      </c>
+      <c r="G119" t="s">
+        <v>79</v>
+      </c>
+      <c r="H119" t="s">
+        <v>75</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119">
+        <v>2</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119">
+        <v>2</v>
+      </c>
+      <c r="O119" t="s">
+        <v>162</v>
+      </c>
+      <c r="P119" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q119">
+        <v>2.5</v>
+      </c>
+      <c r="R119">
+        <v>2.25</v>
+      </c>
+      <c r="S119">
+        <v>4.33</v>
+      </c>
+      <c r="T119">
+        <v>1.36</v>
+      </c>
+      <c r="U119">
+        <v>3</v>
+      </c>
+      <c r="V119">
+        <v>2.63</v>
+      </c>
+      <c r="W119">
+        <v>1.44</v>
+      </c>
+      <c r="X119">
+        <v>7</v>
+      </c>
+      <c r="Y119">
+        <v>1.1</v>
+      </c>
+      <c r="Z119">
+        <v>1.88</v>
+      </c>
+      <c r="AA119">
+        <v>3.4</v>
+      </c>
+      <c r="AB119">
+        <v>3.72</v>
+      </c>
+      <c r="AC119">
+        <v>1.01</v>
+      </c>
+      <c r="AD119">
+        <v>10.25</v>
+      </c>
+      <c r="AE119">
+        <v>1.22</v>
+      </c>
+      <c r="AF119">
+        <v>3.65</v>
+      </c>
+      <c r="AG119">
+        <v>1.7</v>
+      </c>
+      <c r="AH119">
+        <v>2.03</v>
+      </c>
+      <c r="AI119">
+        <v>1.75</v>
+      </c>
+      <c r="AJ119">
+        <v>2</v>
+      </c>
+      <c r="AK119">
+        <v>1.23</v>
+      </c>
+      <c r="AL119">
+        <v>1.25</v>
+      </c>
+      <c r="AM119">
+        <v>1.92</v>
+      </c>
+      <c r="AN119">
+        <v>2.67</v>
+      </c>
+      <c r="AO119">
+        <v>1.5</v>
+      </c>
+      <c r="AP119">
+        <v>2.43</v>
+      </c>
+      <c r="AQ119">
+        <v>1.43</v>
+      </c>
+      <c r="AR119">
+        <v>2.45</v>
+      </c>
+      <c r="AS119">
+        <v>1.46</v>
+      </c>
+      <c r="AT119">
+        <v>3.91</v>
+      </c>
+      <c r="AU119">
+        <v>4</v>
+      </c>
+      <c r="AV119">
+        <v>8</v>
+      </c>
+      <c r="AW119">
+        <v>4</v>
+      </c>
+      <c r="AX119">
+        <v>4</v>
+      </c>
+      <c r="AY119">
+        <v>8</v>
+      </c>
+      <c r="AZ119">
+        <v>12</v>
+      </c>
+      <c r="BA119">
+        <v>6</v>
+      </c>
+      <c r="BB119">
+        <v>13</v>
+      </c>
+      <c r="BC119">
+        <v>19</v>
+      </c>
+      <c r="BD119">
+        <v>1.83</v>
+      </c>
+      <c r="BE119">
+        <v>8</v>
+      </c>
+      <c r="BF119">
+        <v>2.25</v>
+      </c>
+      <c r="BG119">
+        <v>1.23</v>
+      </c>
+      <c r="BH119">
+        <v>3.56</v>
+      </c>
+      <c r="BI119">
+        <v>1.44</v>
+      </c>
+      <c r="BJ119">
+        <v>2.51</v>
+      </c>
+      <c r="BK119">
+        <v>2</v>
+      </c>
+      <c r="BL119">
+        <v>1.73</v>
+      </c>
+      <c r="BM119">
+        <v>2.28</v>
+      </c>
+      <c r="BN119">
+        <v>1.53</v>
+      </c>
+      <c r="BO119">
+        <v>3.04</v>
+      </c>
+      <c r="BP119">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="120" spans="1:68">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>7347876</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45459.375</v>
+      </c>
+      <c r="F120">
+        <v>15</v>
+      </c>
+      <c r="G120" t="s">
+        <v>71</v>
+      </c>
+      <c r="H120" t="s">
+        <v>83</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+      <c r="N120">
+        <v>1</v>
+      </c>
+      <c r="O120" t="s">
+        <v>90</v>
+      </c>
+      <c r="P120" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q120">
+        <v>3.6</v>
+      </c>
+      <c r="R120">
+        <v>2.25</v>
+      </c>
+      <c r="S120">
+        <v>2.75</v>
+      </c>
+      <c r="T120">
+        <v>1.33</v>
+      </c>
+      <c r="U120">
+        <v>3.25</v>
+      </c>
+      <c r="V120">
+        <v>2.63</v>
+      </c>
+      <c r="W120">
+        <v>1.44</v>
+      </c>
+      <c r="X120">
+        <v>6.5</v>
+      </c>
+      <c r="Y120">
+        <v>1.11</v>
+      </c>
+      <c r="Z120">
+        <v>2.88</v>
+      </c>
+      <c r="AA120">
+        <v>3.35</v>
+      </c>
+      <c r="AB120">
+        <v>2.2</v>
+      </c>
+      <c r="AC120">
+        <v>1.04</v>
+      </c>
+      <c r="AD120">
+        <v>10.5</v>
+      </c>
+      <c r="AE120">
+        <v>1.21</v>
+      </c>
+      <c r="AF120">
+        <v>3.74</v>
+      </c>
+      <c r="AG120">
+        <v>1.64</v>
+      </c>
+      <c r="AH120">
+        <v>2.04</v>
+      </c>
+      <c r="AI120">
+        <v>1.62</v>
+      </c>
+      <c r="AJ120">
+        <v>2.2</v>
+      </c>
+      <c r="AK120">
+        <v>1.78</v>
+      </c>
+      <c r="AL120">
+        <v>1.22</v>
+      </c>
+      <c r="AM120">
+        <v>1.3</v>
+      </c>
+      <c r="AN120">
+        <v>0.86</v>
+      </c>
+      <c r="AO120">
+        <v>1.14</v>
+      </c>
+      <c r="AP120">
+        <v>0.75</v>
+      </c>
+      <c r="AQ120">
+        <v>1.38</v>
+      </c>
+      <c r="AR120">
+        <v>1.17</v>
+      </c>
+      <c r="AS120">
+        <v>1.12</v>
+      </c>
+      <c r="AT120">
+        <v>2.29</v>
+      </c>
+      <c r="AU120">
+        <v>6</v>
+      </c>
+      <c r="AV120">
+        <v>11</v>
+      </c>
+      <c r="AW120">
+        <v>3</v>
+      </c>
+      <c r="AX120">
+        <v>7</v>
+      </c>
+      <c r="AY120">
+        <v>9</v>
+      </c>
+      <c r="AZ120">
+        <v>18</v>
+      </c>
+      <c r="BA120">
+        <v>2</v>
+      </c>
+      <c r="BB120">
+        <v>6</v>
+      </c>
+      <c r="BC120">
+        <v>8</v>
+      </c>
+      <c r="BD120">
+        <v>2.3</v>
+      </c>
+      <c r="BE120">
+        <v>8</v>
+      </c>
+      <c r="BF120">
+        <v>1.8</v>
+      </c>
+      <c r="BG120">
+        <v>1.25</v>
+      </c>
+      <c r="BH120">
+        <v>3.42</v>
+      </c>
+      <c r="BI120">
+        <v>1.7</v>
+      </c>
+      <c r="BJ120">
+        <v>2.05</v>
+      </c>
+      <c r="BK120">
+        <v>1.85</v>
+      </c>
+      <c r="BL120">
+        <v>1.85</v>
+      </c>
+      <c r="BM120">
+        <v>2.38</v>
+      </c>
+      <c r="BN120">
+        <v>1.49</v>
+      </c>
+      <c r="BO120">
+        <v>3.2</v>
+      </c>
+      <c r="BP120">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="240">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -496,6 +496,18 @@
     <t>['14', '51', '73', '90+2']</t>
   </si>
   <si>
+    <t>['48', '89', '90+2']</t>
+  </si>
+  <si>
+    <t>['52', '90+1']</t>
+  </si>
+  <si>
+    <t>['16']</t>
+  </si>
+  <si>
+    <t>['84']</t>
+  </si>
+  <si>
     <t>['81', '90+3']</t>
   </si>
   <si>
@@ -698,6 +710,30 @@
   </si>
   <si>
     <t>['30']</t>
+  </si>
+  <si>
+    <t>['14', '33', '71']</t>
+  </si>
+  <si>
+    <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['19']</t>
+  </si>
+  <si>
+    <t>['35']</t>
+  </si>
+  <si>
+    <t>['2']</t>
+  </si>
+  <si>
+    <t>['4']</t>
+  </si>
+  <si>
+    <t>['42']</t>
+  </si>
+  <si>
+    <t>['54', '67']</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1095,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP112"/>
+  <dimension ref="A1:BP121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1318,7 +1354,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1399,7 +1435,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ2">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1524,7 +1560,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -1602,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ3">
         <v>0.86</v>
@@ -1811,7 +1847,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ4">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2014,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ5">
         <v>0.75</v>
@@ -2142,7 +2178,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2220,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ6">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2429,7 +2465,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ7">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2632,10 +2668,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ8">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2760,7 +2796,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -2838,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ9">
         <v>2.5</v>
@@ -3047,7 +3083,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ10">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3250,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -3378,7 +3414,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -3456,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
         <v>1.33</v>
@@ -3665,7 +3701,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ13">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR13">
         <v>2.48</v>
@@ -3868,10 +3904,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ14">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR14">
         <v>0.7</v>
@@ -3996,7 +4032,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4074,10 +4110,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ15">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4280,10 +4316,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ16">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR16">
         <v>1.14</v>
@@ -4408,7 +4444,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4614,7 +4650,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4820,7 +4856,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -4901,7 +4937,7 @@
         <v>1</v>
       </c>
       <c r="AQ19">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5310,10 +5346,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ21">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR21">
         <v>0.99</v>
@@ -5644,7 +5680,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -5850,7 +5886,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6056,7 +6092,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6134,7 +6170,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ25">
         <v>1</v>
@@ -6262,7 +6298,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6468,7 +6504,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -6674,7 +6710,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6752,10 +6788,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ28">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR28">
         <v>2.4</v>
@@ -6880,7 +6916,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6961,7 +6997,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ29">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR29">
         <v>1.72</v>
@@ -7086,7 +7122,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7167,7 +7203,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ30">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7370,7 +7406,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ31">
         <v>1.33</v>
@@ -7498,7 +7534,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7576,10 +7612,10 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ32">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR32">
         <v>1.5</v>
@@ -7704,7 +7740,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q33">
         <v>1.73</v>
@@ -7782,7 +7818,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ33">
         <v>1</v>
@@ -7910,7 +7946,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q34">
         <v>6.4</v>
@@ -7988,10 +8024,10 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ34">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR34">
         <v>1</v>
@@ -8116,7 +8152,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q35">
         <v>1.96</v>
@@ -8322,7 +8358,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q36">
         <v>1.98</v>
@@ -8403,7 +8439,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ36">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR36">
         <v>1.16</v>
@@ -8528,7 +8564,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -8606,10 +8642,10 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ37">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR37">
         <v>2.37</v>
@@ -8734,7 +8770,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q38">
         <v>3.25</v>
@@ -8812,7 +8848,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ38">
         <v>1.88</v>
@@ -9018,10 +9054,10 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ39">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR39">
         <v>1.09</v>
@@ -9430,10 +9466,10 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ41">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR41">
         <v>0.89</v>
@@ -9558,7 +9594,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9636,7 +9672,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ42">
         <v>0.75</v>
@@ -9764,7 +9800,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q43">
         <v>2.3</v>
@@ -9842,10 +9878,10 @@
         <v>2.33</v>
       </c>
       <c r="AP43">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ43">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR43">
         <v>2.56</v>
@@ -9970,7 +10006,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q44">
         <v>4.75</v>
@@ -10051,7 +10087,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ44">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR44">
         <v>1.03</v>
@@ -10254,7 +10290,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ45">
         <v>1.33</v>
@@ -10382,7 +10418,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10463,7 +10499,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ46">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR46">
         <v>1.97</v>
@@ -10588,7 +10624,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10666,7 +10702,7 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ47">
         <v>1</v>
@@ -11081,7 +11117,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ49">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR49">
         <v>1.41</v>
@@ -11206,7 +11242,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11284,7 +11320,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ50">
         <v>1.88</v>
@@ -11412,7 +11448,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11618,7 +11654,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q52">
         <v>1.83</v>
@@ -11699,7 +11735,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ52">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR52">
         <v>1.36</v>
@@ -11905,7 +11941,7 @@
         <v>1</v>
       </c>
       <c r="AQ53">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR53">
         <v>1.78</v>
@@ -12030,7 +12066,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q54">
         <v>7.5</v>
@@ -12108,7 +12144,7 @@
         <v>3</v>
       </c>
       <c r="AP54">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ54">
         <v>2.5</v>
@@ -12314,10 +12350,10 @@
         <v>0.33</v>
       </c>
       <c r="AP55">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ55">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR55">
         <v>1.53</v>
@@ -12648,7 +12684,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12726,7 +12762,7 @@
         <v>0.67</v>
       </c>
       <c r="AP57">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ57">
         <v>0.75</v>
@@ -12854,7 +12890,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q58">
         <v>2.8</v>
@@ -12935,7 +12971,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ58">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR58">
         <v>1.44</v>
@@ -13060,7 +13096,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q59">
         <v>3.15</v>
@@ -13266,7 +13302,7 @@
         <v>106</v>
       </c>
       <c r="P60" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13344,10 +13380,10 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ60">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR60">
         <v>1.57</v>
@@ -13472,7 +13508,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q61">
         <v>3.11</v>
@@ -13550,7 +13586,7 @@
         <v>0.67</v>
       </c>
       <c r="AP61">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ61">
         <v>0.86</v>
@@ -13884,7 +13920,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q63">
         <v>2.75</v>
@@ -13965,7 +14001,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ63">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR63">
         <v>1.51</v>
@@ -14296,7 +14332,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q65">
         <v>1.8</v>
@@ -14580,10 +14616,10 @@
         <v>2.2</v>
       </c>
       <c r="AP66">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ66">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR66">
         <v>1.59</v>
@@ -14708,7 +14744,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q67">
         <v>2.38</v>
@@ -14786,7 +14822,7 @@
         <v>1.25</v>
       </c>
       <c r="AP67">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ67">
         <v>0.86</v>
@@ -14914,7 +14950,7 @@
         <v>127</v>
       </c>
       <c r="P68" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -14992,7 +15028,7 @@
         <v>0.75</v>
       </c>
       <c r="AP68">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ68">
         <v>1</v>
@@ -15201,7 +15237,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ69">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR69">
         <v>1.09</v>
@@ -15326,7 +15362,7 @@
         <v>90</v>
       </c>
       <c r="P70" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q70">
         <v>5.5</v>
@@ -15407,7 +15443,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ70">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR70">
         <v>1.34</v>
@@ -15532,7 +15568,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q71">
         <v>2.45</v>
@@ -15613,7 +15649,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ71">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR71">
         <v>1.59</v>
@@ -15816,7 +15852,7 @@
         <v>1.33</v>
       </c>
       <c r="AP72">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ72">
         <v>0.86</v>
@@ -16022,10 +16058,10 @@
         <v>2</v>
       </c>
       <c r="AP73">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ73">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR73">
         <v>1.06</v>
@@ -16150,7 +16186,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q74">
         <v>2.65</v>
@@ -16228,7 +16264,7 @@
         <v>1.8</v>
       </c>
       <c r="AP74">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ74">
         <v>1.88</v>
@@ -16356,7 +16392,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -16434,10 +16470,10 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ75">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR75">
         <v>1</v>
@@ -16640,7 +16676,7 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ76">
         <v>1</v>
@@ -16768,7 +16804,7 @@
         <v>133</v>
       </c>
       <c r="P77" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -16846,7 +16882,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ77">
         <v>0.86</v>
@@ -17055,7 +17091,7 @@
         <v>1</v>
       </c>
       <c r="AQ78">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR78">
         <v>1.72</v>
@@ -17180,7 +17216,7 @@
         <v>135</v>
       </c>
       <c r="P79" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17261,7 +17297,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ79">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR79">
         <v>2.06</v>
@@ -17386,7 +17422,7 @@
         <v>90</v>
       </c>
       <c r="P80" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -17467,7 +17503,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ80">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR80">
         <v>1.55</v>
@@ -17592,7 +17628,7 @@
         <v>136</v>
       </c>
       <c r="P81" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17798,7 +17834,7 @@
         <v>137</v>
       </c>
       <c r="P82" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q82">
         <v>1.91</v>
@@ -18004,7 +18040,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q83">
         <v>1.62</v>
@@ -18085,7 +18121,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ83">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR83">
         <v>1.9</v>
@@ -18288,7 +18324,7 @@
         <v>2.6</v>
       </c>
       <c r="AP84">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ84">
         <v>2.5</v>
@@ -18416,7 +18452,7 @@
         <v>99</v>
       </c>
       <c r="P85" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18497,7 +18533,7 @@
         <v>1</v>
       </c>
       <c r="AQ85">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR85">
         <v>1.84</v>
@@ -18622,7 +18658,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q86">
         <v>1.83</v>
@@ -18828,7 +18864,7 @@
         <v>90</v>
       </c>
       <c r="P87" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -18906,7 +18942,7 @@
         <v>0.75</v>
       </c>
       <c r="AP87">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ87">
         <v>1</v>
@@ -19034,7 +19070,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19318,10 +19354,10 @@
         <v>0.67</v>
       </c>
       <c r="AP89">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ89">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR89">
         <v>2.42</v>
@@ -19446,7 +19482,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q90">
         <v>1.61</v>
@@ -19527,7 +19563,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ90">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR90">
         <v>2.05</v>
@@ -19652,7 +19688,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q91">
         <v>1.8</v>
@@ -19730,7 +19766,7 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ91">
         <v>0.75</v>
@@ -19858,7 +19894,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q92">
         <v>3.8</v>
@@ -19936,7 +19972,7 @@
         <v>2</v>
       </c>
       <c r="AP92">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ92">
         <v>1.88</v>
@@ -20064,7 +20100,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q93">
         <v>2.55</v>
@@ -20142,10 +20178,10 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ93">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR93">
         <v>1.57</v>
@@ -20270,7 +20306,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q94">
         <v>4.5</v>
@@ -20348,10 +20384,10 @@
         <v>1.5</v>
       </c>
       <c r="AP94">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ94">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR94">
         <v>1.27</v>
@@ -20476,7 +20512,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q95">
         <v>4.5</v>
@@ -20557,7 +20593,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ95">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR95">
         <v>1.1</v>
@@ -20682,7 +20718,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q96">
         <v>9</v>
@@ -20760,10 +20796,10 @@
         <v>2.2</v>
       </c>
       <c r="AP96">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ96">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR96">
         <v>0.98</v>
@@ -20966,10 +21002,10 @@
         <v>1.17</v>
       </c>
       <c r="AP97">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ97">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR97">
         <v>1.33</v>
@@ -21094,7 +21130,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q98">
         <v>4.63</v>
@@ -21175,7 +21211,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ98">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR98">
         <v>1.45</v>
@@ -21300,7 +21336,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q99">
         <v>2.31</v>
@@ -21378,10 +21414,10 @@
         <v>1.33</v>
       </c>
       <c r="AP99">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ99">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR99">
         <v>1.77</v>
@@ -21506,7 +21542,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21584,7 +21620,7 @@
         <v>2.33</v>
       </c>
       <c r="AP100">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ100">
         <v>2.5</v>
@@ -21712,7 +21748,7 @@
         <v>151</v>
       </c>
       <c r="P101" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q101">
         <v>2.43</v>
@@ -21790,7 +21826,7 @@
         <v>1</v>
       </c>
       <c r="AP101">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ101">
         <v>0.86</v>
@@ -21918,7 +21954,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -21996,10 +22032,10 @@
         <v>2</v>
       </c>
       <c r="AP102">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ102">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR102">
         <v>1.58</v>
@@ -22124,7 +22160,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -22202,10 +22238,10 @@
         <v>1.17</v>
       </c>
       <c r="AP103">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ103">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR103">
         <v>1</v>
@@ -22411,7 +22447,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ104">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR104">
         <v>2.01</v>
@@ -23154,7 +23190,7 @@
         <v>156</v>
       </c>
       <c r="P108" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q108">
         <v>3.4</v>
@@ -23360,7 +23396,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q109">
         <v>1.95</v>
@@ -23978,7 +24014,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q112">
         <v>1.73</v>
@@ -24135,6 +24171,1860 @@
       </c>
       <c r="BP112">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="113" spans="1:68">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>7347869</v>
+      </c>
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45457.35763888889</v>
+      </c>
+      <c r="F113">
+        <v>15</v>
+      </c>
+      <c r="G113" t="s">
+        <v>77</v>
+      </c>
+      <c r="H113" t="s">
+        <v>70</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113" t="s">
+        <v>90</v>
+      </c>
+      <c r="P113" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q113">
+        <v>6</v>
+      </c>
+      <c r="R113">
+        <v>2.4</v>
+      </c>
+      <c r="S113">
+        <v>2</v>
+      </c>
+      <c r="T113">
+        <v>1.3</v>
+      </c>
+      <c r="U113">
+        <v>3.4</v>
+      </c>
+      <c r="V113">
+        <v>2.5</v>
+      </c>
+      <c r="W113">
+        <v>1.5</v>
+      </c>
+      <c r="X113">
+        <v>6</v>
+      </c>
+      <c r="Y113">
+        <v>1.13</v>
+      </c>
+      <c r="Z113">
+        <v>8</v>
+      </c>
+      <c r="AA113">
+        <v>4.75</v>
+      </c>
+      <c r="AB113">
+        <v>1.36</v>
+      </c>
+      <c r="AC113">
+        <v>1.04</v>
+      </c>
+      <c r="AD113">
+        <v>10.5</v>
+      </c>
+      <c r="AE113">
+        <v>1.19</v>
+      </c>
+      <c r="AF113">
+        <v>3.95</v>
+      </c>
+      <c r="AG113">
+        <v>1.65</v>
+      </c>
+      <c r="AH113">
+        <v>2.15</v>
+      </c>
+      <c r="AI113">
+        <v>1.8</v>
+      </c>
+      <c r="AJ113">
+        <v>1.95</v>
+      </c>
+      <c r="AK113">
+        <v>2.6</v>
+      </c>
+      <c r="AL113">
+        <v>1.16</v>
+      </c>
+      <c r="AM113">
+        <v>1.08</v>
+      </c>
+      <c r="AN113">
+        <v>0.57</v>
+      </c>
+      <c r="AO113">
+        <v>1.83</v>
+      </c>
+      <c r="AP113">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AQ113">
+        <v>1.71</v>
+      </c>
+      <c r="AR113">
+        <v>1.3</v>
+      </c>
+      <c r="AS113">
+        <v>1.68</v>
+      </c>
+      <c r="AT113">
+        <v>2.98</v>
+      </c>
+      <c r="AU113">
+        <v>3</v>
+      </c>
+      <c r="AV113">
+        <v>4</v>
+      </c>
+      <c r="AW113">
+        <v>4</v>
+      </c>
+      <c r="AX113">
+        <v>7</v>
+      </c>
+      <c r="AY113">
+        <v>7</v>
+      </c>
+      <c r="AZ113">
+        <v>11</v>
+      </c>
+      <c r="BA113">
+        <v>4</v>
+      </c>
+      <c r="BB113">
+        <v>5</v>
+      </c>
+      <c r="BC113">
+        <v>9</v>
+      </c>
+      <c r="BD113">
+        <v>4</v>
+      </c>
+      <c r="BE113">
+        <v>9.5</v>
+      </c>
+      <c r="BF113">
+        <v>1.3</v>
+      </c>
+      <c r="BG113">
+        <v>1.25</v>
+      </c>
+      <c r="BH113">
+        <v>3.6</v>
+      </c>
+      <c r="BI113">
+        <v>1.38</v>
+      </c>
+      <c r="BJ113">
+        <v>2.8</v>
+      </c>
+      <c r="BK113">
+        <v>1.92</v>
+      </c>
+      <c r="BL113">
+        <v>1.88</v>
+      </c>
+      <c r="BM113">
+        <v>2.03</v>
+      </c>
+      <c r="BN113">
+        <v>1.76</v>
+      </c>
+      <c r="BO113">
+        <v>2.85</v>
+      </c>
+      <c r="BP113">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="114" spans="1:68">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>7347871</v>
+      </c>
+      <c r="C114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45457.375</v>
+      </c>
+      <c r="F114">
+        <v>15</v>
+      </c>
+      <c r="G114" t="s">
+        <v>73</v>
+      </c>
+      <c r="H114" t="s">
+        <v>72</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>2</v>
+      </c>
+      <c r="K114">
+        <v>2</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>3</v>
+      </c>
+      <c r="N114">
+        <v>3</v>
+      </c>
+      <c r="O114" t="s">
+        <v>90</v>
+      </c>
+      <c r="P114" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q114">
+        <v>6</v>
+      </c>
+      <c r="R114">
+        <v>2.63</v>
+      </c>
+      <c r="S114">
+        <v>1.83</v>
+      </c>
+      <c r="T114">
+        <v>1.25</v>
+      </c>
+      <c r="U114">
+        <v>3.75</v>
+      </c>
+      <c r="V114">
+        <v>2.1</v>
+      </c>
+      <c r="W114">
+        <v>1.67</v>
+      </c>
+      <c r="X114">
+        <v>4.5</v>
+      </c>
+      <c r="Y114">
+        <v>1.18</v>
+      </c>
+      <c r="Z114">
+        <v>6.5</v>
+      </c>
+      <c r="AA114">
+        <v>5</v>
+      </c>
+      <c r="AB114">
+        <v>1.4</v>
+      </c>
+      <c r="AC114">
+        <v>1.02</v>
+      </c>
+      <c r="AD114">
+        <v>23</v>
+      </c>
+      <c r="AE114">
+        <v>1.11</v>
+      </c>
+      <c r="AF114">
+        <v>5.2</v>
+      </c>
+      <c r="AG114">
+        <v>1.65</v>
+      </c>
+      <c r="AH114">
+        <v>2.12</v>
+      </c>
+      <c r="AI114">
+        <v>1.62</v>
+      </c>
+      <c r="AJ114">
+        <v>2.2</v>
+      </c>
+      <c r="AK114">
+        <v>2.9</v>
+      </c>
+      <c r="AL114">
+        <v>1.12</v>
+      </c>
+      <c r="AM114">
+        <v>1.06</v>
+      </c>
+      <c r="AN114">
+        <v>0.67</v>
+      </c>
+      <c r="AO114">
+        <v>2.33</v>
+      </c>
+      <c r="AP114">
+        <v>0.57</v>
+      </c>
+      <c r="AQ114">
+        <v>2.5</v>
+      </c>
+      <c r="AR114">
+        <v>1.55</v>
+      </c>
+      <c r="AS114">
+        <v>2.49</v>
+      </c>
+      <c r="AT114">
+        <v>4.04</v>
+      </c>
+      <c r="AU114">
+        <v>5</v>
+      </c>
+      <c r="AV114">
+        <v>7</v>
+      </c>
+      <c r="AW114">
+        <v>3</v>
+      </c>
+      <c r="AX114">
+        <v>6</v>
+      </c>
+      <c r="AY114">
+        <v>8</v>
+      </c>
+      <c r="AZ114">
+        <v>13</v>
+      </c>
+      <c r="BA114">
+        <v>3</v>
+      </c>
+      <c r="BB114">
+        <v>6</v>
+      </c>
+      <c r="BC114">
+        <v>9</v>
+      </c>
+      <c r="BD114">
+        <v>4.33</v>
+      </c>
+      <c r="BE114">
+        <v>10</v>
+      </c>
+      <c r="BF114">
+        <v>1.29</v>
+      </c>
+      <c r="BG114">
+        <v>1.2</v>
+      </c>
+      <c r="BH114">
+        <v>4</v>
+      </c>
+      <c r="BI114">
+        <v>1.33</v>
+      </c>
+      <c r="BJ114">
+        <v>3</v>
+      </c>
+      <c r="BK114">
+        <v>1.57</v>
+      </c>
+      <c r="BL114">
+        <v>2.32</v>
+      </c>
+      <c r="BM114">
+        <v>2</v>
+      </c>
+      <c r="BN114">
+        <v>1.73</v>
+      </c>
+      <c r="BO114">
+        <v>2.39</v>
+      </c>
+      <c r="BP114">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="115" spans="1:68">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>7347870</v>
+      </c>
+      <c r="C115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45457.375</v>
+      </c>
+      <c r="F115">
+        <v>15</v>
+      </c>
+      <c r="G115" t="s">
+        <v>81</v>
+      </c>
+      <c r="H115" t="s">
+        <v>82</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115">
+        <v>1</v>
+      </c>
+      <c r="O115" t="s">
+        <v>90</v>
+      </c>
+      <c r="P115" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q115">
+        <v>3.4</v>
+      </c>
+      <c r="R115">
+        <v>2.2</v>
+      </c>
+      <c r="S115">
+        <v>3.1</v>
+      </c>
+      <c r="T115">
+        <v>1.36</v>
+      </c>
+      <c r="U115">
+        <v>3</v>
+      </c>
+      <c r="V115">
+        <v>2.75</v>
+      </c>
+      <c r="W115">
+        <v>1.4</v>
+      </c>
+      <c r="X115">
+        <v>8</v>
+      </c>
+      <c r="Y115">
+        <v>1.08</v>
+      </c>
+      <c r="Z115">
+        <v>2.8</v>
+      </c>
+      <c r="AA115">
+        <v>3.4</v>
+      </c>
+      <c r="AB115">
+        <v>2.45</v>
+      </c>
+      <c r="AC115">
+        <v>1.01</v>
+      </c>
+      <c r="AD115">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE115">
+        <v>1.28</v>
+      </c>
+      <c r="AF115">
+        <v>3.5</v>
+      </c>
+      <c r="AG115">
+        <v>1.85</v>
+      </c>
+      <c r="AH115">
+        <v>1.95</v>
+      </c>
+      <c r="AI115">
+        <v>1.7</v>
+      </c>
+      <c r="AJ115">
+        <v>2.05</v>
+      </c>
+      <c r="AK115">
+        <v>1.45</v>
+      </c>
+      <c r="AL115">
+        <v>1.25</v>
+      </c>
+      <c r="AM115">
+        <v>1.52</v>
+      </c>
+      <c r="AN115">
+        <v>0.67</v>
+      </c>
+      <c r="AO115">
+        <v>1.14</v>
+      </c>
+      <c r="AP115">
+        <v>0.57</v>
+      </c>
+      <c r="AQ115">
+        <v>1.38</v>
+      </c>
+      <c r="AR115">
+        <v>1.37</v>
+      </c>
+      <c r="AS115">
+        <v>1.37</v>
+      </c>
+      <c r="AT115">
+        <v>2.74</v>
+      </c>
+      <c r="AU115">
+        <v>2</v>
+      </c>
+      <c r="AV115">
+        <v>5</v>
+      </c>
+      <c r="AW115">
+        <v>2</v>
+      </c>
+      <c r="AX115">
+        <v>8</v>
+      </c>
+      <c r="AY115">
+        <v>4</v>
+      </c>
+      <c r="AZ115">
+        <v>13</v>
+      </c>
+      <c r="BA115">
+        <v>3</v>
+      </c>
+      <c r="BB115">
+        <v>5</v>
+      </c>
+      <c r="BC115">
+        <v>8</v>
+      </c>
+      <c r="BD115">
+        <v>1.91</v>
+      </c>
+      <c r="BE115">
+        <v>8</v>
+      </c>
+      <c r="BF115">
+        <v>2.2</v>
+      </c>
+      <c r="BG115">
+        <v>1.25</v>
+      </c>
+      <c r="BH115">
+        <v>3.6</v>
+      </c>
+      <c r="BI115">
+        <v>1.42</v>
+      </c>
+      <c r="BJ115">
+        <v>2.65</v>
+      </c>
+      <c r="BK115">
+        <v>1.88</v>
+      </c>
+      <c r="BL115">
+        <v>1.92</v>
+      </c>
+      <c r="BM115">
+        <v>2.14</v>
+      </c>
+      <c r="BN115">
+        <v>1.67</v>
+      </c>
+      <c r="BO115">
+        <v>2.85</v>
+      </c>
+      <c r="BP115">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="116" spans="1:68">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>7347872</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" t="s">
+        <v>69</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45458.35763888889</v>
+      </c>
+      <c r="F116">
+        <v>15</v>
+      </c>
+      <c r="G116" t="s">
+        <v>76</v>
+      </c>
+      <c r="H116" t="s">
+        <v>84</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <v>3</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>4</v>
+      </c>
+      <c r="O116" t="s">
+        <v>160</v>
+      </c>
+      <c r="P116" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q116">
+        <v>1.95</v>
+      </c>
+      <c r="R116">
+        <v>2.6</v>
+      </c>
+      <c r="S116">
+        <v>5.5</v>
+      </c>
+      <c r="T116">
+        <v>1.25</v>
+      </c>
+      <c r="U116">
+        <v>3.75</v>
+      </c>
+      <c r="V116">
+        <v>2.2</v>
+      </c>
+      <c r="W116">
+        <v>1.62</v>
+      </c>
+      <c r="X116">
+        <v>5</v>
+      </c>
+      <c r="Y116">
+        <v>1.17</v>
+      </c>
+      <c r="Z116">
+        <v>1.44</v>
+      </c>
+      <c r="AA116">
+        <v>4.5</v>
+      </c>
+      <c r="AB116">
+        <v>5.61</v>
+      </c>
+      <c r="AC116">
+        <v>1.01</v>
+      </c>
+      <c r="AD116">
+        <v>10.5</v>
+      </c>
+      <c r="AE116">
+        <v>1.12</v>
+      </c>
+      <c r="AF116">
+        <v>5</v>
+      </c>
+      <c r="AG116">
+        <v>1.4</v>
+      </c>
+      <c r="AH116">
+        <v>2.73</v>
+      </c>
+      <c r="AI116">
+        <v>1.62</v>
+      </c>
+      <c r="AJ116">
+        <v>2.2</v>
+      </c>
+      <c r="AK116">
+        <v>1.09</v>
+      </c>
+      <c r="AL116">
+        <v>1.15</v>
+      </c>
+      <c r="AM116">
+        <v>2.65</v>
+      </c>
+      <c r="AN116">
+        <v>2</v>
+      </c>
+      <c r="AO116">
+        <v>1.14</v>
+      </c>
+      <c r="AP116">
+        <v>2.11</v>
+      </c>
+      <c r="AQ116">
+        <v>1</v>
+      </c>
+      <c r="AR116">
+        <v>1.76</v>
+      </c>
+      <c r="AS116">
+        <v>1.01</v>
+      </c>
+      <c r="AT116">
+        <v>2.77</v>
+      </c>
+      <c r="AU116">
+        <v>13</v>
+      </c>
+      <c r="AV116">
+        <v>5</v>
+      </c>
+      <c r="AW116">
+        <v>12</v>
+      </c>
+      <c r="AX116">
+        <v>5</v>
+      </c>
+      <c r="AY116">
+        <v>25</v>
+      </c>
+      <c r="AZ116">
+        <v>10</v>
+      </c>
+      <c r="BA116">
+        <v>9</v>
+      </c>
+      <c r="BB116">
+        <v>3</v>
+      </c>
+      <c r="BC116">
+        <v>12</v>
+      </c>
+      <c r="BD116">
+        <v>1.2</v>
+      </c>
+      <c r="BE116">
+        <v>10</v>
+      </c>
+      <c r="BF116">
+        <v>5</v>
+      </c>
+      <c r="BG116">
+        <v>1.22</v>
+      </c>
+      <c r="BH116">
+        <v>3.65</v>
+      </c>
+      <c r="BI116">
+        <v>1.42</v>
+      </c>
+      <c r="BJ116">
+        <v>2.57</v>
+      </c>
+      <c r="BK116">
+        <v>1.95</v>
+      </c>
+      <c r="BL116">
+        <v>1.85</v>
+      </c>
+      <c r="BM116">
+        <v>2.21</v>
+      </c>
+      <c r="BN116">
+        <v>1.56</v>
+      </c>
+      <c r="BO116">
+        <v>2.93</v>
+      </c>
+      <c r="BP116">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="117" spans="1:68">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>7347873</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45458.375</v>
+      </c>
+      <c r="F117">
+        <v>15</v>
+      </c>
+      <c r="G117" t="s">
+        <v>80</v>
+      </c>
+      <c r="H117" t="s">
+        <v>85</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <v>2</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+      <c r="N117">
+        <v>3</v>
+      </c>
+      <c r="O117" t="s">
+        <v>161</v>
+      </c>
+      <c r="P117" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q117">
+        <v>3.1</v>
+      </c>
+      <c r="R117">
+        <v>2.3</v>
+      </c>
+      <c r="S117">
+        <v>3.1</v>
+      </c>
+      <c r="T117">
+        <v>1.33</v>
+      </c>
+      <c r="U117">
+        <v>3.25</v>
+      </c>
+      <c r="V117">
+        <v>2.5</v>
+      </c>
+      <c r="W117">
+        <v>1.5</v>
+      </c>
+      <c r="X117">
+        <v>6.5</v>
+      </c>
+      <c r="Y117">
+        <v>1.11</v>
+      </c>
+      <c r="Z117">
+        <v>2.67</v>
+      </c>
+      <c r="AA117">
+        <v>3.35</v>
+      </c>
+      <c r="AB117">
+        <v>2.37</v>
+      </c>
+      <c r="AC117">
+        <v>1.05</v>
+      </c>
+      <c r="AD117">
+        <v>8.5</v>
+      </c>
+      <c r="AE117">
+        <v>1.22</v>
+      </c>
+      <c r="AF117">
+        <v>4</v>
+      </c>
+      <c r="AG117">
+        <v>1.65</v>
+      </c>
+      <c r="AH117">
+        <v>2.11</v>
+      </c>
+      <c r="AI117">
+        <v>1.53</v>
+      </c>
+      <c r="AJ117">
+        <v>2.38</v>
+      </c>
+      <c r="AK117">
+        <v>1.5</v>
+      </c>
+      <c r="AL117">
+        <v>1.25</v>
+      </c>
+      <c r="AM117">
+        <v>1.47</v>
+      </c>
+      <c r="AN117">
+        <v>0.71</v>
+      </c>
+      <c r="AO117">
+        <v>1.88</v>
+      </c>
+      <c r="AP117">
+        <v>1</v>
+      </c>
+      <c r="AQ117">
+        <v>1.67</v>
+      </c>
+      <c r="AR117">
+        <v>1.56</v>
+      </c>
+      <c r="AS117">
+        <v>1.15</v>
+      </c>
+      <c r="AT117">
+        <v>2.71</v>
+      </c>
+      <c r="AU117">
+        <v>8</v>
+      </c>
+      <c r="AV117">
+        <v>5</v>
+      </c>
+      <c r="AW117">
+        <v>10</v>
+      </c>
+      <c r="AX117">
+        <v>3</v>
+      </c>
+      <c r="AY117">
+        <v>18</v>
+      </c>
+      <c r="AZ117">
+        <v>8</v>
+      </c>
+      <c r="BA117">
+        <v>10</v>
+      </c>
+      <c r="BB117">
+        <v>1</v>
+      </c>
+      <c r="BC117">
+        <v>11</v>
+      </c>
+      <c r="BD117">
+        <v>2.2</v>
+      </c>
+      <c r="BE117">
+        <v>8</v>
+      </c>
+      <c r="BF117">
+        <v>1.91</v>
+      </c>
+      <c r="BG117">
+        <v>1.16</v>
+      </c>
+      <c r="BH117">
+        <v>4.3</v>
+      </c>
+      <c r="BI117">
+        <v>1.33</v>
+      </c>
+      <c r="BJ117">
+        <v>2.93</v>
+      </c>
+      <c r="BK117">
+        <v>1.59</v>
+      </c>
+      <c r="BL117">
+        <v>2.16</v>
+      </c>
+      <c r="BM117">
+        <v>2</v>
+      </c>
+      <c r="BN117">
+        <v>1.73</v>
+      </c>
+      <c r="BO117">
+        <v>2.57</v>
+      </c>
+      <c r="BP117">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="118" spans="1:68">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>7347874</v>
+      </c>
+      <c r="C118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45459.33333333334</v>
+      </c>
+      <c r="F118">
+        <v>15</v>
+      </c>
+      <c r="G118" t="s">
+        <v>74</v>
+      </c>
+      <c r="H118" t="s">
+        <v>78</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118">
+        <v>1</v>
+      </c>
+      <c r="O118" t="s">
+        <v>90</v>
+      </c>
+      <c r="P118" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q118">
+        <v>3.75</v>
+      </c>
+      <c r="R118">
+        <v>2.3</v>
+      </c>
+      <c r="S118">
+        <v>2.63</v>
+      </c>
+      <c r="T118">
+        <v>1.33</v>
+      </c>
+      <c r="U118">
+        <v>3.25</v>
+      </c>
+      <c r="V118">
+        <v>2.5</v>
+      </c>
+      <c r="W118">
+        <v>1.5</v>
+      </c>
+      <c r="X118">
+        <v>6.5</v>
+      </c>
+      <c r="Y118">
+        <v>1.11</v>
+      </c>
+      <c r="Z118">
+        <v>3.5</v>
+      </c>
+      <c r="AA118">
+        <v>3.5</v>
+      </c>
+      <c r="AB118">
+        <v>2.1</v>
+      </c>
+      <c r="AC118">
+        <v>1.03</v>
+      </c>
+      <c r="AD118">
+        <v>10.5</v>
+      </c>
+      <c r="AE118">
+        <v>1.18</v>
+      </c>
+      <c r="AF118">
+        <v>4.05</v>
+      </c>
+      <c r="AG118">
+        <v>1.7</v>
+      </c>
+      <c r="AH118">
+        <v>2.1</v>
+      </c>
+      <c r="AI118">
+        <v>1.62</v>
+      </c>
+      <c r="AJ118">
+        <v>2.2</v>
+      </c>
+      <c r="AK118">
+        <v>1.73</v>
+      </c>
+      <c r="AL118">
+        <v>1.25</v>
+      </c>
+      <c r="AM118">
+        <v>1.3</v>
+      </c>
+      <c r="AN118">
+        <v>1.29</v>
+      </c>
+      <c r="AO118">
+        <v>0.57</v>
+      </c>
+      <c r="AP118">
+        <v>1.13</v>
+      </c>
+      <c r="AQ118">
+        <v>0.88</v>
+      </c>
+      <c r="AR118">
+        <v>1.03</v>
+      </c>
+      <c r="AS118">
+        <v>1.21</v>
+      </c>
+      <c r="AT118">
+        <v>2.24</v>
+      </c>
+      <c r="AU118">
+        <v>2</v>
+      </c>
+      <c r="AV118">
+        <v>6</v>
+      </c>
+      <c r="AW118">
+        <v>7</v>
+      </c>
+      <c r="AX118">
+        <v>5</v>
+      </c>
+      <c r="AY118">
+        <v>9</v>
+      </c>
+      <c r="AZ118">
+        <v>11</v>
+      </c>
+      <c r="BA118">
+        <v>3</v>
+      </c>
+      <c r="BB118">
+        <v>7</v>
+      </c>
+      <c r="BC118">
+        <v>10</v>
+      </c>
+      <c r="BD118">
+        <v>1.73</v>
+      </c>
+      <c r="BE118">
+        <v>8</v>
+      </c>
+      <c r="BF118">
+        <v>2.4</v>
+      </c>
+      <c r="BG118">
+        <v>1.23</v>
+      </c>
+      <c r="BH118">
+        <v>3.56</v>
+      </c>
+      <c r="BI118">
+        <v>1.44</v>
+      </c>
+      <c r="BJ118">
+        <v>2.5</v>
+      </c>
+      <c r="BK118">
+        <v>1.85</v>
+      </c>
+      <c r="BL118">
+        <v>1.85</v>
+      </c>
+      <c r="BM118">
+        <v>2.28</v>
+      </c>
+      <c r="BN118">
+        <v>1.53</v>
+      </c>
+      <c r="BO118">
+        <v>3.08</v>
+      </c>
+      <c r="BP118">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:68">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7347875</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45459.35763888889</v>
+      </c>
+      <c r="F119">
+        <v>15</v>
+      </c>
+      <c r="G119" t="s">
+        <v>79</v>
+      </c>
+      <c r="H119" t="s">
+        <v>75</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119">
+        <v>2</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119">
+        <v>2</v>
+      </c>
+      <c r="O119" t="s">
+        <v>162</v>
+      </c>
+      <c r="P119" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q119">
+        <v>2.5</v>
+      </c>
+      <c r="R119">
+        <v>2.25</v>
+      </c>
+      <c r="S119">
+        <v>4.33</v>
+      </c>
+      <c r="T119">
+        <v>1.36</v>
+      </c>
+      <c r="U119">
+        <v>3</v>
+      </c>
+      <c r="V119">
+        <v>2.63</v>
+      </c>
+      <c r="W119">
+        <v>1.44</v>
+      </c>
+      <c r="X119">
+        <v>7</v>
+      </c>
+      <c r="Y119">
+        <v>1.1</v>
+      </c>
+      <c r="Z119">
+        <v>1.88</v>
+      </c>
+      <c r="AA119">
+        <v>3.4</v>
+      </c>
+      <c r="AB119">
+        <v>3.72</v>
+      </c>
+      <c r="AC119">
+        <v>1.01</v>
+      </c>
+      <c r="AD119">
+        <v>10.25</v>
+      </c>
+      <c r="AE119">
+        <v>1.22</v>
+      </c>
+      <c r="AF119">
+        <v>3.65</v>
+      </c>
+      <c r="AG119">
+        <v>1.7</v>
+      </c>
+      <c r="AH119">
+        <v>2.03</v>
+      </c>
+      <c r="AI119">
+        <v>1.75</v>
+      </c>
+      <c r="AJ119">
+        <v>2</v>
+      </c>
+      <c r="AK119">
+        <v>1.23</v>
+      </c>
+      <c r="AL119">
+        <v>1.25</v>
+      </c>
+      <c r="AM119">
+        <v>1.92</v>
+      </c>
+      <c r="AN119">
+        <v>2.67</v>
+      </c>
+      <c r="AO119">
+        <v>1.5</v>
+      </c>
+      <c r="AP119">
+        <v>2.43</v>
+      </c>
+      <c r="AQ119">
+        <v>1.43</v>
+      </c>
+      <c r="AR119">
+        <v>2.45</v>
+      </c>
+      <c r="AS119">
+        <v>1.46</v>
+      </c>
+      <c r="AT119">
+        <v>3.91</v>
+      </c>
+      <c r="AU119">
+        <v>4</v>
+      </c>
+      <c r="AV119">
+        <v>8</v>
+      </c>
+      <c r="AW119">
+        <v>4</v>
+      </c>
+      <c r="AX119">
+        <v>4</v>
+      </c>
+      <c r="AY119">
+        <v>8</v>
+      </c>
+      <c r="AZ119">
+        <v>12</v>
+      </c>
+      <c r="BA119">
+        <v>6</v>
+      </c>
+      <c r="BB119">
+        <v>13</v>
+      </c>
+      <c r="BC119">
+        <v>19</v>
+      </c>
+      <c r="BD119">
+        <v>1.83</v>
+      </c>
+      <c r="BE119">
+        <v>8</v>
+      </c>
+      <c r="BF119">
+        <v>2.25</v>
+      </c>
+      <c r="BG119">
+        <v>1.23</v>
+      </c>
+      <c r="BH119">
+        <v>3.56</v>
+      </c>
+      <c r="BI119">
+        <v>1.44</v>
+      </c>
+      <c r="BJ119">
+        <v>2.51</v>
+      </c>
+      <c r="BK119">
+        <v>2</v>
+      </c>
+      <c r="BL119">
+        <v>1.73</v>
+      </c>
+      <c r="BM119">
+        <v>2.28</v>
+      </c>
+      <c r="BN119">
+        <v>1.53</v>
+      </c>
+      <c r="BO119">
+        <v>3.04</v>
+      </c>
+      <c r="BP119">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="120" spans="1:68">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>7347876</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45459.375</v>
+      </c>
+      <c r="F120">
+        <v>15</v>
+      </c>
+      <c r="G120" t="s">
+        <v>71</v>
+      </c>
+      <c r="H120" t="s">
+        <v>83</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+      <c r="N120">
+        <v>1</v>
+      </c>
+      <c r="O120" t="s">
+        <v>90</v>
+      </c>
+      <c r="P120" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q120">
+        <v>3.6</v>
+      </c>
+      <c r="R120">
+        <v>2.25</v>
+      </c>
+      <c r="S120">
+        <v>2.75</v>
+      </c>
+      <c r="T120">
+        <v>1.33</v>
+      </c>
+      <c r="U120">
+        <v>3.25</v>
+      </c>
+      <c r="V120">
+        <v>2.63</v>
+      </c>
+      <c r="W120">
+        <v>1.44</v>
+      </c>
+      <c r="X120">
+        <v>6.5</v>
+      </c>
+      <c r="Y120">
+        <v>1.11</v>
+      </c>
+      <c r="Z120">
+        <v>2.88</v>
+      </c>
+      <c r="AA120">
+        <v>3.35</v>
+      </c>
+      <c r="AB120">
+        <v>2.2</v>
+      </c>
+      <c r="AC120">
+        <v>1.04</v>
+      </c>
+      <c r="AD120">
+        <v>10.5</v>
+      </c>
+      <c r="AE120">
+        <v>1.21</v>
+      </c>
+      <c r="AF120">
+        <v>3.74</v>
+      </c>
+      <c r="AG120">
+        <v>1.64</v>
+      </c>
+      <c r="AH120">
+        <v>2.04</v>
+      </c>
+      <c r="AI120">
+        <v>1.62</v>
+      </c>
+      <c r="AJ120">
+        <v>2.2</v>
+      </c>
+      <c r="AK120">
+        <v>1.78</v>
+      </c>
+      <c r="AL120">
+        <v>1.22</v>
+      </c>
+      <c r="AM120">
+        <v>1.3</v>
+      </c>
+      <c r="AN120">
+        <v>0.86</v>
+      </c>
+      <c r="AO120">
+        <v>1.14</v>
+      </c>
+      <c r="AP120">
+        <v>0.75</v>
+      </c>
+      <c r="AQ120">
+        <v>1.38</v>
+      </c>
+      <c r="AR120">
+        <v>1.17</v>
+      </c>
+      <c r="AS120">
+        <v>1.12</v>
+      </c>
+      <c r="AT120">
+        <v>2.29</v>
+      </c>
+      <c r="AU120">
+        <v>6</v>
+      </c>
+      <c r="AV120">
+        <v>11</v>
+      </c>
+      <c r="AW120">
+        <v>3</v>
+      </c>
+      <c r="AX120">
+        <v>7</v>
+      </c>
+      <c r="AY120">
+        <v>9</v>
+      </c>
+      <c r="AZ120">
+        <v>18</v>
+      </c>
+      <c r="BA120">
+        <v>2</v>
+      </c>
+      <c r="BB120">
+        <v>6</v>
+      </c>
+      <c r="BC120">
+        <v>8</v>
+      </c>
+      <c r="BD120">
+        <v>2.3</v>
+      </c>
+      <c r="BE120">
+        <v>8</v>
+      </c>
+      <c r="BF120">
+        <v>1.8</v>
+      </c>
+      <c r="BG120">
+        <v>1.25</v>
+      </c>
+      <c r="BH120">
+        <v>3.42</v>
+      </c>
+      <c r="BI120">
+        <v>1.7</v>
+      </c>
+      <c r="BJ120">
+        <v>2.05</v>
+      </c>
+      <c r="BK120">
+        <v>1.85</v>
+      </c>
+      <c r="BL120">
+        <v>1.85</v>
+      </c>
+      <c r="BM120">
+        <v>2.38</v>
+      </c>
+      <c r="BN120">
+        <v>1.49</v>
+      </c>
+      <c r="BO120">
+        <v>3.2</v>
+      </c>
+      <c r="BP120">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="121" spans="1:68">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>7347811</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45461.35763888889</v>
+      </c>
+      <c r="F121">
+        <v>7</v>
+      </c>
+      <c r="G121" t="s">
+        <v>77</v>
+      </c>
+      <c r="H121" t="s">
+        <v>72</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+      <c r="M121">
+        <v>2</v>
+      </c>
+      <c r="N121">
+        <v>3</v>
+      </c>
+      <c r="O121" t="s">
+        <v>163</v>
+      </c>
+      <c r="P121" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q121">
+        <v>7</v>
+      </c>
+      <c r="R121">
+        <v>2.6</v>
+      </c>
+      <c r="S121">
+        <v>1.8</v>
+      </c>
+      <c r="T121">
+        <v>1.29</v>
+      </c>
+      <c r="U121">
+        <v>3.5</v>
+      </c>
+      <c r="V121">
+        <v>2.25</v>
+      </c>
+      <c r="W121">
+        <v>1.57</v>
+      </c>
+      <c r="X121">
+        <v>5.5</v>
+      </c>
+      <c r="Y121">
+        <v>1.14</v>
+      </c>
+      <c r="Z121">
+        <v>14.5</v>
+      </c>
+      <c r="AA121">
+        <v>7.8</v>
+      </c>
+      <c r="AB121">
+        <v>1.15</v>
+      </c>
+      <c r="AC121">
+        <v>1.02</v>
+      </c>
+      <c r="AD121">
+        <v>12</v>
+      </c>
+      <c r="AE121">
+        <v>1.16</v>
+      </c>
+      <c r="AF121">
+        <v>4.75</v>
+      </c>
+      <c r="AG121">
+        <v>1.31</v>
+      </c>
+      <c r="AH121">
+        <v>3.15</v>
+      </c>
+      <c r="AI121">
+        <v>1.91</v>
+      </c>
+      <c r="AJ121">
+        <v>1.91</v>
+      </c>
+      <c r="AK121">
+        <v>3.25</v>
+      </c>
+      <c r="AL121">
+        <v>1.11</v>
+      </c>
+      <c r="AM121">
+        <v>1.03</v>
+      </c>
+      <c r="AN121">
+        <v>0.63</v>
+      </c>
+      <c r="AO121">
+        <v>2.43</v>
+      </c>
+      <c r="AP121">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AQ121">
+        <v>2.5</v>
+      </c>
+      <c r="AR121">
+        <v>1.25</v>
+      </c>
+      <c r="AS121">
+        <v>2.38</v>
+      </c>
+      <c r="AT121">
+        <v>3.63</v>
+      </c>
+      <c r="AU121">
+        <v>3</v>
+      </c>
+      <c r="AV121">
+        <v>12</v>
+      </c>
+      <c r="AW121">
+        <v>3</v>
+      </c>
+      <c r="AX121">
+        <v>6</v>
+      </c>
+      <c r="AY121">
+        <v>6</v>
+      </c>
+      <c r="AZ121">
+        <v>18</v>
+      </c>
+      <c r="BA121">
+        <v>5</v>
+      </c>
+      <c r="BB121">
+        <v>6</v>
+      </c>
+      <c r="BC121">
+        <v>11</v>
+      </c>
+      <c r="BD121">
+        <v>6.9</v>
+      </c>
+      <c r="BE121">
+        <v>11</v>
+      </c>
+      <c r="BF121">
+        <v>1.16</v>
+      </c>
+      <c r="BG121">
+        <v>1.35</v>
+      </c>
+      <c r="BH121">
+        <v>3</v>
+      </c>
+      <c r="BI121">
+        <v>1.6</v>
+      </c>
+      <c r="BJ121">
+        <v>2.24</v>
+      </c>
+      <c r="BK121">
+        <v>2</v>
+      </c>
+      <c r="BL121">
+        <v>1.75</v>
+      </c>
+      <c r="BM121">
+        <v>2.55</v>
+      </c>
+      <c r="BN121">
+        <v>1.47</v>
+      </c>
+      <c r="BO121">
+        <v>3.5</v>
+      </c>
+      <c r="BP121">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="241">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -506,6 +506,9 @@
   </si>
   <si>
     <t>['84']</t>
+  </si>
+  <si>
+    <t>['87']</t>
   </si>
   <si>
     <t>['81', '90+3']</t>
@@ -1095,7 +1098,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP121"/>
+  <dimension ref="A1:BP122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1354,7 +1357,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1560,7 +1563,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -2178,7 +2181,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2796,7 +2799,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -3289,7 +3292,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3414,7 +3417,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -3492,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ12">
         <v>1.33</v>
@@ -4032,7 +4035,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4444,7 +4447,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4650,7 +4653,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4856,7 +4859,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5680,7 +5683,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -5886,7 +5889,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6092,7 +6095,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6298,7 +6301,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6504,7 +6507,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -6710,7 +6713,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6788,7 +6791,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ28">
         <v>1.38</v>
@@ -6916,7 +6919,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -7122,7 +7125,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7534,7 +7537,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7740,7 +7743,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q33">
         <v>1.73</v>
@@ -7821,7 +7824,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ33">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR33">
         <v>0.79</v>
@@ -7946,7 +7949,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q34">
         <v>6.4</v>
@@ -8152,7 +8155,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q35">
         <v>1.96</v>
@@ -8358,7 +8361,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q36">
         <v>1.98</v>
@@ -8564,7 +8567,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -8770,7 +8773,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q38">
         <v>3.25</v>
@@ -9594,7 +9597,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9672,7 +9675,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ42">
         <v>0.75</v>
@@ -9800,7 +9803,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q43">
         <v>2.3</v>
@@ -10006,7 +10009,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q44">
         <v>4.75</v>
@@ -10418,7 +10421,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10624,7 +10627,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10705,7 +10708,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ47">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR47">
         <v>1.03</v>
@@ -11242,7 +11245,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11448,7 +11451,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11654,7 +11657,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q52">
         <v>1.83</v>
@@ -12066,7 +12069,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q54">
         <v>7.5</v>
@@ -12350,7 +12353,7 @@
         <v>0.33</v>
       </c>
       <c r="AP55">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ55">
         <v>0.88</v>
@@ -12559,7 +12562,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ56">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR56">
         <v>1.29</v>
@@ -12684,7 +12687,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12890,7 +12893,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q58">
         <v>2.8</v>
@@ -13096,7 +13099,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q59">
         <v>3.15</v>
@@ -13302,7 +13305,7 @@
         <v>106</v>
       </c>
       <c r="P60" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13508,7 +13511,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q61">
         <v>3.11</v>
@@ -13920,7 +13923,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q63">
         <v>2.75</v>
@@ -14332,7 +14335,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q65">
         <v>1.8</v>
@@ -14744,7 +14747,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q67">
         <v>2.38</v>
@@ -14950,7 +14953,7 @@
         <v>127</v>
       </c>
       <c r="P68" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15031,7 +15034,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ68">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR68">
         <v>1.05</v>
@@ -15362,7 +15365,7 @@
         <v>90</v>
       </c>
       <c r="P70" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q70">
         <v>5.5</v>
@@ -15568,7 +15571,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q71">
         <v>2.45</v>
@@ -16186,7 +16189,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q74">
         <v>2.65</v>
@@ -16264,7 +16267,7 @@
         <v>1.8</v>
       </c>
       <c r="AP74">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ74">
         <v>1.88</v>
@@ -16392,7 +16395,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -16804,7 +16807,7 @@
         <v>133</v>
       </c>
       <c r="P77" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17216,7 +17219,7 @@
         <v>135</v>
       </c>
       <c r="P79" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17422,7 +17425,7 @@
         <v>90</v>
       </c>
       <c r="P80" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -17628,7 +17631,7 @@
         <v>136</v>
       </c>
       <c r="P81" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17834,7 +17837,7 @@
         <v>137</v>
       </c>
       <c r="P82" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q82">
         <v>1.91</v>
@@ -18040,7 +18043,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q83">
         <v>1.62</v>
@@ -18452,7 +18455,7 @@
         <v>99</v>
       </c>
       <c r="P85" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18658,7 +18661,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q86">
         <v>1.83</v>
@@ -18864,7 +18867,7 @@
         <v>90</v>
       </c>
       <c r="P87" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -19070,7 +19073,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19151,7 +19154,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ88">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR88">
         <v>1.33</v>
@@ -19482,7 +19485,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q90">
         <v>1.61</v>
@@ -19688,7 +19691,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q91">
         <v>1.8</v>
@@ -19894,7 +19897,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q92">
         <v>3.8</v>
@@ -20100,7 +20103,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q93">
         <v>2.55</v>
@@ -20178,7 +20181,7 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ93">
         <v>1.38</v>
@@ -20306,7 +20309,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q94">
         <v>4.5</v>
@@ -20512,7 +20515,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q95">
         <v>4.5</v>
@@ -20718,7 +20721,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q96">
         <v>9</v>
@@ -21130,7 +21133,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q98">
         <v>4.63</v>
@@ -21336,7 +21339,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q99">
         <v>2.31</v>
@@ -21542,7 +21545,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21620,7 +21623,7 @@
         <v>2.33</v>
       </c>
       <c r="AP100">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ100">
         <v>2.5</v>
@@ -21748,7 +21751,7 @@
         <v>151</v>
       </c>
       <c r="P101" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q101">
         <v>2.43</v>
@@ -21954,7 +21957,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -22160,7 +22163,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -23190,7 +23193,7 @@
         <v>156</v>
       </c>
       <c r="P108" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q108">
         <v>3.4</v>
@@ -23396,7 +23399,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q109">
         <v>1.95</v>
@@ -23889,7 +23892,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ111">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR111">
         <v>1.64</v>
@@ -24014,7 +24017,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q112">
         <v>1.73</v>
@@ -24426,7 +24429,7 @@
         <v>90</v>
       </c>
       <c r="P114" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -24632,7 +24635,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -24838,7 +24841,7 @@
         <v>160</v>
       </c>
       <c r="P116" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q116">
         <v>1.95</v>
@@ -25044,7 +25047,7 @@
         <v>161</v>
       </c>
       <c r="P117" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q117">
         <v>3.1</v>
@@ -25122,7 +25125,7 @@
         <v>1.88</v>
       </c>
       <c r="AP117">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ117">
         <v>1.67</v>
@@ -25250,7 +25253,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q118">
         <v>3.75</v>
@@ -25456,7 +25459,7 @@
         <v>162</v>
       </c>
       <c r="P119" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -25662,7 +25665,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q120">
         <v>3.6</v>
@@ -25868,7 +25871,7 @@
         <v>163</v>
       </c>
       <c r="P121" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26025,6 +26028,212 @@
       </c>
       <c r="BP121">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="122" spans="1:68">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>7347877</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" t="s">
+        <v>69</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45468.33333333334</v>
+      </c>
+      <c r="F122">
+        <v>16</v>
+      </c>
+      <c r="G122" t="s">
+        <v>80</v>
+      </c>
+      <c r="H122" t="s">
+        <v>71</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>1</v>
+      </c>
+      <c r="O122" t="s">
+        <v>164</v>
+      </c>
+      <c r="P122" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q122">
+        <v>1.65</v>
+      </c>
+      <c r="R122">
+        <v>2.7</v>
+      </c>
+      <c r="S122">
+        <v>6.7</v>
+      </c>
+      <c r="T122">
+        <v>1.25</v>
+      </c>
+      <c r="U122">
+        <v>3.72</v>
+      </c>
+      <c r="V122">
+        <v>2.16</v>
+      </c>
+      <c r="W122">
+        <v>1.65</v>
+      </c>
+      <c r="X122">
+        <v>4.75</v>
+      </c>
+      <c r="Y122">
+        <v>1.16</v>
+      </c>
+      <c r="Z122">
+        <v>1.3</v>
+      </c>
+      <c r="AA122">
+        <v>5.2</v>
+      </c>
+      <c r="AB122">
+        <v>7.8</v>
+      </c>
+      <c r="AC122">
+        <v>1.02</v>
+      </c>
+      <c r="AD122">
+        <v>22.5</v>
+      </c>
+      <c r="AE122">
+        <v>1.11</v>
+      </c>
+      <c r="AF122">
+        <v>5.3</v>
+      </c>
+      <c r="AG122">
+        <v>1.45</v>
+      </c>
+      <c r="AH122">
+        <v>2.5</v>
+      </c>
+      <c r="AI122">
+        <v>1.67</v>
+      </c>
+      <c r="AJ122">
+        <v>2.05</v>
+      </c>
+      <c r="AK122">
+        <v>1.02</v>
+      </c>
+      <c r="AL122">
+        <v>1.15</v>
+      </c>
+      <c r="AM122">
+        <v>3.2</v>
+      </c>
+      <c r="AN122">
+        <v>1</v>
+      </c>
+      <c r="AO122">
+        <v>1</v>
+      </c>
+      <c r="AP122">
+        <v>1.22</v>
+      </c>
+      <c r="AQ122">
+        <v>0.88</v>
+      </c>
+      <c r="AR122">
+        <v>1.65</v>
+      </c>
+      <c r="AS122">
+        <v>1.2</v>
+      </c>
+      <c r="AT122">
+        <v>2.85</v>
+      </c>
+      <c r="AU122">
+        <v>-1</v>
+      </c>
+      <c r="AV122">
+        <v>-1</v>
+      </c>
+      <c r="AW122">
+        <v>-1</v>
+      </c>
+      <c r="AX122">
+        <v>-1</v>
+      </c>
+      <c r="AY122">
+        <v>-1</v>
+      </c>
+      <c r="AZ122">
+        <v>-1</v>
+      </c>
+      <c r="BA122">
+        <v>-1</v>
+      </c>
+      <c r="BB122">
+        <v>-1</v>
+      </c>
+      <c r="BC122">
+        <v>-1</v>
+      </c>
+      <c r="BD122">
+        <v>1.14</v>
+      </c>
+      <c r="BE122">
+        <v>10.5</v>
+      </c>
+      <c r="BF122">
+        <v>7.5</v>
+      </c>
+      <c r="BG122">
+        <v>1.16</v>
+      </c>
+      <c r="BH122">
+        <v>4.3</v>
+      </c>
+      <c r="BI122">
+        <v>1.33</v>
+      </c>
+      <c r="BJ122">
+        <v>2.93</v>
+      </c>
+      <c r="BK122">
+        <v>1.64</v>
+      </c>
+      <c r="BL122">
+        <v>2.23</v>
+      </c>
+      <c r="BM122">
+        <v>2.05</v>
+      </c>
+      <c r="BN122">
+        <v>1.76</v>
+      </c>
+      <c r="BO122">
+        <v>2.6</v>
+      </c>
+      <c r="BP122">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="245">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -511,6 +511,12 @@
     <t>['87']</t>
   </si>
   <si>
+    <t>['45']</t>
+  </si>
+  <si>
+    <t>['69', '83', '90+7']</t>
+  </si>
+  <si>
     <t>['81', '90+3']</t>
   </si>
   <si>
@@ -737,6 +743,12 @@
   </si>
   <si>
     <t>['54', '67']</t>
+  </si>
+  <si>
+    <t>['44', '66']</t>
+  </si>
+  <si>
+    <t>['14', '36']</t>
   </si>
 </sst>
 </file>
@@ -1098,7 +1110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP122"/>
+  <dimension ref="A1:BP125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1357,7 +1369,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1563,7 +1575,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -2181,7 +2193,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2799,7 +2811,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -3417,7 +3429,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -3910,7 +3922,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ14">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AR14">
         <v>0.7</v>
@@ -4035,7 +4047,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4113,7 +4125,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ15">
         <v>1.38</v>
@@ -4447,7 +4459,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4525,10 +4537,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AQ17">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4653,7 +4665,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4731,7 +4743,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AQ18">
         <v>0.86</v>
@@ -4859,7 +4871,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -4937,7 +4949,7 @@
         <v>2</v>
       </c>
       <c r="AP19">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ19">
         <v>1.67</v>
@@ -5683,7 +5695,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -5764,7 +5776,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ23">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -5889,7 +5901,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6095,7 +6107,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6176,7 +6188,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR25">
         <v>0.67</v>
@@ -6301,7 +6313,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6379,7 +6391,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ26">
         <v>0.86</v>
@@ -6507,7 +6519,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -6713,7 +6725,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6919,7 +6931,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -7125,7 +7137,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7206,7 +7218,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ30">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7409,7 +7421,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ31">
         <v>1.33</v>
@@ -7537,7 +7549,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7743,7 +7755,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q33">
         <v>1.73</v>
@@ -7949,7 +7961,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q34">
         <v>6.4</v>
@@ -8027,10 +8039,10 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ34">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AR34">
         <v>1</v>
@@ -8155,7 +8167,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q35">
         <v>1.96</v>
@@ -8361,7 +8373,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q36">
         <v>1.98</v>
@@ -8567,7 +8579,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -8773,7 +8785,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q38">
         <v>3.25</v>
@@ -8854,7 +8866,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ38">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR38">
         <v>1.05</v>
@@ -9266,7 +9278,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR40">
         <v>1.36</v>
@@ -9597,7 +9609,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9803,7 +9815,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q43">
         <v>2.3</v>
@@ -10009,7 +10021,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q44">
         <v>4.75</v>
@@ -10421,7 +10433,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10627,7 +10639,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10914,7 +10926,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ48">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR48">
         <v>1.33</v>
@@ -11117,7 +11129,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AQ49">
         <v>1.38</v>
@@ -11245,7 +11257,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11326,7 +11338,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ50">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR50">
         <v>1.28</v>
@@ -11451,7 +11463,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11657,7 +11669,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q52">
         <v>1.83</v>
@@ -11941,7 +11953,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ53">
         <v>1</v>
@@ -12069,7 +12081,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q54">
         <v>7.5</v>
@@ -12147,7 +12159,7 @@
         <v>3</v>
       </c>
       <c r="AP54">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ54">
         <v>2.5</v>
@@ -12687,7 +12699,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12893,7 +12905,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q58">
         <v>2.8</v>
@@ -12971,7 +12983,7 @@
         <v>0.25</v>
       </c>
       <c r="AP58">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AQ58">
         <v>0.88</v>
@@ -13099,7 +13111,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q59">
         <v>3.15</v>
@@ -13177,10 +13189,10 @@
         <v>2.25</v>
       </c>
       <c r="AP59">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ59">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR59">
         <v>1.86</v>
@@ -13305,7 +13317,7 @@
         <v>106</v>
       </c>
       <c r="P60" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13511,7 +13523,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q61">
         <v>3.11</v>
@@ -13923,7 +13935,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q63">
         <v>2.75</v>
@@ -14335,7 +14347,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q65">
         <v>1.8</v>
@@ -14747,7 +14759,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q67">
         <v>2.38</v>
@@ -14953,7 +14965,7 @@
         <v>127</v>
       </c>
       <c r="P68" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15365,7 +15377,7 @@
         <v>90</v>
       </c>
       <c r="P70" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q70">
         <v>5.5</v>
@@ -15446,7 +15458,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ70">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AR70">
         <v>1.34</v>
@@ -15571,7 +15583,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q71">
         <v>2.45</v>
@@ -16189,7 +16201,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q74">
         <v>2.65</v>
@@ -16270,7 +16282,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ74">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR74">
         <v>1.58</v>
@@ -16395,7 +16407,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -16473,7 +16485,7 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ75">
         <v>1</v>
@@ -16682,7 +16694,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ76">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR76">
         <v>2.43</v>
@@ -16807,7 +16819,7 @@
         <v>133</v>
       </c>
       <c r="P77" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17091,7 +17103,7 @@
         <v>0.8</v>
       </c>
       <c r="AP78">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ78">
         <v>0.88</v>
@@ -17219,7 +17231,7 @@
         <v>135</v>
       </c>
       <c r="P79" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17425,7 +17437,7 @@
         <v>90</v>
       </c>
       <c r="P80" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -17503,10 +17515,10 @@
         <v>2</v>
       </c>
       <c r="AP80">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AQ80">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AR80">
         <v>1.55</v>
@@ -17631,7 +17643,7 @@
         <v>136</v>
       </c>
       <c r="P81" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17837,7 +17849,7 @@
         <v>137</v>
       </c>
       <c r="P82" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q82">
         <v>1.91</v>
@@ -18043,7 +18055,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q83">
         <v>1.62</v>
@@ -18455,7 +18467,7 @@
         <v>99</v>
       </c>
       <c r="P85" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18533,7 +18545,7 @@
         <v>1.75</v>
       </c>
       <c r="AP85">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ85">
         <v>1.71</v>
@@ -18661,7 +18673,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q86">
         <v>1.83</v>
@@ -18867,7 +18879,7 @@
         <v>90</v>
       </c>
       <c r="P87" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -18948,7 +18960,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ87">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR87">
         <v>1.16</v>
@@ -19073,7 +19085,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19151,7 +19163,7 @@
         <v>0.8</v>
       </c>
       <c r="AP88">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AQ88">
         <v>0.88</v>
@@ -19485,7 +19497,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q90">
         <v>1.61</v>
@@ -19691,7 +19703,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q91">
         <v>1.8</v>
@@ -19897,7 +19909,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q92">
         <v>3.8</v>
@@ -19978,7 +19990,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ92">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR92">
         <v>1.07</v>
@@ -20103,7 +20115,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q93">
         <v>2.55</v>
@@ -20309,7 +20321,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q94">
         <v>4.5</v>
@@ -20515,7 +20527,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q95">
         <v>4.5</v>
@@ -20721,7 +20733,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q96">
         <v>9</v>
@@ -20802,7 +20814,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ96">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AR96">
         <v>0.98</v>
@@ -21133,7 +21145,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q98">
         <v>4.63</v>
@@ -21339,7 +21351,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q99">
         <v>2.31</v>
@@ -21545,7 +21557,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21751,7 +21763,7 @@
         <v>151</v>
       </c>
       <c r="P101" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q101">
         <v>2.43</v>
@@ -21829,7 +21841,7 @@
         <v>1</v>
       </c>
       <c r="AP101">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ101">
         <v>0.86</v>
@@ -21957,7 +21969,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -22163,7 +22175,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -22656,7 +22668,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ105">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR105">
         <v>1.91</v>
@@ -22859,7 +22871,7 @@
         <v>1</v>
       </c>
       <c r="AP106">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ106">
         <v>1.33</v>
@@ -23065,7 +23077,7 @@
         <v>2.43</v>
       </c>
       <c r="AP107">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AQ107">
         <v>2.5</v>
@@ -23193,7 +23205,7 @@
         <v>156</v>
       </c>
       <c r="P108" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q108">
         <v>3.4</v>
@@ -23274,7 +23286,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ108">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR108">
         <v>1.44</v>
@@ -23399,7 +23411,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q109">
         <v>1.95</v>
@@ -24017,7 +24029,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q112">
         <v>1.73</v>
@@ -24429,7 +24441,7 @@
         <v>90</v>
       </c>
       <c r="P114" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -24510,7 +24522,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ114">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AR114">
         <v>1.55</v>
@@ -24635,7 +24647,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -24713,7 +24725,7 @@
         <v>1.14</v>
       </c>
       <c r="AP115">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ115">
         <v>1.38</v>
@@ -24841,7 +24853,7 @@
         <v>160</v>
       </c>
       <c r="P116" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q116">
         <v>1.95</v>
@@ -25047,7 +25059,7 @@
         <v>161</v>
       </c>
       <c r="P117" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q117">
         <v>3.1</v>
@@ -25253,7 +25265,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q118">
         <v>3.75</v>
@@ -25459,7 +25471,7 @@
         <v>162</v>
       </c>
       <c r="P119" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -25665,7 +25677,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q120">
         <v>3.6</v>
@@ -25871,7 +25883,7 @@
         <v>163</v>
       </c>
       <c r="P121" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -25952,7 +25964,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ121">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AR121">
         <v>1.25</v>
@@ -26170,31 +26182,31 @@
         <v>2.85</v>
       </c>
       <c r="AU122">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV122">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW122">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AX122">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY122">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AZ122">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BA122">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BB122">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC122">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD122">
         <v>1.14</v>
@@ -26234,6 +26246,624 @@
       </c>
       <c r="BP122">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="123" spans="1:68">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>7347878</v>
+      </c>
+      <c r="C123" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45468.35763888889</v>
+      </c>
+      <c r="F123">
+        <v>16</v>
+      </c>
+      <c r="G123" t="s">
+        <v>81</v>
+      </c>
+      <c r="H123" t="s">
+        <v>73</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123">
+        <v>2</v>
+      </c>
+      <c r="O123" t="s">
+        <v>165</v>
+      </c>
+      <c r="P123" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q123">
+        <v>3.6</v>
+      </c>
+      <c r="R123">
+        <v>2.15</v>
+      </c>
+      <c r="S123">
+        <v>2.7</v>
+      </c>
+      <c r="T123">
+        <v>1.37</v>
+      </c>
+      <c r="U123">
+        <v>2.85</v>
+      </c>
+      <c r="V123">
+        <v>2.7</v>
+      </c>
+      <c r="W123">
+        <v>1.41</v>
+      </c>
+      <c r="X123">
+        <v>6.45</v>
+      </c>
+      <c r="Y123">
+        <v>1.09</v>
+      </c>
+      <c r="Z123">
+        <v>3.1</v>
+      </c>
+      <c r="AA123">
+        <v>3.45</v>
+      </c>
+      <c r="AB123">
+        <v>2.04</v>
+      </c>
+      <c r="AC123">
+        <v>1.05</v>
+      </c>
+      <c r="AD123">
+        <v>7.8</v>
+      </c>
+      <c r="AE123">
+        <v>1.25</v>
+      </c>
+      <c r="AF123">
+        <v>3.6</v>
+      </c>
+      <c r="AG123">
+        <v>1.72</v>
+      </c>
+      <c r="AH123">
+        <v>1.93</v>
+      </c>
+      <c r="AI123">
+        <v>1.68</v>
+      </c>
+      <c r="AJ123">
+        <v>2.1</v>
+      </c>
+      <c r="AK123">
+        <v>1.7</v>
+      </c>
+      <c r="AL123">
+        <v>1.25</v>
+      </c>
+      <c r="AM123">
+        <v>1.33</v>
+      </c>
+      <c r="AN123">
+        <v>0.57</v>
+      </c>
+      <c r="AO123">
+        <v>1.88</v>
+      </c>
+      <c r="AP123">
+        <v>0.63</v>
+      </c>
+      <c r="AQ123">
+        <v>1.78</v>
+      </c>
+      <c r="AR123">
+        <v>1.27</v>
+      </c>
+      <c r="AS123">
+        <v>1.36</v>
+      </c>
+      <c r="AT123">
+        <v>2.63</v>
+      </c>
+      <c r="AU123">
+        <v>-1</v>
+      </c>
+      <c r="AV123">
+        <v>-1</v>
+      </c>
+      <c r="AW123">
+        <v>-1</v>
+      </c>
+      <c r="AX123">
+        <v>-1</v>
+      </c>
+      <c r="AY123">
+        <v>-1</v>
+      </c>
+      <c r="AZ123">
+        <v>-1</v>
+      </c>
+      <c r="BA123">
+        <v>-1</v>
+      </c>
+      <c r="BB123">
+        <v>-1</v>
+      </c>
+      <c r="BC123">
+        <v>-1</v>
+      </c>
+      <c r="BD123">
+        <v>2.21</v>
+      </c>
+      <c r="BE123">
+        <v>6.45</v>
+      </c>
+      <c r="BF123">
+        <v>2.01</v>
+      </c>
+      <c r="BG123">
+        <v>1.18</v>
+      </c>
+      <c r="BH123">
+        <v>4.15</v>
+      </c>
+      <c r="BI123">
+        <v>1.35</v>
+      </c>
+      <c r="BJ123">
+        <v>2.84</v>
+      </c>
+      <c r="BK123">
+        <v>1.68</v>
+      </c>
+      <c r="BL123">
+        <v>2.15</v>
+      </c>
+      <c r="BM123">
+        <v>2.09</v>
+      </c>
+      <c r="BN123">
+        <v>1.72</v>
+      </c>
+      <c r="BO123">
+        <v>2.67</v>
+      </c>
+      <c r="BP123">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="124" spans="1:68">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>7347879</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45468.35763888889</v>
+      </c>
+      <c r="F124">
+        <v>16</v>
+      </c>
+      <c r="G124" t="s">
+        <v>82</v>
+      </c>
+      <c r="H124" t="s">
+        <v>76</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124">
+        <v>3</v>
+      </c>
+      <c r="M124">
+        <v>2</v>
+      </c>
+      <c r="N124">
+        <v>5</v>
+      </c>
+      <c r="O124" t="s">
+        <v>166</v>
+      </c>
+      <c r="P124" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q124">
+        <v>3.4</v>
+      </c>
+      <c r="R124">
+        <v>2.4</v>
+      </c>
+      <c r="S124">
+        <v>2.4</v>
+      </c>
+      <c r="T124">
+        <v>1.28</v>
+      </c>
+      <c r="U124">
+        <v>3.48</v>
+      </c>
+      <c r="V124">
+        <v>2.31</v>
+      </c>
+      <c r="W124">
+        <v>1.57</v>
+      </c>
+      <c r="X124">
+        <v>5.25</v>
+      </c>
+      <c r="Y124">
+        <v>1.14</v>
+      </c>
+      <c r="Z124">
+        <v>3.6</v>
+      </c>
+      <c r="AA124">
+        <v>3.5</v>
+      </c>
+      <c r="AB124">
+        <v>1.9</v>
+      </c>
+      <c r="AC124">
+        <v>1.03</v>
+      </c>
+      <c r="AD124">
+        <v>9</v>
+      </c>
+      <c r="AE124">
+        <v>1.15</v>
+      </c>
+      <c r="AF124">
+        <v>4.5</v>
+      </c>
+      <c r="AG124">
+        <v>1.58</v>
+      </c>
+      <c r="AH124">
+        <v>2.34</v>
+      </c>
+      <c r="AI124">
+        <v>1.47</v>
+      </c>
+      <c r="AJ124">
+        <v>2.45</v>
+      </c>
+      <c r="AK124">
+        <v>1.8</v>
+      </c>
+      <c r="AL124">
+        <v>1.22</v>
+      </c>
+      <c r="AM124">
+        <v>1.27</v>
+      </c>
+      <c r="AN124">
+        <v>0.29</v>
+      </c>
+      <c r="AO124">
+        <v>1</v>
+      </c>
+      <c r="AP124">
+        <v>0.63</v>
+      </c>
+      <c r="AQ124">
+        <v>0.86</v>
+      </c>
+      <c r="AR124">
+        <v>1.28</v>
+      </c>
+      <c r="AS124">
+        <v>1.69</v>
+      </c>
+      <c r="AT124">
+        <v>2.97</v>
+      </c>
+      <c r="AU124">
+        <v>-1</v>
+      </c>
+      <c r="AV124">
+        <v>-1</v>
+      </c>
+      <c r="AW124">
+        <v>-1</v>
+      </c>
+      <c r="AX124">
+        <v>-1</v>
+      </c>
+      <c r="AY124">
+        <v>-1</v>
+      </c>
+      <c r="AZ124">
+        <v>-1</v>
+      </c>
+      <c r="BA124">
+        <v>-1</v>
+      </c>
+      <c r="BB124">
+        <v>-1</v>
+      </c>
+      <c r="BC124">
+        <v>-1</v>
+      </c>
+      <c r="BD124">
+        <v>2.44</v>
+      </c>
+      <c r="BE124">
+        <v>6.55</v>
+      </c>
+      <c r="BF124">
+        <v>1.84</v>
+      </c>
+      <c r="BG124">
+        <v>1.16</v>
+      </c>
+      <c r="BH124">
+        <v>4.4</v>
+      </c>
+      <c r="BI124">
+        <v>1.32</v>
+      </c>
+      <c r="BJ124">
+        <v>2.98</v>
+      </c>
+      <c r="BK124">
+        <v>1.64</v>
+      </c>
+      <c r="BL124">
+        <v>2.22</v>
+      </c>
+      <c r="BM124">
+        <v>2.02</v>
+      </c>
+      <c r="BN124">
+        <v>1.77</v>
+      </c>
+      <c r="BO124">
+        <v>2.54</v>
+      </c>
+      <c r="BP124">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="125" spans="1:68">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>7347880</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45468.375</v>
+      </c>
+      <c r="F125">
+        <v>16</v>
+      </c>
+      <c r="G125" t="s">
+        <v>83</v>
+      </c>
+      <c r="H125" t="s">
+        <v>72</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>2</v>
+      </c>
+      <c r="K125">
+        <v>2</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>2</v>
+      </c>
+      <c r="N125">
+        <v>2</v>
+      </c>
+      <c r="O125" t="s">
+        <v>90</v>
+      </c>
+      <c r="P125" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q125">
+        <v>6</v>
+      </c>
+      <c r="R125">
+        <v>2.8</v>
+      </c>
+      <c r="S125">
+        <v>1.65</v>
+      </c>
+      <c r="T125">
+        <v>1.2</v>
+      </c>
+      <c r="U125">
+        <v>4</v>
+      </c>
+      <c r="V125">
+        <v>1.97</v>
+      </c>
+      <c r="W125">
+        <v>1.72</v>
+      </c>
+      <c r="X125">
+        <v>4.1</v>
+      </c>
+      <c r="Y125">
+        <v>1.2</v>
+      </c>
+      <c r="Z125">
+        <v>6.95</v>
+      </c>
+      <c r="AA125">
+        <v>5</v>
+      </c>
+      <c r="AB125">
+        <v>1.32</v>
+      </c>
+      <c r="AC125">
+        <v>1.01</v>
+      </c>
+      <c r="AD125">
+        <v>28.5</v>
+      </c>
+      <c r="AE125">
+        <v>1.08</v>
+      </c>
+      <c r="AF125">
+        <v>5.8</v>
+      </c>
+      <c r="AG125">
+        <v>1.4</v>
+      </c>
+      <c r="AH125">
+        <v>2.6</v>
+      </c>
+      <c r="AI125">
+        <v>1.55</v>
+      </c>
+      <c r="AJ125">
+        <v>2.25</v>
+      </c>
+      <c r="AK125">
+        <v>2.6</v>
+      </c>
+      <c r="AL125">
+        <v>1.17</v>
+      </c>
+      <c r="AM125">
+        <v>1.08</v>
+      </c>
+      <c r="AN125">
+        <v>1</v>
+      </c>
+      <c r="AO125">
+        <v>2.5</v>
+      </c>
+      <c r="AP125">
+        <v>0.88</v>
+      </c>
+      <c r="AQ125">
+        <v>2.56</v>
+      </c>
+      <c r="AR125">
+        <v>1.79</v>
+      </c>
+      <c r="AS125">
+        <v>2.4</v>
+      </c>
+      <c r="AT125">
+        <v>4.19</v>
+      </c>
+      <c r="AU125">
+        <v>4</v>
+      </c>
+      <c r="AV125">
+        <v>7</v>
+      </c>
+      <c r="AW125">
+        <v>6</v>
+      </c>
+      <c r="AX125">
+        <v>7</v>
+      </c>
+      <c r="AY125">
+        <v>10</v>
+      </c>
+      <c r="AZ125">
+        <v>14</v>
+      </c>
+      <c r="BA125">
+        <v>2</v>
+      </c>
+      <c r="BB125">
+        <v>7</v>
+      </c>
+      <c r="BC125">
+        <v>9</v>
+      </c>
+      <c r="BD125">
+        <v>5.75</v>
+      </c>
+      <c r="BE125">
+        <v>8.9</v>
+      </c>
+      <c r="BF125">
+        <v>1.22</v>
+      </c>
+      <c r="BG125">
+        <v>1.16</v>
+      </c>
+      <c r="BH125">
+        <v>4.35</v>
+      </c>
+      <c r="BI125">
+        <v>1.33</v>
+      </c>
+      <c r="BJ125">
+        <v>2.93</v>
+      </c>
+      <c r="BK125">
+        <v>1.62</v>
+      </c>
+      <c r="BL125">
+        <v>2.23</v>
+      </c>
+      <c r="BM125">
+        <v>2</v>
+      </c>
+      <c r="BN125">
+        <v>1.79</v>
+      </c>
+      <c r="BO125">
+        <v>2.5</v>
+      </c>
+      <c r="BP125">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="251">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -517,6 +517,18 @@
     <t>['69', '83', '90+7']</t>
   </si>
   <si>
+    <t>['8', '49', '88']</t>
+  </si>
+  <si>
+    <t>['10', '70']</t>
+  </si>
+  <si>
+    <t>['45+4']</t>
+  </si>
+  <si>
+    <t>['17', '32', '84', '90+6']</t>
+  </si>
+  <si>
     <t>['81', '90+3']</t>
   </si>
   <si>
@@ -749,6 +761,12 @@
   </si>
   <si>
     <t>['14', '36']</t>
+  </si>
+  <si>
+    <t>['26', '44']</t>
+  </si>
+  <si>
+    <t>['7', '26', '51', '65', '80']</t>
   </si>
 </sst>
 </file>
@@ -1110,7 +1128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP125"/>
+  <dimension ref="A1:BP129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1369,7 +1387,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1575,7 +1593,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -2193,7 +2211,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2811,7 +2829,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -3095,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -3301,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ11">
         <v>0.88</v>
@@ -3429,7 +3447,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -3510,7 +3528,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ12">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4047,7 +4065,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4334,7 +4352,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ16">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR16">
         <v>1.14</v>
@@ -4459,7 +4477,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4665,7 +4683,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4746,7 +4764,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ18">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR18">
         <v>1.67</v>
@@ -4871,7 +4889,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5695,7 +5713,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -5773,7 +5791,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ23">
         <v>1.78</v>
@@ -5901,7 +5919,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6107,7 +6125,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6313,7 +6331,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6394,7 +6412,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ26">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR26">
         <v>0.87</v>
@@ -6519,7 +6537,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -6597,7 +6615,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ27">
         <v>2.5</v>
@@ -6725,7 +6743,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6931,7 +6949,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -7009,10 +7027,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ29">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR29">
         <v>1.72</v>
@@ -7137,7 +7155,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7215,7 +7233,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ30">
         <v>2.56</v>
@@ -7424,7 +7442,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ31">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR31">
         <v>1.04</v>
@@ -7549,7 +7567,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7630,7 +7648,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ32">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR32">
         <v>1.5</v>
@@ -7755,7 +7773,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q33">
         <v>1.73</v>
@@ -7961,7 +7979,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q34">
         <v>6.4</v>
@@ -8167,7 +8185,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q35">
         <v>1.96</v>
@@ -8373,7 +8391,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q36">
         <v>1.98</v>
@@ -8451,7 +8469,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ36">
         <v>1.38</v>
@@ -8579,7 +8597,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -8657,7 +8675,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ37">
         <v>1.38</v>
@@ -8785,7 +8803,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q38">
         <v>3.25</v>
@@ -9609,7 +9627,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9815,7 +9833,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q43">
         <v>2.3</v>
@@ -9893,7 +9911,7 @@
         <v>2.33</v>
       </c>
       <c r="AP43">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ43">
         <v>1.67</v>
@@ -10021,7 +10039,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q44">
         <v>4.75</v>
@@ -10099,10 +10117,10 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ44">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR44">
         <v>1.03</v>
@@ -10308,7 +10326,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ45">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR45">
         <v>1.43</v>
@@ -10433,7 +10451,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10514,7 +10532,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ46">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR46">
         <v>1.97</v>
@@ -10639,7 +10657,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10923,7 +10941,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ48">
         <v>0.86</v>
@@ -11257,7 +11275,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11463,7 +11481,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11544,7 +11562,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ51">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR51">
         <v>1.89</v>
@@ -11669,7 +11687,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q52">
         <v>1.83</v>
@@ -12081,7 +12099,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q54">
         <v>7.5</v>
@@ -12571,7 +12589,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ56">
         <v>0.88</v>
@@ -12699,7 +12717,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12905,7 +12923,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q58">
         <v>2.8</v>
@@ -13111,7 +13129,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q59">
         <v>3.15</v>
@@ -13317,7 +13335,7 @@
         <v>106</v>
       </c>
       <c r="P60" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13523,7 +13541,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q61">
         <v>3.11</v>
@@ -13807,10 +13825,10 @@
         <v>0.67</v>
       </c>
       <c r="AP62">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ62">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR62">
         <v>0.98</v>
@@ -13935,7 +13953,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q63">
         <v>2.75</v>
@@ -14016,7 +14034,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ63">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR63">
         <v>1.51</v>
@@ -14347,7 +14365,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q65">
         <v>1.8</v>
@@ -14759,7 +14777,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q67">
         <v>2.38</v>
@@ -14965,7 +14983,7 @@
         <v>127</v>
       </c>
       <c r="P68" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15249,7 +15267,7 @@
         <v>1.5</v>
       </c>
       <c r="AP69">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ69">
         <v>1.38</v>
@@ -15377,7 +15395,7 @@
         <v>90</v>
       </c>
       <c r="P70" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q70">
         <v>5.5</v>
@@ -15455,7 +15473,7 @@
         <v>1.67</v>
       </c>
       <c r="AP70">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ70">
         <v>2.56</v>
@@ -15583,7 +15601,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q71">
         <v>2.45</v>
@@ -15867,10 +15885,10 @@
         <v>1.33</v>
       </c>
       <c r="AP72">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ72">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR72">
         <v>2.16</v>
@@ -16076,7 +16094,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ73">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR73">
         <v>1.06</v>
@@ -16201,7 +16219,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q74">
         <v>2.65</v>
@@ -16407,7 +16425,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -16691,7 +16709,7 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ76">
         <v>0.86</v>
@@ -16819,7 +16837,7 @@
         <v>133</v>
       </c>
       <c r="P77" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -16900,7 +16918,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ77">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR77">
         <v>1.1</v>
@@ -17231,7 +17249,7 @@
         <v>135</v>
       </c>
       <c r="P79" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17309,10 +17327,10 @@
         <v>2</v>
       </c>
       <c r="AP79">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ79">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR79">
         <v>2.06</v>
@@ -17437,7 +17455,7 @@
         <v>90</v>
       </c>
       <c r="P80" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -17643,7 +17661,7 @@
         <v>136</v>
       </c>
       <c r="P81" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17721,7 +17739,7 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ81">
         <v>0.75</v>
@@ -17849,7 +17867,7 @@
         <v>137</v>
       </c>
       <c r="P82" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q82">
         <v>1.91</v>
@@ -18055,7 +18073,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q83">
         <v>1.62</v>
@@ -18467,7 +18485,7 @@
         <v>99</v>
       </c>
       <c r="P85" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18548,7 +18566,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ85">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR85">
         <v>1.84</v>
@@ -18673,7 +18691,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q86">
         <v>1.83</v>
@@ -18751,10 +18769,10 @@
         <v>1.25</v>
       </c>
       <c r="AP86">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ86">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR86">
         <v>1.8</v>
@@ -18879,7 +18897,7 @@
         <v>90</v>
       </c>
       <c r="P87" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -19085,7 +19103,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19369,7 +19387,7 @@
         <v>0.67</v>
       </c>
       <c r="AP89">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ89">
         <v>0.88</v>
@@ -19497,7 +19515,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q90">
         <v>1.61</v>
@@ -19703,7 +19721,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q91">
         <v>1.8</v>
@@ -19909,7 +19927,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q92">
         <v>3.8</v>
@@ -20115,7 +20133,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q93">
         <v>2.55</v>
@@ -20321,7 +20339,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q94">
         <v>4.5</v>
@@ -20402,7 +20420,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ94">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR94">
         <v>1.27</v>
@@ -20527,7 +20545,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q95">
         <v>4.5</v>
@@ -20605,7 +20623,7 @@
         <v>2.33</v>
       </c>
       <c r="AP95">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ95">
         <v>1.67</v>
@@ -20733,7 +20751,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q96">
         <v>9</v>
@@ -21145,7 +21163,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q98">
         <v>4.63</v>
@@ -21223,7 +21241,7 @@
         <v>2</v>
       </c>
       <c r="AP98">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ98">
         <v>1.67</v>
@@ -21351,7 +21369,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q99">
         <v>2.31</v>
@@ -21557,7 +21575,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21763,7 +21781,7 @@
         <v>151</v>
       </c>
       <c r="P101" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q101">
         <v>2.43</v>
@@ -21844,7 +21862,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ101">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR101">
         <v>1.06</v>
@@ -21969,7 +21987,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -22050,7 +22068,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ102">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR102">
         <v>1.58</v>
@@ -22175,7 +22193,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -22462,7 +22480,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ104">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR104">
         <v>2.01</v>
@@ -22874,7 +22892,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ106">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR106">
         <v>1.74</v>
@@ -23205,7 +23223,7 @@
         <v>156</v>
       </c>
       <c r="P108" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q108">
         <v>3.4</v>
@@ -23283,7 +23301,7 @@
         <v>2.14</v>
       </c>
       <c r="AP108">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ108">
         <v>1.78</v>
@@ -23411,7 +23429,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q109">
         <v>1.95</v>
@@ -23489,7 +23507,7 @@
         <v>0.86</v>
       </c>
       <c r="AP109">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ109">
         <v>0.75</v>
@@ -23695,7 +23713,7 @@
         <v>0.83</v>
       </c>
       <c r="AP110">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ110">
         <v>0.86</v>
@@ -24029,7 +24047,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q112">
         <v>1.73</v>
@@ -24110,7 +24128,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ112">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR112">
         <v>1.97</v>
@@ -24316,7 +24334,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ113">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR113">
         <v>1.3</v>
@@ -24441,7 +24459,7 @@
         <v>90</v>
       </c>
       <c r="P114" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -24647,7 +24665,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -24853,7 +24871,7 @@
         <v>160</v>
       </c>
       <c r="P116" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q116">
         <v>1.95</v>
@@ -25059,7 +25077,7 @@
         <v>161</v>
       </c>
       <c r="P117" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q117">
         <v>3.1</v>
@@ -25265,7 +25283,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q118">
         <v>3.75</v>
@@ -25471,7 +25489,7 @@
         <v>162</v>
       </c>
       <c r="P119" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -25549,10 +25567,10 @@
         <v>1.5</v>
       </c>
       <c r="AP119">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ119">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR119">
         <v>2.45</v>
@@ -25677,7 +25695,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q120">
         <v>3.6</v>
@@ -25883,7 +25901,7 @@
         <v>163</v>
       </c>
       <c r="P121" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26295,7 +26313,7 @@
         <v>165</v>
       </c>
       <c r="P123" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q123">
         <v>3.6</v>
@@ -26388,31 +26406,31 @@
         <v>2.63</v>
       </c>
       <c r="AU123">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV123">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW123">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX123">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY123">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AZ123">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BA123">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BB123">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BC123">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD123">
         <v>2.21</v>
@@ -26501,7 +26519,7 @@
         <v>166</v>
       </c>
       <c r="P124" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26594,31 +26612,31 @@
         <v>2.97</v>
       </c>
       <c r="AU124">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV124">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AW124">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AX124">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY124">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="AZ124">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BA124">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB124">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BC124">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD124">
         <v>2.44</v>
@@ -26707,7 +26725,7 @@
         <v>90</v>
       </c>
       <c r="P125" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -26864,6 +26882,830 @@
       </c>
       <c r="BP125">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:68">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>7347881</v>
+      </c>
+      <c r="C126" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45469.33333333334</v>
+      </c>
+      <c r="F126">
+        <v>16</v>
+      </c>
+      <c r="G126" t="s">
+        <v>79</v>
+      </c>
+      <c r="H126" t="s">
+        <v>77</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126">
+        <v>3</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>3</v>
+      </c>
+      <c r="O126" t="s">
+        <v>167</v>
+      </c>
+      <c r="P126" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q126">
+        <v>1.57</v>
+      </c>
+      <c r="R126">
+        <v>2.75</v>
+      </c>
+      <c r="S126">
+        <v>12</v>
+      </c>
+      <c r="T126">
+        <v>1.29</v>
+      </c>
+      <c r="U126">
+        <v>3.5</v>
+      </c>
+      <c r="V126">
+        <v>2.25</v>
+      </c>
+      <c r="W126">
+        <v>1.57</v>
+      </c>
+      <c r="X126">
+        <v>5.5</v>
+      </c>
+      <c r="Y126">
+        <v>1.14</v>
+      </c>
+      <c r="Z126">
+        <v>1.1</v>
+      </c>
+      <c r="AA126">
+        <v>8.5</v>
+      </c>
+      <c r="AB126">
+        <v>19</v>
+      </c>
+      <c r="AC126">
+        <v>1.02</v>
+      </c>
+      <c r="AD126">
+        <v>12</v>
+      </c>
+      <c r="AE126">
+        <v>1.15</v>
+      </c>
+      <c r="AF126">
+        <v>4.5</v>
+      </c>
+      <c r="AG126">
+        <v>1.53</v>
+      </c>
+      <c r="AH126">
+        <v>2.23</v>
+      </c>
+      <c r="AI126">
+        <v>2.38</v>
+      </c>
+      <c r="AJ126">
+        <v>1.53</v>
+      </c>
+      <c r="AK126">
+        <v>1.01</v>
+      </c>
+      <c r="AL126">
+        <v>1.08</v>
+      </c>
+      <c r="AM126">
+        <v>4.95</v>
+      </c>
+      <c r="AN126">
+        <v>2.43</v>
+      </c>
+      <c r="AO126">
+        <v>1.33</v>
+      </c>
+      <c r="AP126">
+        <v>2.5</v>
+      </c>
+      <c r="AQ126">
+        <v>1.14</v>
+      </c>
+      <c r="AR126">
+        <v>2.25</v>
+      </c>
+      <c r="AS126">
+        <v>1.1</v>
+      </c>
+      <c r="AT126">
+        <v>3.35</v>
+      </c>
+      <c r="AU126">
+        <v>9</v>
+      </c>
+      <c r="AV126">
+        <v>3</v>
+      </c>
+      <c r="AW126">
+        <v>7</v>
+      </c>
+      <c r="AX126">
+        <v>4</v>
+      </c>
+      <c r="AY126">
+        <v>16</v>
+      </c>
+      <c r="AZ126">
+        <v>7</v>
+      </c>
+      <c r="BA126">
+        <v>7</v>
+      </c>
+      <c r="BB126">
+        <v>3</v>
+      </c>
+      <c r="BC126">
+        <v>10</v>
+      </c>
+      <c r="BD126">
+        <v>1.17</v>
+      </c>
+      <c r="BE126">
+        <v>11</v>
+      </c>
+      <c r="BF126">
+        <v>6</v>
+      </c>
+      <c r="BG126">
+        <v>1.2</v>
+      </c>
+      <c r="BH126">
+        <v>3.9</v>
+      </c>
+      <c r="BI126">
+        <v>1.39</v>
+      </c>
+      <c r="BJ126">
+        <v>2.67</v>
+      </c>
+      <c r="BK126">
+        <v>1.85</v>
+      </c>
+      <c r="BL126">
+        <v>1.85</v>
+      </c>
+      <c r="BM126">
+        <v>2.12</v>
+      </c>
+      <c r="BN126">
+        <v>1.61</v>
+      </c>
+      <c r="BO126">
+        <v>2.84</v>
+      </c>
+      <c r="BP126">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="127" spans="1:68">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>7347882</v>
+      </c>
+      <c r="C127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45469.35763888889</v>
+      </c>
+      <c r="F127">
+        <v>16</v>
+      </c>
+      <c r="G127" t="s">
+        <v>84</v>
+      </c>
+      <c r="H127" t="s">
+        <v>70</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>2</v>
+      </c>
+      <c r="K127">
+        <v>3</v>
+      </c>
+      <c r="L127">
+        <v>2</v>
+      </c>
+      <c r="M127">
+        <v>2</v>
+      </c>
+      <c r="N127">
+        <v>4</v>
+      </c>
+      <c r="O127" t="s">
+        <v>168</v>
+      </c>
+      <c r="P127" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q127">
+        <v>4.75</v>
+      </c>
+      <c r="R127">
+        <v>2.5</v>
+      </c>
+      <c r="S127">
+        <v>2.2</v>
+      </c>
+      <c r="T127">
+        <v>1.29</v>
+      </c>
+      <c r="U127">
+        <v>3.5</v>
+      </c>
+      <c r="V127">
+        <v>2.25</v>
+      </c>
+      <c r="W127">
+        <v>1.57</v>
+      </c>
+      <c r="X127">
+        <v>5.5</v>
+      </c>
+      <c r="Y127">
+        <v>1.14</v>
+      </c>
+      <c r="Z127">
+        <v>4.5</v>
+      </c>
+      <c r="AA127">
+        <v>4</v>
+      </c>
+      <c r="AB127">
+        <v>1.62</v>
+      </c>
+      <c r="AC127">
+        <v>1.03</v>
+      </c>
+      <c r="AD127">
+        <v>12</v>
+      </c>
+      <c r="AE127">
+        <v>1.17</v>
+      </c>
+      <c r="AF127">
+        <v>4.5</v>
+      </c>
+      <c r="AG127">
+        <v>1.6</v>
+      </c>
+      <c r="AH127">
+        <v>2.2</v>
+      </c>
+      <c r="AI127">
+        <v>1.62</v>
+      </c>
+      <c r="AJ127">
+        <v>2.2</v>
+      </c>
+      <c r="AK127">
+        <v>2.26</v>
+      </c>
+      <c r="AL127">
+        <v>1.21</v>
+      </c>
+      <c r="AM127">
+        <v>1.16</v>
+      </c>
+      <c r="AN127">
+        <v>0.71</v>
+      </c>
+      <c r="AO127">
+        <v>1.71</v>
+      </c>
+      <c r="AP127">
+        <v>0.75</v>
+      </c>
+      <c r="AQ127">
+        <v>1.63</v>
+      </c>
+      <c r="AR127">
+        <v>1.13</v>
+      </c>
+      <c r="AS127">
+        <v>1.65</v>
+      </c>
+      <c r="AT127">
+        <v>2.78</v>
+      </c>
+      <c r="AU127">
+        <v>-1</v>
+      </c>
+      <c r="AV127">
+        <v>-1</v>
+      </c>
+      <c r="AW127">
+        <v>-1</v>
+      </c>
+      <c r="AX127">
+        <v>-1</v>
+      </c>
+      <c r="AY127">
+        <v>-1</v>
+      </c>
+      <c r="AZ127">
+        <v>-1</v>
+      </c>
+      <c r="BA127">
+        <v>-1</v>
+      </c>
+      <c r="BB127">
+        <v>-1</v>
+      </c>
+      <c r="BC127">
+        <v>-1</v>
+      </c>
+      <c r="BD127">
+        <v>3.4</v>
+      </c>
+      <c r="BE127">
+        <v>8.5</v>
+      </c>
+      <c r="BF127">
+        <v>1.4</v>
+      </c>
+      <c r="BG127">
+        <v>1.28</v>
+      </c>
+      <c r="BH127">
+        <v>3.18</v>
+      </c>
+      <c r="BI127">
+        <v>1.7</v>
+      </c>
+      <c r="BJ127">
+        <v>2.05</v>
+      </c>
+      <c r="BK127">
+        <v>2.05</v>
+      </c>
+      <c r="BL127">
+        <v>1.7</v>
+      </c>
+      <c r="BM127">
+        <v>2.51</v>
+      </c>
+      <c r="BN127">
+        <v>1.44</v>
+      </c>
+      <c r="BO127">
+        <v>3.42</v>
+      </c>
+      <c r="BP127">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>7347883</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45469.35763888889</v>
+      </c>
+      <c r="F128">
+        <v>16</v>
+      </c>
+      <c r="G128" t="s">
+        <v>78</v>
+      </c>
+      <c r="H128" t="s">
+        <v>75</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>2</v>
+      </c>
+      <c r="K128">
+        <v>3</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+      <c r="M128">
+        <v>5</v>
+      </c>
+      <c r="N128">
+        <v>6</v>
+      </c>
+      <c r="O128" t="s">
+        <v>169</v>
+      </c>
+      <c r="P128" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q128">
+        <v>5.5</v>
+      </c>
+      <c r="R128">
+        <v>2.38</v>
+      </c>
+      <c r="S128">
+        <v>2.1</v>
+      </c>
+      <c r="T128">
+        <v>1.33</v>
+      </c>
+      <c r="U128">
+        <v>3.25</v>
+      </c>
+      <c r="V128">
+        <v>2.63</v>
+      </c>
+      <c r="W128">
+        <v>1.44</v>
+      </c>
+      <c r="X128">
+        <v>6.5</v>
+      </c>
+      <c r="Y128">
+        <v>1.11</v>
+      </c>
+      <c r="Z128">
+        <v>4.95</v>
+      </c>
+      <c r="AA128">
+        <v>3.87</v>
+      </c>
+      <c r="AB128">
+        <v>1.67</v>
+      </c>
+      <c r="AC128">
+        <v>1.01</v>
+      </c>
+      <c r="AD128">
+        <v>9.9</v>
+      </c>
+      <c r="AE128">
+        <v>1.23</v>
+      </c>
+      <c r="AF128">
+        <v>3.56</v>
+      </c>
+      <c r="AG128">
+        <v>1.85</v>
+      </c>
+      <c r="AH128">
+        <v>1.97</v>
+      </c>
+      <c r="AI128">
+        <v>1.8</v>
+      </c>
+      <c r="AJ128">
+        <v>1.95</v>
+      </c>
+      <c r="AK128">
+        <v>2.17</v>
+      </c>
+      <c r="AL128">
+        <v>1.24</v>
+      </c>
+      <c r="AM128">
+        <v>1.16</v>
+      </c>
+      <c r="AN128">
+        <v>1.14</v>
+      </c>
+      <c r="AO128">
+        <v>1.43</v>
+      </c>
+      <c r="AP128">
+        <v>1</v>
+      </c>
+      <c r="AQ128">
+        <v>1.63</v>
+      </c>
+      <c r="AR128">
+        <v>1.48</v>
+      </c>
+      <c r="AS128">
+        <v>1.5</v>
+      </c>
+      <c r="AT128">
+        <v>2.98</v>
+      </c>
+      <c r="AU128">
+        <v>-1</v>
+      </c>
+      <c r="AV128">
+        <v>-1</v>
+      </c>
+      <c r="AW128">
+        <v>-1</v>
+      </c>
+      <c r="AX128">
+        <v>-1</v>
+      </c>
+      <c r="AY128">
+        <v>-1</v>
+      </c>
+      <c r="AZ128">
+        <v>-1</v>
+      </c>
+      <c r="BA128">
+        <v>-1</v>
+      </c>
+      <c r="BB128">
+        <v>-1</v>
+      </c>
+      <c r="BC128">
+        <v>-1</v>
+      </c>
+      <c r="BD128">
+        <v>3.4</v>
+      </c>
+      <c r="BE128">
+        <v>8.5</v>
+      </c>
+      <c r="BF128">
+        <v>1.44</v>
+      </c>
+      <c r="BG128">
+        <v>1.22</v>
+      </c>
+      <c r="BH128">
+        <v>3.65</v>
+      </c>
+      <c r="BI128">
+        <v>1.43</v>
+      </c>
+      <c r="BJ128">
+        <v>2.62</v>
+      </c>
+      <c r="BK128">
+        <v>1.91</v>
+      </c>
+      <c r="BL128">
+        <v>1.8</v>
+      </c>
+      <c r="BM128">
+        <v>2.27</v>
+      </c>
+      <c r="BN128">
+        <v>1.56</v>
+      </c>
+      <c r="BO128">
+        <v>3.05</v>
+      </c>
+      <c r="BP128">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>7347884</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45469.375</v>
+      </c>
+      <c r="F129">
+        <v>16</v>
+      </c>
+      <c r="G129" t="s">
+        <v>85</v>
+      </c>
+      <c r="H129" t="s">
+        <v>74</v>
+      </c>
+      <c r="I129">
+        <v>2</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>2</v>
+      </c>
+      <c r="L129">
+        <v>4</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>4</v>
+      </c>
+      <c r="O129" t="s">
+        <v>170</v>
+      </c>
+      <c r="P129" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q129">
+        <v>1.67</v>
+      </c>
+      <c r="R129">
+        <v>2.88</v>
+      </c>
+      <c r="S129">
+        <v>7.5</v>
+      </c>
+      <c r="T129">
+        <v>1.22</v>
+      </c>
+      <c r="U129">
+        <v>4</v>
+      </c>
+      <c r="V129">
+        <v>2.1</v>
+      </c>
+      <c r="W129">
+        <v>1.67</v>
+      </c>
+      <c r="X129">
+        <v>4.5</v>
+      </c>
+      <c r="Y129">
+        <v>1.18</v>
+      </c>
+      <c r="Z129">
+        <v>1.22</v>
+      </c>
+      <c r="AA129">
+        <v>6</v>
+      </c>
+      <c r="AB129">
+        <v>10</v>
+      </c>
+      <c r="AC129">
+        <v>1.01</v>
+      </c>
+      <c r="AD129">
+        <v>27</v>
+      </c>
+      <c r="AE129">
+        <v>1.1</v>
+      </c>
+      <c r="AF129">
+        <v>5.55</v>
+      </c>
+      <c r="AG129">
+        <v>1.37</v>
+      </c>
+      <c r="AH129">
+        <v>2.69</v>
+      </c>
+      <c r="AI129">
+        <v>1.8</v>
+      </c>
+      <c r="AJ129">
+        <v>1.95</v>
+      </c>
+      <c r="AK129">
+        <v>1.04</v>
+      </c>
+      <c r="AL129">
+        <v>1.11</v>
+      </c>
+      <c r="AM129">
+        <v>3.64</v>
+      </c>
+      <c r="AN129">
+        <v>2.17</v>
+      </c>
+      <c r="AO129">
+        <v>0.86</v>
+      </c>
+      <c r="AP129">
+        <v>2.29</v>
+      </c>
+      <c r="AQ129">
+        <v>0.75</v>
+      </c>
+      <c r="AR129">
+        <v>1.86</v>
+      </c>
+      <c r="AS129">
+        <v>0.96</v>
+      </c>
+      <c r="AT129">
+        <v>2.82</v>
+      </c>
+      <c r="AU129">
+        <v>-1</v>
+      </c>
+      <c r="AV129">
+        <v>-1</v>
+      </c>
+      <c r="AW129">
+        <v>-1</v>
+      </c>
+      <c r="AX129">
+        <v>-1</v>
+      </c>
+      <c r="AY129">
+        <v>-1</v>
+      </c>
+      <c r="AZ129">
+        <v>-1</v>
+      </c>
+      <c r="BA129">
+        <v>-1</v>
+      </c>
+      <c r="BB129">
+        <v>-1</v>
+      </c>
+      <c r="BC129">
+        <v>-1</v>
+      </c>
+      <c r="BD129">
+        <v>1.09</v>
+      </c>
+      <c r="BE129">
+        <v>13</v>
+      </c>
+      <c r="BF129">
+        <v>8</v>
+      </c>
+      <c r="BG129">
+        <v>1.19</v>
+      </c>
+      <c r="BH129">
+        <v>3.92</v>
+      </c>
+      <c r="BI129">
+        <v>1.38</v>
+      </c>
+      <c r="BJ129">
+        <v>2.71</v>
+      </c>
+      <c r="BK129">
+        <v>1.88</v>
+      </c>
+      <c r="BL129">
+        <v>1.92</v>
+      </c>
+      <c r="BM129">
+        <v>2.12</v>
+      </c>
+      <c r="BN129">
+        <v>1.61</v>
+      </c>
+      <c r="BO129">
+        <v>2.79</v>
+      </c>
+      <c r="BP129">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -27230,31 +27230,31 @@
         <v>2.78</v>
       </c>
       <c r="AU127">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV127">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW127">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX127">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY127">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AZ127">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BA127">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BB127">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BC127">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BD127">
         <v>3.4</v>
@@ -27436,31 +27436,31 @@
         <v>2.98</v>
       </c>
       <c r="AU128">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV128">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AW128">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AX128">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AY128">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AZ128">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="BA128">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BB128">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BC128">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BD128">
         <v>3.4</v>
@@ -27642,31 +27642,31 @@
         <v>2.82</v>
       </c>
       <c r="AU129">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV129">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW129">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX129">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY129">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AZ129">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BA129">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB129">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC129">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BD129">
         <v>1.09</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="255">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -529,6 +529,15 @@
     <t>['17', '32', '84', '90+6']</t>
   </si>
   <si>
+    <t>['90+9']</t>
+  </si>
+  <si>
+    <t>['19', '67', '82']</t>
+  </si>
+  <si>
+    <t>['19', '51', '64']</t>
+  </si>
+  <si>
     <t>['81', '90+3']</t>
   </si>
   <si>
@@ -767,6 +776,9 @@
   </si>
   <si>
     <t>['7', '26', '51', '65', '80']</t>
+  </si>
+  <si>
+    <t>['11', '87']</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP129"/>
+  <dimension ref="A1:BP132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1387,7 +1399,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1593,7 +1605,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -1877,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ4">
         <v>1.38</v>
@@ -2083,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ5">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2211,7 +2223,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2704,7 +2716,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ8">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2829,7 +2841,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -3447,7 +3459,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -4065,7 +4077,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4477,7 +4489,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4683,7 +4695,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4889,7 +4901,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -4967,7 +4979,7 @@
         <v>2</v>
       </c>
       <c r="AP19">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ19">
         <v>1.67</v>
@@ -5176,7 +5188,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ20">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>1.66</v>
@@ -5585,7 +5597,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ22">
         <v>0.86</v>
@@ -5713,7 +5725,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -5919,7 +5931,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6125,7 +6137,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6206,7 +6218,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ25">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR25">
         <v>0.67</v>
@@ -6331,7 +6343,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6409,7 +6421,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ26">
         <v>0.75</v>
@@ -6537,7 +6549,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -6743,7 +6755,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6824,7 +6836,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ28">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR28">
         <v>2.4</v>
@@ -6949,7 +6961,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -7155,7 +7167,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7567,7 +7579,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7645,7 +7657,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ32">
         <v>1.63</v>
@@ -7773,7 +7785,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q33">
         <v>1.73</v>
@@ -7979,7 +7991,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q34">
         <v>6.4</v>
@@ -8185,7 +8197,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q35">
         <v>1.96</v>
@@ -8391,7 +8403,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q36">
         <v>1.98</v>
@@ -8472,7 +8484,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ36">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR36">
         <v>1.16</v>
@@ -8597,7 +8609,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -8803,7 +8815,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q38">
         <v>3.25</v>
@@ -9296,7 +9308,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ40">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR40">
         <v>1.36</v>
@@ -9627,7 +9639,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9708,7 +9720,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ42">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR42">
         <v>1.84</v>
@@ -9833,7 +9845,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q43">
         <v>2.3</v>
@@ -10039,7 +10051,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q44">
         <v>4.75</v>
@@ -10323,7 +10335,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ45">
         <v>1.14</v>
@@ -10451,7 +10463,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10529,7 +10541,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ46">
         <v>1.63</v>
@@ -10657,7 +10669,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10944,7 +10956,7 @@
         <v>1</v>
       </c>
       <c r="AQ48">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR48">
         <v>1.33</v>
@@ -11275,7 +11287,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11481,7 +11493,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11687,7 +11699,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q52">
         <v>1.83</v>
@@ -11768,7 +11780,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ52">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR52">
         <v>1.36</v>
@@ -11971,7 +11983,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ53">
         <v>1</v>
@@ -12099,7 +12111,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q54">
         <v>7.5</v>
@@ -12717,7 +12729,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12798,7 +12810,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ57">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR57">
         <v>1.14</v>
@@ -12923,7 +12935,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q58">
         <v>2.8</v>
@@ -13129,7 +13141,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q59">
         <v>3.15</v>
@@ -13207,7 +13219,7 @@
         <v>2.25</v>
       </c>
       <c r="AP59">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ59">
         <v>1.78</v>
@@ -13335,7 +13347,7 @@
         <v>106</v>
       </c>
       <c r="P60" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13541,7 +13553,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q61">
         <v>3.11</v>
@@ -13953,7 +13965,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q63">
         <v>2.75</v>
@@ -14237,7 +14249,7 @@
         <v>3</v>
       </c>
       <c r="AP64">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ64">
         <v>2.5</v>
@@ -14365,7 +14377,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q65">
         <v>1.8</v>
@@ -14446,7 +14458,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ65">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR65">
         <v>2.08</v>
@@ -14649,7 +14661,7 @@
         <v>2.2</v>
       </c>
       <c r="AP66">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ66">
         <v>1.67</v>
@@ -14777,7 +14789,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q67">
         <v>2.38</v>
@@ -14983,7 +14995,7 @@
         <v>127</v>
       </c>
       <c r="P68" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15270,7 +15282,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ69">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR69">
         <v>1.09</v>
@@ -15395,7 +15407,7 @@
         <v>90</v>
       </c>
       <c r="P70" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q70">
         <v>5.5</v>
@@ -15601,7 +15613,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q71">
         <v>2.45</v>
@@ -16219,7 +16231,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q74">
         <v>2.65</v>
@@ -16425,7 +16437,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -16712,7 +16724,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ76">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR76">
         <v>2.43</v>
@@ -16837,7 +16849,7 @@
         <v>133</v>
       </c>
       <c r="P77" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17121,7 +17133,7 @@
         <v>0.8</v>
       </c>
       <c r="AP78">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ78">
         <v>0.88</v>
@@ -17249,7 +17261,7 @@
         <v>135</v>
       </c>
       <c r="P79" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17455,7 +17467,7 @@
         <v>90</v>
       </c>
       <c r="P80" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -17661,7 +17673,7 @@
         <v>136</v>
       </c>
       <c r="P81" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17742,7 +17754,7 @@
         <v>1</v>
       </c>
       <c r="AQ81">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR81">
         <v>1.34</v>
@@ -17867,7 +17879,7 @@
         <v>137</v>
       </c>
       <c r="P82" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q82">
         <v>1.91</v>
@@ -18073,7 +18085,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q83">
         <v>1.62</v>
@@ -18151,7 +18163,7 @@
         <v>1.4</v>
       </c>
       <c r="AP83">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ83">
         <v>1</v>
@@ -18357,7 +18369,7 @@
         <v>2.6</v>
       </c>
       <c r="AP84">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ84">
         <v>2.5</v>
@@ -18485,7 +18497,7 @@
         <v>99</v>
       </c>
       <c r="P85" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18563,7 +18575,7 @@
         <v>1.75</v>
       </c>
       <c r="AP85">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ85">
         <v>1.63</v>
@@ -18691,7 +18703,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q86">
         <v>1.83</v>
@@ -18897,7 +18909,7 @@
         <v>90</v>
       </c>
       <c r="P87" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -18978,7 +18990,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ87">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR87">
         <v>1.16</v>
@@ -19103,7 +19115,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19515,7 +19527,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q90">
         <v>1.61</v>
@@ -19596,7 +19608,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ90">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR90">
         <v>2.05</v>
@@ -19721,7 +19733,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q91">
         <v>1.8</v>
@@ -19802,7 +19814,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ91">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR91">
         <v>1.74</v>
@@ -19927,7 +19939,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q92">
         <v>3.8</v>
@@ -20133,7 +20145,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q93">
         <v>2.55</v>
@@ -20339,7 +20351,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q94">
         <v>4.5</v>
@@ -20545,7 +20557,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q95">
         <v>4.5</v>
@@ -20751,7 +20763,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q96">
         <v>9</v>
@@ -21038,7 +21050,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ97">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR97">
         <v>1.33</v>
@@ -21163,7 +21175,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q98">
         <v>4.63</v>
@@ -21369,7 +21381,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q99">
         <v>2.31</v>
@@ -21575,7 +21587,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21781,7 +21793,7 @@
         <v>151</v>
       </c>
       <c r="P101" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q101">
         <v>2.43</v>
@@ -21987,7 +21999,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -22065,7 +22077,7 @@
         <v>2</v>
       </c>
       <c r="AP102">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ102">
         <v>1.63</v>
@@ -22193,7 +22205,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -22477,7 +22489,7 @@
         <v>1.8</v>
       </c>
       <c r="AP104">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ104">
         <v>1.63</v>
@@ -22686,7 +22698,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ105">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR105">
         <v>1.91</v>
@@ -22889,7 +22901,7 @@
         <v>1</v>
       </c>
       <c r="AP106">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ106">
         <v>1.14</v>
@@ -23223,7 +23235,7 @@
         <v>156</v>
       </c>
       <c r="P108" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q108">
         <v>3.4</v>
@@ -23429,7 +23441,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q109">
         <v>1.95</v>
@@ -23510,7 +23522,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ109">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR109">
         <v>1.9</v>
@@ -24047,7 +24059,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q112">
         <v>1.73</v>
@@ -24125,7 +24137,7 @@
         <v>1</v>
       </c>
       <c r="AP112">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ112">
         <v>0.75</v>
@@ -24459,7 +24471,7 @@
         <v>90</v>
       </c>
       <c r="P114" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -24537,7 +24549,7 @@
         <v>2.33</v>
       </c>
       <c r="AP114">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ114">
         <v>2.56</v>
@@ -24665,7 +24677,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -24746,7 +24758,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ115">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR115">
         <v>1.37</v>
@@ -24871,7 +24883,7 @@
         <v>160</v>
       </c>
       <c r="P116" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q116">
         <v>1.95</v>
@@ -25077,7 +25089,7 @@
         <v>161</v>
       </c>
       <c r="P117" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q117">
         <v>3.1</v>
@@ -25283,7 +25295,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q118">
         <v>3.75</v>
@@ -25489,7 +25501,7 @@
         <v>162</v>
       </c>
       <c r="P119" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -25695,7 +25707,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q120">
         <v>3.6</v>
@@ -25901,7 +25913,7 @@
         <v>163</v>
       </c>
       <c r="P121" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26313,7 +26325,7 @@
         <v>165</v>
       </c>
       <c r="P123" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q123">
         <v>3.6</v>
@@ -26519,7 +26531,7 @@
         <v>166</v>
       </c>
       <c r="P124" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26600,7 +26612,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ124">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR124">
         <v>1.28</v>
@@ -26725,7 +26737,7 @@
         <v>90</v>
       </c>
       <c r="P125" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -26803,7 +26815,7 @@
         <v>2.5</v>
       </c>
       <c r="AP125">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ125">
         <v>2.56</v>
@@ -27137,7 +27149,7 @@
         <v>168</v>
       </c>
       <c r="P127" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q127">
         <v>4.75</v>
@@ -27343,7 +27355,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q128">
         <v>5.5</v>
@@ -27706,6 +27718,624 @@
       </c>
       <c r="BP129">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="130" spans="1:68">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>7347885</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45472.33333333334</v>
+      </c>
+      <c r="F130">
+        <v>17</v>
+      </c>
+      <c r="G130" t="s">
+        <v>83</v>
+      </c>
+      <c r="H130" t="s">
+        <v>81</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>2</v>
+      </c>
+      <c r="N130">
+        <v>3</v>
+      </c>
+      <c r="O130" t="s">
+        <v>171</v>
+      </c>
+      <c r="P130" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q130">
+        <v>2.2</v>
+      </c>
+      <c r="R130">
+        <v>2.35</v>
+      </c>
+      <c r="S130">
+        <v>4.33</v>
+      </c>
+      <c r="T130">
+        <v>1.3</v>
+      </c>
+      <c r="U130">
+        <v>3.25</v>
+      </c>
+      <c r="V130">
+        <v>2.45</v>
+      </c>
+      <c r="W130">
+        <v>1.49</v>
+      </c>
+      <c r="X130">
+        <v>5.45</v>
+      </c>
+      <c r="Y130">
+        <v>1.12</v>
+      </c>
+      <c r="Z130">
+        <v>1.7</v>
+      </c>
+      <c r="AA130">
+        <v>4</v>
+      </c>
+      <c r="AB130">
+        <v>4.33</v>
+      </c>
+      <c r="AC130">
+        <v>1.03</v>
+      </c>
+      <c r="AD130">
+        <v>10</v>
+      </c>
+      <c r="AE130">
+        <v>1.22</v>
+      </c>
+      <c r="AF130">
+        <v>4.2</v>
+      </c>
+      <c r="AG130">
+        <v>1.74</v>
+      </c>
+      <c r="AH130">
+        <v>2.1</v>
+      </c>
+      <c r="AI130">
+        <v>1.68</v>
+      </c>
+      <c r="AJ130">
+        <v>2.1</v>
+      </c>
+      <c r="AK130">
+        <v>1.16</v>
+      </c>
+      <c r="AL130">
+        <v>1.18</v>
+      </c>
+      <c r="AM130">
+        <v>2.15</v>
+      </c>
+      <c r="AN130">
+        <v>0.88</v>
+      </c>
+      <c r="AO130">
+        <v>0.75</v>
+      </c>
+      <c r="AP130">
+        <v>0.78</v>
+      </c>
+      <c r="AQ130">
+        <v>1</v>
+      </c>
+      <c r="AR130">
+        <v>1.73</v>
+      </c>
+      <c r="AS130">
+        <v>1.27</v>
+      </c>
+      <c r="AT130">
+        <v>3</v>
+      </c>
+      <c r="AU130">
+        <v>-1</v>
+      </c>
+      <c r="AV130">
+        <v>-1</v>
+      </c>
+      <c r="AW130">
+        <v>-1</v>
+      </c>
+      <c r="AX130">
+        <v>-1</v>
+      </c>
+      <c r="AY130">
+        <v>-1</v>
+      </c>
+      <c r="AZ130">
+        <v>-1</v>
+      </c>
+      <c r="BA130">
+        <v>-1</v>
+      </c>
+      <c r="BB130">
+        <v>-1</v>
+      </c>
+      <c r="BC130">
+        <v>-1</v>
+      </c>
+      <c r="BD130">
+        <v>1.8</v>
+      </c>
+      <c r="BE130">
+        <v>8</v>
+      </c>
+      <c r="BF130">
+        <v>2.3</v>
+      </c>
+      <c r="BG130">
+        <v>1.2</v>
+      </c>
+      <c r="BH130">
+        <v>3.9</v>
+      </c>
+      <c r="BI130">
+        <v>1.39</v>
+      </c>
+      <c r="BJ130">
+        <v>2.67</v>
+      </c>
+      <c r="BK130">
+        <v>1.77</v>
+      </c>
+      <c r="BL130">
+        <v>1.95</v>
+      </c>
+      <c r="BM130">
+        <v>2.12</v>
+      </c>
+      <c r="BN130">
+        <v>1.61</v>
+      </c>
+      <c r="BO130">
+        <v>2.84</v>
+      </c>
+      <c r="BP130">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>7347886</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45472.35763888889</v>
+      </c>
+      <c r="F131">
+        <v>17</v>
+      </c>
+      <c r="G131" t="s">
+        <v>72</v>
+      </c>
+      <c r="H131" t="s">
+        <v>76</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="K131">
+        <v>2</v>
+      </c>
+      <c r="L131">
+        <v>3</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131">
+        <v>4</v>
+      </c>
+      <c r="O131" t="s">
+        <v>172</v>
+      </c>
+      <c r="P131" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q131">
+        <v>1.62</v>
+      </c>
+      <c r="R131">
+        <v>3</v>
+      </c>
+      <c r="S131">
+        <v>6</v>
+      </c>
+      <c r="T131">
+        <v>1.15</v>
+      </c>
+      <c r="U131">
+        <v>4.75</v>
+      </c>
+      <c r="V131">
+        <v>1.77</v>
+      </c>
+      <c r="W131">
+        <v>1.95</v>
+      </c>
+      <c r="X131">
+        <v>3.05</v>
+      </c>
+      <c r="Y131">
+        <v>1.32</v>
+      </c>
+      <c r="Z131">
+        <v>1.3</v>
+      </c>
+      <c r="AA131">
+        <v>5.5</v>
+      </c>
+      <c r="AB131">
+        <v>9</v>
+      </c>
+      <c r="AC131">
+        <v>1.01</v>
+      </c>
+      <c r="AD131">
+        <v>45</v>
+      </c>
+      <c r="AE131">
+        <v>1.06</v>
+      </c>
+      <c r="AF131">
+        <v>8</v>
+      </c>
+      <c r="AG131">
+        <v>1.21</v>
+      </c>
+      <c r="AH131">
+        <v>3.66</v>
+      </c>
+      <c r="AI131">
+        <v>1.45</v>
+      </c>
+      <c r="AJ131">
+        <v>2.4</v>
+      </c>
+      <c r="AK131">
+        <v>1.03</v>
+      </c>
+      <c r="AL131">
+        <v>1.07</v>
+      </c>
+      <c r="AM131">
+        <v>3.65</v>
+      </c>
+      <c r="AN131">
+        <v>2.71</v>
+      </c>
+      <c r="AO131">
+        <v>0.86</v>
+      </c>
+      <c r="AP131">
+        <v>2.75</v>
+      </c>
+      <c r="AQ131">
+        <v>0.75</v>
+      </c>
+      <c r="AR131">
+        <v>2.36</v>
+      </c>
+      <c r="AS131">
+        <v>1.76</v>
+      </c>
+      <c r="AT131">
+        <v>4.12</v>
+      </c>
+      <c r="AU131">
+        <v>14</v>
+      </c>
+      <c r="AV131">
+        <v>6</v>
+      </c>
+      <c r="AW131">
+        <v>3</v>
+      </c>
+      <c r="AX131">
+        <v>7</v>
+      </c>
+      <c r="AY131">
+        <v>17</v>
+      </c>
+      <c r="AZ131">
+        <v>13</v>
+      </c>
+      <c r="BA131">
+        <v>9</v>
+      </c>
+      <c r="BB131">
+        <v>3</v>
+      </c>
+      <c r="BC131">
+        <v>12</v>
+      </c>
+      <c r="BD131">
+        <v>1.22</v>
+      </c>
+      <c r="BE131">
+        <v>11</v>
+      </c>
+      <c r="BF131">
+        <v>5</v>
+      </c>
+      <c r="BG131">
+        <v>1.14</v>
+      </c>
+      <c r="BH131">
+        <v>4.55</v>
+      </c>
+      <c r="BI131">
+        <v>1.3</v>
+      </c>
+      <c r="BJ131">
+        <v>3.08</v>
+      </c>
+      <c r="BK131">
+        <v>1.82</v>
+      </c>
+      <c r="BL131">
+        <v>1.98</v>
+      </c>
+      <c r="BM131">
+        <v>1.93</v>
+      </c>
+      <c r="BN131">
+        <v>1.78</v>
+      </c>
+      <c r="BO131">
+        <v>2.45</v>
+      </c>
+      <c r="BP131">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>7347887</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45472.35763888889</v>
+      </c>
+      <c r="F132">
+        <v>17</v>
+      </c>
+      <c r="G132" t="s">
+        <v>73</v>
+      </c>
+      <c r="H132" t="s">
+        <v>82</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <v>3</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>3</v>
+      </c>
+      <c r="O132" t="s">
+        <v>173</v>
+      </c>
+      <c r="P132" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q132">
+        <v>2.4</v>
+      </c>
+      <c r="R132">
+        <v>2.15</v>
+      </c>
+      <c r="S132">
+        <v>4.2</v>
+      </c>
+      <c r="T132">
+        <v>1.35</v>
+      </c>
+      <c r="U132">
+        <v>2.95</v>
+      </c>
+      <c r="V132">
+        <v>2.6</v>
+      </c>
+      <c r="W132">
+        <v>1.44</v>
+      </c>
+      <c r="X132">
+        <v>6</v>
+      </c>
+      <c r="Y132">
+        <v>1.1</v>
+      </c>
+      <c r="Z132">
+        <v>1.9</v>
+      </c>
+      <c r="AA132">
+        <v>3.62</v>
+      </c>
+      <c r="AB132">
+        <v>3.84</v>
+      </c>
+      <c r="AC132">
+        <v>1.04</v>
+      </c>
+      <c r="AD132">
+        <v>9</v>
+      </c>
+      <c r="AE132">
+        <v>1.25</v>
+      </c>
+      <c r="AF132">
+        <v>3.75</v>
+      </c>
+      <c r="AG132">
+        <v>1.75</v>
+      </c>
+      <c r="AH132">
+        <v>2</v>
+      </c>
+      <c r="AI132">
+        <v>1.66</v>
+      </c>
+      <c r="AJ132">
+        <v>2.15</v>
+      </c>
+      <c r="AK132">
+        <v>1.22</v>
+      </c>
+      <c r="AL132">
+        <v>1.22</v>
+      </c>
+      <c r="AM132">
+        <v>1.85</v>
+      </c>
+      <c r="AN132">
+        <v>0.57</v>
+      </c>
+      <c r="AO132">
+        <v>1.38</v>
+      </c>
+      <c r="AP132">
+        <v>0.88</v>
+      </c>
+      <c r="AQ132">
+        <v>1.22</v>
+      </c>
+      <c r="AR132">
+        <v>1.5</v>
+      </c>
+      <c r="AS132">
+        <v>1.41</v>
+      </c>
+      <c r="AT132">
+        <v>2.91</v>
+      </c>
+      <c r="AU132">
+        <v>12</v>
+      </c>
+      <c r="AV132">
+        <v>4</v>
+      </c>
+      <c r="AW132">
+        <v>9</v>
+      </c>
+      <c r="AX132">
+        <v>5</v>
+      </c>
+      <c r="AY132">
+        <v>21</v>
+      </c>
+      <c r="AZ132">
+        <v>9</v>
+      </c>
+      <c r="BA132">
+        <v>9</v>
+      </c>
+      <c r="BB132">
+        <v>1</v>
+      </c>
+      <c r="BC132">
+        <v>10</v>
+      </c>
+      <c r="BD132">
+        <v>1.8</v>
+      </c>
+      <c r="BE132">
+        <v>8</v>
+      </c>
+      <c r="BF132">
+        <v>2.38</v>
+      </c>
+      <c r="BG132">
+        <v>1.16</v>
+      </c>
+      <c r="BH132">
+        <v>4.3</v>
+      </c>
+      <c r="BI132">
+        <v>1.33</v>
+      </c>
+      <c r="BJ132">
+        <v>2.93</v>
+      </c>
+      <c r="BK132">
+        <v>1.88</v>
+      </c>
+      <c r="BL132">
+        <v>1.92</v>
+      </c>
+      <c r="BM132">
+        <v>2</v>
+      </c>
+      <c r="BN132">
+        <v>1.72</v>
+      </c>
+      <c r="BO132">
+        <v>2.57</v>
+      </c>
+      <c r="BP132">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="259">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -538,6 +538,15 @@
     <t>['19', '51', '64']</t>
   </si>
   <si>
+    <t>['6', '45', '49', '84']</t>
+  </si>
+  <si>
+    <t>['37', '45+4', '56', '70', '78']</t>
+  </si>
+  <si>
+    <t>['4', '5']</t>
+  </si>
+  <si>
     <t>['81', '90+3']</t>
   </si>
   <si>
@@ -779,6 +788,9 @@
   </si>
   <si>
     <t>['11', '87']</t>
+  </si>
+  <si>
+    <t>['72', '90+6', '90+7']</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1152,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP132"/>
+  <dimension ref="A1:BP137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1399,7 +1411,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1605,7 +1617,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -1683,10 +1695,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ3">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2223,7 +2235,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2507,10 +2519,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ7">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2841,7 +2853,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -2919,10 +2931,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ9">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3459,7 +3471,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -4077,7 +4089,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4489,7 +4501,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4695,7 +4707,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4776,7 +4788,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ18">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR18">
         <v>1.67</v>
@@ -4901,7 +4913,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5185,7 +5197,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -5391,10 +5403,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ21">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR21">
         <v>0.99</v>
@@ -5600,7 +5612,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ22">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR22">
         <v>2.37</v>
@@ -5725,7 +5737,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -5803,7 +5815,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ23">
         <v>1.78</v>
@@ -5931,7 +5943,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6012,7 +6024,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ24">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AR24">
         <v>1.89</v>
@@ -6137,7 +6149,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6215,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ25">
         <v>0.75</v>
@@ -6343,7 +6355,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6424,7 +6436,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ26">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR26">
         <v>0.87</v>
@@ -6549,7 +6561,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -6627,10 +6639,10 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ27">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AR27">
         <v>1.22</v>
@@ -6755,7 +6767,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6961,7 +6973,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -7042,7 +7054,7 @@
         <v>1</v>
       </c>
       <c r="AQ29">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR29">
         <v>1.72</v>
@@ -7167,7 +7179,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7245,7 +7257,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ30">
         <v>2.56</v>
@@ -7579,7 +7591,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7785,7 +7797,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q33">
         <v>1.73</v>
@@ -7991,7 +8003,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q34">
         <v>6.4</v>
@@ -8197,7 +8209,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q35">
         <v>1.96</v>
@@ -8278,7 +8290,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ35">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR35">
         <v>1.8</v>
@@ -8403,7 +8415,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q36">
         <v>1.98</v>
@@ -8481,7 +8493,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ36">
         <v>1.22</v>
@@ -8609,7 +8621,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -8815,7 +8827,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q38">
         <v>3.25</v>
@@ -8893,7 +8905,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ38">
         <v>1.78</v>
@@ -9305,7 +9317,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ40">
         <v>0.75</v>
@@ -9511,10 +9523,10 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ41">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR41">
         <v>0.89</v>
@@ -9639,7 +9651,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9845,7 +9857,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q43">
         <v>2.3</v>
@@ -10051,7 +10063,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q44">
         <v>4.75</v>
@@ -10129,7 +10141,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
         <v>1.63</v>
@@ -10463,7 +10475,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10544,7 +10556,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ46">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR46">
         <v>1.97</v>
@@ -10669,7 +10681,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -11287,7 +11299,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11493,7 +11505,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11574,7 +11586,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ51">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR51">
         <v>1.89</v>
@@ -11699,7 +11711,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q52">
         <v>1.83</v>
@@ -11777,7 +11789,7 @@
         <v>2</v>
       </c>
       <c r="AP52">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ52">
         <v>1.22</v>
@@ -12111,7 +12123,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q54">
         <v>7.5</v>
@@ -12192,7 +12204,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ54">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AR54">
         <v>0.95</v>
@@ -12398,7 +12410,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ55">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR55">
         <v>1.53</v>
@@ -12601,7 +12613,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ56">
         <v>0.88</v>
@@ -12729,7 +12741,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12807,7 +12819,7 @@
         <v>0.67</v>
       </c>
       <c r="AP57">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ57">
         <v>1</v>
@@ -12935,7 +12947,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q58">
         <v>2.8</v>
@@ -13016,7 +13028,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ58">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR58">
         <v>1.44</v>
@@ -13141,7 +13153,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q59">
         <v>3.15</v>
@@ -13347,7 +13359,7 @@
         <v>106</v>
       </c>
       <c r="P60" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13553,7 +13565,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q61">
         <v>3.11</v>
@@ -13634,7 +13646,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ61">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR61">
         <v>1.2</v>
@@ -13837,7 +13849,7 @@
         <v>0.67</v>
       </c>
       <c r="AP62">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ62">
         <v>1.14</v>
@@ -13965,7 +13977,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q63">
         <v>2.75</v>
@@ -14043,10 +14055,10 @@
         <v>1.5</v>
       </c>
       <c r="AP63">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ63">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR63">
         <v>1.51</v>
@@ -14252,7 +14264,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ64">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AR64">
         <v>2.2</v>
@@ -14377,7 +14389,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q65">
         <v>1.8</v>
@@ -14789,7 +14801,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q67">
         <v>2.38</v>
@@ -14870,7 +14882,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ67">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR67">
         <v>1.71</v>
@@ -14995,7 +15007,7 @@
         <v>127</v>
       </c>
       <c r="P68" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15073,7 +15085,7 @@
         <v>0.75</v>
       </c>
       <c r="AP68">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ68">
         <v>0.88</v>
@@ -15279,7 +15291,7 @@
         <v>1.5</v>
       </c>
       <c r="AP69">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ69">
         <v>1.22</v>
@@ -15407,7 +15419,7 @@
         <v>90</v>
       </c>
       <c r="P70" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q70">
         <v>5.5</v>
@@ -15613,7 +15625,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q71">
         <v>2.45</v>
@@ -15691,7 +15703,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ71">
         <v>1.38</v>
@@ -15900,7 +15912,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ72">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR72">
         <v>2.16</v>
@@ -16103,10 +16115,10 @@
         <v>2</v>
       </c>
       <c r="AP73">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ73">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR73">
         <v>1.06</v>
@@ -16231,7 +16243,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q74">
         <v>2.65</v>
@@ -16437,7 +16449,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -16849,7 +16861,7 @@
         <v>133</v>
       </c>
       <c r="P77" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -16927,10 +16939,10 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ77">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR77">
         <v>1.1</v>
@@ -17136,7 +17148,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ78">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR78">
         <v>1.72</v>
@@ -17261,7 +17273,7 @@
         <v>135</v>
       </c>
       <c r="P79" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17339,7 +17351,7 @@
         <v>2</v>
       </c>
       <c r="AP79">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ79">
         <v>1.63</v>
@@ -17467,7 +17479,7 @@
         <v>90</v>
       </c>
       <c r="P80" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -17673,7 +17685,7 @@
         <v>136</v>
       </c>
       <c r="P81" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17879,7 +17891,7 @@
         <v>137</v>
       </c>
       <c r="P82" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q82">
         <v>1.91</v>
@@ -17957,10 +17969,10 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ82">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR82">
         <v>1.62</v>
@@ -18085,7 +18097,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q83">
         <v>1.62</v>
@@ -18372,7 +18384,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ84">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AR84">
         <v>1.89</v>
@@ -18497,7 +18509,7 @@
         <v>99</v>
       </c>
       <c r="P85" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18578,7 +18590,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ85">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR85">
         <v>1.84</v>
@@ -18703,7 +18715,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q86">
         <v>1.83</v>
@@ -18781,7 +18793,7 @@
         <v>1.25</v>
       </c>
       <c r="AP86">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ86">
         <v>1.14</v>
@@ -18909,7 +18921,7 @@
         <v>90</v>
       </c>
       <c r="P87" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -19115,7 +19127,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19402,7 +19414,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ89">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR89">
         <v>2.42</v>
@@ -19527,7 +19539,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q90">
         <v>1.61</v>
@@ -19733,7 +19745,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q91">
         <v>1.8</v>
@@ -19939,7 +19951,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q92">
         <v>3.8</v>
@@ -20145,7 +20157,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q93">
         <v>2.55</v>
@@ -20351,7 +20363,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q94">
         <v>4.5</v>
@@ -20429,7 +20441,7 @@
         <v>1.5</v>
       </c>
       <c r="AP94">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ94">
         <v>1.63</v>
@@ -20557,7 +20569,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q95">
         <v>4.5</v>
@@ -20635,7 +20647,7 @@
         <v>2.33</v>
       </c>
       <c r="AP95">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ95">
         <v>1.67</v>
@@ -20763,7 +20775,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q96">
         <v>9</v>
@@ -20841,7 +20853,7 @@
         <v>2.2</v>
       </c>
       <c r="AP96">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ96">
         <v>2.56</v>
@@ -21047,7 +21059,7 @@
         <v>1.17</v>
       </c>
       <c r="AP97">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ97">
         <v>1.22</v>
@@ -21175,7 +21187,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q98">
         <v>4.63</v>
@@ -21381,7 +21393,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q99">
         <v>2.31</v>
@@ -21587,7 +21599,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21668,7 +21680,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ100">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AR100">
         <v>1.53</v>
@@ -21793,7 +21805,7 @@
         <v>151</v>
       </c>
       <c r="P101" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q101">
         <v>2.43</v>
@@ -21874,7 +21886,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ101">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR101">
         <v>1.06</v>
@@ -21999,7 +22011,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -22080,7 +22092,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ102">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR102">
         <v>1.58</v>
@@ -22205,7 +22217,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -22283,7 +22295,7 @@
         <v>1.17</v>
       </c>
       <c r="AP103">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ103">
         <v>1</v>
@@ -23110,7 +23122,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ107">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AR107">
         <v>1.26</v>
@@ -23235,7 +23247,7 @@
         <v>156</v>
       </c>
       <c r="P108" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q108">
         <v>3.4</v>
@@ -23441,7 +23453,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q109">
         <v>1.95</v>
@@ -23519,7 +23531,7 @@
         <v>0.86</v>
       </c>
       <c r="AP109">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ109">
         <v>1</v>
@@ -23725,10 +23737,10 @@
         <v>0.83</v>
       </c>
       <c r="AP110">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ110">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR110">
         <v>1.08</v>
@@ -23931,7 +23943,7 @@
         <v>1.17</v>
       </c>
       <c r="AP111">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ111">
         <v>0.88</v>
@@ -24059,7 +24071,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q112">
         <v>1.73</v>
@@ -24140,7 +24152,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ112">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR112">
         <v>1.97</v>
@@ -24343,10 +24355,10 @@
         <v>1.83</v>
       </c>
       <c r="AP113">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ113">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR113">
         <v>1.3</v>
@@ -24471,7 +24483,7 @@
         <v>90</v>
       </c>
       <c r="P114" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -24677,7 +24689,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -24883,7 +24895,7 @@
         <v>160</v>
       </c>
       <c r="P116" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q116">
         <v>1.95</v>
@@ -25089,7 +25101,7 @@
         <v>161</v>
       </c>
       <c r="P117" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q117">
         <v>3.1</v>
@@ -25295,7 +25307,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q118">
         <v>3.75</v>
@@ -25376,7 +25388,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ118">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR118">
         <v>1.03</v>
@@ -25501,7 +25513,7 @@
         <v>162</v>
       </c>
       <c r="P119" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -25707,7 +25719,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q120">
         <v>3.6</v>
@@ -25785,7 +25797,7 @@
         <v>1.14</v>
       </c>
       <c r="AP120">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ120">
         <v>1.38</v>
@@ -25913,7 +25925,7 @@
         <v>163</v>
       </c>
       <c r="P121" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -25991,7 +26003,7 @@
         <v>2.43</v>
       </c>
       <c r="AP121">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ121">
         <v>2.56</v>
@@ -26325,7 +26337,7 @@
         <v>165</v>
       </c>
       <c r="P123" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q123">
         <v>3.6</v>
@@ -26531,7 +26543,7 @@
         <v>166</v>
       </c>
       <c r="P124" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26737,7 +26749,7 @@
         <v>90</v>
       </c>
       <c r="P125" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -27149,7 +27161,7 @@
         <v>168</v>
       </c>
       <c r="P127" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q127">
         <v>4.75</v>
@@ -27227,10 +27239,10 @@
         <v>1.71</v>
       </c>
       <c r="AP127">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ127">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR127">
         <v>1.13</v>
@@ -27355,7 +27367,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q128">
         <v>5.5</v>
@@ -27639,10 +27651,10 @@
         <v>0.86</v>
       </c>
       <c r="AP129">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ129">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR129">
         <v>1.86</v>
@@ -27767,7 +27779,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q130">
         <v>2.2</v>
@@ -27860,31 +27872,31 @@
         <v>3</v>
       </c>
       <c r="AU130">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV130">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW130">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AX130">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AY130">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AZ130">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BA130">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BB130">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BC130">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD130">
         <v>1.8</v>
@@ -27973,7 +27985,7 @@
         <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q131">
         <v>1.62</v>
@@ -28336,6 +28348,1036 @@
       </c>
       <c r="BP132">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>7347888</v>
+      </c>
+      <c r="C133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45473.29166666666</v>
+      </c>
+      <c r="F133">
+        <v>17</v>
+      </c>
+      <c r="G133" t="s">
+        <v>71</v>
+      </c>
+      <c r="H133" t="s">
+        <v>79</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133">
+        <v>1</v>
+      </c>
+      <c r="O133" t="s">
+        <v>90</v>
+      </c>
+      <c r="P133" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q133">
+        <v>7.82</v>
+      </c>
+      <c r="R133">
+        <v>2.84</v>
+      </c>
+      <c r="S133">
+        <v>1.67</v>
+      </c>
+      <c r="T133">
+        <v>1.25</v>
+      </c>
+      <c r="U133">
+        <v>3.72</v>
+      </c>
+      <c r="V133">
+        <v>2.21</v>
+      </c>
+      <c r="W133">
+        <v>1.63</v>
+      </c>
+      <c r="X133">
+        <v>4.75</v>
+      </c>
+      <c r="Y133">
+        <v>1.16</v>
+      </c>
+      <c r="Z133">
+        <v>9</v>
+      </c>
+      <c r="AA133">
+        <v>6</v>
+      </c>
+      <c r="AB133">
+        <v>1.26</v>
+      </c>
+      <c r="AC133">
+        <v>1.02</v>
+      </c>
+      <c r="AD133">
+        <v>23</v>
+      </c>
+      <c r="AE133">
+        <v>1.12</v>
+      </c>
+      <c r="AF133">
+        <v>5.05</v>
+      </c>
+      <c r="AG133">
+        <v>1.41</v>
+      </c>
+      <c r="AH133">
+        <v>2.55</v>
+      </c>
+      <c r="AI133">
+        <v>1.81</v>
+      </c>
+      <c r="AJ133">
+        <v>1.89</v>
+      </c>
+      <c r="AK133">
+        <v>3.45</v>
+      </c>
+      <c r="AL133">
+        <v>1.13</v>
+      </c>
+      <c r="AM133">
+        <v>1.04</v>
+      </c>
+      <c r="AN133">
+        <v>0.75</v>
+      </c>
+      <c r="AO133">
+        <v>2.5</v>
+      </c>
+      <c r="AP133">
+        <v>0.67</v>
+      </c>
+      <c r="AQ133">
+        <v>2.56</v>
+      </c>
+      <c r="AR133">
+        <v>1.18</v>
+      </c>
+      <c r="AS133">
+        <v>1.55</v>
+      </c>
+      <c r="AT133">
+        <v>2.73</v>
+      </c>
+      <c r="AU133">
+        <v>3</v>
+      </c>
+      <c r="AV133">
+        <v>11</v>
+      </c>
+      <c r="AW133">
+        <v>6</v>
+      </c>
+      <c r="AX133">
+        <v>8</v>
+      </c>
+      <c r="AY133">
+        <v>9</v>
+      </c>
+      <c r="AZ133">
+        <v>19</v>
+      </c>
+      <c r="BA133">
+        <v>4</v>
+      </c>
+      <c r="BB133">
+        <v>8</v>
+      </c>
+      <c r="BC133">
+        <v>12</v>
+      </c>
+      <c r="BD133">
+        <v>6.5</v>
+      </c>
+      <c r="BE133">
+        <v>9.5</v>
+      </c>
+      <c r="BF133">
+        <v>1.18</v>
+      </c>
+      <c r="BG133">
+        <v>1.16</v>
+      </c>
+      <c r="BH133">
+        <v>4.3</v>
+      </c>
+      <c r="BI133">
+        <v>1.33</v>
+      </c>
+      <c r="BJ133">
+        <v>2.93</v>
+      </c>
+      <c r="BK133">
+        <v>1.65</v>
+      </c>
+      <c r="BL133">
+        <v>2.18</v>
+      </c>
+      <c r="BM133">
+        <v>2.02</v>
+      </c>
+      <c r="BN133">
+        <v>1.76</v>
+      </c>
+      <c r="BO133">
+        <v>2.6</v>
+      </c>
+      <c r="BP133">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="134" spans="1:68">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>7347891</v>
+      </c>
+      <c r="C134" t="s">
+        <v>68</v>
+      </c>
+      <c r="D134" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45473.35763888889</v>
+      </c>
+      <c r="F134">
+        <v>17</v>
+      </c>
+      <c r="G134" t="s">
+        <v>75</v>
+      </c>
+      <c r="H134" t="s">
+        <v>74</v>
+      </c>
+      <c r="I134">
+        <v>2</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>2</v>
+      </c>
+      <c r="L134">
+        <v>4</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>4</v>
+      </c>
+      <c r="O134" t="s">
+        <v>174</v>
+      </c>
+      <c r="P134" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q134">
+        <v>1.53</v>
+      </c>
+      <c r="R134">
+        <v>3</v>
+      </c>
+      <c r="S134">
+        <v>7.5</v>
+      </c>
+      <c r="T134">
+        <v>1.18</v>
+      </c>
+      <c r="U134">
+        <v>4.33</v>
+      </c>
+      <c r="V134">
+        <v>1.93</v>
+      </c>
+      <c r="W134">
+        <v>1.77</v>
+      </c>
+      <c r="X134">
+        <v>3.8</v>
+      </c>
+      <c r="Y134">
+        <v>1.22</v>
+      </c>
+      <c r="Z134">
+        <v>1.17</v>
+      </c>
+      <c r="AA134">
+        <v>7.16</v>
+      </c>
+      <c r="AB134">
+        <v>11.35</v>
+      </c>
+      <c r="AC134">
+        <v>1.01</v>
+      </c>
+      <c r="AD134">
+        <v>33.5</v>
+      </c>
+      <c r="AE134">
+        <v>1.09</v>
+      </c>
+      <c r="AF134">
+        <v>6.5</v>
+      </c>
+      <c r="AG134">
+        <v>1.33</v>
+      </c>
+      <c r="AH134">
+        <v>3.1</v>
+      </c>
+      <c r="AI134">
+        <v>1.8</v>
+      </c>
+      <c r="AJ134">
+        <v>1.83</v>
+      </c>
+      <c r="AK134">
+        <v>1.05</v>
+      </c>
+      <c r="AL134">
+        <v>1.1</v>
+      </c>
+      <c r="AM134">
+        <v>4.6</v>
+      </c>
+      <c r="AN134">
+        <v>2.38</v>
+      </c>
+      <c r="AO134">
+        <v>0.75</v>
+      </c>
+      <c r="AP134">
+        <v>2.44</v>
+      </c>
+      <c r="AQ134">
+        <v>0.67</v>
+      </c>
+      <c r="AR134">
+        <v>1.73</v>
+      </c>
+      <c r="AS134">
+        <v>0.98</v>
+      </c>
+      <c r="AT134">
+        <v>2.71</v>
+      </c>
+      <c r="AU134">
+        <v>11</v>
+      </c>
+      <c r="AV134">
+        <v>5</v>
+      </c>
+      <c r="AW134">
+        <v>7</v>
+      </c>
+      <c r="AX134">
+        <v>3</v>
+      </c>
+      <c r="AY134">
+        <v>18</v>
+      </c>
+      <c r="AZ134">
+        <v>8</v>
+      </c>
+      <c r="BA134">
+        <v>3</v>
+      </c>
+      <c r="BB134">
+        <v>3</v>
+      </c>
+      <c r="BC134">
+        <v>6</v>
+      </c>
+      <c r="BD134">
+        <v>1.02</v>
+      </c>
+      <c r="BE134">
+        <v>16.5</v>
+      </c>
+      <c r="BF134">
+        <v>16.5</v>
+      </c>
+      <c r="BG134">
+        <v>1.15</v>
+      </c>
+      <c r="BH134">
+        <v>4.45</v>
+      </c>
+      <c r="BI134">
+        <v>1.31</v>
+      </c>
+      <c r="BJ134">
+        <v>3.04</v>
+      </c>
+      <c r="BK134">
+        <v>1.58</v>
+      </c>
+      <c r="BL134">
+        <v>2.29</v>
+      </c>
+      <c r="BM134">
+        <v>2</v>
+      </c>
+      <c r="BN134">
+        <v>1.79</v>
+      </c>
+      <c r="BO134">
+        <v>2.58</v>
+      </c>
+      <c r="BP134">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="135" spans="1:68">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>7347890</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45473.35763888889</v>
+      </c>
+      <c r="F135">
+        <v>17</v>
+      </c>
+      <c r="G135" t="s">
+        <v>77</v>
+      </c>
+      <c r="H135" t="s">
+        <v>80</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>3</v>
+      </c>
+      <c r="N135">
+        <v>3</v>
+      </c>
+      <c r="O135" t="s">
+        <v>90</v>
+      </c>
+      <c r="P135" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q135">
+        <v>3.35</v>
+      </c>
+      <c r="R135">
+        <v>2.15</v>
+      </c>
+      <c r="S135">
+        <v>2.85</v>
+      </c>
+      <c r="T135">
+        <v>1.33</v>
+      </c>
+      <c r="U135">
+        <v>3</v>
+      </c>
+      <c r="V135">
+        <v>2.5</v>
+      </c>
+      <c r="W135">
+        <v>1.48</v>
+      </c>
+      <c r="X135">
+        <v>6.1</v>
+      </c>
+      <c r="Y135">
+        <v>1.1</v>
+      </c>
+      <c r="Z135">
+        <v>2.9</v>
+      </c>
+      <c r="AA135">
+        <v>3.3</v>
+      </c>
+      <c r="AB135">
+        <v>2.35</v>
+      </c>
+      <c r="AC135">
+        <v>1.04</v>
+      </c>
+      <c r="AD135">
+        <v>9</v>
+      </c>
+      <c r="AE135">
+        <v>1.22</v>
+      </c>
+      <c r="AF135">
+        <v>3.85</v>
+      </c>
+      <c r="AG135">
+        <v>1.72</v>
+      </c>
+      <c r="AH135">
+        <v>2.06</v>
+      </c>
+      <c r="AI135">
+        <v>1.55</v>
+      </c>
+      <c r="AJ135">
+        <v>2.2</v>
+      </c>
+      <c r="AK135">
+        <v>1.57</v>
+      </c>
+      <c r="AL135">
+        <v>1.25</v>
+      </c>
+      <c r="AM135">
+        <v>1.38</v>
+      </c>
+      <c r="AN135">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AO135">
+        <v>0.86</v>
+      </c>
+      <c r="AP135">
+        <v>0.5</v>
+      </c>
+      <c r="AQ135">
+        <v>1.13</v>
+      </c>
+      <c r="AR135">
+        <v>1.21</v>
+      </c>
+      <c r="AS135">
+        <v>1.42</v>
+      </c>
+      <c r="AT135">
+        <v>2.63</v>
+      </c>
+      <c r="AU135">
+        <v>0</v>
+      </c>
+      <c r="AV135">
+        <v>7</v>
+      </c>
+      <c r="AW135">
+        <v>3</v>
+      </c>
+      <c r="AX135">
+        <v>11</v>
+      </c>
+      <c r="AY135">
+        <v>3</v>
+      </c>
+      <c r="AZ135">
+        <v>18</v>
+      </c>
+      <c r="BA135">
+        <v>2</v>
+      </c>
+      <c r="BB135">
+        <v>8</v>
+      </c>
+      <c r="BC135">
+        <v>10</v>
+      </c>
+      <c r="BD135">
+        <v>2.69</v>
+      </c>
+      <c r="BE135">
+        <v>6.7</v>
+      </c>
+      <c r="BF135">
+        <v>1.71</v>
+      </c>
+      <c r="BG135">
+        <v>1.15</v>
+      </c>
+      <c r="BH135">
+        <v>4.5</v>
+      </c>
+      <c r="BI135">
+        <v>1.31</v>
+      </c>
+      <c r="BJ135">
+        <v>3.04</v>
+      </c>
+      <c r="BK135">
+        <v>1.61</v>
+      </c>
+      <c r="BL135">
+        <v>2.24</v>
+      </c>
+      <c r="BM135">
+        <v>1.99</v>
+      </c>
+      <c r="BN135">
+        <v>1.8</v>
+      </c>
+      <c r="BO135">
+        <v>2.5</v>
+      </c>
+      <c r="BP135">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:68">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>7347889</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45473.35763888889</v>
+      </c>
+      <c r="F136">
+        <v>17</v>
+      </c>
+      <c r="G136" t="s">
+        <v>84</v>
+      </c>
+      <c r="H136" t="s">
+        <v>78</v>
+      </c>
+      <c r="I136">
+        <v>2</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>2</v>
+      </c>
+      <c r="L136">
+        <v>5</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>5</v>
+      </c>
+      <c r="O136" t="s">
+        <v>175</v>
+      </c>
+      <c r="P136" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q136">
+        <v>2.65</v>
+      </c>
+      <c r="R136">
+        <v>2.3</v>
+      </c>
+      <c r="S136">
+        <v>3.86</v>
+      </c>
+      <c r="T136">
+        <v>1.32</v>
+      </c>
+      <c r="U136">
+        <v>3.17</v>
+      </c>
+      <c r="V136">
+        <v>2.64</v>
+      </c>
+      <c r="W136">
+        <v>1.44</v>
+      </c>
+      <c r="X136">
+        <v>6.45</v>
+      </c>
+      <c r="Y136">
+        <v>1.09</v>
+      </c>
+      <c r="Z136">
+        <v>2.25</v>
+      </c>
+      <c r="AA136">
+        <v>3.25</v>
+      </c>
+      <c r="AB136">
+        <v>3.1</v>
+      </c>
+      <c r="AC136">
+        <v>1.01</v>
+      </c>
+      <c r="AD136">
+        <v>9.9</v>
+      </c>
+      <c r="AE136">
+        <v>1.23</v>
+      </c>
+      <c r="AF136">
+        <v>3.56</v>
+      </c>
+      <c r="AG136">
+        <v>1.87</v>
+      </c>
+      <c r="AH136">
+        <v>1.88</v>
+      </c>
+      <c r="AI136">
+        <v>1.66</v>
+      </c>
+      <c r="AJ136">
+        <v>2.09</v>
+      </c>
+      <c r="AK136">
+        <v>1.31</v>
+      </c>
+      <c r="AL136">
+        <v>1.28</v>
+      </c>
+      <c r="AM136">
+        <v>1.72</v>
+      </c>
+      <c r="AN136">
+        <v>0.75</v>
+      </c>
+      <c r="AO136">
+        <v>0.88</v>
+      </c>
+      <c r="AP136">
+        <v>1</v>
+      </c>
+      <c r="AQ136">
+        <v>0.78</v>
+      </c>
+      <c r="AR136">
+        <v>1.14</v>
+      </c>
+      <c r="AS136">
+        <v>1.25</v>
+      </c>
+      <c r="AT136">
+        <v>2.39</v>
+      </c>
+      <c r="AU136">
+        <v>7</v>
+      </c>
+      <c r="AV136">
+        <v>0</v>
+      </c>
+      <c r="AW136">
+        <v>7</v>
+      </c>
+      <c r="AX136">
+        <v>7</v>
+      </c>
+      <c r="AY136">
+        <v>14</v>
+      </c>
+      <c r="AZ136">
+        <v>7</v>
+      </c>
+      <c r="BA136">
+        <v>6</v>
+      </c>
+      <c r="BB136">
+        <v>4</v>
+      </c>
+      <c r="BC136">
+        <v>10</v>
+      </c>
+      <c r="BD136">
+        <v>1.65</v>
+      </c>
+      <c r="BE136">
+        <v>6.55</v>
+      </c>
+      <c r="BF136">
+        <v>2.88</v>
+      </c>
+      <c r="BG136">
+        <v>1.29</v>
+      </c>
+      <c r="BH136">
+        <v>3.14</v>
+      </c>
+      <c r="BI136">
+        <v>1.61</v>
+      </c>
+      <c r="BJ136">
+        <v>2.27</v>
+      </c>
+      <c r="BK136">
+        <v>2</v>
+      </c>
+      <c r="BL136">
+        <v>1.79</v>
+      </c>
+      <c r="BM136">
+        <v>2.57</v>
+      </c>
+      <c r="BN136">
+        <v>1.48</v>
+      </c>
+      <c r="BO136">
+        <v>3.48</v>
+      </c>
+      <c r="BP136">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="137" spans="1:68">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>7347892</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45473.375</v>
+      </c>
+      <c r="F137">
+        <v>17</v>
+      </c>
+      <c r="G137" t="s">
+        <v>85</v>
+      </c>
+      <c r="H137" t="s">
+        <v>70</v>
+      </c>
+      <c r="I137">
+        <v>2</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>2</v>
+      </c>
+      <c r="L137">
+        <v>2</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>2</v>
+      </c>
+      <c r="O137" t="s">
+        <v>176</v>
+      </c>
+      <c r="P137" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q137">
+        <v>2.9</v>
+      </c>
+      <c r="R137">
+        <v>2.3</v>
+      </c>
+      <c r="S137">
+        <v>3.05</v>
+      </c>
+      <c r="T137">
+        <v>1.3</v>
+      </c>
+      <c r="U137">
+        <v>3.3</v>
+      </c>
+      <c r="V137">
+        <v>2.35</v>
+      </c>
+      <c r="W137">
+        <v>1.52</v>
+      </c>
+      <c r="X137">
+        <v>5</v>
+      </c>
+      <c r="Y137">
+        <v>1.13</v>
+      </c>
+      <c r="Z137">
+        <v>2.4</v>
+      </c>
+      <c r="AA137">
+        <v>3.6</v>
+      </c>
+      <c r="AB137">
+        <v>2.65</v>
+      </c>
+      <c r="AC137">
+        <v>1.03</v>
+      </c>
+      <c r="AD137">
+        <v>17.25</v>
+      </c>
+      <c r="AE137">
+        <v>1.19</v>
+      </c>
+      <c r="AF137">
+        <v>4.73</v>
+      </c>
+      <c r="AG137">
+        <v>1.54</v>
+      </c>
+      <c r="AH137">
+        <v>2.35</v>
+      </c>
+      <c r="AI137">
+        <v>1.5</v>
+      </c>
+      <c r="AJ137">
+        <v>2.4</v>
+      </c>
+      <c r="AK137">
+        <v>1.48</v>
+      </c>
+      <c r="AL137">
+        <v>1.3</v>
+      </c>
+      <c r="AM137">
+        <v>1.55</v>
+      </c>
+      <c r="AN137">
+        <v>2.29</v>
+      </c>
+      <c r="AO137">
+        <v>1.63</v>
+      </c>
+      <c r="AP137">
+        <v>2.38</v>
+      </c>
+      <c r="AQ137">
+        <v>1.44</v>
+      </c>
+      <c r="AR137">
+        <v>1.83</v>
+      </c>
+      <c r="AS137">
+        <v>1.61</v>
+      </c>
+      <c r="AT137">
+        <v>3.44</v>
+      </c>
+      <c r="AU137">
+        <v>6</v>
+      </c>
+      <c r="AV137">
+        <v>10</v>
+      </c>
+      <c r="AW137">
+        <v>4</v>
+      </c>
+      <c r="AX137">
+        <v>9</v>
+      </c>
+      <c r="AY137">
+        <v>10</v>
+      </c>
+      <c r="AZ137">
+        <v>19</v>
+      </c>
+      <c r="BA137">
+        <v>2</v>
+      </c>
+      <c r="BB137">
+        <v>14</v>
+      </c>
+      <c r="BC137">
+        <v>16</v>
+      </c>
+      <c r="BD137">
+        <v>2.22</v>
+      </c>
+      <c r="BE137">
+        <v>6.55</v>
+      </c>
+      <c r="BF137">
+        <v>1.99</v>
+      </c>
+      <c r="BG137">
+        <v>1.18</v>
+      </c>
+      <c r="BH137">
+        <v>4.05</v>
+      </c>
+      <c r="BI137">
+        <v>1.36</v>
+      </c>
+      <c r="BJ137">
+        <v>2.79</v>
+      </c>
+      <c r="BK137">
+        <v>1.7</v>
+      </c>
+      <c r="BL137">
+        <v>2.1</v>
+      </c>
+      <c r="BM137">
+        <v>2.11</v>
+      </c>
+      <c r="BN137">
+        <v>1.69</v>
+      </c>
+      <c r="BO137">
+        <v>2.71</v>
+      </c>
+      <c r="BP137">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -538,10 +538,10 @@
     <t>['19', '51', '64']</t>
   </si>
   <si>
-    <t>['6', '45', '49', '84']</t>
+    <t>['37', '45+4', '56', '70', '78']</t>
   </si>
   <si>
-    <t>['37', '45+4', '56', '70', '78']</t>
+    <t>['6', '45', '49', '84']</t>
   </si>
   <si>
     <t>['4', '5']</t>
@@ -28561,7 +28561,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>7347891</v>
+        <v>7347889</v>
       </c>
       <c r="C134" t="s">
         <v>68</v>
@@ -28576,10 +28576,10 @@
         <v>17</v>
       </c>
       <c r="G134" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H134" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I134">
         <v>2</v>
@@ -28591,13 +28591,13 @@
         <v>2</v>
       </c>
       <c r="L134">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M134">
         <v>0</v>
       </c>
       <c r="N134">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O134" t="s">
         <v>174</v>
@@ -28606,160 +28606,160 @@
         <v>90</v>
       </c>
       <c r="Q134">
-        <v>1.53</v>
+        <v>2.65</v>
       </c>
       <c r="R134">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="S134">
-        <v>7.5</v>
+        <v>3.86</v>
       </c>
       <c r="T134">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="U134">
-        <v>4.33</v>
+        <v>3.17</v>
       </c>
       <c r="V134">
-        <v>1.93</v>
+        <v>2.64</v>
       </c>
       <c r="W134">
-        <v>1.77</v>
+        <v>1.44</v>
       </c>
       <c r="X134">
-        <v>3.8</v>
+        <v>6.45</v>
       </c>
       <c r="Y134">
-        <v>1.22</v>
+        <v>1.09</v>
       </c>
       <c r="Z134">
-        <v>1.17</v>
+        <v>2.25</v>
       </c>
       <c r="AA134">
-        <v>7.16</v>
+        <v>3.25</v>
       </c>
       <c r="AB134">
-        <v>11.35</v>
+        <v>3.1</v>
       </c>
       <c r="AC134">
         <v>1.01</v>
       </c>
       <c r="AD134">
-        <v>33.5</v>
+        <v>9.9</v>
       </c>
       <c r="AE134">
-        <v>1.09</v>
+        <v>1.23</v>
       </c>
       <c r="AF134">
-        <v>6.5</v>
+        <v>3.56</v>
       </c>
       <c r="AG134">
-        <v>1.33</v>
+        <v>1.87</v>
       </c>
       <c r="AH134">
-        <v>3.1</v>
+        <v>1.88</v>
       </c>
       <c r="AI134">
-        <v>1.8</v>
+        <v>1.66</v>
       </c>
       <c r="AJ134">
-        <v>1.83</v>
+        <v>2.09</v>
       </c>
       <c r="AK134">
-        <v>1.05</v>
+        <v>1.31</v>
       </c>
       <c r="AL134">
-        <v>1.1</v>
+        <v>1.28</v>
       </c>
       <c r="AM134">
-        <v>4.6</v>
+        <v>1.72</v>
       </c>
       <c r="AN134">
-        <v>2.38</v>
+        <v>0.75</v>
       </c>
       <c r="AO134">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AP134">
-        <v>2.44</v>
+        <v>1</v>
       </c>
       <c r="AQ134">
-        <v>0.67</v>
+        <v>0.78</v>
       </c>
       <c r="AR134">
-        <v>1.73</v>
+        <v>1.14</v>
       </c>
       <c r="AS134">
-        <v>0.98</v>
+        <v>1.25</v>
       </c>
       <c r="AT134">
-        <v>2.71</v>
+        <v>2.39</v>
       </c>
       <c r="AU134">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AV134">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AW134">
         <v>7</v>
       </c>
       <c r="AX134">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AY134">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AZ134">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA134">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BB134">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC134">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BD134">
-        <v>1.02</v>
+        <v>1.65</v>
       </c>
       <c r="BE134">
-        <v>16.5</v>
+        <v>6.55</v>
       </c>
       <c r="BF134">
-        <v>16.5</v>
+        <v>2.88</v>
       </c>
       <c r="BG134">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="BH134">
-        <v>4.45</v>
+        <v>3.14</v>
       </c>
       <c r="BI134">
-        <v>1.31</v>
+        <v>1.61</v>
       </c>
       <c r="BJ134">
-        <v>3.04</v>
+        <v>2.27</v>
       </c>
       <c r="BK134">
-        <v>1.58</v>
+        <v>2</v>
       </c>
       <c r="BL134">
-        <v>2.29</v>
+        <v>1.79</v>
       </c>
       <c r="BM134">
-        <v>2</v>
+        <v>2.57</v>
       </c>
       <c r="BN134">
-        <v>1.79</v>
+        <v>1.48</v>
       </c>
       <c r="BO134">
-        <v>2.58</v>
+        <v>3.48</v>
       </c>
       <c r="BP134">
-        <v>1.46</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="135" spans="1:68">
@@ -28973,7 +28973,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>7347889</v>
+        <v>7347891</v>
       </c>
       <c r="C136" t="s">
         <v>68</v>
@@ -28988,10 +28988,10 @@
         <v>17</v>
       </c>
       <c r="G136" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H136" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I136">
         <v>2</v>
@@ -29003,13 +29003,13 @@
         <v>2</v>
       </c>
       <c r="L136">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M136">
         <v>0</v>
       </c>
       <c r="N136">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O136" t="s">
         <v>175</v>
@@ -29018,160 +29018,160 @@
         <v>90</v>
       </c>
       <c r="Q136">
-        <v>2.65</v>
+        <v>1.53</v>
       </c>
       <c r="R136">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="S136">
-        <v>3.86</v>
+        <v>7.5</v>
       </c>
       <c r="T136">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="U136">
-        <v>3.17</v>
+        <v>4.33</v>
       </c>
       <c r="V136">
-        <v>2.64</v>
+        <v>1.93</v>
       </c>
       <c r="W136">
-        <v>1.44</v>
+        <v>1.77</v>
       </c>
       <c r="X136">
-        <v>6.45</v>
+        <v>3.8</v>
       </c>
       <c r="Y136">
-        <v>1.09</v>
+        <v>1.22</v>
       </c>
       <c r="Z136">
-        <v>2.25</v>
+        <v>1.17</v>
       </c>
       <c r="AA136">
-        <v>3.25</v>
+        <v>7.16</v>
       </c>
       <c r="AB136">
-        <v>3.1</v>
+        <v>11.35</v>
       </c>
       <c r="AC136">
         <v>1.01</v>
       </c>
       <c r="AD136">
-        <v>9.9</v>
+        <v>33.5</v>
       </c>
       <c r="AE136">
-        <v>1.23</v>
+        <v>1.09</v>
       </c>
       <c r="AF136">
-        <v>3.56</v>
+        <v>6.5</v>
       </c>
       <c r="AG136">
-        <v>1.87</v>
+        <v>1.33</v>
       </c>
       <c r="AH136">
-        <v>1.88</v>
+        <v>3.1</v>
       </c>
       <c r="AI136">
-        <v>1.66</v>
+        <v>1.8</v>
       </c>
       <c r="AJ136">
-        <v>2.09</v>
+        <v>1.83</v>
       </c>
       <c r="AK136">
-        <v>1.31</v>
+        <v>1.05</v>
       </c>
       <c r="AL136">
-        <v>1.28</v>
+        <v>1.1</v>
       </c>
       <c r="AM136">
-        <v>1.72</v>
+        <v>4.6</v>
       </c>
       <c r="AN136">
+        <v>2.38</v>
+      </c>
+      <c r="AO136">
         <v>0.75</v>
       </c>
-      <c r="AO136">
-        <v>0.88</v>
-      </c>
       <c r="AP136">
-        <v>1</v>
+        <v>2.44</v>
       </c>
       <c r="AQ136">
-        <v>0.78</v>
+        <v>0.67</v>
       </c>
       <c r="AR136">
-        <v>1.14</v>
+        <v>1.73</v>
       </c>
       <c r="AS136">
-        <v>1.25</v>
+        <v>0.98</v>
       </c>
       <c r="AT136">
-        <v>2.39</v>
+        <v>2.71</v>
       </c>
       <c r="AU136">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AV136">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW136">
         <v>7</v>
       </c>
       <c r="AX136">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AY136">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ136">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA136">
+        <v>3</v>
+      </c>
+      <c r="BB136">
+        <v>3</v>
+      </c>
+      <c r="BC136">
         <v>6</v>
       </c>
-      <c r="BB136">
-        <v>4</v>
-      </c>
-      <c r="BC136">
-        <v>10</v>
-      </c>
       <c r="BD136">
-        <v>1.65</v>
+        <v>1.02</v>
       </c>
       <c r="BE136">
-        <v>6.55</v>
+        <v>16.5</v>
       </c>
       <c r="BF136">
-        <v>2.88</v>
+        <v>16.5</v>
       </c>
       <c r="BG136">
-        <v>1.29</v>
+        <v>1.15</v>
       </c>
       <c r="BH136">
-        <v>3.14</v>
+        <v>4.45</v>
       </c>
       <c r="BI136">
-        <v>1.61</v>
+        <v>1.31</v>
       </c>
       <c r="BJ136">
-        <v>2.27</v>
+        <v>3.04</v>
       </c>
       <c r="BK136">
-        <v>2</v>
+        <v>1.58</v>
       </c>
       <c r="BL136">
+        <v>2.29</v>
+      </c>
+      <c r="BM136">
+        <v>2</v>
+      </c>
+      <c r="BN136">
         <v>1.79</v>
       </c>
-      <c r="BM136">
-        <v>2.57</v>
-      </c>
-      <c r="BN136">
-        <v>1.48</v>
-      </c>
       <c r="BO136">
-        <v>3.48</v>
+        <v>2.58</v>
       </c>
       <c r="BP136">
-        <v>1.24</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="137" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="259">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1152,7 +1152,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP137"/>
+  <dimension ref="A1:BP138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3549,7 +3549,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ12">
         <v>1.14</v>
@@ -3964,7 +3964,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ14">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AR14">
         <v>0.7</v>
@@ -6845,7 +6845,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ28">
         <v>1.22</v>
@@ -7260,7 +7260,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ30">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -8084,7 +8084,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ34">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AR34">
         <v>1</v>
@@ -9729,7 +9729,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ42">
         <v>1</v>
@@ -12407,7 +12407,7 @@
         <v>0.33</v>
       </c>
       <c r="AP55">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ55">
         <v>0.78</v>
@@ -15500,7 +15500,7 @@
         <v>1</v>
       </c>
       <c r="AQ70">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AR70">
         <v>1.34</v>
@@ -16321,7 +16321,7 @@
         <v>1.8</v>
       </c>
       <c r="AP74">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ74">
         <v>1.78</v>
@@ -17560,7 +17560,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ80">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AR80">
         <v>1.55</v>
@@ -20235,7 +20235,7 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ93">
         <v>1.38</v>
@@ -20856,7 +20856,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ96">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AR96">
         <v>0.98</v>
@@ -21677,7 +21677,7 @@
         <v>2.33</v>
       </c>
       <c r="AP100">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ100">
         <v>2.56</v>
@@ -24564,7 +24564,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ114">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AR114">
         <v>1.55</v>
@@ -25179,7 +25179,7 @@
         <v>1.88</v>
       </c>
       <c r="AP117">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ117">
         <v>1.67</v>
@@ -26006,7 +26006,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ121">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AR121">
         <v>1.25</v>
@@ -26209,7 +26209,7 @@
         <v>1</v>
       </c>
       <c r="AP122">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ122">
         <v>0.88</v>
@@ -26830,7 +26830,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ125">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AR125">
         <v>1.79</v>
@@ -29378,6 +29378,212 @@
       </c>
       <c r="BP137">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="138" spans="1:68">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>7347893</v>
+      </c>
+      <c r="C138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45478.375</v>
+      </c>
+      <c r="F138">
+        <v>18</v>
+      </c>
+      <c r="G138" t="s">
+        <v>80</v>
+      </c>
+      <c r="H138" t="s">
+        <v>72</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>1</v>
+      </c>
+      <c r="N138">
+        <v>1</v>
+      </c>
+      <c r="O138" t="s">
+        <v>90</v>
+      </c>
+      <c r="P138" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q138">
+        <v>5.25</v>
+      </c>
+      <c r="R138">
+        <v>2.75</v>
+      </c>
+      <c r="S138">
+        <v>1.77</v>
+      </c>
+      <c r="T138">
+        <v>1.2</v>
+      </c>
+      <c r="U138">
+        <v>4</v>
+      </c>
+      <c r="V138">
+        <v>1.95</v>
+      </c>
+      <c r="W138">
+        <v>1.75</v>
+      </c>
+      <c r="X138">
+        <v>4</v>
+      </c>
+      <c r="Y138">
+        <v>1.22</v>
+      </c>
+      <c r="Z138">
+        <v>6.53</v>
+      </c>
+      <c r="AA138">
+        <v>5.03</v>
+      </c>
+      <c r="AB138">
+        <v>1.33</v>
+      </c>
+      <c r="AC138">
+        <v>1.01</v>
+      </c>
+      <c r="AD138">
+        <v>19</v>
+      </c>
+      <c r="AE138">
+        <v>1.11</v>
+      </c>
+      <c r="AF138">
+        <v>6.24</v>
+      </c>
+      <c r="AG138">
+        <v>1.32</v>
+      </c>
+      <c r="AH138">
+        <v>3.09</v>
+      </c>
+      <c r="AI138">
+        <v>1.55</v>
+      </c>
+      <c r="AJ138">
+        <v>2.2</v>
+      </c>
+      <c r="AK138">
+        <v>3.1</v>
+      </c>
+      <c r="AL138">
+        <v>1.1</v>
+      </c>
+      <c r="AM138">
+        <v>1.06</v>
+      </c>
+      <c r="AN138">
+        <v>1.22</v>
+      </c>
+      <c r="AO138">
+        <v>2.56</v>
+      </c>
+      <c r="AP138">
+        <v>1.1</v>
+      </c>
+      <c r="AQ138">
+        <v>2.6</v>
+      </c>
+      <c r="AR138">
+        <v>1.64</v>
+      </c>
+      <c r="AS138">
+        <v>2.35</v>
+      </c>
+      <c r="AT138">
+        <v>3.99</v>
+      </c>
+      <c r="AU138">
+        <v>2</v>
+      </c>
+      <c r="AV138">
+        <v>6</v>
+      </c>
+      <c r="AW138">
+        <v>8</v>
+      </c>
+      <c r="AX138">
+        <v>3</v>
+      </c>
+      <c r="AY138">
+        <v>10</v>
+      </c>
+      <c r="AZ138">
+        <v>9</v>
+      </c>
+      <c r="BA138">
+        <v>9</v>
+      </c>
+      <c r="BB138">
+        <v>1</v>
+      </c>
+      <c r="BC138">
+        <v>10</v>
+      </c>
+      <c r="BD138">
+        <v>5.15</v>
+      </c>
+      <c r="BE138">
+        <v>10.7</v>
+      </c>
+      <c r="BF138">
+        <v>1.22</v>
+      </c>
+      <c r="BG138">
+        <v>1.21</v>
+      </c>
+      <c r="BH138">
+        <v>3.74</v>
+      </c>
+      <c r="BI138">
+        <v>1.41</v>
+      </c>
+      <c r="BJ138">
+        <v>2.6</v>
+      </c>
+      <c r="BK138">
+        <v>1.73</v>
+      </c>
+      <c r="BL138">
+        <v>1.99</v>
+      </c>
+      <c r="BM138">
+        <v>2.17</v>
+      </c>
+      <c r="BN138">
+        <v>1.58</v>
+      </c>
+      <c r="BO138">
+        <v>2.88</v>
+      </c>
+      <c r="BP138">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="268">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -547,6 +547,21 @@
     <t>['4', '5']</t>
   </si>
   <si>
+    <t>['27', '45']</t>
+  </si>
+  <si>
+    <t>['3', '11', '18', '51', '63', '83']</t>
+  </si>
+  <si>
+    <t>['90+4']</t>
+  </si>
+  <si>
+    <t>['21', '29', '43']</t>
+  </si>
+  <si>
+    <t>['36', '38', '40', '54']</t>
+  </si>
+  <si>
     <t>['81', '90+3']</t>
   </si>
   <si>
@@ -791,6 +806,18 @@
   </si>
   <si>
     <t>['72', '90+6', '90+7']</t>
+  </si>
+  <si>
+    <t>['61', '81']</t>
+  </si>
+  <si>
+    <t>['43']</t>
+  </si>
+  <si>
+    <t>['62']</t>
+  </si>
+  <si>
+    <t>['40', '82']</t>
   </si>
 </sst>
 </file>
@@ -1152,7 +1179,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP138"/>
+  <dimension ref="A1:BP145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1411,7 +1438,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1617,7 +1644,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -1904,7 +1931,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ4">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2107,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -2235,7 +2262,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2313,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ6">
         <v>1.67</v>
@@ -2725,10 +2752,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ8">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2853,7 +2880,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -3137,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -3343,10 +3370,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ11">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3471,7 +3498,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -3552,7 +3579,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ12">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3961,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ14">
         <v>2.6</v>
@@ -4089,7 +4116,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4167,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ15">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4373,10 +4400,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ16">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR16">
         <v>1.14</v>
@@ -4501,7 +4528,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4707,7 +4734,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4913,7 +4940,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5737,7 +5764,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -5943,7 +5970,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6149,7 +6176,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6355,7 +6382,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6561,7 +6588,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -6767,7 +6794,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6848,7 +6875,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ28">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR28">
         <v>2.4</v>
@@ -6973,7 +7000,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -7051,10 +7078,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ29">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR29">
         <v>1.72</v>
@@ -7179,7 +7206,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7257,7 +7284,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ30">
         <v>2.6</v>
@@ -7463,10 +7490,10 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ31">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR31">
         <v>1.04</v>
@@ -7591,7 +7618,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7669,10 +7696,10 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ32">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR32">
         <v>1.5</v>
@@ -7797,7 +7824,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q33">
         <v>1.73</v>
@@ -7875,10 +7902,10 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ33">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR33">
         <v>0.79</v>
@@ -8003,7 +8030,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q34">
         <v>6.4</v>
@@ -8081,7 +8108,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ34">
         <v>2.6</v>
@@ -8209,7 +8236,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q35">
         <v>1.96</v>
@@ -8415,7 +8442,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q36">
         <v>1.98</v>
@@ -8493,10 +8520,10 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ36">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR36">
         <v>1.16</v>
@@ -8621,7 +8648,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -8699,10 +8726,10 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ37">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR37">
         <v>2.37</v>
@@ -8827,7 +8854,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q38">
         <v>3.25</v>
@@ -9111,7 +9138,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -9651,7 +9678,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9857,7 +9884,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q43">
         <v>2.3</v>
@@ -9935,7 +9962,7 @@
         <v>2.33</v>
       </c>
       <c r="AP43">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ43">
         <v>1.67</v>
@@ -10063,7 +10090,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q44">
         <v>4.75</v>
@@ -10144,7 +10171,7 @@
         <v>1</v>
       </c>
       <c r="AQ44">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR44">
         <v>1.03</v>
@@ -10347,10 +10374,10 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ45">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR45">
         <v>1.43</v>
@@ -10475,7 +10502,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10556,7 +10583,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ46">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR46">
         <v>1.97</v>
@@ -10681,7 +10708,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10759,10 +10786,10 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ47">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR47">
         <v>1.03</v>
@@ -10965,7 +10992,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ48">
         <v>0.75</v>
@@ -11174,7 +11201,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ49">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR49">
         <v>1.41</v>
@@ -11299,7 +11326,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11377,7 +11404,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ50">
         <v>1.78</v>
@@ -11505,7 +11532,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11711,7 +11738,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q52">
         <v>1.83</v>
@@ -11792,7 +11819,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ52">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR52">
         <v>1.36</v>
@@ -12123,7 +12150,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q54">
         <v>7.5</v>
@@ -12201,7 +12228,7 @@
         <v>3</v>
       </c>
       <c r="AP54">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ54">
         <v>2.56</v>
@@ -12613,10 +12640,10 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ56">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR56">
         <v>1.29</v>
@@ -12741,7 +12768,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12947,7 +12974,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q58">
         <v>2.8</v>
@@ -13153,7 +13180,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q59">
         <v>3.15</v>
@@ -13359,7 +13386,7 @@
         <v>106</v>
       </c>
       <c r="P60" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13437,7 +13464,7 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ60">
         <v>1.67</v>
@@ -13565,7 +13592,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q61">
         <v>3.11</v>
@@ -13643,7 +13670,7 @@
         <v>0.67</v>
       </c>
       <c r="AP61">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ61">
         <v>1.13</v>
@@ -13852,7 +13879,7 @@
         <v>1</v>
       </c>
       <c r="AQ62">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR62">
         <v>0.98</v>
@@ -13977,7 +14004,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q63">
         <v>2.75</v>
@@ -14058,7 +14085,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ63">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR63">
         <v>1.51</v>
@@ -14389,7 +14416,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q65">
         <v>1.8</v>
@@ -14673,7 +14700,7 @@
         <v>2.2</v>
       </c>
       <c r="AP66">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ66">
         <v>1.67</v>
@@ -14801,7 +14828,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q67">
         <v>2.38</v>
@@ -14879,7 +14906,7 @@
         <v>1.25</v>
       </c>
       <c r="AP67">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ67">
         <v>1.13</v>
@@ -15007,7 +15034,7 @@
         <v>127</v>
       </c>
       <c r="P68" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15088,7 +15115,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ68">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR68">
         <v>1.05</v>
@@ -15294,7 +15321,7 @@
         <v>1</v>
       </c>
       <c r="AQ69">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR69">
         <v>1.09</v>
@@ -15419,7 +15446,7 @@
         <v>90</v>
       </c>
       <c r="P70" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q70">
         <v>5.5</v>
@@ -15497,7 +15524,7 @@
         <v>1.67</v>
       </c>
       <c r="AP70">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ70">
         <v>2.6</v>
@@ -15625,7 +15652,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q71">
         <v>2.45</v>
@@ -15706,7 +15733,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ71">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR71">
         <v>1.59</v>
@@ -15909,7 +15936,7 @@
         <v>1.33</v>
       </c>
       <c r="AP72">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ72">
         <v>0.67</v>
@@ -16118,7 +16145,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ73">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR73">
         <v>1.06</v>
@@ -16243,7 +16270,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q74">
         <v>2.65</v>
@@ -16449,7 +16476,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -16527,7 +16554,7 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ75">
         <v>1</v>
@@ -16733,7 +16760,7 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ76">
         <v>0.75</v>
@@ -16861,7 +16888,7 @@
         <v>133</v>
       </c>
       <c r="P77" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17273,7 +17300,7 @@
         <v>135</v>
       </c>
       <c r="P79" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17351,10 +17378,10 @@
         <v>2</v>
       </c>
       <c r="AP79">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ79">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR79">
         <v>2.06</v>
@@ -17479,7 +17506,7 @@
         <v>90</v>
       </c>
       <c r="P80" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -17685,7 +17712,7 @@
         <v>136</v>
       </c>
       <c r="P81" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17763,7 +17790,7 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ81">
         <v>1</v>
@@ -17891,7 +17918,7 @@
         <v>137</v>
       </c>
       <c r="P82" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q82">
         <v>1.91</v>
@@ -18097,7 +18124,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q83">
         <v>1.62</v>
@@ -18381,7 +18408,7 @@
         <v>2.6</v>
       </c>
       <c r="AP84">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ84">
         <v>2.56</v>
@@ -18509,7 +18536,7 @@
         <v>99</v>
       </c>
       <c r="P85" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18590,7 +18617,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ85">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR85">
         <v>1.84</v>
@@ -18715,7 +18742,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q86">
         <v>1.83</v>
@@ -18793,10 +18820,10 @@
         <v>1.25</v>
       </c>
       <c r="AP86">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ86">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR86">
         <v>1.8</v>
@@ -18921,7 +18948,7 @@
         <v>90</v>
       </c>
       <c r="P87" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -18999,7 +19026,7 @@
         <v>0.75</v>
       </c>
       <c r="AP87">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ87">
         <v>0.75</v>
@@ -19127,7 +19154,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19208,7 +19235,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ88">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR88">
         <v>1.33</v>
@@ -19411,7 +19438,7 @@
         <v>0.67</v>
       </c>
       <c r="AP89">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ89">
         <v>0.78</v>
@@ -19539,7 +19566,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q90">
         <v>1.61</v>
@@ -19620,7 +19647,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ90">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR90">
         <v>2.05</v>
@@ -19745,7 +19772,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q91">
         <v>1.8</v>
@@ -19823,7 +19850,7 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ91">
         <v>1</v>
@@ -19951,7 +19978,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q92">
         <v>3.8</v>
@@ -20029,7 +20056,7 @@
         <v>2</v>
       </c>
       <c r="AP92">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ92">
         <v>1.78</v>
@@ -20157,7 +20184,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q93">
         <v>2.55</v>
@@ -20238,7 +20265,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ93">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR93">
         <v>1.57</v>
@@ -20363,7 +20390,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q94">
         <v>4.5</v>
@@ -20444,7 +20471,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ94">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR94">
         <v>1.27</v>
@@ -20569,7 +20596,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q95">
         <v>4.5</v>
@@ -20775,7 +20802,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q96">
         <v>9</v>
@@ -21062,7 +21089,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ97">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR97">
         <v>1.33</v>
@@ -21187,7 +21214,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q98">
         <v>4.63</v>
@@ -21265,7 +21292,7 @@
         <v>2</v>
       </c>
       <c r="AP98">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ98">
         <v>1.67</v>
@@ -21393,7 +21420,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q99">
         <v>2.31</v>
@@ -21471,10 +21498,10 @@
         <v>1.33</v>
       </c>
       <c r="AP99">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ99">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR99">
         <v>1.77</v>
@@ -21599,7 +21626,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21805,7 +21832,7 @@
         <v>151</v>
       </c>
       <c r="P101" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q101">
         <v>2.43</v>
@@ -21883,7 +21910,7 @@
         <v>1</v>
       </c>
       <c r="AP101">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ101">
         <v>0.67</v>
@@ -22011,7 +22038,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -22089,10 +22116,10 @@
         <v>2</v>
       </c>
       <c r="AP102">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ102">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR102">
         <v>1.58</v>
@@ -22217,7 +22244,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -22504,7 +22531,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ104">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR104">
         <v>2.01</v>
@@ -22916,7 +22943,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ106">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR106">
         <v>1.74</v>
@@ -23247,7 +23274,7 @@
         <v>156</v>
       </c>
       <c r="P108" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q108">
         <v>3.4</v>
@@ -23325,7 +23352,7 @@
         <v>2.14</v>
       </c>
       <c r="AP108">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ108">
         <v>1.78</v>
@@ -23453,7 +23480,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q109">
         <v>1.95</v>
@@ -23531,7 +23558,7 @@
         <v>0.86</v>
       </c>
       <c r="AP109">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ109">
         <v>1</v>
@@ -23946,7 +23973,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ111">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR111">
         <v>1.64</v>
@@ -24071,7 +24098,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q112">
         <v>1.73</v>
@@ -24358,7 +24385,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ113">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR113">
         <v>1.3</v>
@@ -24483,7 +24510,7 @@
         <v>90</v>
       </c>
       <c r="P114" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -24561,7 +24588,7 @@
         <v>2.33</v>
       </c>
       <c r="AP114">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ114">
         <v>2.6</v>
@@ -24689,7 +24716,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -24767,10 +24794,10 @@
         <v>1.14</v>
       </c>
       <c r="AP115">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ115">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR115">
         <v>1.37</v>
@@ -24895,7 +24922,7 @@
         <v>160</v>
       </c>
       <c r="P116" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q116">
         <v>1.95</v>
@@ -24973,7 +25000,7 @@
         <v>1.14</v>
       </c>
       <c r="AP116">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ116">
         <v>1</v>
@@ -25101,7 +25128,7 @@
         <v>161</v>
       </c>
       <c r="P117" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q117">
         <v>3.1</v>
@@ -25307,7 +25334,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q118">
         <v>3.75</v>
@@ -25385,7 +25412,7 @@
         <v>0.57</v>
       </c>
       <c r="AP118">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ118">
         <v>0.78</v>
@@ -25513,7 +25540,7 @@
         <v>162</v>
       </c>
       <c r="P119" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -25591,10 +25618,10 @@
         <v>1.5</v>
       </c>
       <c r="AP119">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ119">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR119">
         <v>2.45</v>
@@ -25719,7 +25746,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q120">
         <v>3.6</v>
@@ -25800,7 +25827,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ120">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR120">
         <v>1.17</v>
@@ -25925,7 +25952,7 @@
         <v>163</v>
       </c>
       <c r="P121" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26212,7 +26239,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ122">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR122">
         <v>1.65</v>
@@ -26337,7 +26364,7 @@
         <v>165</v>
       </c>
       <c r="P123" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q123">
         <v>3.6</v>
@@ -26415,7 +26442,7 @@
         <v>1.88</v>
       </c>
       <c r="AP123">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ123">
         <v>1.78</v>
@@ -26543,7 +26570,7 @@
         <v>166</v>
       </c>
       <c r="P124" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26749,7 +26776,7 @@
         <v>90</v>
       </c>
       <c r="P125" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -27033,10 +27060,10 @@
         <v>1.33</v>
       </c>
       <c r="AP126">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ126">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR126">
         <v>2.25</v>
@@ -27161,7 +27188,7 @@
         <v>168</v>
       </c>
       <c r="P127" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q127">
         <v>4.75</v>
@@ -27242,7 +27269,7 @@
         <v>1</v>
       </c>
       <c r="AQ127">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR127">
         <v>1.13</v>
@@ -27367,7 +27394,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q128">
         <v>5.5</v>
@@ -27445,10 +27472,10 @@
         <v>1.43</v>
       </c>
       <c r="AP128">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ128">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR128">
         <v>1.48</v>
@@ -27651,7 +27678,7 @@
         <v>0.86</v>
       </c>
       <c r="AP129">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ129">
         <v>0.67</v>
@@ -27779,7 +27806,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q130">
         <v>2.2</v>
@@ -27985,7 +28012,7 @@
         <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q131">
         <v>1.62</v>
@@ -28269,10 +28296,10 @@
         <v>1.38</v>
       </c>
       <c r="AP132">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ132">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR132">
         <v>1.5</v>
@@ -28809,7 +28836,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q135">
         <v>3.35</v>
@@ -29299,10 +29326,10 @@
         <v>1.63</v>
       </c>
       <c r="AP137">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ137">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR137">
         <v>1.83</v>
@@ -29427,7 +29454,7 @@
         <v>90</v>
       </c>
       <c r="P138" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q138">
         <v>5.25</v>
@@ -29584,6 +29611,1448 @@
       </c>
       <c r="BP138">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="139" spans="1:68">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>7347894</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45479.33333333334</v>
+      </c>
+      <c r="F139">
+        <v>18</v>
+      </c>
+      <c r="G139" t="s">
+        <v>73</v>
+      </c>
+      <c r="H139" t="s">
+        <v>84</v>
+      </c>
+      <c r="I139">
+        <v>2</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>2</v>
+      </c>
+      <c r="L139">
+        <v>2</v>
+      </c>
+      <c r="M139">
+        <v>2</v>
+      </c>
+      <c r="N139">
+        <v>4</v>
+      </c>
+      <c r="O139" t="s">
+        <v>177</v>
+      </c>
+      <c r="P139" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q139">
+        <v>2.32</v>
+      </c>
+      <c r="R139">
+        <v>2.41</v>
+      </c>
+      <c r="S139">
+        <v>4.39</v>
+      </c>
+      <c r="T139">
+        <v>1.32</v>
+      </c>
+      <c r="U139">
+        <v>3.22</v>
+      </c>
+      <c r="V139">
+        <v>2.48</v>
+      </c>
+      <c r="W139">
+        <v>1.51</v>
+      </c>
+      <c r="X139">
+        <v>5.85</v>
+      </c>
+      <c r="Y139">
+        <v>1.11</v>
+      </c>
+      <c r="Z139">
+        <v>1.75</v>
+      </c>
+      <c r="AA139">
+        <v>3.75</v>
+      </c>
+      <c r="AB139">
+        <v>4</v>
+      </c>
+      <c r="AC139">
+        <v>1.01</v>
+      </c>
+      <c r="AD139">
+        <v>11</v>
+      </c>
+      <c r="AE139">
+        <v>1.2</v>
+      </c>
+      <c r="AF139">
+        <v>4</v>
+      </c>
+      <c r="AG139">
+        <v>1.7</v>
+      </c>
+      <c r="AH139">
+        <v>2</v>
+      </c>
+      <c r="AI139">
+        <v>1.63</v>
+      </c>
+      <c r="AJ139">
+        <v>2.22</v>
+      </c>
+      <c r="AK139">
+        <v>1.24</v>
+      </c>
+      <c r="AL139">
+        <v>1.26</v>
+      </c>
+      <c r="AM139">
+        <v>1.96</v>
+      </c>
+      <c r="AN139">
+        <v>0.88</v>
+      </c>
+      <c r="AO139">
+        <v>1</v>
+      </c>
+      <c r="AP139">
+        <v>0.89</v>
+      </c>
+      <c r="AQ139">
+        <v>1</v>
+      </c>
+      <c r="AR139">
+        <v>1.65</v>
+      </c>
+      <c r="AS139">
+        <v>1.04</v>
+      </c>
+      <c r="AT139">
+        <v>2.69</v>
+      </c>
+      <c r="AU139">
+        <v>7</v>
+      </c>
+      <c r="AV139">
+        <v>8</v>
+      </c>
+      <c r="AW139">
+        <v>10</v>
+      </c>
+      <c r="AX139">
+        <v>5</v>
+      </c>
+      <c r="AY139">
+        <v>17</v>
+      </c>
+      <c r="AZ139">
+        <v>13</v>
+      </c>
+      <c r="BA139">
+        <v>12</v>
+      </c>
+      <c r="BB139">
+        <v>4</v>
+      </c>
+      <c r="BC139">
+        <v>16</v>
+      </c>
+      <c r="BD139">
+        <v>1.62</v>
+      </c>
+      <c r="BE139">
+        <v>8</v>
+      </c>
+      <c r="BF139">
+        <v>2.62</v>
+      </c>
+      <c r="BG139">
+        <v>1.29</v>
+      </c>
+      <c r="BH139">
+        <v>3.14</v>
+      </c>
+      <c r="BI139">
+        <v>1.54</v>
+      </c>
+      <c r="BJ139">
+        <v>2.25</v>
+      </c>
+      <c r="BK139">
+        <v>2</v>
+      </c>
+      <c r="BL139">
+        <v>1.8</v>
+      </c>
+      <c r="BM139">
+        <v>2.54</v>
+      </c>
+      <c r="BN139">
+        <v>1.43</v>
+      </c>
+      <c r="BO139">
+        <v>3.48</v>
+      </c>
+      <c r="BP139">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="140" spans="1:68">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>7347895</v>
+      </c>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" t="s">
+        <v>69</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45479.35763888889</v>
+      </c>
+      <c r="F140">
+        <v>18</v>
+      </c>
+      <c r="G140" t="s">
+        <v>79</v>
+      </c>
+      <c r="H140" t="s">
+        <v>70</v>
+      </c>
+      <c r="I140">
+        <v>3</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>3</v>
+      </c>
+      <c r="L140">
+        <v>6</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>6</v>
+      </c>
+      <c r="O140" t="s">
+        <v>178</v>
+      </c>
+      <c r="P140" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q140">
+        <v>2.25</v>
+      </c>
+      <c r="R140">
+        <v>2.38</v>
+      </c>
+      <c r="S140">
+        <v>4.5</v>
+      </c>
+      <c r="T140">
+        <v>1.3</v>
+      </c>
+      <c r="U140">
+        <v>3.4</v>
+      </c>
+      <c r="V140">
+        <v>2.5</v>
+      </c>
+      <c r="W140">
+        <v>1.5</v>
+      </c>
+      <c r="X140">
+        <v>6</v>
+      </c>
+      <c r="Y140">
+        <v>1.13</v>
+      </c>
+      <c r="Z140">
+        <v>1.7</v>
+      </c>
+      <c r="AA140">
+        <v>3.7</v>
+      </c>
+      <c r="AB140">
+        <v>4.5</v>
+      </c>
+      <c r="AC140">
+        <v>1.04</v>
+      </c>
+      <c r="AD140">
+        <v>15.25</v>
+      </c>
+      <c r="AE140">
+        <v>1.22</v>
+      </c>
+      <c r="AF140">
+        <v>4.37</v>
+      </c>
+      <c r="AG140">
+        <v>1.7</v>
+      </c>
+      <c r="AH140">
+        <v>2</v>
+      </c>
+      <c r="AI140">
+        <v>1.62</v>
+      </c>
+      <c r="AJ140">
+        <v>2.2</v>
+      </c>
+      <c r="AK140">
+        <v>1.16</v>
+      </c>
+      <c r="AL140">
+        <v>1.2</v>
+      </c>
+      <c r="AM140">
+        <v>2.05</v>
+      </c>
+      <c r="AN140">
+        <v>2.5</v>
+      </c>
+      <c r="AO140">
+        <v>1.44</v>
+      </c>
+      <c r="AP140">
+        <v>2.56</v>
+      </c>
+      <c r="AQ140">
+        <v>1.3</v>
+      </c>
+      <c r="AR140">
+        <v>2.23</v>
+      </c>
+      <c r="AS140">
+        <v>1.71</v>
+      </c>
+      <c r="AT140">
+        <v>3.94</v>
+      </c>
+      <c r="AU140">
+        <v>8</v>
+      </c>
+      <c r="AV140">
+        <v>0</v>
+      </c>
+      <c r="AW140">
+        <v>9</v>
+      </c>
+      <c r="AX140">
+        <v>5</v>
+      </c>
+      <c r="AY140">
+        <v>17</v>
+      </c>
+      <c r="AZ140">
+        <v>5</v>
+      </c>
+      <c r="BA140">
+        <v>8</v>
+      </c>
+      <c r="BB140">
+        <v>1</v>
+      </c>
+      <c r="BC140">
+        <v>9</v>
+      </c>
+      <c r="BD140">
+        <v>1.73</v>
+      </c>
+      <c r="BE140">
+        <v>8</v>
+      </c>
+      <c r="BF140">
+        <v>2.38</v>
+      </c>
+      <c r="BG140">
+        <v>1.24</v>
+      </c>
+      <c r="BH140">
+        <v>3.48</v>
+      </c>
+      <c r="BI140">
+        <v>1.45</v>
+      </c>
+      <c r="BJ140">
+        <v>2.48</v>
+      </c>
+      <c r="BK140">
+        <v>2</v>
+      </c>
+      <c r="BL140">
+        <v>1.8</v>
+      </c>
+      <c r="BM140">
+        <v>2.3</v>
+      </c>
+      <c r="BN140">
+        <v>1.52</v>
+      </c>
+      <c r="BO140">
+        <v>3.08</v>
+      </c>
+      <c r="BP140">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:68">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>7347896</v>
+      </c>
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45479.375</v>
+      </c>
+      <c r="F141">
+        <v>18</v>
+      </c>
+      <c r="G141" t="s">
+        <v>74</v>
+      </c>
+      <c r="H141" t="s">
+        <v>82</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
+      </c>
+      <c r="K141">
+        <v>2</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="M141">
+        <v>1</v>
+      </c>
+      <c r="N141">
+        <v>2</v>
+      </c>
+      <c r="O141" t="s">
+        <v>134</v>
+      </c>
+      <c r="P141" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q141">
+        <v>3.81</v>
+      </c>
+      <c r="R141">
+        <v>2.31</v>
+      </c>
+      <c r="S141">
+        <v>2.66</v>
+      </c>
+      <c r="T141">
+        <v>1.32</v>
+      </c>
+      <c r="U141">
+        <v>3.24</v>
+      </c>
+      <c r="V141">
+        <v>2.56</v>
+      </c>
+      <c r="W141">
+        <v>1.48</v>
+      </c>
+      <c r="X141">
+        <v>5.75</v>
+      </c>
+      <c r="Y141">
+        <v>1.12</v>
+      </c>
+      <c r="Z141">
+        <v>3.33</v>
+      </c>
+      <c r="AA141">
+        <v>3.57</v>
+      </c>
+      <c r="AB141">
+        <v>2.06</v>
+      </c>
+      <c r="AC141">
+        <v>1.01</v>
+      </c>
+      <c r="AD141">
+        <v>11</v>
+      </c>
+      <c r="AE141">
+        <v>1.2</v>
+      </c>
+      <c r="AF141">
+        <v>4</v>
+      </c>
+      <c r="AG141">
+        <v>1.67</v>
+      </c>
+      <c r="AH141">
+        <v>2.1</v>
+      </c>
+      <c r="AI141">
+        <v>1.57</v>
+      </c>
+      <c r="AJ141">
+        <v>2.34</v>
+      </c>
+      <c r="AK141">
+        <v>1.75</v>
+      </c>
+      <c r="AL141">
+        <v>1.27</v>
+      </c>
+      <c r="AM141">
+        <v>1.33</v>
+      </c>
+      <c r="AN141">
+        <v>1.13</v>
+      </c>
+      <c r="AO141">
+        <v>1.22</v>
+      </c>
+      <c r="AP141">
+        <v>1.11</v>
+      </c>
+      <c r="AQ141">
+        <v>1.2</v>
+      </c>
+      <c r="AR141">
+        <v>1.04</v>
+      </c>
+      <c r="AS141">
+        <v>1.36</v>
+      </c>
+      <c r="AT141">
+        <v>2.4</v>
+      </c>
+      <c r="AU141">
+        <v>5</v>
+      </c>
+      <c r="AV141">
+        <v>5</v>
+      </c>
+      <c r="AW141">
+        <v>3</v>
+      </c>
+      <c r="AX141">
+        <v>7</v>
+      </c>
+      <c r="AY141">
+        <v>8</v>
+      </c>
+      <c r="AZ141">
+        <v>12</v>
+      </c>
+      <c r="BA141">
+        <v>3</v>
+      </c>
+      <c r="BB141">
+        <v>7</v>
+      </c>
+      <c r="BC141">
+        <v>10</v>
+      </c>
+      <c r="BD141">
+        <v>2.25</v>
+      </c>
+      <c r="BE141">
+        <v>8</v>
+      </c>
+      <c r="BF141">
+        <v>1.83</v>
+      </c>
+      <c r="BG141">
+        <v>1.25</v>
+      </c>
+      <c r="BH141">
+        <v>3.42</v>
+      </c>
+      <c r="BI141">
+        <v>1.48</v>
+      </c>
+      <c r="BJ141">
+        <v>2.4</v>
+      </c>
+      <c r="BK141">
+        <v>1.9</v>
+      </c>
+      <c r="BL141">
+        <v>1.9</v>
+      </c>
+      <c r="BM141">
+        <v>2.38</v>
+      </c>
+      <c r="BN141">
+        <v>1.49</v>
+      </c>
+      <c r="BO141">
+        <v>3.2</v>
+      </c>
+      <c r="BP141">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="142" spans="1:68">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>7347897</v>
+      </c>
+      <c r="C142" t="s">
+        <v>68</v>
+      </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45480.33333333334</v>
+      </c>
+      <c r="F142">
+        <v>18</v>
+      </c>
+      <c r="G142" t="s">
+        <v>81</v>
+      </c>
+      <c r="H142" t="s">
+        <v>75</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142">
+        <v>1</v>
+      </c>
+      <c r="O142" t="s">
+        <v>90</v>
+      </c>
+      <c r="P142" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q142">
+        <v>7</v>
+      </c>
+      <c r="R142">
+        <v>2.6</v>
+      </c>
+      <c r="S142">
+        <v>1.83</v>
+      </c>
+      <c r="T142">
+        <v>1.29</v>
+      </c>
+      <c r="U142">
+        <v>3.5</v>
+      </c>
+      <c r="V142">
+        <v>2.25</v>
+      </c>
+      <c r="W142">
+        <v>1.57</v>
+      </c>
+      <c r="X142">
+        <v>5.5</v>
+      </c>
+      <c r="Y142">
+        <v>1.14</v>
+      </c>
+      <c r="Z142">
+        <v>6.75</v>
+      </c>
+      <c r="AA142">
+        <v>4.8</v>
+      </c>
+      <c r="AB142">
+        <v>1.36</v>
+      </c>
+      <c r="AC142">
+        <v>1.02</v>
+      </c>
+      <c r="AD142">
+        <v>14.3</v>
+      </c>
+      <c r="AE142">
+        <v>1.17</v>
+      </c>
+      <c r="AF142">
+        <v>4.82</v>
+      </c>
+      <c r="AG142">
+        <v>1.55</v>
+      </c>
+      <c r="AH142">
+        <v>2.3</v>
+      </c>
+      <c r="AI142">
+        <v>1.8</v>
+      </c>
+      <c r="AJ142">
+        <v>1.95</v>
+      </c>
+      <c r="AK142">
+        <v>2.8</v>
+      </c>
+      <c r="AL142">
+        <v>1.14</v>
+      </c>
+      <c r="AM142">
+        <v>1.06</v>
+      </c>
+      <c r="AN142">
+        <v>0.63</v>
+      </c>
+      <c r="AO142">
+        <v>1.63</v>
+      </c>
+      <c r="AP142">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AQ142">
+        <v>1.78</v>
+      </c>
+      <c r="AR142">
+        <v>1.24</v>
+      </c>
+      <c r="AS142">
+        <v>1.59</v>
+      </c>
+      <c r="AT142">
+        <v>2.83</v>
+      </c>
+      <c r="AU142">
+        <v>5</v>
+      </c>
+      <c r="AV142">
+        <v>6</v>
+      </c>
+      <c r="AW142">
+        <v>5</v>
+      </c>
+      <c r="AX142">
+        <v>2</v>
+      </c>
+      <c r="AY142">
+        <v>10</v>
+      </c>
+      <c r="AZ142">
+        <v>8</v>
+      </c>
+      <c r="BA142">
+        <v>3</v>
+      </c>
+      <c r="BB142">
+        <v>6</v>
+      </c>
+      <c r="BC142">
+        <v>9</v>
+      </c>
+      <c r="BD142">
+        <v>4</v>
+      </c>
+      <c r="BE142">
+        <v>9.5</v>
+      </c>
+      <c r="BF142">
+        <v>1.3</v>
+      </c>
+      <c r="BG142">
+        <v>1.26</v>
+      </c>
+      <c r="BH142">
+        <v>3.34</v>
+      </c>
+      <c r="BI142">
+        <v>1.48</v>
+      </c>
+      <c r="BJ142">
+        <v>2.4</v>
+      </c>
+      <c r="BK142">
+        <v>1.9</v>
+      </c>
+      <c r="BL142">
+        <v>1.9</v>
+      </c>
+      <c r="BM142">
+        <v>2.38</v>
+      </c>
+      <c r="BN142">
+        <v>1.49</v>
+      </c>
+      <c r="BO142">
+        <v>3.2</v>
+      </c>
+      <c r="BP142">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="143" spans="1:68">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>7347898</v>
+      </c>
+      <c r="C143" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143" t="s">
+        <v>69</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45480.35763888889</v>
+      </c>
+      <c r="F143">
+        <v>18</v>
+      </c>
+      <c r="G143" t="s">
+        <v>85</v>
+      </c>
+      <c r="H143" t="s">
+        <v>83</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="M143">
+        <v>2</v>
+      </c>
+      <c r="N143">
+        <v>3</v>
+      </c>
+      <c r="O143" t="s">
+        <v>179</v>
+      </c>
+      <c r="P143" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q143">
+        <v>2.2</v>
+      </c>
+      <c r="R143">
+        <v>2.5</v>
+      </c>
+      <c r="S143">
+        <v>4.33</v>
+      </c>
+      <c r="T143">
+        <v>1.25</v>
+      </c>
+      <c r="U143">
+        <v>3.75</v>
+      </c>
+      <c r="V143">
+        <v>2.2</v>
+      </c>
+      <c r="W143">
+        <v>1.62</v>
+      </c>
+      <c r="X143">
+        <v>5</v>
+      </c>
+      <c r="Y143">
+        <v>1.17</v>
+      </c>
+      <c r="Z143">
+        <v>1.68</v>
+      </c>
+      <c r="AA143">
+        <v>3.9</v>
+      </c>
+      <c r="AB143">
+        <v>4.1</v>
+      </c>
+      <c r="AC143">
+        <v>1.02</v>
+      </c>
+      <c r="AD143">
+        <v>12</v>
+      </c>
+      <c r="AE143">
+        <v>1.18</v>
+      </c>
+      <c r="AF143">
+        <v>4.5</v>
+      </c>
+      <c r="AG143">
+        <v>1.45</v>
+      </c>
+      <c r="AH143">
+        <v>2.55</v>
+      </c>
+      <c r="AI143">
+        <v>1.53</v>
+      </c>
+      <c r="AJ143">
+        <v>2.38</v>
+      </c>
+      <c r="AK143">
+        <v>1.16</v>
+      </c>
+      <c r="AL143">
+        <v>1.17</v>
+      </c>
+      <c r="AM143">
+        <v>2.1</v>
+      </c>
+      <c r="AN143">
+        <v>2.38</v>
+      </c>
+      <c r="AO143">
+        <v>1.38</v>
+      </c>
+      <c r="AP143">
+        <v>2.11</v>
+      </c>
+      <c r="AQ143">
+        <v>1.56</v>
+      </c>
+      <c r="AR143">
+        <v>1.75</v>
+      </c>
+      <c r="AS143">
+        <v>1.27</v>
+      </c>
+      <c r="AT143">
+        <v>3.02</v>
+      </c>
+      <c r="AU143">
+        <v>-1</v>
+      </c>
+      <c r="AV143">
+        <v>-1</v>
+      </c>
+      <c r="AW143">
+        <v>-1</v>
+      </c>
+      <c r="AX143">
+        <v>-1</v>
+      </c>
+      <c r="AY143">
+        <v>-1</v>
+      </c>
+      <c r="AZ143">
+        <v>-1</v>
+      </c>
+      <c r="BA143">
+        <v>-1</v>
+      </c>
+      <c r="BB143">
+        <v>-1</v>
+      </c>
+      <c r="BC143">
+        <v>-1</v>
+      </c>
+      <c r="BD143">
+        <v>1.33</v>
+      </c>
+      <c r="BE143">
+        <v>9.5</v>
+      </c>
+      <c r="BF143">
+        <v>4</v>
+      </c>
+      <c r="BG143">
+        <v>1.27</v>
+      </c>
+      <c r="BH143">
+        <v>3.28</v>
+      </c>
+      <c r="BI143">
+        <v>1.51</v>
+      </c>
+      <c r="BJ143">
+        <v>2.32</v>
+      </c>
+      <c r="BK143">
+        <v>1.95</v>
+      </c>
+      <c r="BL143">
+        <v>1.85</v>
+      </c>
+      <c r="BM143">
+        <v>2.45</v>
+      </c>
+      <c r="BN143">
+        <v>1.46</v>
+      </c>
+      <c r="BO143">
+        <v>3.34</v>
+      </c>
+      <c r="BP143">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="144" spans="1:68">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>7347899</v>
+      </c>
+      <c r="C144" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" t="s">
+        <v>69</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45480.35763888889</v>
+      </c>
+      <c r="F144">
+        <v>18</v>
+      </c>
+      <c r="G144" t="s">
+        <v>78</v>
+      </c>
+      <c r="H144" t="s">
+        <v>71</v>
+      </c>
+      <c r="I144">
+        <v>3</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
+      </c>
+      <c r="K144">
+        <v>4</v>
+      </c>
+      <c r="L144">
+        <v>3</v>
+      </c>
+      <c r="M144">
+        <v>1</v>
+      </c>
+      <c r="N144">
+        <v>4</v>
+      </c>
+      <c r="O144" t="s">
+        <v>180</v>
+      </c>
+      <c r="P144" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q144">
+        <v>2.38</v>
+      </c>
+      <c r="R144">
+        <v>2.38</v>
+      </c>
+      <c r="S144">
+        <v>4.33</v>
+      </c>
+      <c r="T144">
+        <v>1.3</v>
+      </c>
+      <c r="U144">
+        <v>3.4</v>
+      </c>
+      <c r="V144">
+        <v>2.38</v>
+      </c>
+      <c r="W144">
+        <v>1.53</v>
+      </c>
+      <c r="X144">
+        <v>6</v>
+      </c>
+      <c r="Y144">
+        <v>1.13</v>
+      </c>
+      <c r="Z144">
+        <v>1.78</v>
+      </c>
+      <c r="AA144">
+        <v>3.8</v>
+      </c>
+      <c r="AB144">
+        <v>3.88</v>
+      </c>
+      <c r="AC144">
+        <v>1.01</v>
+      </c>
+      <c r="AD144">
+        <v>12</v>
+      </c>
+      <c r="AE144">
+        <v>1.18</v>
+      </c>
+      <c r="AF144">
+        <v>4.5</v>
+      </c>
+      <c r="AG144">
+        <v>1.62</v>
+      </c>
+      <c r="AH144">
+        <v>2.25</v>
+      </c>
+      <c r="AI144">
+        <v>1.62</v>
+      </c>
+      <c r="AJ144">
+        <v>2.2</v>
+      </c>
+      <c r="AK144">
+        <v>1.2</v>
+      </c>
+      <c r="AL144">
+        <v>1.2</v>
+      </c>
+      <c r="AM144">
+        <v>1.95</v>
+      </c>
+      <c r="AN144">
+        <v>1</v>
+      </c>
+      <c r="AO144">
+        <v>0.88</v>
+      </c>
+      <c r="AP144">
+        <v>1.22</v>
+      </c>
+      <c r="AQ144">
+        <v>0.78</v>
+      </c>
+      <c r="AR144">
+        <v>1.4</v>
+      </c>
+      <c r="AS144">
+        <v>1.13</v>
+      </c>
+      <c r="AT144">
+        <v>2.53</v>
+      </c>
+      <c r="AU144">
+        <v>-1</v>
+      </c>
+      <c r="AV144">
+        <v>-1</v>
+      </c>
+      <c r="AW144">
+        <v>-1</v>
+      </c>
+      <c r="AX144">
+        <v>-1</v>
+      </c>
+      <c r="AY144">
+        <v>-1</v>
+      </c>
+      <c r="AZ144">
+        <v>-1</v>
+      </c>
+      <c r="BA144">
+        <v>-1</v>
+      </c>
+      <c r="BB144">
+        <v>-1</v>
+      </c>
+      <c r="BC144">
+        <v>-1</v>
+      </c>
+      <c r="BD144">
+        <v>1.62</v>
+      </c>
+      <c r="BE144">
+        <v>8</v>
+      </c>
+      <c r="BF144">
+        <v>2.62</v>
+      </c>
+      <c r="BG144">
+        <v>1.25</v>
+      </c>
+      <c r="BH144">
+        <v>3.6</v>
+      </c>
+      <c r="BI144">
+        <v>1.39</v>
+      </c>
+      <c r="BJ144">
+        <v>2.77</v>
+      </c>
+      <c r="BK144">
+        <v>2</v>
+      </c>
+      <c r="BL144">
+        <v>1.8</v>
+      </c>
+      <c r="BM144">
+        <v>2.17</v>
+      </c>
+      <c r="BN144">
+        <v>1.61</v>
+      </c>
+      <c r="BO144">
+        <v>2.85</v>
+      </c>
+      <c r="BP144">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="145" spans="1:68">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>7347900</v>
+      </c>
+      <c r="C145" t="s">
+        <v>68</v>
+      </c>
+      <c r="D145" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45480.375</v>
+      </c>
+      <c r="F145">
+        <v>18</v>
+      </c>
+      <c r="G145" t="s">
+        <v>76</v>
+      </c>
+      <c r="H145" t="s">
+        <v>77</v>
+      </c>
+      <c r="I145">
+        <v>3</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>3</v>
+      </c>
+      <c r="L145">
+        <v>4</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>4</v>
+      </c>
+      <c r="O145" t="s">
+        <v>181</v>
+      </c>
+      <c r="P145" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q145">
+        <v>1.8</v>
+      </c>
+      <c r="R145">
+        <v>2.75</v>
+      </c>
+      <c r="S145">
+        <v>6.5</v>
+      </c>
+      <c r="T145">
+        <v>1.22</v>
+      </c>
+      <c r="U145">
+        <v>4</v>
+      </c>
+      <c r="V145">
+        <v>2.1</v>
+      </c>
+      <c r="W145">
+        <v>1.67</v>
+      </c>
+      <c r="X145">
+        <v>4.5</v>
+      </c>
+      <c r="Y145">
+        <v>1.18</v>
+      </c>
+      <c r="Z145">
+        <v>1.35</v>
+      </c>
+      <c r="AA145">
+        <v>5</v>
+      </c>
+      <c r="AB145">
+        <v>6.75</v>
+      </c>
+      <c r="AC145">
+        <v>1.02</v>
+      </c>
+      <c r="AD145">
+        <v>26</v>
+      </c>
+      <c r="AE145">
+        <v>1.11</v>
+      </c>
+      <c r="AF145">
+        <v>5.5</v>
+      </c>
+      <c r="AG145">
+        <v>1.45</v>
+      </c>
+      <c r="AH145">
+        <v>2.55</v>
+      </c>
+      <c r="AI145">
+        <v>1.67</v>
+      </c>
+      <c r="AJ145">
+        <v>2.1</v>
+      </c>
+      <c r="AK145">
+        <v>1.04</v>
+      </c>
+      <c r="AL145">
+        <v>1.11</v>
+      </c>
+      <c r="AM145">
+        <v>3.2</v>
+      </c>
+      <c r="AN145">
+        <v>2.11</v>
+      </c>
+      <c r="AO145">
+        <v>1.14</v>
+      </c>
+      <c r="AP145">
+        <v>2.2</v>
+      </c>
+      <c r="AQ145">
+        <v>1</v>
+      </c>
+      <c r="AR145">
+        <v>1.9</v>
+      </c>
+      <c r="AS145">
+        <v>1.05</v>
+      </c>
+      <c r="AT145">
+        <v>2.95</v>
+      </c>
+      <c r="AU145">
+        <v>-1</v>
+      </c>
+      <c r="AV145">
+        <v>-1</v>
+      </c>
+      <c r="AW145">
+        <v>-1</v>
+      </c>
+      <c r="AX145">
+        <v>-1</v>
+      </c>
+      <c r="AY145">
+        <v>-1</v>
+      </c>
+      <c r="AZ145">
+        <v>-1</v>
+      </c>
+      <c r="BA145">
+        <v>-1</v>
+      </c>
+      <c r="BB145">
+        <v>-1</v>
+      </c>
+      <c r="BC145">
+        <v>-1</v>
+      </c>
+      <c r="BD145">
+        <v>1.25</v>
+      </c>
+      <c r="BE145">
+        <v>10</v>
+      </c>
+      <c r="BF145">
+        <v>4.5</v>
+      </c>
+      <c r="BG145">
+        <v>1.2</v>
+      </c>
+      <c r="BH145">
+        <v>4</v>
+      </c>
+      <c r="BI145">
+        <v>1.29</v>
+      </c>
+      <c r="BJ145">
+        <v>3.3</v>
+      </c>
+      <c r="BK145">
+        <v>1.7</v>
+      </c>
+      <c r="BL145">
+        <v>2.05</v>
+      </c>
+      <c r="BM145">
+        <v>1.9</v>
+      </c>
+      <c r="BN145">
+        <v>1.8</v>
+      </c>
+      <c r="BO145">
+        <v>2.45</v>
+      </c>
+      <c r="BP145">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -30577,31 +30577,31 @@
         <v>3.02</v>
       </c>
       <c r="AU143">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AV143">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW143">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX143">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY143">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="AZ143">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BA143">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BB143">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC143">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD143">
         <v>1.33</v>
@@ -30783,31 +30783,31 @@
         <v>2.53</v>
       </c>
       <c r="AU144">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV144">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW144">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX144">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AY144">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AZ144">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BA144">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB144">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BC144">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BD144">
         <v>1.62</v>
@@ -30989,31 +30989,31 @@
         <v>2.95</v>
       </c>
       <c r="AU145">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AV145">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AW145">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AX145">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY145">
-        <v>-1</v>
+        <v>24</v>
       </c>
       <c r="AZ145">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BA145">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB145">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC145">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD145">
         <v>1.25</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="272">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -562,6 +562,12 @@
     <t>['36', '38', '40', '54']</t>
   </si>
   <si>
+    <t>['16', '30', '33', '58', '71']</t>
+  </si>
+  <si>
+    <t>['8', '59']</t>
+  </si>
+  <si>
     <t>['81', '90+3']</t>
   </si>
   <si>
@@ -818,6 +824,12 @@
   </si>
   <si>
     <t>['40', '82']</t>
+  </si>
+  <si>
+    <t>['13']</t>
+  </si>
+  <si>
+    <t>['40']</t>
   </si>
 </sst>
 </file>
@@ -1179,7 +1191,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP145"/>
+  <dimension ref="A1:BP148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1438,7 +1450,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1644,7 +1656,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -1928,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ4">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2262,7 +2274,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2340,10 +2352,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ6">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2546,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ7">
         <v>0.78</v>
@@ -2880,7 +2892,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -3498,7 +3510,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -3785,7 +3797,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ13">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR13">
         <v>2.48</v>
@@ -4116,7 +4128,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4197,7 +4209,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ15">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4400,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ16">
         <v>1.78</v>
@@ -4528,7 +4540,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4609,7 +4621,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ17">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4734,7 +4746,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4940,7 +4952,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5021,7 +5033,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ19">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5224,7 +5236,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -5636,7 +5648,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ22">
         <v>1.13</v>
@@ -5764,7 +5776,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -5845,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="AQ23">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -5970,7 +5982,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6176,7 +6188,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6382,7 +6394,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6588,7 +6600,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -6794,7 +6806,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7000,7 +7012,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -7206,7 +7218,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7618,7 +7630,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7824,7 +7836,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q33">
         <v>1.73</v>
@@ -8030,7 +8042,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q34">
         <v>6.4</v>
@@ -8236,7 +8248,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q35">
         <v>1.96</v>
@@ -8442,7 +8454,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q36">
         <v>1.98</v>
@@ -8648,7 +8660,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -8729,7 +8741,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ37">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR37">
         <v>2.37</v>
@@ -8854,7 +8866,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q38">
         <v>3.25</v>
@@ -8935,7 +8947,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ38">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR38">
         <v>1.05</v>
@@ -9138,7 +9150,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -9344,7 +9356,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ40">
         <v>0.75</v>
@@ -9678,7 +9690,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9884,7 +9896,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q43">
         <v>2.3</v>
@@ -9965,7 +9977,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ43">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR43">
         <v>2.56</v>
@@ -10090,7 +10102,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q44">
         <v>4.75</v>
@@ -10502,7 +10514,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10580,7 +10592,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ46">
         <v>1.3</v>
@@ -10708,7 +10720,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10786,7 +10798,7 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ47">
         <v>0.78</v>
@@ -11201,7 +11213,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ49">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR49">
         <v>1.41</v>
@@ -11326,7 +11338,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11407,7 +11419,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ50">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR50">
         <v>1.28</v>
@@ -11532,7 +11544,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11738,7 +11750,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q52">
         <v>1.83</v>
@@ -11816,7 +11828,7 @@
         <v>2</v>
       </c>
       <c r="AP52">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ52">
         <v>1.2</v>
@@ -12150,7 +12162,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q54">
         <v>7.5</v>
@@ -12768,7 +12780,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12974,7 +12986,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q58">
         <v>2.8</v>
@@ -13180,7 +13192,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q59">
         <v>3.15</v>
@@ -13261,7 +13273,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ59">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR59">
         <v>1.86</v>
@@ -13386,7 +13398,7 @@
         <v>106</v>
       </c>
       <c r="P60" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13467,7 +13479,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ60">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR60">
         <v>1.57</v>
@@ -13592,7 +13604,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q61">
         <v>3.11</v>
@@ -13670,7 +13682,7 @@
         <v>0.67</v>
       </c>
       <c r="AP61">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ61">
         <v>1.13</v>
@@ -14004,7 +14016,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q63">
         <v>2.75</v>
@@ -14082,7 +14094,7 @@
         <v>1.5</v>
       </c>
       <c r="AP63">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ63">
         <v>1.3</v>
@@ -14288,7 +14300,7 @@
         <v>3</v>
       </c>
       <c r="AP64">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ64">
         <v>2.56</v>
@@ -14416,7 +14428,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q65">
         <v>1.8</v>
@@ -14703,7 +14715,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ66">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR66">
         <v>1.59</v>
@@ -14828,7 +14840,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q67">
         <v>2.38</v>
@@ -15034,7 +15046,7 @@
         <v>127</v>
       </c>
       <c r="P68" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15446,7 +15458,7 @@
         <v>90</v>
       </c>
       <c r="P70" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q70">
         <v>5.5</v>
@@ -15652,7 +15664,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q71">
         <v>2.45</v>
@@ -15730,10 +15742,10 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ71">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR71">
         <v>1.59</v>
@@ -16270,7 +16282,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q74">
         <v>2.65</v>
@@ -16351,7 +16363,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ74">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR74">
         <v>1.58</v>
@@ -16476,7 +16488,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -16888,7 +16900,7 @@
         <v>133</v>
       </c>
       <c r="P77" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17300,7 +17312,7 @@
         <v>135</v>
       </c>
       <c r="P79" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17506,7 +17518,7 @@
         <v>90</v>
       </c>
       <c r="P80" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -17712,7 +17724,7 @@
         <v>136</v>
       </c>
       <c r="P81" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17918,7 +17930,7 @@
         <v>137</v>
       </c>
       <c r="P82" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q82">
         <v>1.91</v>
@@ -17996,7 +18008,7 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ82">
         <v>1.13</v>
@@ -18124,7 +18136,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q83">
         <v>1.62</v>
@@ -18202,7 +18214,7 @@
         <v>1.4</v>
       </c>
       <c r="AP83">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ83">
         <v>1</v>
@@ -18536,7 +18548,7 @@
         <v>99</v>
       </c>
       <c r="P85" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18742,7 +18754,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q86">
         <v>1.83</v>
@@ -18948,7 +18960,7 @@
         <v>90</v>
       </c>
       <c r="P87" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -19026,7 +19038,7 @@
         <v>0.75</v>
       </c>
       <c r="AP87">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ87">
         <v>0.75</v>
@@ -19154,7 +19166,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19566,7 +19578,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q90">
         <v>1.61</v>
@@ -19772,7 +19784,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q91">
         <v>1.8</v>
@@ -19978,7 +19990,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q92">
         <v>3.8</v>
@@ -20056,10 +20068,10 @@
         <v>2</v>
       </c>
       <c r="AP92">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ92">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR92">
         <v>1.07</v>
@@ -20184,7 +20196,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q93">
         <v>2.55</v>
@@ -20265,7 +20277,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ93">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR93">
         <v>1.57</v>
@@ -20390,7 +20402,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q94">
         <v>4.5</v>
@@ -20596,7 +20608,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q95">
         <v>4.5</v>
@@ -20677,7 +20689,7 @@
         <v>1</v>
       </c>
       <c r="AQ95">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR95">
         <v>1.1</v>
@@ -20802,7 +20814,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q96">
         <v>9</v>
@@ -21214,7 +21226,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q98">
         <v>4.63</v>
@@ -21295,7 +21307,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ98">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR98">
         <v>1.45</v>
@@ -21420,7 +21432,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q99">
         <v>2.31</v>
@@ -21501,7 +21513,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ99">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR99">
         <v>1.77</v>
@@ -21626,7 +21638,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21832,7 +21844,7 @@
         <v>151</v>
       </c>
       <c r="P101" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q101">
         <v>2.43</v>
@@ -22038,7 +22050,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -22244,7 +22256,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -22528,7 +22540,7 @@
         <v>1.8</v>
       </c>
       <c r="AP104">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ104">
         <v>1.78</v>
@@ -23274,7 +23286,7 @@
         <v>156</v>
       </c>
       <c r="P108" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q108">
         <v>3.4</v>
@@ -23355,7 +23367,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ108">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR108">
         <v>1.44</v>
@@ -23480,7 +23492,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q109">
         <v>1.95</v>
@@ -23970,7 +23982,7 @@
         <v>1.17</v>
       </c>
       <c r="AP111">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ111">
         <v>0.78</v>
@@ -24098,7 +24110,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q112">
         <v>1.73</v>
@@ -24176,7 +24188,7 @@
         <v>1</v>
       </c>
       <c r="AP112">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ112">
         <v>0.67</v>
@@ -24510,7 +24522,7 @@
         <v>90</v>
       </c>
       <c r="P114" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -24716,7 +24728,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -24922,7 +24934,7 @@
         <v>160</v>
       </c>
       <c r="P116" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q116">
         <v>1.95</v>
@@ -25128,7 +25140,7 @@
         <v>161</v>
       </c>
       <c r="P117" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q117">
         <v>3.1</v>
@@ -25209,7 +25221,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ117">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR117">
         <v>1.56</v>
@@ -25334,7 +25346,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q118">
         <v>3.75</v>
@@ -25412,7 +25424,7 @@
         <v>0.57</v>
       </c>
       <c r="AP118">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ118">
         <v>0.78</v>
@@ -25540,7 +25552,7 @@
         <v>162</v>
       </c>
       <c r="P119" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -25746,7 +25758,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q120">
         <v>3.6</v>
@@ -25827,7 +25839,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ120">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR120">
         <v>1.17</v>
@@ -25952,7 +25964,7 @@
         <v>163</v>
       </c>
       <c r="P121" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26364,7 +26376,7 @@
         <v>165</v>
       </c>
       <c r="P123" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q123">
         <v>3.6</v>
@@ -26445,7 +26457,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ123">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR123">
         <v>1.27</v>
@@ -26570,7 +26582,7 @@
         <v>166</v>
       </c>
       <c r="P124" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26776,7 +26788,7 @@
         <v>90</v>
       </c>
       <c r="P125" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -27188,7 +27200,7 @@
         <v>168</v>
       </c>
       <c r="P127" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q127">
         <v>4.75</v>
@@ -27394,7 +27406,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q128">
         <v>5.5</v>
@@ -27806,7 +27818,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q130">
         <v>2.2</v>
@@ -28012,7 +28024,7 @@
         <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q131">
         <v>1.62</v>
@@ -28090,7 +28102,7 @@
         <v>0.86</v>
       </c>
       <c r="AP131">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ131">
         <v>0.75</v>
@@ -28836,7 +28848,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q135">
         <v>3.35</v>
@@ -29120,7 +29132,7 @@
         <v>0.75</v>
       </c>
       <c r="AP136">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ136">
         <v>0.67</v>
@@ -29454,7 +29466,7 @@
         <v>90</v>
       </c>
       <c r="P138" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q138">
         <v>5.25</v>
@@ -29660,7 +29672,7 @@
         <v>177</v>
       </c>
       <c r="P139" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q139">
         <v>2.32</v>
@@ -30072,7 +30084,7 @@
         <v>134</v>
       </c>
       <c r="P141" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q141">
         <v>3.81</v>
@@ -30150,7 +30162,7 @@
         <v>1.22</v>
       </c>
       <c r="AP141">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ141">
         <v>1.2</v>
@@ -30278,7 +30290,7 @@
         <v>90</v>
       </c>
       <c r="P142" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q142">
         <v>7</v>
@@ -30484,7 +30496,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q143">
         <v>2.2</v>
@@ -30565,7 +30577,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ143">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR143">
         <v>1.75</v>
@@ -31053,6 +31065,624 @@
       </c>
       <c r="BP145">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="146" spans="1:68">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>7347902</v>
+      </c>
+      <c r="C146" t="s">
+        <v>68</v>
+      </c>
+      <c r="D146" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45485.35763888889</v>
+      </c>
+      <c r="F146">
+        <v>19</v>
+      </c>
+      <c r="G146" t="s">
+        <v>74</v>
+      </c>
+      <c r="H146" t="s">
+        <v>83</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+      <c r="K146">
+        <v>2</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+      <c r="N146">
+        <v>2</v>
+      </c>
+      <c r="O146" t="s">
+        <v>112</v>
+      </c>
+      <c r="P146" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q146">
+        <v>4.2</v>
+      </c>
+      <c r="R146">
+        <v>2.25</v>
+      </c>
+      <c r="S146">
+        <v>2.3</v>
+      </c>
+      <c r="T146">
+        <v>1.3</v>
+      </c>
+      <c r="U146">
+        <v>3.2</v>
+      </c>
+      <c r="V146">
+        <v>2.35</v>
+      </c>
+      <c r="W146">
+        <v>1.53</v>
+      </c>
+      <c r="X146">
+        <v>5.4</v>
+      </c>
+      <c r="Y146">
+        <v>1.13</v>
+      </c>
+      <c r="Z146">
+        <v>4</v>
+      </c>
+      <c r="AA146">
+        <v>3.8</v>
+      </c>
+      <c r="AB146">
+        <v>1.8</v>
+      </c>
+      <c r="AC146">
+        <v>1.04</v>
+      </c>
+      <c r="AD146">
+        <v>9.5</v>
+      </c>
+      <c r="AE146">
+        <v>1.2</v>
+      </c>
+      <c r="AF146">
+        <v>4.2</v>
+      </c>
+      <c r="AG146">
+        <v>1.56</v>
+      </c>
+      <c r="AH146">
+        <v>2.35</v>
+      </c>
+      <c r="AI146">
+        <v>1.53</v>
+      </c>
+      <c r="AJ146">
+        <v>2.25</v>
+      </c>
+      <c r="AK146">
+        <v>1.95</v>
+      </c>
+      <c r="AL146">
+        <v>1.2</v>
+      </c>
+      <c r="AM146">
+        <v>1.2</v>
+      </c>
+      <c r="AN146">
+        <v>1.11</v>
+      </c>
+      <c r="AO146">
+        <v>1.56</v>
+      </c>
+      <c r="AP146">
+        <v>1.1</v>
+      </c>
+      <c r="AQ146">
+        <v>1.5</v>
+      </c>
+      <c r="AR146">
+        <v>1.03</v>
+      </c>
+      <c r="AS146">
+        <v>1.24</v>
+      </c>
+      <c r="AT146">
+        <v>2.27</v>
+      </c>
+      <c r="AU146">
+        <v>2</v>
+      </c>
+      <c r="AV146">
+        <v>3</v>
+      </c>
+      <c r="AW146">
+        <v>2</v>
+      </c>
+      <c r="AX146">
+        <v>4</v>
+      </c>
+      <c r="AY146">
+        <v>4</v>
+      </c>
+      <c r="AZ146">
+        <v>7</v>
+      </c>
+      <c r="BA146">
+        <v>5</v>
+      </c>
+      <c r="BB146">
+        <v>5</v>
+      </c>
+      <c r="BC146">
+        <v>10</v>
+      </c>
+      <c r="BD146">
+        <v>2.98</v>
+      </c>
+      <c r="BE146">
+        <v>6.65</v>
+      </c>
+      <c r="BF146">
+        <v>1.62</v>
+      </c>
+      <c r="BG146">
+        <v>1.29</v>
+      </c>
+      <c r="BH146">
+        <v>3.14</v>
+      </c>
+      <c r="BI146">
+        <v>1.58</v>
+      </c>
+      <c r="BJ146">
+        <v>2.3</v>
+      </c>
+      <c r="BK146">
+        <v>2.02</v>
+      </c>
+      <c r="BL146">
+        <v>1.78</v>
+      </c>
+      <c r="BM146">
+        <v>2.52</v>
+      </c>
+      <c r="BN146">
+        <v>1.48</v>
+      </c>
+      <c r="BO146">
+        <v>3.48</v>
+      </c>
+      <c r="BP146">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="147" spans="1:68">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>7347903</v>
+      </c>
+      <c r="C147" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45485.35763888889</v>
+      </c>
+      <c r="F147">
+        <v>19</v>
+      </c>
+      <c r="G147" t="s">
+        <v>72</v>
+      </c>
+      <c r="H147" t="s">
+        <v>85</v>
+      </c>
+      <c r="I147">
+        <v>3</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="K147">
+        <v>4</v>
+      </c>
+      <c r="L147">
+        <v>5</v>
+      </c>
+      <c r="M147">
+        <v>1</v>
+      </c>
+      <c r="N147">
+        <v>6</v>
+      </c>
+      <c r="O147" t="s">
+        <v>182</v>
+      </c>
+      <c r="P147" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q147">
+        <v>1.71</v>
+      </c>
+      <c r="R147">
+        <v>2.88</v>
+      </c>
+      <c r="S147">
+        <v>6.76</v>
+      </c>
+      <c r="T147">
+        <v>1.22</v>
+      </c>
+      <c r="U147">
+        <v>3.75</v>
+      </c>
+      <c r="V147">
+        <v>2.08</v>
+      </c>
+      <c r="W147">
+        <v>1.71</v>
+      </c>
+      <c r="X147">
+        <v>4.4</v>
+      </c>
+      <c r="Y147">
+        <v>1.19</v>
+      </c>
+      <c r="Z147">
+        <v>1.25</v>
+      </c>
+      <c r="AA147">
+        <v>6</v>
+      </c>
+      <c r="AB147">
+        <v>9</v>
+      </c>
+      <c r="AC147">
+        <v>1.02</v>
+      </c>
+      <c r="AD147">
+        <v>24.5</v>
+      </c>
+      <c r="AE147">
+        <v>1.12</v>
+      </c>
+      <c r="AF147">
+        <v>5.5</v>
+      </c>
+      <c r="AG147">
+        <v>1.41</v>
+      </c>
+      <c r="AH147">
+        <v>2.69</v>
+      </c>
+      <c r="AI147">
+        <v>1.64</v>
+      </c>
+      <c r="AJ147">
+        <v>2.2</v>
+      </c>
+      <c r="AK147">
+        <v>1.05</v>
+      </c>
+      <c r="AL147">
+        <v>1.11</v>
+      </c>
+      <c r="AM147">
+        <v>3</v>
+      </c>
+      <c r="AN147">
+        <v>2.75</v>
+      </c>
+      <c r="AO147">
+        <v>1.67</v>
+      </c>
+      <c r="AP147">
+        <v>2.78</v>
+      </c>
+      <c r="AQ147">
+        <v>1.5</v>
+      </c>
+      <c r="AR147">
+        <v>2.38</v>
+      </c>
+      <c r="AS147">
+        <v>1.13</v>
+      </c>
+      <c r="AT147">
+        <v>3.51</v>
+      </c>
+      <c r="AU147">
+        <v>10</v>
+      </c>
+      <c r="AV147">
+        <v>4</v>
+      </c>
+      <c r="AW147">
+        <v>16</v>
+      </c>
+      <c r="AX147">
+        <v>5</v>
+      </c>
+      <c r="AY147">
+        <v>26</v>
+      </c>
+      <c r="AZ147">
+        <v>9</v>
+      </c>
+      <c r="BA147">
+        <v>8</v>
+      </c>
+      <c r="BB147">
+        <v>3</v>
+      </c>
+      <c r="BC147">
+        <v>11</v>
+      </c>
+      <c r="BD147">
+        <v>1.25</v>
+      </c>
+      <c r="BE147">
+        <v>12</v>
+      </c>
+      <c r="BF147">
+        <v>4.2</v>
+      </c>
+      <c r="BG147">
+        <v>1.13</v>
+      </c>
+      <c r="BH147">
+        <v>4.75</v>
+      </c>
+      <c r="BI147">
+        <v>1.28</v>
+      </c>
+      <c r="BJ147">
+        <v>3.2</v>
+      </c>
+      <c r="BK147">
+        <v>1.51</v>
+      </c>
+      <c r="BL147">
+        <v>2.32</v>
+      </c>
+      <c r="BM147">
+        <v>1.95</v>
+      </c>
+      <c r="BN147">
+        <v>1.75</v>
+      </c>
+      <c r="BO147">
+        <v>2.38</v>
+      </c>
+      <c r="BP147">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="148" spans="1:68">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>7347904</v>
+      </c>
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45485.375</v>
+      </c>
+      <c r="F148">
+        <v>19</v>
+      </c>
+      <c r="G148" t="s">
+        <v>75</v>
+      </c>
+      <c r="H148" t="s">
+        <v>73</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>1</v>
+      </c>
+      <c r="K148">
+        <v>2</v>
+      </c>
+      <c r="L148">
+        <v>2</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+      <c r="N148">
+        <v>3</v>
+      </c>
+      <c r="O148" t="s">
+        <v>183</v>
+      </c>
+      <c r="P148" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q148">
+        <v>1.93</v>
+      </c>
+      <c r="R148">
+        <v>2.45</v>
+      </c>
+      <c r="S148">
+        <v>5.25</v>
+      </c>
+      <c r="T148">
+        <v>1.25</v>
+      </c>
+      <c r="U148">
+        <v>3.5</v>
+      </c>
+      <c r="V148">
+        <v>2.25</v>
+      </c>
+      <c r="W148">
+        <v>1.57</v>
+      </c>
+      <c r="X148">
+        <v>5.1</v>
+      </c>
+      <c r="Y148">
+        <v>1.14</v>
+      </c>
+      <c r="Z148">
+        <v>1.45</v>
+      </c>
+      <c r="AA148">
+        <v>4.33</v>
+      </c>
+      <c r="AB148">
+        <v>5.75</v>
+      </c>
+      <c r="AC148">
+        <v>1.03</v>
+      </c>
+      <c r="AD148">
+        <v>10</v>
+      </c>
+      <c r="AE148">
+        <v>1.17</v>
+      </c>
+      <c r="AF148">
+        <v>4.75</v>
+      </c>
+      <c r="AG148">
+        <v>1.53</v>
+      </c>
+      <c r="AH148">
+        <v>2.4</v>
+      </c>
+      <c r="AI148">
+        <v>1.62</v>
+      </c>
+      <c r="AJ148">
+        <v>2.1</v>
+      </c>
+      <c r="AK148">
+        <v>1.09</v>
+      </c>
+      <c r="AL148">
+        <v>1.15</v>
+      </c>
+      <c r="AM148">
+        <v>2.6</v>
+      </c>
+      <c r="AN148">
+        <v>2.44</v>
+      </c>
+      <c r="AO148">
+        <v>1.78</v>
+      </c>
+      <c r="AP148">
+        <v>2.5</v>
+      </c>
+      <c r="AQ148">
+        <v>1.6</v>
+      </c>
+      <c r="AR148">
+        <v>1.81</v>
+      </c>
+      <c r="AS148">
+        <v>1.35</v>
+      </c>
+      <c r="AT148">
+        <v>3.16</v>
+      </c>
+      <c r="AU148">
+        <v>14</v>
+      </c>
+      <c r="AV148">
+        <v>2</v>
+      </c>
+      <c r="AW148">
+        <v>6</v>
+      </c>
+      <c r="AX148">
+        <v>1</v>
+      </c>
+      <c r="AY148">
+        <v>20</v>
+      </c>
+      <c r="AZ148">
+        <v>3</v>
+      </c>
+      <c r="BA148">
+        <v>12</v>
+      </c>
+      <c r="BB148">
+        <v>1</v>
+      </c>
+      <c r="BC148">
+        <v>13</v>
+      </c>
+      <c r="BD148">
+        <v>1.25</v>
+      </c>
+      <c r="BE148">
+        <v>11</v>
+      </c>
+      <c r="BF148">
+        <v>4.33</v>
+      </c>
+      <c r="BG148">
+        <v>1.18</v>
+      </c>
+      <c r="BH148">
+        <v>4.05</v>
+      </c>
+      <c r="BI148">
+        <v>1.36</v>
+      </c>
+      <c r="BJ148">
+        <v>2.78</v>
+      </c>
+      <c r="BK148">
+        <v>1.85</v>
+      </c>
+      <c r="BL148">
+        <v>1.85</v>
+      </c>
+      <c r="BM148">
+        <v>2.07</v>
+      </c>
+      <c r="BN148">
+        <v>1.64</v>
+      </c>
+      <c r="BO148">
+        <v>2.71</v>
+      </c>
+      <c r="BP148">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="274">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -568,6 +568,9 @@
     <t>['8', '59']</t>
   </si>
   <si>
+    <t>['20', '47', '55', '87', '90+11']</t>
+  </si>
+  <si>
     <t>['81', '90+3']</t>
   </si>
   <si>
@@ -830,6 +833,9 @@
   </si>
   <si>
     <t>['40']</t>
+  </si>
+  <si>
+    <t>['25', '44']</t>
   </si>
 </sst>
 </file>
@@ -1191,7 +1197,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP148"/>
+  <dimension ref="A1:BP149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1450,7 +1456,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1656,7 +1662,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -1734,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ3">
         <v>1.13</v>
@@ -2274,7 +2280,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2892,7 +2898,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -3510,7 +3516,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -4128,7 +4134,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4540,7 +4546,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4746,7 +4752,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4952,7 +4958,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5442,7 +5448,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ21">
         <v>0.78</v>
@@ -5776,7 +5782,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -5982,7 +5988,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6188,7 +6194,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6269,7 +6275,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ25">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR25">
         <v>0.67</v>
@@ -6394,7 +6400,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6600,7 +6606,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -6806,7 +6812,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7012,7 +7018,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -7218,7 +7224,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7630,7 +7636,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7836,7 +7842,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q33">
         <v>1.73</v>
@@ -8042,7 +8048,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q34">
         <v>6.4</v>
@@ -8248,7 +8254,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q35">
         <v>1.96</v>
@@ -8454,7 +8460,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q36">
         <v>1.98</v>
@@ -8660,7 +8666,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -8866,7 +8872,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q38">
         <v>3.25</v>
@@ -8944,7 +8950,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ38">
         <v>1.6</v>
@@ -9359,7 +9365,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ40">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR40">
         <v>1.36</v>
@@ -9690,7 +9696,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9896,7 +9902,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q43">
         <v>2.3</v>
@@ -10102,7 +10108,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q44">
         <v>4.75</v>
@@ -10514,7 +10520,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10720,7 +10726,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -11007,7 +11013,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ48">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR48">
         <v>1.33</v>
@@ -11338,7 +11344,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11544,7 +11550,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11750,7 +11756,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q52">
         <v>1.83</v>
@@ -12162,7 +12168,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q54">
         <v>7.5</v>
@@ -12780,7 +12786,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12858,7 +12864,7 @@
         <v>0.67</v>
       </c>
       <c r="AP57">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ57">
         <v>1</v>
@@ -12986,7 +12992,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q58">
         <v>2.8</v>
@@ -13192,7 +13198,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q59">
         <v>3.15</v>
@@ -13398,7 +13404,7 @@
         <v>106</v>
       </c>
       <c r="P60" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13604,7 +13610,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q61">
         <v>3.11</v>
@@ -14016,7 +14022,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q63">
         <v>2.75</v>
@@ -14428,7 +14434,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q65">
         <v>1.8</v>
@@ -14840,7 +14846,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q67">
         <v>2.38</v>
@@ -15046,7 +15052,7 @@
         <v>127</v>
       </c>
       <c r="P68" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15458,7 +15464,7 @@
         <v>90</v>
       </c>
       <c r="P70" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q70">
         <v>5.5</v>
@@ -15664,7 +15670,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q71">
         <v>2.45</v>
@@ -16154,7 +16160,7 @@
         <v>2</v>
       </c>
       <c r="AP73">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ73">
         <v>1.3</v>
@@ -16282,7 +16288,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q74">
         <v>2.65</v>
@@ -16488,7 +16494,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -16775,7 +16781,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ76">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR76">
         <v>2.43</v>
@@ -16900,7 +16906,7 @@
         <v>133</v>
       </c>
       <c r="P77" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17312,7 +17318,7 @@
         <v>135</v>
       </c>
       <c r="P79" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17518,7 +17524,7 @@
         <v>90</v>
       </c>
       <c r="P80" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -17724,7 +17730,7 @@
         <v>136</v>
       </c>
       <c r="P81" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17930,7 +17936,7 @@
         <v>137</v>
       </c>
       <c r="P82" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q82">
         <v>1.91</v>
@@ -18136,7 +18142,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q83">
         <v>1.62</v>
@@ -18548,7 +18554,7 @@
         <v>99</v>
       </c>
       <c r="P85" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18754,7 +18760,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q86">
         <v>1.83</v>
@@ -18960,7 +18966,7 @@
         <v>90</v>
       </c>
       <c r="P87" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -19041,7 +19047,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ87">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR87">
         <v>1.16</v>
@@ -19166,7 +19172,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19578,7 +19584,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q90">
         <v>1.61</v>
@@ -19784,7 +19790,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q91">
         <v>1.8</v>
@@ -19990,7 +19996,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q92">
         <v>3.8</v>
@@ -20196,7 +20202,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q93">
         <v>2.55</v>
@@ -20402,7 +20408,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q94">
         <v>4.5</v>
@@ -20608,7 +20614,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q95">
         <v>4.5</v>
@@ -20814,7 +20820,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q96">
         <v>9</v>
@@ -20892,7 +20898,7 @@
         <v>2.2</v>
       </c>
       <c r="AP96">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ96">
         <v>2.6</v>
@@ -21226,7 +21232,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q98">
         <v>4.63</v>
@@ -21432,7 +21438,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q99">
         <v>2.31</v>
@@ -21638,7 +21644,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21844,7 +21850,7 @@
         <v>151</v>
       </c>
       <c r="P101" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q101">
         <v>2.43</v>
@@ -22050,7 +22056,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -22256,7 +22262,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -22334,7 +22340,7 @@
         <v>1.17</v>
       </c>
       <c r="AP103">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ103">
         <v>1</v>
@@ -22749,7 +22755,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ105">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR105">
         <v>1.91</v>
@@ -23286,7 +23292,7 @@
         <v>156</v>
       </c>
       <c r="P108" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q108">
         <v>3.4</v>
@@ -23492,7 +23498,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q109">
         <v>1.95</v>
@@ -24110,7 +24116,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q112">
         <v>1.73</v>
@@ -24522,7 +24528,7 @@
         <v>90</v>
       </c>
       <c r="P114" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -24728,7 +24734,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -24934,7 +24940,7 @@
         <v>160</v>
       </c>
       <c r="P116" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q116">
         <v>1.95</v>
@@ -25140,7 +25146,7 @@
         <v>161</v>
       </c>
       <c r="P117" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q117">
         <v>3.1</v>
@@ -25346,7 +25352,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q118">
         <v>3.75</v>
@@ -25552,7 +25558,7 @@
         <v>162</v>
       </c>
       <c r="P119" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -25758,7 +25764,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q120">
         <v>3.6</v>
@@ -25836,7 +25842,7 @@
         <v>1.14</v>
       </c>
       <c r="AP120">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ120">
         <v>1.5</v>
@@ -25964,7 +25970,7 @@
         <v>163</v>
       </c>
       <c r="P121" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26376,7 +26382,7 @@
         <v>165</v>
       </c>
       <c r="P123" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q123">
         <v>3.6</v>
@@ -26582,7 +26588,7 @@
         <v>166</v>
       </c>
       <c r="P124" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26663,7 +26669,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ124">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR124">
         <v>1.28</v>
@@ -26788,7 +26794,7 @@
         <v>90</v>
       </c>
       <c r="P125" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -27200,7 +27206,7 @@
         <v>168</v>
       </c>
       <c r="P127" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q127">
         <v>4.75</v>
@@ -27406,7 +27412,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q128">
         <v>5.5</v>
@@ -27818,7 +27824,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q130">
         <v>2.2</v>
@@ -28024,7 +28030,7 @@
         <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q131">
         <v>1.62</v>
@@ -28105,7 +28111,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ131">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR131">
         <v>2.36</v>
@@ -28514,7 +28520,7 @@
         <v>2.5</v>
       </c>
       <c r="AP133">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ133">
         <v>2.56</v>
@@ -28848,7 +28854,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q135">
         <v>3.35</v>
@@ -29466,7 +29472,7 @@
         <v>90</v>
       </c>
       <c r="P138" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q138">
         <v>5.25</v>
@@ -29672,7 +29678,7 @@
         <v>177</v>
       </c>
       <c r="P139" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q139">
         <v>2.32</v>
@@ -30084,7 +30090,7 @@
         <v>134</v>
       </c>
       <c r="P141" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q141">
         <v>3.81</v>
@@ -30290,7 +30296,7 @@
         <v>90</v>
       </c>
       <c r="P142" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q142">
         <v>7</v>
@@ -30496,7 +30502,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q143">
         <v>2.2</v>
@@ -31320,7 +31326,7 @@
         <v>182</v>
       </c>
       <c r="P147" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q147">
         <v>1.71</v>
@@ -31526,7 +31532,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q148">
         <v>1.93</v>
@@ -31683,6 +31689,212 @@
       </c>
       <c r="BP148">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="149" spans="1:68">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>7347901</v>
+      </c>
+      <c r="C149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45486.14583333334</v>
+      </c>
+      <c r="F149">
+        <v>19</v>
+      </c>
+      <c r="G149" t="s">
+        <v>71</v>
+      </c>
+      <c r="H149" t="s">
+        <v>76</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <v>2</v>
+      </c>
+      <c r="K149">
+        <v>3</v>
+      </c>
+      <c r="L149">
+        <v>5</v>
+      </c>
+      <c r="M149">
+        <v>2</v>
+      </c>
+      <c r="N149">
+        <v>7</v>
+      </c>
+      <c r="O149" t="s">
+        <v>184</v>
+      </c>
+      <c r="P149" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q149">
+        <v>5.66</v>
+      </c>
+      <c r="R149">
+        <v>2.87</v>
+      </c>
+      <c r="S149">
+        <v>1.81</v>
+      </c>
+      <c r="T149">
+        <v>1.2</v>
+      </c>
+      <c r="U149">
+        <v>4.25</v>
+      </c>
+      <c r="V149">
+        <v>1.98</v>
+      </c>
+      <c r="W149">
+        <v>1.79</v>
+      </c>
+      <c r="X149">
+        <v>4</v>
+      </c>
+      <c r="Y149">
+        <v>1.22</v>
+      </c>
+      <c r="Z149">
+        <v>5.35</v>
+      </c>
+      <c r="AA149">
+        <v>4.85</v>
+      </c>
+      <c r="AB149">
+        <v>1.48</v>
+      </c>
+      <c r="AC149">
+        <v>1.01</v>
+      </c>
+      <c r="AD149">
+        <v>29.5</v>
+      </c>
+      <c r="AE149">
+        <v>1.08</v>
+      </c>
+      <c r="AF149">
+        <v>6.15</v>
+      </c>
+      <c r="AG149">
+        <v>1.29</v>
+      </c>
+      <c r="AH149">
+        <v>3.1</v>
+      </c>
+      <c r="AI149">
+        <v>1.5</v>
+      </c>
+      <c r="AJ149">
+        <v>2.41</v>
+      </c>
+      <c r="AK149">
+        <v>2.75</v>
+      </c>
+      <c r="AL149">
+        <v>1.12</v>
+      </c>
+      <c r="AM149">
+        <v>1.08</v>
+      </c>
+      <c r="AN149">
+        <v>0.67</v>
+      </c>
+      <c r="AO149">
+        <v>0.75</v>
+      </c>
+      <c r="AP149">
+        <v>0.9</v>
+      </c>
+      <c r="AQ149">
+        <v>0.67</v>
+      </c>
+      <c r="AR149">
+        <v>1.16</v>
+      </c>
+      <c r="AS149">
+        <v>1.73</v>
+      </c>
+      <c r="AT149">
+        <v>2.89</v>
+      </c>
+      <c r="AU149">
+        <v>10</v>
+      </c>
+      <c r="AV149">
+        <v>6</v>
+      </c>
+      <c r="AW149">
+        <v>7</v>
+      </c>
+      <c r="AX149">
+        <v>8</v>
+      </c>
+      <c r="AY149">
+        <v>17</v>
+      </c>
+      <c r="AZ149">
+        <v>14</v>
+      </c>
+      <c r="BA149">
+        <v>7</v>
+      </c>
+      <c r="BB149">
+        <v>5</v>
+      </c>
+      <c r="BC149">
+        <v>12</v>
+      </c>
+      <c r="BD149">
+        <v>3.4</v>
+      </c>
+      <c r="BE149">
+        <v>10</v>
+      </c>
+      <c r="BF149">
+        <v>1.36</v>
+      </c>
+      <c r="BG149">
+        <v>1.14</v>
+      </c>
+      <c r="BH149">
+        <v>4.65</v>
+      </c>
+      <c r="BI149">
+        <v>1.29</v>
+      </c>
+      <c r="BJ149">
+        <v>3.14</v>
+      </c>
+      <c r="BK149">
+        <v>1.52</v>
+      </c>
+      <c r="BL149">
+        <v>2.3</v>
+      </c>
+      <c r="BM149">
+        <v>2</v>
+      </c>
+      <c r="BN149">
+        <v>1.73</v>
+      </c>
+      <c r="BO149">
+        <v>2.42</v>
+      </c>
+      <c r="BP149">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="277">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -571,6 +571,12 @@
     <t>['20', '47', '55', '87', '90+11']</t>
   </si>
   <si>
+    <t>['60', '68']</t>
+  </si>
+  <si>
+    <t>['39', '67', '78']</t>
+  </si>
+  <si>
     <t>['81', '90+3']</t>
   </si>
   <si>
@@ -836,6 +842,9 @@
   </si>
   <si>
     <t>['25', '44']</t>
+  </si>
+  <si>
+    <t>['11', '75']</t>
   </si>
 </sst>
 </file>
@@ -1197,7 +1206,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP149"/>
+  <dimension ref="A1:BP153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1456,7 +1465,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1534,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1662,7 +1671,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -1743,7 +1752,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ3">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2155,7 +2164,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2280,7 +2289,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2567,7 +2576,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ7">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2898,7 +2907,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -2976,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AQ9">
         <v>2.56</v>
@@ -3185,7 +3194,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3388,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ11">
         <v>0.78</v>
@@ -3516,7 +3525,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -3800,7 +3809,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ13">
         <v>1.5</v>
@@ -4134,7 +4143,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4546,7 +4555,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4624,7 +4633,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ17">
         <v>1.6</v>
@@ -4752,7 +4761,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4830,7 +4839,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ18">
         <v>0.67</v>
@@ -4958,7 +4967,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5245,7 +5254,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR20">
         <v>1.66</v>
@@ -5451,7 +5460,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ21">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR21">
         <v>0.99</v>
@@ -5657,7 +5666,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ22">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR22">
         <v>2.37</v>
@@ -5782,7 +5791,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -5988,7 +5997,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6066,7 +6075,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ24">
         <v>2.56</v>
@@ -6194,7 +6203,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6272,7 +6281,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AQ25">
         <v>0.67</v>
@@ -6400,7 +6409,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6606,7 +6615,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -6812,7 +6821,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7018,7 +7027,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -7224,7 +7233,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7636,7 +7645,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7842,7 +7851,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q33">
         <v>1.73</v>
@@ -8048,7 +8057,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q34">
         <v>6.4</v>
@@ -8254,7 +8263,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q35">
         <v>1.96</v>
@@ -8332,10 +8341,10 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ35">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR35">
         <v>1.8</v>
@@ -8460,7 +8469,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q36">
         <v>1.98</v>
@@ -8666,7 +8675,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -8744,7 +8753,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ37">
         <v>1.5</v>
@@ -8872,7 +8881,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q38">
         <v>3.25</v>
@@ -9159,7 +9168,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR39">
         <v>1.09</v>
@@ -9568,10 +9577,10 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AQ41">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR41">
         <v>0.89</v>
@@ -9696,7 +9705,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9777,7 +9786,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR42">
         <v>1.84</v>
@@ -9902,7 +9911,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q43">
         <v>2.3</v>
@@ -9980,7 +9989,7 @@
         <v>2.33</v>
       </c>
       <c r="AP43">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ43">
         <v>1.5</v>
@@ -10108,7 +10117,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q44">
         <v>4.75</v>
@@ -10520,7 +10529,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10726,7 +10735,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -11216,7 +11225,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ49">
         <v>1.5</v>
@@ -11344,7 +11353,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11550,7 +11559,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11628,7 +11637,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ51">
         <v>0.67</v>
@@ -11756,7 +11765,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q52">
         <v>1.83</v>
@@ -12043,7 +12052,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ53">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR53">
         <v>1.78</v>
@@ -12168,7 +12177,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q54">
         <v>7.5</v>
@@ -12455,7 +12464,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ55">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR55">
         <v>1.53</v>
@@ -12786,7 +12795,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12867,7 +12876,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ57">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR57">
         <v>1.14</v>
@@ -12992,7 +13001,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q58">
         <v>2.8</v>
@@ -13070,10 +13079,10 @@
         <v>0.25</v>
       </c>
       <c r="AP58">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ58">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR58">
         <v>1.44</v>
@@ -13198,7 +13207,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q59">
         <v>3.15</v>
@@ -13404,7 +13413,7 @@
         <v>106</v>
       </c>
       <c r="P60" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13610,7 +13619,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q61">
         <v>3.11</v>
@@ -13691,7 +13700,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ61">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR61">
         <v>1.2</v>
@@ -14022,7 +14031,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q63">
         <v>2.75</v>
@@ -14434,7 +14443,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q65">
         <v>1.8</v>
@@ -14512,10 +14521,10 @@
         <v>1.25</v>
       </c>
       <c r="AP65">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ65">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR65">
         <v>2.08</v>
@@ -14846,7 +14855,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q67">
         <v>2.38</v>
@@ -14927,7 +14936,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ67">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR67">
         <v>1.71</v>
@@ -15052,7 +15061,7 @@
         <v>127</v>
       </c>
       <c r="P68" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15130,7 +15139,7 @@
         <v>0.75</v>
       </c>
       <c r="AP68">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AQ68">
         <v>0.78</v>
@@ -15464,7 +15473,7 @@
         <v>90</v>
       </c>
       <c r="P70" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q70">
         <v>5.5</v>
@@ -15670,7 +15679,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q71">
         <v>2.45</v>
@@ -15954,7 +15963,7 @@
         <v>1.33</v>
       </c>
       <c r="AP72">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ72">
         <v>0.67</v>
@@ -16288,7 +16297,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q74">
         <v>2.65</v>
@@ -16494,7 +16503,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -16575,7 +16584,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ75">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR75">
         <v>1</v>
@@ -16778,7 +16787,7 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ76">
         <v>0.67</v>
@@ -16906,7 +16915,7 @@
         <v>133</v>
       </c>
       <c r="P77" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -16984,7 +16993,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AQ77">
         <v>0.67</v>
@@ -17193,7 +17202,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ78">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR78">
         <v>1.72</v>
@@ -17318,7 +17327,7 @@
         <v>135</v>
       </c>
       <c r="P79" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17524,7 +17533,7 @@
         <v>90</v>
       </c>
       <c r="P80" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -17602,7 +17611,7 @@
         <v>2</v>
       </c>
       <c r="AP80">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ80">
         <v>2.6</v>
@@ -17730,7 +17739,7 @@
         <v>136</v>
       </c>
       <c r="P81" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17811,7 +17820,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ81">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR81">
         <v>1.34</v>
@@ -17936,7 +17945,7 @@
         <v>137</v>
       </c>
       <c r="P82" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q82">
         <v>1.91</v>
@@ -18017,7 +18026,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ82">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR82">
         <v>1.62</v>
@@ -18142,7 +18151,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q83">
         <v>1.62</v>
@@ -18223,7 +18232,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ83">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR83">
         <v>1.9</v>
@@ -18554,7 +18563,7 @@
         <v>99</v>
       </c>
       <c r="P85" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18760,7 +18769,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q86">
         <v>1.83</v>
@@ -18966,7 +18975,7 @@
         <v>90</v>
       </c>
       <c r="P87" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -19172,7 +19181,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19250,7 +19259,7 @@
         <v>0.8</v>
       </c>
       <c r="AP88">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ88">
         <v>0.78</v>
@@ -19456,10 +19465,10 @@
         <v>0.67</v>
       </c>
       <c r="AP89">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ89">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR89">
         <v>2.42</v>
@@ -19584,7 +19593,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q90">
         <v>1.61</v>
@@ -19662,7 +19671,7 @@
         <v>1.4</v>
       </c>
       <c r="AP90">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ90">
         <v>1.2</v>
@@ -19790,7 +19799,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q91">
         <v>1.8</v>
@@ -19871,7 +19880,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ91">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR91">
         <v>1.74</v>
@@ -19996,7 +20005,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q92">
         <v>3.8</v>
@@ -20202,7 +20211,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q93">
         <v>2.55</v>
@@ -20408,7 +20417,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q94">
         <v>4.5</v>
@@ -20486,7 +20495,7 @@
         <v>1.5</v>
       </c>
       <c r="AP94">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AQ94">
         <v>1.78</v>
@@ -20614,7 +20623,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q95">
         <v>4.5</v>
@@ -20820,7 +20829,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q96">
         <v>9</v>
@@ -21104,7 +21113,7 @@
         <v>1.17</v>
       </c>
       <c r="AP97">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AQ97">
         <v>1.2</v>
@@ -21232,7 +21241,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q98">
         <v>4.63</v>
@@ -21438,7 +21447,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q99">
         <v>2.31</v>
@@ -21644,7 +21653,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21850,7 +21859,7 @@
         <v>151</v>
       </c>
       <c r="P101" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q101">
         <v>2.43</v>
@@ -22056,7 +22065,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -22262,7 +22271,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -22343,7 +22352,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ103">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR103">
         <v>1</v>
@@ -22752,7 +22761,7 @@
         <v>1.2</v>
       </c>
       <c r="AP105">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ105">
         <v>0.67</v>
@@ -23164,7 +23173,7 @@
         <v>2.43</v>
       </c>
       <c r="AP107">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ107">
         <v>2.56</v>
@@ -23292,7 +23301,7 @@
         <v>156</v>
       </c>
       <c r="P108" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q108">
         <v>3.4</v>
@@ -23498,7 +23507,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q109">
         <v>1.95</v>
@@ -23579,7 +23588,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ109">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR109">
         <v>1.9</v>
@@ -23785,7 +23794,7 @@
         <v>1</v>
       </c>
       <c r="AQ110">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR110">
         <v>1.08</v>
@@ -24116,7 +24125,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q112">
         <v>1.73</v>
@@ -24400,7 +24409,7 @@
         <v>1.83</v>
       </c>
       <c r="AP113">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AQ113">
         <v>1.3</v>
@@ -24528,7 +24537,7 @@
         <v>90</v>
       </c>
       <c r="P114" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -24734,7 +24743,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -24940,7 +24949,7 @@
         <v>160</v>
       </c>
       <c r="P116" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q116">
         <v>1.95</v>
@@ -25021,7 +25030,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ116">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR116">
         <v>1.76</v>
@@ -25146,7 +25155,7 @@
         <v>161</v>
       </c>
       <c r="P117" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q117">
         <v>3.1</v>
@@ -25352,7 +25361,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q118">
         <v>3.75</v>
@@ -25433,7 +25442,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ118">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR118">
         <v>1.03</v>
@@ -25558,7 +25567,7 @@
         <v>162</v>
       </c>
       <c r="P119" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -25636,7 +25645,7 @@
         <v>1.5</v>
       </c>
       <c r="AP119">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ119">
         <v>1.78</v>
@@ -25764,7 +25773,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q120">
         <v>3.6</v>
@@ -25970,7 +25979,7 @@
         <v>163</v>
       </c>
       <c r="P121" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26048,7 +26057,7 @@
         <v>2.43</v>
       </c>
       <c r="AP121">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AQ121">
         <v>2.6</v>
@@ -26382,7 +26391,7 @@
         <v>165</v>
       </c>
       <c r="P123" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q123">
         <v>3.6</v>
@@ -26588,7 +26597,7 @@
         <v>166</v>
       </c>
       <c r="P124" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26666,7 +26675,7 @@
         <v>1</v>
       </c>
       <c r="AP124">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ124">
         <v>0.67</v>
@@ -26794,7 +26803,7 @@
         <v>90</v>
       </c>
       <c r="P125" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -27078,7 +27087,7 @@
         <v>1.33</v>
       </c>
       <c r="AP126">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ126">
         <v>1</v>
@@ -27206,7 +27215,7 @@
         <v>168</v>
       </c>
       <c r="P127" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q127">
         <v>4.75</v>
@@ -27412,7 +27421,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q128">
         <v>5.5</v>
@@ -27824,7 +27833,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q130">
         <v>2.2</v>
@@ -27905,7 +27914,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ130">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR130">
         <v>1.73</v>
@@ -28030,7 +28039,7 @@
         <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q131">
         <v>1.62</v>
@@ -28729,7 +28738,7 @@
         <v>1</v>
       </c>
       <c r="AQ134">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR134">
         <v>1.14</v>
@@ -28854,7 +28863,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q135">
         <v>3.35</v>
@@ -28932,10 +28941,10 @@
         <v>0.86</v>
       </c>
       <c r="AP135">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AQ135">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR135">
         <v>1.21</v>
@@ -29472,7 +29481,7 @@
         <v>90</v>
       </c>
       <c r="P138" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q138">
         <v>5.25</v>
@@ -29678,7 +29687,7 @@
         <v>177</v>
       </c>
       <c r="P139" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q139">
         <v>2.32</v>
@@ -29759,7 +29768,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ139">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR139">
         <v>1.65</v>
@@ -29962,7 +29971,7 @@
         <v>1.44</v>
       </c>
       <c r="AP140">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ140">
         <v>1.3</v>
@@ -30090,7 +30099,7 @@
         <v>134</v>
       </c>
       <c r="P141" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q141">
         <v>3.81</v>
@@ -30296,7 +30305,7 @@
         <v>90</v>
       </c>
       <c r="P142" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q142">
         <v>7</v>
@@ -30502,7 +30511,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q143">
         <v>2.2</v>
@@ -31326,7 +31335,7 @@
         <v>182</v>
       </c>
       <c r="P147" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q147">
         <v>1.71</v>
@@ -31532,7 +31541,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q148">
         <v>1.93</v>
@@ -31738,7 +31747,7 @@
         <v>184</v>
       </c>
       <c r="P149" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q149">
         <v>5.66</v>
@@ -31895,6 +31904,830 @@
       </c>
       <c r="BP149">
         <v>1.47</v>
+      </c>
+    </row>
+    <row r="150" spans="1:68">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>7347905</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45486.35763888889</v>
+      </c>
+      <c r="F150">
+        <v>19</v>
+      </c>
+      <c r="G150" t="s">
+        <v>70</v>
+      </c>
+      <c r="H150" t="s">
+        <v>78</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+      <c r="K150">
+        <v>2</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+      <c r="M150">
+        <v>1</v>
+      </c>
+      <c r="N150">
+        <v>2</v>
+      </c>
+      <c r="O150" t="s">
+        <v>134</v>
+      </c>
+      <c r="P150" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q150">
+        <v>1.84</v>
+      </c>
+      <c r="R150">
+        <v>2.72</v>
+      </c>
+      <c r="S150">
+        <v>6</v>
+      </c>
+      <c r="T150">
+        <v>1.25</v>
+      </c>
+      <c r="U150">
+        <v>3.72</v>
+      </c>
+      <c r="V150">
+        <v>2.19</v>
+      </c>
+      <c r="W150">
+        <v>1.64</v>
+      </c>
+      <c r="X150">
+        <v>4.8</v>
+      </c>
+      <c r="Y150">
+        <v>1.16</v>
+      </c>
+      <c r="Z150">
+        <v>1.44</v>
+      </c>
+      <c r="AA150">
+        <v>4.6</v>
+      </c>
+      <c r="AB150">
+        <v>5.8</v>
+      </c>
+      <c r="AC150">
+        <v>1.02</v>
+      </c>
+      <c r="AD150">
+        <v>21.5</v>
+      </c>
+      <c r="AE150">
+        <v>1.15</v>
+      </c>
+      <c r="AF150">
+        <v>4.75</v>
+      </c>
+      <c r="AG150">
+        <v>1.48</v>
+      </c>
+      <c r="AH150">
+        <v>2.47</v>
+      </c>
+      <c r="AI150">
+        <v>1.62</v>
+      </c>
+      <c r="AJ150">
+        <v>2.23</v>
+      </c>
+      <c r="AK150">
+        <v>1.12</v>
+      </c>
+      <c r="AL150">
+        <v>1.18</v>
+      </c>
+      <c r="AM150">
+        <v>2.67</v>
+      </c>
+      <c r="AN150">
+        <v>2.13</v>
+      </c>
+      <c r="AO150">
+        <v>0.78</v>
+      </c>
+      <c r="AP150">
+        <v>2</v>
+      </c>
+      <c r="AQ150">
+        <v>0.8</v>
+      </c>
+      <c r="AR150">
+        <v>1.97</v>
+      </c>
+      <c r="AS150">
+        <v>1.19</v>
+      </c>
+      <c r="AT150">
+        <v>3.16</v>
+      </c>
+      <c r="AU150">
+        <v>4</v>
+      </c>
+      <c r="AV150">
+        <v>3</v>
+      </c>
+      <c r="AW150">
+        <v>7</v>
+      </c>
+      <c r="AX150">
+        <v>2</v>
+      </c>
+      <c r="AY150">
+        <v>11</v>
+      </c>
+      <c r="AZ150">
+        <v>5</v>
+      </c>
+      <c r="BA150">
+        <v>7</v>
+      </c>
+      <c r="BB150">
+        <v>2</v>
+      </c>
+      <c r="BC150">
+        <v>9</v>
+      </c>
+      <c r="BD150">
+        <v>1.25</v>
+      </c>
+      <c r="BE150">
+        <v>11</v>
+      </c>
+      <c r="BF150">
+        <v>4.2</v>
+      </c>
+      <c r="BG150">
+        <v>1.17</v>
+      </c>
+      <c r="BH150">
+        <v>4.2</v>
+      </c>
+      <c r="BI150">
+        <v>1.34</v>
+      </c>
+      <c r="BJ150">
+        <v>2.88</v>
+      </c>
+      <c r="BK150">
+        <v>1.77</v>
+      </c>
+      <c r="BL150">
+        <v>1.95</v>
+      </c>
+      <c r="BM150">
+        <v>2.05</v>
+      </c>
+      <c r="BN150">
+        <v>1.7</v>
+      </c>
+      <c r="BO150">
+        <v>2.64</v>
+      </c>
+      <c r="BP150">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:68">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>7347906</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45486.35763888889</v>
+      </c>
+      <c r="F151">
+        <v>19</v>
+      </c>
+      <c r="G151" t="s">
+        <v>77</v>
+      </c>
+      <c r="H151" t="s">
+        <v>81</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>1</v>
+      </c>
+      <c r="K151">
+        <v>1</v>
+      </c>
+      <c r="L151">
+        <v>2</v>
+      </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+      <c r="N151">
+        <v>3</v>
+      </c>
+      <c r="O151" t="s">
+        <v>185</v>
+      </c>
+      <c r="P151" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q151">
+        <v>2.98</v>
+      </c>
+      <c r="R151">
+        <v>2.1</v>
+      </c>
+      <c r="S151">
+        <v>3.42</v>
+      </c>
+      <c r="T151">
+        <v>1.38</v>
+      </c>
+      <c r="U151">
+        <v>2.8</v>
+      </c>
+      <c r="V151">
+        <v>2.7</v>
+      </c>
+      <c r="W151">
+        <v>1.4</v>
+      </c>
+      <c r="X151">
+        <v>6</v>
+      </c>
+      <c r="Y151">
+        <v>1.09</v>
+      </c>
+      <c r="Z151">
+        <v>2.6</v>
+      </c>
+      <c r="AA151">
+        <v>3</v>
+      </c>
+      <c r="AB151">
+        <v>2.75</v>
+      </c>
+      <c r="AC151">
+        <v>1.03</v>
+      </c>
+      <c r="AD151">
+        <v>9</v>
+      </c>
+      <c r="AE151">
+        <v>1.29</v>
+      </c>
+      <c r="AF151">
+        <v>3.3</v>
+      </c>
+      <c r="AG151">
+        <v>1.93</v>
+      </c>
+      <c r="AH151">
+        <v>1.87</v>
+      </c>
+      <c r="AI151">
+        <v>1.72</v>
+      </c>
+      <c r="AJ151">
+        <v>2</v>
+      </c>
+      <c r="AK151">
+        <v>1.4</v>
+      </c>
+      <c r="AL151">
+        <v>1.35</v>
+      </c>
+      <c r="AM151">
+        <v>1.55</v>
+      </c>
+      <c r="AN151">
+        <v>0.5</v>
+      </c>
+      <c r="AO151">
+        <v>1</v>
+      </c>
+      <c r="AP151">
+        <v>0.73</v>
+      </c>
+      <c r="AQ151">
+        <v>0.9</v>
+      </c>
+      <c r="AR151">
+        <v>1.13</v>
+      </c>
+      <c r="AS151">
+        <v>1.2</v>
+      </c>
+      <c r="AT151">
+        <v>2.33</v>
+      </c>
+      <c r="AU151">
+        <v>6</v>
+      </c>
+      <c r="AV151">
+        <v>4</v>
+      </c>
+      <c r="AW151">
+        <v>7</v>
+      </c>
+      <c r="AX151">
+        <v>3</v>
+      </c>
+      <c r="AY151">
+        <v>13</v>
+      </c>
+      <c r="AZ151">
+        <v>7</v>
+      </c>
+      <c r="BA151">
+        <v>10</v>
+      </c>
+      <c r="BB151">
+        <v>5</v>
+      </c>
+      <c r="BC151">
+        <v>15</v>
+      </c>
+      <c r="BD151">
+        <v>1.95</v>
+      </c>
+      <c r="BE151">
+        <v>8</v>
+      </c>
+      <c r="BF151">
+        <v>2.05</v>
+      </c>
+      <c r="BG151">
+        <v>1.19</v>
+      </c>
+      <c r="BH151">
+        <v>3.98</v>
+      </c>
+      <c r="BI151">
+        <v>1.38</v>
+      </c>
+      <c r="BJ151">
+        <v>2.71</v>
+      </c>
+      <c r="BK151">
+        <v>1.66</v>
+      </c>
+      <c r="BL151">
+        <v>2.04</v>
+      </c>
+      <c r="BM151">
+        <v>2</v>
+      </c>
+      <c r="BN151">
+        <v>1.73</v>
+      </c>
+      <c r="BO151">
+        <v>2.78</v>
+      </c>
+      <c r="BP151">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="152" spans="1:68">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>7347907</v>
+      </c>
+      <c r="C152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45486.375</v>
+      </c>
+      <c r="F152">
+        <v>19</v>
+      </c>
+      <c r="G152" t="s">
+        <v>79</v>
+      </c>
+      <c r="H152" t="s">
+        <v>84</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <v>1</v>
+      </c>
+      <c r="K152">
+        <v>2</v>
+      </c>
+      <c r="L152">
+        <v>3</v>
+      </c>
+      <c r="M152">
+        <v>2</v>
+      </c>
+      <c r="N152">
+        <v>5</v>
+      </c>
+      <c r="O152" t="s">
+        <v>186</v>
+      </c>
+      <c r="P152" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q152">
+        <v>1.62</v>
+      </c>
+      <c r="R152">
+        <v>2.9</v>
+      </c>
+      <c r="S152">
+        <v>6.5</v>
+      </c>
+      <c r="T152">
+        <v>1.19</v>
+      </c>
+      <c r="U152">
+        <v>4.2</v>
+      </c>
+      <c r="V152">
+        <v>1.97</v>
+      </c>
+      <c r="W152">
+        <v>1.76</v>
+      </c>
+      <c r="X152">
+        <v>4</v>
+      </c>
+      <c r="Y152">
+        <v>1.21</v>
+      </c>
+      <c r="Z152">
+        <v>1.25</v>
+      </c>
+      <c r="AA152">
+        <v>5.8</v>
+      </c>
+      <c r="AB152">
+        <v>8.5</v>
+      </c>
+      <c r="AC152">
+        <v>1.01</v>
+      </c>
+      <c r="AD152">
+        <v>28</v>
+      </c>
+      <c r="AE152">
+        <v>1.11</v>
+      </c>
+      <c r="AF152">
+        <v>6.2</v>
+      </c>
+      <c r="AG152">
+        <v>1.41</v>
+      </c>
+      <c r="AH152">
+        <v>2.69</v>
+      </c>
+      <c r="AI152">
+        <v>1.72</v>
+      </c>
+      <c r="AJ152">
+        <v>2.05</v>
+      </c>
+      <c r="AK152">
+        <v>1.01</v>
+      </c>
+      <c r="AL152">
+        <v>1.08</v>
+      </c>
+      <c r="AM152">
+        <v>3.75</v>
+      </c>
+      <c r="AN152">
+        <v>2.56</v>
+      </c>
+      <c r="AO152">
+        <v>1</v>
+      </c>
+      <c r="AP152">
+        <v>2.6</v>
+      </c>
+      <c r="AQ152">
+        <v>0.9</v>
+      </c>
+      <c r="AR152">
+        <v>2.2</v>
+      </c>
+      <c r="AS152">
+        <v>1.1</v>
+      </c>
+      <c r="AT152">
+        <v>3.3</v>
+      </c>
+      <c r="AU152">
+        <v>8</v>
+      </c>
+      <c r="AV152">
+        <v>7</v>
+      </c>
+      <c r="AW152">
+        <v>10</v>
+      </c>
+      <c r="AX152">
+        <v>5</v>
+      </c>
+      <c r="AY152">
+        <v>18</v>
+      </c>
+      <c r="AZ152">
+        <v>12</v>
+      </c>
+      <c r="BA152">
+        <v>7</v>
+      </c>
+      <c r="BB152">
+        <v>5</v>
+      </c>
+      <c r="BC152">
+        <v>12</v>
+      </c>
+      <c r="BD152">
+        <v>1.22</v>
+      </c>
+      <c r="BE152">
+        <v>12</v>
+      </c>
+      <c r="BF152">
+        <v>4.33</v>
+      </c>
+      <c r="BG152">
+        <v>1.28</v>
+      </c>
+      <c r="BH152">
+        <v>3.18</v>
+      </c>
+      <c r="BI152">
+        <v>1.77</v>
+      </c>
+      <c r="BJ152">
+        <v>1.95</v>
+      </c>
+      <c r="BK152">
+        <v>2</v>
+      </c>
+      <c r="BL152">
+        <v>1.73</v>
+      </c>
+      <c r="BM152">
+        <v>2.51</v>
+      </c>
+      <c r="BN152">
+        <v>1.44</v>
+      </c>
+      <c r="BO152">
+        <v>3.48</v>
+      </c>
+      <c r="BP152">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="153" spans="1:68">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>7347908</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45486.375</v>
+      </c>
+      <c r="F153">
+        <v>19</v>
+      </c>
+      <c r="G153" t="s">
+        <v>82</v>
+      </c>
+      <c r="H153" t="s">
+        <v>80</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <v>0</v>
+      </c>
+      <c r="O153" t="s">
+        <v>90</v>
+      </c>
+      <c r="P153" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q153">
+        <v>3.2</v>
+      </c>
+      <c r="R153">
+        <v>2.1</v>
+      </c>
+      <c r="S153">
+        <v>3.1</v>
+      </c>
+      <c r="T153">
+        <v>1.35</v>
+      </c>
+      <c r="U153">
+        <v>2.9</v>
+      </c>
+      <c r="V153">
+        <v>2.45</v>
+      </c>
+      <c r="W153">
+        <v>1.47</v>
+      </c>
+      <c r="X153">
+        <v>5.8</v>
+      </c>
+      <c r="Y153">
+        <v>1.09</v>
+      </c>
+      <c r="Z153">
+        <v>2.7</v>
+      </c>
+      <c r="AA153">
+        <v>3.1</v>
+      </c>
+      <c r="AB153">
+        <v>2.55</v>
+      </c>
+      <c r="AC153">
+        <v>1.01</v>
+      </c>
+      <c r="AD153">
+        <v>10.5</v>
+      </c>
+      <c r="AE153">
+        <v>1.2</v>
+      </c>
+      <c r="AF153">
+        <v>3.9</v>
+      </c>
+      <c r="AG153">
+        <v>1.67</v>
+      </c>
+      <c r="AH153">
+        <v>2.05</v>
+      </c>
+      <c r="AI153">
+        <v>1.57</v>
+      </c>
+      <c r="AJ153">
+        <v>2.25</v>
+      </c>
+      <c r="AK153">
+        <v>1.5</v>
+      </c>
+      <c r="AL153">
+        <v>1.28</v>
+      </c>
+      <c r="AM153">
+        <v>1.45</v>
+      </c>
+      <c r="AN153">
+        <v>0.63</v>
+      </c>
+      <c r="AO153">
+        <v>1.13</v>
+      </c>
+      <c r="AP153">
+        <v>0.67</v>
+      </c>
+      <c r="AQ153">
+        <v>1.11</v>
+      </c>
+      <c r="AR153">
+        <v>1.34</v>
+      </c>
+      <c r="AS153">
+        <v>1.5</v>
+      </c>
+      <c r="AT153">
+        <v>2.84</v>
+      </c>
+      <c r="AU153">
+        <v>2</v>
+      </c>
+      <c r="AV153">
+        <v>6</v>
+      </c>
+      <c r="AW153">
+        <v>6</v>
+      </c>
+      <c r="AX153">
+        <v>6</v>
+      </c>
+      <c r="AY153">
+        <v>8</v>
+      </c>
+      <c r="AZ153">
+        <v>12</v>
+      </c>
+      <c r="BA153">
+        <v>1</v>
+      </c>
+      <c r="BB153">
+        <v>6</v>
+      </c>
+      <c r="BC153">
+        <v>7</v>
+      </c>
+      <c r="BD153">
+        <v>2.2</v>
+      </c>
+      <c r="BE153">
+        <v>8</v>
+      </c>
+      <c r="BF153">
+        <v>1.83</v>
+      </c>
+      <c r="BG153">
+        <v>1.16</v>
+      </c>
+      <c r="BH153">
+        <v>4.3</v>
+      </c>
+      <c r="BI153">
+        <v>1.33</v>
+      </c>
+      <c r="BJ153">
+        <v>2.93</v>
+      </c>
+      <c r="BK153">
+        <v>1.59</v>
+      </c>
+      <c r="BL153">
+        <v>2.16</v>
+      </c>
+      <c r="BM153">
+        <v>1.93</v>
+      </c>
+      <c r="BN153">
+        <v>1.77</v>
+      </c>
+      <c r="BO153">
+        <v>2.6</v>
+      </c>
+      <c r="BP153">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="284">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -577,6 +577,24 @@
     <t>['39', '67', '78']</t>
   </si>
   <si>
+    <t>['52']</t>
+  </si>
+  <si>
+    <t>['10', '12', '29']</t>
+  </si>
+  <si>
+    <t>['82', '90+7']</t>
+  </si>
+  <si>
+    <t>['67', '90+8']</t>
+  </si>
+  <si>
+    <t>['47', '50', '51', '76', '79']</t>
+  </si>
+  <si>
+    <t>['22', '34']</t>
+  </si>
+  <si>
     <t>['81', '90+3']</t>
   </si>
   <si>
@@ -715,9 +733,6 @@
     <t>['29']</t>
   </si>
   <si>
-    <t>['52']</t>
-  </si>
-  <si>
     <t>['27', '29', '45+4', '50', '56', '79']</t>
   </si>
   <si>
@@ -845,6 +860,12 @@
   </si>
   <si>
     <t>['11', '75']</t>
+  </si>
+  <si>
+    <t>['22', '48', '59']</t>
+  </si>
+  <si>
+    <t>['12', '90+13']</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1227,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP153"/>
+  <dimension ref="A1:BP160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1465,7 +1486,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1546,7 +1567,7 @@
         <v>2</v>
       </c>
       <c r="AQ2">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1671,7 +1692,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -1749,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ3">
         <v>1.11</v>
@@ -1955,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ4">
         <v>1.5</v>
@@ -2289,7 +2310,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2576,7 +2597,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ7">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2907,7 +2928,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -3194,7 +3215,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ10">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3525,7 +3546,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -3603,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ12">
         <v>1</v>
@@ -4143,7 +4164,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4221,7 +4242,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ15">
         <v>1.5</v>
@@ -4430,7 +4451,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ16">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR16">
         <v>1.14</v>
@@ -4555,7 +4576,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4633,10 +4654,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ17">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4761,7 +4782,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4839,7 +4860,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ18">
         <v>0.67</v>
@@ -4967,7 +4988,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5045,7 +5066,7 @@
         <v>2</v>
       </c>
       <c r="AP19">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AQ19">
         <v>1.5</v>
@@ -5457,10 +5478,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ21">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR21">
         <v>0.99</v>
@@ -5663,7 +5684,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ22">
         <v>1.11</v>
@@ -5791,7 +5812,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -5872,7 +5893,7 @@
         <v>1</v>
       </c>
       <c r="AQ23">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -5997,7 +6018,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6203,7 +6224,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6284,7 +6305,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ25">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR25">
         <v>0.67</v>
@@ -6409,7 +6430,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6487,7 +6508,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AQ26">
         <v>0.67</v>
@@ -6615,7 +6636,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -6821,7 +6842,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6899,7 +6920,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ28">
         <v>1.2</v>
@@ -7027,7 +7048,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -7108,7 +7129,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ29">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR29">
         <v>1.72</v>
@@ -7233,7 +7254,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7311,7 +7332,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ30">
         <v>2.6</v>
@@ -7517,7 +7538,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ31">
         <v>1</v>
@@ -7645,7 +7666,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7726,7 +7747,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ32">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR32">
         <v>1.5</v>
@@ -7851,7 +7872,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q33">
         <v>1.73</v>
@@ -8057,7 +8078,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q34">
         <v>6.4</v>
@@ -8135,7 +8156,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ34">
         <v>2.6</v>
@@ -8263,7 +8284,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q35">
         <v>1.96</v>
@@ -8469,7 +8490,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q36">
         <v>1.98</v>
@@ -8547,7 +8568,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ36">
         <v>1.2</v>
@@ -8675,7 +8696,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -8881,7 +8902,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Q38">
         <v>3.25</v>
@@ -8959,10 +8980,10 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ38">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR38">
         <v>1.05</v>
@@ -9168,7 +9189,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ39">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR39">
         <v>1.09</v>
@@ -9374,7 +9395,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ40">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR40">
         <v>1.36</v>
@@ -9580,7 +9601,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ41">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR41">
         <v>0.89</v>
@@ -9705,7 +9726,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9783,7 +9804,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ42">
         <v>0.9</v>
@@ -9911,7 +9932,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="Q43">
         <v>2.3</v>
@@ -10117,7 +10138,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q44">
         <v>4.75</v>
@@ -10198,7 +10219,7 @@
         <v>1</v>
       </c>
       <c r="AQ44">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR44">
         <v>1.03</v>
@@ -10529,7 +10550,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10607,10 +10628,10 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ46">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR46">
         <v>1.97</v>
@@ -10735,7 +10756,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -11022,7 +11043,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ48">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR48">
         <v>1.33</v>
@@ -11225,7 +11246,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ49">
         <v>1.5</v>
@@ -11353,7 +11374,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11434,7 +11455,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ50">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR50">
         <v>1.28</v>
@@ -11559,7 +11580,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11765,7 +11786,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q52">
         <v>1.83</v>
@@ -12049,10 +12070,10 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AQ53">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR53">
         <v>1.78</v>
@@ -12177,7 +12198,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="Q54">
         <v>7.5</v>
@@ -12255,7 +12276,7 @@
         <v>3</v>
       </c>
       <c r="AP54">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ54">
         <v>2.56</v>
@@ -12461,10 +12482,10 @@
         <v>0.33</v>
       </c>
       <c r="AP55">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ55">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR55">
         <v>1.53</v>
@@ -12667,7 +12688,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ56">
         <v>0.78</v>
@@ -12795,7 +12816,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12873,7 +12894,7 @@
         <v>0.67</v>
       </c>
       <c r="AP57">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ57">
         <v>0.9</v>
@@ -13001,7 +13022,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="Q58">
         <v>2.8</v>
@@ -13079,10 +13100,10 @@
         <v>0.25</v>
       </c>
       <c r="AP58">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ58">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR58">
         <v>1.44</v>
@@ -13207,7 +13228,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q59">
         <v>3.15</v>
@@ -13285,10 +13306,10 @@
         <v>2.25</v>
       </c>
       <c r="AP59">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AQ59">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR59">
         <v>1.86</v>
@@ -13413,7 +13434,7 @@
         <v>106</v>
       </c>
       <c r="P60" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13619,7 +13640,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Q61">
         <v>3.11</v>
@@ -14031,7 +14052,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q63">
         <v>2.75</v>
@@ -14112,7 +14133,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ63">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR63">
         <v>1.51</v>
@@ -14315,7 +14336,7 @@
         <v>3</v>
       </c>
       <c r="AP64">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ64">
         <v>2.56</v>
@@ -14443,7 +14464,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q65">
         <v>1.8</v>
@@ -14855,7 +14876,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Q67">
         <v>2.38</v>
@@ -15061,7 +15082,7 @@
         <v>127</v>
       </c>
       <c r="P68" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15473,7 +15494,7 @@
         <v>90</v>
       </c>
       <c r="P70" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q70">
         <v>5.5</v>
@@ -15679,7 +15700,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q71">
         <v>2.45</v>
@@ -16169,10 +16190,10 @@
         <v>2</v>
       </c>
       <c r="AP73">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ73">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR73">
         <v>1.06</v>
@@ -16297,7 +16318,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="Q74">
         <v>2.65</v>
@@ -16375,10 +16396,10 @@
         <v>1.8</v>
       </c>
       <c r="AP74">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ74">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR74">
         <v>1.58</v>
@@ -16503,7 +16524,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -16581,10 +16602,10 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ75">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR75">
         <v>1</v>
@@ -16790,7 +16811,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ76">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR76">
         <v>2.43</v>
@@ -16915,7 +16936,7 @@
         <v>133</v>
       </c>
       <c r="P77" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17199,10 +17220,10 @@
         <v>0.8</v>
       </c>
       <c r="AP78">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AQ78">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR78">
         <v>1.72</v>
@@ -17327,7 +17348,7 @@
         <v>135</v>
       </c>
       <c r="P79" t="s">
-        <v>233</v>
+        <v>187</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17405,10 +17426,10 @@
         <v>2</v>
       </c>
       <c r="AP79">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ79">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR79">
         <v>2.06</v>
@@ -17533,7 +17554,7 @@
         <v>90</v>
       </c>
       <c r="P80" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -17611,7 +17632,7 @@
         <v>2</v>
       </c>
       <c r="AP80">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ80">
         <v>2.6</v>
@@ -17739,7 +17760,7 @@
         <v>136</v>
       </c>
       <c r="P81" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17945,7 +17966,7 @@
         <v>137</v>
       </c>
       <c r="P82" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q82">
         <v>1.91</v>
@@ -18151,7 +18172,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q83">
         <v>1.62</v>
@@ -18229,10 +18250,10 @@
         <v>1.4</v>
       </c>
       <c r="AP83">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ83">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR83">
         <v>1.9</v>
@@ -18563,7 +18584,7 @@
         <v>99</v>
       </c>
       <c r="P85" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18641,10 +18662,10 @@
         <v>1.75</v>
       </c>
       <c r="AP85">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AQ85">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR85">
         <v>1.84</v>
@@ -18769,7 +18790,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q86">
         <v>1.83</v>
@@ -18847,7 +18868,7 @@
         <v>1.25</v>
       </c>
       <c r="AP86">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ86">
         <v>1</v>
@@ -18975,7 +18996,7 @@
         <v>90</v>
       </c>
       <c r="P87" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -19056,7 +19077,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ87">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR87">
         <v>1.16</v>
@@ -19181,7 +19202,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19259,7 +19280,7 @@
         <v>0.8</v>
       </c>
       <c r="AP88">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ88">
         <v>0.78</v>
@@ -19468,7 +19489,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ89">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR89">
         <v>2.42</v>
@@ -19593,7 +19614,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q90">
         <v>1.61</v>
@@ -19799,7 +19820,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q91">
         <v>1.8</v>
@@ -20005,7 +20026,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q92">
         <v>3.8</v>
@@ -20086,7 +20107,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ92">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR92">
         <v>1.07</v>
@@ -20211,7 +20232,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q93">
         <v>2.55</v>
@@ -20289,7 +20310,7 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ93">
         <v>1.5</v>
@@ -20417,7 +20438,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q94">
         <v>4.5</v>
@@ -20498,7 +20519,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ94">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR94">
         <v>1.27</v>
@@ -20623,7 +20644,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q95">
         <v>4.5</v>
@@ -20829,7 +20850,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q96">
         <v>9</v>
@@ -20907,7 +20928,7 @@
         <v>2.2</v>
       </c>
       <c r="AP96">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ96">
         <v>2.6</v>
@@ -21241,7 +21262,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q98">
         <v>4.63</v>
@@ -21447,7 +21468,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q99">
         <v>2.31</v>
@@ -21653,7 +21674,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21731,7 +21752,7 @@
         <v>2.33</v>
       </c>
       <c r="AP100">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ100">
         <v>2.56</v>
@@ -21859,7 +21880,7 @@
         <v>151</v>
       </c>
       <c r="P101" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q101">
         <v>2.43</v>
@@ -21937,7 +21958,7 @@
         <v>1</v>
       </c>
       <c r="AP101">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ101">
         <v>0.67</v>
@@ -22065,7 +22086,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -22146,7 +22167,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ102">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR102">
         <v>1.58</v>
@@ -22271,7 +22292,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -22349,10 +22370,10 @@
         <v>1.17</v>
       </c>
       <c r="AP103">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ103">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR103">
         <v>1</v>
@@ -22555,10 +22576,10 @@
         <v>1.8</v>
       </c>
       <c r="AP104">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ104">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR104">
         <v>2.01</v>
@@ -22764,7 +22785,7 @@
         <v>2</v>
       </c>
       <c r="AQ105">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR105">
         <v>1.91</v>
@@ -22967,7 +22988,7 @@
         <v>1</v>
       </c>
       <c r="AP106">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AQ106">
         <v>1</v>
@@ -23173,7 +23194,7 @@
         <v>2.43</v>
       </c>
       <c r="AP107">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ107">
         <v>2.56</v>
@@ -23301,7 +23322,7 @@
         <v>156</v>
       </c>
       <c r="P108" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q108">
         <v>3.4</v>
@@ -23382,7 +23403,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ108">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR108">
         <v>1.44</v>
@@ -23507,7 +23528,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q109">
         <v>1.95</v>
@@ -23585,7 +23606,7 @@
         <v>0.86</v>
       </c>
       <c r="AP109">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ109">
         <v>0.9</v>
@@ -24125,7 +24146,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q112">
         <v>1.73</v>
@@ -24203,7 +24224,7 @@
         <v>1</v>
       </c>
       <c r="AP112">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ112">
         <v>0.67</v>
@@ -24412,7 +24433,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ113">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR113">
         <v>1.3</v>
@@ -24537,7 +24558,7 @@
         <v>90</v>
       </c>
       <c r="P114" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -24743,7 +24764,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -24821,7 +24842,7 @@
         <v>1.14</v>
       </c>
       <c r="AP115">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ115">
         <v>1.2</v>
@@ -24949,7 +24970,7 @@
         <v>160</v>
       </c>
       <c r="P116" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q116">
         <v>1.95</v>
@@ -25030,7 +25051,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ116">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR116">
         <v>1.76</v>
@@ -25155,7 +25176,7 @@
         <v>161</v>
       </c>
       <c r="P117" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q117">
         <v>3.1</v>
@@ -25233,7 +25254,7 @@
         <v>1.88</v>
       </c>
       <c r="AP117">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ117">
         <v>1.5</v>
@@ -25361,7 +25382,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q118">
         <v>3.75</v>
@@ -25442,7 +25463,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ118">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR118">
         <v>1.03</v>
@@ -25567,7 +25588,7 @@
         <v>162</v>
       </c>
       <c r="P119" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -25648,7 +25669,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ119">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR119">
         <v>2.45</v>
@@ -25773,7 +25794,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q120">
         <v>3.6</v>
@@ -25851,7 +25872,7 @@
         <v>1.14</v>
       </c>
       <c r="AP120">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ120">
         <v>1.5</v>
@@ -25979,7 +26000,7 @@
         <v>163</v>
       </c>
       <c r="P121" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26263,7 +26284,7 @@
         <v>1</v>
       </c>
       <c r="AP122">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ122">
         <v>0.78</v>
@@ -26391,7 +26412,7 @@
         <v>165</v>
       </c>
       <c r="P123" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q123">
         <v>3.6</v>
@@ -26469,10 +26490,10 @@
         <v>1.88</v>
       </c>
       <c r="AP123">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ123">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR123">
         <v>1.27</v>
@@ -26597,7 +26618,7 @@
         <v>166</v>
       </c>
       <c r="P124" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26675,10 +26696,10 @@
         <v>1</v>
       </c>
       <c r="AP124">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ124">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR124">
         <v>1.28</v>
@@ -26803,7 +26824,7 @@
         <v>90</v>
       </c>
       <c r="P125" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -26881,7 +26902,7 @@
         <v>2.5</v>
       </c>
       <c r="AP125">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AQ125">
         <v>2.6</v>
@@ -27215,7 +27236,7 @@
         <v>168</v>
       </c>
       <c r="P127" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q127">
         <v>4.75</v>
@@ -27296,7 +27317,7 @@
         <v>1</v>
       </c>
       <c r="AQ127">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR127">
         <v>1.13</v>
@@ -27421,7 +27442,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q128">
         <v>5.5</v>
@@ -27502,7 +27523,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ128">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR128">
         <v>1.48</v>
@@ -27705,7 +27726,7 @@
         <v>0.86</v>
       </c>
       <c r="AP129">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ129">
         <v>0.67</v>
@@ -27833,7 +27854,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q130">
         <v>2.2</v>
@@ -27911,7 +27932,7 @@
         <v>0.75</v>
       </c>
       <c r="AP130">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AQ130">
         <v>0.9</v>
@@ -28039,7 +28060,7 @@
         <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q131">
         <v>1.62</v>
@@ -28117,10 +28138,10 @@
         <v>0.86</v>
       </c>
       <c r="AP131">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ131">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR131">
         <v>2.36</v>
@@ -28529,7 +28550,7 @@
         <v>2.5</v>
       </c>
       <c r="AP133">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ133">
         <v>2.56</v>
@@ -28738,7 +28759,7 @@
         <v>1</v>
       </c>
       <c r="AQ134">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR134">
         <v>1.14</v>
@@ -28863,7 +28884,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q135">
         <v>3.35</v>
@@ -29353,10 +29374,10 @@
         <v>1.63</v>
       </c>
       <c r="AP137">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ137">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR137">
         <v>1.83</v>
@@ -29481,7 +29502,7 @@
         <v>90</v>
       </c>
       <c r="P138" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q138">
         <v>5.25</v>
@@ -29559,7 +29580,7 @@
         <v>2.56</v>
       </c>
       <c r="AP138">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ138">
         <v>2.6</v>
@@ -29687,7 +29708,7 @@
         <v>177</v>
       </c>
       <c r="P139" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q139">
         <v>2.32</v>
@@ -29768,7 +29789,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ139">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR139">
         <v>1.65</v>
@@ -29974,7 +29995,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ140">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR140">
         <v>2.23</v>
@@ -30099,7 +30120,7 @@
         <v>134</v>
       </c>
       <c r="P141" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q141">
         <v>3.81</v>
@@ -30305,7 +30326,7 @@
         <v>90</v>
       </c>
       <c r="P142" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q142">
         <v>7</v>
@@ -30383,10 +30404,10 @@
         <v>1.63</v>
       </c>
       <c r="AP142">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ142">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR142">
         <v>1.24</v>
@@ -30511,7 +30532,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q143">
         <v>2.2</v>
@@ -30589,7 +30610,7 @@
         <v>1.38</v>
       </c>
       <c r="AP143">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ143">
         <v>1.5</v>
@@ -31335,7 +31356,7 @@
         <v>182</v>
       </c>
       <c r="P147" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q147">
         <v>1.71</v>
@@ -31413,7 +31434,7 @@
         <v>1.67</v>
       </c>
       <c r="AP147">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ147">
         <v>1.5</v>
@@ -31541,7 +31562,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q148">
         <v>1.93</v>
@@ -31622,7 +31643,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ148">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR148">
         <v>1.81</v>
@@ -31747,7 +31768,7 @@
         <v>184</v>
       </c>
       <c r="P149" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q149">
         <v>5.66</v>
@@ -31825,10 +31846,10 @@
         <v>0.75</v>
       </c>
       <c r="AP149">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ149">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR149">
         <v>1.16</v>
@@ -32034,7 +32055,7 @@
         <v>2</v>
       </c>
       <c r="AQ150">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR150">
         <v>1.97</v>
@@ -32159,7 +32180,7 @@
         <v>185</v>
       </c>
       <c r="P151" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q151">
         <v>2.98</v>
@@ -32365,7 +32386,7 @@
         <v>186</v>
       </c>
       <c r="P152" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q152">
         <v>1.62</v>
@@ -32446,7 +32467,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ152">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR152">
         <v>2.2</v>
@@ -32649,7 +32670,7 @@
         <v>1.13</v>
       </c>
       <c r="AP153">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ153">
         <v>1.11</v>
@@ -32728,6 +32749,1448 @@
       </c>
       <c r="BP153">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="154" spans="1:68">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>7347948</v>
+      </c>
+      <c r="C154" t="s">
+        <v>68</v>
+      </c>
+      <c r="D154" t="s">
+        <v>69</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45493.35763888889</v>
+      </c>
+      <c r="F154">
+        <v>24</v>
+      </c>
+      <c r="G154" t="s">
+        <v>83</v>
+      </c>
+      <c r="H154" t="s">
+        <v>75</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="M154">
+        <v>1</v>
+      </c>
+      <c r="N154">
+        <v>2</v>
+      </c>
+      <c r="O154" t="s">
+        <v>187</v>
+      </c>
+      <c r="P154" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q154">
+        <v>3.75</v>
+      </c>
+      <c r="R154">
+        <v>2.3</v>
+      </c>
+      <c r="S154">
+        <v>2.45</v>
+      </c>
+      <c r="T154">
+        <v>1.3</v>
+      </c>
+      <c r="U154">
+        <v>3.25</v>
+      </c>
+      <c r="V154">
+        <v>2.34</v>
+      </c>
+      <c r="W154">
+        <v>1.54</v>
+      </c>
+      <c r="X154">
+        <v>5</v>
+      </c>
+      <c r="Y154">
+        <v>1.14</v>
+      </c>
+      <c r="Z154">
+        <v>4</v>
+      </c>
+      <c r="AA154">
+        <v>3.75</v>
+      </c>
+      <c r="AB154">
+        <v>1.8</v>
+      </c>
+      <c r="AC154">
+        <v>1.03</v>
+      </c>
+      <c r="AD154">
+        <v>12</v>
+      </c>
+      <c r="AE154">
+        <v>1.18</v>
+      </c>
+      <c r="AF154">
+        <v>4.5</v>
+      </c>
+      <c r="AG154">
+        <v>1.56</v>
+      </c>
+      <c r="AH154">
+        <v>2.33</v>
+      </c>
+      <c r="AI154">
+        <v>1.53</v>
+      </c>
+      <c r="AJ154">
+        <v>2.4</v>
+      </c>
+      <c r="AK154">
+        <v>1.9</v>
+      </c>
+      <c r="AL154">
+        <v>1.27</v>
+      </c>
+      <c r="AM154">
+        <v>1.17</v>
+      </c>
+      <c r="AN154">
+        <v>0.78</v>
+      </c>
+      <c r="AO154">
+        <v>1.78</v>
+      </c>
+      <c r="AP154">
+        <v>0.8</v>
+      </c>
+      <c r="AQ154">
+        <v>1.7</v>
+      </c>
+      <c r="AR154">
+        <v>1.71</v>
+      </c>
+      <c r="AS154">
+        <v>1.56</v>
+      </c>
+      <c r="AT154">
+        <v>3.27</v>
+      </c>
+      <c r="AU154">
+        <v>4</v>
+      </c>
+      <c r="AV154">
+        <v>8</v>
+      </c>
+      <c r="AW154">
+        <v>7</v>
+      </c>
+      <c r="AX154">
+        <v>6</v>
+      </c>
+      <c r="AY154">
+        <v>11</v>
+      </c>
+      <c r="AZ154">
+        <v>14</v>
+      </c>
+      <c r="BA154">
+        <v>5</v>
+      </c>
+      <c r="BB154">
+        <v>3</v>
+      </c>
+      <c r="BC154">
+        <v>8</v>
+      </c>
+      <c r="BD154">
+        <v>3.96</v>
+      </c>
+      <c r="BE154">
+        <v>7.5</v>
+      </c>
+      <c r="BF154">
+        <v>1.39</v>
+      </c>
+      <c r="BG154">
+        <v>1.18</v>
+      </c>
+      <c r="BH154">
+        <v>4.1</v>
+      </c>
+      <c r="BI154">
+        <v>1.36</v>
+      </c>
+      <c r="BJ154">
+        <v>2.79</v>
+      </c>
+      <c r="BK154">
+        <v>1.95</v>
+      </c>
+      <c r="BL154">
+        <v>1.85</v>
+      </c>
+      <c r="BM154">
+        <v>2.09</v>
+      </c>
+      <c r="BN154">
+        <v>1.66</v>
+      </c>
+      <c r="BO154">
+        <v>2.71</v>
+      </c>
+      <c r="BP154">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="155" spans="1:68">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>7347945</v>
+      </c>
+      <c r="C155" t="s">
+        <v>68</v>
+      </c>
+      <c r="D155" t="s">
+        <v>69</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45494.29166666666</v>
+      </c>
+      <c r="F155">
+        <v>24</v>
+      </c>
+      <c r="G155" t="s">
+        <v>71</v>
+      </c>
+      <c r="H155" t="s">
+        <v>77</v>
+      </c>
+      <c r="I155">
+        <v>3</v>
+      </c>
+      <c r="J155">
+        <v>1</v>
+      </c>
+      <c r="K155">
+        <v>4</v>
+      </c>
+      <c r="L155">
+        <v>3</v>
+      </c>
+      <c r="M155">
+        <v>3</v>
+      </c>
+      <c r="N155">
+        <v>6</v>
+      </c>
+      <c r="O155" t="s">
+        <v>188</v>
+      </c>
+      <c r="P155" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q155">
+        <v>2.38</v>
+      </c>
+      <c r="R155">
+        <v>2.3</v>
+      </c>
+      <c r="S155">
+        <v>4.33</v>
+      </c>
+      <c r="T155">
+        <v>1.3</v>
+      </c>
+      <c r="U155">
+        <v>3.4</v>
+      </c>
+      <c r="V155">
+        <v>2.5</v>
+      </c>
+      <c r="W155">
+        <v>1.5</v>
+      </c>
+      <c r="X155">
+        <v>6</v>
+      </c>
+      <c r="Y155">
+        <v>1.13</v>
+      </c>
+      <c r="Z155">
+        <v>1.89</v>
+      </c>
+      <c r="AA155">
+        <v>3.45</v>
+      </c>
+      <c r="AB155">
+        <v>4</v>
+      </c>
+      <c r="AC155">
+        <v>1.01</v>
+      </c>
+      <c r="AD155">
+        <v>10.25</v>
+      </c>
+      <c r="AE155">
+        <v>1.2</v>
+      </c>
+      <c r="AF155">
+        <v>4.33</v>
+      </c>
+      <c r="AG155">
+        <v>1.68</v>
+      </c>
+      <c r="AH155">
+        <v>2.05</v>
+      </c>
+      <c r="AI155">
+        <v>1.62</v>
+      </c>
+      <c r="AJ155">
+        <v>2.2</v>
+      </c>
+      <c r="AK155">
+        <v>1.2</v>
+      </c>
+      <c r="AL155">
+        <v>1.22</v>
+      </c>
+      <c r="AM155">
+        <v>1.9</v>
+      </c>
+      <c r="AN155">
+        <v>0.9</v>
+      </c>
+      <c r="AO155">
+        <v>1</v>
+      </c>
+      <c r="AP155">
+        <v>0.91</v>
+      </c>
+      <c r="AQ155">
+        <v>1</v>
+      </c>
+      <c r="AR155">
+        <v>1.25</v>
+      </c>
+      <c r="AS155">
+        <v>1.1</v>
+      </c>
+      <c r="AT155">
+        <v>2.35</v>
+      </c>
+      <c r="AU155">
+        <v>7</v>
+      </c>
+      <c r="AV155">
+        <v>6</v>
+      </c>
+      <c r="AW155">
+        <v>6</v>
+      </c>
+      <c r="AX155">
+        <v>5</v>
+      </c>
+      <c r="AY155">
+        <v>13</v>
+      </c>
+      <c r="AZ155">
+        <v>11</v>
+      </c>
+      <c r="BA155">
+        <v>6</v>
+      </c>
+      <c r="BB155">
+        <v>8</v>
+      </c>
+      <c r="BC155">
+        <v>14</v>
+      </c>
+      <c r="BD155">
+        <v>1.8</v>
+      </c>
+      <c r="BE155">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF155">
+        <v>2.3</v>
+      </c>
+      <c r="BG155">
+        <v>1.3</v>
+      </c>
+      <c r="BH155">
+        <v>3.2</v>
+      </c>
+      <c r="BI155">
+        <v>1.53</v>
+      </c>
+      <c r="BJ155">
+        <v>2.41</v>
+      </c>
+      <c r="BK155">
+        <v>1.9</v>
+      </c>
+      <c r="BL155">
+        <v>1.9</v>
+      </c>
+      <c r="BM155">
+        <v>2.39</v>
+      </c>
+      <c r="BN155">
+        <v>1.54</v>
+      </c>
+      <c r="BO155">
+        <v>3</v>
+      </c>
+      <c r="BP155">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="156" spans="1:68">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>7347944</v>
+      </c>
+      <c r="C156" t="s">
+        <v>68</v>
+      </c>
+      <c r="D156" t="s">
+        <v>69</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45494.33333333334</v>
+      </c>
+      <c r="F156">
+        <v>24</v>
+      </c>
+      <c r="G156" t="s">
+        <v>81</v>
+      </c>
+      <c r="H156" t="s">
+        <v>70</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>1</v>
+      </c>
+      <c r="K156">
+        <v>1</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+      <c r="M156">
+        <v>2</v>
+      </c>
+      <c r="N156">
+        <v>2</v>
+      </c>
+      <c r="O156" t="s">
+        <v>90</v>
+      </c>
+      <c r="P156" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q156">
+        <v>4.75</v>
+      </c>
+      <c r="R156">
+        <v>2.38</v>
+      </c>
+      <c r="S156">
+        <v>2.2</v>
+      </c>
+      <c r="T156">
+        <v>1.3</v>
+      </c>
+      <c r="U156">
+        <v>3.4</v>
+      </c>
+      <c r="V156">
+        <v>2.5</v>
+      </c>
+      <c r="W156">
+        <v>1.5</v>
+      </c>
+      <c r="X156">
+        <v>6</v>
+      </c>
+      <c r="Y156">
+        <v>1.13</v>
+      </c>
+      <c r="Z156">
+        <v>6.45</v>
+      </c>
+      <c r="AA156">
+        <v>4.35</v>
+      </c>
+      <c r="AB156">
+        <v>1.46</v>
+      </c>
+      <c r="AC156">
+        <v>1.01</v>
+      </c>
+      <c r="AD156">
+        <v>10.5</v>
+      </c>
+      <c r="AE156">
+        <v>1.2</v>
+      </c>
+      <c r="AF156">
+        <v>4.33</v>
+      </c>
+      <c r="AG156">
+        <v>1.58</v>
+      </c>
+      <c r="AH156">
+        <v>2.25</v>
+      </c>
+      <c r="AI156">
+        <v>1.67</v>
+      </c>
+      <c r="AJ156">
+        <v>2.1</v>
+      </c>
+      <c r="AK156">
+        <v>2.15</v>
+      </c>
+      <c r="AL156">
+        <v>1.2</v>
+      </c>
+      <c r="AM156">
+        <v>1.14</v>
+      </c>
+      <c r="AN156">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AO156">
+        <v>1.3</v>
+      </c>
+      <c r="AP156">
+        <v>0.5</v>
+      </c>
+      <c r="AQ156">
+        <v>1.45</v>
+      </c>
+      <c r="AR156">
+        <v>1.24</v>
+      </c>
+      <c r="AS156">
+        <v>1.58</v>
+      </c>
+      <c r="AT156">
+        <v>2.82</v>
+      </c>
+      <c r="AU156">
+        <v>3</v>
+      </c>
+      <c r="AV156">
+        <v>5</v>
+      </c>
+      <c r="AW156">
+        <v>4</v>
+      </c>
+      <c r="AX156">
+        <v>4</v>
+      </c>
+      <c r="AY156">
+        <v>7</v>
+      </c>
+      <c r="AZ156">
+        <v>9</v>
+      </c>
+      <c r="BA156">
+        <v>2</v>
+      </c>
+      <c r="BB156">
+        <v>2</v>
+      </c>
+      <c r="BC156">
+        <v>4</v>
+      </c>
+      <c r="BD156">
+        <v>4.05</v>
+      </c>
+      <c r="BE156">
+        <v>7.5</v>
+      </c>
+      <c r="BF156">
+        <v>1.38</v>
+      </c>
+      <c r="BG156">
+        <v>1.16</v>
+      </c>
+      <c r="BH156">
+        <v>4.33</v>
+      </c>
+      <c r="BI156">
+        <v>1.33</v>
+      </c>
+      <c r="BJ156">
+        <v>2.93</v>
+      </c>
+      <c r="BK156">
+        <v>1.8</v>
+      </c>
+      <c r="BL156">
+        <v>2</v>
+      </c>
+      <c r="BM156">
+        <v>1.99</v>
+      </c>
+      <c r="BN156">
+        <v>1.73</v>
+      </c>
+      <c r="BO156">
+        <v>2.57</v>
+      </c>
+      <c r="BP156">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="157" spans="1:68">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>7347943</v>
+      </c>
+      <c r="C157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D157" t="s">
+        <v>69</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45494.35763888889</v>
+      </c>
+      <c r="F157">
+        <v>24</v>
+      </c>
+      <c r="G157" t="s">
+        <v>82</v>
+      </c>
+      <c r="H157" t="s">
+        <v>84</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>1</v>
+      </c>
+      <c r="K157">
+        <v>1</v>
+      </c>
+      <c r="L157">
+        <v>2</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+      <c r="N157">
+        <v>3</v>
+      </c>
+      <c r="O157" t="s">
+        <v>189</v>
+      </c>
+      <c r="P157" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q157">
+        <v>2.88</v>
+      </c>
+      <c r="R157">
+        <v>2.3</v>
+      </c>
+      <c r="S157">
+        <v>3.4</v>
+      </c>
+      <c r="T157">
+        <v>1.33</v>
+      </c>
+      <c r="U157">
+        <v>3.25</v>
+      </c>
+      <c r="V157">
+        <v>2.5</v>
+      </c>
+      <c r="W157">
+        <v>1.5</v>
+      </c>
+      <c r="X157">
+        <v>6.5</v>
+      </c>
+      <c r="Y157">
+        <v>1.11</v>
+      </c>
+      <c r="Z157">
+        <v>2.33</v>
+      </c>
+      <c r="AA157">
+        <v>3.45</v>
+      </c>
+      <c r="AB157">
+        <v>2.93</v>
+      </c>
+      <c r="AC157">
+        <v>1.01</v>
+      </c>
+      <c r="AD157">
+        <v>11</v>
+      </c>
+      <c r="AE157">
+        <v>1.22</v>
+      </c>
+      <c r="AF157">
+        <v>4</v>
+      </c>
+      <c r="AG157">
+        <v>1.71</v>
+      </c>
+      <c r="AH157">
+        <v>2.14</v>
+      </c>
+      <c r="AI157">
+        <v>1.57</v>
+      </c>
+      <c r="AJ157">
+        <v>2.25</v>
+      </c>
+      <c r="AK157">
+        <v>1.42</v>
+      </c>
+      <c r="AL157">
+        <v>1.22</v>
+      </c>
+      <c r="AM157">
+        <v>1.6</v>
+      </c>
+      <c r="AN157">
+        <v>0.67</v>
+      </c>
+      <c r="AO157">
+        <v>0.9</v>
+      </c>
+      <c r="AP157">
+        <v>0.9</v>
+      </c>
+      <c r="AQ157">
+        <v>0.82</v>
+      </c>
+      <c r="AR157">
+        <v>1.27</v>
+      </c>
+      <c r="AS157">
+        <v>1.14</v>
+      </c>
+      <c r="AT157">
+        <v>2.41</v>
+      </c>
+      <c r="AU157">
+        <v>7</v>
+      </c>
+      <c r="AV157">
+        <v>4</v>
+      </c>
+      <c r="AW157">
+        <v>5</v>
+      </c>
+      <c r="AX157">
+        <v>1</v>
+      </c>
+      <c r="AY157">
+        <v>12</v>
+      </c>
+      <c r="AZ157">
+        <v>5</v>
+      </c>
+      <c r="BA157">
+        <v>2</v>
+      </c>
+      <c r="BB157">
+        <v>3</v>
+      </c>
+      <c r="BC157">
+        <v>5</v>
+      </c>
+      <c r="BD157">
+        <v>1.59</v>
+      </c>
+      <c r="BE157">
+        <v>6.7</v>
+      </c>
+      <c r="BF157">
+        <v>3.05</v>
+      </c>
+      <c r="BG157">
+        <v>1.28</v>
+      </c>
+      <c r="BH157">
+        <v>3.2</v>
+      </c>
+      <c r="BI157">
+        <v>1.52</v>
+      </c>
+      <c r="BJ157">
+        <v>2.3</v>
+      </c>
+      <c r="BK157">
+        <v>1.88</v>
+      </c>
+      <c r="BL157">
+        <v>1.92</v>
+      </c>
+      <c r="BM157">
+        <v>2.48</v>
+      </c>
+      <c r="BN157">
+        <v>1.45</v>
+      </c>
+      <c r="BO157">
+        <v>3.42</v>
+      </c>
+      <c r="BP157">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="158" spans="1:68">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>7347946</v>
+      </c>
+      <c r="C158" t="s">
+        <v>68</v>
+      </c>
+      <c r="D158" t="s">
+        <v>69</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45494.35763888889</v>
+      </c>
+      <c r="F158">
+        <v>24</v>
+      </c>
+      <c r="G158" t="s">
+        <v>85</v>
+      </c>
+      <c r="H158" t="s">
+        <v>73</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>2</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158">
+        <v>2</v>
+      </c>
+      <c r="O158" t="s">
+        <v>190</v>
+      </c>
+      <c r="P158" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q158">
+        <v>2.3</v>
+      </c>
+      <c r="R158">
+        <v>2.4</v>
+      </c>
+      <c r="S158">
+        <v>4.33</v>
+      </c>
+      <c r="T158">
+        <v>1.29</v>
+      </c>
+      <c r="U158">
+        <v>3.5</v>
+      </c>
+      <c r="V158">
+        <v>2.38</v>
+      </c>
+      <c r="W158">
+        <v>1.53</v>
+      </c>
+      <c r="X158">
+        <v>5.5</v>
+      </c>
+      <c r="Y158">
+        <v>1.14</v>
+      </c>
+      <c r="Z158">
+        <v>1.74</v>
+      </c>
+      <c r="AA158">
+        <v>3.98</v>
+      </c>
+      <c r="AB158">
+        <v>4.1</v>
+      </c>
+      <c r="AC158">
+        <v>1.02</v>
+      </c>
+      <c r="AD158">
+        <v>12</v>
+      </c>
+      <c r="AE158">
+        <v>1.18</v>
+      </c>
+      <c r="AF158">
+        <v>4.5</v>
+      </c>
+      <c r="AG158">
+        <v>1.55</v>
+      </c>
+      <c r="AH158">
+        <v>2.29</v>
+      </c>
+      <c r="AI158">
+        <v>1.57</v>
+      </c>
+      <c r="AJ158">
+        <v>2.25</v>
+      </c>
+      <c r="AK158">
+        <v>1.16</v>
+      </c>
+      <c r="AL158">
+        <v>1.18</v>
+      </c>
+      <c r="AM158">
+        <v>2.05</v>
+      </c>
+      <c r="AN158">
+        <v>2.11</v>
+      </c>
+      <c r="AO158">
+        <v>1.6</v>
+      </c>
+      <c r="AP158">
+        <v>2.2</v>
+      </c>
+      <c r="AQ158">
+        <v>1.45</v>
+      </c>
+      <c r="AR158">
+        <v>1.84</v>
+      </c>
+      <c r="AS158">
+        <v>1.27</v>
+      </c>
+      <c r="AT158">
+        <v>3.11</v>
+      </c>
+      <c r="AU158">
+        <v>8</v>
+      </c>
+      <c r="AV158">
+        <v>4</v>
+      </c>
+      <c r="AW158">
+        <v>4</v>
+      </c>
+      <c r="AX158">
+        <v>3</v>
+      </c>
+      <c r="AY158">
+        <v>12</v>
+      </c>
+      <c r="AZ158">
+        <v>7</v>
+      </c>
+      <c r="BA158">
+        <v>4</v>
+      </c>
+      <c r="BB158">
+        <v>5</v>
+      </c>
+      <c r="BC158">
+        <v>9</v>
+      </c>
+      <c r="BD158">
+        <v>1.45</v>
+      </c>
+      <c r="BE158">
+        <v>7.3</v>
+      </c>
+      <c r="BF158">
+        <v>3.6</v>
+      </c>
+      <c r="BG158">
+        <v>1.16</v>
+      </c>
+      <c r="BH158">
+        <v>4.4</v>
+      </c>
+      <c r="BI158">
+        <v>1.32</v>
+      </c>
+      <c r="BJ158">
+        <v>2.98</v>
+      </c>
+      <c r="BK158">
+        <v>1.82</v>
+      </c>
+      <c r="BL158">
+        <v>1.98</v>
+      </c>
+      <c r="BM158">
+        <v>1.98</v>
+      </c>
+      <c r="BN158">
+        <v>1.74</v>
+      </c>
+      <c r="BO158">
+        <v>2.54</v>
+      </c>
+      <c r="BP158">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="159" spans="1:68">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>7347947</v>
+      </c>
+      <c r="C159" t="s">
+        <v>68</v>
+      </c>
+      <c r="D159" t="s">
+        <v>69</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45494.35763888889</v>
+      </c>
+      <c r="F159">
+        <v>24</v>
+      </c>
+      <c r="G159" t="s">
+        <v>72</v>
+      </c>
+      <c r="H159" t="s">
+        <v>78</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>5</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>5</v>
+      </c>
+      <c r="O159" t="s">
+        <v>191</v>
+      </c>
+      <c r="P159" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q159">
+        <v>1.36</v>
+      </c>
+      <c r="R159">
+        <v>3.75</v>
+      </c>
+      <c r="S159">
+        <v>12</v>
+      </c>
+      <c r="T159">
+        <v>1.14</v>
+      </c>
+      <c r="U159">
+        <v>5.5</v>
+      </c>
+      <c r="V159">
+        <v>1.67</v>
+      </c>
+      <c r="W159">
+        <v>2.1</v>
+      </c>
+      <c r="X159">
+        <v>3.25</v>
+      </c>
+      <c r="Y159">
+        <v>1.33</v>
+      </c>
+      <c r="Z159">
+        <v>1.09</v>
+      </c>
+      <c r="AA159">
+        <v>10.75</v>
+      </c>
+      <c r="AB159">
+        <v>17.25</v>
+      </c>
+      <c r="AC159">
+        <v>1.01</v>
+      </c>
+      <c r="AD159">
+        <v>54</v>
+      </c>
+      <c r="AE159">
+        <v>1.03</v>
+      </c>
+      <c r="AF159">
+        <v>9</v>
+      </c>
+      <c r="AG159">
+        <v>1.22</v>
+      </c>
+      <c r="AH159">
+        <v>3.83</v>
+      </c>
+      <c r="AI159">
+        <v>1.95</v>
+      </c>
+      <c r="AJ159">
+        <v>1.8</v>
+      </c>
+      <c r="AK159">
+        <v>1.02</v>
+      </c>
+      <c r="AL159">
+        <v>1.03</v>
+      </c>
+      <c r="AM159">
+        <v>5.5</v>
+      </c>
+      <c r="AN159">
+        <v>2.78</v>
+      </c>
+      <c r="AO159">
+        <v>0.8</v>
+      </c>
+      <c r="AP159">
+        <v>2.8</v>
+      </c>
+      <c r="AQ159">
+        <v>0.73</v>
+      </c>
+      <c r="AR159">
+        <v>2.43</v>
+      </c>
+      <c r="AS159">
+        <v>1.15</v>
+      </c>
+      <c r="AT159">
+        <v>3.58</v>
+      </c>
+      <c r="AU159">
+        <v>12</v>
+      </c>
+      <c r="AV159">
+        <v>2</v>
+      </c>
+      <c r="AW159">
+        <v>17</v>
+      </c>
+      <c r="AX159">
+        <v>1</v>
+      </c>
+      <c r="AY159">
+        <v>29</v>
+      </c>
+      <c r="AZ159">
+        <v>3</v>
+      </c>
+      <c r="BA159">
+        <v>11</v>
+      </c>
+      <c r="BB159">
+        <v>1</v>
+      </c>
+      <c r="BC159">
+        <v>12</v>
+      </c>
+      <c r="BD159">
+        <v>1.06</v>
+      </c>
+      <c r="BE159">
+        <v>15</v>
+      </c>
+      <c r="BF159">
+        <v>10</v>
+      </c>
+      <c r="BG159">
+        <v>1.14</v>
+      </c>
+      <c r="BH159">
+        <v>4.55</v>
+      </c>
+      <c r="BI159">
+        <v>1.3</v>
+      </c>
+      <c r="BJ159">
+        <v>3.08</v>
+      </c>
+      <c r="BK159">
+        <v>1.8</v>
+      </c>
+      <c r="BL159">
+        <v>2</v>
+      </c>
+      <c r="BM159">
+        <v>1.93</v>
+      </c>
+      <c r="BN159">
+        <v>1.78</v>
+      </c>
+      <c r="BO159">
+        <v>2.48</v>
+      </c>
+      <c r="BP159">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="160" spans="1:68">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>7347942</v>
+      </c>
+      <c r="C160" t="s">
+        <v>68</v>
+      </c>
+      <c r="D160" t="s">
+        <v>69</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45494.35763888889</v>
+      </c>
+      <c r="F160">
+        <v>24</v>
+      </c>
+      <c r="G160" t="s">
+        <v>80</v>
+      </c>
+      <c r="H160" t="s">
+        <v>76</v>
+      </c>
+      <c r="I160">
+        <v>2</v>
+      </c>
+      <c r="J160">
+        <v>1</v>
+      </c>
+      <c r="K160">
+        <v>3</v>
+      </c>
+      <c r="L160">
+        <v>2</v>
+      </c>
+      <c r="M160">
+        <v>1</v>
+      </c>
+      <c r="N160">
+        <v>3</v>
+      </c>
+      <c r="O160" t="s">
+        <v>192</v>
+      </c>
+      <c r="P160" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q160">
+        <v>2.88</v>
+      </c>
+      <c r="R160">
+        <v>2.4</v>
+      </c>
+      <c r="S160">
+        <v>3.1</v>
+      </c>
+      <c r="T160">
+        <v>1.29</v>
+      </c>
+      <c r="U160">
+        <v>3.5</v>
+      </c>
+      <c r="V160">
+        <v>2.25</v>
+      </c>
+      <c r="W160">
+        <v>1.57</v>
+      </c>
+      <c r="X160">
+        <v>5.5</v>
+      </c>
+      <c r="Y160">
+        <v>1.14</v>
+      </c>
+      <c r="Z160">
+        <v>2.25</v>
+      </c>
+      <c r="AA160">
+        <v>3.64</v>
+      </c>
+      <c r="AB160">
+        <v>2.86</v>
+      </c>
+      <c r="AC160">
+        <v>1.03</v>
+      </c>
+      <c r="AD160">
+        <v>9</v>
+      </c>
+      <c r="AE160">
+        <v>1.13</v>
+      </c>
+      <c r="AF160">
+        <v>4.75</v>
+      </c>
+      <c r="AG160">
+        <v>1.52</v>
+      </c>
+      <c r="AH160">
+        <v>2.36</v>
+      </c>
+      <c r="AI160">
+        <v>1.44</v>
+      </c>
+      <c r="AJ160">
+        <v>2.63</v>
+      </c>
+      <c r="AK160">
+        <v>1.45</v>
+      </c>
+      <c r="AL160">
+        <v>1.22</v>
+      </c>
+      <c r="AM160">
+        <v>1.55</v>
+      </c>
+      <c r="AN160">
+        <v>1.1</v>
+      </c>
+      <c r="AO160">
+        <v>0.67</v>
+      </c>
+      <c r="AP160">
+        <v>1.27</v>
+      </c>
+      <c r="AQ160">
+        <v>0.6</v>
+      </c>
+      <c r="AR160">
+        <v>1.59</v>
+      </c>
+      <c r="AS160">
+        <v>1.73</v>
+      </c>
+      <c r="AT160">
+        <v>3.32</v>
+      </c>
+      <c r="AU160">
+        <v>6</v>
+      </c>
+      <c r="AV160">
+        <v>7</v>
+      </c>
+      <c r="AW160">
+        <v>6</v>
+      </c>
+      <c r="AX160">
+        <v>13</v>
+      </c>
+      <c r="AY160">
+        <v>12</v>
+      </c>
+      <c r="AZ160">
+        <v>20</v>
+      </c>
+      <c r="BA160">
+        <v>8</v>
+      </c>
+      <c r="BB160">
+        <v>10</v>
+      </c>
+      <c r="BC160">
+        <v>18</v>
+      </c>
+      <c r="BD160">
+        <v>1.71</v>
+      </c>
+      <c r="BE160">
+        <v>6.7</v>
+      </c>
+      <c r="BF160">
+        <v>2.69</v>
+      </c>
+      <c r="BG160">
+        <v>1.15</v>
+      </c>
+      <c r="BH160">
+        <v>4.5</v>
+      </c>
+      <c r="BI160">
+        <v>1.31</v>
+      </c>
+      <c r="BJ160">
+        <v>3.04</v>
+      </c>
+      <c r="BK160">
+        <v>1.55</v>
+      </c>
+      <c r="BL160">
+        <v>2.23</v>
+      </c>
+      <c r="BM160">
+        <v>1.94</v>
+      </c>
+      <c r="BN160">
+        <v>1.77</v>
+      </c>
+      <c r="BO160">
+        <v>2.5</v>
+      </c>
+      <c r="BP160">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="285">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -867,6 +867,9 @@
   <si>
     <t>['12', '90+13']</t>
   </si>
+  <si>
+    <t>['6', '28', '63', '71', '90+2']</t>
+  </si>
 </sst>
 </file>
 
@@ -1227,7 +1230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP160"/>
+  <dimension ref="A1:BP161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2388,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
         <v>1.5</v>
@@ -3009,7 +3012,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ9">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -4448,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ16">
         <v>1.7</v>
@@ -6099,7 +6102,7 @@
         <v>2</v>
       </c>
       <c r="AQ24">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AR24">
         <v>1.89</v>
@@ -6717,7 +6720,7 @@
         <v>1</v>
       </c>
       <c r="AQ27">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AR27">
         <v>1.22</v>
@@ -9186,7 +9189,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ39">
         <v>0.82</v>
@@ -10834,7 +10837,7 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ47">
         <v>0.78</v>
@@ -12279,7 +12282,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ54">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AR54">
         <v>0.95</v>
@@ -13718,7 +13721,7 @@
         <v>0.67</v>
       </c>
       <c r="AP61">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ61">
         <v>1.11</v>
@@ -14339,7 +14342,7 @@
         <v>2.8</v>
       </c>
       <c r="AQ64">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AR64">
         <v>2.2</v>
@@ -18459,7 +18462,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ84">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AR84">
         <v>1.89</v>
@@ -19074,7 +19077,7 @@
         <v>0.75</v>
       </c>
       <c r="AP87">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ87">
         <v>0.6</v>
@@ -20104,7 +20107,7 @@
         <v>2</v>
       </c>
       <c r="AP92">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ92">
         <v>1.45</v>
@@ -21755,7 +21758,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ100">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AR100">
         <v>1.53</v>
@@ -23197,7 +23200,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ107">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AR107">
         <v>1.26</v>
@@ -25460,7 +25463,7 @@
         <v>0.57</v>
       </c>
       <c r="AP118">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ118">
         <v>0.73</v>
@@ -28553,7 +28556,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ133">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AR133">
         <v>1.18</v>
@@ -30198,7 +30201,7 @@
         <v>1.22</v>
       </c>
       <c r="AP141">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ141">
         <v>1.2</v>
@@ -31228,7 +31231,7 @@
         <v>1.56</v>
       </c>
       <c r="AP146">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ146">
         <v>1.5</v>
@@ -34191,6 +34194,212 @@
       </c>
       <c r="BP160">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="161" spans="1:68">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>7347941</v>
+      </c>
+      <c r="C161" t="s">
+        <v>68</v>
+      </c>
+      <c r="D161" t="s">
+        <v>69</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45495.35763888889</v>
+      </c>
+      <c r="F161">
+        <v>24</v>
+      </c>
+      <c r="G161" t="s">
+        <v>74</v>
+      </c>
+      <c r="H161" t="s">
+        <v>79</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>2</v>
+      </c>
+      <c r="K161">
+        <v>2</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+      <c r="M161">
+        <v>5</v>
+      </c>
+      <c r="N161">
+        <v>5</v>
+      </c>
+      <c r="O161" t="s">
+        <v>90</v>
+      </c>
+      <c r="P161" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q161">
+        <v>9</v>
+      </c>
+      <c r="R161">
+        <v>2.75</v>
+      </c>
+      <c r="S161">
+        <v>1.67</v>
+      </c>
+      <c r="T161">
+        <v>1.25</v>
+      </c>
+      <c r="U161">
+        <v>3.75</v>
+      </c>
+      <c r="V161">
+        <v>2.2</v>
+      </c>
+      <c r="W161">
+        <v>1.62</v>
+      </c>
+      <c r="X161">
+        <v>5</v>
+      </c>
+      <c r="Y161">
+        <v>1.17</v>
+      </c>
+      <c r="Z161">
+        <v>7.14</v>
+      </c>
+      <c r="AA161">
+        <v>4.79</v>
+      </c>
+      <c r="AB161">
+        <v>1.21</v>
+      </c>
+      <c r="AC161">
+        <v>1.02</v>
+      </c>
+      <c r="AD161">
+        <v>10</v>
+      </c>
+      <c r="AE161">
+        <v>1.16</v>
+      </c>
+      <c r="AF161">
+        <v>5</v>
+      </c>
+      <c r="AG161">
+        <v>1.35</v>
+      </c>
+      <c r="AH161">
+        <v>2.79</v>
+      </c>
+      <c r="AI161">
+        <v>2.05</v>
+      </c>
+      <c r="AJ161">
+        <v>1.7</v>
+      </c>
+      <c r="AK161">
+        <v>4</v>
+      </c>
+      <c r="AL161">
+        <v>1.08</v>
+      </c>
+      <c r="AM161">
+        <v>1.01</v>
+      </c>
+      <c r="AN161">
+        <v>1.1</v>
+      </c>
+      <c r="AO161">
+        <v>2.56</v>
+      </c>
+      <c r="AP161">
+        <v>1</v>
+      </c>
+      <c r="AQ161">
+        <v>2.6</v>
+      </c>
+      <c r="AR161">
+        <v>0.99</v>
+      </c>
+      <c r="AS161">
+        <v>1.66</v>
+      </c>
+      <c r="AT161">
+        <v>2.65</v>
+      </c>
+      <c r="AU161">
+        <v>2</v>
+      </c>
+      <c r="AV161">
+        <v>11</v>
+      </c>
+      <c r="AW161">
+        <v>5</v>
+      </c>
+      <c r="AX161">
+        <v>12</v>
+      </c>
+      <c r="AY161">
+        <v>7</v>
+      </c>
+      <c r="AZ161">
+        <v>23</v>
+      </c>
+      <c r="BA161">
+        <v>2</v>
+      </c>
+      <c r="BB161">
+        <v>8</v>
+      </c>
+      <c r="BC161">
+        <v>10</v>
+      </c>
+      <c r="BD161">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BE161">
+        <v>11.25</v>
+      </c>
+      <c r="BF161">
+        <v>1.11</v>
+      </c>
+      <c r="BG161">
+        <v>1.17</v>
+      </c>
+      <c r="BH161">
+        <v>4.25</v>
+      </c>
+      <c r="BI161">
+        <v>1.34</v>
+      </c>
+      <c r="BJ161">
+        <v>2.88</v>
+      </c>
+      <c r="BK161">
+        <v>1.88</v>
+      </c>
+      <c r="BL161">
+        <v>1.92</v>
+      </c>
+      <c r="BM161">
+        <v>2.13</v>
+      </c>
+      <c r="BN161">
+        <v>1.68</v>
+      </c>
+      <c r="BO161">
+        <v>2.6</v>
+      </c>
+      <c r="BP161">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="288">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -595,6 +595,15 @@
     <t>['22', '34']</t>
   </si>
   <si>
+    <t>['6', '14', '39', '42', '51', '79', '88', '90']</t>
+  </si>
+  <si>
+    <t>['79']</t>
+  </si>
+  <si>
+    <t>['88']</t>
+  </si>
+  <si>
     <t>['81', '90+3']</t>
   </si>
   <si>
@@ -787,9 +796,6 @@
     <t>['8', '44']</t>
   </si>
   <si>
-    <t>['79']</t>
-  </si>
-  <si>
     <t>['23', '73']</t>
   </si>
   <si>
@@ -869,6 +875,9 @@
   </si>
   <si>
     <t>['6', '28', '63', '71', '90+2']</t>
+  </si>
+  <si>
+    <t>['55']</t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1239,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP161"/>
+  <dimension ref="A1:BP164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1489,7 +1498,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1695,7 +1704,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -1979,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AQ4">
         <v>1.5</v>
@@ -2188,7 +2197,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ5">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2313,7 +2322,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2394,7 +2403,7 @@
         <v>1</v>
       </c>
       <c r="AQ6">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2931,7 +2940,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -3549,7 +3558,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -3836,7 +3845,7 @@
         <v>2</v>
       </c>
       <c r="AQ13">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR13">
         <v>2.48</v>
@@ -4167,7 +4176,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4579,7 +4588,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4657,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ17">
         <v>1.45</v>
@@ -4785,7 +4794,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4863,10 +4872,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ18">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR18">
         <v>1.67</v>
@@ -4991,7 +5000,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5072,7 +5081,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ19">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5278,7 +5287,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ20">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR20">
         <v>1.66</v>
@@ -5687,7 +5696,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AQ22">
         <v>1.11</v>
@@ -5815,7 +5824,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -5893,7 +5902,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ23">
         <v>1.45</v>
@@ -6021,7 +6030,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6227,7 +6236,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6433,7 +6442,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6514,7 +6523,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ26">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR26">
         <v>0.87</v>
@@ -6639,7 +6648,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -6717,7 +6726,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ27">
         <v>2.6</v>
@@ -6845,7 +6854,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7051,7 +7060,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -7257,7 +7266,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7669,7 +7678,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7875,7 +7884,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q33">
         <v>1.73</v>
@@ -8081,7 +8090,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q34">
         <v>6.4</v>
@@ -8287,7 +8296,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q35">
         <v>1.96</v>
@@ -8493,7 +8502,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q36">
         <v>1.98</v>
@@ -8699,7 +8708,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -8905,7 +8914,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q38">
         <v>3.25</v>
@@ -9729,7 +9738,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9810,7 +9819,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ42">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR42">
         <v>1.84</v>
@@ -9935,7 +9944,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q43">
         <v>2.3</v>
@@ -10016,7 +10025,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ43">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR43">
         <v>2.56</v>
@@ -10141,7 +10150,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q44">
         <v>4.75</v>
@@ -10219,7 +10228,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ44">
         <v>1.7</v>
@@ -10553,7 +10562,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10631,7 +10640,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AQ46">
         <v>1.45</v>
@@ -10759,7 +10768,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -11249,7 +11258,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ49">
         <v>1.5</v>
@@ -11377,7 +11386,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11583,7 +11592,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11664,7 +11673,7 @@
         <v>2</v>
       </c>
       <c r="AQ51">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR51">
         <v>1.89</v>
@@ -11789,7 +11798,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q52">
         <v>1.83</v>
@@ -12201,7 +12210,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q54">
         <v>7.5</v>
@@ -12819,7 +12828,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12900,7 +12909,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ57">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR57">
         <v>1.14</v>
@@ -13025,7 +13034,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q58">
         <v>2.8</v>
@@ -13103,7 +13112,7 @@
         <v>0.25</v>
       </c>
       <c r="AP58">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ58">
         <v>0.73</v>
@@ -13231,7 +13240,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q59">
         <v>3.15</v>
@@ -13437,7 +13446,7 @@
         <v>106</v>
       </c>
       <c r="P60" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13518,7 +13527,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ60">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR60">
         <v>1.57</v>
@@ -13643,7 +13652,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q61">
         <v>3.11</v>
@@ -13927,7 +13936,7 @@
         <v>0.67</v>
       </c>
       <c r="AP62">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ62">
         <v>1</v>
@@ -14055,7 +14064,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q63">
         <v>2.75</v>
@@ -14339,7 +14348,7 @@
         <v>3</v>
       </c>
       <c r="AP64">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AQ64">
         <v>2.6</v>
@@ -14467,7 +14476,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q65">
         <v>1.8</v>
@@ -14548,7 +14557,7 @@
         <v>2</v>
       </c>
       <c r="AQ65">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR65">
         <v>2.08</v>
@@ -14754,7 +14763,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ66">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR66">
         <v>1.59</v>
@@ -14879,7 +14888,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q67">
         <v>2.38</v>
@@ -15085,7 +15094,7 @@
         <v>127</v>
       </c>
       <c r="P68" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15369,7 +15378,7 @@
         <v>1.5</v>
       </c>
       <c r="AP69">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ69">
         <v>1.2</v>
@@ -15497,7 +15506,7 @@
         <v>90</v>
       </c>
       <c r="P70" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q70">
         <v>5.5</v>
@@ -15703,7 +15712,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q71">
         <v>2.45</v>
@@ -15990,7 +15999,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ72">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR72">
         <v>2.16</v>
@@ -16321,7 +16330,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q74">
         <v>2.65</v>
@@ -16527,7 +16536,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -16939,7 +16948,7 @@
         <v>133</v>
       </c>
       <c r="P77" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17020,7 +17029,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ77">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR77">
         <v>1.1</v>
@@ -17557,7 +17566,7 @@
         <v>90</v>
       </c>
       <c r="P80" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -17635,7 +17644,7 @@
         <v>2</v>
       </c>
       <c r="AP80">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ80">
         <v>2.6</v>
@@ -17763,7 +17772,7 @@
         <v>136</v>
       </c>
       <c r="P81" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17844,7 +17853,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ81">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR81">
         <v>1.34</v>
@@ -17969,7 +17978,7 @@
         <v>137</v>
       </c>
       <c r="P82" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q82">
         <v>1.91</v>
@@ -18175,7 +18184,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q83">
         <v>1.62</v>
@@ -18253,7 +18262,7 @@
         <v>1.4</v>
       </c>
       <c r="AP83">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AQ83">
         <v>0.82</v>
@@ -18587,7 +18596,7 @@
         <v>99</v>
       </c>
       <c r="P85" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18793,7 +18802,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q86">
         <v>1.83</v>
@@ -18999,7 +19008,7 @@
         <v>90</v>
       </c>
       <c r="P87" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -19205,7 +19214,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19283,7 +19292,7 @@
         <v>0.8</v>
       </c>
       <c r="AP88">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ88">
         <v>0.78</v>
@@ -19617,7 +19626,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q90">
         <v>1.61</v>
@@ -19823,7 +19832,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q91">
         <v>1.8</v>
@@ -19904,7 +19913,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ91">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR91">
         <v>1.74</v>
@@ -20029,7 +20038,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q92">
         <v>3.8</v>
@@ -20235,7 +20244,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q93">
         <v>2.55</v>
@@ -20441,7 +20450,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q94">
         <v>4.5</v>
@@ -20647,7 +20656,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q95">
         <v>4.5</v>
@@ -20725,10 +20734,10 @@
         <v>2.33</v>
       </c>
       <c r="AP95">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ95">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR95">
         <v>1.1</v>
@@ -20853,7 +20862,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q96">
         <v>9</v>
@@ -21265,7 +21274,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q98">
         <v>4.63</v>
@@ -21346,7 +21355,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ98">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR98">
         <v>1.45</v>
@@ -21471,7 +21480,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q99">
         <v>2.31</v>
@@ -21677,7 +21686,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21883,7 +21892,7 @@
         <v>151</v>
       </c>
       <c r="P101" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q101">
         <v>2.43</v>
@@ -21964,7 +21973,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ101">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR101">
         <v>1.06</v>
@@ -22089,7 +22098,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -22295,7 +22304,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -22579,7 +22588,7 @@
         <v>1.8</v>
       </c>
       <c r="AP104">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AQ104">
         <v>1.7</v>
@@ -23197,7 +23206,7 @@
         <v>2.43</v>
       </c>
       <c r="AP107">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ107">
         <v>2.6</v>
@@ -23325,7 +23334,7 @@
         <v>156</v>
       </c>
       <c r="P108" t="s">
-        <v>257</v>
+        <v>194</v>
       </c>
       <c r="Q108">
         <v>3.4</v>
@@ -23531,7 +23540,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q109">
         <v>1.95</v>
@@ -23612,7 +23621,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ109">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR109">
         <v>1.9</v>
@@ -23815,7 +23824,7 @@
         <v>0.83</v>
       </c>
       <c r="AP110">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ110">
         <v>1.11</v>
@@ -24149,7 +24158,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q112">
         <v>1.73</v>
@@ -24227,10 +24236,10 @@
         <v>1</v>
       </c>
       <c r="AP112">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AQ112">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR112">
         <v>1.97</v>
@@ -24561,7 +24570,7 @@
         <v>90</v>
       </c>
       <c r="P114" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -24767,7 +24776,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -24973,7 +24982,7 @@
         <v>160</v>
       </c>
       <c r="P116" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q116">
         <v>1.95</v>
@@ -25179,7 +25188,7 @@
         <v>161</v>
       </c>
       <c r="P117" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q117">
         <v>3.1</v>
@@ -25260,7 +25269,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ117">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR117">
         <v>1.56</v>
@@ -25385,7 +25394,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q118">
         <v>3.75</v>
@@ -25591,7 +25600,7 @@
         <v>162</v>
       </c>
       <c r="P119" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -25797,7 +25806,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q120">
         <v>3.6</v>
@@ -26003,7 +26012,7 @@
         <v>163</v>
       </c>
       <c r="P121" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26415,7 +26424,7 @@
         <v>165</v>
       </c>
       <c r="P123" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q123">
         <v>3.6</v>
@@ -26621,7 +26630,7 @@
         <v>166</v>
       </c>
       <c r="P124" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26699,7 +26708,7 @@
         <v>1</v>
       </c>
       <c r="AP124">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ124">
         <v>0.6</v>
@@ -26827,7 +26836,7 @@
         <v>90</v>
       </c>
       <c r="P125" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -27239,7 +27248,7 @@
         <v>168</v>
       </c>
       <c r="P127" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q127">
         <v>4.75</v>
@@ -27317,7 +27326,7 @@
         <v>1.71</v>
       </c>
       <c r="AP127">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ127">
         <v>1.45</v>
@@ -27445,7 +27454,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q128">
         <v>5.5</v>
@@ -27732,7 +27741,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ129">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR129">
         <v>1.86</v>
@@ -27857,7 +27866,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q130">
         <v>2.2</v>
@@ -27938,7 +27947,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ130">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR130">
         <v>1.73</v>
@@ -28063,7 +28072,7 @@
         <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q131">
         <v>1.62</v>
@@ -28141,7 +28150,7 @@
         <v>0.86</v>
       </c>
       <c r="AP131">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AQ131">
         <v>0.6</v>
@@ -28759,7 +28768,7 @@
         <v>0.88</v>
       </c>
       <c r="AP134">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ134">
         <v>0.73</v>
@@ -28887,7 +28896,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q135">
         <v>3.35</v>
@@ -29174,7 +29183,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ136">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR136">
         <v>1.73</v>
@@ -29505,7 +29514,7 @@
         <v>90</v>
       </c>
       <c r="P138" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q138">
         <v>5.25</v>
@@ -29711,7 +29720,7 @@
         <v>177</v>
       </c>
       <c r="P139" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q139">
         <v>2.32</v>
@@ -30123,7 +30132,7 @@
         <v>134</v>
       </c>
       <c r="P141" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q141">
         <v>3.81</v>
@@ -30329,7 +30338,7 @@
         <v>90</v>
       </c>
       <c r="P142" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q142">
         <v>7</v>
@@ -30535,7 +30544,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q143">
         <v>2.2</v>
@@ -31359,7 +31368,7 @@
         <v>182</v>
       </c>
       <c r="P147" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q147">
         <v>1.71</v>
@@ -31437,10 +31446,10 @@
         <v>1.67</v>
       </c>
       <c r="AP147">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AQ147">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR147">
         <v>2.38</v>
@@ -31565,7 +31574,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q148">
         <v>1.93</v>
@@ -31771,7 +31780,7 @@
         <v>184</v>
       </c>
       <c r="P149" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q149">
         <v>5.66</v>
@@ -32183,7 +32192,7 @@
         <v>185</v>
       </c>
       <c r="P151" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q151">
         <v>2.98</v>
@@ -32264,7 +32273,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ151">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR151">
         <v>1.13</v>
@@ -32389,7 +32398,7 @@
         <v>186</v>
       </c>
       <c r="P152" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q152">
         <v>1.62</v>
@@ -32673,7 +32682,7 @@
         <v>1.13</v>
       </c>
       <c r="AP153">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ153">
         <v>1.11</v>
@@ -33007,7 +33016,7 @@
         <v>188</v>
       </c>
       <c r="P155" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q155">
         <v>2.38</v>
@@ -33213,7 +33222,7 @@
         <v>90</v>
       </c>
       <c r="P156" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q156">
         <v>4.75</v>
@@ -33419,7 +33428,7 @@
         <v>189</v>
       </c>
       <c r="P157" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q157">
         <v>2.88</v>
@@ -33497,7 +33506,7 @@
         <v>0.9</v>
       </c>
       <c r="AP157">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ157">
         <v>0.82</v>
@@ -33909,7 +33918,7 @@
         <v>0.8</v>
       </c>
       <c r="AP159">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AQ159">
         <v>0.73</v>
@@ -34037,7 +34046,7 @@
         <v>192</v>
       </c>
       <c r="P160" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q160">
         <v>2.88</v>
@@ -34243,7 +34252,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q161">
         <v>9</v>
@@ -34400,6 +34409,624 @@
       </c>
       <c r="BP161">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="162" spans="1:68">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>7347909</v>
+      </c>
+      <c r="C162" t="s">
+        <v>68</v>
+      </c>
+      <c r="D162" t="s">
+        <v>69</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45499.35763888889</v>
+      </c>
+      <c r="F162">
+        <v>20</v>
+      </c>
+      <c r="G162" t="s">
+        <v>72</v>
+      </c>
+      <c r="H162" t="s">
+        <v>81</v>
+      </c>
+      <c r="I162">
+        <v>4</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>4</v>
+      </c>
+      <c r="L162">
+        <v>8</v>
+      </c>
+      <c r="M162">
+        <v>1</v>
+      </c>
+      <c r="N162">
+        <v>9</v>
+      </c>
+      <c r="O162" t="s">
+        <v>193</v>
+      </c>
+      <c r="P162" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q162">
+        <v>1.31</v>
+      </c>
+      <c r="R162">
+        <v>3.95</v>
+      </c>
+      <c r="S162">
+        <v>13.03</v>
+      </c>
+      <c r="T162">
+        <v>1.15</v>
+      </c>
+      <c r="U162">
+        <v>4.75</v>
+      </c>
+      <c r="V162">
+        <v>1.71</v>
+      </c>
+      <c r="W162">
+        <v>2.04</v>
+      </c>
+      <c r="X162">
+        <v>3.28</v>
+      </c>
+      <c r="Y162">
+        <v>1.31</v>
+      </c>
+      <c r="Z162">
+        <v>1.04</v>
+      </c>
+      <c r="AA162">
+        <v>13</v>
+      </c>
+      <c r="AB162">
+        <v>29</v>
+      </c>
+      <c r="AC162">
+        <v>1.01</v>
+      </c>
+      <c r="AD162">
+        <v>51</v>
+      </c>
+      <c r="AE162">
+        <v>1.06</v>
+      </c>
+      <c r="AF162">
+        <v>8</v>
+      </c>
+      <c r="AG162">
+        <v>1.21</v>
+      </c>
+      <c r="AH162">
+        <v>3.93</v>
+      </c>
+      <c r="AI162">
+        <v>2</v>
+      </c>
+      <c r="AJ162">
+        <v>1.67</v>
+      </c>
+      <c r="AK162">
+        <v>1.02</v>
+      </c>
+      <c r="AL162">
+        <v>1.03</v>
+      </c>
+      <c r="AM162">
+        <v>6</v>
+      </c>
+      <c r="AN162">
+        <v>2.8</v>
+      </c>
+      <c r="AO162">
+        <v>0.9</v>
+      </c>
+      <c r="AP162">
+        <v>2.82</v>
+      </c>
+      <c r="AQ162">
+        <v>0.82</v>
+      </c>
+      <c r="AR162">
+        <v>2.53</v>
+      </c>
+      <c r="AS162">
+        <v>1.18</v>
+      </c>
+      <c r="AT162">
+        <v>3.71</v>
+      </c>
+      <c r="AU162">
+        <v>12</v>
+      </c>
+      <c r="AV162">
+        <v>2</v>
+      </c>
+      <c r="AW162">
+        <v>10</v>
+      </c>
+      <c r="AX162">
+        <v>2</v>
+      </c>
+      <c r="AY162">
+        <v>22</v>
+      </c>
+      <c r="AZ162">
+        <v>4</v>
+      </c>
+      <c r="BA162">
+        <v>2</v>
+      </c>
+      <c r="BB162">
+        <v>3</v>
+      </c>
+      <c r="BC162">
+        <v>5</v>
+      </c>
+      <c r="BD162">
+        <v>1.05</v>
+      </c>
+      <c r="BE162">
+        <v>15</v>
+      </c>
+      <c r="BF162">
+        <v>11</v>
+      </c>
+      <c r="BG162">
+        <v>1.17</v>
+      </c>
+      <c r="BH162">
+        <v>4.5</v>
+      </c>
+      <c r="BI162">
+        <v>1.3</v>
+      </c>
+      <c r="BJ162">
+        <v>3.2</v>
+      </c>
+      <c r="BK162">
+        <v>1.5</v>
+      </c>
+      <c r="BL162">
+        <v>2.49</v>
+      </c>
+      <c r="BM162">
+        <v>1.85</v>
+      </c>
+      <c r="BN162">
+        <v>1.94</v>
+      </c>
+      <c r="BO162">
+        <v>2.33</v>
+      </c>
+      <c r="BP162">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="163" spans="1:68">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>7347910</v>
+      </c>
+      <c r="C163" t="s">
+        <v>68</v>
+      </c>
+      <c r="D163" t="s">
+        <v>69</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45499.375</v>
+      </c>
+      <c r="F163">
+        <v>20</v>
+      </c>
+      <c r="G163" t="s">
+        <v>82</v>
+      </c>
+      <c r="H163" t="s">
+        <v>85</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>1</v>
+      </c>
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163">
+        <v>1</v>
+      </c>
+      <c r="O163" t="s">
+        <v>194</v>
+      </c>
+      <c r="P163" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q163">
+        <v>3.5</v>
+      </c>
+      <c r="R163">
+        <v>2.15</v>
+      </c>
+      <c r="S163">
+        <v>2.8</v>
+      </c>
+      <c r="T163">
+        <v>1.36</v>
+      </c>
+      <c r="U163">
+        <v>2.9</v>
+      </c>
+      <c r="V163">
+        <v>2.6</v>
+      </c>
+      <c r="W163">
+        <v>1.44</v>
+      </c>
+      <c r="X163">
+        <v>6.45</v>
+      </c>
+      <c r="Y163">
+        <v>1.09</v>
+      </c>
+      <c r="Z163">
+        <v>3.1</v>
+      </c>
+      <c r="AA163">
+        <v>3.4</v>
+      </c>
+      <c r="AB163">
+        <v>2.2</v>
+      </c>
+      <c r="AC163">
+        <v>1.05</v>
+      </c>
+      <c r="AD163">
+        <v>8.5</v>
+      </c>
+      <c r="AE163">
+        <v>1.25</v>
+      </c>
+      <c r="AF163">
+        <v>3.75</v>
+      </c>
+      <c r="AG163">
+        <v>1.8</v>
+      </c>
+      <c r="AH163">
+        <v>1.95</v>
+      </c>
+      <c r="AI163">
+        <v>1.65</v>
+      </c>
+      <c r="AJ163">
+        <v>2.15</v>
+      </c>
+      <c r="AK163">
+        <v>1.66</v>
+      </c>
+      <c r="AL163">
+        <v>1.25</v>
+      </c>
+      <c r="AM163">
+        <v>1.36</v>
+      </c>
+      <c r="AN163">
+        <v>0.9</v>
+      </c>
+      <c r="AO163">
+        <v>1.5</v>
+      </c>
+      <c r="AP163">
+        <v>1.09</v>
+      </c>
+      <c r="AQ163">
+        <v>1.36</v>
+      </c>
+      <c r="AR163">
+        <v>1.3</v>
+      </c>
+      <c r="AS163">
+        <v>1.12</v>
+      </c>
+      <c r="AT163">
+        <v>2.42</v>
+      </c>
+      <c r="AU163">
+        <v>6</v>
+      </c>
+      <c r="AV163">
+        <v>4</v>
+      </c>
+      <c r="AW163">
+        <v>8</v>
+      </c>
+      <c r="AX163">
+        <v>6</v>
+      </c>
+      <c r="AY163">
+        <v>14</v>
+      </c>
+      <c r="AZ163">
+        <v>10</v>
+      </c>
+      <c r="BA163">
+        <v>7</v>
+      </c>
+      <c r="BB163">
+        <v>6</v>
+      </c>
+      <c r="BC163">
+        <v>13</v>
+      </c>
+      <c r="BD163">
+        <v>2.06</v>
+      </c>
+      <c r="BE163">
+        <v>6.95</v>
+      </c>
+      <c r="BF163">
+        <v>2.1</v>
+      </c>
+      <c r="BG163">
+        <v>1.29</v>
+      </c>
+      <c r="BH163">
+        <v>3.3</v>
+      </c>
+      <c r="BI163">
+        <v>1.48</v>
+      </c>
+      <c r="BJ163">
+        <v>2.53</v>
+      </c>
+      <c r="BK163">
+        <v>1.81</v>
+      </c>
+      <c r="BL163">
+        <v>1.98</v>
+      </c>
+      <c r="BM163">
+        <v>2.25</v>
+      </c>
+      <c r="BN163">
+        <v>1.61</v>
+      </c>
+      <c r="BO163">
+        <v>2.8</v>
+      </c>
+      <c r="BP163">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="164" spans="1:68">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>7347911</v>
+      </c>
+      <c r="C164" t="s">
+        <v>68</v>
+      </c>
+      <c r="D164" t="s">
+        <v>69</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45500.33333333334</v>
+      </c>
+      <c r="F164">
+        <v>20</v>
+      </c>
+      <c r="G164" t="s">
+        <v>84</v>
+      </c>
+      <c r="H164" t="s">
+        <v>74</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>1</v>
+      </c>
+      <c r="O164" t="s">
+        <v>195</v>
+      </c>
+      <c r="P164" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q164">
+        <v>2.1</v>
+      </c>
+      <c r="R164">
+        <v>2.5</v>
+      </c>
+      <c r="S164">
+        <v>5</v>
+      </c>
+      <c r="T164">
+        <v>1.29</v>
+      </c>
+      <c r="U164">
+        <v>3.5</v>
+      </c>
+      <c r="V164">
+        <v>2.25</v>
+      </c>
+      <c r="W164">
+        <v>1.57</v>
+      </c>
+      <c r="X164">
+        <v>5.5</v>
+      </c>
+      <c r="Y164">
+        <v>1.14</v>
+      </c>
+      <c r="Z164">
+        <v>1.81</v>
+      </c>
+      <c r="AA164">
+        <v>3.8</v>
+      </c>
+      <c r="AB164">
+        <v>3.79</v>
+      </c>
+      <c r="AC164">
+        <v>1.02</v>
+      </c>
+      <c r="AD164">
+        <v>12</v>
+      </c>
+      <c r="AE164">
+        <v>1.15</v>
+      </c>
+      <c r="AF164">
+        <v>4.75</v>
+      </c>
+      <c r="AG164">
+        <v>1.55</v>
+      </c>
+      <c r="AH164">
+        <v>2.2</v>
+      </c>
+      <c r="AI164">
+        <v>1.62</v>
+      </c>
+      <c r="AJ164">
+        <v>2.2</v>
+      </c>
+      <c r="AK164">
+        <v>1.15</v>
+      </c>
+      <c r="AL164">
+        <v>1.21</v>
+      </c>
+      <c r="AM164">
+        <v>2.41</v>
+      </c>
+      <c r="AN164">
+        <v>1</v>
+      </c>
+      <c r="AO164">
+        <v>0.67</v>
+      </c>
+      <c r="AP164">
+        <v>1.2</v>
+      </c>
+      <c r="AQ164">
+        <v>0.6</v>
+      </c>
+      <c r="AR164">
+        <v>1.21</v>
+      </c>
+      <c r="AS164">
+        <v>0.99</v>
+      </c>
+      <c r="AT164">
+        <v>2.2</v>
+      </c>
+      <c r="AU164">
+        <v>-1</v>
+      </c>
+      <c r="AV164">
+        <v>-1</v>
+      </c>
+      <c r="AW164">
+        <v>-1</v>
+      </c>
+      <c r="AX164">
+        <v>-1</v>
+      </c>
+      <c r="AY164">
+        <v>-1</v>
+      </c>
+      <c r="AZ164">
+        <v>-1</v>
+      </c>
+      <c r="BA164">
+        <v>-1</v>
+      </c>
+      <c r="BB164">
+        <v>-1</v>
+      </c>
+      <c r="BC164">
+        <v>-1</v>
+      </c>
+      <c r="BD164">
+        <v>1.5</v>
+      </c>
+      <c r="BE164">
+        <v>8.5</v>
+      </c>
+      <c r="BF164">
+        <v>3.1</v>
+      </c>
+      <c r="BG164">
+        <v>1.3</v>
+      </c>
+      <c r="BH164">
+        <v>3.2</v>
+      </c>
+      <c r="BI164">
+        <v>1.52</v>
+      </c>
+      <c r="BJ164">
+        <v>2.42</v>
+      </c>
+      <c r="BK164">
+        <v>2</v>
+      </c>
+      <c r="BL164">
+        <v>1.8</v>
+      </c>
+      <c r="BM164">
+        <v>2.42</v>
+      </c>
+      <c r="BN164">
+        <v>1.53</v>
+      </c>
+      <c r="BO164">
+        <v>3</v>
+      </c>
+      <c r="BP164">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="289">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -602,6 +602,9 @@
   </si>
   <si>
     <t>['88']</t>
+  </si>
+  <si>
+    <t>['8', '50']</t>
   </si>
   <si>
     <t>['81', '90+3']</t>
@@ -1239,7 +1242,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP164"/>
+  <dimension ref="A1:BP165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1498,7 +1501,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1704,7 +1707,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -2194,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ5">
         <v>0.82</v>
@@ -2322,7 +2325,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2940,7 +2943,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -3433,7 +3436,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ11">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3558,7 +3561,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -4176,7 +4179,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4588,7 +4591,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4794,7 +4797,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -5000,7 +5003,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5824,7 +5827,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -6030,7 +6033,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6236,7 +6239,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6442,7 +6445,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6648,7 +6651,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -6854,7 +6857,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7060,7 +7063,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -7266,7 +7269,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7678,7 +7681,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7756,7 +7759,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ32">
         <v>1.7</v>
@@ -7884,7 +7887,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q33">
         <v>1.73</v>
@@ -7965,7 +7968,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ33">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR33">
         <v>0.79</v>
@@ -8090,7 +8093,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q34">
         <v>6.4</v>
@@ -8296,7 +8299,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q35">
         <v>1.96</v>
@@ -8502,7 +8505,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q36">
         <v>1.98</v>
@@ -8708,7 +8711,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -8914,7 +8917,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q38">
         <v>3.25</v>
@@ -9738,7 +9741,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9944,7 +9947,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q43">
         <v>2.3</v>
@@ -10150,7 +10153,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q44">
         <v>4.75</v>
@@ -10434,7 +10437,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ45">
         <v>1</v>
@@ -10562,7 +10565,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10768,7 +10771,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10849,7 +10852,7 @@
         <v>1</v>
       </c>
       <c r="AQ47">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR47">
         <v>1.03</v>
@@ -11386,7 +11389,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11592,7 +11595,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11798,7 +11801,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q52">
         <v>1.83</v>
@@ -12210,7 +12213,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q54">
         <v>7.5</v>
@@ -12703,7 +12706,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ56">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR56">
         <v>1.29</v>
@@ -12828,7 +12831,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13034,7 +13037,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q58">
         <v>2.8</v>
@@ -13240,7 +13243,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q59">
         <v>3.15</v>
@@ -13446,7 +13449,7 @@
         <v>106</v>
       </c>
       <c r="P60" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13652,7 +13655,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q61">
         <v>3.11</v>
@@ -14064,7 +14067,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q63">
         <v>2.75</v>
@@ -14476,7 +14479,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q65">
         <v>1.8</v>
@@ -14760,7 +14763,7 @@
         <v>2.2</v>
       </c>
       <c r="AP66">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ66">
         <v>1.36</v>
@@ -14888,7 +14891,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q67">
         <v>2.38</v>
@@ -15094,7 +15097,7 @@
         <v>127</v>
       </c>
       <c r="P68" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15175,7 +15178,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ68">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR68">
         <v>1.05</v>
@@ -15506,7 +15509,7 @@
         <v>90</v>
       </c>
       <c r="P70" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q70">
         <v>5.5</v>
@@ -15712,7 +15715,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q71">
         <v>2.45</v>
@@ -16330,7 +16333,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q74">
         <v>2.65</v>
@@ -16536,7 +16539,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -16948,7 +16951,7 @@
         <v>133</v>
       </c>
       <c r="P77" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17566,7 +17569,7 @@
         <v>90</v>
       </c>
       <c r="P80" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -17772,7 +17775,7 @@
         <v>136</v>
       </c>
       <c r="P81" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17978,7 +17981,7 @@
         <v>137</v>
       </c>
       <c r="P82" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q82">
         <v>1.91</v>
@@ -18184,7 +18187,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q83">
         <v>1.62</v>
@@ -18468,7 +18471,7 @@
         <v>2.6</v>
       </c>
       <c r="AP84">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ84">
         <v>2.6</v>
@@ -18596,7 +18599,7 @@
         <v>99</v>
       </c>
       <c r="P85" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18802,7 +18805,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q86">
         <v>1.83</v>
@@ -19008,7 +19011,7 @@
         <v>90</v>
       </c>
       <c r="P87" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -19214,7 +19217,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19295,7 +19298,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ88">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR88">
         <v>1.33</v>
@@ -19626,7 +19629,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q90">
         <v>1.61</v>
@@ -19832,7 +19835,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q91">
         <v>1.8</v>
@@ -20038,7 +20041,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q92">
         <v>3.8</v>
@@ -20244,7 +20247,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q93">
         <v>2.55</v>
@@ -20450,7 +20453,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q94">
         <v>4.5</v>
@@ -20656,7 +20659,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q95">
         <v>4.5</v>
@@ -20862,7 +20865,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q96">
         <v>9</v>
@@ -21274,7 +21277,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q98">
         <v>4.63</v>
@@ -21480,7 +21483,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q99">
         <v>2.31</v>
@@ -21686,7 +21689,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21892,7 +21895,7 @@
         <v>151</v>
       </c>
       <c r="P101" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q101">
         <v>2.43</v>
@@ -22098,7 +22101,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -22176,7 +22179,7 @@
         <v>2</v>
       </c>
       <c r="AP102">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ102">
         <v>1.45</v>
@@ -22304,7 +22307,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -23540,7 +23543,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q109">
         <v>1.95</v>
@@ -24033,7 +24036,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ111">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR111">
         <v>1.64</v>
@@ -24158,7 +24161,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q112">
         <v>1.73</v>
@@ -24570,7 +24573,7 @@
         <v>90</v>
       </c>
       <c r="P114" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -24648,7 +24651,7 @@
         <v>2.33</v>
       </c>
       <c r="AP114">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ114">
         <v>2.6</v>
@@ -24776,7 +24779,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -24982,7 +24985,7 @@
         <v>160</v>
       </c>
       <c r="P116" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q116">
         <v>1.95</v>
@@ -25188,7 +25191,7 @@
         <v>161</v>
       </c>
       <c r="P117" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q117">
         <v>3.1</v>
@@ -25394,7 +25397,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q118">
         <v>3.75</v>
@@ -25600,7 +25603,7 @@
         <v>162</v>
       </c>
       <c r="P119" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -25806,7 +25809,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q120">
         <v>3.6</v>
@@ -26012,7 +26015,7 @@
         <v>163</v>
       </c>
       <c r="P121" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26299,7 +26302,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ122">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR122">
         <v>1.65</v>
@@ -26424,7 +26427,7 @@
         <v>165</v>
       </c>
       <c r="P123" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q123">
         <v>3.6</v>
@@ -26630,7 +26633,7 @@
         <v>166</v>
       </c>
       <c r="P124" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26836,7 +26839,7 @@
         <v>90</v>
       </c>
       <c r="P125" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -27248,7 +27251,7 @@
         <v>168</v>
       </c>
       <c r="P127" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q127">
         <v>4.75</v>
@@ -27454,7 +27457,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q128">
         <v>5.5</v>
@@ -27866,7 +27869,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q130">
         <v>2.2</v>
@@ -28072,7 +28075,7 @@
         <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q131">
         <v>1.62</v>
@@ -28356,7 +28359,7 @@
         <v>1.38</v>
       </c>
       <c r="AP132">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ132">
         <v>1.2</v>
@@ -28896,7 +28899,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q135">
         <v>3.35</v>
@@ -29514,7 +29517,7 @@
         <v>90</v>
       </c>
       <c r="P138" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q138">
         <v>5.25</v>
@@ -29720,7 +29723,7 @@
         <v>177</v>
       </c>
       <c r="P139" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q139">
         <v>2.32</v>
@@ -29798,7 +29801,7 @@
         <v>1</v>
       </c>
       <c r="AP139">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ139">
         <v>0.82</v>
@@ -30132,7 +30135,7 @@
         <v>134</v>
       </c>
       <c r="P141" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q141">
         <v>3.81</v>
@@ -30338,7 +30341,7 @@
         <v>90</v>
       </c>
       <c r="P142" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q142">
         <v>7</v>
@@ -30544,7 +30547,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q143">
         <v>2.2</v>
@@ -30831,7 +30834,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ144">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR144">
         <v>1.4</v>
@@ -31368,7 +31371,7 @@
         <v>182</v>
       </c>
       <c r="P147" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q147">
         <v>1.71</v>
@@ -31574,7 +31577,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q148">
         <v>1.93</v>
@@ -31780,7 +31783,7 @@
         <v>184</v>
       </c>
       <c r="P149" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q149">
         <v>5.66</v>
@@ -32192,7 +32195,7 @@
         <v>185</v>
       </c>
       <c r="P151" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q151">
         <v>2.98</v>
@@ -32398,7 +32401,7 @@
         <v>186</v>
       </c>
       <c r="P152" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q152">
         <v>1.62</v>
@@ -33016,7 +33019,7 @@
         <v>188</v>
       </c>
       <c r="P155" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q155">
         <v>2.38</v>
@@ -33222,7 +33225,7 @@
         <v>90</v>
       </c>
       <c r="P156" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q156">
         <v>4.75</v>
@@ -33428,7 +33431,7 @@
         <v>189</v>
       </c>
       <c r="P157" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q157">
         <v>2.88</v>
@@ -34046,7 +34049,7 @@
         <v>192</v>
       </c>
       <c r="P160" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q160">
         <v>2.88</v>
@@ -34252,7 +34255,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q161">
         <v>9</v>
@@ -34458,7 +34461,7 @@
         <v>193</v>
       </c>
       <c r="P162" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q162">
         <v>1.31</v>
@@ -34963,31 +34966,31 @@
         <v>2.2</v>
       </c>
       <c r="AU164">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV164">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW164">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AX164">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY164">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="AZ164">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BA164">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB164">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC164">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD164">
         <v>1.5</v>
@@ -35027,6 +35030,212 @@
       </c>
       <c r="BP164">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="165" spans="1:68">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>7347912</v>
+      </c>
+      <c r="C165" t="s">
+        <v>68</v>
+      </c>
+      <c r="D165" t="s">
+        <v>69</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45500.35763888889</v>
+      </c>
+      <c r="F165">
+        <v>20</v>
+      </c>
+      <c r="G165" t="s">
+        <v>73</v>
+      </c>
+      <c r="H165" t="s">
+        <v>71</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>1</v>
+      </c>
+      <c r="L165">
+        <v>2</v>
+      </c>
+      <c r="M165">
+        <v>1</v>
+      </c>
+      <c r="N165">
+        <v>3</v>
+      </c>
+      <c r="O165" t="s">
+        <v>196</v>
+      </c>
+      <c r="P165" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q165">
+        <v>2.1</v>
+      </c>
+      <c r="R165">
+        <v>2.5</v>
+      </c>
+      <c r="S165">
+        <v>5</v>
+      </c>
+      <c r="T165">
+        <v>1.29</v>
+      </c>
+      <c r="U165">
+        <v>3.5</v>
+      </c>
+      <c r="V165">
+        <v>2.38</v>
+      </c>
+      <c r="W165">
+        <v>1.53</v>
+      </c>
+      <c r="X165">
+        <v>5.5</v>
+      </c>
+      <c r="Y165">
+        <v>1.14</v>
+      </c>
+      <c r="Z165">
+        <v>1.56</v>
+      </c>
+      <c r="AA165">
+        <v>3.99</v>
+      </c>
+      <c r="AB165">
+        <v>5.1</v>
+      </c>
+      <c r="AC165">
+        <v>1.02</v>
+      </c>
+      <c r="AD165">
+        <v>13.1</v>
+      </c>
+      <c r="AE165">
+        <v>1.17</v>
+      </c>
+      <c r="AF165">
+        <v>4.25</v>
+      </c>
+      <c r="AG165">
+        <v>1.62</v>
+      </c>
+      <c r="AH165">
+        <v>2.25</v>
+      </c>
+      <c r="AI165">
+        <v>1.62</v>
+      </c>
+      <c r="AJ165">
+        <v>2.2</v>
+      </c>
+      <c r="AK165">
+        <v>1.16</v>
+      </c>
+      <c r="AL165">
+        <v>1.23</v>
+      </c>
+      <c r="AM165">
+        <v>2.29</v>
+      </c>
+      <c r="AN165">
+        <v>0.89</v>
+      </c>
+      <c r="AO165">
+        <v>0.78</v>
+      </c>
+      <c r="AP165">
+        <v>1.1</v>
+      </c>
+      <c r="AQ165">
+        <v>0.7</v>
+      </c>
+      <c r="AR165">
+        <v>1.66</v>
+      </c>
+      <c r="AS165">
+        <v>1.2</v>
+      </c>
+      <c r="AT165">
+        <v>2.86</v>
+      </c>
+      <c r="AU165">
+        <v>7</v>
+      </c>
+      <c r="AV165">
+        <v>5</v>
+      </c>
+      <c r="AW165">
+        <v>5</v>
+      </c>
+      <c r="AX165">
+        <v>4</v>
+      </c>
+      <c r="AY165">
+        <v>12</v>
+      </c>
+      <c r="AZ165">
+        <v>9</v>
+      </c>
+      <c r="BA165">
+        <v>2</v>
+      </c>
+      <c r="BB165">
+        <v>3</v>
+      </c>
+      <c r="BC165">
+        <v>5</v>
+      </c>
+      <c r="BD165">
+        <v>1.3</v>
+      </c>
+      <c r="BE165">
+        <v>9.5</v>
+      </c>
+      <c r="BF165">
+        <v>4</v>
+      </c>
+      <c r="BG165">
+        <v>1.22</v>
+      </c>
+      <c r="BH165">
+        <v>3.65</v>
+      </c>
+      <c r="BI165">
+        <v>1.43</v>
+      </c>
+      <c r="BJ165">
+        <v>2.54</v>
+      </c>
+      <c r="BK165">
+        <v>1.8</v>
+      </c>
+      <c r="BL165">
+        <v>2</v>
+      </c>
+      <c r="BM165">
+        <v>2.21</v>
+      </c>
+      <c r="BN165">
+        <v>1.56</v>
+      </c>
+      <c r="BO165">
+        <v>2.98</v>
+      </c>
+      <c r="BP165">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="293">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -604,7 +604,16 @@
     <t>['88']</t>
   </si>
   <si>
-    <t>['8', '50']</t>
+    <t>['8', '51']</t>
+  </si>
+  <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>['29', '36', '79', '90+2']</t>
+  </si>
+  <si>
+    <t>['4']</t>
   </si>
   <si>
     <t>['81', '90+3']</t>
@@ -724,9 +733,6 @@
     <t>['11']</t>
   </si>
   <si>
-    <t>['28']</t>
-  </si>
-  <si>
     <t>['45+7']</t>
   </si>
   <si>
@@ -820,9 +826,6 @@
     <t>['2']</t>
   </si>
   <si>
-    <t>['4']</t>
-  </si>
-  <si>
     <t>['42']</t>
   </si>
   <si>
@@ -881,6 +884,15 @@
   </si>
   <si>
     <t>['55']</t>
+  </si>
+  <si>
+    <t>['43', '54', '90+3']</t>
+  </si>
+  <si>
+    <t>['4', '53']</t>
+  </si>
+  <si>
+    <t>['42', '70']</t>
   </si>
 </sst>
 </file>
@@ -1242,7 +1254,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP165"/>
+  <dimension ref="A1:BP169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1501,7 +1513,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1707,7 +1719,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -2325,7 +2337,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2815,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ8">
         <v>1.2</v>
@@ -2943,7 +2955,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -3024,7 +3036,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ9">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3227,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ10">
         <v>0.82</v>
@@ -3561,7 +3573,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -3639,10 +3651,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4051,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
         <v>2.6</v>
@@ -4179,7 +4191,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4466,7 +4478,7 @@
         <v>1</v>
       </c>
       <c r="AQ16">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR16">
         <v>1.14</v>
@@ -4591,7 +4603,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4797,7 +4809,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -5003,7 +5015,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5081,7 +5093,7 @@
         <v>2</v>
       </c>
       <c r="AP19">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ19">
         <v>1.36</v>
@@ -5827,7 +5839,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -6033,7 +6045,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6114,7 +6126,7 @@
         <v>2</v>
       </c>
       <c r="AQ24">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AR24">
         <v>1.89</v>
@@ -6239,7 +6251,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6445,7 +6457,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6523,7 +6535,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ26">
         <v>0.6</v>
@@ -6651,7 +6663,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -6732,7 +6744,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ27">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AR27">
         <v>1.22</v>
@@ -6857,7 +6869,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6935,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ28">
         <v>1.2</v>
@@ -7063,7 +7075,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -7141,10 +7153,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ29">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR29">
         <v>1.72</v>
@@ -7269,7 +7281,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7556,7 +7568,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ31">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR31">
         <v>1.04</v>
@@ -7681,7 +7693,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7762,7 +7774,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ32">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR32">
         <v>1.5</v>
@@ -7887,7 +7899,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q33">
         <v>1.73</v>
@@ -7965,7 +7977,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ33">
         <v>0.7</v>
@@ -8093,7 +8105,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q34">
         <v>6.4</v>
@@ -8299,7 +8311,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q35">
         <v>1.96</v>
@@ -8505,7 +8517,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q36">
         <v>1.98</v>
@@ -8711,7 +8723,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -8917,7 +8929,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q38">
         <v>3.25</v>
@@ -9741,7 +9753,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9819,7 +9831,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ42">
         <v>0.82</v>
@@ -9947,7 +9959,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q43">
         <v>2.3</v>
@@ -10153,7 +10165,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q44">
         <v>4.75</v>
@@ -10234,7 +10246,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ44">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR44">
         <v>1.03</v>
@@ -10440,7 +10452,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ45">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR45">
         <v>1.43</v>
@@ -10565,7 +10577,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10646,7 +10658,7 @@
         <v>2.82</v>
       </c>
       <c r="AQ46">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR46">
         <v>1.97</v>
@@ -10771,7 +10783,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -11055,7 +11067,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ48">
         <v>0.6</v>
@@ -11389,7 +11401,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11467,7 +11479,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ50">
         <v>1.45</v>
@@ -11595,7 +11607,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11801,7 +11813,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q52">
         <v>1.83</v>
@@ -12085,7 +12097,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ53">
         <v>0.82</v>
@@ -12213,7 +12225,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q54">
         <v>7.5</v>
@@ -12294,7 +12306,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ54">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AR54">
         <v>0.95</v>
@@ -12497,7 +12509,7 @@
         <v>0.33</v>
       </c>
       <c r="AP55">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ55">
         <v>0.73</v>
@@ -12831,7 +12843,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13037,7 +13049,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q58">
         <v>2.8</v>
@@ -13243,7 +13255,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q59">
         <v>3.15</v>
@@ -13321,7 +13333,7 @@
         <v>2.25</v>
       </c>
       <c r="AP59">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ59">
         <v>1.45</v>
@@ -13449,7 +13461,7 @@
         <v>106</v>
       </c>
       <c r="P60" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13527,7 +13539,7 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ60">
         <v>1.36</v>
@@ -13655,7 +13667,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q61">
         <v>3.11</v>
@@ -13942,7 +13954,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ62">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR62">
         <v>0.98</v>
@@ -14067,7 +14079,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q63">
         <v>2.75</v>
@@ -14148,7 +14160,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ63">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR63">
         <v>1.51</v>
@@ -14354,7 +14366,7 @@
         <v>2.82</v>
       </c>
       <c r="AQ64">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AR64">
         <v>2.2</v>
@@ -14479,7 +14491,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="Q65">
         <v>1.8</v>
@@ -14891,7 +14903,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q67">
         <v>2.38</v>
@@ -14969,7 +14981,7 @@
         <v>1.25</v>
       </c>
       <c r="AP67">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ67">
         <v>1.11</v>
@@ -15097,7 +15109,7 @@
         <v>127</v>
       </c>
       <c r="P68" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15509,7 +15521,7 @@
         <v>90</v>
       </c>
       <c r="P70" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q70">
         <v>5.5</v>
@@ -15587,7 +15599,7 @@
         <v>1.67</v>
       </c>
       <c r="AP70">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ70">
         <v>2.6</v>
@@ -15715,7 +15727,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q71">
         <v>2.45</v>
@@ -16208,7 +16220,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ73">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR73">
         <v>1.06</v>
@@ -16333,7 +16345,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q74">
         <v>2.65</v>
@@ -16411,7 +16423,7 @@
         <v>1.8</v>
       </c>
       <c r="AP74">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ74">
         <v>1.45</v>
@@ -16539,7 +16551,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -16951,7 +16963,7 @@
         <v>133</v>
       </c>
       <c r="P77" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17235,7 +17247,7 @@
         <v>0.8</v>
       </c>
       <c r="AP78">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ78">
         <v>0.73</v>
@@ -17444,7 +17456,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ79">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR79">
         <v>2.06</v>
@@ -17569,7 +17581,7 @@
         <v>90</v>
       </c>
       <c r="P80" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -17775,7 +17787,7 @@
         <v>136</v>
       </c>
       <c r="P81" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17853,7 +17865,7 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ81">
         <v>0.82</v>
@@ -17981,7 +17993,7 @@
         <v>137</v>
       </c>
       <c r="P82" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q82">
         <v>1.91</v>
@@ -18187,7 +18199,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q83">
         <v>1.62</v>
@@ -18474,7 +18486,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ84">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AR84">
         <v>1.89</v>
@@ -18599,7 +18611,7 @@
         <v>99</v>
       </c>
       <c r="P85" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18677,10 +18689,10 @@
         <v>1.75</v>
       </c>
       <c r="AP85">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ85">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR85">
         <v>1.84</v>
@@ -18805,7 +18817,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q86">
         <v>1.83</v>
@@ -18886,7 +18898,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ86">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR86">
         <v>1.8</v>
@@ -19011,7 +19023,7 @@
         <v>90</v>
       </c>
       <c r="P87" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -19217,7 +19229,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19629,7 +19641,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q90">
         <v>1.61</v>
@@ -19835,7 +19847,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q91">
         <v>1.8</v>
@@ -19913,7 +19925,7 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ91">
         <v>0.82</v>
@@ -20041,7 +20053,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q92">
         <v>3.8</v>
@@ -20247,7 +20259,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q93">
         <v>2.55</v>
@@ -20325,7 +20337,7 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ93">
         <v>1.5</v>
@@ -20453,7 +20465,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q94">
         <v>4.5</v>
@@ -20534,7 +20546,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ94">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR94">
         <v>1.27</v>
@@ -20659,7 +20671,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q95">
         <v>4.5</v>
@@ -20865,7 +20877,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q96">
         <v>9</v>
@@ -21277,7 +21289,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q98">
         <v>4.63</v>
@@ -21355,7 +21367,7 @@
         <v>2</v>
       </c>
       <c r="AP98">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ98">
         <v>1.36</v>
@@ -21483,7 +21495,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q99">
         <v>2.31</v>
@@ -21561,7 +21573,7 @@
         <v>1.33</v>
       </c>
       <c r="AP99">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ99">
         <v>1.5</v>
@@ -21689,7 +21701,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21767,10 +21779,10 @@
         <v>2.33</v>
       </c>
       <c r="AP100">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ100">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AR100">
         <v>1.53</v>
@@ -21895,7 +21907,7 @@
         <v>151</v>
       </c>
       <c r="P101" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q101">
         <v>2.43</v>
@@ -22101,7 +22113,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -22182,7 +22194,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ102">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR102">
         <v>1.58</v>
@@ -22307,7 +22319,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -22594,7 +22606,7 @@
         <v>2.82</v>
       </c>
       <c r="AQ104">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR104">
         <v>2.01</v>
@@ -23003,10 +23015,10 @@
         <v>1</v>
       </c>
       <c r="AP106">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ106">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR106">
         <v>1.74</v>
@@ -23212,7 +23224,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ107">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AR107">
         <v>1.26</v>
@@ -23415,7 +23427,7 @@
         <v>2.14</v>
       </c>
       <c r="AP108">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ108">
         <v>1.45</v>
@@ -23543,7 +23555,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q109">
         <v>1.95</v>
@@ -24161,7 +24173,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q112">
         <v>1.73</v>
@@ -24448,7 +24460,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ113">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR113">
         <v>1.3</v>
@@ -24573,7 +24585,7 @@
         <v>90</v>
       </c>
       <c r="P114" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -24779,7 +24791,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -24985,7 +24997,7 @@
         <v>160</v>
       </c>
       <c r="P116" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q116">
         <v>1.95</v>
@@ -25063,7 +25075,7 @@
         <v>1.14</v>
       </c>
       <c r="AP116">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ116">
         <v>0.82</v>
@@ -25191,7 +25203,7 @@
         <v>161</v>
       </c>
       <c r="P117" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q117">
         <v>3.1</v>
@@ -25269,7 +25281,7 @@
         <v>1.88</v>
       </c>
       <c r="AP117">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ117">
         <v>1.36</v>
@@ -25397,7 +25409,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q118">
         <v>3.75</v>
@@ -25603,7 +25615,7 @@
         <v>162</v>
       </c>
       <c r="P119" t="s">
-        <v>268</v>
+        <v>199</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -25684,7 +25696,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ119">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR119">
         <v>2.45</v>
@@ -25809,7 +25821,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q120">
         <v>3.6</v>
@@ -26015,7 +26027,7 @@
         <v>163</v>
       </c>
       <c r="P121" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26299,7 +26311,7 @@
         <v>1</v>
       </c>
       <c r="AP122">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ122">
         <v>0.7</v>
@@ -26427,7 +26439,7 @@
         <v>165</v>
       </c>
       <c r="P123" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q123">
         <v>3.6</v>
@@ -26633,7 +26645,7 @@
         <v>166</v>
       </c>
       <c r="P124" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26839,7 +26851,7 @@
         <v>90</v>
       </c>
       <c r="P125" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -26917,7 +26929,7 @@
         <v>2.5</v>
       </c>
       <c r="AP125">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ125">
         <v>2.6</v>
@@ -27126,7 +27138,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ126">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR126">
         <v>2.25</v>
@@ -27251,7 +27263,7 @@
         <v>168</v>
       </c>
       <c r="P127" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q127">
         <v>4.75</v>
@@ -27332,7 +27344,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ127">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR127">
         <v>1.13</v>
@@ -27457,7 +27469,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q128">
         <v>5.5</v>
@@ -27535,10 +27547,10 @@
         <v>1.43</v>
       </c>
       <c r="AP128">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ128">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR128">
         <v>1.48</v>
@@ -27869,7 +27881,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q130">
         <v>2.2</v>
@@ -27947,7 +27959,7 @@
         <v>0.75</v>
       </c>
       <c r="AP130">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ130">
         <v>0.82</v>
@@ -28075,7 +28087,7 @@
         <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="Q131">
         <v>1.62</v>
@@ -28568,7 +28580,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ133">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AR133">
         <v>1.18</v>
@@ -28899,7 +28911,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q135">
         <v>3.35</v>
@@ -29392,7 +29404,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ137">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR137">
         <v>1.83</v>
@@ -29517,7 +29529,7 @@
         <v>90</v>
       </c>
       <c r="P138" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q138">
         <v>5.25</v>
@@ -29595,7 +29607,7 @@
         <v>2.56</v>
       </c>
       <c r="AP138">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ138">
         <v>2.6</v>
@@ -29723,7 +29735,7 @@
         <v>177</v>
       </c>
       <c r="P139" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q139">
         <v>2.32</v>
@@ -30010,7 +30022,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ140">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR140">
         <v>2.23</v>
@@ -30135,7 +30147,7 @@
         <v>134</v>
       </c>
       <c r="P141" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q141">
         <v>3.81</v>
@@ -30341,7 +30353,7 @@
         <v>90</v>
       </c>
       <c r="P142" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q142">
         <v>7</v>
@@ -30422,7 +30434,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ142">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR142">
         <v>1.24</v>
@@ -30547,7 +30559,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q143">
         <v>2.2</v>
@@ -30831,7 +30843,7 @@
         <v>0.88</v>
       </c>
       <c r="AP144">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ144">
         <v>0.7</v>
@@ -31037,10 +31049,10 @@
         <v>1.14</v>
       </c>
       <c r="AP145">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ145">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR145">
         <v>1.9</v>
@@ -31371,7 +31383,7 @@
         <v>182</v>
       </c>
       <c r="P147" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q147">
         <v>1.71</v>
@@ -31577,7 +31589,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q148">
         <v>1.93</v>
@@ -31783,7 +31795,7 @@
         <v>184</v>
       </c>
       <c r="P149" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q149">
         <v>5.66</v>
@@ -32195,7 +32207,7 @@
         <v>185</v>
       </c>
       <c r="P151" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q151">
         <v>2.98</v>
@@ -32401,7 +32413,7 @@
         <v>186</v>
       </c>
       <c r="P152" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q152">
         <v>1.62</v>
@@ -32891,10 +32903,10 @@
         <v>1.78</v>
       </c>
       <c r="AP154">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ154">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR154">
         <v>1.71</v>
@@ -33019,7 +33031,7 @@
         <v>188</v>
       </c>
       <c r="P155" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q155">
         <v>2.38</v>
@@ -33100,7 +33112,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ155">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR155">
         <v>1.25</v>
@@ -33225,7 +33237,7 @@
         <v>90</v>
       </c>
       <c r="P156" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q156">
         <v>4.75</v>
@@ -33306,7 +33318,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ156">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR156">
         <v>1.24</v>
@@ -33431,7 +33443,7 @@
         <v>189</v>
       </c>
       <c r="P157" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q157">
         <v>2.88</v>
@@ -34049,7 +34061,7 @@
         <v>192</v>
       </c>
       <c r="P160" t="s">
-        <v>268</v>
+        <v>199</v>
       </c>
       <c r="Q160">
         <v>2.88</v>
@@ -34127,7 +34139,7 @@
         <v>0.67</v>
       </c>
       <c r="AP160">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ160">
         <v>0.6</v>
@@ -34255,7 +34267,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q161">
         <v>9</v>
@@ -34336,7 +34348,7 @@
         <v>1</v>
       </c>
       <c r="AQ161">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AR161">
         <v>0.99</v>
@@ -34461,7 +34473,7 @@
         <v>193</v>
       </c>
       <c r="P162" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q162">
         <v>1.31</v>
@@ -35236,6 +35248,830 @@
       </c>
       <c r="BP165">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="166" spans="1:68">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>7347913</v>
+      </c>
+      <c r="C166" t="s">
+        <v>68</v>
+      </c>
+      <c r="D166" t="s">
+        <v>69</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45501.35763888889</v>
+      </c>
+      <c r="F166">
+        <v>20</v>
+      </c>
+      <c r="G166" t="s">
+        <v>76</v>
+      </c>
+      <c r="H166" t="s">
+        <v>75</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+      <c r="J166">
+        <v>1</v>
+      </c>
+      <c r="K166">
+        <v>2</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+      <c r="M166">
+        <v>3</v>
+      </c>
+      <c r="N166">
+        <v>4</v>
+      </c>
+      <c r="O166" t="s">
+        <v>197</v>
+      </c>
+      <c r="P166" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q166">
+        <v>3.5</v>
+      </c>
+      <c r="R166">
+        <v>2.5</v>
+      </c>
+      <c r="S166">
+        <v>2.5</v>
+      </c>
+      <c r="T166">
+        <v>1.25</v>
+      </c>
+      <c r="U166">
+        <v>3.75</v>
+      </c>
+      <c r="V166">
+        <v>2.2</v>
+      </c>
+      <c r="W166">
+        <v>1.62</v>
+      </c>
+      <c r="X166">
+        <v>5</v>
+      </c>
+      <c r="Y166">
+        <v>1.17</v>
+      </c>
+      <c r="Z166">
+        <v>3.17</v>
+      </c>
+      <c r="AA166">
+        <v>3.79</v>
+      </c>
+      <c r="AB166">
+        <v>2.05</v>
+      </c>
+      <c r="AC166">
+        <v>1.02</v>
+      </c>
+      <c r="AD166">
+        <v>22</v>
+      </c>
+      <c r="AE166">
+        <v>1.11</v>
+      </c>
+      <c r="AF166">
+        <v>5.5</v>
+      </c>
+      <c r="AG166">
+        <v>1.44</v>
+      </c>
+      <c r="AH166">
+        <v>2.7</v>
+      </c>
+      <c r="AI166">
+        <v>1.44</v>
+      </c>
+      <c r="AJ166">
+        <v>2.63</v>
+      </c>
+      <c r="AK166">
+        <v>1.75</v>
+      </c>
+      <c r="AL166">
+        <v>1.2</v>
+      </c>
+      <c r="AM166">
+        <v>1.35</v>
+      </c>
+      <c r="AN166">
+        <v>2.2</v>
+      </c>
+      <c r="AO166">
+        <v>1.7</v>
+      </c>
+      <c r="AP166">
+        <v>2</v>
+      </c>
+      <c r="AQ166">
+        <v>1.82</v>
+      </c>
+      <c r="AR166">
+        <v>1.97</v>
+      </c>
+      <c r="AS166">
+        <v>1.59</v>
+      </c>
+      <c r="AT166">
+        <v>3.56</v>
+      </c>
+      <c r="AU166">
+        <v>5</v>
+      </c>
+      <c r="AV166">
+        <v>11</v>
+      </c>
+      <c r="AW166">
+        <v>3</v>
+      </c>
+      <c r="AX166">
+        <v>10</v>
+      </c>
+      <c r="AY166">
+        <v>8</v>
+      </c>
+      <c r="AZ166">
+        <v>21</v>
+      </c>
+      <c r="BA166">
+        <v>3</v>
+      </c>
+      <c r="BB166">
+        <v>7</v>
+      </c>
+      <c r="BC166">
+        <v>10</v>
+      </c>
+      <c r="BD166">
+        <v>2.76</v>
+      </c>
+      <c r="BE166">
+        <v>6.75</v>
+      </c>
+      <c r="BF166">
+        <v>1.68</v>
+      </c>
+      <c r="BG166">
+        <v>1.17</v>
+      </c>
+      <c r="BH166">
+        <v>4.25</v>
+      </c>
+      <c r="BI166">
+        <v>1.34</v>
+      </c>
+      <c r="BJ166">
+        <v>2.88</v>
+      </c>
+      <c r="BK166">
+        <v>1.62</v>
+      </c>
+      <c r="BL166">
+        <v>2.23</v>
+      </c>
+      <c r="BM166">
+        <v>2</v>
+      </c>
+      <c r="BN166">
+        <v>1.78</v>
+      </c>
+      <c r="BO166">
+        <v>2.47</v>
+      </c>
+      <c r="BP166">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="167" spans="1:68">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>7347914</v>
+      </c>
+      <c r="C167" t="s">
+        <v>68</v>
+      </c>
+      <c r="D167" t="s">
+        <v>69</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45501.35763888889</v>
+      </c>
+      <c r="F167">
+        <v>20</v>
+      </c>
+      <c r="G167" t="s">
+        <v>78</v>
+      </c>
+      <c r="H167" t="s">
+        <v>77</v>
+      </c>
+      <c r="I167">
+        <v>2</v>
+      </c>
+      <c r="J167">
+        <v>1</v>
+      </c>
+      <c r="K167">
+        <v>3</v>
+      </c>
+      <c r="L167">
+        <v>4</v>
+      </c>
+      <c r="M167">
+        <v>2</v>
+      </c>
+      <c r="N167">
+        <v>6</v>
+      </c>
+      <c r="O167" t="s">
+        <v>198</v>
+      </c>
+      <c r="P167" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q167">
+        <v>2.75</v>
+      </c>
+      <c r="R167">
+        <v>2.25</v>
+      </c>
+      <c r="S167">
+        <v>3.6</v>
+      </c>
+      <c r="T167">
+        <v>1.33</v>
+      </c>
+      <c r="U167">
+        <v>3.25</v>
+      </c>
+      <c r="V167">
+        <v>2.63</v>
+      </c>
+      <c r="W167">
+        <v>1.44</v>
+      </c>
+      <c r="X167">
+        <v>7</v>
+      </c>
+      <c r="Y167">
+        <v>1.1</v>
+      </c>
+      <c r="Z167">
+        <v>2.05</v>
+      </c>
+      <c r="AA167">
+        <v>3.6</v>
+      </c>
+      <c r="AB167">
+        <v>3.35</v>
+      </c>
+      <c r="AC167">
+        <v>1.02</v>
+      </c>
+      <c r="AD167">
+        <v>10</v>
+      </c>
+      <c r="AE167">
+        <v>1.25</v>
+      </c>
+      <c r="AF167">
+        <v>3.75</v>
+      </c>
+      <c r="AG167">
+        <v>1.74</v>
+      </c>
+      <c r="AH167">
+        <v>2.02</v>
+      </c>
+      <c r="AI167">
+        <v>1.62</v>
+      </c>
+      <c r="AJ167">
+        <v>2.2</v>
+      </c>
+      <c r="AK167">
+        <v>1.33</v>
+      </c>
+      <c r="AL167">
+        <v>1.3</v>
+      </c>
+      <c r="AM167">
+        <v>1.73</v>
+      </c>
+      <c r="AN167">
+        <v>1.22</v>
+      </c>
+      <c r="AO167">
+        <v>1</v>
+      </c>
+      <c r="AP167">
+        <v>1.4</v>
+      </c>
+      <c r="AQ167">
+        <v>0.9</v>
+      </c>
+      <c r="AR167">
+        <v>1.43</v>
+      </c>
+      <c r="AS167">
+        <v>1.14</v>
+      </c>
+      <c r="AT167">
+        <v>2.57</v>
+      </c>
+      <c r="AU167">
+        <v>9</v>
+      </c>
+      <c r="AV167">
+        <v>7</v>
+      </c>
+      <c r="AW167">
+        <v>8</v>
+      </c>
+      <c r="AX167">
+        <v>7</v>
+      </c>
+      <c r="AY167">
+        <v>17</v>
+      </c>
+      <c r="AZ167">
+        <v>14</v>
+      </c>
+      <c r="BA167">
+        <v>6</v>
+      </c>
+      <c r="BB167">
+        <v>9</v>
+      </c>
+      <c r="BC167">
+        <v>15</v>
+      </c>
+      <c r="BD167">
+        <v>2.08</v>
+      </c>
+      <c r="BE167">
+        <v>6.55</v>
+      </c>
+      <c r="BF167">
+        <v>2.12</v>
+      </c>
+      <c r="BG167">
+        <v>1.17</v>
+      </c>
+      <c r="BH167">
+        <v>4.25</v>
+      </c>
+      <c r="BI167">
+        <v>1.34</v>
+      </c>
+      <c r="BJ167">
+        <v>2.88</v>
+      </c>
+      <c r="BK167">
+        <v>1.65</v>
+      </c>
+      <c r="BL167">
+        <v>2.18</v>
+      </c>
+      <c r="BM167">
+        <v>2.05</v>
+      </c>
+      <c r="BN167">
+        <v>1.74</v>
+      </c>
+      <c r="BO167">
+        <v>2.6</v>
+      </c>
+      <c r="BP167">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="168" spans="1:68">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>7347915</v>
+      </c>
+      <c r="C168" t="s">
+        <v>68</v>
+      </c>
+      <c r="D168" t="s">
+        <v>69</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45501.375</v>
+      </c>
+      <c r="F168">
+        <v>20</v>
+      </c>
+      <c r="G168" t="s">
+        <v>80</v>
+      </c>
+      <c r="H168" t="s">
+        <v>70</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>1</v>
+      </c>
+      <c r="L168">
+        <v>1</v>
+      </c>
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168">
+        <v>1</v>
+      </c>
+      <c r="O168" t="s">
+        <v>199</v>
+      </c>
+      <c r="P168" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q168">
+        <v>3.25</v>
+      </c>
+      <c r="R168">
+        <v>2.25</v>
+      </c>
+      <c r="S168">
+        <v>3</v>
+      </c>
+      <c r="T168">
+        <v>1.33</v>
+      </c>
+      <c r="U168">
+        <v>3.25</v>
+      </c>
+      <c r="V168">
+        <v>2.63</v>
+      </c>
+      <c r="W168">
+        <v>1.44</v>
+      </c>
+      <c r="X168">
+        <v>6.5</v>
+      </c>
+      <c r="Y168">
+        <v>1.11</v>
+      </c>
+      <c r="Z168">
+        <v>2.8</v>
+      </c>
+      <c r="AA168">
+        <v>3.7</v>
+      </c>
+      <c r="AB168">
+        <v>2.25</v>
+      </c>
+      <c r="AC168">
+        <v>1.02</v>
+      </c>
+      <c r="AD168">
+        <v>10</v>
+      </c>
+      <c r="AE168">
+        <v>1.22</v>
+      </c>
+      <c r="AF168">
+        <v>3.8</v>
+      </c>
+      <c r="AG168">
+        <v>1.63</v>
+      </c>
+      <c r="AH168">
+        <v>2.2</v>
+      </c>
+      <c r="AI168">
+        <v>1.57</v>
+      </c>
+      <c r="AJ168">
+        <v>2.25</v>
+      </c>
+      <c r="AK168">
+        <v>1.52</v>
+      </c>
+      <c r="AL168">
+        <v>1.25</v>
+      </c>
+      <c r="AM168">
+        <v>1.47</v>
+      </c>
+      <c r="AN168">
+        <v>1.27</v>
+      </c>
+      <c r="AO168">
+        <v>1.45</v>
+      </c>
+      <c r="AP168">
+        <v>1.42</v>
+      </c>
+      <c r="AQ168">
+        <v>1.33</v>
+      </c>
+      <c r="AR168">
+        <v>1.58</v>
+      </c>
+      <c r="AS168">
+        <v>1.55</v>
+      </c>
+      <c r="AT168">
+        <v>3.13</v>
+      </c>
+      <c r="AU168">
+        <v>4</v>
+      </c>
+      <c r="AV168">
+        <v>9</v>
+      </c>
+      <c r="AW168">
+        <v>4</v>
+      </c>
+      <c r="AX168">
+        <v>6</v>
+      </c>
+      <c r="AY168">
+        <v>8</v>
+      </c>
+      <c r="AZ168">
+        <v>15</v>
+      </c>
+      <c r="BA168">
+        <v>5</v>
+      </c>
+      <c r="BB168">
+        <v>4</v>
+      </c>
+      <c r="BC168">
+        <v>9</v>
+      </c>
+      <c r="BD168">
+        <v>2.02</v>
+      </c>
+      <c r="BE168">
+        <v>6.6</v>
+      </c>
+      <c r="BF168">
+        <v>2.18</v>
+      </c>
+      <c r="BG168">
+        <v>1.14</v>
+      </c>
+      <c r="BH168">
+        <v>4.6</v>
+      </c>
+      <c r="BI168">
+        <v>1.3</v>
+      </c>
+      <c r="BJ168">
+        <v>3.08</v>
+      </c>
+      <c r="BK168">
+        <v>1.6</v>
+      </c>
+      <c r="BL168">
+        <v>2.29</v>
+      </c>
+      <c r="BM168">
+        <v>1.96</v>
+      </c>
+      <c r="BN168">
+        <v>1.83</v>
+      </c>
+      <c r="BO168">
+        <v>2.47</v>
+      </c>
+      <c r="BP168">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="169" spans="1:68">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>7347916</v>
+      </c>
+      <c r="C169" t="s">
+        <v>68</v>
+      </c>
+      <c r="D169" t="s">
+        <v>69</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45502.35763888889</v>
+      </c>
+      <c r="F169">
+        <v>20</v>
+      </c>
+      <c r="G169" t="s">
+        <v>83</v>
+      </c>
+      <c r="H169" t="s">
+        <v>79</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>1</v>
+      </c>
+      <c r="K169">
+        <v>1</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+      <c r="M169">
+        <v>2</v>
+      </c>
+      <c r="N169">
+        <v>2</v>
+      </c>
+      <c r="O169" t="s">
+        <v>90</v>
+      </c>
+      <c r="P169" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q169">
+        <v>5.5</v>
+      </c>
+      <c r="R169">
+        <v>2.4</v>
+      </c>
+      <c r="S169">
+        <v>2.1</v>
+      </c>
+      <c r="T169">
+        <v>1.3</v>
+      </c>
+      <c r="U169">
+        <v>3.4</v>
+      </c>
+      <c r="V169">
+        <v>2.5</v>
+      </c>
+      <c r="W169">
+        <v>1.5</v>
+      </c>
+      <c r="X169">
+        <v>6</v>
+      </c>
+      <c r="Y169">
+        <v>1.13</v>
+      </c>
+      <c r="Z169">
+        <v>4.52</v>
+      </c>
+      <c r="AA169">
+        <v>3.72</v>
+      </c>
+      <c r="AB169">
+        <v>1.56</v>
+      </c>
+      <c r="AC169">
+        <v>1.01</v>
+      </c>
+      <c r="AD169">
+        <v>11</v>
+      </c>
+      <c r="AE169">
+        <v>1.18</v>
+      </c>
+      <c r="AF169">
+        <v>4.1</v>
+      </c>
+      <c r="AG169">
+        <v>1.63</v>
+      </c>
+      <c r="AH169">
+        <v>2.2</v>
+      </c>
+      <c r="AI169">
+        <v>1.75</v>
+      </c>
+      <c r="AJ169">
+        <v>2</v>
+      </c>
+      <c r="AK169">
+        <v>2.4</v>
+      </c>
+      <c r="AL169">
+        <v>1.17</v>
+      </c>
+      <c r="AM169">
+        <v>1.1</v>
+      </c>
+      <c r="AN169">
+        <v>0.8</v>
+      </c>
+      <c r="AO169">
+        <v>2.6</v>
+      </c>
+      <c r="AP169">
+        <v>0.73</v>
+      </c>
+      <c r="AQ169">
+        <v>2.64</v>
+      </c>
+      <c r="AR169">
+        <v>1.66</v>
+      </c>
+      <c r="AS169">
+        <v>1.77</v>
+      </c>
+      <c r="AT169">
+        <v>3.43</v>
+      </c>
+      <c r="AU169">
+        <v>-1</v>
+      </c>
+      <c r="AV169">
+        <v>-1</v>
+      </c>
+      <c r="AW169">
+        <v>-1</v>
+      </c>
+      <c r="AX169">
+        <v>-1</v>
+      </c>
+      <c r="AY169">
+        <v>-1</v>
+      </c>
+      <c r="AZ169">
+        <v>-1</v>
+      </c>
+      <c r="BA169">
+        <v>-1</v>
+      </c>
+      <c r="BB169">
+        <v>-1</v>
+      </c>
+      <c r="BC169">
+        <v>-1</v>
+      </c>
+      <c r="BD169">
+        <v>2.9</v>
+      </c>
+      <c r="BE169">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF169">
+        <v>1.55</v>
+      </c>
+      <c r="BG169">
+        <v>1.15</v>
+      </c>
+      <c r="BH169">
+        <v>4.45</v>
+      </c>
+      <c r="BI169">
+        <v>1.32</v>
+      </c>
+      <c r="BJ169">
+        <v>2.98</v>
+      </c>
+      <c r="BK169">
+        <v>1.82</v>
+      </c>
+      <c r="BL169">
+        <v>1.98</v>
+      </c>
+      <c r="BM169">
+        <v>2</v>
+      </c>
+      <c r="BN169">
+        <v>1.79</v>
+      </c>
+      <c r="BO169">
+        <v>2.5</v>
+      </c>
+      <c r="BP169">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -35823,10 +35823,10 @@
         <v>5</v>
       </c>
       <c r="BB168">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC168">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD168">
         <v>2.02</v>
@@ -36008,31 +36008,31 @@
         <v>3.43</v>
       </c>
       <c r="AU169">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AV169">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW169">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AX169">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY169">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AZ169">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BA169">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BB169">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC169">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BD169">
         <v>2.9</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="293">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -616,6 +616,9 @@
     <t>['4']</t>
   </si>
   <si>
+    <t>['55']</t>
+  </si>
+  <si>
     <t>['81', '90+3']</t>
   </si>
   <si>
@@ -881,9 +884,6 @@
   </si>
   <si>
     <t>['6', '28', '63', '71', '90+2']</t>
-  </si>
-  <si>
-    <t>['55']</t>
   </si>
   <si>
     <t>['43', '54', '90+3']</t>
@@ -1254,7 +1254,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP169"/>
+  <dimension ref="A1:BP170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1513,7 +1513,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1719,7 +1719,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ3">
         <v>1.11</v>
@@ -2337,7 +2337,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2955,7 +2955,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -3573,7 +3573,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -4191,7 +4191,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4603,7 +4603,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4809,7 +4809,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4890,7 +4890,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ18">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR18">
         <v>1.67</v>
@@ -5015,7 +5015,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5505,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ21">
         <v>0.73</v>
@@ -5839,7 +5839,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -6045,7 +6045,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6251,7 +6251,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6457,7 +6457,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6538,7 +6538,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ26">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR26">
         <v>0.87</v>
@@ -6663,7 +6663,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -6869,7 +6869,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7075,7 +7075,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -7281,7 +7281,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7693,7 +7693,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7899,7 +7899,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q33">
         <v>1.73</v>
@@ -8105,7 +8105,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q34">
         <v>6.4</v>
@@ -8311,7 +8311,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q35">
         <v>1.96</v>
@@ -8517,7 +8517,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q36">
         <v>1.98</v>
@@ -8723,7 +8723,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -8929,7 +8929,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q38">
         <v>3.25</v>
@@ -9007,7 +9007,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ38">
         <v>1.45</v>
@@ -9753,7 +9753,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9959,7 +9959,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q43">
         <v>2.3</v>
@@ -10165,7 +10165,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q44">
         <v>4.75</v>
@@ -10577,7 +10577,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10783,7 +10783,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -11401,7 +11401,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11607,7 +11607,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11688,7 +11688,7 @@
         <v>2</v>
       </c>
       <c r="AQ51">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR51">
         <v>1.89</v>
@@ -11813,7 +11813,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q52">
         <v>1.83</v>
@@ -12225,7 +12225,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q54">
         <v>7.5</v>
@@ -12843,7 +12843,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12921,7 +12921,7 @@
         <v>0.67</v>
       </c>
       <c r="AP57">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ57">
         <v>0.82</v>
@@ -13049,7 +13049,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q58">
         <v>2.8</v>
@@ -13255,7 +13255,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q59">
         <v>3.15</v>
@@ -13461,7 +13461,7 @@
         <v>106</v>
       </c>
       <c r="P60" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13667,7 +13667,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q61">
         <v>3.11</v>
@@ -14079,7 +14079,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q63">
         <v>2.75</v>
@@ -14903,7 +14903,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q67">
         <v>2.38</v>
@@ -15521,7 +15521,7 @@
         <v>90</v>
       </c>
       <c r="P70" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q70">
         <v>5.5</v>
@@ -15727,7 +15727,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q71">
         <v>2.45</v>
@@ -16014,7 +16014,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ72">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR72">
         <v>2.16</v>
@@ -16217,7 +16217,7 @@
         <v>2</v>
       </c>
       <c r="AP73">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ73">
         <v>1.33</v>
@@ -16345,7 +16345,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q74">
         <v>2.65</v>
@@ -16551,7 +16551,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -16963,7 +16963,7 @@
         <v>133</v>
       </c>
       <c r="P77" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17044,7 +17044,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ77">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR77">
         <v>1.1</v>
@@ -17581,7 +17581,7 @@
         <v>90</v>
       </c>
       <c r="P80" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -17787,7 +17787,7 @@
         <v>136</v>
       </c>
       <c r="P81" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17993,7 +17993,7 @@
         <v>137</v>
       </c>
       <c r="P82" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q82">
         <v>1.91</v>
@@ -18199,7 +18199,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q83">
         <v>1.62</v>
@@ -18611,7 +18611,7 @@
         <v>99</v>
       </c>
       <c r="P85" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18817,7 +18817,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q86">
         <v>1.83</v>
@@ -19023,7 +19023,7 @@
         <v>90</v>
       </c>
       <c r="P87" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -19229,7 +19229,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19641,7 +19641,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q90">
         <v>1.61</v>
@@ -19847,7 +19847,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q91">
         <v>1.8</v>
@@ -20053,7 +20053,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q92">
         <v>3.8</v>
@@ -20259,7 +20259,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q93">
         <v>2.55</v>
@@ -20465,7 +20465,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q94">
         <v>4.5</v>
@@ -20671,7 +20671,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q95">
         <v>4.5</v>
@@ -20877,7 +20877,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q96">
         <v>9</v>
@@ -20955,7 +20955,7 @@
         <v>2.2</v>
       </c>
       <c r="AP96">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ96">
         <v>2.6</v>
@@ -21289,7 +21289,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q98">
         <v>4.63</v>
@@ -21495,7 +21495,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q99">
         <v>2.31</v>
@@ -21701,7 +21701,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21907,7 +21907,7 @@
         <v>151</v>
       </c>
       <c r="P101" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q101">
         <v>2.43</v>
@@ -21988,7 +21988,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ101">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR101">
         <v>1.06</v>
@@ -22113,7 +22113,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -22319,7 +22319,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -22397,7 +22397,7 @@
         <v>1.17</v>
       </c>
       <c r="AP103">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ103">
         <v>0.82</v>
@@ -23555,7 +23555,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q109">
         <v>1.95</v>
@@ -24173,7 +24173,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q112">
         <v>1.73</v>
@@ -24254,7 +24254,7 @@
         <v>2.82</v>
       </c>
       <c r="AQ112">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR112">
         <v>1.97</v>
@@ -24585,7 +24585,7 @@
         <v>90</v>
       </c>
       <c r="P114" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -24791,7 +24791,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -24997,7 +24997,7 @@
         <v>160</v>
       </c>
       <c r="P116" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q116">
         <v>1.95</v>
@@ -25203,7 +25203,7 @@
         <v>161</v>
       </c>
       <c r="P117" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q117">
         <v>3.1</v>
@@ -25409,7 +25409,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q118">
         <v>3.75</v>
@@ -25821,7 +25821,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q120">
         <v>3.6</v>
@@ -25899,7 +25899,7 @@
         <v>1.14</v>
       </c>
       <c r="AP120">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ120">
         <v>1.5</v>
@@ -26027,7 +26027,7 @@
         <v>163</v>
       </c>
       <c r="P121" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26439,7 +26439,7 @@
         <v>165</v>
       </c>
       <c r="P123" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q123">
         <v>3.6</v>
@@ -26645,7 +26645,7 @@
         <v>166</v>
       </c>
       <c r="P124" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26851,7 +26851,7 @@
         <v>90</v>
       </c>
       <c r="P125" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -27263,7 +27263,7 @@
         <v>168</v>
       </c>
       <c r="P127" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q127">
         <v>4.75</v>
@@ -27469,7 +27469,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q128">
         <v>5.5</v>
@@ -27756,7 +27756,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ129">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR129">
         <v>1.86</v>
@@ -27881,7 +27881,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q130">
         <v>2.2</v>
@@ -28577,7 +28577,7 @@
         <v>2.5</v>
       </c>
       <c r="AP133">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ133">
         <v>2.64</v>
@@ -28911,7 +28911,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q135">
         <v>3.35</v>
@@ -29198,7 +29198,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ136">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR136">
         <v>1.73</v>
@@ -29529,7 +29529,7 @@
         <v>90</v>
       </c>
       <c r="P138" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q138">
         <v>5.25</v>
@@ -29735,7 +29735,7 @@
         <v>177</v>
       </c>
       <c r="P139" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q139">
         <v>2.32</v>
@@ -30147,7 +30147,7 @@
         <v>134</v>
       </c>
       <c r="P141" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q141">
         <v>3.81</v>
@@ -30353,7 +30353,7 @@
         <v>90</v>
       </c>
       <c r="P142" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q142">
         <v>7</v>
@@ -30559,7 +30559,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q143">
         <v>2.2</v>
@@ -31383,7 +31383,7 @@
         <v>182</v>
       </c>
       <c r="P147" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q147">
         <v>1.71</v>
@@ -31589,7 +31589,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q148">
         <v>1.93</v>
@@ -31795,7 +31795,7 @@
         <v>184</v>
       </c>
       <c r="P149" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q149">
         <v>5.66</v>
@@ -31873,7 +31873,7 @@
         <v>0.75</v>
       </c>
       <c r="AP149">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ149">
         <v>0.6</v>
@@ -32207,7 +32207,7 @@
         <v>185</v>
       </c>
       <c r="P151" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q151">
         <v>2.98</v>
@@ -32413,7 +32413,7 @@
         <v>186</v>
       </c>
       <c r="P152" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q152">
         <v>1.62</v>
@@ -33031,7 +33031,7 @@
         <v>188</v>
       </c>
       <c r="P155" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q155">
         <v>2.38</v>
@@ -33109,7 +33109,7 @@
         <v>1</v>
       </c>
       <c r="AP155">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ155">
         <v>0.9</v>
@@ -33237,7 +33237,7 @@
         <v>90</v>
       </c>
       <c r="P156" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q156">
         <v>4.75</v>
@@ -33443,7 +33443,7 @@
         <v>189</v>
       </c>
       <c r="P157" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q157">
         <v>2.88</v>
@@ -34267,7 +34267,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q161">
         <v>9</v>
@@ -34473,7 +34473,7 @@
         <v>193</v>
       </c>
       <c r="P162" t="s">
-        <v>289</v>
+        <v>200</v>
       </c>
       <c r="Q162">
         <v>1.31</v>
@@ -34966,7 +34966,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ164">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR164">
         <v>1.21</v>
@@ -36072,6 +36072,212 @@
       </c>
       <c r="BP169">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:68">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>7347917</v>
+      </c>
+      <c r="C170" t="s">
+        <v>68</v>
+      </c>
+      <c r="D170" t="s">
+        <v>69</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45506.35763888889</v>
+      </c>
+      <c r="F170">
+        <v>21</v>
+      </c>
+      <c r="G170" t="s">
+        <v>71</v>
+      </c>
+      <c r="H170" t="s">
+        <v>74</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>1</v>
+      </c>
+      <c r="M170">
+        <v>1</v>
+      </c>
+      <c r="N170">
+        <v>2</v>
+      </c>
+      <c r="O170" t="s">
+        <v>200</v>
+      </c>
+      <c r="P170" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q170">
+        <v>2.5</v>
+      </c>
+      <c r="R170">
+        <v>2.38</v>
+      </c>
+      <c r="S170">
+        <v>4</v>
+      </c>
+      <c r="T170">
+        <v>1.3</v>
+      </c>
+      <c r="U170">
+        <v>3.4</v>
+      </c>
+      <c r="V170">
+        <v>2.5</v>
+      </c>
+      <c r="W170">
+        <v>1.5</v>
+      </c>
+      <c r="X170">
+        <v>6</v>
+      </c>
+      <c r="Y170">
+        <v>1.13</v>
+      </c>
+      <c r="Z170">
+        <v>1.89</v>
+      </c>
+      <c r="AA170">
+        <v>3.46</v>
+      </c>
+      <c r="AB170">
+        <v>3.44</v>
+      </c>
+      <c r="AC170">
+        <v>1.04</v>
+      </c>
+      <c r="AD170">
+        <v>9</v>
+      </c>
+      <c r="AE170">
+        <v>1.2</v>
+      </c>
+      <c r="AF170">
+        <v>4.2</v>
+      </c>
+      <c r="AG170">
+        <v>1.65</v>
+      </c>
+      <c r="AH170">
+        <v>2.2</v>
+      </c>
+      <c r="AI170">
+        <v>1.57</v>
+      </c>
+      <c r="AJ170">
+        <v>2.25</v>
+      </c>
+      <c r="AK170">
+        <v>1.25</v>
+      </c>
+      <c r="AL170">
+        <v>1.22</v>
+      </c>
+      <c r="AM170">
+        <v>1.83</v>
+      </c>
+      <c r="AN170">
+        <v>0.91</v>
+      </c>
+      <c r="AO170">
+        <v>0.6</v>
+      </c>
+      <c r="AP170">
+        <v>0.92</v>
+      </c>
+      <c r="AQ170">
+        <v>0.64</v>
+      </c>
+      <c r="AR170">
+        <v>1.28</v>
+      </c>
+      <c r="AS170">
+        <v>0.97</v>
+      </c>
+      <c r="AT170">
+        <v>2.25</v>
+      </c>
+      <c r="AU170">
+        <v>4</v>
+      </c>
+      <c r="AV170">
+        <v>5</v>
+      </c>
+      <c r="AW170">
+        <v>4</v>
+      </c>
+      <c r="AX170">
+        <v>3</v>
+      </c>
+      <c r="AY170">
+        <v>8</v>
+      </c>
+      <c r="AZ170">
+        <v>8</v>
+      </c>
+      <c r="BA170">
+        <v>2</v>
+      </c>
+      <c r="BB170">
+        <v>4</v>
+      </c>
+      <c r="BC170">
+        <v>6</v>
+      </c>
+      <c r="BD170">
+        <v>1.57</v>
+      </c>
+      <c r="BE170">
+        <v>8.5</v>
+      </c>
+      <c r="BF170">
+        <v>2.75</v>
+      </c>
+      <c r="BG170">
+        <v>1.25</v>
+      </c>
+      <c r="BH170">
+        <v>3.42</v>
+      </c>
+      <c r="BI170">
+        <v>1.48</v>
+      </c>
+      <c r="BJ170">
+        <v>2.4</v>
+      </c>
+      <c r="BK170">
+        <v>1.9</v>
+      </c>
+      <c r="BL170">
+        <v>1.9</v>
+      </c>
+      <c r="BM170">
+        <v>2.38</v>
+      </c>
+      <c r="BN170">
+        <v>1.49</v>
+      </c>
+      <c r="BO170">
+        <v>3.2</v>
+      </c>
+      <c r="BP170">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="302">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -619,6 +619,21 @@
     <t>['55']</t>
   </si>
   <si>
+    <t>['24', '28', '62', '72']</t>
+  </si>
+  <si>
+    <t>['29', '58', '60']</t>
+  </si>
+  <si>
+    <t>['5', '44', '45+3', '76']</t>
+  </si>
+  <si>
+    <t>['27', '31', '37', '66']</t>
+  </si>
+  <si>
+    <t>['11', '90+7']</t>
+  </si>
+  <si>
     <t>['81', '90+3']</t>
   </si>
   <si>
@@ -893,6 +908,18 @@
   </si>
   <si>
     <t>['42', '70']</t>
+  </si>
+  <si>
+    <t>['11', '53', '76']</t>
+  </si>
+  <si>
+    <t>['66']</t>
+  </si>
+  <si>
+    <t>['46', '86']</t>
+  </si>
+  <si>
+    <t>['90+13']</t>
   </si>
 </sst>
 </file>
@@ -1254,7 +1281,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP170"/>
+  <dimension ref="A1:BP177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1513,7 +1540,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1591,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ2">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1719,7 +1746,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -1800,7 +1827,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ3">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2337,7 +2364,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2621,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ7">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2827,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ8">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2955,7 +2982,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -3033,10 +3060,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ9">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3242,7 +3269,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ10">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3573,7 +3600,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -3857,7 +3884,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ13">
         <v>1.36</v>
@@ -4063,10 +4090,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ14">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AR14">
         <v>0.7</v>
@@ -4191,7 +4218,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4269,7 +4296,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ15">
         <v>1.5</v>
@@ -4603,7 +4630,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4684,7 +4711,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ17">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4809,7 +4836,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -5015,7 +5042,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5093,7 +5120,7 @@
         <v>2</v>
       </c>
       <c r="AP19">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ19">
         <v>1.36</v>
@@ -5299,7 +5326,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ20">
         <v>0.82</v>
@@ -5508,7 +5535,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ21">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR21">
         <v>0.99</v>
@@ -5714,7 +5741,7 @@
         <v>2.82</v>
       </c>
       <c r="AQ22">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR22">
         <v>2.37</v>
@@ -5839,7 +5866,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -5920,7 +5947,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ23">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6045,7 +6072,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6123,10 +6150,10 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ24">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AR24">
         <v>1.89</v>
@@ -6251,7 +6278,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6329,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ25">
         <v>0.6</v>
@@ -6457,7 +6484,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6535,7 +6562,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ26">
         <v>0.64</v>
@@ -6663,7 +6690,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -6744,7 +6771,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ27">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AR27">
         <v>1.22</v>
@@ -6869,7 +6896,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6950,7 +6977,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ28">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR28">
         <v>2.4</v>
@@ -7075,7 +7102,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -7281,7 +7308,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7359,10 +7386,10 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ30">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7565,7 +7592,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ31">
         <v>0.9</v>
@@ -7693,7 +7720,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7899,7 +7926,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q33">
         <v>1.73</v>
@@ -7977,7 +8004,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ33">
         <v>0.7</v>
@@ -8105,7 +8132,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q34">
         <v>6.4</v>
@@ -8183,10 +8210,10 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ34">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AR34">
         <v>1</v>
@@ -8311,7 +8338,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q35">
         <v>1.96</v>
@@ -8389,10 +8416,10 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ35">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR35">
         <v>1.8</v>
@@ -8517,7 +8544,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q36">
         <v>1.98</v>
@@ -8595,10 +8622,10 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ36">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR36">
         <v>1.16</v>
@@ -8723,7 +8750,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -8929,7 +8956,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q38">
         <v>3.25</v>
@@ -9010,7 +9037,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ38">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR38">
         <v>1.05</v>
@@ -9216,7 +9243,7 @@
         <v>1</v>
       </c>
       <c r="AQ39">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR39">
         <v>1.09</v>
@@ -9419,7 +9446,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ40">
         <v>0.6</v>
@@ -9625,10 +9652,10 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ41">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR41">
         <v>0.89</v>
@@ -9753,7 +9780,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9959,7 +9986,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q43">
         <v>2.3</v>
@@ -10165,7 +10192,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q44">
         <v>4.75</v>
@@ -10577,7 +10604,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10783,7 +10810,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -11401,7 +11428,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11479,10 +11506,10 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ50">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR50">
         <v>1.28</v>
@@ -11607,7 +11634,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11685,7 +11712,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ51">
         <v>0.64</v>
@@ -11813,7 +11840,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q52">
         <v>1.83</v>
@@ -11891,10 +11918,10 @@
         <v>2</v>
       </c>
       <c r="AP52">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ52">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR52">
         <v>1.36</v>
@@ -12097,10 +12124,10 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ53">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR53">
         <v>1.78</v>
@@ -12225,7 +12252,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q54">
         <v>7.5</v>
@@ -12303,10 +12330,10 @@
         <v>3</v>
       </c>
       <c r="AP54">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ54">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AR54">
         <v>0.95</v>
@@ -12512,7 +12539,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ55">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR55">
         <v>1.53</v>
@@ -12715,7 +12742,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ56">
         <v>0.7</v>
@@ -12843,7 +12870,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13049,7 +13076,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q58">
         <v>2.8</v>
@@ -13130,7 +13157,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ58">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR58">
         <v>1.44</v>
@@ -13255,7 +13282,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q59">
         <v>3.15</v>
@@ -13333,10 +13360,10 @@
         <v>2.25</v>
       </c>
       <c r="AP59">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ59">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR59">
         <v>1.86</v>
@@ -13461,7 +13488,7 @@
         <v>106</v>
       </c>
       <c r="P60" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13539,7 +13566,7 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ60">
         <v>1.36</v>
@@ -13667,7 +13694,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q61">
         <v>3.11</v>
@@ -13748,7 +13775,7 @@
         <v>1</v>
       </c>
       <c r="AQ61">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR61">
         <v>1.2</v>
@@ -14079,7 +14106,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q63">
         <v>2.75</v>
@@ -14157,7 +14184,7 @@
         <v>1.5</v>
       </c>
       <c r="AP63">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ63">
         <v>1.33</v>
@@ -14366,7 +14393,7 @@
         <v>2.82</v>
       </c>
       <c r="AQ64">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AR64">
         <v>2.2</v>
@@ -14569,7 +14596,7 @@
         <v>1.25</v>
       </c>
       <c r="AP65">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ65">
         <v>0.82</v>
@@ -14903,7 +14930,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q67">
         <v>2.38</v>
@@ -14981,10 +15008,10 @@
         <v>1.25</v>
       </c>
       <c r="AP67">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ67">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR67">
         <v>1.71</v>
@@ -15187,7 +15214,7 @@
         <v>0.75</v>
       </c>
       <c r="AP68">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ68">
         <v>0.7</v>
@@ -15396,7 +15423,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ69">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR69">
         <v>1.09</v>
@@ -15521,7 +15548,7 @@
         <v>90</v>
       </c>
       <c r="P70" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q70">
         <v>5.5</v>
@@ -15602,7 +15629,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ70">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AR70">
         <v>1.34</v>
@@ -15727,7 +15754,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q71">
         <v>2.45</v>
@@ -15805,7 +15832,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ71">
         <v>1.5</v>
@@ -16345,7 +16372,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q74">
         <v>2.65</v>
@@ -16426,7 +16453,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ74">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR74">
         <v>1.58</v>
@@ -16551,7 +16578,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -16629,10 +16656,10 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ75">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR75">
         <v>1</v>
@@ -16963,7 +16990,7 @@
         <v>133</v>
       </c>
       <c r="P77" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17041,7 +17068,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ77">
         <v>0.64</v>
@@ -17247,10 +17274,10 @@
         <v>0.8</v>
       </c>
       <c r="AP78">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ78">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR78">
         <v>1.72</v>
@@ -17453,7 +17480,7 @@
         <v>2</v>
       </c>
       <c r="AP79">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ79">
         <v>1.82</v>
@@ -17581,7 +17608,7 @@
         <v>90</v>
       </c>
       <c r="P80" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -17662,7 +17689,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ80">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AR80">
         <v>1.55</v>
@@ -17787,7 +17814,7 @@
         <v>136</v>
       </c>
       <c r="P81" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17993,7 +18020,7 @@
         <v>137</v>
       </c>
       <c r="P82" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q82">
         <v>1.91</v>
@@ -18071,10 +18098,10 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ82">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR82">
         <v>1.62</v>
@@ -18199,7 +18226,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q83">
         <v>1.62</v>
@@ -18280,7 +18307,7 @@
         <v>2.82</v>
       </c>
       <c r="AQ83">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR83">
         <v>1.9</v>
@@ -18486,7 +18513,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ84">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AR84">
         <v>1.89</v>
@@ -18611,7 +18638,7 @@
         <v>99</v>
       </c>
       <c r="P85" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18689,7 +18716,7 @@
         <v>1.75</v>
       </c>
       <c r="AP85">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ85">
         <v>1.33</v>
@@ -18817,7 +18844,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q86">
         <v>1.83</v>
@@ -18895,7 +18922,7 @@
         <v>1.25</v>
       </c>
       <c r="AP86">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ86">
         <v>0.9</v>
@@ -19023,7 +19050,7 @@
         <v>90</v>
       </c>
       <c r="P87" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -19229,7 +19256,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19516,7 +19543,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ89">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR89">
         <v>2.42</v>
@@ -19641,7 +19668,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q90">
         <v>1.61</v>
@@ -19719,10 +19746,10 @@
         <v>1.4</v>
       </c>
       <c r="AP90">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ90">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR90">
         <v>2.05</v>
@@ -19847,7 +19874,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q91">
         <v>1.8</v>
@@ -19925,7 +19952,7 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ91">
         <v>0.82</v>
@@ -20053,7 +20080,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q92">
         <v>3.8</v>
@@ -20134,7 +20161,7 @@
         <v>1</v>
       </c>
       <c r="AQ92">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR92">
         <v>1.07</v>
@@ -20259,7 +20286,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q93">
         <v>2.55</v>
@@ -20465,7 +20492,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q94">
         <v>4.5</v>
@@ -20543,7 +20570,7 @@
         <v>1.5</v>
       </c>
       <c r="AP94">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ94">
         <v>1.82</v>
@@ -20671,7 +20698,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q95">
         <v>4.5</v>
@@ -20877,7 +20904,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q96">
         <v>9</v>
@@ -20958,7 +20985,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ96">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AR96">
         <v>0.98</v>
@@ -21161,10 +21188,10 @@
         <v>1.17</v>
       </c>
       <c r="AP97">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ97">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR97">
         <v>1.33</v>
@@ -21289,7 +21316,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q98">
         <v>4.63</v>
@@ -21495,7 +21522,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q99">
         <v>2.31</v>
@@ -21573,7 +21600,7 @@
         <v>1.33</v>
       </c>
       <c r="AP99">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ99">
         <v>1.5</v>
@@ -21701,7 +21728,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21782,7 +21809,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ100">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AR100">
         <v>1.53</v>
@@ -21907,7 +21934,7 @@
         <v>151</v>
       </c>
       <c r="P101" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q101">
         <v>2.43</v>
@@ -21985,7 +22012,7 @@
         <v>1</v>
       </c>
       <c r="AP101">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ101">
         <v>0.64</v>
@@ -22113,7 +22140,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -22319,7 +22346,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -22400,7 +22427,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ103">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR103">
         <v>1</v>
@@ -22809,7 +22836,7 @@
         <v>1.2</v>
       </c>
       <c r="AP105">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ105">
         <v>0.6</v>
@@ -23015,7 +23042,7 @@
         <v>1</v>
       </c>
       <c r="AP106">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ106">
         <v>0.9</v>
@@ -23224,7 +23251,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ107">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AR107">
         <v>1.26</v>
@@ -23430,7 +23457,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ108">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR108">
         <v>1.44</v>
@@ -23555,7 +23582,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q109">
         <v>1.95</v>
@@ -23633,7 +23660,7 @@
         <v>0.86</v>
       </c>
       <c r="AP109">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ109">
         <v>0.82</v>
@@ -23842,7 +23869,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ110">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR110">
         <v>1.08</v>
@@ -24045,7 +24072,7 @@
         <v>1.17</v>
       </c>
       <c r="AP111">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ111">
         <v>0.7</v>
@@ -24173,7 +24200,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q112">
         <v>1.73</v>
@@ -24457,7 +24484,7 @@
         <v>1.83</v>
       </c>
       <c r="AP113">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ113">
         <v>1.33</v>
@@ -24585,7 +24612,7 @@
         <v>90</v>
       </c>
       <c r="P114" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -24666,7 +24693,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ114">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AR114">
         <v>1.55</v>
@@ -24791,7 +24818,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -24869,10 +24896,10 @@
         <v>1.14</v>
       </c>
       <c r="AP115">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ115">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR115">
         <v>1.37</v>
@@ -24997,7 +25024,7 @@
         <v>160</v>
       </c>
       <c r="P116" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q116">
         <v>1.95</v>
@@ -25075,10 +25102,10 @@
         <v>1.14</v>
       </c>
       <c r="AP116">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ116">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR116">
         <v>1.76</v>
@@ -25203,7 +25230,7 @@
         <v>161</v>
       </c>
       <c r="P117" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q117">
         <v>3.1</v>
@@ -25409,7 +25436,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q118">
         <v>3.75</v>
@@ -25490,7 +25517,7 @@
         <v>1</v>
       </c>
       <c r="AQ118">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR118">
         <v>1.03</v>
@@ -25821,7 +25848,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q120">
         <v>3.6</v>
@@ -26027,7 +26054,7 @@
         <v>163</v>
       </c>
       <c r="P121" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26105,10 +26132,10 @@
         <v>2.43</v>
       </c>
       <c r="AP121">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ121">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AR121">
         <v>1.25</v>
@@ -26439,7 +26466,7 @@
         <v>165</v>
       </c>
       <c r="P123" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q123">
         <v>3.6</v>
@@ -26517,10 +26544,10 @@
         <v>1.88</v>
       </c>
       <c r="AP123">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ123">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR123">
         <v>1.27</v>
@@ -26645,7 +26672,7 @@
         <v>166</v>
       </c>
       <c r="P124" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26851,7 +26878,7 @@
         <v>90</v>
       </c>
       <c r="P125" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -26929,10 +26956,10 @@
         <v>2.5</v>
       </c>
       <c r="AP125">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ125">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AR125">
         <v>1.79</v>
@@ -27263,7 +27290,7 @@
         <v>168</v>
       </c>
       <c r="P127" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q127">
         <v>4.75</v>
@@ -27469,7 +27496,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q128">
         <v>5.5</v>
@@ -27753,7 +27780,7 @@
         <v>0.86</v>
       </c>
       <c r="AP129">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ129">
         <v>0.64</v>
@@ -27881,7 +27908,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q130">
         <v>2.2</v>
@@ -27959,7 +27986,7 @@
         <v>0.75</v>
       </c>
       <c r="AP130">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ130">
         <v>0.82</v>
@@ -28374,7 +28401,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ132">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR132">
         <v>1.5</v>
@@ -28580,7 +28607,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ133">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AR133">
         <v>1.18</v>
@@ -28786,7 +28813,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ134">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR134">
         <v>1.14</v>
@@ -28911,7 +28938,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q135">
         <v>3.35</v>
@@ -28989,10 +29016,10 @@
         <v>0.86</v>
       </c>
       <c r="AP135">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ135">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR135">
         <v>1.21</v>
@@ -29195,7 +29222,7 @@
         <v>0.75</v>
       </c>
       <c r="AP136">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ136">
         <v>0.64</v>
@@ -29401,7 +29428,7 @@
         <v>1.63</v>
       </c>
       <c r="AP137">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ137">
         <v>1.33</v>
@@ -29529,7 +29556,7 @@
         <v>90</v>
       </c>
       <c r="P138" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q138">
         <v>5.25</v>
@@ -29610,7 +29637,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ138">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AR138">
         <v>1.64</v>
@@ -29735,7 +29762,7 @@
         <v>177</v>
       </c>
       <c r="P139" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q139">
         <v>2.32</v>
@@ -29816,7 +29843,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ139">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR139">
         <v>1.65</v>
@@ -30147,7 +30174,7 @@
         <v>134</v>
       </c>
       <c r="P141" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q141">
         <v>3.81</v>
@@ -30228,7 +30255,7 @@
         <v>1</v>
       </c>
       <c r="AQ141">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR141">
         <v>1.04</v>
@@ -30353,7 +30380,7 @@
         <v>90</v>
       </c>
       <c r="P142" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q142">
         <v>7</v>
@@ -30431,7 +30458,7 @@
         <v>1.63</v>
       </c>
       <c r="AP142">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ142">
         <v>1.82</v>
@@ -30559,7 +30586,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q143">
         <v>2.2</v>
@@ -30637,7 +30664,7 @@
         <v>1.38</v>
       </c>
       <c r="AP143">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ143">
         <v>1.5</v>
@@ -31049,7 +31076,7 @@
         <v>1.14</v>
       </c>
       <c r="AP145">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ145">
         <v>0.9</v>
@@ -31383,7 +31410,7 @@
         <v>182</v>
       </c>
       <c r="P147" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q147">
         <v>1.71</v>
@@ -31589,7 +31616,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q148">
         <v>1.93</v>
@@ -31667,10 +31694,10 @@
         <v>1.78</v>
       </c>
       <c r="AP148">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ148">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR148">
         <v>1.81</v>
@@ -31795,7 +31822,7 @@
         <v>184</v>
       </c>
       <c r="P149" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q149">
         <v>5.66</v>
@@ -32079,10 +32106,10 @@
         <v>0.78</v>
       </c>
       <c r="AP150">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ150">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR150">
         <v>1.97</v>
@@ -32207,7 +32234,7 @@
         <v>185</v>
       </c>
       <c r="P151" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q151">
         <v>2.98</v>
@@ -32285,7 +32312,7 @@
         <v>1</v>
       </c>
       <c r="AP151">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ151">
         <v>0.82</v>
@@ -32413,7 +32440,7 @@
         <v>186</v>
       </c>
       <c r="P152" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q152">
         <v>1.62</v>
@@ -32494,7 +32521,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ152">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR152">
         <v>2.2</v>
@@ -32700,7 +32727,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ153">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR153">
         <v>1.34</v>
@@ -32903,7 +32930,7 @@
         <v>1.78</v>
       </c>
       <c r="AP154">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ154">
         <v>1.82</v>
@@ -33031,7 +33058,7 @@
         <v>188</v>
       </c>
       <c r="P155" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q155">
         <v>2.38</v>
@@ -33237,7 +33264,7 @@
         <v>90</v>
       </c>
       <c r="P156" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q156">
         <v>4.75</v>
@@ -33315,7 +33342,7 @@
         <v>1.3</v>
       </c>
       <c r="AP156">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ156">
         <v>1.33</v>
@@ -33443,7 +33470,7 @@
         <v>189</v>
       </c>
       <c r="P157" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q157">
         <v>2.88</v>
@@ -33524,7 +33551,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ157">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR157">
         <v>1.27</v>
@@ -33727,10 +33754,10 @@
         <v>1.6</v>
       </c>
       <c r="AP158">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ158">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR158">
         <v>1.84</v>
@@ -33936,7 +33963,7 @@
         <v>2.82</v>
       </c>
       <c r="AQ159">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR159">
         <v>2.43</v>
@@ -34267,7 +34294,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q161">
         <v>9</v>
@@ -34348,7 +34375,7 @@
         <v>1</v>
       </c>
       <c r="AQ161">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AR161">
         <v>0.99</v>
@@ -35297,7 +35324,7 @@
         <v>197</v>
       </c>
       <c r="P166" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q166">
         <v>3.5</v>
@@ -35375,7 +35402,7 @@
         <v>1.7</v>
       </c>
       <c r="AP166">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ166">
         <v>1.82</v>
@@ -35503,7 +35530,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -35915,7 +35942,7 @@
         <v>90</v>
       </c>
       <c r="P169" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q169">
         <v>5.5</v>
@@ -35993,10 +36020,10 @@
         <v>2.6</v>
       </c>
       <c r="AP169">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ169">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AR169">
         <v>1.66</v>
@@ -36214,31 +36241,31 @@
         <v>2.25</v>
       </c>
       <c r="AU170">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AV170">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AW170">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AX170">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AY170">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AZ170">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BA170">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BB170">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BC170">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BD170">
         <v>1.57</v>
@@ -36278,6 +36305,1448 @@
       </c>
       <c r="BP170">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="171" spans="1:68">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>7347918</v>
+      </c>
+      <c r="C171" t="s">
+        <v>68</v>
+      </c>
+      <c r="D171" t="s">
+        <v>69</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45507.33333333334</v>
+      </c>
+      <c r="F171">
+        <v>21</v>
+      </c>
+      <c r="G171" t="s">
+        <v>76</v>
+      </c>
+      <c r="H171" t="s">
+        <v>78</v>
+      </c>
+      <c r="I171">
+        <v>2</v>
+      </c>
+      <c r="J171">
+        <v>1</v>
+      </c>
+      <c r="K171">
+        <v>3</v>
+      </c>
+      <c r="L171">
+        <v>4</v>
+      </c>
+      <c r="M171">
+        <v>3</v>
+      </c>
+      <c r="N171">
+        <v>7</v>
+      </c>
+      <c r="O171" t="s">
+        <v>201</v>
+      </c>
+      <c r="P171" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q171">
+        <v>1.75</v>
+      </c>
+      <c r="R171">
+        <v>2.8</v>
+      </c>
+      <c r="S171">
+        <v>5.5</v>
+      </c>
+      <c r="T171">
+        <v>1.18</v>
+      </c>
+      <c r="U171">
+        <v>4.5</v>
+      </c>
+      <c r="V171">
+        <v>1.88</v>
+      </c>
+      <c r="W171">
+        <v>1.82</v>
+      </c>
+      <c r="X171">
+        <v>3.7</v>
+      </c>
+      <c r="Y171">
+        <v>1.24</v>
+      </c>
+      <c r="Z171">
+        <v>1.45</v>
+      </c>
+      <c r="AA171">
+        <v>5.25</v>
+      </c>
+      <c r="AB171">
+        <v>5.97</v>
+      </c>
+      <c r="AC171">
+        <v>1.01</v>
+      </c>
+      <c r="AD171">
+        <v>34.5</v>
+      </c>
+      <c r="AE171">
+        <v>1.09</v>
+      </c>
+      <c r="AF171">
+        <v>7.65</v>
+      </c>
+      <c r="AG171">
+        <v>1.28</v>
+      </c>
+      <c r="AH171">
+        <v>3.34</v>
+      </c>
+      <c r="AI171">
+        <v>1.5</v>
+      </c>
+      <c r="AJ171">
+        <v>2.4</v>
+      </c>
+      <c r="AK171">
+        <v>1.12</v>
+      </c>
+      <c r="AL171">
+        <v>1.16</v>
+      </c>
+      <c r="AM171">
+        <v>2.95</v>
+      </c>
+      <c r="AN171">
+        <v>2</v>
+      </c>
+      <c r="AO171">
+        <v>0.73</v>
+      </c>
+      <c r="AP171">
+        <v>2.08</v>
+      </c>
+      <c r="AQ171">
+        <v>0.67</v>
+      </c>
+      <c r="AR171">
+        <v>1.89</v>
+      </c>
+      <c r="AS171">
+        <v>1.09</v>
+      </c>
+      <c r="AT171">
+        <v>2.98</v>
+      </c>
+      <c r="AU171">
+        <v>-1</v>
+      </c>
+      <c r="AV171">
+        <v>-1</v>
+      </c>
+      <c r="AW171">
+        <v>-1</v>
+      </c>
+      <c r="AX171">
+        <v>-1</v>
+      </c>
+      <c r="AY171">
+        <v>-1</v>
+      </c>
+      <c r="AZ171">
+        <v>-1</v>
+      </c>
+      <c r="BA171">
+        <v>-1</v>
+      </c>
+      <c r="BB171">
+        <v>-1</v>
+      </c>
+      <c r="BC171">
+        <v>-1</v>
+      </c>
+      <c r="BD171">
+        <v>1.17</v>
+      </c>
+      <c r="BE171">
+        <v>11</v>
+      </c>
+      <c r="BF171">
+        <v>5.5</v>
+      </c>
+      <c r="BG171">
+        <v>1.11</v>
+      </c>
+      <c r="BH171">
+        <v>5.1</v>
+      </c>
+      <c r="BI171">
+        <v>1.25</v>
+      </c>
+      <c r="BJ171">
+        <v>3.42</v>
+      </c>
+      <c r="BK171">
+        <v>1.46</v>
+      </c>
+      <c r="BL171">
+        <v>2.45</v>
+      </c>
+      <c r="BM171">
+        <v>2</v>
+      </c>
+      <c r="BN171">
+        <v>1.8</v>
+      </c>
+      <c r="BO171">
+        <v>2.25</v>
+      </c>
+      <c r="BP171">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="172" spans="1:68">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>7347919</v>
+      </c>
+      <c r="C172" t="s">
+        <v>68</v>
+      </c>
+      <c r="D172" t="s">
+        <v>69</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45507.35763888889</v>
+      </c>
+      <c r="F172">
+        <v>21</v>
+      </c>
+      <c r="G172" t="s">
+        <v>70</v>
+      </c>
+      <c r="H172" t="s">
+        <v>72</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172">
+        <v>1</v>
+      </c>
+      <c r="N172">
+        <v>1</v>
+      </c>
+      <c r="O172" t="s">
+        <v>90</v>
+      </c>
+      <c r="P172" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q172">
+        <v>4.4</v>
+      </c>
+      <c r="R172">
+        <v>2.65</v>
+      </c>
+      <c r="S172">
+        <v>2</v>
+      </c>
+      <c r="T172">
+        <v>1.2</v>
+      </c>
+      <c r="U172">
+        <v>4.3</v>
+      </c>
+      <c r="V172">
+        <v>1.95</v>
+      </c>
+      <c r="W172">
+        <v>1.78</v>
+      </c>
+      <c r="X172">
+        <v>3.8</v>
+      </c>
+      <c r="Y172">
+        <v>1.22</v>
+      </c>
+      <c r="Z172">
+        <v>3.82</v>
+      </c>
+      <c r="AA172">
+        <v>4.39</v>
+      </c>
+      <c r="AB172">
+        <v>1.8</v>
+      </c>
+      <c r="AC172">
+        <v>1.01</v>
+      </c>
+      <c r="AD172">
+        <v>30.5</v>
+      </c>
+      <c r="AE172">
+        <v>1.1</v>
+      </c>
+      <c r="AF172">
+        <v>7.2</v>
+      </c>
+      <c r="AG172">
+        <v>1.34</v>
+      </c>
+      <c r="AH172">
+        <v>2.99</v>
+      </c>
+      <c r="AI172">
+        <v>1.4</v>
+      </c>
+      <c r="AJ172">
+        <v>2.75</v>
+      </c>
+      <c r="AK172">
+        <v>2.25</v>
+      </c>
+      <c r="AL172">
+        <v>1.22</v>
+      </c>
+      <c r="AM172">
+        <v>1.2</v>
+      </c>
+      <c r="AN172">
+        <v>2</v>
+      </c>
+      <c r="AO172">
+        <v>2.6</v>
+      </c>
+      <c r="AP172">
+        <v>1.8</v>
+      </c>
+      <c r="AQ172">
+        <v>2.64</v>
+      </c>
+      <c r="AR172">
+        <v>1.91</v>
+      </c>
+      <c r="AS172">
+        <v>2.24</v>
+      </c>
+      <c r="AT172">
+        <v>4.15</v>
+      </c>
+      <c r="AU172">
+        <v>-1</v>
+      </c>
+      <c r="AV172">
+        <v>-1</v>
+      </c>
+      <c r="AW172">
+        <v>-1</v>
+      </c>
+      <c r="AX172">
+        <v>-1</v>
+      </c>
+      <c r="AY172">
+        <v>-1</v>
+      </c>
+      <c r="AZ172">
+        <v>-1</v>
+      </c>
+      <c r="BA172">
+        <v>-1</v>
+      </c>
+      <c r="BB172">
+        <v>-1</v>
+      </c>
+      <c r="BC172">
+        <v>-1</v>
+      </c>
+      <c r="BD172">
+        <v>2.62</v>
+      </c>
+      <c r="BE172">
+        <v>8.5</v>
+      </c>
+      <c r="BF172">
+        <v>1.62</v>
+      </c>
+      <c r="BG172">
+        <v>1.16</v>
+      </c>
+      <c r="BH172">
+        <v>4.4</v>
+      </c>
+      <c r="BI172">
+        <v>1.36</v>
+      </c>
+      <c r="BJ172">
+        <v>2.98</v>
+      </c>
+      <c r="BK172">
+        <v>1.7</v>
+      </c>
+      <c r="BL172">
+        <v>2.05</v>
+      </c>
+      <c r="BM172">
+        <v>1.98</v>
+      </c>
+      <c r="BN172">
+        <v>1.74</v>
+      </c>
+      <c r="BO172">
+        <v>2.54</v>
+      </c>
+      <c r="BP172">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:68">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>7347920</v>
+      </c>
+      <c r="C173" t="s">
+        <v>68</v>
+      </c>
+      <c r="D173" t="s">
+        <v>69</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45507.35763888889</v>
+      </c>
+      <c r="F173">
+        <v>21</v>
+      </c>
+      <c r="G173" t="s">
+        <v>77</v>
+      </c>
+      <c r="H173" t="s">
+        <v>73</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>1</v>
+      </c>
+      <c r="L173">
+        <v>3</v>
+      </c>
+      <c r="M173">
+        <v>2</v>
+      </c>
+      <c r="N173">
+        <v>5</v>
+      </c>
+      <c r="O173" t="s">
+        <v>202</v>
+      </c>
+      <c r="P173" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q173">
+        <v>3.5</v>
+      </c>
+      <c r="R173">
+        <v>2.25</v>
+      </c>
+      <c r="S173">
+        <v>2.7</v>
+      </c>
+      <c r="T173">
+        <v>1.3</v>
+      </c>
+      <c r="U173">
+        <v>3.2</v>
+      </c>
+      <c r="V173">
+        <v>2.4</v>
+      </c>
+      <c r="W173">
+        <v>1.5</v>
+      </c>
+      <c r="X173">
+        <v>5.5</v>
+      </c>
+      <c r="Y173">
+        <v>1.11</v>
+      </c>
+      <c r="Z173">
+        <v>2.99</v>
+      </c>
+      <c r="AA173">
+        <v>3.66</v>
+      </c>
+      <c r="AB173">
+        <v>2.28</v>
+      </c>
+      <c r="AC173">
+        <v>1.02</v>
+      </c>
+      <c r="AD173">
+        <v>10</v>
+      </c>
+      <c r="AE173">
+        <v>1.22</v>
+      </c>
+      <c r="AF173">
+        <v>3.8</v>
+      </c>
+      <c r="AG173">
+        <v>1.65</v>
+      </c>
+      <c r="AH173">
+        <v>2.11</v>
+      </c>
+      <c r="AI173">
+        <v>1.57</v>
+      </c>
+      <c r="AJ173">
+        <v>2.25</v>
+      </c>
+      <c r="AK173">
+        <v>1.7</v>
+      </c>
+      <c r="AL173">
+        <v>1.29</v>
+      </c>
+      <c r="AM173">
+        <v>1.36</v>
+      </c>
+      <c r="AN173">
+        <v>0.73</v>
+      </c>
+      <c r="AO173">
+        <v>1.45</v>
+      </c>
+      <c r="AP173">
+        <v>0.92</v>
+      </c>
+      <c r="AQ173">
+        <v>1.33</v>
+      </c>
+      <c r="AR173">
+        <v>1.18</v>
+      </c>
+      <c r="AS173">
+        <v>1.25</v>
+      </c>
+      <c r="AT173">
+        <v>2.43</v>
+      </c>
+      <c r="AU173">
+        <v>-1</v>
+      </c>
+      <c r="AV173">
+        <v>-1</v>
+      </c>
+      <c r="AW173">
+        <v>-1</v>
+      </c>
+      <c r="AX173">
+        <v>-1</v>
+      </c>
+      <c r="AY173">
+        <v>-1</v>
+      </c>
+      <c r="AZ173">
+        <v>-1</v>
+      </c>
+      <c r="BA173">
+        <v>-1</v>
+      </c>
+      <c r="BB173">
+        <v>-1</v>
+      </c>
+      <c r="BC173">
+        <v>-1</v>
+      </c>
+      <c r="BD173">
+        <v>2.1</v>
+      </c>
+      <c r="BE173">
+        <v>8</v>
+      </c>
+      <c r="BF173">
+        <v>1.91</v>
+      </c>
+      <c r="BG173">
+        <v>1.16</v>
+      </c>
+      <c r="BH173">
+        <v>4.3</v>
+      </c>
+      <c r="BI173">
+        <v>1.33</v>
+      </c>
+      <c r="BJ173">
+        <v>2.93</v>
+      </c>
+      <c r="BK173">
+        <v>1.77</v>
+      </c>
+      <c r="BL173">
+        <v>1.95</v>
+      </c>
+      <c r="BM173">
+        <v>2</v>
+      </c>
+      <c r="BN173">
+        <v>1.73</v>
+      </c>
+      <c r="BO173">
+        <v>2.57</v>
+      </c>
+      <c r="BP173">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="174" spans="1:68">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>7347921</v>
+      </c>
+      <c r="C174" t="s">
+        <v>68</v>
+      </c>
+      <c r="D174" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45507.375</v>
+      </c>
+      <c r="F174">
+        <v>21</v>
+      </c>
+      <c r="G174" t="s">
+        <v>83</v>
+      </c>
+      <c r="H174" t="s">
+        <v>82</v>
+      </c>
+      <c r="I174">
+        <v>3</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>3</v>
+      </c>
+      <c r="L174">
+        <v>4</v>
+      </c>
+      <c r="M174">
+        <v>1</v>
+      </c>
+      <c r="N174">
+        <v>5</v>
+      </c>
+      <c r="O174" t="s">
+        <v>203</v>
+      </c>
+      <c r="P174" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q174">
+        <v>2.6</v>
+      </c>
+      <c r="R174">
+        <v>2.25</v>
+      </c>
+      <c r="S174">
+        <v>4</v>
+      </c>
+      <c r="T174">
+        <v>1.36</v>
+      </c>
+      <c r="U174">
+        <v>3</v>
+      </c>
+      <c r="V174">
+        <v>2.63</v>
+      </c>
+      <c r="W174">
+        <v>1.44</v>
+      </c>
+      <c r="X174">
+        <v>7</v>
+      </c>
+      <c r="Y174">
+        <v>1.1</v>
+      </c>
+      <c r="Z174">
+        <v>1.9</v>
+      </c>
+      <c r="AA174">
+        <v>3.43</v>
+      </c>
+      <c r="AB174">
+        <v>3.43</v>
+      </c>
+      <c r="AC174">
+        <v>1.05</v>
+      </c>
+      <c r="AD174">
+        <v>8</v>
+      </c>
+      <c r="AE174">
+        <v>1.2</v>
+      </c>
+      <c r="AF174">
+        <v>3.9</v>
+      </c>
+      <c r="AG174">
+        <v>1.75</v>
+      </c>
+      <c r="AH174">
+        <v>1.93</v>
+      </c>
+      <c r="AI174">
+        <v>1.7</v>
+      </c>
+      <c r="AJ174">
+        <v>2.05</v>
+      </c>
+      <c r="AK174">
+        <v>1.27</v>
+      </c>
+      <c r="AL174">
+        <v>1.28</v>
+      </c>
+      <c r="AM174">
+        <v>1.84</v>
+      </c>
+      <c r="AN174">
+        <v>0.73</v>
+      </c>
+      <c r="AO174">
+        <v>1.2</v>
+      </c>
+      <c r="AP174">
+        <v>0.92</v>
+      </c>
+      <c r="AQ174">
+        <v>1.09</v>
+      </c>
+      <c r="AR174">
+        <v>1.58</v>
+      </c>
+      <c r="AS174">
+        <v>1.38</v>
+      </c>
+      <c r="AT174">
+        <v>2.96</v>
+      </c>
+      <c r="AU174">
+        <v>-1</v>
+      </c>
+      <c r="AV174">
+        <v>-1</v>
+      </c>
+      <c r="AW174">
+        <v>-1</v>
+      </c>
+      <c r="AX174">
+        <v>-1</v>
+      </c>
+      <c r="AY174">
+        <v>-1</v>
+      </c>
+      <c r="AZ174">
+        <v>-1</v>
+      </c>
+      <c r="BA174">
+        <v>-1</v>
+      </c>
+      <c r="BB174">
+        <v>-1</v>
+      </c>
+      <c r="BC174">
+        <v>-1</v>
+      </c>
+      <c r="BD174">
+        <v>1.73</v>
+      </c>
+      <c r="BE174">
+        <v>8</v>
+      </c>
+      <c r="BF174">
+        <v>2.4</v>
+      </c>
+      <c r="BG174">
+        <v>1.22</v>
+      </c>
+      <c r="BH174">
+        <v>3.65</v>
+      </c>
+      <c r="BI174">
+        <v>1.42</v>
+      </c>
+      <c r="BJ174">
+        <v>2.57</v>
+      </c>
+      <c r="BK174">
+        <v>1.88</v>
+      </c>
+      <c r="BL174">
+        <v>1.92</v>
+      </c>
+      <c r="BM174">
+        <v>2.21</v>
+      </c>
+      <c r="BN174">
+        <v>1.56</v>
+      </c>
+      <c r="BO174">
+        <v>2.98</v>
+      </c>
+      <c r="BP174">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="175" spans="1:68">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>7347922</v>
+      </c>
+      <c r="C175" t="s">
+        <v>68</v>
+      </c>
+      <c r="D175" t="s">
+        <v>69</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45507.375</v>
+      </c>
+      <c r="F175">
+        <v>21</v>
+      </c>
+      <c r="G175" t="s">
+        <v>75</v>
+      </c>
+      <c r="H175" t="s">
+        <v>84</v>
+      </c>
+      <c r="I175">
+        <v>3</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>3</v>
+      </c>
+      <c r="L175">
+        <v>4</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>4</v>
+      </c>
+      <c r="O175" t="s">
+        <v>204</v>
+      </c>
+      <c r="P175" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q175">
+        <v>1.68</v>
+      </c>
+      <c r="R175">
+        <v>2.75</v>
+      </c>
+      <c r="S175">
+        <v>6.5</v>
+      </c>
+      <c r="T175">
+        <v>1.2</v>
+      </c>
+      <c r="U175">
+        <v>4.2</v>
+      </c>
+      <c r="V175">
+        <v>2</v>
+      </c>
+      <c r="W175">
+        <v>1.75</v>
+      </c>
+      <c r="X175">
+        <v>4</v>
+      </c>
+      <c r="Y175">
+        <v>1.2</v>
+      </c>
+      <c r="Z175">
+        <v>1.33</v>
+      </c>
+      <c r="AA175">
+        <v>5.77</v>
+      </c>
+      <c r="AB175">
+        <v>8.25</v>
+      </c>
+      <c r="AC175">
+        <v>1.01</v>
+      </c>
+      <c r="AD175">
+        <v>30</v>
+      </c>
+      <c r="AE175">
+        <v>1.12</v>
+      </c>
+      <c r="AF175">
+        <v>6.6</v>
+      </c>
+      <c r="AG175">
+        <v>1.35</v>
+      </c>
+      <c r="AH175">
+        <v>2.94</v>
+      </c>
+      <c r="AI175">
+        <v>1.65</v>
+      </c>
+      <c r="AJ175">
+        <v>2.1</v>
+      </c>
+      <c r="AK175">
+        <v>1.1</v>
+      </c>
+      <c r="AL175">
+        <v>1.14</v>
+      </c>
+      <c r="AM175">
+        <v>3.3</v>
+      </c>
+      <c r="AN175">
+        <v>2.5</v>
+      </c>
+      <c r="AO175">
+        <v>0.82</v>
+      </c>
+      <c r="AP175">
+        <v>2.55</v>
+      </c>
+      <c r="AQ175">
+        <v>0.75</v>
+      </c>
+      <c r="AR175">
+        <v>1.91</v>
+      </c>
+      <c r="AS175">
+        <v>1.12</v>
+      </c>
+      <c r="AT175">
+        <v>3.03</v>
+      </c>
+      <c r="AU175">
+        <v>-1</v>
+      </c>
+      <c r="AV175">
+        <v>-1</v>
+      </c>
+      <c r="AW175">
+        <v>-1</v>
+      </c>
+      <c r="AX175">
+        <v>-1</v>
+      </c>
+      <c r="AY175">
+        <v>-1</v>
+      </c>
+      <c r="AZ175">
+        <v>-1</v>
+      </c>
+      <c r="BA175">
+        <v>-1</v>
+      </c>
+      <c r="BB175">
+        <v>-1</v>
+      </c>
+      <c r="BC175">
+        <v>-1</v>
+      </c>
+      <c r="BD175">
+        <v>1.1</v>
+      </c>
+      <c r="BE175">
+        <v>13</v>
+      </c>
+      <c r="BF175">
+        <v>8</v>
+      </c>
+      <c r="BG175">
+        <v>1.22</v>
+      </c>
+      <c r="BH175">
+        <v>3.65</v>
+      </c>
+      <c r="BI175">
+        <v>1.41</v>
+      </c>
+      <c r="BJ175">
+        <v>2.6</v>
+      </c>
+      <c r="BK175">
+        <v>1.95</v>
+      </c>
+      <c r="BL175">
+        <v>1.85</v>
+      </c>
+      <c r="BM175">
+        <v>2.19</v>
+      </c>
+      <c r="BN175">
+        <v>1.57</v>
+      </c>
+      <c r="BO175">
+        <v>2.93</v>
+      </c>
+      <c r="BP175">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="176" spans="1:68">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>7347923</v>
+      </c>
+      <c r="C176" t="s">
+        <v>68</v>
+      </c>
+      <c r="D176" t="s">
+        <v>69</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45508.35763888889</v>
+      </c>
+      <c r="F176">
+        <v>21</v>
+      </c>
+      <c r="G176" t="s">
+        <v>85</v>
+      </c>
+      <c r="H176" t="s">
+        <v>79</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>1</v>
+      </c>
+      <c r="L176">
+        <v>2</v>
+      </c>
+      <c r="M176">
+        <v>1</v>
+      </c>
+      <c r="N176">
+        <v>3</v>
+      </c>
+      <c r="O176" t="s">
+        <v>205</v>
+      </c>
+      <c r="P176" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q176">
+        <v>4</v>
+      </c>
+      <c r="R176">
+        <v>2.3</v>
+      </c>
+      <c r="S176">
+        <v>2.5</v>
+      </c>
+      <c r="T176">
+        <v>1.33</v>
+      </c>
+      <c r="U176">
+        <v>3.25</v>
+      </c>
+      <c r="V176">
+        <v>2.5</v>
+      </c>
+      <c r="W176">
+        <v>1.5</v>
+      </c>
+      <c r="X176">
+        <v>6.5</v>
+      </c>
+      <c r="Y176">
+        <v>1.11</v>
+      </c>
+      <c r="Z176">
+        <v>3.75</v>
+      </c>
+      <c r="AA176">
+        <v>3.7</v>
+      </c>
+      <c r="AB176">
+        <v>1.85</v>
+      </c>
+      <c r="AC176">
+        <v>1.02</v>
+      </c>
+      <c r="AD176">
+        <v>10.5</v>
+      </c>
+      <c r="AE176">
+        <v>1.2</v>
+      </c>
+      <c r="AF176">
+        <v>3.88</v>
+      </c>
+      <c r="AG176">
+        <v>1.7</v>
+      </c>
+      <c r="AH176">
+        <v>2.08</v>
+      </c>
+      <c r="AI176">
+        <v>1.67</v>
+      </c>
+      <c r="AJ176">
+        <v>2.1</v>
+      </c>
+      <c r="AK176">
+        <v>1.89</v>
+      </c>
+      <c r="AL176">
+        <v>1.25</v>
+      </c>
+      <c r="AM176">
+        <v>1.25</v>
+      </c>
+      <c r="AN176">
+        <v>2.2</v>
+      </c>
+      <c r="AO176">
+        <v>2.64</v>
+      </c>
+      <c r="AP176">
+        <v>2.27</v>
+      </c>
+      <c r="AQ176">
+        <v>2.42</v>
+      </c>
+      <c r="AR176">
+        <v>1.81</v>
+      </c>
+      <c r="AS176">
+        <v>1.72</v>
+      </c>
+      <c r="AT176">
+        <v>3.53</v>
+      </c>
+      <c r="AU176">
+        <v>-1</v>
+      </c>
+      <c r="AV176">
+        <v>-1</v>
+      </c>
+      <c r="AW176">
+        <v>-1</v>
+      </c>
+      <c r="AX176">
+        <v>-1</v>
+      </c>
+      <c r="AY176">
+        <v>-1</v>
+      </c>
+      <c r="AZ176">
+        <v>-1</v>
+      </c>
+      <c r="BA176">
+        <v>-1</v>
+      </c>
+      <c r="BB176">
+        <v>-1</v>
+      </c>
+      <c r="BC176">
+        <v>-1</v>
+      </c>
+      <c r="BD176">
+        <v>2.05</v>
+      </c>
+      <c r="BE176">
+        <v>8</v>
+      </c>
+      <c r="BF176">
+        <v>1.95</v>
+      </c>
+      <c r="BG176">
+        <v>1.22</v>
+      </c>
+      <c r="BH176">
+        <v>3.8</v>
+      </c>
+      <c r="BI176">
+        <v>1.3</v>
+      </c>
+      <c r="BJ176">
+        <v>3.2</v>
+      </c>
+      <c r="BK176">
+        <v>1.54</v>
+      </c>
+      <c r="BL176">
+        <v>2.32</v>
+      </c>
+      <c r="BM176">
+        <v>1.95</v>
+      </c>
+      <c r="BN176">
+        <v>1.77</v>
+      </c>
+      <c r="BO176">
+        <v>2.52</v>
+      </c>
+      <c r="BP176">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="177" spans="1:68">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>7347924</v>
+      </c>
+      <c r="C177" t="s">
+        <v>68</v>
+      </c>
+      <c r="D177" t="s">
+        <v>69</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45508.375</v>
+      </c>
+      <c r="F177">
+        <v>21</v>
+      </c>
+      <c r="G177" t="s">
+        <v>81</v>
+      </c>
+      <c r="H177" t="s">
+        <v>80</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>1</v>
+      </c>
+      <c r="L177">
+        <v>1</v>
+      </c>
+      <c r="M177">
+        <v>1</v>
+      </c>
+      <c r="N177">
+        <v>2</v>
+      </c>
+      <c r="O177" t="s">
+        <v>97</v>
+      </c>
+      <c r="P177" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q177">
+        <v>5</v>
+      </c>
+      <c r="R177">
+        <v>2.25</v>
+      </c>
+      <c r="S177">
+        <v>2.3</v>
+      </c>
+      <c r="T177">
+        <v>1.36</v>
+      </c>
+      <c r="U177">
+        <v>3</v>
+      </c>
+      <c r="V177">
+        <v>2.75</v>
+      </c>
+      <c r="W177">
+        <v>1.4</v>
+      </c>
+      <c r="X177">
+        <v>8</v>
+      </c>
+      <c r="Y177">
+        <v>1.08</v>
+      </c>
+      <c r="Z177">
+        <v>4.75</v>
+      </c>
+      <c r="AA177">
+        <v>3.65</v>
+      </c>
+      <c r="AB177">
+        <v>1.65</v>
+      </c>
+      <c r="AC177">
+        <v>1.01</v>
+      </c>
+      <c r="AD177">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE177">
+        <v>1.26</v>
+      </c>
+      <c r="AF177">
+        <v>3.34</v>
+      </c>
+      <c r="AG177">
+        <v>1.9</v>
+      </c>
+      <c r="AH177">
+        <v>1.85</v>
+      </c>
+      <c r="AI177">
+        <v>1.91</v>
+      </c>
+      <c r="AJ177">
+        <v>1.91</v>
+      </c>
+      <c r="AK177">
+        <v>2.1</v>
+      </c>
+      <c r="AL177">
+        <v>1.25</v>
+      </c>
+      <c r="AM177">
+        <v>1.17</v>
+      </c>
+      <c r="AN177">
+        <v>0.5</v>
+      </c>
+      <c r="AO177">
+        <v>1.11</v>
+      </c>
+      <c r="AP177">
+        <v>0.55</v>
+      </c>
+      <c r="AQ177">
+        <v>1.1</v>
+      </c>
+      <c r="AR177">
+        <v>1.21</v>
+      </c>
+      <c r="AS177">
+        <v>1.49</v>
+      </c>
+      <c r="AT177">
+        <v>2.7</v>
+      </c>
+      <c r="AU177">
+        <v>-1</v>
+      </c>
+      <c r="AV177">
+        <v>-1</v>
+      </c>
+      <c r="AW177">
+        <v>-1</v>
+      </c>
+      <c r="AX177">
+        <v>-1</v>
+      </c>
+      <c r="AY177">
+        <v>-1</v>
+      </c>
+      <c r="AZ177">
+        <v>-1</v>
+      </c>
+      <c r="BA177">
+        <v>-1</v>
+      </c>
+      <c r="BB177">
+        <v>-1</v>
+      </c>
+      <c r="BC177">
+        <v>-1</v>
+      </c>
+      <c r="BD177">
+        <v>3.1</v>
+      </c>
+      <c r="BE177">
+        <v>8.5</v>
+      </c>
+      <c r="BF177">
+        <v>1.5</v>
+      </c>
+      <c r="BG177">
+        <v>1.18</v>
+      </c>
+      <c r="BH177">
+        <v>4.15</v>
+      </c>
+      <c r="BI177">
+        <v>1.35</v>
+      </c>
+      <c r="BJ177">
+        <v>2.84</v>
+      </c>
+      <c r="BK177">
+        <v>1.8</v>
+      </c>
+      <c r="BL177">
+        <v>2</v>
+      </c>
+      <c r="BM177">
+        <v>2.06</v>
+      </c>
+      <c r="BN177">
+        <v>1.68</v>
+      </c>
+      <c r="BO177">
+        <v>2.67</v>
+      </c>
+      <c r="BP177">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -36241,31 +36241,31 @@
         <v>2.25</v>
       </c>
       <c r="AU170">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV170">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW170">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX170">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY170">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AZ170">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BA170">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BB170">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC170">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BD170">
         <v>1.57</v>
@@ -36447,31 +36447,31 @@
         <v>2.98</v>
       </c>
       <c r="AU171">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="AV171">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW171">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AX171">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY171">
-        <v>-1</v>
+        <v>28</v>
       </c>
       <c r="AZ171">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BA171">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BB171">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BC171">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD171">
         <v>1.17</v>
@@ -36653,31 +36653,31 @@
         <v>4.15</v>
       </c>
       <c r="AU172">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV172">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW172">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AX172">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AY172">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AZ172">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BA172">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB172">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BC172">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD172">
         <v>2.62</v>
@@ -36859,31 +36859,31 @@
         <v>2.43</v>
       </c>
       <c r="AU173">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AV173">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW173">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX173">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY173">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="AZ173">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BA173">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BB173">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC173">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD173">
         <v>2.1</v>
@@ -37065,31 +37065,31 @@
         <v>2.96</v>
       </c>
       <c r="AU174">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AV174">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW174">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AX174">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY174">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AZ174">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BA174">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB174">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BC174">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BD174">
         <v>1.73</v>
@@ -37271,31 +37271,31 @@
         <v>3.03</v>
       </c>
       <c r="AU175">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AV175">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW175">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX175">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AY175">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AZ175">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BA175">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB175">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC175">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BD175">
         <v>1.1</v>
@@ -37477,31 +37477,31 @@
         <v>3.53</v>
       </c>
       <c r="AU176">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AV176">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AW176">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AX176">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY176">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AZ176">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BA176">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BB176">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BC176">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD176">
         <v>2.05</v>
@@ -37683,31 +37683,31 @@
         <v>2.7</v>
       </c>
       <c r="AU177">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV177">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW177">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AX177">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY177">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AZ177">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BA177">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB177">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC177">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD177">
         <v>3.1</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="307">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -634,6 +634,12 @@
     <t>['11', '90+7']</t>
   </si>
   <si>
+    <t>['3', '31', '38', '45+2', '63', '65', '69']</t>
+  </si>
+  <si>
+    <t>['66', '71', '81']</t>
+  </si>
+  <si>
     <t>['81', '90+3']</t>
   </si>
   <si>
@@ -920,6 +926,15 @@
   </si>
   <si>
     <t>['90+13']</t>
+  </si>
+  <si>
+    <t>['34', '82']</t>
+  </si>
+  <si>
+    <t>['7', '45', '45+3']</t>
+  </si>
+  <si>
+    <t>['45+2']</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1296,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP177"/>
+  <dimension ref="A1:BP180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1540,7 +1555,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1746,7 +1761,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -2030,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AQ4">
         <v>1.5</v>
@@ -2364,7 +2379,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2442,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ6">
         <v>1.36</v>
@@ -2982,7 +2997,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -3600,7 +3615,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -3681,7 +3696,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ12">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4218,7 +4233,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4502,10 +4517,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ16">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR16">
         <v>1.14</v>
@@ -4630,7 +4645,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4708,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ17">
         <v>1.33</v>
@@ -4836,7 +4851,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4914,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ18">
         <v>0.64</v>
@@ -5042,7 +5057,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5738,7 +5753,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AQ22">
         <v>1.1</v>
@@ -5866,7 +5881,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -6072,7 +6087,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6278,7 +6293,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6484,7 +6499,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6690,7 +6705,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -6896,7 +6911,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7102,7 +7117,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -7183,7 +7198,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ29">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR29">
         <v>1.72</v>
@@ -7308,7 +7323,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7595,7 +7610,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ31">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR31">
         <v>1.04</v>
@@ -7720,7 +7735,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7801,7 +7816,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ32">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR32">
         <v>1.5</v>
@@ -7926,7 +7941,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q33">
         <v>1.73</v>
@@ -8132,7 +8147,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q34">
         <v>6.4</v>
@@ -8338,7 +8353,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q35">
         <v>1.96</v>
@@ -8544,7 +8559,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q36">
         <v>1.98</v>
@@ -8750,7 +8765,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -8956,7 +8971,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q38">
         <v>3.25</v>
@@ -9240,7 +9255,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ39">
         <v>0.75</v>
@@ -9780,7 +9795,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9986,7 +10001,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q43">
         <v>2.3</v>
@@ -10192,7 +10207,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q44">
         <v>4.75</v>
@@ -10273,7 +10288,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ44">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR44">
         <v>1.03</v>
@@ -10479,7 +10494,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ45">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR45">
         <v>1.43</v>
@@ -10604,7 +10619,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10682,10 +10697,10 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AQ46">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR46">
         <v>1.97</v>
@@ -10810,7 +10825,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10888,7 +10903,7 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ47">
         <v>0.7</v>
@@ -11300,7 +11315,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ49">
         <v>1.5</v>
@@ -11428,7 +11443,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11634,7 +11649,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11840,7 +11855,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q52">
         <v>1.83</v>
@@ -12252,7 +12267,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q54">
         <v>7.5</v>
@@ -12870,7 +12885,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13076,7 +13091,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q58">
         <v>2.8</v>
@@ -13154,7 +13169,7 @@
         <v>0.25</v>
       </c>
       <c r="AP58">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ58">
         <v>0.67</v>
@@ -13282,7 +13297,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q59">
         <v>3.15</v>
@@ -13488,7 +13503,7 @@
         <v>106</v>
       </c>
       <c r="P60" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13694,7 +13709,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q61">
         <v>3.11</v>
@@ -13772,7 +13787,7 @@
         <v>0.67</v>
       </c>
       <c r="AP61">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ61">
         <v>1.1</v>
@@ -13981,7 +13996,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ62">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR62">
         <v>0.98</v>
@@ -14106,7 +14121,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q63">
         <v>2.75</v>
@@ -14187,7 +14202,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ63">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR63">
         <v>1.51</v>
@@ -14390,7 +14405,7 @@
         <v>3</v>
       </c>
       <c r="AP64">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AQ64">
         <v>2.42</v>
@@ -14930,7 +14945,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q67">
         <v>2.38</v>
@@ -15548,7 +15563,7 @@
         <v>90</v>
       </c>
       <c r="P70" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q70">
         <v>5.5</v>
@@ -15754,7 +15769,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q71">
         <v>2.45</v>
@@ -16247,7 +16262,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ73">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR73">
         <v>1.06</v>
@@ -16372,7 +16387,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q74">
         <v>2.65</v>
@@ -16578,7 +16593,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -16990,7 +17005,7 @@
         <v>133</v>
       </c>
       <c r="P77" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17483,7 +17498,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ79">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR79">
         <v>2.06</v>
@@ -17608,7 +17623,7 @@
         <v>90</v>
       </c>
       <c r="P80" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -17686,7 +17701,7 @@
         <v>2</v>
       </c>
       <c r="AP80">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ80">
         <v>2.64</v>
@@ -17814,7 +17829,7 @@
         <v>136</v>
       </c>
       <c r="P81" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -18020,7 +18035,7 @@
         <v>137</v>
       </c>
       <c r="P82" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q82">
         <v>1.91</v>
@@ -18226,7 +18241,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q83">
         <v>1.62</v>
@@ -18304,7 +18319,7 @@
         <v>1.4</v>
       </c>
       <c r="AP83">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AQ83">
         <v>0.75</v>
@@ -18638,7 +18653,7 @@
         <v>99</v>
       </c>
       <c r="P85" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18719,7 +18734,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ85">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR85">
         <v>1.84</v>
@@ -18844,7 +18859,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q86">
         <v>1.83</v>
@@ -18925,7 +18940,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ86">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR86">
         <v>1.8</v>
@@ -19050,7 +19065,7 @@
         <v>90</v>
       </c>
       <c r="P87" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -19128,7 +19143,7 @@
         <v>0.75</v>
       </c>
       <c r="AP87">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ87">
         <v>0.6</v>
@@ -19256,7 +19271,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19334,7 +19349,7 @@
         <v>0.8</v>
       </c>
       <c r="AP88">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ88">
         <v>0.7</v>
@@ -19668,7 +19683,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q90">
         <v>1.61</v>
@@ -19874,7 +19889,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q91">
         <v>1.8</v>
@@ -20080,7 +20095,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q92">
         <v>3.8</v>
@@ -20158,7 +20173,7 @@
         <v>2</v>
       </c>
       <c r="AP92">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ92">
         <v>1.33</v>
@@ -20286,7 +20301,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q93">
         <v>2.55</v>
@@ -20492,7 +20507,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q94">
         <v>4.5</v>
@@ -20573,7 +20588,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ94">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR94">
         <v>1.27</v>
@@ -20698,7 +20713,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q95">
         <v>4.5</v>
@@ -20904,7 +20919,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q96">
         <v>9</v>
@@ -21316,7 +21331,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q98">
         <v>4.63</v>
@@ -21522,7 +21537,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q99">
         <v>2.31</v>
@@ -21728,7 +21743,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21934,7 +21949,7 @@
         <v>151</v>
       </c>
       <c r="P101" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q101">
         <v>2.43</v>
@@ -22140,7 +22155,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -22221,7 +22236,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ102">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR102">
         <v>1.58</v>
@@ -22346,7 +22361,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -22630,10 +22645,10 @@
         <v>1.8</v>
       </c>
       <c r="AP104">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AQ104">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR104">
         <v>2.01</v>
@@ -23045,7 +23060,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ106">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR106">
         <v>1.74</v>
@@ -23248,7 +23263,7 @@
         <v>2.43</v>
       </c>
       <c r="AP107">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ107">
         <v>2.42</v>
@@ -23582,7 +23597,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q109">
         <v>1.95</v>
@@ -24200,7 +24215,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q112">
         <v>1.73</v>
@@ -24278,7 +24293,7 @@
         <v>1</v>
       </c>
       <c r="AP112">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AQ112">
         <v>0.64</v>
@@ -24487,7 +24502,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ113">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR113">
         <v>1.3</v>
@@ -24612,7 +24627,7 @@
         <v>90</v>
       </c>
       <c r="P114" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -24818,7 +24833,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -25024,7 +25039,7 @@
         <v>160</v>
       </c>
       <c r="P116" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q116">
         <v>1.95</v>
@@ -25230,7 +25245,7 @@
         <v>161</v>
       </c>
       <c r="P117" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q117">
         <v>3.1</v>
@@ -25436,7 +25451,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q118">
         <v>3.75</v>
@@ -25514,7 +25529,7 @@
         <v>0.57</v>
       </c>
       <c r="AP118">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ118">
         <v>0.67</v>
@@ -25723,7 +25738,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ119">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR119">
         <v>2.45</v>
@@ -25848,7 +25863,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q120">
         <v>3.6</v>
@@ -26054,7 +26069,7 @@
         <v>163</v>
       </c>
       <c r="P121" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26466,7 +26481,7 @@
         <v>165</v>
       </c>
       <c r="P123" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q123">
         <v>3.6</v>
@@ -26672,7 +26687,7 @@
         <v>166</v>
       </c>
       <c r="P124" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26750,7 +26765,7 @@
         <v>1</v>
       </c>
       <c r="AP124">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ124">
         <v>0.6</v>
@@ -26878,7 +26893,7 @@
         <v>90</v>
       </c>
       <c r="P125" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -27165,7 +27180,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ126">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR126">
         <v>2.25</v>
@@ -27290,7 +27305,7 @@
         <v>168</v>
       </c>
       <c r="P127" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q127">
         <v>4.75</v>
@@ -27371,7 +27386,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ127">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR127">
         <v>1.13</v>
@@ -27496,7 +27511,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q128">
         <v>5.5</v>
@@ -27577,7 +27592,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ128">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR128">
         <v>1.48</v>
@@ -27908,7 +27923,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q130">
         <v>2.2</v>
@@ -28192,7 +28207,7 @@
         <v>0.86</v>
       </c>
       <c r="AP131">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AQ131">
         <v>0.6</v>
@@ -28938,7 +28953,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q135">
         <v>3.35</v>
@@ -29431,7 +29446,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ137">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR137">
         <v>1.83</v>
@@ -29556,7 +29571,7 @@
         <v>90</v>
       </c>
       <c r="P138" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q138">
         <v>5.25</v>
@@ -29762,7 +29777,7 @@
         <v>177</v>
       </c>
       <c r="P139" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q139">
         <v>2.32</v>
@@ -30049,7 +30064,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ140">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR140">
         <v>2.23</v>
@@ -30174,7 +30189,7 @@
         <v>134</v>
       </c>
       <c r="P141" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q141">
         <v>3.81</v>
@@ -30252,7 +30267,7 @@
         <v>1.22</v>
       </c>
       <c r="AP141">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ141">
         <v>1.09</v>
@@ -30380,7 +30395,7 @@
         <v>90</v>
       </c>
       <c r="P142" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q142">
         <v>7</v>
@@ -30461,7 +30476,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ142">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR142">
         <v>1.24</v>
@@ -30586,7 +30601,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q143">
         <v>2.2</v>
@@ -31079,7 +31094,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ145">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR145">
         <v>1.9</v>
@@ -31282,7 +31297,7 @@
         <v>1.56</v>
       </c>
       <c r="AP146">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ146">
         <v>1.5</v>
@@ -31410,7 +31425,7 @@
         <v>182</v>
       </c>
       <c r="P147" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q147">
         <v>1.71</v>
@@ -31488,7 +31503,7 @@
         <v>1.67</v>
       </c>
       <c r="AP147">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AQ147">
         <v>1.36</v>
@@ -31616,7 +31631,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q148">
         <v>1.93</v>
@@ -31822,7 +31837,7 @@
         <v>184</v>
       </c>
       <c r="P149" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q149">
         <v>5.66</v>
@@ -32234,7 +32249,7 @@
         <v>185</v>
       </c>
       <c r="P151" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q151">
         <v>2.98</v>
@@ -32440,7 +32455,7 @@
         <v>186</v>
       </c>
       <c r="P152" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q152">
         <v>1.62</v>
@@ -32724,7 +32739,7 @@
         <v>1.13</v>
       </c>
       <c r="AP153">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ153">
         <v>1.1</v>
@@ -32933,7 +32948,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ154">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR154">
         <v>1.71</v>
@@ -33058,7 +33073,7 @@
         <v>188</v>
       </c>
       <c r="P155" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q155">
         <v>2.38</v>
@@ -33139,7 +33154,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ155">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR155">
         <v>1.25</v>
@@ -33264,7 +33279,7 @@
         <v>90</v>
       </c>
       <c r="P156" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q156">
         <v>4.75</v>
@@ -33345,7 +33360,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ156">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR156">
         <v>1.24</v>
@@ -33470,7 +33485,7 @@
         <v>189</v>
       </c>
       <c r="P157" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q157">
         <v>2.88</v>
@@ -33548,7 +33563,7 @@
         <v>0.9</v>
       </c>
       <c r="AP157">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ157">
         <v>0.75</v>
@@ -33960,7 +33975,7 @@
         <v>0.8</v>
       </c>
       <c r="AP159">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AQ159">
         <v>0.67</v>
@@ -34294,7 +34309,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q161">
         <v>9</v>
@@ -34372,7 +34387,7 @@
         <v>2.56</v>
       </c>
       <c r="AP161">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ161">
         <v>2.42</v>
@@ -34578,7 +34593,7 @@
         <v>0.9</v>
       </c>
       <c r="AP162">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AQ162">
         <v>0.82</v>
@@ -34784,7 +34799,7 @@
         <v>1.5</v>
       </c>
       <c r="AP163">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ163">
         <v>1.36</v>
@@ -35324,7 +35339,7 @@
         <v>197</v>
       </c>
       <c r="P166" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q166">
         <v>3.5</v>
@@ -35405,7 +35420,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ166">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR166">
         <v>1.97</v>
@@ -35530,7 +35545,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -35611,7 +35626,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ167">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR167">
         <v>1.43</v>
@@ -35817,7 +35832,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ168">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR168">
         <v>1.58</v>
@@ -35942,7 +35957,7 @@
         <v>90</v>
       </c>
       <c r="P169" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q169">
         <v>5.5</v>
@@ -36354,7 +36369,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q171">
         <v>1.75</v>
@@ -36560,7 +36575,7 @@
         <v>90</v>
       </c>
       <c r="P172" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q172">
         <v>4.4</v>
@@ -36766,7 +36781,7 @@
         <v>202</v>
       </c>
       <c r="P173" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q173">
         <v>3.5</v>
@@ -37590,7 +37605,7 @@
         <v>97</v>
       </c>
       <c r="P177" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q177">
         <v>5</v>
@@ -37747,6 +37762,624 @@
       </c>
       <c r="BP177">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="178" spans="1:68">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>7347930</v>
+      </c>
+      <c r="C178" t="s">
+        <v>68</v>
+      </c>
+      <c r="D178" t="s">
+        <v>69</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45513.35763888889</v>
+      </c>
+      <c r="F178">
+        <v>22</v>
+      </c>
+      <c r="G178" t="s">
+        <v>72</v>
+      </c>
+      <c r="H178" t="s">
+        <v>77</v>
+      </c>
+      <c r="I178">
+        <v>4</v>
+      </c>
+      <c r="J178">
+        <v>1</v>
+      </c>
+      <c r="K178">
+        <v>5</v>
+      </c>
+      <c r="L178">
+        <v>7</v>
+      </c>
+      <c r="M178">
+        <v>2</v>
+      </c>
+      <c r="N178">
+        <v>9</v>
+      </c>
+      <c r="O178" t="s">
+        <v>206</v>
+      </c>
+      <c r="P178" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q178">
+        <v>1.36</v>
+      </c>
+      <c r="R178">
+        <v>3.4</v>
+      </c>
+      <c r="S178">
+        <v>19</v>
+      </c>
+      <c r="T178">
+        <v>1.2</v>
+      </c>
+      <c r="U178">
+        <v>4.33</v>
+      </c>
+      <c r="V178">
+        <v>1.91</v>
+      </c>
+      <c r="W178">
+        <v>1.8</v>
+      </c>
+      <c r="X178">
+        <v>4</v>
+      </c>
+      <c r="Y178">
+        <v>1.22</v>
+      </c>
+      <c r="Z178">
+        <v>1.08</v>
+      </c>
+      <c r="AA178">
+        <v>9.5</v>
+      </c>
+      <c r="AB178">
+        <v>21</v>
+      </c>
+      <c r="AC178">
+        <v>1.01</v>
+      </c>
+      <c r="AD178">
+        <v>42.5</v>
+      </c>
+      <c r="AE178">
+        <v>1.1</v>
+      </c>
+      <c r="AF178">
+        <v>6.25</v>
+      </c>
+      <c r="AG178">
+        <v>1.29</v>
+      </c>
+      <c r="AH178">
+        <v>3.11</v>
+      </c>
+      <c r="AI178">
+        <v>2.75</v>
+      </c>
+      <c r="AJ178">
+        <v>1.4</v>
+      </c>
+      <c r="AK178">
+        <v>1.03</v>
+      </c>
+      <c r="AL178">
+        <v>1.04</v>
+      </c>
+      <c r="AM178">
+        <v>7.5</v>
+      </c>
+      <c r="AN178">
+        <v>2.82</v>
+      </c>
+      <c r="AO178">
+        <v>0.9</v>
+      </c>
+      <c r="AP178">
+        <v>2.83</v>
+      </c>
+      <c r="AQ178">
+        <v>0.82</v>
+      </c>
+      <c r="AR178">
+        <v>2.55</v>
+      </c>
+      <c r="AS178">
+        <v>1.2</v>
+      </c>
+      <c r="AT178">
+        <v>3.75</v>
+      </c>
+      <c r="AU178">
+        <v>16</v>
+      </c>
+      <c r="AV178">
+        <v>4</v>
+      </c>
+      <c r="AW178">
+        <v>12</v>
+      </c>
+      <c r="AX178">
+        <v>4</v>
+      </c>
+      <c r="AY178">
+        <v>28</v>
+      </c>
+      <c r="AZ178">
+        <v>8</v>
+      </c>
+      <c r="BA178">
+        <v>10</v>
+      </c>
+      <c r="BB178">
+        <v>4</v>
+      </c>
+      <c r="BC178">
+        <v>14</v>
+      </c>
+      <c r="BD178">
+        <v>1.06</v>
+      </c>
+      <c r="BE178">
+        <v>21</v>
+      </c>
+      <c r="BF178">
+        <v>7.5</v>
+      </c>
+      <c r="BG178">
+        <v>1.15</v>
+      </c>
+      <c r="BH178">
+        <v>4.45</v>
+      </c>
+      <c r="BI178">
+        <v>1.32</v>
+      </c>
+      <c r="BJ178">
+        <v>2.98</v>
+      </c>
+      <c r="BK178">
+        <v>1.56</v>
+      </c>
+      <c r="BL178">
+        <v>2.34</v>
+      </c>
+      <c r="BM178">
+        <v>2</v>
+      </c>
+      <c r="BN178">
+        <v>1.79</v>
+      </c>
+      <c r="BO178">
+        <v>2.42</v>
+      </c>
+      <c r="BP178">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="179" spans="1:68">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>7347926</v>
+      </c>
+      <c r="C179" t="s">
+        <v>68</v>
+      </c>
+      <c r="D179" t="s">
+        <v>69</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45513.35763888889</v>
+      </c>
+      <c r="F179">
+        <v>22</v>
+      </c>
+      <c r="G179" t="s">
+        <v>82</v>
+      </c>
+      <c r="H179" t="s">
+        <v>75</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>3</v>
+      </c>
+      <c r="K179">
+        <v>3</v>
+      </c>
+      <c r="L179">
+        <v>0</v>
+      </c>
+      <c r="M179">
+        <v>3</v>
+      </c>
+      <c r="N179">
+        <v>3</v>
+      </c>
+      <c r="O179" t="s">
+        <v>90</v>
+      </c>
+      <c r="P179" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q179">
+        <v>6.28</v>
+      </c>
+      <c r="R179">
+        <v>2.48</v>
+      </c>
+      <c r="S179">
+        <v>1.94</v>
+      </c>
+      <c r="T179">
+        <v>1.32</v>
+      </c>
+      <c r="U179">
+        <v>3.27</v>
+      </c>
+      <c r="V179">
+        <v>2.57</v>
+      </c>
+      <c r="W179">
+        <v>1.48</v>
+      </c>
+      <c r="X179">
+        <v>5.95</v>
+      </c>
+      <c r="Y179">
+        <v>1.1</v>
+      </c>
+      <c r="Z179">
+        <v>6.2</v>
+      </c>
+      <c r="AA179">
+        <v>4.34</v>
+      </c>
+      <c r="AB179">
+        <v>1.46</v>
+      </c>
+      <c r="AC179">
+        <v>1.02</v>
+      </c>
+      <c r="AD179">
+        <v>10</v>
+      </c>
+      <c r="AE179">
+        <v>1.22</v>
+      </c>
+      <c r="AF179">
+        <v>3.8</v>
+      </c>
+      <c r="AG179">
+        <v>1.7</v>
+      </c>
+      <c r="AH179">
+        <v>2.05</v>
+      </c>
+      <c r="AI179">
+        <v>1.8</v>
+      </c>
+      <c r="AJ179">
+        <v>1.95</v>
+      </c>
+      <c r="AK179">
+        <v>2.6</v>
+      </c>
+      <c r="AL179">
+        <v>1.2</v>
+      </c>
+      <c r="AM179">
+        <v>1.13</v>
+      </c>
+      <c r="AN179">
+        <v>1.09</v>
+      </c>
+      <c r="AO179">
+        <v>1.82</v>
+      </c>
+      <c r="AP179">
+        <v>1</v>
+      </c>
+      <c r="AQ179">
+        <v>1.92</v>
+      </c>
+      <c r="AR179">
+        <v>1.33</v>
+      </c>
+      <c r="AS179">
+        <v>1.67</v>
+      </c>
+      <c r="AT179">
+        <v>3</v>
+      </c>
+      <c r="AU179">
+        <v>2</v>
+      </c>
+      <c r="AV179">
+        <v>6</v>
+      </c>
+      <c r="AW179">
+        <v>3</v>
+      </c>
+      <c r="AX179">
+        <v>5</v>
+      </c>
+      <c r="AY179">
+        <v>5</v>
+      </c>
+      <c r="AZ179">
+        <v>11</v>
+      </c>
+      <c r="BA179">
+        <v>3</v>
+      </c>
+      <c r="BB179">
+        <v>5</v>
+      </c>
+      <c r="BC179">
+        <v>8</v>
+      </c>
+      <c r="BD179">
+        <v>5.55</v>
+      </c>
+      <c r="BE179">
+        <v>8.4</v>
+      </c>
+      <c r="BF179">
+        <v>1.24</v>
+      </c>
+      <c r="BG179">
+        <v>1.29</v>
+      </c>
+      <c r="BH179">
+        <v>3.3</v>
+      </c>
+      <c r="BI179">
+        <v>1.49</v>
+      </c>
+      <c r="BJ179">
+        <v>2.51</v>
+      </c>
+      <c r="BK179">
+        <v>1.82</v>
+      </c>
+      <c r="BL179">
+        <v>1.98</v>
+      </c>
+      <c r="BM179">
+        <v>2.25</v>
+      </c>
+      <c r="BN179">
+        <v>1.61</v>
+      </c>
+      <c r="BO179">
+        <v>2.88</v>
+      </c>
+      <c r="BP179">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="180" spans="1:68">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>7347925</v>
+      </c>
+      <c r="C180" t="s">
+        <v>68</v>
+      </c>
+      <c r="D180" t="s">
+        <v>69</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45513.35763888889</v>
+      </c>
+      <c r="F180">
+        <v>22</v>
+      </c>
+      <c r="G180" t="s">
+        <v>74</v>
+      </c>
+      <c r="H180" t="s">
+        <v>70</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>1</v>
+      </c>
+      <c r="K180">
+        <v>1</v>
+      </c>
+      <c r="L180">
+        <v>3</v>
+      </c>
+      <c r="M180">
+        <v>1</v>
+      </c>
+      <c r="N180">
+        <v>4</v>
+      </c>
+      <c r="O180" t="s">
+        <v>207</v>
+      </c>
+      <c r="P180" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q180">
+        <v>4.8</v>
+      </c>
+      <c r="R180">
+        <v>2.45</v>
+      </c>
+      <c r="S180">
+        <v>2.05</v>
+      </c>
+      <c r="T180">
+        <v>1.27</v>
+      </c>
+      <c r="U180">
+        <v>3.6</v>
+      </c>
+      <c r="V180">
+        <v>2.2</v>
+      </c>
+      <c r="W180">
+        <v>1.58</v>
+      </c>
+      <c r="X180">
+        <v>4.7</v>
+      </c>
+      <c r="Y180">
+        <v>1.15</v>
+      </c>
+      <c r="Z180">
+        <v>5.22</v>
+      </c>
+      <c r="AA180">
+        <v>4.21</v>
+      </c>
+      <c r="AB180">
+        <v>1.52</v>
+      </c>
+      <c r="AC180">
+        <v>1.03</v>
+      </c>
+      <c r="AD180">
+        <v>18.5</v>
+      </c>
+      <c r="AE180">
+        <v>1.17</v>
+      </c>
+      <c r="AF180">
+        <v>5.1</v>
+      </c>
+      <c r="AG180">
+        <v>1.56</v>
+      </c>
+      <c r="AH180">
+        <v>2.45</v>
+      </c>
+      <c r="AI180">
+        <v>1.58</v>
+      </c>
+      <c r="AJ180">
+        <v>2.25</v>
+      </c>
+      <c r="AK180">
+        <v>2.25</v>
+      </c>
+      <c r="AL180">
+        <v>1.25</v>
+      </c>
+      <c r="AM180">
+        <v>1.18</v>
+      </c>
+      <c r="AN180">
+        <v>1</v>
+      </c>
+      <c r="AO180">
+        <v>1.33</v>
+      </c>
+      <c r="AP180">
+        <v>1.17</v>
+      </c>
+      <c r="AQ180">
+        <v>1.23</v>
+      </c>
+      <c r="AR180">
+        <v>0.97</v>
+      </c>
+      <c r="AS180">
+        <v>1.6</v>
+      </c>
+      <c r="AT180">
+        <v>2.57</v>
+      </c>
+      <c r="AU180">
+        <v>10</v>
+      </c>
+      <c r="AV180">
+        <v>8</v>
+      </c>
+      <c r="AW180">
+        <v>5</v>
+      </c>
+      <c r="AX180">
+        <v>5</v>
+      </c>
+      <c r="AY180">
+        <v>15</v>
+      </c>
+      <c r="AZ180">
+        <v>13</v>
+      </c>
+      <c r="BA180">
+        <v>7</v>
+      </c>
+      <c r="BB180">
+        <v>6</v>
+      </c>
+      <c r="BC180">
+        <v>13</v>
+      </c>
+      <c r="BD180">
+        <v>4.95</v>
+      </c>
+      <c r="BE180">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF180">
+        <v>1.28</v>
+      </c>
+      <c r="BG180">
+        <v>1.25</v>
+      </c>
+      <c r="BH180">
+        <v>3.6</v>
+      </c>
+      <c r="BI180">
+        <v>1.42</v>
+      </c>
+      <c r="BJ180">
+        <v>2.62</v>
+      </c>
+      <c r="BK180">
+        <v>1.82</v>
+      </c>
+      <c r="BL180">
+        <v>1.98</v>
+      </c>
+      <c r="BM180">
+        <v>2.13</v>
+      </c>
+      <c r="BN180">
+        <v>1.68</v>
+      </c>
+      <c r="BO180">
+        <v>2.62</v>
+      </c>
+      <c r="BP180">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="313">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -640,6 +640,15 @@
     <t>['66', '71', '81']</t>
   </si>
   <si>
+    <t>['9', '40']</t>
+  </si>
+  <si>
+    <t>['17', '33', '45+3', '72', '86']</t>
+  </si>
+  <si>
+    <t>['59', '63']</t>
+  </si>
+  <si>
     <t>['81', '90+3']</t>
   </si>
   <si>
@@ -935,6 +944,15 @@
   </si>
   <si>
     <t>['45+2']</t>
+  </si>
+  <si>
+    <t>['54', '90+11']</t>
+  </si>
+  <si>
+    <t>['75']</t>
+  </si>
+  <si>
+    <t>['25', '90+6']</t>
   </si>
 </sst>
 </file>
@@ -1296,7 +1314,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP180"/>
+  <dimension ref="A1:BP184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1555,7 +1573,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1761,7 +1779,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -1842,7 +1860,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ3">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2048,7 +2066,7 @@
         <v>2.83</v>
       </c>
       <c r="AQ4">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2254,7 +2272,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ5">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2379,7 +2397,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2460,7 +2478,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ6">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2997,7 +3015,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -3281,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ10">
         <v>0.75</v>
@@ -3487,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ11">
         <v>0.7</v>
@@ -3615,7 +3633,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -3902,7 +3920,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ13">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR13">
         <v>2.48</v>
@@ -4233,7 +4251,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4314,7 +4332,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ15">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4645,7 +4663,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4851,7 +4869,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -5057,7 +5075,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5138,7 +5156,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ19">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5344,7 +5362,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ20">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR20">
         <v>1.66</v>
@@ -5756,7 +5774,7 @@
         <v>2.83</v>
       </c>
       <c r="AQ22">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR22">
         <v>2.37</v>
@@ -5881,7 +5899,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -5959,7 +5977,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ23">
         <v>1.33</v>
@@ -6087,7 +6105,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6293,7 +6311,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6499,7 +6517,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6705,7 +6723,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -6783,7 +6801,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ27">
         <v>2.42</v>
@@ -6911,7 +6929,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7117,7 +7135,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -7195,7 +7213,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ29">
         <v>1.23</v>
@@ -7323,7 +7341,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7735,7 +7753,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7941,7 +7959,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q33">
         <v>1.73</v>
@@ -8147,7 +8165,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q34">
         <v>6.4</v>
@@ -8353,7 +8371,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q35">
         <v>1.96</v>
@@ -8434,7 +8452,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ35">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR35">
         <v>1.8</v>
@@ -8559,7 +8577,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q36">
         <v>1.98</v>
@@ -8765,7 +8783,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -8843,10 +8861,10 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ37">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR37">
         <v>2.37</v>
@@ -8971,7 +8989,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q38">
         <v>3.25</v>
@@ -9795,7 +9813,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9876,7 +9894,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ42">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR42">
         <v>1.84</v>
@@ -10001,7 +10019,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q43">
         <v>2.3</v>
@@ -10079,10 +10097,10 @@
         <v>2.33</v>
       </c>
       <c r="AP43">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ43">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR43">
         <v>2.56</v>
@@ -10207,7 +10225,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q44">
         <v>4.75</v>
@@ -10285,7 +10303,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ44">
         <v>1.92</v>
@@ -10619,7 +10637,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10825,7 +10843,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -11109,7 +11127,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ48">
         <v>0.6</v>
@@ -11318,7 +11336,7 @@
         <v>1</v>
       </c>
       <c r="AQ49">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR49">
         <v>1.41</v>
@@ -11443,7 +11461,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11649,7 +11667,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11855,7 +11873,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q52">
         <v>1.83</v>
@@ -12267,7 +12285,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q54">
         <v>7.5</v>
@@ -12885,7 +12903,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12966,7 +12984,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ57">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR57">
         <v>1.14</v>
@@ -13091,7 +13109,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q58">
         <v>2.8</v>
@@ -13297,7 +13315,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q59">
         <v>3.15</v>
@@ -13503,7 +13521,7 @@
         <v>106</v>
       </c>
       <c r="P60" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13584,7 +13602,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ60">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR60">
         <v>1.57</v>
@@ -13709,7 +13727,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q61">
         <v>3.11</v>
@@ -13790,7 +13808,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ61">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR61">
         <v>1.2</v>
@@ -13993,7 +14011,7 @@
         <v>0.67</v>
       </c>
       <c r="AP62">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ62">
         <v>0.82</v>
@@ -14121,7 +14139,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q63">
         <v>2.75</v>
@@ -14614,7 +14632,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ65">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR65">
         <v>2.08</v>
@@ -14820,7 +14838,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ66">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR66">
         <v>1.59</v>
@@ -14945,7 +14963,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q67">
         <v>2.38</v>
@@ -15026,7 +15044,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ67">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR67">
         <v>1.71</v>
@@ -15435,7 +15453,7 @@
         <v>1.5</v>
       </c>
       <c r="AP69">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ69">
         <v>1.09</v>
@@ -15563,7 +15581,7 @@
         <v>90</v>
       </c>
       <c r="P70" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q70">
         <v>5.5</v>
@@ -15641,7 +15659,7 @@
         <v>1.67</v>
       </c>
       <c r="AP70">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ70">
         <v>2.64</v>
@@ -15769,7 +15787,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q71">
         <v>2.45</v>
@@ -15850,7 +15868,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ71">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR71">
         <v>1.59</v>
@@ -16053,7 +16071,7 @@
         <v>1.33</v>
       </c>
       <c r="AP72">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ72">
         <v>0.64</v>
@@ -16387,7 +16405,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q74">
         <v>2.65</v>
@@ -16593,7 +16611,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -16877,7 +16895,7 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ76">
         <v>0.6</v>
@@ -17005,7 +17023,7 @@
         <v>133</v>
       </c>
       <c r="P77" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17623,7 +17641,7 @@
         <v>90</v>
       </c>
       <c r="P80" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -17829,7 +17847,7 @@
         <v>136</v>
       </c>
       <c r="P81" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17907,10 +17925,10 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ81">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR81">
         <v>1.34</v>
@@ -18035,7 +18053,7 @@
         <v>137</v>
       </c>
       <c r="P82" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q82">
         <v>1.91</v>
@@ -18116,7 +18134,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ82">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR82">
         <v>1.62</v>
@@ -18241,7 +18259,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q83">
         <v>1.62</v>
@@ -18653,7 +18671,7 @@
         <v>99</v>
       </c>
       <c r="P85" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18859,7 +18877,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q86">
         <v>1.83</v>
@@ -19065,7 +19083,7 @@
         <v>90</v>
       </c>
       <c r="P87" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -19271,7 +19289,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19555,7 +19573,7 @@
         <v>0.67</v>
       </c>
       <c r="AP89">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ89">
         <v>0.67</v>
@@ -19683,7 +19701,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q90">
         <v>1.61</v>
@@ -19889,7 +19907,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q91">
         <v>1.8</v>
@@ -19970,7 +19988,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ91">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR91">
         <v>1.74</v>
@@ -20095,7 +20113,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q92">
         <v>3.8</v>
@@ -20301,7 +20319,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q93">
         <v>2.55</v>
@@ -20382,7 +20400,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ93">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR93">
         <v>1.57</v>
@@ -20507,7 +20525,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q94">
         <v>4.5</v>
@@ -20713,7 +20731,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q95">
         <v>4.5</v>
@@ -20791,10 +20809,10 @@
         <v>2.33</v>
       </c>
       <c r="AP95">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ95">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR95">
         <v>1.1</v>
@@ -20919,7 +20937,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q96">
         <v>9</v>
@@ -21331,7 +21349,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q98">
         <v>4.63</v>
@@ -21409,10 +21427,10 @@
         <v>2</v>
       </c>
       <c r="AP98">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ98">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR98">
         <v>1.45</v>
@@ -21537,7 +21555,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q99">
         <v>2.31</v>
@@ -21618,7 +21636,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ99">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR99">
         <v>1.77</v>
@@ -21743,7 +21761,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21949,7 +21967,7 @@
         <v>151</v>
       </c>
       <c r="P101" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q101">
         <v>2.43</v>
@@ -22155,7 +22173,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -22361,7 +22379,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -23469,7 +23487,7 @@
         <v>2.14</v>
       </c>
       <c r="AP108">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ108">
         <v>1.33</v>
@@ -23597,7 +23615,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q109">
         <v>1.95</v>
@@ -23678,7 +23696,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ109">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR109">
         <v>1.9</v>
@@ -23881,10 +23899,10 @@
         <v>0.83</v>
       </c>
       <c r="AP110">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ110">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR110">
         <v>1.08</v>
@@ -24215,7 +24233,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q112">
         <v>1.73</v>
@@ -24627,7 +24645,7 @@
         <v>90</v>
       </c>
       <c r="P114" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -24833,7 +24851,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -25039,7 +25057,7 @@
         <v>160</v>
       </c>
       <c r="P116" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q116">
         <v>1.95</v>
@@ -25245,7 +25263,7 @@
         <v>161</v>
       </c>
       <c r="P117" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q117">
         <v>3.1</v>
@@ -25326,7 +25344,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ117">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR117">
         <v>1.56</v>
@@ -25451,7 +25469,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q118">
         <v>3.75</v>
@@ -25735,7 +25753,7 @@
         <v>1.5</v>
       </c>
       <c r="AP119">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ119">
         <v>1.92</v>
@@ -25863,7 +25881,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q120">
         <v>3.6</v>
@@ -25944,7 +25962,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ120">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR120">
         <v>1.17</v>
@@ -26069,7 +26087,7 @@
         <v>163</v>
       </c>
       <c r="P121" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26481,7 +26499,7 @@
         <v>165</v>
       </c>
       <c r="P123" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q123">
         <v>3.6</v>
@@ -26687,7 +26705,7 @@
         <v>166</v>
       </c>
       <c r="P124" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26893,7 +26911,7 @@
         <v>90</v>
       </c>
       <c r="P125" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -27177,7 +27195,7 @@
         <v>1.33</v>
       </c>
       <c r="AP126">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ126">
         <v>0.82</v>
@@ -27305,7 +27323,7 @@
         <v>168</v>
       </c>
       <c r="P127" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q127">
         <v>4.75</v>
@@ -27383,7 +27401,7 @@
         <v>1.71</v>
       </c>
       <c r="AP127">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ127">
         <v>1.23</v>
@@ -27511,7 +27529,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q128">
         <v>5.5</v>
@@ -27589,7 +27607,7 @@
         <v>1.43</v>
       </c>
       <c r="AP128">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ128">
         <v>1.92</v>
@@ -27923,7 +27941,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q130">
         <v>2.2</v>
@@ -28004,7 +28022,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ130">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR130">
         <v>1.73</v>
@@ -28825,7 +28843,7 @@
         <v>0.88</v>
       </c>
       <c r="AP134">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ134">
         <v>0.67</v>
@@ -28953,7 +28971,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q135">
         <v>3.35</v>
@@ -29034,7 +29052,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ135">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR135">
         <v>1.21</v>
@@ -29571,7 +29589,7 @@
         <v>90</v>
       </c>
       <c r="P138" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q138">
         <v>5.25</v>
@@ -29777,7 +29795,7 @@
         <v>177</v>
       </c>
       <c r="P139" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q139">
         <v>2.32</v>
@@ -30061,7 +30079,7 @@
         <v>1.44</v>
       </c>
       <c r="AP140">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ140">
         <v>1.23</v>
@@ -30189,7 +30207,7 @@
         <v>134</v>
       </c>
       <c r="P141" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q141">
         <v>3.81</v>
@@ -30395,7 +30413,7 @@
         <v>90</v>
       </c>
       <c r="P142" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q142">
         <v>7</v>
@@ -30601,7 +30619,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q143">
         <v>2.2</v>
@@ -30682,7 +30700,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ143">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR143">
         <v>1.75</v>
@@ -30885,7 +30903,7 @@
         <v>0.88</v>
       </c>
       <c r="AP144">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ144">
         <v>0.7</v>
@@ -31300,7 +31318,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ146">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR146">
         <v>1.03</v>
@@ -31425,7 +31443,7 @@
         <v>182</v>
       </c>
       <c r="P147" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q147">
         <v>1.71</v>
@@ -31506,7 +31524,7 @@
         <v>2.83</v>
       </c>
       <c r="AQ147">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR147">
         <v>2.38</v>
@@ -31631,7 +31649,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q148">
         <v>1.93</v>
@@ -31837,7 +31855,7 @@
         <v>184</v>
       </c>
       <c r="P149" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q149">
         <v>5.66</v>
@@ -32249,7 +32267,7 @@
         <v>185</v>
       </c>
       <c r="P151" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q151">
         <v>2.98</v>
@@ -32330,7 +32348,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ151">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR151">
         <v>1.13</v>
@@ -32455,7 +32473,7 @@
         <v>186</v>
       </c>
       <c r="P152" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q152">
         <v>1.62</v>
@@ -32533,7 +32551,7 @@
         <v>1</v>
       </c>
       <c r="AP152">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ152">
         <v>0.75</v>
@@ -32742,7 +32760,7 @@
         <v>1</v>
       </c>
       <c r="AQ153">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR153">
         <v>1.34</v>
@@ -33073,7 +33091,7 @@
         <v>188</v>
       </c>
       <c r="P155" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q155">
         <v>2.38</v>
@@ -33279,7 +33297,7 @@
         <v>90</v>
       </c>
       <c r="P156" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q156">
         <v>4.75</v>
@@ -33485,7 +33503,7 @@
         <v>189</v>
       </c>
       <c r="P157" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q157">
         <v>2.88</v>
@@ -34309,7 +34327,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q161">
         <v>9</v>
@@ -34596,7 +34614,7 @@
         <v>2.83</v>
       </c>
       <c r="AQ162">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR162">
         <v>2.53</v>
@@ -34802,7 +34820,7 @@
         <v>1</v>
       </c>
       <c r="AQ163">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR163">
         <v>1.3</v>
@@ -35005,7 +35023,7 @@
         <v>0.67</v>
       </c>
       <c r="AP164">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ164">
         <v>0.64</v>
@@ -35339,7 +35357,7 @@
         <v>197</v>
       </c>
       <c r="P166" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q166">
         <v>3.5</v>
@@ -35545,7 +35563,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -35623,7 +35641,7 @@
         <v>1</v>
       </c>
       <c r="AP167">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ167">
         <v>0.82</v>
@@ -35957,7 +35975,7 @@
         <v>90</v>
       </c>
       <c r="P169" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q169">
         <v>5.5</v>
@@ -36369,7 +36387,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q171">
         <v>1.75</v>
@@ -36575,7 +36593,7 @@
         <v>90</v>
       </c>
       <c r="P172" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q172">
         <v>4.4</v>
@@ -36781,7 +36799,7 @@
         <v>202</v>
       </c>
       <c r="P173" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q173">
         <v>3.5</v>
@@ -37605,7 +37623,7 @@
         <v>97</v>
       </c>
       <c r="P177" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q177">
         <v>5</v>
@@ -37686,7 +37704,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ177">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR177">
         <v>1.21</v>
@@ -37811,7 +37829,7 @@
         <v>206</v>
       </c>
       <c r="P178" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q178">
         <v>1.36</v>
@@ -38017,7 +38035,7 @@
         <v>90</v>
       </c>
       <c r="P179" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q179">
         <v>6.28</v>
@@ -38223,7 +38241,7 @@
         <v>207</v>
       </c>
       <c r="P180" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q180">
         <v>4.8</v>
@@ -38380,6 +38398,830 @@
       </c>
       <c r="BP180">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="181" spans="1:68">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>7347927</v>
+      </c>
+      <c r="C181" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181" t="s">
+        <v>69</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45514.33333333334</v>
+      </c>
+      <c r="F181">
+        <v>22</v>
+      </c>
+      <c r="G181" t="s">
+        <v>78</v>
+      </c>
+      <c r="H181" t="s">
+        <v>80</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
+      <c r="M181">
+        <v>2</v>
+      </c>
+      <c r="N181">
+        <v>2</v>
+      </c>
+      <c r="O181" t="s">
+        <v>90</v>
+      </c>
+      <c r="P181" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q181">
+        <v>3.5</v>
+      </c>
+      <c r="R181">
+        <v>2.3</v>
+      </c>
+      <c r="S181">
+        <v>2.88</v>
+      </c>
+      <c r="T181">
+        <v>1.33</v>
+      </c>
+      <c r="U181">
+        <v>3.25</v>
+      </c>
+      <c r="V181">
+        <v>2.63</v>
+      </c>
+      <c r="W181">
+        <v>1.44</v>
+      </c>
+      <c r="X181">
+        <v>6.5</v>
+      </c>
+      <c r="Y181">
+        <v>1.11</v>
+      </c>
+      <c r="Z181">
+        <v>3.08</v>
+      </c>
+      <c r="AA181">
+        <v>3.69</v>
+      </c>
+      <c r="AB181">
+        <v>2.07</v>
+      </c>
+      <c r="AC181">
+        <v>1.04</v>
+      </c>
+      <c r="AD181">
+        <v>14.25</v>
+      </c>
+      <c r="AE181">
+        <v>1.22</v>
+      </c>
+      <c r="AF181">
+        <v>4.32</v>
+      </c>
+      <c r="AG181">
+        <v>1.7</v>
+      </c>
+      <c r="AH181">
+        <v>2.1</v>
+      </c>
+      <c r="AI181">
+        <v>1.57</v>
+      </c>
+      <c r="AJ181">
+        <v>2.25</v>
+      </c>
+      <c r="AK181">
+        <v>1.7</v>
+      </c>
+      <c r="AL181">
+        <v>1.28</v>
+      </c>
+      <c r="AM181">
+        <v>1.35</v>
+      </c>
+      <c r="AN181">
+        <v>1.4</v>
+      </c>
+      <c r="AO181">
+        <v>1.1</v>
+      </c>
+      <c r="AP181">
+        <v>1.27</v>
+      </c>
+      <c r="AQ181">
+        <v>1.27</v>
+      </c>
+      <c r="AR181">
+        <v>1.48</v>
+      </c>
+      <c r="AS181">
+        <v>1.45</v>
+      </c>
+      <c r="AT181">
+        <v>2.93</v>
+      </c>
+      <c r="AU181">
+        <v>5</v>
+      </c>
+      <c r="AV181">
+        <v>5</v>
+      </c>
+      <c r="AW181">
+        <v>9</v>
+      </c>
+      <c r="AX181">
+        <v>5</v>
+      </c>
+      <c r="AY181">
+        <v>14</v>
+      </c>
+      <c r="AZ181">
+        <v>10</v>
+      </c>
+      <c r="BA181">
+        <v>8</v>
+      </c>
+      <c r="BB181">
+        <v>6</v>
+      </c>
+      <c r="BC181">
+        <v>14</v>
+      </c>
+      <c r="BD181">
+        <v>2.6</v>
+      </c>
+      <c r="BE181">
+        <v>8</v>
+      </c>
+      <c r="BF181">
+        <v>1.62</v>
+      </c>
+      <c r="BG181">
+        <v>1.14</v>
+      </c>
+      <c r="BH181">
+        <v>4.55</v>
+      </c>
+      <c r="BI181">
+        <v>1.3</v>
+      </c>
+      <c r="BJ181">
+        <v>3.08</v>
+      </c>
+      <c r="BK181">
+        <v>1.8</v>
+      </c>
+      <c r="BL181">
+        <v>2</v>
+      </c>
+      <c r="BM181">
+        <v>1.98</v>
+      </c>
+      <c r="BN181">
+        <v>1.82</v>
+      </c>
+      <c r="BO181">
+        <v>2.47</v>
+      </c>
+      <c r="BP181">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:68">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>7347928</v>
+      </c>
+      <c r="C182" t="s">
+        <v>68</v>
+      </c>
+      <c r="D182" t="s">
+        <v>69</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45514.35763888889</v>
+      </c>
+      <c r="F182">
+        <v>22</v>
+      </c>
+      <c r="G182" t="s">
+        <v>84</v>
+      </c>
+      <c r="H182" t="s">
+        <v>83</v>
+      </c>
+      <c r="I182">
+        <v>2</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>2</v>
+      </c>
+      <c r="L182">
+        <v>2</v>
+      </c>
+      <c r="M182">
+        <v>0</v>
+      </c>
+      <c r="N182">
+        <v>2</v>
+      </c>
+      <c r="O182" t="s">
+        <v>208</v>
+      </c>
+      <c r="P182" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q182">
+        <v>2.8</v>
+      </c>
+      <c r="R182">
+        <v>2.25</v>
+      </c>
+      <c r="S182">
+        <v>3.25</v>
+      </c>
+      <c r="T182">
+        <v>1.3</v>
+      </c>
+      <c r="U182">
+        <v>3.25</v>
+      </c>
+      <c r="V182">
+        <v>2.34</v>
+      </c>
+      <c r="W182">
+        <v>1.54</v>
+      </c>
+      <c r="X182">
+        <v>5.45</v>
+      </c>
+      <c r="Y182">
+        <v>1.12</v>
+      </c>
+      <c r="Z182">
+        <v>2.16</v>
+      </c>
+      <c r="AA182">
+        <v>3.93</v>
+      </c>
+      <c r="AB182">
+        <v>2.56</v>
+      </c>
+      <c r="AC182">
+        <v>1.01</v>
+      </c>
+      <c r="AD182">
+        <v>12</v>
+      </c>
+      <c r="AE182">
+        <v>1.18</v>
+      </c>
+      <c r="AF182">
+        <v>4.5</v>
+      </c>
+      <c r="AG182">
+        <v>1.57</v>
+      </c>
+      <c r="AH182">
+        <v>2.25</v>
+      </c>
+      <c r="AI182">
+        <v>1.5</v>
+      </c>
+      <c r="AJ182">
+        <v>2.5</v>
+      </c>
+      <c r="AK182">
+        <v>1.42</v>
+      </c>
+      <c r="AL182">
+        <v>1.22</v>
+      </c>
+      <c r="AM182">
+        <v>1.57</v>
+      </c>
+      <c r="AN182">
+        <v>1.2</v>
+      </c>
+      <c r="AO182">
+        <v>1.5</v>
+      </c>
+      <c r="AP182">
+        <v>1.36</v>
+      </c>
+      <c r="AQ182">
+        <v>1.36</v>
+      </c>
+      <c r="AR182">
+        <v>1.25</v>
+      </c>
+      <c r="AS182">
+        <v>1.23</v>
+      </c>
+      <c r="AT182">
+        <v>2.48</v>
+      </c>
+      <c r="AU182">
+        <v>3</v>
+      </c>
+      <c r="AV182">
+        <v>4</v>
+      </c>
+      <c r="AW182">
+        <v>2</v>
+      </c>
+      <c r="AX182">
+        <v>7</v>
+      </c>
+      <c r="AY182">
+        <v>5</v>
+      </c>
+      <c r="AZ182">
+        <v>11</v>
+      </c>
+      <c r="BA182">
+        <v>3</v>
+      </c>
+      <c r="BB182">
+        <v>9</v>
+      </c>
+      <c r="BC182">
+        <v>12</v>
+      </c>
+      <c r="BD182">
+        <v>1.95</v>
+      </c>
+      <c r="BE182">
+        <v>8</v>
+      </c>
+      <c r="BF182">
+        <v>2.1</v>
+      </c>
+      <c r="BG182">
+        <v>1.3</v>
+      </c>
+      <c r="BH182">
+        <v>3.2</v>
+      </c>
+      <c r="BI182">
+        <v>1.54</v>
+      </c>
+      <c r="BJ182">
+        <v>2.39</v>
+      </c>
+      <c r="BK182">
+        <v>2</v>
+      </c>
+      <c r="BL182">
+        <v>1.73</v>
+      </c>
+      <c r="BM182">
+        <v>2.39</v>
+      </c>
+      <c r="BN182">
+        <v>1.54</v>
+      </c>
+      <c r="BO182">
+        <v>3</v>
+      </c>
+      <c r="BP182">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="183" spans="1:68">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>7347929</v>
+      </c>
+      <c r="C183" t="s">
+        <v>68</v>
+      </c>
+      <c r="D183" t="s">
+        <v>69</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45514.375</v>
+      </c>
+      <c r="F183">
+        <v>22</v>
+      </c>
+      <c r="G183" t="s">
+        <v>79</v>
+      </c>
+      <c r="H183" t="s">
+        <v>81</v>
+      </c>
+      <c r="I183">
+        <v>3</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>3</v>
+      </c>
+      <c r="L183">
+        <v>5</v>
+      </c>
+      <c r="M183">
+        <v>1</v>
+      </c>
+      <c r="N183">
+        <v>6</v>
+      </c>
+      <c r="O183" t="s">
+        <v>209</v>
+      </c>
+      <c r="P183" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q183">
+        <v>1.44</v>
+      </c>
+      <c r="R183">
+        <v>3.2</v>
+      </c>
+      <c r="S183">
+        <v>15</v>
+      </c>
+      <c r="T183">
+        <v>1.22</v>
+      </c>
+      <c r="U183">
+        <v>4</v>
+      </c>
+      <c r="V183">
+        <v>2</v>
+      </c>
+      <c r="W183">
+        <v>1.73</v>
+      </c>
+      <c r="X183">
+        <v>4.33</v>
+      </c>
+      <c r="Y183">
+        <v>1.2</v>
+      </c>
+      <c r="Z183">
+        <v>1.19</v>
+      </c>
+      <c r="AA183">
+        <v>4.77</v>
+      </c>
+      <c r="AB183">
+        <v>19.82</v>
+      </c>
+      <c r="AC183">
+        <v>1.01</v>
+      </c>
+      <c r="AD183">
+        <v>27.5</v>
+      </c>
+      <c r="AE183">
+        <v>1.13</v>
+      </c>
+      <c r="AF183">
+        <v>6.1</v>
+      </c>
+      <c r="AG183">
+        <v>1.4</v>
+      </c>
+      <c r="AH183">
+        <v>2.75</v>
+      </c>
+      <c r="AI183">
+        <v>2.5</v>
+      </c>
+      <c r="AJ183">
+        <v>1.5</v>
+      </c>
+      <c r="AK183">
+        <v>1.03</v>
+      </c>
+      <c r="AL183">
+        <v>1.06</v>
+      </c>
+      <c r="AM183">
+        <v>6.1</v>
+      </c>
+      <c r="AN183">
+        <v>2.6</v>
+      </c>
+      <c r="AO183">
+        <v>0.82</v>
+      </c>
+      <c r="AP183">
+        <v>2.64</v>
+      </c>
+      <c r="AQ183">
+        <v>0.75</v>
+      </c>
+      <c r="AR183">
+        <v>2.21</v>
+      </c>
+      <c r="AS183">
+        <v>1.13</v>
+      </c>
+      <c r="AT183">
+        <v>3.34</v>
+      </c>
+      <c r="AU183">
+        <v>9</v>
+      </c>
+      <c r="AV183">
+        <v>5</v>
+      </c>
+      <c r="AW183">
+        <v>11</v>
+      </c>
+      <c r="AX183">
+        <v>0</v>
+      </c>
+      <c r="AY183">
+        <v>20</v>
+      </c>
+      <c r="AZ183">
+        <v>5</v>
+      </c>
+      <c r="BA183">
+        <v>13</v>
+      </c>
+      <c r="BB183">
+        <v>2</v>
+      </c>
+      <c r="BC183">
+        <v>15</v>
+      </c>
+      <c r="BD183">
+        <v>1.17</v>
+      </c>
+      <c r="BE183">
+        <v>11</v>
+      </c>
+      <c r="BF183">
+        <v>6</v>
+      </c>
+      <c r="BG183">
+        <v>1.22</v>
+      </c>
+      <c r="BH183">
+        <v>4.1</v>
+      </c>
+      <c r="BI183">
+        <v>1.38</v>
+      </c>
+      <c r="BJ183">
+        <v>2.85</v>
+      </c>
+      <c r="BK183">
+        <v>1.73</v>
+      </c>
+      <c r="BL183">
+        <v>2</v>
+      </c>
+      <c r="BM183">
+        <v>2.05</v>
+      </c>
+      <c r="BN183">
+        <v>1.74</v>
+      </c>
+      <c r="BO183">
+        <v>2.6</v>
+      </c>
+      <c r="BP183">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="184" spans="1:68">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>7347931</v>
+      </c>
+      <c r="C184" t="s">
+        <v>68</v>
+      </c>
+      <c r="D184" t="s">
+        <v>69</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45515.35763888889</v>
+      </c>
+      <c r="F184">
+        <v>22</v>
+      </c>
+      <c r="G184" t="s">
+        <v>71</v>
+      </c>
+      <c r="H184" t="s">
+        <v>85</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>1</v>
+      </c>
+      <c r="K184">
+        <v>1</v>
+      </c>
+      <c r="L184">
+        <v>2</v>
+      </c>
+      <c r="M184">
+        <v>2</v>
+      </c>
+      <c r="N184">
+        <v>4</v>
+      </c>
+      <c r="O184" t="s">
+        <v>210</v>
+      </c>
+      <c r="P184" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q184">
+        <v>4</v>
+      </c>
+      <c r="R184">
+        <v>2.4</v>
+      </c>
+      <c r="S184">
+        <v>2.38</v>
+      </c>
+      <c r="T184">
+        <v>1.29</v>
+      </c>
+      <c r="U184">
+        <v>3.5</v>
+      </c>
+      <c r="V184">
+        <v>2.25</v>
+      </c>
+      <c r="W184">
+        <v>1.57</v>
+      </c>
+      <c r="X184">
+        <v>5.5</v>
+      </c>
+      <c r="Y184">
+        <v>1.14</v>
+      </c>
+      <c r="Z184">
+        <v>4.1</v>
+      </c>
+      <c r="AA184">
+        <v>3.95</v>
+      </c>
+      <c r="AB184">
+        <v>1.81</v>
+      </c>
+      <c r="AC184">
+        <v>1.02</v>
+      </c>
+      <c r="AD184">
+        <v>12</v>
+      </c>
+      <c r="AE184">
+        <v>1.18</v>
+      </c>
+      <c r="AF184">
+        <v>4.5</v>
+      </c>
+      <c r="AG184">
+        <v>1.5</v>
+      </c>
+      <c r="AH184">
+        <v>2.3</v>
+      </c>
+      <c r="AI184">
+        <v>1.57</v>
+      </c>
+      <c r="AJ184">
+        <v>2.25</v>
+      </c>
+      <c r="AK184">
+        <v>2</v>
+      </c>
+      <c r="AL184">
+        <v>1.18</v>
+      </c>
+      <c r="AM184">
+        <v>1.18</v>
+      </c>
+      <c r="AN184">
+        <v>0.92</v>
+      </c>
+      <c r="AO184">
+        <v>1.36</v>
+      </c>
+      <c r="AP184">
+        <v>0.92</v>
+      </c>
+      <c r="AQ184">
+        <v>1.33</v>
+      </c>
+      <c r="AR184">
+        <v>1.27</v>
+      </c>
+      <c r="AS184">
+        <v>1.12</v>
+      </c>
+      <c r="AT184">
+        <v>2.39</v>
+      </c>
+      <c r="AU184">
+        <v>-1</v>
+      </c>
+      <c r="AV184">
+        <v>-1</v>
+      </c>
+      <c r="AW184">
+        <v>-1</v>
+      </c>
+      <c r="AX184">
+        <v>-1</v>
+      </c>
+      <c r="AY184">
+        <v>-1</v>
+      </c>
+      <c r="AZ184">
+        <v>-1</v>
+      </c>
+      <c r="BA184">
+        <v>-1</v>
+      </c>
+      <c r="BB184">
+        <v>-1</v>
+      </c>
+      <c r="BC184">
+        <v>-1</v>
+      </c>
+      <c r="BD184">
+        <v>2.75</v>
+      </c>
+      <c r="BE184">
+        <v>8.5</v>
+      </c>
+      <c r="BF184">
+        <v>1.57</v>
+      </c>
+      <c r="BG184">
+        <v>1.3</v>
+      </c>
+      <c r="BH184">
+        <v>3.35</v>
+      </c>
+      <c r="BI184">
+        <v>1.53</v>
+      </c>
+      <c r="BJ184">
+        <v>2.42</v>
+      </c>
+      <c r="BK184">
+        <v>1.88</v>
+      </c>
+      <c r="BL184">
+        <v>1.92</v>
+      </c>
+      <c r="BM184">
+        <v>2.34</v>
+      </c>
+      <c r="BN184">
+        <v>1.56</v>
+      </c>
+      <c r="BO184">
+        <v>3.15</v>
+      </c>
+      <c r="BP184">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="315">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -649,6 +649,9 @@
     <t>['59', '63']</t>
   </si>
   <si>
+    <t>['27', '39', '63']</t>
+  </si>
+  <si>
     <t>['81', '90+3']</t>
   </si>
   <si>
@@ -953,6 +956,9 @@
   </si>
   <si>
     <t>['25', '90+6']</t>
+  </si>
+  <si>
+    <t>['61', '65']</t>
   </si>
 </sst>
 </file>
@@ -1314,7 +1320,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP184"/>
+  <dimension ref="A1:BP185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1573,7 +1579,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1779,7 +1785,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -2269,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ5">
         <v>0.75</v>
@@ -2397,7 +2403,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -3015,7 +3021,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -3633,7 +3639,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -4251,7 +4257,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4663,7 +4669,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4869,7 +4875,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -5075,7 +5081,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5899,7 +5905,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -6105,7 +6111,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6311,7 +6317,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6392,7 +6398,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ25">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR25">
         <v>0.67</v>
@@ -6517,7 +6523,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6723,7 +6729,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -6929,7 +6935,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7135,7 +7141,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -7341,7 +7347,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7753,7 +7759,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7831,7 +7837,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ32">
         <v>1.92</v>
@@ -7959,7 +7965,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q33">
         <v>1.73</v>
@@ -8165,7 +8171,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q34">
         <v>6.4</v>
@@ -8371,7 +8377,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q35">
         <v>1.96</v>
@@ -8577,7 +8583,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q36">
         <v>1.98</v>
@@ -8783,7 +8789,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -8989,7 +8995,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q38">
         <v>3.25</v>
@@ -9482,7 +9488,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ40">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR40">
         <v>1.36</v>
@@ -9813,7 +9819,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -10019,7 +10025,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q43">
         <v>2.3</v>
@@ -10225,7 +10231,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q44">
         <v>4.75</v>
@@ -10509,7 +10515,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ45">
         <v>0.82</v>
@@ -10637,7 +10643,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10843,7 +10849,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -11130,7 +11136,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ48">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR48">
         <v>1.33</v>
@@ -11461,7 +11467,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11667,7 +11673,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11873,7 +11879,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q52">
         <v>1.83</v>
@@ -12285,7 +12291,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q54">
         <v>7.5</v>
@@ -12903,7 +12909,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13109,7 +13115,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q58">
         <v>2.8</v>
@@ -13315,7 +13321,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q59">
         <v>3.15</v>
@@ -13521,7 +13527,7 @@
         <v>106</v>
       </c>
       <c r="P60" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13727,7 +13733,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q61">
         <v>3.11</v>
@@ -14139,7 +14145,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q63">
         <v>2.75</v>
@@ -14835,7 +14841,7 @@
         <v>2.2</v>
       </c>
       <c r="AP66">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ66">
         <v>1.33</v>
@@ -14963,7 +14969,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q67">
         <v>2.38</v>
@@ -15581,7 +15587,7 @@
         <v>90</v>
       </c>
       <c r="P70" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q70">
         <v>5.5</v>
@@ -15787,7 +15793,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q71">
         <v>2.45</v>
@@ -16405,7 +16411,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q74">
         <v>2.65</v>
@@ -16611,7 +16617,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -16898,7 +16904,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ76">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR76">
         <v>2.43</v>
@@ -17023,7 +17029,7 @@
         <v>133</v>
       </c>
       <c r="P77" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17641,7 +17647,7 @@
         <v>90</v>
       </c>
       <c r="P80" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -17847,7 +17853,7 @@
         <v>136</v>
       </c>
       <c r="P81" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -18053,7 +18059,7 @@
         <v>137</v>
       </c>
       <c r="P82" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q82">
         <v>1.91</v>
@@ -18259,7 +18265,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q83">
         <v>1.62</v>
@@ -18543,7 +18549,7 @@
         <v>2.6</v>
       </c>
       <c r="AP84">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ84">
         <v>2.42</v>
@@ -18671,7 +18677,7 @@
         <v>99</v>
       </c>
       <c r="P85" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18877,7 +18883,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q86">
         <v>1.83</v>
@@ -19083,7 +19089,7 @@
         <v>90</v>
       </c>
       <c r="P87" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -19164,7 +19170,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ87">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR87">
         <v>1.16</v>
@@ -19289,7 +19295,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19701,7 +19707,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q90">
         <v>1.61</v>
@@ -19907,7 +19913,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q91">
         <v>1.8</v>
@@ -20113,7 +20119,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q92">
         <v>3.8</v>
@@ -20319,7 +20325,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q93">
         <v>2.55</v>
@@ -20525,7 +20531,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q94">
         <v>4.5</v>
@@ -20731,7 +20737,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q95">
         <v>4.5</v>
@@ -20937,7 +20943,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q96">
         <v>9</v>
@@ -21349,7 +21355,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q98">
         <v>4.63</v>
@@ -21555,7 +21561,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q99">
         <v>2.31</v>
@@ -21761,7 +21767,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21967,7 +21973,7 @@
         <v>151</v>
       </c>
       <c r="P101" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q101">
         <v>2.43</v>
@@ -22173,7 +22179,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -22251,7 +22257,7 @@
         <v>2</v>
       </c>
       <c r="AP102">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ102">
         <v>1.23</v>
@@ -22379,7 +22385,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -22872,7 +22878,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ105">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR105">
         <v>1.91</v>
@@ -23615,7 +23621,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q109">
         <v>1.95</v>
@@ -24233,7 +24239,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q112">
         <v>1.73</v>
@@ -24645,7 +24651,7 @@
         <v>90</v>
       </c>
       <c r="P114" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -24723,7 +24729,7 @@
         <v>2.33</v>
       </c>
       <c r="AP114">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ114">
         <v>2.64</v>
@@ -24851,7 +24857,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -25057,7 +25063,7 @@
         <v>160</v>
       </c>
       <c r="P116" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q116">
         <v>1.95</v>
@@ -25263,7 +25269,7 @@
         <v>161</v>
       </c>
       <c r="P117" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q117">
         <v>3.1</v>
@@ -25469,7 +25475,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q118">
         <v>3.75</v>
@@ -25881,7 +25887,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q120">
         <v>3.6</v>
@@ -26087,7 +26093,7 @@
         <v>163</v>
       </c>
       <c r="P121" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26499,7 +26505,7 @@
         <v>165</v>
       </c>
       <c r="P123" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q123">
         <v>3.6</v>
@@ -26705,7 +26711,7 @@
         <v>166</v>
       </c>
       <c r="P124" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26786,7 +26792,7 @@
         <v>1</v>
       </c>
       <c r="AQ124">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR124">
         <v>1.28</v>
@@ -26911,7 +26917,7 @@
         <v>90</v>
       </c>
       <c r="P125" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -27323,7 +27329,7 @@
         <v>168</v>
       </c>
       <c r="P127" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q127">
         <v>4.75</v>
@@ -27529,7 +27535,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q128">
         <v>5.5</v>
@@ -27941,7 +27947,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q130">
         <v>2.2</v>
@@ -28228,7 +28234,7 @@
         <v>2.83</v>
       </c>
       <c r="AQ131">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR131">
         <v>2.36</v>
@@ -28431,7 +28437,7 @@
         <v>1.38</v>
       </c>
       <c r="AP132">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ132">
         <v>1.09</v>
@@ -28971,7 +28977,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q135">
         <v>3.35</v>
@@ -29589,7 +29595,7 @@
         <v>90</v>
       </c>
       <c r="P138" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q138">
         <v>5.25</v>
@@ -29795,7 +29801,7 @@
         <v>177</v>
       </c>
       <c r="P139" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q139">
         <v>2.32</v>
@@ -29873,7 +29879,7 @@
         <v>1</v>
       </c>
       <c r="AP139">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ139">
         <v>0.75</v>
@@ -30207,7 +30213,7 @@
         <v>134</v>
       </c>
       <c r="P141" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q141">
         <v>3.81</v>
@@ -30413,7 +30419,7 @@
         <v>90</v>
       </c>
       <c r="P142" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q142">
         <v>7</v>
@@ -30619,7 +30625,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q143">
         <v>2.2</v>
@@ -31443,7 +31449,7 @@
         <v>182</v>
       </c>
       <c r="P147" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q147">
         <v>1.71</v>
@@ -31649,7 +31655,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q148">
         <v>1.93</v>
@@ -31855,7 +31861,7 @@
         <v>184</v>
       </c>
       <c r="P149" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q149">
         <v>5.66</v>
@@ -31936,7 +31942,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ149">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR149">
         <v>1.16</v>
@@ -32267,7 +32273,7 @@
         <v>185</v>
       </c>
       <c r="P151" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q151">
         <v>2.98</v>
@@ -32473,7 +32479,7 @@
         <v>186</v>
       </c>
       <c r="P152" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q152">
         <v>1.62</v>
@@ -33091,7 +33097,7 @@
         <v>188</v>
       </c>
       <c r="P155" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q155">
         <v>2.38</v>
@@ -33297,7 +33303,7 @@
         <v>90</v>
       </c>
       <c r="P156" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q156">
         <v>4.75</v>
@@ -33503,7 +33509,7 @@
         <v>189</v>
       </c>
       <c r="P157" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q157">
         <v>2.88</v>
@@ -34202,7 +34208,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ160">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR160">
         <v>1.59</v>
@@ -34327,7 +34333,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q161">
         <v>9</v>
@@ -35229,7 +35235,7 @@
         <v>0.78</v>
       </c>
       <c r="AP165">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ165">
         <v>0.7</v>
@@ -35357,7 +35363,7 @@
         <v>197</v>
       </c>
       <c r="P166" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q166">
         <v>3.5</v>
@@ -35563,7 +35569,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -35975,7 +35981,7 @@
         <v>90</v>
       </c>
       <c r="P169" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q169">
         <v>5.5</v>
@@ -36387,7 +36393,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q171">
         <v>1.75</v>
@@ -36593,7 +36599,7 @@
         <v>90</v>
       </c>
       <c r="P172" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q172">
         <v>4.4</v>
@@ -36799,7 +36805,7 @@
         <v>202</v>
       </c>
       <c r="P173" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q173">
         <v>3.5</v>
@@ -37623,7 +37629,7 @@
         <v>97</v>
       </c>
       <c r="P177" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q177">
         <v>5</v>
@@ -37829,7 +37835,7 @@
         <v>206</v>
       </c>
       <c r="P178" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q178">
         <v>1.36</v>
@@ -38035,7 +38041,7 @@
         <v>90</v>
       </c>
       <c r="P179" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q179">
         <v>6.28</v>
@@ -38241,7 +38247,7 @@
         <v>207</v>
       </c>
       <c r="P180" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q180">
         <v>4.8</v>
@@ -38447,7 +38453,7 @@
         <v>90</v>
       </c>
       <c r="P181" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q181">
         <v>3.5</v>
@@ -38764,13 +38770,13 @@
         <v>11</v>
       </c>
       <c r="BA182">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB182">
         <v>9</v>
       </c>
       <c r="BC182">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD182">
         <v>1.95</v>
@@ -38859,7 +38865,7 @@
         <v>209</v>
       </c>
       <c r="P183" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q183">
         <v>1.44</v>
@@ -39065,7 +39071,7 @@
         <v>210</v>
       </c>
       <c r="P184" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q184">
         <v>4</v>
@@ -39222,6 +39228,212 @@
       </c>
       <c r="BP184">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="185" spans="1:68">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>7347932</v>
+      </c>
+      <c r="C185" t="s">
+        <v>68</v>
+      </c>
+      <c r="D185" t="s">
+        <v>69</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45515.375</v>
+      </c>
+      <c r="F185">
+        <v>22</v>
+      </c>
+      <c r="G185" t="s">
+        <v>73</v>
+      </c>
+      <c r="H185" t="s">
+        <v>76</v>
+      </c>
+      <c r="I185">
+        <v>2</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>2</v>
+      </c>
+      <c r="L185">
+        <v>3</v>
+      </c>
+      <c r="M185">
+        <v>2</v>
+      </c>
+      <c r="N185">
+        <v>5</v>
+      </c>
+      <c r="O185" t="s">
+        <v>211</v>
+      </c>
+      <c r="P185" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q185">
+        <v>2.75</v>
+      </c>
+      <c r="R185">
+        <v>2.5</v>
+      </c>
+      <c r="S185">
+        <v>3.1</v>
+      </c>
+      <c r="T185">
+        <v>1.22</v>
+      </c>
+      <c r="U185">
+        <v>4</v>
+      </c>
+      <c r="V185">
+        <v>2.1</v>
+      </c>
+      <c r="W185">
+        <v>1.67</v>
+      </c>
+      <c r="X185">
+        <v>4.5</v>
+      </c>
+      <c r="Y185">
+        <v>1.18</v>
+      </c>
+      <c r="Z185">
+        <v>2.36</v>
+      </c>
+      <c r="AA185">
+        <v>3.6</v>
+      </c>
+      <c r="AB185">
+        <v>2.85</v>
+      </c>
+      <c r="AC185">
+        <v>1.02</v>
+      </c>
+      <c r="AD185">
+        <v>23.5</v>
+      </c>
+      <c r="AE185">
+        <v>1.11</v>
+      </c>
+      <c r="AF185">
+        <v>5.5</v>
+      </c>
+      <c r="AG185">
+        <v>1.5</v>
+      </c>
+      <c r="AH185">
+        <v>2.31</v>
+      </c>
+      <c r="AI185">
+        <v>1.4</v>
+      </c>
+      <c r="AJ185">
+        <v>2.75</v>
+      </c>
+      <c r="AK185">
+        <v>1.44</v>
+      </c>
+      <c r="AL185">
+        <v>1.22</v>
+      </c>
+      <c r="AM185">
+        <v>1.57</v>
+      </c>
+      <c r="AN185">
+        <v>1.1</v>
+      </c>
+      <c r="AO185">
+        <v>0.6</v>
+      </c>
+      <c r="AP185">
+        <v>1.27</v>
+      </c>
+      <c r="AQ185">
+        <v>0.55</v>
+      </c>
+      <c r="AR185">
+        <v>1.65</v>
+      </c>
+      <c r="AS185">
+        <v>1.77</v>
+      </c>
+      <c r="AT185">
+        <v>3.42</v>
+      </c>
+      <c r="AU185">
+        <v>-1</v>
+      </c>
+      <c r="AV185">
+        <v>-1</v>
+      </c>
+      <c r="AW185">
+        <v>-1</v>
+      </c>
+      <c r="AX185">
+        <v>-1</v>
+      </c>
+      <c r="AY185">
+        <v>-1</v>
+      </c>
+      <c r="AZ185">
+        <v>-1</v>
+      </c>
+      <c r="BA185">
+        <v>-1</v>
+      </c>
+      <c r="BB185">
+        <v>-1</v>
+      </c>
+      <c r="BC185">
+        <v>-1</v>
+      </c>
+      <c r="BD185">
+        <v>1.8</v>
+      </c>
+      <c r="BE185">
+        <v>8</v>
+      </c>
+      <c r="BF185">
+        <v>2.3</v>
+      </c>
+      <c r="BG185">
+        <v>1.13</v>
+      </c>
+      <c r="BH185">
+        <v>4.85</v>
+      </c>
+      <c r="BI185">
+        <v>1.28</v>
+      </c>
+      <c r="BJ185">
+        <v>3.2</v>
+      </c>
+      <c r="BK185">
+        <v>1.53</v>
+      </c>
+      <c r="BL185">
+        <v>2.4</v>
+      </c>
+      <c r="BM185">
+        <v>1.9</v>
+      </c>
+      <c r="BN185">
+        <v>1.9</v>
+      </c>
+      <c r="BO185">
+        <v>2.33</v>
+      </c>
+      <c r="BP185">
+        <v>1.57</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -39164,31 +39164,31 @@
         <v>2.39</v>
       </c>
       <c r="AU184">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AV184">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW184">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AX184">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY184">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AZ184">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BA184">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BB184">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC184">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BD184">
         <v>2.75</v>
@@ -39370,31 +39370,31 @@
         <v>3.42</v>
       </c>
       <c r="AU185">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV185">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AW185">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AX185">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AY185">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AZ185">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BA185">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BB185">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BC185">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD185">
         <v>1.8</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="317">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -652,6 +652,9 @@
     <t>['27', '39', '63']</t>
   </si>
   <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
     <t>['81', '90+3']</t>
   </si>
   <si>
@@ -740,9 +743,6 @@
   </si>
   <si>
     <t>['13', '54']</t>
-  </si>
-  <si>
-    <t>['90+5']</t>
   </si>
   <si>
     <t>['26']</t>
@@ -959,6 +959,12 @@
   </si>
   <si>
     <t>['61', '65']</t>
+  </si>
+  <si>
+    <t>['17', '90+1']</t>
+  </si>
+  <si>
+    <t>['16', '69', '75']</t>
   </si>
 </sst>
 </file>
@@ -1320,7 +1326,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP185"/>
+  <dimension ref="A1:BP189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1579,7 +1585,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1785,7 +1791,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -2072,7 +2078,7 @@
         <v>2.83</v>
       </c>
       <c r="AQ4">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2275,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ5">
         <v>0.75</v>
@@ -2403,7 +2409,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -3021,7 +3027,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -3514,7 +3520,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ11">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3639,7 +3645,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -3717,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ12">
         <v>0.82</v>
@@ -4257,7 +4263,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4335,10 +4341,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AQ15">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4669,7 +4675,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4875,7 +4881,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4956,7 +4962,7 @@
         <v>1</v>
       </c>
       <c r="AQ18">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR18">
         <v>1.67</v>
@@ -5081,7 +5087,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5905,7 +5911,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -6111,7 +6117,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6317,7 +6323,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6398,7 +6404,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ25">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AR25">
         <v>0.67</v>
@@ -6523,7 +6529,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6604,7 +6610,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ26">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR26">
         <v>0.87</v>
@@ -6729,7 +6735,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -6935,7 +6941,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7013,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ28">
         <v>1.09</v>
@@ -7141,7 +7147,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -7347,7 +7353,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7425,7 +7431,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ30">
         <v>2.64</v>
@@ -7631,7 +7637,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AQ31">
         <v>0.82</v>
@@ -7759,7 +7765,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7837,7 +7843,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ32">
         <v>1.92</v>
@@ -7965,7 +7971,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q33">
         <v>1.73</v>
@@ -8046,7 +8052,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ33">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR33">
         <v>0.79</v>
@@ -8171,7 +8177,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q34">
         <v>6.4</v>
@@ -8249,7 +8255,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AQ34">
         <v>2.64</v>
@@ -8377,7 +8383,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q35">
         <v>1.96</v>
@@ -8583,7 +8589,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q36">
         <v>1.98</v>
@@ -8661,7 +8667,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ36">
         <v>1.09</v>
@@ -8789,7 +8795,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -8870,7 +8876,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ37">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR37">
         <v>2.37</v>
@@ -8995,7 +9001,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q38">
         <v>3.25</v>
@@ -9488,7 +9494,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ40">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AR40">
         <v>1.36</v>
@@ -9819,7 +9825,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9897,7 +9903,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ42">
         <v>0.75</v>
@@ -10025,7 +10031,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q43">
         <v>2.3</v>
@@ -10231,7 +10237,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q44">
         <v>4.75</v>
@@ -10515,7 +10521,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ45">
         <v>0.82</v>
@@ -10643,7 +10649,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10849,7 +10855,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10930,7 +10936,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ47">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR47">
         <v>1.03</v>
@@ -11136,7 +11142,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ48">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AR48">
         <v>1.33</v>
@@ -11342,7 +11348,7 @@
         <v>1</v>
       </c>
       <c r="AQ49">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR49">
         <v>1.41</v>
@@ -11467,7 +11473,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11673,7 +11679,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11754,7 +11760,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ51">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR51">
         <v>1.89</v>
@@ -12369,7 +12375,7 @@
         <v>3</v>
       </c>
       <c r="AP54">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AQ54">
         <v>2.42</v>
@@ -12575,7 +12581,7 @@
         <v>0.33</v>
       </c>
       <c r="AP55">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ55">
         <v>0.67</v>
@@ -12781,10 +12787,10 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ56">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR56">
         <v>1.29</v>
@@ -14841,7 +14847,7 @@
         <v>2.2</v>
       </c>
       <c r="AP66">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ66">
         <v>1.33</v>
@@ -15256,7 +15262,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ68">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR68">
         <v>1.05</v>
@@ -15874,7 +15880,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ71">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR71">
         <v>1.59</v>
@@ -16080,7 +16086,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ72">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR72">
         <v>2.16</v>
@@ -16489,7 +16495,7 @@
         <v>1.8</v>
       </c>
       <c r="AP74">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ74">
         <v>1.33</v>
@@ -16695,7 +16701,7 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AQ75">
         <v>0.75</v>
@@ -16904,7 +16910,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ76">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AR76">
         <v>2.43</v>
@@ -17110,7 +17116,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ77">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR77">
         <v>1.1</v>
@@ -17519,7 +17525,7 @@
         <v>2</v>
       </c>
       <c r="AP79">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ79">
         <v>1.92</v>
@@ -18549,7 +18555,7 @@
         <v>2.6</v>
       </c>
       <c r="AP84">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ84">
         <v>2.42</v>
@@ -18961,7 +18967,7 @@
         <v>1.25</v>
       </c>
       <c r="AP86">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ86">
         <v>0.82</v>
@@ -19170,7 +19176,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ87">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AR87">
         <v>1.16</v>
@@ -19376,7 +19382,7 @@
         <v>1</v>
       </c>
       <c r="AQ88">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR88">
         <v>1.33</v>
@@ -20403,10 +20409,10 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ93">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR93">
         <v>1.57</v>
@@ -21355,7 +21361,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q98">
         <v>4.63</v>
@@ -21642,7 +21648,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ99">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR99">
         <v>1.77</v>
@@ -21845,7 +21851,7 @@
         <v>2.33</v>
       </c>
       <c r="AP100">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ100">
         <v>2.42</v>
@@ -21973,7 +21979,7 @@
         <v>151</v>
       </c>
       <c r="P101" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q101">
         <v>2.43</v>
@@ -22051,10 +22057,10 @@
         <v>1</v>
       </c>
       <c r="AP101">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AQ101">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR101">
         <v>1.06</v>
@@ -22179,7 +22185,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -22257,7 +22263,7 @@
         <v>2</v>
       </c>
       <c r="AP102">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ102">
         <v>1.23</v>
@@ -22878,7 +22884,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ105">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AR105">
         <v>1.91</v>
@@ -23699,7 +23705,7 @@
         <v>0.86</v>
       </c>
       <c r="AP109">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ109">
         <v>0.75</v>
@@ -24114,7 +24120,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ111">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR111">
         <v>1.64</v>
@@ -24320,7 +24326,7 @@
         <v>2.83</v>
       </c>
       <c r="AQ112">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR112">
         <v>1.97</v>
@@ -24729,7 +24735,7 @@
         <v>2.33</v>
       </c>
       <c r="AP114">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ114">
         <v>2.64</v>
@@ -24935,7 +24941,7 @@
         <v>1.14</v>
       </c>
       <c r="AP115">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AQ115">
         <v>1.09</v>
@@ -25347,7 +25353,7 @@
         <v>1.88</v>
       </c>
       <c r="AP117">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ117">
         <v>1.33</v>
@@ -25968,7 +25974,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ120">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR120">
         <v>1.17</v>
@@ -26377,10 +26383,10 @@
         <v>1</v>
       </c>
       <c r="AP122">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ122">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR122">
         <v>1.65</v>
@@ -26505,7 +26511,7 @@
         <v>165</v>
       </c>
       <c r="P123" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="Q123">
         <v>3.6</v>
@@ -26583,7 +26589,7 @@
         <v>1.88</v>
       </c>
       <c r="AP123">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AQ123">
         <v>1.33</v>
@@ -26792,7 +26798,7 @@
         <v>1</v>
       </c>
       <c r="AQ124">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AR124">
         <v>1.28</v>
@@ -27819,10 +27825,10 @@
         <v>0.86</v>
       </c>
       <c r="AP129">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ129">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR129">
         <v>1.86</v>
@@ -28234,7 +28240,7 @@
         <v>2.83</v>
       </c>
       <c r="AQ131">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AR131">
         <v>2.36</v>
@@ -28437,7 +28443,7 @@
         <v>1.38</v>
       </c>
       <c r="AP132">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ132">
         <v>1.09</v>
@@ -29264,7 +29270,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ136">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR136">
         <v>1.73</v>
@@ -29467,7 +29473,7 @@
         <v>1.63</v>
       </c>
       <c r="AP137">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ137">
         <v>1.23</v>
@@ -29595,7 +29601,7 @@
         <v>90</v>
       </c>
       <c r="P138" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q138">
         <v>5.25</v>
@@ -29673,7 +29679,7 @@
         <v>2.56</v>
       </c>
       <c r="AP138">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ138">
         <v>2.64</v>
@@ -29879,7 +29885,7 @@
         <v>1</v>
       </c>
       <c r="AP139">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ139">
         <v>0.75</v>
@@ -30497,7 +30503,7 @@
         <v>1.63</v>
       </c>
       <c r="AP142">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AQ142">
         <v>1.92</v>
@@ -30703,10 +30709,10 @@
         <v>1.38</v>
       </c>
       <c r="AP143">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ143">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR143">
         <v>1.75</v>
@@ -30912,7 +30918,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ144">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR144">
         <v>1.4</v>
@@ -31324,7 +31330,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ146">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR146">
         <v>1.03</v>
@@ -31942,7 +31948,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ149">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AR149">
         <v>1.16</v>
@@ -33381,7 +33387,7 @@
         <v>1.3</v>
       </c>
       <c r="AP156">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AQ156">
         <v>1.23</v>
@@ -33509,7 +33515,7 @@
         <v>189</v>
       </c>
       <c r="P157" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q157">
         <v>2.88</v>
@@ -33793,7 +33799,7 @@
         <v>1.6</v>
       </c>
       <c r="AP158">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ158">
         <v>1.33</v>
@@ -34205,10 +34211,10 @@
         <v>0.67</v>
       </c>
       <c r="AP160">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ160">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AR160">
         <v>1.59</v>
@@ -35032,7 +35038,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ164">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR164">
         <v>1.21</v>
@@ -35235,10 +35241,10 @@
         <v>0.78</v>
       </c>
       <c r="AP165">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ165">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR165">
         <v>1.66</v>
@@ -35853,7 +35859,7 @@
         <v>1.45</v>
       </c>
       <c r="AP168">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ168">
         <v>1.23</v>
@@ -36268,7 +36274,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ170">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR170">
         <v>1.28</v>
@@ -37501,7 +37507,7 @@
         <v>2.64</v>
       </c>
       <c r="AP176">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ176">
         <v>2.42</v>
@@ -37707,7 +37713,7 @@
         <v>1.11</v>
       </c>
       <c r="AP177">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AQ177">
         <v>1.27</v>
@@ -38740,7 +38746,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ182">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR182">
         <v>1.25</v>
@@ -39355,10 +39361,10 @@
         <v>0.6</v>
       </c>
       <c r="AP185">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ185">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AR185">
         <v>1.65</v>
@@ -39434,6 +39440,830 @@
       </c>
       <c r="BP185">
         <v>1.57</v>
+      </c>
+    </row>
+    <row r="186" spans="1:68">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>7347933</v>
+      </c>
+      <c r="C186" t="s">
+        <v>68</v>
+      </c>
+      <c r="D186" t="s">
+        <v>69</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45520.33333333334</v>
+      </c>
+      <c r="F186">
+        <v>23</v>
+      </c>
+      <c r="G186" t="s">
+        <v>80</v>
+      </c>
+      <c r="H186" t="s">
+        <v>74</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>1</v>
+      </c>
+      <c r="K186">
+        <v>1</v>
+      </c>
+      <c r="L186">
+        <v>0</v>
+      </c>
+      <c r="M186">
+        <v>2</v>
+      </c>
+      <c r="N186">
+        <v>2</v>
+      </c>
+      <c r="O186" t="s">
+        <v>90</v>
+      </c>
+      <c r="P186" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q186">
+        <v>2.25</v>
+      </c>
+      <c r="R186">
+        <v>2.3</v>
+      </c>
+      <c r="S186">
+        <v>4.25</v>
+      </c>
+      <c r="T186">
+        <v>1.3</v>
+      </c>
+      <c r="U186">
+        <v>3.25</v>
+      </c>
+      <c r="V186">
+        <v>2.4</v>
+      </c>
+      <c r="W186">
+        <v>1.52</v>
+      </c>
+      <c r="X186">
+        <v>5.25</v>
+      </c>
+      <c r="Y186">
+        <v>1.12</v>
+      </c>
+      <c r="Z186">
+        <v>1.75</v>
+      </c>
+      <c r="AA186">
+        <v>3.81</v>
+      </c>
+      <c r="AB186">
+        <v>4.2</v>
+      </c>
+      <c r="AC186">
+        <v>1.03</v>
+      </c>
+      <c r="AD186">
+        <v>16.5</v>
+      </c>
+      <c r="AE186">
+        <v>1.21</v>
+      </c>
+      <c r="AF186">
+        <v>4.48</v>
+      </c>
+      <c r="AG186">
+        <v>1.66</v>
+      </c>
+      <c r="AH186">
+        <v>2.24</v>
+      </c>
+      <c r="AI186">
+        <v>1.62</v>
+      </c>
+      <c r="AJ186">
+        <v>2.15</v>
+      </c>
+      <c r="AK186">
+        <v>1.25</v>
+      </c>
+      <c r="AL186">
+        <v>1.25</v>
+      </c>
+      <c r="AM186">
+        <v>2</v>
+      </c>
+      <c r="AN186">
+        <v>1.42</v>
+      </c>
+      <c r="AO186">
+        <v>0.64</v>
+      </c>
+      <c r="AP186">
+        <v>1.31</v>
+      </c>
+      <c r="AQ186">
+        <v>0.83</v>
+      </c>
+      <c r="AR186">
+        <v>1.53</v>
+      </c>
+      <c r="AS186">
+        <v>0.98</v>
+      </c>
+      <c r="AT186">
+        <v>2.51</v>
+      </c>
+      <c r="AU186">
+        <v>5</v>
+      </c>
+      <c r="AV186">
+        <v>3</v>
+      </c>
+      <c r="AW186">
+        <v>8</v>
+      </c>
+      <c r="AX186">
+        <v>3</v>
+      </c>
+      <c r="AY186">
+        <v>13</v>
+      </c>
+      <c r="AZ186">
+        <v>6</v>
+      </c>
+      <c r="BA186">
+        <v>8</v>
+      </c>
+      <c r="BB186">
+        <v>0</v>
+      </c>
+      <c r="BC186">
+        <v>8</v>
+      </c>
+      <c r="BD186">
+        <v>1.36</v>
+      </c>
+      <c r="BE186">
+        <v>9</v>
+      </c>
+      <c r="BF186">
+        <v>3.5</v>
+      </c>
+      <c r="BG186">
+        <v>1.18</v>
+      </c>
+      <c r="BH186">
+        <v>4.15</v>
+      </c>
+      <c r="BI186">
+        <v>1.35</v>
+      </c>
+      <c r="BJ186">
+        <v>2.84</v>
+      </c>
+      <c r="BK186">
+        <v>1.7</v>
+      </c>
+      <c r="BL186">
+        <v>2.05</v>
+      </c>
+      <c r="BM186">
+        <v>2.06</v>
+      </c>
+      <c r="BN186">
+        <v>1.68</v>
+      </c>
+      <c r="BO186">
+        <v>2.67</v>
+      </c>
+      <c r="BP186">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="187" spans="1:68">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>7347934</v>
+      </c>
+      <c r="C187" t="s">
+        <v>68</v>
+      </c>
+      <c r="D187" t="s">
+        <v>69</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45520.35763888889</v>
+      </c>
+      <c r="F187">
+        <v>23</v>
+      </c>
+      <c r="G187" t="s">
+        <v>73</v>
+      </c>
+      <c r="H187" t="s">
+        <v>83</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>1</v>
+      </c>
+      <c r="M187">
+        <v>0</v>
+      </c>
+      <c r="N187">
+        <v>1</v>
+      </c>
+      <c r="O187" t="s">
+        <v>212</v>
+      </c>
+      <c r="P187" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q187">
+        <v>2.65</v>
+      </c>
+      <c r="R187">
+        <v>2.2</v>
+      </c>
+      <c r="S187">
+        <v>3.5</v>
+      </c>
+      <c r="T187">
+        <v>1.32</v>
+      </c>
+      <c r="U187">
+        <v>3.1</v>
+      </c>
+      <c r="V187">
+        <v>2.5</v>
+      </c>
+      <c r="W187">
+        <v>1.48</v>
+      </c>
+      <c r="X187">
+        <v>5.5</v>
+      </c>
+      <c r="Y187">
+        <v>1.11</v>
+      </c>
+      <c r="Z187">
+        <v>1.98</v>
+      </c>
+      <c r="AA187">
+        <v>3.2</v>
+      </c>
+      <c r="AB187">
+        <v>2.98</v>
+      </c>
+      <c r="AC187">
+        <v>1.04</v>
+      </c>
+      <c r="AD187">
+        <v>15</v>
+      </c>
+      <c r="AE187">
+        <v>1.23</v>
+      </c>
+      <c r="AF187">
+        <v>4.25</v>
+      </c>
+      <c r="AG187">
+        <v>1.65</v>
+      </c>
+      <c r="AH187">
+        <v>2.02</v>
+      </c>
+      <c r="AI187">
+        <v>1.58</v>
+      </c>
+      <c r="AJ187">
+        <v>2.2</v>
+      </c>
+      <c r="AK187">
+        <v>1.38</v>
+      </c>
+      <c r="AL187">
+        <v>1.3</v>
+      </c>
+      <c r="AM187">
+        <v>1.68</v>
+      </c>
+      <c r="AN187">
+        <v>1.27</v>
+      </c>
+      <c r="AO187">
+        <v>1.36</v>
+      </c>
+      <c r="AP187">
+        <v>1.42</v>
+      </c>
+      <c r="AQ187">
+        <v>1.25</v>
+      </c>
+      <c r="AR187">
+        <v>1.61</v>
+      </c>
+      <c r="AS187">
+        <v>1.26</v>
+      </c>
+      <c r="AT187">
+        <v>2.87</v>
+      </c>
+      <c r="AU187">
+        <v>6</v>
+      </c>
+      <c r="AV187">
+        <v>7</v>
+      </c>
+      <c r="AW187">
+        <v>6</v>
+      </c>
+      <c r="AX187">
+        <v>1</v>
+      </c>
+      <c r="AY187">
+        <v>12</v>
+      </c>
+      <c r="AZ187">
+        <v>8</v>
+      </c>
+      <c r="BA187">
+        <v>3</v>
+      </c>
+      <c r="BB187">
+        <v>7</v>
+      </c>
+      <c r="BC187">
+        <v>10</v>
+      </c>
+      <c r="BD187">
+        <v>1.67</v>
+      </c>
+      <c r="BE187">
+        <v>8</v>
+      </c>
+      <c r="BF187">
+        <v>2.6</v>
+      </c>
+      <c r="BG187">
+        <v>1.18</v>
+      </c>
+      <c r="BH187">
+        <v>4.1</v>
+      </c>
+      <c r="BI187">
+        <v>1.36</v>
+      </c>
+      <c r="BJ187">
+        <v>2.79</v>
+      </c>
+      <c r="BK187">
+        <v>1.8</v>
+      </c>
+      <c r="BL187">
+        <v>2</v>
+      </c>
+      <c r="BM187">
+        <v>2.08</v>
+      </c>
+      <c r="BN187">
+        <v>1.67</v>
+      </c>
+      <c r="BO187">
+        <v>2.71</v>
+      </c>
+      <c r="BP187">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="188" spans="1:68">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>7347936</v>
+      </c>
+      <c r="C188" t="s">
+        <v>68</v>
+      </c>
+      <c r="D188" t="s">
+        <v>69</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45520.375</v>
+      </c>
+      <c r="F188">
+        <v>23</v>
+      </c>
+      <c r="G188" t="s">
+        <v>85</v>
+      </c>
+      <c r="H188" t="s">
+        <v>76</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+      <c r="L188">
+        <v>0</v>
+      </c>
+      <c r="M188">
+        <v>0</v>
+      </c>
+      <c r="N188">
+        <v>0</v>
+      </c>
+      <c r="O188" t="s">
+        <v>90</v>
+      </c>
+      <c r="P188" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q188">
+        <v>2.1</v>
+      </c>
+      <c r="R188">
+        <v>2.6</v>
+      </c>
+      <c r="S188">
+        <v>4.1</v>
+      </c>
+      <c r="T188">
+        <v>1.2</v>
+      </c>
+      <c r="U188">
+        <v>4.25</v>
+      </c>
+      <c r="V188">
+        <v>1.95</v>
+      </c>
+      <c r="W188">
+        <v>1.78</v>
+      </c>
+      <c r="X188">
+        <v>3.9</v>
+      </c>
+      <c r="Y188">
+        <v>1.22</v>
+      </c>
+      <c r="Z188">
+        <v>1.6</v>
+      </c>
+      <c r="AA188">
+        <v>3.73</v>
+      </c>
+      <c r="AB188">
+        <v>3.52</v>
+      </c>
+      <c r="AC188">
+        <v>1.01</v>
+      </c>
+      <c r="AD188">
+        <v>27.5</v>
+      </c>
+      <c r="AE188">
+        <v>1.11</v>
+      </c>
+      <c r="AF188">
+        <v>7</v>
+      </c>
+      <c r="AG188">
+        <v>1.3</v>
+      </c>
+      <c r="AH188">
+        <v>3.05</v>
+      </c>
+      <c r="AI188">
+        <v>1.4</v>
+      </c>
+      <c r="AJ188">
+        <v>2.75</v>
+      </c>
+      <c r="AK188">
+        <v>1.23</v>
+      </c>
+      <c r="AL188">
+        <v>1.25</v>
+      </c>
+      <c r="AM188">
+        <v>2.05</v>
+      </c>
+      <c r="AN188">
+        <v>2.27</v>
+      </c>
+      <c r="AO188">
+        <v>0.55</v>
+      </c>
+      <c r="AP188">
+        <v>2.17</v>
+      </c>
+      <c r="AQ188">
+        <v>0.58</v>
+      </c>
+      <c r="AR188">
+        <v>1.79</v>
+      </c>
+      <c r="AS188">
+        <v>1.77</v>
+      </c>
+      <c r="AT188">
+        <v>3.56</v>
+      </c>
+      <c r="AU188">
+        <v>5</v>
+      </c>
+      <c r="AV188">
+        <v>6</v>
+      </c>
+      <c r="AW188">
+        <v>5</v>
+      </c>
+      <c r="AX188">
+        <v>5</v>
+      </c>
+      <c r="AY188">
+        <v>10</v>
+      </c>
+      <c r="AZ188">
+        <v>11</v>
+      </c>
+      <c r="BA188">
+        <v>5</v>
+      </c>
+      <c r="BB188">
+        <v>3</v>
+      </c>
+      <c r="BC188">
+        <v>8</v>
+      </c>
+      <c r="BD188">
+        <v>1.53</v>
+      </c>
+      <c r="BE188">
+        <v>9</v>
+      </c>
+      <c r="BF188">
+        <v>2.88</v>
+      </c>
+      <c r="BG188">
+        <v>1.13</v>
+      </c>
+      <c r="BH188">
+        <v>4.9</v>
+      </c>
+      <c r="BI188">
+        <v>1.27</v>
+      </c>
+      <c r="BJ188">
+        <v>3.28</v>
+      </c>
+      <c r="BK188">
+        <v>1.49</v>
+      </c>
+      <c r="BL188">
+        <v>2.38</v>
+      </c>
+      <c r="BM188">
+        <v>1.92</v>
+      </c>
+      <c r="BN188">
+        <v>1.88</v>
+      </c>
+      <c r="BO188">
+        <v>2.32</v>
+      </c>
+      <c r="BP188">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="189" spans="1:68">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>7347935</v>
+      </c>
+      <c r="C189" t="s">
+        <v>68</v>
+      </c>
+      <c r="D189" t="s">
+        <v>69</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45520.375</v>
+      </c>
+      <c r="F189">
+        <v>23</v>
+      </c>
+      <c r="G189" t="s">
+        <v>81</v>
+      </c>
+      <c r="H189" t="s">
+        <v>71</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>1</v>
+      </c>
+      <c r="K189">
+        <v>1</v>
+      </c>
+      <c r="L189">
+        <v>0</v>
+      </c>
+      <c r="M189">
+        <v>3</v>
+      </c>
+      <c r="N189">
+        <v>3</v>
+      </c>
+      <c r="O189" t="s">
+        <v>90</v>
+      </c>
+      <c r="P189" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q189">
+        <v>3.1</v>
+      </c>
+      <c r="R189">
+        <v>2.3</v>
+      </c>
+      <c r="S189">
+        <v>3</v>
+      </c>
+      <c r="T189">
+        <v>1.3</v>
+      </c>
+      <c r="U189">
+        <v>3.4</v>
+      </c>
+      <c r="V189">
+        <v>2.5</v>
+      </c>
+      <c r="W189">
+        <v>1.5</v>
+      </c>
+      <c r="X189">
+        <v>6</v>
+      </c>
+      <c r="Y189">
+        <v>1.13</v>
+      </c>
+      <c r="Z189">
+        <v>2.39</v>
+      </c>
+      <c r="AA189">
+        <v>3.08</v>
+      </c>
+      <c r="AB189">
+        <v>2.28</v>
+      </c>
+      <c r="AC189">
+        <v>1.04</v>
+      </c>
+      <c r="AD189">
+        <v>9</v>
+      </c>
+      <c r="AE189">
+        <v>1.2</v>
+      </c>
+      <c r="AF189">
+        <v>4.2</v>
+      </c>
+      <c r="AG189">
+        <v>1.55</v>
+      </c>
+      <c r="AH189">
+        <v>2.2</v>
+      </c>
+      <c r="AI189">
+        <v>1.53</v>
+      </c>
+      <c r="AJ189">
+        <v>2.38</v>
+      </c>
+      <c r="AK189">
+        <v>1.5</v>
+      </c>
+      <c r="AL189">
+        <v>1.25</v>
+      </c>
+      <c r="AM189">
+        <v>1.45</v>
+      </c>
+      <c r="AN189">
+        <v>0.55</v>
+      </c>
+      <c r="AO189">
+        <v>0.7</v>
+      </c>
+      <c r="AP189">
+        <v>0.5</v>
+      </c>
+      <c r="AQ189">
+        <v>0.91</v>
+      </c>
+      <c r="AR189">
+        <v>1.24</v>
+      </c>
+      <c r="AS189">
+        <v>1.2</v>
+      </c>
+      <c r="AT189">
+        <v>2.44</v>
+      </c>
+      <c r="AU189">
+        <v>4</v>
+      </c>
+      <c r="AV189">
+        <v>7</v>
+      </c>
+      <c r="AW189">
+        <v>8</v>
+      </c>
+      <c r="AX189">
+        <v>4</v>
+      </c>
+      <c r="AY189">
+        <v>12</v>
+      </c>
+      <c r="AZ189">
+        <v>11</v>
+      </c>
+      <c r="BA189">
+        <v>4</v>
+      </c>
+      <c r="BB189">
+        <v>4</v>
+      </c>
+      <c r="BC189">
+        <v>8</v>
+      </c>
+      <c r="BD189">
+        <v>1.73</v>
+      </c>
+      <c r="BE189">
+        <v>8</v>
+      </c>
+      <c r="BF189">
+        <v>2.4</v>
+      </c>
+      <c r="BG189">
+        <v>1.24</v>
+      </c>
+      <c r="BH189">
+        <v>3.48</v>
+      </c>
+      <c r="BI189">
+        <v>1.46</v>
+      </c>
+      <c r="BJ189">
+        <v>2.45</v>
+      </c>
+      <c r="BK189">
+        <v>1.88</v>
+      </c>
+      <c r="BL189">
+        <v>1.92</v>
+      </c>
+      <c r="BM189">
+        <v>2.32</v>
+      </c>
+      <c r="BN189">
+        <v>1.51</v>
+      </c>
+      <c r="BO189">
+        <v>3.14</v>
+      </c>
+      <c r="BP189">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="320">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -652,7 +652,16 @@
     <t>['27', '39', '63']</t>
   </si>
   <si>
-    <t>['90+5']</t>
+    <t>['30']</t>
+  </si>
+  <si>
+    <t>['9', '45+4']</t>
+  </si>
+  <si>
+    <t>['79', '82', '90+6']</t>
+  </si>
+  <si>
+    <t>['12', '69', '89']</t>
   </si>
   <si>
     <t>['81', '90+3']</t>
@@ -743,6 +752,9 @@
   </si>
   <si>
     <t>['13', '54']</t>
+  </si>
+  <si>
+    <t>['90+5']</t>
   </si>
   <si>
     <t>['26']</t>
@@ -842,9 +854,6 @@
   </si>
   <si>
     <t>['23', '73']</t>
-  </si>
-  <si>
-    <t>['30']</t>
   </si>
   <si>
     <t>['14', '33', '71']</t>
@@ -964,7 +973,7 @@
     <t>['17', '90+1']</t>
   </si>
   <si>
-    <t>['16', '69', '75']</t>
+    <t>['70']</t>
   </si>
 </sst>
 </file>
@@ -1326,7 +1335,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP189"/>
+  <dimension ref="A1:BP190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1585,7 +1594,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1663,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ2">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1791,7 +1800,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -2078,7 +2087,7 @@
         <v>2.83</v>
       </c>
       <c r="AQ4">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2281,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
       <c r="AQ5">
         <v>0.75</v>
@@ -2409,7 +2418,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2902,7 +2911,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ8">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3027,7 +3036,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -3105,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ9">
         <v>2.42</v>
@@ -3311,10 +3320,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ10">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3517,10 +3526,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AQ11">
-        <v>0.91</v>
+        <v>0.7</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3645,7 +3654,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -3929,7 +3938,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ13">
         <v>1.33</v>
@@ -4138,7 +4147,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ14">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AR14">
         <v>0.7</v>
@@ -4263,7 +4272,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4341,10 +4350,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ15">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4550,7 +4559,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ16">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR16">
         <v>1.14</v>
@@ -4675,7 +4684,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4881,7 +4890,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -5087,7 +5096,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5911,7 +5920,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -6117,7 +6126,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6195,7 +6204,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ24">
         <v>2.42</v>
@@ -6323,7 +6332,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6401,10 +6410,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ25">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="AR25">
         <v>0.67</v>
@@ -6529,7 +6538,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6735,7 +6744,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -6941,7 +6950,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7022,7 +7031,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ28">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>2.4</v>
@@ -7147,7 +7156,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -7225,7 +7234,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ29">
         <v>1.23</v>
@@ -7353,7 +7362,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7431,10 +7440,10 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>2.17</v>
+        <v>2.27</v>
       </c>
       <c r="AQ30">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7637,7 +7646,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ31">
         <v>0.82</v>
@@ -7765,7 +7774,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7843,10 +7852,10 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
       <c r="AQ32">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR32">
         <v>1.5</v>
@@ -7971,7 +7980,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q33">
         <v>1.73</v>
@@ -8052,7 +8061,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ33">
-        <v>0.91</v>
+        <v>0.7</v>
       </c>
       <c r="AR33">
         <v>0.79</v>
@@ -8177,7 +8186,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q34">
         <v>6.4</v>
@@ -8255,10 +8264,10 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ34">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AR34">
         <v>1</v>
@@ -8383,7 +8392,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q35">
         <v>1.96</v>
@@ -8461,7 +8470,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ35">
         <v>1.27</v>
@@ -8589,7 +8598,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q36">
         <v>1.98</v>
@@ -8667,10 +8676,10 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>2.17</v>
+        <v>2.27</v>
       </c>
       <c r="AQ36">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR36">
         <v>1.16</v>
@@ -8795,7 +8804,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -8873,10 +8882,10 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AQ37">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="AR37">
         <v>2.37</v>
@@ -9001,7 +9010,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q38">
         <v>3.25</v>
@@ -9288,7 +9297,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ39">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR39">
         <v>1.09</v>
@@ -9494,7 +9503,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ40">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="AR40">
         <v>1.36</v>
@@ -9697,7 +9706,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ41">
         <v>0.67</v>
@@ -9825,7 +9834,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -10031,7 +10040,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q43">
         <v>2.3</v>
@@ -10109,7 +10118,7 @@
         <v>2.33</v>
       </c>
       <c r="AP43">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AQ43">
         <v>1.33</v>
@@ -10237,7 +10246,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q44">
         <v>4.75</v>
@@ -10318,7 +10327,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ44">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR44">
         <v>1.03</v>
@@ -10521,7 +10530,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
       <c r="AQ45">
         <v>0.82</v>
@@ -10649,7 +10658,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10855,7 +10864,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10936,7 +10945,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ47">
-        <v>0.91</v>
+        <v>0.7</v>
       </c>
       <c r="AR47">
         <v>1.03</v>
@@ -11139,10 +11148,10 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ48">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="AR48">
         <v>1.33</v>
@@ -11348,7 +11357,7 @@
         <v>1</v>
       </c>
       <c r="AQ49">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="AR49">
         <v>1.41</v>
@@ -11473,7 +11482,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11679,7 +11688,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11757,7 +11766,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ51">
         <v>0.83</v>
@@ -11885,7 +11894,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q52">
         <v>1.83</v>
@@ -11966,7 +11975,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ52">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR52">
         <v>1.36</v>
@@ -12172,7 +12181,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ53">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR53">
         <v>1.78</v>
@@ -12297,7 +12306,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q54">
         <v>7.5</v>
@@ -12375,7 +12384,7 @@
         <v>3</v>
       </c>
       <c r="AP54">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ54">
         <v>2.42</v>
@@ -12787,10 +12796,10 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>2.17</v>
+        <v>2.27</v>
       </c>
       <c r="AQ56">
-        <v>0.91</v>
+        <v>0.7</v>
       </c>
       <c r="AR56">
         <v>1.29</v>
@@ -12915,7 +12924,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13121,7 +13130,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q58">
         <v>2.8</v>
@@ -13327,7 +13336,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q59">
         <v>3.15</v>
@@ -13533,7 +13542,7 @@
         <v>106</v>
       </c>
       <c r="P60" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13739,7 +13748,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q61">
         <v>3.11</v>
@@ -14151,7 +14160,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q63">
         <v>2.75</v>
@@ -14641,7 +14650,7 @@
         <v>1.25</v>
       </c>
       <c r="AP65">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ65">
         <v>0.75</v>
@@ -14847,7 +14856,7 @@
         <v>2.2</v>
       </c>
       <c r="AP66">
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
       <c r="AQ66">
         <v>1.33</v>
@@ -14975,7 +14984,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q67">
         <v>2.38</v>
@@ -15259,10 +15268,10 @@
         <v>0.75</v>
       </c>
       <c r="AP68">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ68">
-        <v>0.91</v>
+        <v>0.7</v>
       </c>
       <c r="AR68">
         <v>1.05</v>
@@ -15468,7 +15477,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ69">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR69">
         <v>1.09</v>
@@ -15593,7 +15602,7 @@
         <v>90</v>
       </c>
       <c r="P70" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q70">
         <v>5.5</v>
@@ -15671,10 +15680,10 @@
         <v>1.67</v>
       </c>
       <c r="AP70">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ70">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AR70">
         <v>1.34</v>
@@ -15799,7 +15808,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q71">
         <v>2.45</v>
@@ -15880,7 +15889,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ71">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="AR71">
         <v>1.59</v>
@@ -16083,7 +16092,7 @@
         <v>1.33</v>
       </c>
       <c r="AP72">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AQ72">
         <v>0.83</v>
@@ -16417,7 +16426,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q74">
         <v>2.65</v>
@@ -16623,7 +16632,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -16701,10 +16710,10 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ75">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR75">
         <v>1</v>
@@ -16907,10 +16916,10 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AQ76">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="AR76">
         <v>2.43</v>
@@ -17035,7 +17044,7 @@
         <v>133</v>
       </c>
       <c r="P77" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17113,7 +17122,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ77">
         <v>0.83</v>
@@ -17525,10 +17534,10 @@
         <v>2</v>
       </c>
       <c r="AP79">
-        <v>2.17</v>
+        <v>2.27</v>
       </c>
       <c r="AQ79">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR79">
         <v>2.06</v>
@@ -17653,7 +17662,7 @@
         <v>90</v>
       </c>
       <c r="P80" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -17734,7 +17743,7 @@
         <v>1</v>
       </c>
       <c r="AQ80">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AR80">
         <v>1.55</v>
@@ -17859,7 +17868,7 @@
         <v>136</v>
       </c>
       <c r="P81" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17937,7 +17946,7 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ81">
         <v>0.75</v>
@@ -18065,7 +18074,7 @@
         <v>137</v>
       </c>
       <c r="P82" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q82">
         <v>1.91</v>
@@ -18271,7 +18280,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q83">
         <v>1.62</v>
@@ -18352,7 +18361,7 @@
         <v>2.83</v>
       </c>
       <c r="AQ83">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR83">
         <v>1.9</v>
@@ -18555,7 +18564,7 @@
         <v>2.6</v>
       </c>
       <c r="AP84">
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
       <c r="AQ84">
         <v>2.42</v>
@@ -18683,7 +18692,7 @@
         <v>99</v>
       </c>
       <c r="P85" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18889,7 +18898,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q86">
         <v>1.83</v>
@@ -18967,7 +18976,7 @@
         <v>1.25</v>
       </c>
       <c r="AP86">
-        <v>2.17</v>
+        <v>2.27</v>
       </c>
       <c r="AQ86">
         <v>0.82</v>
@@ -19095,7 +19104,7 @@
         <v>90</v>
       </c>
       <c r="P87" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -19176,7 +19185,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ87">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="AR87">
         <v>1.16</v>
@@ -19301,7 +19310,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19382,7 +19391,7 @@
         <v>1</v>
       </c>
       <c r="AQ88">
-        <v>0.91</v>
+        <v>0.7</v>
       </c>
       <c r="AR88">
         <v>1.33</v>
@@ -19585,7 +19594,7 @@
         <v>0.67</v>
       </c>
       <c r="AP89">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AQ89">
         <v>0.67</v>
@@ -19713,7 +19722,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q90">
         <v>1.61</v>
@@ -19791,10 +19800,10 @@
         <v>1.4</v>
       </c>
       <c r="AP90">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ90">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR90">
         <v>2.05</v>
@@ -19919,7 +19928,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q91">
         <v>1.8</v>
@@ -20125,7 +20134,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q92">
         <v>3.8</v>
@@ -20331,7 +20340,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q93">
         <v>2.55</v>
@@ -20412,7 +20421,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ93">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="AR93">
         <v>1.57</v>
@@ -20537,7 +20546,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q94">
         <v>4.5</v>
@@ -20615,10 +20624,10 @@
         <v>1.5</v>
       </c>
       <c r="AP94">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ94">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR94">
         <v>1.27</v>
@@ -20743,7 +20752,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q95">
         <v>4.5</v>
@@ -20949,7 +20958,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q96">
         <v>9</v>
@@ -21030,7 +21039,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ96">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AR96">
         <v>0.98</v>
@@ -21233,10 +21242,10 @@
         <v>1.17</v>
       </c>
       <c r="AP97">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ97">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR97">
         <v>1.33</v>
@@ -21361,7 +21370,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q98">
         <v>4.63</v>
@@ -21439,7 +21448,7 @@
         <v>2</v>
       </c>
       <c r="AP98">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ98">
         <v>1.33</v>
@@ -21567,7 +21576,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q99">
         <v>2.31</v>
@@ -21648,7 +21657,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ99">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="AR99">
         <v>1.77</v>
@@ -21773,7 +21782,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21979,7 +21988,7 @@
         <v>151</v>
       </c>
       <c r="P101" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q101">
         <v>2.43</v>
@@ -22057,7 +22066,7 @@
         <v>1</v>
       </c>
       <c r="AP101">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ101">
         <v>0.83</v>
@@ -22185,7 +22194,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -22263,7 +22272,7 @@
         <v>2</v>
       </c>
       <c r="AP102">
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
       <c r="AQ102">
         <v>1.23</v>
@@ -22391,7 +22400,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -22472,7 +22481,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ103">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR103">
         <v>1</v>
@@ -22678,7 +22687,7 @@
         <v>2.83</v>
       </c>
       <c r="AQ104">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR104">
         <v>2.01</v>
@@ -22881,10 +22890,10 @@
         <v>1.2</v>
       </c>
       <c r="AP105">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ105">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="AR105">
         <v>1.91</v>
@@ -23499,7 +23508,7 @@
         <v>2.14</v>
       </c>
       <c r="AP108">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ108">
         <v>1.33</v>
@@ -23627,7 +23636,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q109">
         <v>1.95</v>
@@ -23705,7 +23714,7 @@
         <v>0.86</v>
       </c>
       <c r="AP109">
-        <v>2.17</v>
+        <v>2.27</v>
       </c>
       <c r="AQ109">
         <v>0.75</v>
@@ -24120,7 +24129,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ111">
-        <v>0.91</v>
+        <v>0.7</v>
       </c>
       <c r="AR111">
         <v>1.64</v>
@@ -24245,7 +24254,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>276</v>
+        <v>212</v>
       </c>
       <c r="Q112">
         <v>1.73</v>
@@ -24529,7 +24538,7 @@
         <v>1.83</v>
       </c>
       <c r="AP113">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ113">
         <v>1.23</v>
@@ -24657,7 +24666,7 @@
         <v>90</v>
       </c>
       <c r="P114" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -24735,10 +24744,10 @@
         <v>2.33</v>
       </c>
       <c r="AP114">
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
       <c r="AQ114">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AR114">
         <v>1.55</v>
@@ -24863,7 +24872,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -24941,10 +24950,10 @@
         <v>1.14</v>
       </c>
       <c r="AP115">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ115">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR115">
         <v>1.37</v>
@@ -25069,7 +25078,7 @@
         <v>160</v>
       </c>
       <c r="P116" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q116">
         <v>1.95</v>
@@ -25150,7 +25159,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ116">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR116">
         <v>1.76</v>
@@ -25275,7 +25284,7 @@
         <v>161</v>
       </c>
       <c r="P117" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q117">
         <v>3.1</v>
@@ -25481,7 +25490,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q118">
         <v>3.75</v>
@@ -25765,10 +25774,10 @@
         <v>1.5</v>
       </c>
       <c r="AP119">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AQ119">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR119">
         <v>2.45</v>
@@ -25893,7 +25902,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q120">
         <v>3.6</v>
@@ -25974,7 +25983,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ120">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="AR120">
         <v>1.17</v>
@@ -26099,7 +26108,7 @@
         <v>163</v>
       </c>
       <c r="P121" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26177,10 +26186,10 @@
         <v>2.43</v>
       </c>
       <c r="AP121">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ121">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AR121">
         <v>1.25</v>
@@ -26386,7 +26395,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ122">
-        <v>0.91</v>
+        <v>0.7</v>
       </c>
       <c r="AR122">
         <v>1.65</v>
@@ -26511,7 +26520,7 @@
         <v>165</v>
       </c>
       <c r="P123" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="Q123">
         <v>3.6</v>
@@ -26589,7 +26598,7 @@
         <v>1.88</v>
       </c>
       <c r="AP123">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ123">
         <v>1.33</v>
@@ -26717,7 +26726,7 @@
         <v>166</v>
       </c>
       <c r="P124" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26798,7 +26807,7 @@
         <v>1</v>
       </c>
       <c r="AQ124">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="AR124">
         <v>1.28</v>
@@ -26923,7 +26932,7 @@
         <v>90</v>
       </c>
       <c r="P125" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -27004,7 +27013,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ125">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AR125">
         <v>1.79</v>
@@ -27207,7 +27216,7 @@
         <v>1.33</v>
       </c>
       <c r="AP126">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AQ126">
         <v>0.82</v>
@@ -27335,7 +27344,7 @@
         <v>168</v>
       </c>
       <c r="P127" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q127">
         <v>4.75</v>
@@ -27541,7 +27550,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q128">
         <v>5.5</v>
@@ -27619,10 +27628,10 @@
         <v>1.43</v>
       </c>
       <c r="AP128">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ128">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR128">
         <v>1.48</v>
@@ -27825,7 +27834,7 @@
         <v>0.86</v>
       </c>
       <c r="AP129">
-        <v>2.17</v>
+        <v>2.27</v>
       </c>
       <c r="AQ129">
         <v>0.83</v>
@@ -27953,7 +27962,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q130">
         <v>2.2</v>
@@ -28240,7 +28249,7 @@
         <v>2.83</v>
       </c>
       <c r="AQ131">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="AR131">
         <v>2.36</v>
@@ -28443,10 +28452,10 @@
         <v>1.38</v>
       </c>
       <c r="AP132">
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
       <c r="AQ132">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR132">
         <v>1.5</v>
@@ -28983,7 +28992,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q135">
         <v>3.35</v>
@@ -29061,7 +29070,7 @@
         <v>0.86</v>
       </c>
       <c r="AP135">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ135">
         <v>1.27</v>
@@ -29473,7 +29482,7 @@
         <v>1.63</v>
       </c>
       <c r="AP137">
-        <v>2.17</v>
+        <v>2.27</v>
       </c>
       <c r="AQ137">
         <v>1.23</v>
@@ -29601,7 +29610,7 @@
         <v>90</v>
       </c>
       <c r="P138" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q138">
         <v>5.25</v>
@@ -29682,7 +29691,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ138">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AR138">
         <v>1.64</v>
@@ -29807,7 +29816,7 @@
         <v>177</v>
       </c>
       <c r="P139" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q139">
         <v>2.32</v>
@@ -29885,10 +29894,10 @@
         <v>1</v>
       </c>
       <c r="AP139">
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
       <c r="AQ139">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR139">
         <v>1.65</v>
@@ -30091,7 +30100,7 @@
         <v>1.44</v>
       </c>
       <c r="AP140">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AQ140">
         <v>1.23</v>
@@ -30219,7 +30228,7 @@
         <v>134</v>
       </c>
       <c r="P141" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q141">
         <v>3.81</v>
@@ -30300,7 +30309,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ141">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR141">
         <v>1.04</v>
@@ -30425,7 +30434,7 @@
         <v>90</v>
       </c>
       <c r="P142" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q142">
         <v>7</v>
@@ -30503,10 +30512,10 @@
         <v>1.63</v>
       </c>
       <c r="AP142">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ142">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR142">
         <v>1.24</v>
@@ -30631,7 +30640,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q143">
         <v>2.2</v>
@@ -30709,10 +30718,10 @@
         <v>1.38</v>
       </c>
       <c r="AP143">
-        <v>2.17</v>
+        <v>2.27</v>
       </c>
       <c r="AQ143">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="AR143">
         <v>1.75</v>
@@ -30915,10 +30924,10 @@
         <v>0.88</v>
       </c>
       <c r="AP144">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ144">
-        <v>0.91</v>
+        <v>0.7</v>
       </c>
       <c r="AR144">
         <v>1.4</v>
@@ -31330,7 +31339,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ146">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="AR146">
         <v>1.03</v>
@@ -31455,7 +31464,7 @@
         <v>182</v>
       </c>
       <c r="P147" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q147">
         <v>1.71</v>
@@ -31661,7 +31670,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q148">
         <v>1.93</v>
@@ -31867,7 +31876,7 @@
         <v>184</v>
       </c>
       <c r="P149" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q149">
         <v>5.66</v>
@@ -31948,7 +31957,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ149">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="AR149">
         <v>1.16</v>
@@ -32151,7 +32160,7 @@
         <v>0.78</v>
       </c>
       <c r="AP150">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ150">
         <v>0.67</v>
@@ -32279,7 +32288,7 @@
         <v>185</v>
       </c>
       <c r="P151" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q151">
         <v>2.98</v>
@@ -32357,7 +32366,7 @@
         <v>1</v>
       </c>
       <c r="AP151">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ151">
         <v>0.75</v>
@@ -32485,7 +32494,7 @@
         <v>186</v>
       </c>
       <c r="P152" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q152">
         <v>1.62</v>
@@ -32563,10 +32572,10 @@
         <v>1</v>
       </c>
       <c r="AP152">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AQ152">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR152">
         <v>2.2</v>
@@ -32978,7 +32987,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ154">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR154">
         <v>1.71</v>
@@ -33103,7 +33112,7 @@
         <v>188</v>
       </c>
       <c r="P155" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q155">
         <v>2.38</v>
@@ -33309,7 +33318,7 @@
         <v>90</v>
       </c>
       <c r="P156" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q156">
         <v>4.75</v>
@@ -33387,7 +33396,7 @@
         <v>1.3</v>
       </c>
       <c r="AP156">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ156">
         <v>1.23</v>
@@ -33515,7 +33524,7 @@
         <v>189</v>
       </c>
       <c r="P157" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q157">
         <v>2.88</v>
@@ -33596,7 +33605,7 @@
         <v>1</v>
       </c>
       <c r="AQ157">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR157">
         <v>1.27</v>
@@ -33799,7 +33808,7 @@
         <v>1.6</v>
       </c>
       <c r="AP158">
-        <v>2.17</v>
+        <v>2.27</v>
       </c>
       <c r="AQ158">
         <v>1.33</v>
@@ -34214,7 +34223,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ160">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="AR160">
         <v>1.59</v>
@@ -34339,7 +34348,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q161">
         <v>9</v>
@@ -35241,10 +35250,10 @@
         <v>0.78</v>
       </c>
       <c r="AP165">
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
       <c r="AQ165">
-        <v>0.91</v>
+        <v>0.7</v>
       </c>
       <c r="AR165">
         <v>1.66</v>
@@ -35369,7 +35378,7 @@
         <v>197</v>
       </c>
       <c r="P166" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q166">
         <v>3.5</v>
@@ -35450,7 +35459,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ166">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR166">
         <v>1.97</v>
@@ -35575,7 +35584,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -35653,7 +35662,7 @@
         <v>1</v>
       </c>
       <c r="AP167">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ167">
         <v>0.82</v>
@@ -35987,7 +35996,7 @@
         <v>90</v>
       </c>
       <c r="P169" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q169">
         <v>5.5</v>
@@ -36399,7 +36408,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q171">
         <v>1.75</v>
@@ -36605,7 +36614,7 @@
         <v>90</v>
       </c>
       <c r="P172" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q172">
         <v>4.4</v>
@@ -36683,10 +36692,10 @@
         <v>2.6</v>
       </c>
       <c r="AP172">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ172">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AR172">
         <v>1.91</v>
@@ -36811,7 +36820,7 @@
         <v>202</v>
       </c>
       <c r="P173" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q173">
         <v>3.5</v>
@@ -36889,7 +36898,7 @@
         <v>1.45</v>
       </c>
       <c r="AP173">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ173">
         <v>1.33</v>
@@ -37098,7 +37107,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ174">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR174">
         <v>1.58</v>
@@ -37304,7 +37313,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ175">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR175">
         <v>1.91</v>
@@ -37507,7 +37516,7 @@
         <v>2.64</v>
       </c>
       <c r="AP176">
-        <v>2.17</v>
+        <v>2.27</v>
       </c>
       <c r="AQ176">
         <v>2.42</v>
@@ -37635,7 +37644,7 @@
         <v>97</v>
       </c>
       <c r="P177" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q177">
         <v>5</v>
@@ -37713,7 +37722,7 @@
         <v>1.11</v>
       </c>
       <c r="AP177">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ177">
         <v>1.27</v>
@@ -37841,7 +37850,7 @@
         <v>206</v>
       </c>
       <c r="P178" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q178">
         <v>1.36</v>
@@ -38047,7 +38056,7 @@
         <v>90</v>
       </c>
       <c r="P179" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q179">
         <v>6.28</v>
@@ -38128,7 +38137,7 @@
         <v>1</v>
       </c>
       <c r="AQ179">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR179">
         <v>1.33</v>
@@ -38253,7 +38262,7 @@
         <v>207</v>
       </c>
       <c r="P180" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q180">
         <v>4.8</v>
@@ -38459,7 +38468,7 @@
         <v>90</v>
       </c>
       <c r="P181" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q181">
         <v>3.5</v>
@@ -38537,7 +38546,7 @@
         <v>1.1</v>
       </c>
       <c r="AP181">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ181">
         <v>1.27</v>
@@ -38746,7 +38755,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ182">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="AR182">
         <v>1.25</v>
@@ -38871,7 +38880,7 @@
         <v>209</v>
       </c>
       <c r="P183" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q183">
         <v>1.44</v>
@@ -38949,7 +38958,7 @@
         <v>0.82</v>
       </c>
       <c r="AP183">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AQ183">
         <v>0.75</v>
@@ -39077,7 +39086,7 @@
         <v>210</v>
       </c>
       <c r="P184" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q184">
         <v>4</v>
@@ -39283,7 +39292,7 @@
         <v>211</v>
       </c>
       <c r="P185" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q185">
         <v>2.75</v>
@@ -39361,10 +39370,10 @@
         <v>0.6</v>
       </c>
       <c r="AP185">
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
       <c r="AQ185">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="AR185">
         <v>1.65</v>
@@ -39489,7 +39498,7 @@
         <v>90</v>
       </c>
       <c r="P186" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q186">
         <v>2.25</v>
@@ -39653,7 +39662,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>7347934</v>
+        <v>7347937</v>
       </c>
       <c r="C187" t="s">
         <v>68</v>
@@ -39662,25 +39671,25 @@
         <v>69</v>
       </c>
       <c r="E187" s="2">
-        <v>45520.35763888889</v>
+        <v>45521.33333333334</v>
       </c>
       <c r="F187">
         <v>23</v>
       </c>
       <c r="G187" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H187" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187">
         <v>0</v>
       </c>
       <c r="K187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L187">
         <v>1</v>
@@ -39698,160 +39707,160 @@
         <v>90</v>
       </c>
       <c r="Q187">
-        <v>2.65</v>
+        <v>3.1</v>
       </c>
       <c r="R187">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S187">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="T187">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="U187">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="V187">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="W187">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="X187">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y187">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="Z187">
-        <v>1.98</v>
+        <v>2.57</v>
       </c>
       <c r="AA187">
-        <v>3.2</v>
+        <v>3.33</v>
       </c>
       <c r="AB187">
-        <v>2.98</v>
+        <v>2.7</v>
       </c>
       <c r="AC187">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="AD187">
-        <v>15</v>
+        <v>11.25</v>
       </c>
       <c r="AE187">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="AF187">
-        <v>4.25</v>
+        <v>3.53</v>
       </c>
       <c r="AG187">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="AH187">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="AI187">
-        <v>1.58</v>
+        <v>1.7</v>
       </c>
       <c r="AJ187">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AK187">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="AL187">
         <v>1.3</v>
       </c>
       <c r="AM187">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="AN187">
         <v>1.27</v>
       </c>
       <c r="AO187">
-        <v>1.36</v>
+        <v>1.09</v>
       </c>
       <c r="AP187">
         <v>1.42</v>
       </c>
       <c r="AQ187">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR187">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="AS187">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
       <c r="AT187">
         <v>2.87</v>
       </c>
       <c r="AU187">
+        <v>2</v>
+      </c>
+      <c r="AV187">
         <v>6</v>
       </c>
-      <c r="AV187">
+      <c r="AW187">
+        <v>3</v>
+      </c>
+      <c r="AX187">
         <v>7</v>
       </c>
-      <c r="AW187">
-        <v>6</v>
-      </c>
-      <c r="AX187">
-        <v>1</v>
-      </c>
       <c r="AY187">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AZ187">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA187">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BB187">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BC187">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="BD187">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="BE187">
         <v>8</v>
       </c>
       <c r="BF187">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="BG187">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="BH187">
-        <v>4.1</v>
+        <v>3.42</v>
       </c>
       <c r="BI187">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="BJ187">
-        <v>2.79</v>
+        <v>2.42</v>
       </c>
       <c r="BK187">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="BL187">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="BM187">
-        <v>2.08</v>
+        <v>2.34</v>
       </c>
       <c r="BN187">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="BO187">
-        <v>2.71</v>
+        <v>3.18</v>
       </c>
       <c r="BP187">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="188" spans="1:68">
@@ -39859,7 +39868,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>7347936</v>
+        <v>7347939</v>
       </c>
       <c r="C188" t="s">
         <v>68</v>
@@ -39868,196 +39877,196 @@
         <v>69</v>
       </c>
       <c r="E188" s="2">
-        <v>45520.375</v>
+        <v>45521.35763888889</v>
       </c>
       <c r="F188">
         <v>23</v>
       </c>
       <c r="G188" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H188" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J188">
         <v>0</v>
       </c>
       <c r="K188">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L188">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N188">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O188" t="s">
-        <v>90</v>
+        <v>213</v>
       </c>
       <c r="P188" t="s">
-        <v>90</v>
+        <v>319</v>
       </c>
       <c r="Q188">
-        <v>2.1</v>
+        <v>3.05</v>
       </c>
       <c r="R188">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="S188">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="T188">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="U188">
-        <v>4.25</v>
+        <v>3.4</v>
       </c>
       <c r="V188">
-        <v>1.95</v>
+        <v>2.35</v>
       </c>
       <c r="W188">
-        <v>1.78</v>
+        <v>1.52</v>
       </c>
       <c r="X188">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="Y188">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="Z188">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="AA188">
-        <v>3.73</v>
+        <v>3.6</v>
       </c>
       <c r="AB188">
-        <v>3.52</v>
+        <v>2.4</v>
       </c>
       <c r="AC188">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD188">
-        <v>27.5</v>
+        <v>17.25</v>
       </c>
       <c r="AE188">
-        <v>1.11</v>
+        <v>1.19</v>
       </c>
       <c r="AF188">
-        <v>7</v>
+        <v>4.73</v>
       </c>
       <c r="AG188">
+        <v>1.58</v>
+      </c>
+      <c r="AH188">
+        <v>2.28</v>
+      </c>
+      <c r="AI188">
+        <v>1.5</v>
+      </c>
+      <c r="AJ188">
+        <v>2.45</v>
+      </c>
+      <c r="AK188">
+        <v>1.55</v>
+      </c>
+      <c r="AL188">
         <v>1.3</v>
       </c>
-      <c r="AH188">
-        <v>3.05</v>
-      </c>
-      <c r="AI188">
-        <v>1.4</v>
-      </c>
-      <c r="AJ188">
-        <v>2.75</v>
-      </c>
-      <c r="AK188">
+      <c r="AM188">
+        <v>1.48</v>
+      </c>
+      <c r="AN188">
+        <v>0.92</v>
+      </c>
+      <c r="AO188">
+        <v>0.75</v>
+      </c>
+      <c r="AP188">
+        <v>1.08</v>
+      </c>
+      <c r="AQ188">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR188">
         <v>1.23</v>
       </c>
-      <c r="AL188">
-        <v>1.25</v>
-      </c>
-      <c r="AM188">
-        <v>2.05</v>
-      </c>
-      <c r="AN188">
-        <v>2.27</v>
-      </c>
-      <c r="AO188">
-        <v>0.55</v>
-      </c>
-      <c r="AP188">
-        <v>2.17</v>
-      </c>
-      <c r="AQ188">
-        <v>0.58</v>
-      </c>
-      <c r="AR188">
-        <v>1.79</v>
-      </c>
       <c r="AS188">
-        <v>1.77</v>
+        <v>1.08</v>
       </c>
       <c r="AT188">
-        <v>3.56</v>
+        <v>2.31</v>
       </c>
       <c r="AU188">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AV188">
+        <v>2</v>
+      </c>
+      <c r="AW188">
         <v>6</v>
       </c>
-      <c r="AW188">
-        <v>5</v>
-      </c>
       <c r="AX188">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY188">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ188">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BA188">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BB188">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BC188">
         <v>8</v>
       </c>
       <c r="BD188">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="BE188">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BF188">
-        <v>2.88</v>
+        <v>2.3</v>
       </c>
       <c r="BG188">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="BH188">
-        <v>4.9</v>
+        <v>3.42</v>
       </c>
       <c r="BI188">
-        <v>1.27</v>
+        <v>1.47</v>
       </c>
       <c r="BJ188">
-        <v>3.28</v>
+        <v>2.42</v>
       </c>
       <c r="BK188">
-        <v>1.49</v>
+        <v>1.88</v>
       </c>
       <c r="BL188">
-        <v>2.38</v>
+        <v>1.92</v>
       </c>
       <c r="BM188">
-        <v>1.92</v>
+        <v>2.34</v>
       </c>
       <c r="BN188">
-        <v>1.88</v>
+        <v>1.5</v>
       </c>
       <c r="BO188">
-        <v>2.32</v>
+        <v>3.18</v>
       </c>
       <c r="BP188">
-        <v>1.51</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="189" spans="1:68">
@@ -40065,7 +40074,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>7347935</v>
+        <v>7347938</v>
       </c>
       <c r="C189" t="s">
         <v>68</v>
@@ -40074,16 +40083,16 @@
         <v>69</v>
       </c>
       <c r="E189" s="2">
-        <v>45520.375</v>
+        <v>45521.35763888889</v>
       </c>
       <c r="F189">
         <v>23</v>
       </c>
       <c r="G189" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H189" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I189">
         <v>0</v>
@@ -40095,175 +40104,381 @@
         <v>1</v>
       </c>
       <c r="L189">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M189">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N189">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O189" t="s">
-        <v>90</v>
+        <v>214</v>
       </c>
       <c r="P189" t="s">
-        <v>316</v>
+        <v>112</v>
       </c>
       <c r="Q189">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="R189">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="S189">
-        <v>3</v>
+        <v>2.26</v>
       </c>
       <c r="T189">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U189">
         <v>3.4</v>
       </c>
       <c r="V189">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="W189">
+        <v>1.63</v>
+      </c>
+      <c r="X189">
+        <v>4.6</v>
+      </c>
+      <c r="Y189">
+        <v>1.16</v>
+      </c>
+      <c r="Z189">
+        <v>3.5</v>
+      </c>
+      <c r="AA189">
+        <v>3.5</v>
+      </c>
+      <c r="AB189">
+        <v>1.91</v>
+      </c>
+      <c r="AC189">
+        <v>1.02</v>
+      </c>
+      <c r="AD189">
+        <v>18.5</v>
+      </c>
+      <c r="AE189">
+        <v>1.15</v>
+      </c>
+      <c r="AF189">
+        <v>4.75</v>
+      </c>
+      <c r="AG189">
+        <v>1.49</v>
+      </c>
+      <c r="AH189">
+        <v>2.44</v>
+      </c>
+      <c r="AI189">
         <v>1.5</v>
       </c>
-      <c r="X189">
-        <v>6</v>
-      </c>
-      <c r="Y189">
-        <v>1.13</v>
-      </c>
-      <c r="Z189">
-        <v>2.39</v>
-      </c>
-      <c r="AA189">
-        <v>3.08</v>
-      </c>
-      <c r="AB189">
-        <v>2.28</v>
-      </c>
-      <c r="AC189">
-        <v>1.04</v>
-      </c>
-      <c r="AD189">
-        <v>9</v>
-      </c>
-      <c r="AE189">
-        <v>1.2</v>
-      </c>
-      <c r="AF189">
-        <v>4.2</v>
-      </c>
-      <c r="AG189">
-        <v>1.55</v>
-      </c>
-      <c r="AH189">
-        <v>2.2</v>
-      </c>
-      <c r="AI189">
-        <v>1.53</v>
-      </c>
       <c r="AJ189">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="AK189">
-        <v>1.5</v>
+        <v>1.88</v>
       </c>
       <c r="AL189">
         <v>1.25</v>
       </c>
       <c r="AM189">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="AN189">
-        <v>0.55</v>
+        <v>2.64</v>
       </c>
       <c r="AO189">
-        <v>0.7</v>
+        <v>2.64</v>
       </c>
       <c r="AP189">
-        <v>0.5</v>
+        <v>2.67</v>
       </c>
       <c r="AQ189">
-        <v>0.91</v>
+        <v>2.42</v>
       </c>
       <c r="AR189">
-        <v>1.24</v>
+        <v>2.21</v>
       </c>
       <c r="AS189">
-        <v>1.2</v>
+        <v>2.19</v>
       </c>
       <c r="AT189">
-        <v>2.44</v>
+        <v>4.4</v>
       </c>
       <c r="AU189">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AV189">
+        <v>3</v>
+      </c>
+      <c r="AW189">
         <v>7</v>
       </c>
-      <c r="AW189">
+      <c r="AX189">
         <v>8</v>
       </c>
-      <c r="AX189">
-        <v>4</v>
-      </c>
       <c r="AY189">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ189">
         <v>11</v>
       </c>
       <c r="BA189">
+        <v>7</v>
+      </c>
+      <c r="BB189">
+        <v>2</v>
+      </c>
+      <c r="BC189">
+        <v>9</v>
+      </c>
+      <c r="BD189">
+        <v>2.65</v>
+      </c>
+      <c r="BE189">
+        <v>8.5</v>
+      </c>
+      <c r="BF189">
+        <v>1.62</v>
+      </c>
+      <c r="BG189">
+        <v>1.16</v>
+      </c>
+      <c r="BH189">
+        <v>4.33</v>
+      </c>
+      <c r="BI189">
+        <v>1.33</v>
+      </c>
+      <c r="BJ189">
+        <v>2.93</v>
+      </c>
+      <c r="BK189">
+        <v>1.58</v>
+      </c>
+      <c r="BL189">
+        <v>2.17</v>
+      </c>
+      <c r="BM189">
+        <v>1.99</v>
+      </c>
+      <c r="BN189">
+        <v>1.73</v>
+      </c>
+      <c r="BO189">
+        <v>2.57</v>
+      </c>
+      <c r="BP189">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="190" spans="1:68">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>7347940</v>
+      </c>
+      <c r="C190" t="s">
+        <v>68</v>
+      </c>
+      <c r="D190" t="s">
+        <v>69</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45521.375</v>
+      </c>
+      <c r="F190">
+        <v>23</v>
+      </c>
+      <c r="G190" t="s">
+        <v>70</v>
+      </c>
+      <c r="H190" t="s">
+        <v>75</v>
+      </c>
+      <c r="I190">
+        <v>1</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>1</v>
+      </c>
+      <c r="L190">
+        <v>3</v>
+      </c>
+      <c r="M190">
+        <v>0</v>
+      </c>
+      <c r="N190">
+        <v>3</v>
+      </c>
+      <c r="O190" t="s">
+        <v>215</v>
+      </c>
+      <c r="P190" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q190">
+        <v>4.64</v>
+      </c>
+      <c r="R190">
+        <v>2.42</v>
+      </c>
+      <c r="S190">
+        <v>2.25</v>
+      </c>
+      <c r="T190">
+        <v>1.3</v>
+      </c>
+      <c r="U190">
+        <v>3.25</v>
+      </c>
+      <c r="V190">
+        <v>2.49</v>
+      </c>
+      <c r="W190">
+        <v>1.5</v>
+      </c>
+      <c r="X190">
+        <v>5.25</v>
+      </c>
+      <c r="Y190">
+        <v>1.12</v>
+      </c>
+      <c r="Z190">
+        <v>4.2</v>
+      </c>
+      <c r="AA190">
         <v>4</v>
       </c>
-      <c r="BB189">
-        <v>4</v>
-      </c>
-      <c r="BC189">
-        <v>8</v>
-      </c>
-      <c r="BD189">
-        <v>1.73</v>
-      </c>
-      <c r="BE189">
-        <v>8</v>
-      </c>
-      <c r="BF189">
-        <v>2.4</v>
-      </c>
-      <c r="BG189">
-        <v>1.24</v>
-      </c>
-      <c r="BH189">
-        <v>3.48</v>
-      </c>
-      <c r="BI189">
-        <v>1.46</v>
-      </c>
-      <c r="BJ189">
-        <v>2.45</v>
-      </c>
-      <c r="BK189">
-        <v>1.88</v>
-      </c>
-      <c r="BL189">
+      <c r="AB190">
+        <v>1.67</v>
+      </c>
+      <c r="AC190">
+        <v>1.01</v>
+      </c>
+      <c r="AD190">
+        <v>11</v>
+      </c>
+      <c r="AE190">
+        <v>1.18</v>
+      </c>
+      <c r="AF190">
+        <v>4.33</v>
+      </c>
+      <c r="AG190">
+        <v>1.62</v>
+      </c>
+      <c r="AH190">
+        <v>2.2</v>
+      </c>
+      <c r="AI190">
+        <v>1.65</v>
+      </c>
+      <c r="AJ190">
+        <v>2.1</v>
+      </c>
+      <c r="AK190">
+        <v>2.15</v>
+      </c>
+      <c r="AL190">
+        <v>1.22</v>
+      </c>
+      <c r="AM190">
+        <v>1.29</v>
+      </c>
+      <c r="AN190">
+        <v>1.8</v>
+      </c>
+      <c r="AO190">
         <v>1.92</v>
       </c>
-      <c r="BM189">
-        <v>2.32</v>
-      </c>
-      <c r="BN189">
-        <v>1.51</v>
-      </c>
-      <c r="BO189">
-        <v>3.14</v>
-      </c>
-      <c r="BP189">
-        <v>1.29</v>
+      <c r="AP190">
+        <v>1.91</v>
+      </c>
+      <c r="AQ190">
+        <v>1.77</v>
+      </c>
+      <c r="AR190">
+        <v>1.79</v>
+      </c>
+      <c r="AS190">
+        <v>1.66</v>
+      </c>
+      <c r="AT190">
+        <v>3.45</v>
+      </c>
+      <c r="AU190">
+        <v>7</v>
+      </c>
+      <c r="AV190">
+        <v>9</v>
+      </c>
+      <c r="AW190">
+        <v>2</v>
+      </c>
+      <c r="AX190">
+        <v>12</v>
+      </c>
+      <c r="AY190">
+        <v>9</v>
+      </c>
+      <c r="AZ190">
+        <v>21</v>
+      </c>
+      <c r="BA190">
+        <v>1</v>
+      </c>
+      <c r="BB190">
+        <v>11</v>
+      </c>
+      <c r="BC190">
+        <v>12</v>
+      </c>
+      <c r="BD190">
+        <v>3</v>
+      </c>
+      <c r="BE190">
+        <v>8.5</v>
+      </c>
+      <c r="BF190">
+        <v>1.5</v>
+      </c>
+      <c r="BG190">
+        <v>1.22</v>
+      </c>
+      <c r="BH190">
+        <v>3.65</v>
+      </c>
+      <c r="BI190">
+        <v>1.43</v>
+      </c>
+      <c r="BJ190">
+        <v>2.54</v>
+      </c>
+      <c r="BK190">
+        <v>1.8</v>
+      </c>
+      <c r="BL190">
+        <v>2</v>
+      </c>
+      <c r="BM190">
+        <v>2.23</v>
+      </c>
+      <c r="BN190">
+        <v>1.55</v>
+      </c>
+      <c r="BO190">
+        <v>2.98</v>
+      </c>
+      <c r="BP190">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="321">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -652,6 +652,9 @@
     <t>['27', '39', '63']</t>
   </si>
   <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
     <t>['30']</t>
   </si>
   <si>
@@ -752,9 +755,6 @@
   </si>
   <si>
     <t>['13', '54']</t>
-  </si>
-  <si>
-    <t>['90+5']</t>
   </si>
   <si>
     <t>['26']</t>
@@ -971,6 +971,9 @@
   </si>
   <si>
     <t>['17', '90+1']</t>
+  </si>
+  <si>
+    <t>['15', '69', '75']</t>
   </si>
   <si>
     <t>['70']</t>
@@ -1335,7 +1338,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP190"/>
+  <dimension ref="A1:BP193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1594,7 +1597,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1800,7 +1803,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -2087,7 +2090,7 @@
         <v>2.83</v>
       </c>
       <c r="AQ4">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2290,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ5">
         <v>0.75</v>
@@ -2418,7 +2421,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -3036,7 +3039,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -3529,7 +3532,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ11">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3654,7 +3657,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -4272,7 +4275,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4350,10 +4353,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AQ15">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4684,7 +4687,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4890,7 +4893,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -5096,7 +5099,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5920,7 +5923,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -6126,7 +6129,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6332,7 +6335,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6413,7 +6416,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ25">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AR25">
         <v>0.67</v>
@@ -6538,7 +6541,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6744,7 +6747,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -6950,7 +6953,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7156,7 +7159,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -7362,7 +7365,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7440,7 +7443,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ30">
         <v>2.42</v>
@@ -7646,7 +7649,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AQ31">
         <v>0.82</v>
@@ -7774,7 +7777,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7852,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ32">
         <v>1.77</v>
@@ -7980,7 +7983,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q33">
         <v>1.73</v>
@@ -8061,7 +8064,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ33">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR33">
         <v>0.79</v>
@@ -8186,7 +8189,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q34">
         <v>6.4</v>
@@ -8264,7 +8267,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AQ34">
         <v>2.42</v>
@@ -8392,7 +8395,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q35">
         <v>1.96</v>
@@ -8598,7 +8601,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q36">
         <v>1.98</v>
@@ -8676,7 +8679,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -8804,7 +8807,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -8885,7 +8888,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ37">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR37">
         <v>2.37</v>
@@ -9010,7 +9013,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q38">
         <v>3.25</v>
@@ -9503,7 +9506,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ40">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AR40">
         <v>1.36</v>
@@ -9834,7 +9837,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -10040,7 +10043,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q43">
         <v>2.3</v>
@@ -10246,7 +10249,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q44">
         <v>4.75</v>
@@ -10530,7 +10533,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ45">
         <v>0.82</v>
@@ -10658,7 +10661,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10864,7 +10867,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10945,7 +10948,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ47">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR47">
         <v>1.03</v>
@@ -11151,7 +11154,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ48">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AR48">
         <v>1.33</v>
@@ -11357,7 +11360,7 @@
         <v>1</v>
       </c>
       <c r="AQ49">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR49">
         <v>1.41</v>
@@ -11482,7 +11485,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11688,7 +11691,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -12384,7 +12387,7 @@
         <v>3</v>
       </c>
       <c r="AP54">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AQ54">
         <v>2.42</v>
@@ -12796,10 +12799,10 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ56">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR56">
         <v>1.29</v>
@@ -14856,7 +14859,7 @@
         <v>2.2</v>
       </c>
       <c r="AP66">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ66">
         <v>1.33</v>
@@ -15271,7 +15274,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ68">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR68">
         <v>1.05</v>
@@ -15889,7 +15892,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ71">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR71">
         <v>1.59</v>
@@ -16710,7 +16713,7 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AQ75">
         <v>0.6899999999999999</v>
@@ -16919,7 +16922,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ76">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AR76">
         <v>2.43</v>
@@ -17534,7 +17537,7 @@
         <v>2</v>
       </c>
       <c r="AP79">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ79">
         <v>1.77</v>
@@ -18564,7 +18567,7 @@
         <v>2.6</v>
       </c>
       <c r="AP84">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ84">
         <v>2.42</v>
@@ -18976,7 +18979,7 @@
         <v>1.25</v>
       </c>
       <c r="AP86">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ86">
         <v>0.82</v>
@@ -19185,7 +19188,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ87">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AR87">
         <v>1.16</v>
@@ -19391,7 +19394,7 @@
         <v>1</v>
       </c>
       <c r="AQ88">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR88">
         <v>1.33</v>
@@ -20421,7 +20424,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ93">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR93">
         <v>1.57</v>
@@ -21370,7 +21373,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q98">
         <v>4.63</v>
@@ -21657,7 +21660,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ99">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR99">
         <v>1.77</v>
@@ -21988,7 +21991,7 @@
         <v>151</v>
       </c>
       <c r="P101" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q101">
         <v>2.43</v>
@@ -22066,7 +22069,7 @@
         <v>1</v>
       </c>
       <c r="AP101">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AQ101">
         <v>0.83</v>
@@ -22194,7 +22197,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -22272,7 +22275,7 @@
         <v>2</v>
       </c>
       <c r="AP102">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ102">
         <v>1.23</v>
@@ -22893,7 +22896,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ105">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AR105">
         <v>1.91</v>
@@ -23714,7 +23717,7 @@
         <v>0.86</v>
       </c>
       <c r="AP109">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ109">
         <v>0.75</v>
@@ -24129,7 +24132,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ111">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR111">
         <v>1.64</v>
@@ -24254,7 +24257,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q112">
         <v>1.73</v>
@@ -24744,7 +24747,7 @@
         <v>2.33</v>
       </c>
       <c r="AP114">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ114">
         <v>2.42</v>
@@ -24950,7 +24953,7 @@
         <v>1.14</v>
       </c>
       <c r="AP115">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AQ115">
         <v>1</v>
@@ -25983,7 +25986,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ120">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR120">
         <v>1.17</v>
@@ -26395,7 +26398,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ122">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR122">
         <v>1.65</v>
@@ -26520,7 +26523,7 @@
         <v>165</v>
       </c>
       <c r="P123" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="Q123">
         <v>3.6</v>
@@ -26598,7 +26601,7 @@
         <v>1.88</v>
       </c>
       <c r="AP123">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AQ123">
         <v>1.33</v>
@@ -26807,7 +26810,7 @@
         <v>1</v>
       </c>
       <c r="AQ124">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AR124">
         <v>1.28</v>
@@ -27834,7 +27837,7 @@
         <v>0.86</v>
       </c>
       <c r="AP129">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ129">
         <v>0.83</v>
@@ -28249,7 +28252,7 @@
         <v>2.83</v>
       </c>
       <c r="AQ131">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AR131">
         <v>2.36</v>
@@ -28452,7 +28455,7 @@
         <v>1.38</v>
       </c>
       <c r="AP132">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ132">
         <v>1</v>
@@ -29482,7 +29485,7 @@
         <v>1.63</v>
       </c>
       <c r="AP137">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ137">
         <v>1.23</v>
@@ -29610,7 +29613,7 @@
         <v>90</v>
       </c>
       <c r="P138" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q138">
         <v>5.25</v>
@@ -29894,7 +29897,7 @@
         <v>1</v>
       </c>
       <c r="AP139">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ139">
         <v>0.6899999999999999</v>
@@ -30512,7 +30515,7 @@
         <v>1.63</v>
       </c>
       <c r="AP142">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AQ142">
         <v>1.77</v>
@@ -30718,10 +30721,10 @@
         <v>1.38</v>
       </c>
       <c r="AP143">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ143">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR143">
         <v>1.75</v>
@@ -30927,7 +30930,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ144">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR144">
         <v>1.4</v>
@@ -31339,7 +31342,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ146">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR146">
         <v>1.03</v>
@@ -31957,7 +31960,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ149">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AR149">
         <v>1.16</v>
@@ -33396,7 +33399,7 @@
         <v>1.3</v>
       </c>
       <c r="AP156">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AQ156">
         <v>1.23</v>
@@ -33524,7 +33527,7 @@
         <v>189</v>
       </c>
       <c r="P157" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q157">
         <v>2.88</v>
@@ -33808,7 +33811,7 @@
         <v>1.6</v>
       </c>
       <c r="AP158">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ158">
         <v>1.33</v>
@@ -34223,7 +34226,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ160">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AR160">
         <v>1.59</v>
@@ -35250,10 +35253,10 @@
         <v>0.78</v>
       </c>
       <c r="AP165">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ165">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR165">
         <v>1.66</v>
@@ -37516,7 +37519,7 @@
         <v>2.64</v>
       </c>
       <c r="AP176">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ176">
         <v>2.42</v>
@@ -37722,7 +37725,7 @@
         <v>1.11</v>
       </c>
       <c r="AP177">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AQ177">
         <v>1.27</v>
@@ -38755,7 +38758,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ182">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR182">
         <v>1.25</v>
@@ -39370,10 +39373,10 @@
         <v>0.6</v>
       </c>
       <c r="AP185">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ185">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AR185">
         <v>1.65</v>
@@ -39662,7 +39665,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>7347937</v>
+        <v>7347934</v>
       </c>
       <c r="C187" t="s">
         <v>68</v>
@@ -39671,25 +39674,25 @@
         <v>69</v>
       </c>
       <c r="E187" s="2">
-        <v>45521.33333333334</v>
+        <v>45520.35763888889</v>
       </c>
       <c r="F187">
         <v>23</v>
       </c>
       <c r="G187" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H187" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187">
         <v>0</v>
       </c>
       <c r="K187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L187">
         <v>1</v>
@@ -39707,160 +39710,160 @@
         <v>90</v>
       </c>
       <c r="Q187">
+        <v>2.65</v>
+      </c>
+      <c r="R187">
+        <v>2.2</v>
+      </c>
+      <c r="S187">
+        <v>3.5</v>
+      </c>
+      <c r="T187">
+        <v>1.32</v>
+      </c>
+      <c r="U187">
         <v>3.1</v>
       </c>
-      <c r="R187">
-        <v>2.1</v>
-      </c>
-      <c r="S187">
-        <v>3.25</v>
-      </c>
-      <c r="T187">
-        <v>1.4</v>
-      </c>
-      <c r="U187">
-        <v>2.8</v>
-      </c>
       <c r="V187">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="W187">
+        <v>1.48</v>
+      </c>
+      <c r="X187">
+        <v>5.5</v>
+      </c>
+      <c r="Y187">
+        <v>1.11</v>
+      </c>
+      <c r="Z187">
+        <v>1.98</v>
+      </c>
+      <c r="AA187">
+        <v>3.2</v>
+      </c>
+      <c r="AB187">
+        <v>2.98</v>
+      </c>
+      <c r="AC187">
+        <v>1.04</v>
+      </c>
+      <c r="AD187">
+        <v>15</v>
+      </c>
+      <c r="AE187">
+        <v>1.23</v>
+      </c>
+      <c r="AF187">
+        <v>4.25</v>
+      </c>
+      <c r="AG187">
+        <v>1.65</v>
+      </c>
+      <c r="AH187">
+        <v>2.02</v>
+      </c>
+      <c r="AI187">
+        <v>1.58</v>
+      </c>
+      <c r="AJ187">
+        <v>2.2</v>
+      </c>
+      <c r="AK187">
         <v>1.38</v>
-      </c>
-      <c r="X187">
-        <v>6.5</v>
-      </c>
-      <c r="Y187">
-        <v>1.08</v>
-      </c>
-      <c r="Z187">
-        <v>2.57</v>
-      </c>
-      <c r="AA187">
-        <v>3.33</v>
-      </c>
-      <c r="AB187">
-        <v>2.7</v>
-      </c>
-      <c r="AC187">
-        <v>1.06</v>
-      </c>
-      <c r="AD187">
-        <v>11.25</v>
-      </c>
-      <c r="AE187">
-        <v>1.3</v>
-      </c>
-      <c r="AF187">
-        <v>3.53</v>
-      </c>
-      <c r="AG187">
-        <v>1.95</v>
-      </c>
-      <c r="AH187">
-        <v>1.87</v>
-      </c>
-      <c r="AI187">
-        <v>1.7</v>
-      </c>
-      <c r="AJ187">
-        <v>2</v>
-      </c>
-      <c r="AK187">
-        <v>1.45</v>
       </c>
       <c r="AL187">
         <v>1.3</v>
       </c>
       <c r="AM187">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="AN187">
         <v>1.27</v>
       </c>
       <c r="AO187">
-        <v>1.09</v>
+        <v>1.36</v>
       </c>
       <c r="AP187">
         <v>1.42</v>
       </c>
       <c r="AQ187">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR187">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="AS187">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="AT187">
         <v>2.87</v>
       </c>
       <c r="AU187">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV187">
+        <v>7</v>
+      </c>
+      <c r="AW187">
         <v>6</v>
       </c>
-      <c r="AW187">
+      <c r="AX187">
+        <v>1</v>
+      </c>
+      <c r="AY187">
+        <v>12</v>
+      </c>
+      <c r="AZ187">
+        <v>8</v>
+      </c>
+      <c r="BA187">
         <v>3</v>
       </c>
-      <c r="AX187">
+      <c r="BB187">
         <v>7</v>
       </c>
-      <c r="AY187">
-        <v>5</v>
-      </c>
-      <c r="AZ187">
-        <v>13</v>
-      </c>
-      <c r="BA187">
-        <v>0</v>
-      </c>
-      <c r="BB187">
-        <v>2</v>
-      </c>
       <c r="BC187">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BD187">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="BE187">
         <v>8</v>
       </c>
       <c r="BF187">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="BG187">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="BH187">
-        <v>3.42</v>
+        <v>4.1</v>
       </c>
       <c r="BI187">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="BJ187">
-        <v>2.42</v>
+        <v>2.79</v>
       </c>
       <c r="BK187">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="BL187">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="BM187">
-        <v>2.34</v>
+        <v>2.08</v>
       </c>
       <c r="BN187">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="BO187">
-        <v>3.18</v>
+        <v>2.71</v>
       </c>
       <c r="BP187">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="188" spans="1:68">
@@ -39868,7 +39871,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>7347939</v>
+        <v>7347936</v>
       </c>
       <c r="C188" t="s">
         <v>68</v>
@@ -39877,196 +39880,196 @@
         <v>69</v>
       </c>
       <c r="E188" s="2">
-        <v>45521.35763888889</v>
+        <v>45520.375</v>
       </c>
       <c r="F188">
         <v>23</v>
       </c>
       <c r="G188" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H188" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I188">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J188">
         <v>0</v>
       </c>
       <c r="K188">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L188">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N188">
+        <v>0</v>
+      </c>
+      <c r="O188" t="s">
+        <v>90</v>
+      </c>
+      <c r="P188" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q188">
+        <v>2.1</v>
+      </c>
+      <c r="R188">
+        <v>2.6</v>
+      </c>
+      <c r="S188">
+        <v>4.1</v>
+      </c>
+      <c r="T188">
+        <v>1.2</v>
+      </c>
+      <c r="U188">
+        <v>4.25</v>
+      </c>
+      <c r="V188">
+        <v>1.95</v>
+      </c>
+      <c r="W188">
+        <v>1.78</v>
+      </c>
+      <c r="X188">
+        <v>3.9</v>
+      </c>
+      <c r="Y188">
+        <v>1.22</v>
+      </c>
+      <c r="Z188">
+        <v>1.6</v>
+      </c>
+      <c r="AA188">
+        <v>3.73</v>
+      </c>
+      <c r="AB188">
+        <v>3.52</v>
+      </c>
+      <c r="AC188">
+        <v>1.01</v>
+      </c>
+      <c r="AD188">
+        <v>27.5</v>
+      </c>
+      <c r="AE188">
+        <v>1.11</v>
+      </c>
+      <c r="AF188">
+        <v>7</v>
+      </c>
+      <c r="AG188">
+        <v>1.3</v>
+      </c>
+      <c r="AH188">
+        <v>3.05</v>
+      </c>
+      <c r="AI188">
+        <v>1.4</v>
+      </c>
+      <c r="AJ188">
+        <v>2.75</v>
+      </c>
+      <c r="AK188">
+        <v>1.23</v>
+      </c>
+      <c r="AL188">
+        <v>1.25</v>
+      </c>
+      <c r="AM188">
+        <v>2.05</v>
+      </c>
+      <c r="AN188">
+        <v>2.27</v>
+      </c>
+      <c r="AO188">
+        <v>0.55</v>
+      </c>
+      <c r="AP188">
+        <v>2.17</v>
+      </c>
+      <c r="AQ188">
+        <v>0.58</v>
+      </c>
+      <c r="AR188">
+        <v>1.79</v>
+      </c>
+      <c r="AS188">
+        <v>1.77</v>
+      </c>
+      <c r="AT188">
+        <v>3.56</v>
+      </c>
+      <c r="AU188">
+        <v>5</v>
+      </c>
+      <c r="AV188">
+        <v>6</v>
+      </c>
+      <c r="AW188">
+        <v>5</v>
+      </c>
+      <c r="AX188">
+        <v>5</v>
+      </c>
+      <c r="AY188">
+        <v>10</v>
+      </c>
+      <c r="AZ188">
+        <v>11</v>
+      </c>
+      <c r="BA188">
+        <v>5</v>
+      </c>
+      <c r="BB188">
         <v>3</v>
-      </c>
-      <c r="O188" t="s">
-        <v>213</v>
-      </c>
-      <c r="P188" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q188">
-        <v>3.05</v>
-      </c>
-      <c r="R188">
-        <v>2.3</v>
-      </c>
-      <c r="S188">
-        <v>2.9</v>
-      </c>
-      <c r="T188">
-        <v>1.3</v>
-      </c>
-      <c r="U188">
-        <v>3.4</v>
-      </c>
-      <c r="V188">
-        <v>2.35</v>
-      </c>
-      <c r="W188">
-        <v>1.52</v>
-      </c>
-      <c r="X188">
-        <v>5</v>
-      </c>
-      <c r="Y188">
-        <v>1.14</v>
-      </c>
-      <c r="Z188">
-        <v>2.5</v>
-      </c>
-      <c r="AA188">
-        <v>3.6</v>
-      </c>
-      <c r="AB188">
-        <v>2.4</v>
-      </c>
-      <c r="AC188">
-        <v>1.03</v>
-      </c>
-      <c r="AD188">
-        <v>17.25</v>
-      </c>
-      <c r="AE188">
-        <v>1.19</v>
-      </c>
-      <c r="AF188">
-        <v>4.73</v>
-      </c>
-      <c r="AG188">
-        <v>1.58</v>
-      </c>
-      <c r="AH188">
-        <v>2.28</v>
-      </c>
-      <c r="AI188">
-        <v>1.5</v>
-      </c>
-      <c r="AJ188">
-        <v>2.45</v>
-      </c>
-      <c r="AK188">
-        <v>1.55</v>
-      </c>
-      <c r="AL188">
-        <v>1.3</v>
-      </c>
-      <c r="AM188">
-        <v>1.48</v>
-      </c>
-      <c r="AN188">
-        <v>0.92</v>
-      </c>
-      <c r="AO188">
-        <v>0.75</v>
-      </c>
-      <c r="AP188">
-        <v>1.08</v>
-      </c>
-      <c r="AQ188">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AR188">
-        <v>1.23</v>
-      </c>
-      <c r="AS188">
-        <v>1.08</v>
-      </c>
-      <c r="AT188">
-        <v>2.31</v>
-      </c>
-      <c r="AU188">
-        <v>8</v>
-      </c>
-      <c r="AV188">
-        <v>2</v>
-      </c>
-      <c r="AW188">
-        <v>6</v>
-      </c>
-      <c r="AX188">
-        <v>6</v>
-      </c>
-      <c r="AY188">
-        <v>14</v>
-      </c>
-      <c r="AZ188">
-        <v>8</v>
-      </c>
-      <c r="BA188">
-        <v>2</v>
-      </c>
-      <c r="BB188">
-        <v>6</v>
       </c>
       <c r="BC188">
         <v>8</v>
       </c>
       <c r="BD188">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="BE188">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="BF188">
-        <v>2.3</v>
+        <v>2.88</v>
       </c>
       <c r="BG188">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="BH188">
-        <v>3.42</v>
+        <v>4.9</v>
       </c>
       <c r="BI188">
-        <v>1.47</v>
+        <v>1.27</v>
       </c>
       <c r="BJ188">
-        <v>2.42</v>
+        <v>3.28</v>
       </c>
       <c r="BK188">
+        <v>1.49</v>
+      </c>
+      <c r="BL188">
+        <v>2.38</v>
+      </c>
+      <c r="BM188">
+        <v>1.92</v>
+      </c>
+      <c r="BN188">
         <v>1.88</v>
       </c>
-      <c r="BL188">
-        <v>1.92</v>
-      </c>
-      <c r="BM188">
-        <v>2.34</v>
-      </c>
-      <c r="BN188">
-        <v>1.5</v>
-      </c>
       <c r="BO188">
-        <v>3.18</v>
+        <v>2.32</v>
       </c>
       <c r="BP188">
-        <v>1.28</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="189" spans="1:68">
@@ -40074,7 +40077,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>7347938</v>
+        <v>7347935</v>
       </c>
       <c r="C189" t="s">
         <v>68</v>
@@ -40083,16 +40086,16 @@
         <v>69</v>
       </c>
       <c r="E189" s="2">
-        <v>45521.35763888889</v>
+        <v>45520.375</v>
       </c>
       <c r="F189">
         <v>23</v>
       </c>
       <c r="G189" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H189" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I189">
         <v>0</v>
@@ -40104,175 +40107,175 @@
         <v>1</v>
       </c>
       <c r="L189">
+        <v>0</v>
+      </c>
+      <c r="M189">
         <v>3</v>
       </c>
-      <c r="M189">
-        <v>1</v>
-      </c>
       <c r="N189">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O189" t="s">
-        <v>214</v>
+        <v>90</v>
       </c>
       <c r="P189" t="s">
-        <v>112</v>
+        <v>319</v>
       </c>
       <c r="Q189">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="R189">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="S189">
-        <v>2.26</v>
+        <v>3</v>
       </c>
       <c r="T189">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U189">
         <v>3.4</v>
       </c>
       <c r="V189">
-        <v>2.22</v>
+        <v>2.5</v>
       </c>
       <c r="W189">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="X189">
-        <v>4.6</v>
+        <v>6</v>
       </c>
       <c r="Y189">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="Z189">
-        <v>3.5</v>
+        <v>2.39</v>
       </c>
       <c r="AA189">
-        <v>3.5</v>
+        <v>3.08</v>
       </c>
       <c r="AB189">
-        <v>1.91</v>
+        <v>2.28</v>
       </c>
       <c r="AC189">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AD189">
-        <v>18.5</v>
+        <v>9</v>
       </c>
       <c r="AE189">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="AF189">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="AG189">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="AH189">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AI189">
+        <v>1.53</v>
+      </c>
+      <c r="AJ189">
+        <v>2.38</v>
+      </c>
+      <c r="AK189">
         <v>1.5</v>
-      </c>
-      <c r="AJ189">
-        <v>2.4</v>
-      </c>
-      <c r="AK189">
-        <v>1.88</v>
       </c>
       <c r="AL189">
         <v>1.25</v>
       </c>
       <c r="AM189">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AN189">
-        <v>2.64</v>
+        <v>0.55</v>
       </c>
       <c r="AO189">
-        <v>2.64</v>
+        <v>0.7</v>
       </c>
       <c r="AP189">
-        <v>2.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ189">
-        <v>2.42</v>
+        <v>0.91</v>
       </c>
       <c r="AR189">
-        <v>2.21</v>
+        <v>1.24</v>
       </c>
       <c r="AS189">
-        <v>2.19</v>
+        <v>1.2</v>
       </c>
       <c r="AT189">
-        <v>4.4</v>
+        <v>2.44</v>
       </c>
       <c r="AU189">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AV189">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW189">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX189">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AY189">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AZ189">
         <v>11</v>
       </c>
       <c r="BA189">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BB189">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC189">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD189">
-        <v>2.65</v>
+        <v>1.73</v>
       </c>
       <c r="BE189">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF189">
-        <v>1.62</v>
+        <v>2.4</v>
       </c>
       <c r="BG189">
-        <v>1.16</v>
+        <v>1.24</v>
       </c>
       <c r="BH189">
-        <v>4.33</v>
+        <v>3.48</v>
       </c>
       <c r="BI189">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="BJ189">
-        <v>2.93</v>
+        <v>2.45</v>
       </c>
       <c r="BK189">
-        <v>1.58</v>
+        <v>1.88</v>
       </c>
       <c r="BL189">
-        <v>2.17</v>
+        <v>1.92</v>
       </c>
       <c r="BM189">
-        <v>1.99</v>
+        <v>2.32</v>
       </c>
       <c r="BN189">
-        <v>1.73</v>
+        <v>1.51</v>
       </c>
       <c r="BO189">
-        <v>2.57</v>
+        <v>3.14</v>
       </c>
       <c r="BP189">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="190" spans="1:68">
@@ -40280,7 +40283,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>7347940</v>
+        <v>7347937</v>
       </c>
       <c r="C190" t="s">
         <v>68</v>
@@ -40289,16 +40292,16 @@
         <v>69</v>
       </c>
       <c r="E190" s="2">
-        <v>45521.375</v>
+        <v>45521.33333333334</v>
       </c>
       <c r="F190">
         <v>23</v>
       </c>
       <c r="G190" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H190" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I190">
         <v>1</v>
@@ -40310,174 +40313,792 @@
         <v>1</v>
       </c>
       <c r="L190">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M190">
         <v>0</v>
       </c>
       <c r="N190">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O190" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P190" t="s">
         <v>90</v>
       </c>
       <c r="Q190">
+        <v>3.1</v>
+      </c>
+      <c r="R190">
+        <v>2.1</v>
+      </c>
+      <c r="S190">
+        <v>3.25</v>
+      </c>
+      <c r="T190">
+        <v>1.4</v>
+      </c>
+      <c r="U190">
+        <v>2.8</v>
+      </c>
+      <c r="V190">
+        <v>2.8</v>
+      </c>
+      <c r="W190">
+        <v>1.38</v>
+      </c>
+      <c r="X190">
+        <v>6.5</v>
+      </c>
+      <c r="Y190">
+        <v>1.08</v>
+      </c>
+      <c r="Z190">
+        <v>2.57</v>
+      </c>
+      <c r="AA190">
+        <v>3.33</v>
+      </c>
+      <c r="AB190">
+        <v>2.7</v>
+      </c>
+      <c r="AC190">
+        <v>1.06</v>
+      </c>
+      <c r="AD190">
+        <v>11.25</v>
+      </c>
+      <c r="AE190">
+        <v>1.3</v>
+      </c>
+      <c r="AF190">
+        <v>3.53</v>
+      </c>
+      <c r="AG190">
+        <v>1.95</v>
+      </c>
+      <c r="AH190">
+        <v>1.87</v>
+      </c>
+      <c r="AI190">
+        <v>1.7</v>
+      </c>
+      <c r="AJ190">
+        <v>2</v>
+      </c>
+      <c r="AK190">
+        <v>1.45</v>
+      </c>
+      <c r="AL190">
+        <v>1.3</v>
+      </c>
+      <c r="AM190">
+        <v>1.55</v>
+      </c>
+      <c r="AN190">
+        <v>1.27</v>
+      </c>
+      <c r="AO190">
+        <v>1.09</v>
+      </c>
+      <c r="AP190">
+        <v>1.42</v>
+      </c>
+      <c r="AQ190">
+        <v>1</v>
+      </c>
+      <c r="AR190">
+        <v>1.5</v>
+      </c>
+      <c r="AS190">
+        <v>1.37</v>
+      </c>
+      <c r="AT190">
+        <v>2.87</v>
+      </c>
+      <c r="AU190">
+        <v>2</v>
+      </c>
+      <c r="AV190">
+        <v>6</v>
+      </c>
+      <c r="AW190">
+        <v>3</v>
+      </c>
+      <c r="AX190">
+        <v>7</v>
+      </c>
+      <c r="AY190">
+        <v>5</v>
+      </c>
+      <c r="AZ190">
+        <v>13</v>
+      </c>
+      <c r="BA190">
+        <v>0</v>
+      </c>
+      <c r="BB190">
+        <v>2</v>
+      </c>
+      <c r="BC190">
+        <v>2</v>
+      </c>
+      <c r="BD190">
+        <v>1.91</v>
+      </c>
+      <c r="BE190">
+        <v>8</v>
+      </c>
+      <c r="BF190">
+        <v>2.1</v>
+      </c>
+      <c r="BG190">
+        <v>1.25</v>
+      </c>
+      <c r="BH190">
+        <v>3.42</v>
+      </c>
+      <c r="BI190">
+        <v>1.47</v>
+      </c>
+      <c r="BJ190">
+        <v>2.42</v>
+      </c>
+      <c r="BK190">
+        <v>1.88</v>
+      </c>
+      <c r="BL190">
+        <v>1.92</v>
+      </c>
+      <c r="BM190">
+        <v>2.34</v>
+      </c>
+      <c r="BN190">
+        <v>1.5</v>
+      </c>
+      <c r="BO190">
+        <v>3.18</v>
+      </c>
+      <c r="BP190">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="191" spans="1:68">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>7347939</v>
+      </c>
+      <c r="C191" t="s">
+        <v>68</v>
+      </c>
+      <c r="D191" t="s">
+        <v>69</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45521.35763888889</v>
+      </c>
+      <c r="F191">
+        <v>23</v>
+      </c>
+      <c r="G191" t="s">
+        <v>77</v>
+      </c>
+      <c r="H191" t="s">
+        <v>84</v>
+      </c>
+      <c r="I191">
+        <v>2</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>2</v>
+      </c>
+      <c r="L191">
+        <v>2</v>
+      </c>
+      <c r="M191">
+        <v>1</v>
+      </c>
+      <c r="N191">
+        <v>3</v>
+      </c>
+      <c r="O191" t="s">
+        <v>214</v>
+      </c>
+      <c r="P191" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q191">
+        <v>3.05</v>
+      </c>
+      <c r="R191">
+        <v>2.3</v>
+      </c>
+      <c r="S191">
+        <v>2.9</v>
+      </c>
+      <c r="T191">
+        <v>1.3</v>
+      </c>
+      <c r="U191">
+        <v>3.4</v>
+      </c>
+      <c r="V191">
+        <v>2.35</v>
+      </c>
+      <c r="W191">
+        <v>1.52</v>
+      </c>
+      <c r="X191">
+        <v>5</v>
+      </c>
+      <c r="Y191">
+        <v>1.14</v>
+      </c>
+      <c r="Z191">
+        <v>2.5</v>
+      </c>
+      <c r="AA191">
+        <v>3.6</v>
+      </c>
+      <c r="AB191">
+        <v>2.4</v>
+      </c>
+      <c r="AC191">
+        <v>1.03</v>
+      </c>
+      <c r="AD191">
+        <v>17.25</v>
+      </c>
+      <c r="AE191">
+        <v>1.19</v>
+      </c>
+      <c r="AF191">
+        <v>4.73</v>
+      </c>
+      <c r="AG191">
+        <v>1.58</v>
+      </c>
+      <c r="AH191">
+        <v>2.28</v>
+      </c>
+      <c r="AI191">
+        <v>1.5</v>
+      </c>
+      <c r="AJ191">
+        <v>2.45</v>
+      </c>
+      <c r="AK191">
+        <v>1.55</v>
+      </c>
+      <c r="AL191">
+        <v>1.3</v>
+      </c>
+      <c r="AM191">
+        <v>1.48</v>
+      </c>
+      <c r="AN191">
+        <v>0.92</v>
+      </c>
+      <c r="AO191">
+        <v>0.75</v>
+      </c>
+      <c r="AP191">
+        <v>1.08</v>
+      </c>
+      <c r="AQ191">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR191">
+        <v>1.23</v>
+      </c>
+      <c r="AS191">
+        <v>1.08</v>
+      </c>
+      <c r="AT191">
+        <v>2.31</v>
+      </c>
+      <c r="AU191">
+        <v>8</v>
+      </c>
+      <c r="AV191">
+        <v>2</v>
+      </c>
+      <c r="AW191">
+        <v>6</v>
+      </c>
+      <c r="AX191">
+        <v>6</v>
+      </c>
+      <c r="AY191">
+        <v>14</v>
+      </c>
+      <c r="AZ191">
+        <v>8</v>
+      </c>
+      <c r="BA191">
+        <v>2</v>
+      </c>
+      <c r="BB191">
+        <v>6</v>
+      </c>
+      <c r="BC191">
+        <v>8</v>
+      </c>
+      <c r="BD191">
+        <v>1.8</v>
+      </c>
+      <c r="BE191">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF191">
+        <v>2.3</v>
+      </c>
+      <c r="BG191">
+        <v>1.25</v>
+      </c>
+      <c r="BH191">
+        <v>3.42</v>
+      </c>
+      <c r="BI191">
+        <v>1.47</v>
+      </c>
+      <c r="BJ191">
+        <v>2.42</v>
+      </c>
+      <c r="BK191">
+        <v>1.88</v>
+      </c>
+      <c r="BL191">
+        <v>1.92</v>
+      </c>
+      <c r="BM191">
+        <v>2.34</v>
+      </c>
+      <c r="BN191">
+        <v>1.5</v>
+      </c>
+      <c r="BO191">
+        <v>3.18</v>
+      </c>
+      <c r="BP191">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="192" spans="1:68">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>7347938</v>
+      </c>
+      <c r="C192" t="s">
+        <v>68</v>
+      </c>
+      <c r="D192" t="s">
+        <v>69</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45521.35763888889</v>
+      </c>
+      <c r="F192">
+        <v>23</v>
+      </c>
+      <c r="G192" t="s">
+        <v>79</v>
+      </c>
+      <c r="H192" t="s">
+        <v>72</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>1</v>
+      </c>
+      <c r="K192">
+        <v>1</v>
+      </c>
+      <c r="L192">
+        <v>3</v>
+      </c>
+      <c r="M192">
+        <v>1</v>
+      </c>
+      <c r="N192">
+        <v>4</v>
+      </c>
+      <c r="O192" t="s">
+        <v>215</v>
+      </c>
+      <c r="P192" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q192">
+        <v>4.2</v>
+      </c>
+      <c r="R192">
+        <v>2.55</v>
+      </c>
+      <c r="S192">
+        <v>2.26</v>
+      </c>
+      <c r="T192">
+        <v>1.29</v>
+      </c>
+      <c r="U192">
+        <v>3.4</v>
+      </c>
+      <c r="V192">
+        <v>2.22</v>
+      </c>
+      <c r="W192">
+        <v>1.63</v>
+      </c>
+      <c r="X192">
+        <v>4.6</v>
+      </c>
+      <c r="Y192">
+        <v>1.16</v>
+      </c>
+      <c r="Z192">
+        <v>3.5</v>
+      </c>
+      <c r="AA192">
+        <v>3.5</v>
+      </c>
+      <c r="AB192">
+        <v>1.91</v>
+      </c>
+      <c r="AC192">
+        <v>1.02</v>
+      </c>
+      <c r="AD192">
+        <v>18.5</v>
+      </c>
+      <c r="AE192">
+        <v>1.15</v>
+      </c>
+      <c r="AF192">
+        <v>4.75</v>
+      </c>
+      <c r="AG192">
+        <v>1.49</v>
+      </c>
+      <c r="AH192">
+        <v>2.44</v>
+      </c>
+      <c r="AI192">
+        <v>1.5</v>
+      </c>
+      <c r="AJ192">
+        <v>2.4</v>
+      </c>
+      <c r="AK192">
+        <v>1.88</v>
+      </c>
+      <c r="AL192">
+        <v>1.25</v>
+      </c>
+      <c r="AM192">
+        <v>1.3</v>
+      </c>
+      <c r="AN192">
+        <v>2.64</v>
+      </c>
+      <c r="AO192">
+        <v>2.64</v>
+      </c>
+      <c r="AP192">
+        <v>2.67</v>
+      </c>
+      <c r="AQ192">
+        <v>2.42</v>
+      </c>
+      <c r="AR192">
+        <v>2.21</v>
+      </c>
+      <c r="AS192">
+        <v>2.19</v>
+      </c>
+      <c r="AT192">
+        <v>4.4</v>
+      </c>
+      <c r="AU192">
+        <v>10</v>
+      </c>
+      <c r="AV192">
+        <v>3</v>
+      </c>
+      <c r="AW192">
+        <v>7</v>
+      </c>
+      <c r="AX192">
+        <v>8</v>
+      </c>
+      <c r="AY192">
+        <v>17</v>
+      </c>
+      <c r="AZ192">
+        <v>11</v>
+      </c>
+      <c r="BA192">
+        <v>7</v>
+      </c>
+      <c r="BB192">
+        <v>2</v>
+      </c>
+      <c r="BC192">
+        <v>9</v>
+      </c>
+      <c r="BD192">
+        <v>2.65</v>
+      </c>
+      <c r="BE192">
+        <v>8.5</v>
+      </c>
+      <c r="BF192">
+        <v>1.62</v>
+      </c>
+      <c r="BG192">
+        <v>1.16</v>
+      </c>
+      <c r="BH192">
+        <v>4.33</v>
+      </c>
+      <c r="BI192">
+        <v>1.33</v>
+      </c>
+      <c r="BJ192">
+        <v>2.93</v>
+      </c>
+      <c r="BK192">
+        <v>1.58</v>
+      </c>
+      <c r="BL192">
+        <v>2.17</v>
+      </c>
+      <c r="BM192">
+        <v>1.99</v>
+      </c>
+      <c r="BN192">
+        <v>1.73</v>
+      </c>
+      <c r="BO192">
+        <v>2.57</v>
+      </c>
+      <c r="BP192">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="193" spans="1:68">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>7347940</v>
+      </c>
+      <c r="C193" t="s">
+        <v>68</v>
+      </c>
+      <c r="D193" t="s">
+        <v>69</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45521.375</v>
+      </c>
+      <c r="F193">
+        <v>23</v>
+      </c>
+      <c r="G193" t="s">
+        <v>70</v>
+      </c>
+      <c r="H193" t="s">
+        <v>75</v>
+      </c>
+      <c r="I193">
+        <v>1</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>1</v>
+      </c>
+      <c r="L193">
+        <v>3</v>
+      </c>
+      <c r="M193">
+        <v>0</v>
+      </c>
+      <c r="N193">
+        <v>3</v>
+      </c>
+      <c r="O193" t="s">
+        <v>216</v>
+      </c>
+      <c r="P193" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q193">
         <v>4.64</v>
       </c>
-      <c r="R190">
+      <c r="R193">
         <v>2.42</v>
       </c>
-      <c r="S190">
+      <c r="S193">
         <v>2.25</v>
       </c>
-      <c r="T190">
+      <c r="T193">
         <v>1.3</v>
       </c>
-      <c r="U190">
+      <c r="U193">
         <v>3.25</v>
       </c>
-      <c r="V190">
+      <c r="V193">
         <v>2.49</v>
       </c>
-      <c r="W190">
+      <c r="W193">
         <v>1.5</v>
       </c>
-      <c r="X190">
+      <c r="X193">
         <v>5.25</v>
       </c>
-      <c r="Y190">
+      <c r="Y193">
         <v>1.12</v>
       </c>
-      <c r="Z190">
+      <c r="Z193">
         <v>4.2</v>
       </c>
-      <c r="AA190">
+      <c r="AA193">
         <v>4</v>
       </c>
-      <c r="AB190">
+      <c r="AB193">
         <v>1.67</v>
       </c>
-      <c r="AC190">
+      <c r="AC193">
         <v>1.01</v>
       </c>
-      <c r="AD190">
+      <c r="AD193">
         <v>11</v>
       </c>
-      <c r="AE190">
+      <c r="AE193">
         <v>1.18</v>
       </c>
-      <c r="AF190">
+      <c r="AF193">
         <v>4.33</v>
       </c>
-      <c r="AG190">
+      <c r="AG193">
         <v>1.62</v>
       </c>
-      <c r="AH190">
+      <c r="AH193">
         <v>2.2</v>
       </c>
-      <c r="AI190">
+      <c r="AI193">
         <v>1.65</v>
       </c>
-      <c r="AJ190">
+      <c r="AJ193">
         <v>2.1</v>
       </c>
-      <c r="AK190">
+      <c r="AK193">
         <v>2.15</v>
       </c>
-      <c r="AL190">
+      <c r="AL193">
         <v>1.22</v>
       </c>
-      <c r="AM190">
+      <c r="AM193">
         <v>1.29</v>
       </c>
-      <c r="AN190">
+      <c r="AN193">
         <v>1.8</v>
       </c>
-      <c r="AO190">
+      <c r="AO193">
         <v>1.92</v>
       </c>
-      <c r="AP190">
+      <c r="AP193">
         <v>1.91</v>
       </c>
-      <c r="AQ190">
+      <c r="AQ193">
         <v>1.77</v>
       </c>
-      <c r="AR190">
+      <c r="AR193">
         <v>1.79</v>
       </c>
-      <c r="AS190">
+      <c r="AS193">
         <v>1.66</v>
       </c>
-      <c r="AT190">
+      <c r="AT193">
         <v>3.45</v>
       </c>
-      <c r="AU190">
+      <c r="AU193">
         <v>7</v>
       </c>
-      <c r="AV190">
+      <c r="AV193">
         <v>9</v>
       </c>
-      <c r="AW190">
-        <v>2</v>
-      </c>
-      <c r="AX190">
+      <c r="AW193">
+        <v>2</v>
+      </c>
+      <c r="AX193">
         <v>12</v>
       </c>
-      <c r="AY190">
+      <c r="AY193">
         <v>9</v>
       </c>
-      <c r="AZ190">
+      <c r="AZ193">
         <v>21</v>
       </c>
-      <c r="BA190">
-        <v>1</v>
-      </c>
-      <c r="BB190">
+      <c r="BA193">
+        <v>1</v>
+      </c>
+      <c r="BB193">
         <v>11</v>
       </c>
-      <c r="BC190">
+      <c r="BC193">
         <v>12</v>
       </c>
-      <c r="BD190">
+      <c r="BD193">
         <v>3</v>
       </c>
-      <c r="BE190">
+      <c r="BE193">
         <v>8.5</v>
       </c>
-      <c r="BF190">
+      <c r="BF193">
         <v>1.5</v>
       </c>
-      <c r="BG190">
+      <c r="BG193">
         <v>1.22</v>
       </c>
-      <c r="BH190">
+      <c r="BH193">
         <v>3.65</v>
       </c>
-      <c r="BI190">
+      <c r="BI193">
         <v>1.43</v>
       </c>
-      <c r="BJ190">
+      <c r="BJ193">
         <v>2.54</v>
       </c>
-      <c r="BK190">
+      <c r="BK193">
         <v>1.8</v>
       </c>
-      <c r="BL190">
-        <v>2</v>
-      </c>
-      <c r="BM190">
+      <c r="BL193">
+        <v>2</v>
+      </c>
+      <c r="BM193">
         <v>2.23</v>
       </c>
-      <c r="BN190">
+      <c r="BN193">
         <v>1.55</v>
       </c>
-      <c r="BO190">
+      <c r="BO193">
         <v>2.98</v>
       </c>
-      <c r="BP190">
+      <c r="BP193">
         <v>1.32</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="324">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -667,6 +667,12 @@
     <t>['12', '69', '89']</t>
   </si>
   <si>
+    <t>['18', '82']</t>
+  </si>
+  <si>
+    <t>['4', '34', '67']</t>
+  </si>
+  <si>
     <t>['81', '90+3']</t>
   </si>
   <si>
@@ -977,6 +983,9 @@
   </si>
   <si>
     <t>['70']</t>
+  </si>
+  <si>
+    <t>['39', '44', '47', '64']</t>
   </si>
 </sst>
 </file>
@@ -1338,7 +1347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP193"/>
+  <dimension ref="A1:BP196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1597,7 +1606,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1675,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ2">
         <v>0.6899999999999999</v>
@@ -1803,7 +1812,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -2087,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AQ4">
         <v>1.25</v>
@@ -2421,7 +2430,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2911,10 +2920,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3039,7 +3048,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -3120,7 +3129,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ9">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3532,7 +3541,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ11">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3657,7 +3666,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -3941,7 +3950,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ13">
         <v>1.33</v>
@@ -4147,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AQ14">
         <v>2.42</v>
@@ -4275,7 +4284,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4687,7 +4696,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4893,7 +4902,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -5099,7 +5108,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5795,7 +5804,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AQ22">
         <v>1.27</v>
@@ -5923,7 +5932,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -6129,7 +6138,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6207,10 +6216,10 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ24">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AR24">
         <v>1.89</v>
@@ -6335,7 +6344,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6541,7 +6550,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6747,7 +6756,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -6828,7 +6837,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ27">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AR27">
         <v>1.22</v>
@@ -6953,7 +6962,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7034,7 +7043,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR28">
         <v>2.4</v>
@@ -7159,7 +7168,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -7365,7 +7374,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7777,7 +7786,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7983,7 +7992,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q33">
         <v>1.73</v>
@@ -8061,10 +8070,10 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AQ33">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR33">
         <v>0.79</v>
@@ -8189,7 +8198,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q34">
         <v>6.4</v>
@@ -8395,7 +8404,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q35">
         <v>1.96</v>
@@ -8473,7 +8482,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ35">
         <v>1.27</v>
@@ -8601,7 +8610,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q36">
         <v>1.98</v>
@@ -8682,7 +8691,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ36">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR36">
         <v>1.16</v>
@@ -8807,7 +8816,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -9013,7 +9022,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q38">
         <v>3.25</v>
@@ -9837,7 +9846,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -10043,7 +10052,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q43">
         <v>2.3</v>
@@ -10249,7 +10258,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q44">
         <v>4.75</v>
@@ -10661,7 +10670,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10739,7 +10748,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AQ46">
         <v>1.23</v>
@@ -10867,7 +10876,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10948,7 +10957,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ47">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR47">
         <v>1.03</v>
@@ -11485,7 +11494,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11563,7 +11572,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AQ50">
         <v>1.33</v>
@@ -11769,7 +11778,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ51">
         <v>0.83</v>
@@ -11897,7 +11906,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q52">
         <v>1.83</v>
@@ -11978,7 +11987,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ52">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR52">
         <v>1.36</v>
@@ -12309,7 +12318,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q54">
         <v>7.5</v>
@@ -12390,7 +12399,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ54">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AR54">
         <v>0.95</v>
@@ -12802,7 +12811,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ56">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR56">
         <v>1.29</v>
@@ -12927,7 +12936,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13133,7 +13142,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q58">
         <v>2.8</v>
@@ -13339,7 +13348,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q59">
         <v>3.15</v>
@@ -13545,7 +13554,7 @@
         <v>106</v>
       </c>
       <c r="P60" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13623,7 +13632,7 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AQ60">
         <v>1.33</v>
@@ -13751,7 +13760,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q61">
         <v>3.11</v>
@@ -14163,7 +14172,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q63">
         <v>2.75</v>
@@ -14447,10 +14456,10 @@
         <v>3</v>
       </c>
       <c r="AP64">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AQ64">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AR64">
         <v>2.2</v>
@@ -14653,7 +14662,7 @@
         <v>1.25</v>
       </c>
       <c r="AP65">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ65">
         <v>0.75</v>
@@ -14987,7 +14996,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q67">
         <v>2.38</v>
@@ -15065,7 +15074,7 @@
         <v>1.25</v>
       </c>
       <c r="AP67">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AQ67">
         <v>1.27</v>
@@ -15274,7 +15283,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ68">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR68">
         <v>1.05</v>
@@ -15480,7 +15489,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ69">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR69">
         <v>1.09</v>
@@ -15605,7 +15614,7 @@
         <v>90</v>
       </c>
       <c r="P70" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q70">
         <v>5.5</v>
@@ -15811,7 +15820,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q71">
         <v>2.45</v>
@@ -16429,7 +16438,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q74">
         <v>2.65</v>
@@ -16635,7 +16644,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -17047,7 +17056,7 @@
         <v>133</v>
       </c>
       <c r="P77" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17665,7 +17674,7 @@
         <v>90</v>
       </c>
       <c r="P80" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -17871,7 +17880,7 @@
         <v>136</v>
       </c>
       <c r="P81" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -18077,7 +18086,7 @@
         <v>137</v>
       </c>
       <c r="P82" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q82">
         <v>1.91</v>
@@ -18283,7 +18292,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q83">
         <v>1.62</v>
@@ -18361,7 +18370,7 @@
         <v>1.4</v>
       </c>
       <c r="AP83">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AQ83">
         <v>0.6899999999999999</v>
@@ -18570,7 +18579,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ84">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AR84">
         <v>1.89</v>
@@ -18695,7 +18704,7 @@
         <v>99</v>
       </c>
       <c r="P85" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18901,7 +18910,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q86">
         <v>1.83</v>
@@ -19107,7 +19116,7 @@
         <v>90</v>
       </c>
       <c r="P87" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -19313,7 +19322,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19394,7 +19403,7 @@
         <v>1</v>
       </c>
       <c r="AQ88">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR88">
         <v>1.33</v>
@@ -19725,7 +19734,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q90">
         <v>1.61</v>
@@ -19803,10 +19812,10 @@
         <v>1.4</v>
       </c>
       <c r="AP90">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ90">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR90">
         <v>2.05</v>
@@ -19931,7 +19940,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q91">
         <v>1.8</v>
@@ -20009,7 +20018,7 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AQ91">
         <v>0.75</v>
@@ -20137,7 +20146,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q92">
         <v>3.8</v>
@@ -20343,7 +20352,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q93">
         <v>2.55</v>
@@ -20549,7 +20558,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q94">
         <v>4.5</v>
@@ -20755,7 +20764,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q95">
         <v>4.5</v>
@@ -20961,7 +20970,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q96">
         <v>9</v>
@@ -21248,7 +21257,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ97">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR97">
         <v>1.33</v>
@@ -21373,7 +21382,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q98">
         <v>4.63</v>
@@ -21579,7 +21588,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q99">
         <v>2.31</v>
@@ -21657,7 +21666,7 @@
         <v>1.33</v>
       </c>
       <c r="AP99">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AQ99">
         <v>1.25</v>
@@ -21785,7 +21794,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21866,7 +21875,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ100">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AR100">
         <v>1.53</v>
@@ -21991,7 +22000,7 @@
         <v>151</v>
       </c>
       <c r="P101" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q101">
         <v>2.43</v>
@@ -22197,7 +22206,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -22403,7 +22412,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -22687,7 +22696,7 @@
         <v>1.8</v>
       </c>
       <c r="AP104">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AQ104">
         <v>1.77</v>
@@ -22893,7 +22902,7 @@
         <v>1.2</v>
       </c>
       <c r="AP105">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ105">
         <v>0.58</v>
@@ -23308,7 +23317,7 @@
         <v>1</v>
       </c>
       <c r="AQ107">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AR107">
         <v>1.26</v>
@@ -23639,7 +23648,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q109">
         <v>1.95</v>
@@ -24132,7 +24141,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ111">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR111">
         <v>1.64</v>
@@ -24335,7 +24344,7 @@
         <v>1</v>
       </c>
       <c r="AP112">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AQ112">
         <v>0.83</v>
@@ -24669,7 +24678,7 @@
         <v>90</v>
       </c>
       <c r="P114" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -24875,7 +24884,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -24956,7 +24965,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ115">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR115">
         <v>1.37</v>
@@ -25081,7 +25090,7 @@
         <v>160</v>
       </c>
       <c r="P116" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q116">
         <v>1.95</v>
@@ -25159,7 +25168,7 @@
         <v>1.14</v>
       </c>
       <c r="AP116">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AQ116">
         <v>0.6899999999999999</v>
@@ -25287,7 +25296,7 @@
         <v>161</v>
       </c>
       <c r="P117" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q117">
         <v>3.1</v>
@@ -25493,7 +25502,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q118">
         <v>3.75</v>
@@ -25905,7 +25914,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q120">
         <v>3.6</v>
@@ -26111,7 +26120,7 @@
         <v>163</v>
       </c>
       <c r="P121" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26398,7 +26407,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ122">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR122">
         <v>1.65</v>
@@ -26729,7 +26738,7 @@
         <v>166</v>
       </c>
       <c r="P124" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26935,7 +26944,7 @@
         <v>90</v>
       </c>
       <c r="P125" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -27347,7 +27356,7 @@
         <v>168</v>
       </c>
       <c r="P127" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q127">
         <v>4.75</v>
@@ -27553,7 +27562,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q128">
         <v>5.5</v>
@@ -27965,7 +27974,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q130">
         <v>2.2</v>
@@ -28249,7 +28258,7 @@
         <v>0.86</v>
       </c>
       <c r="AP131">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AQ131">
         <v>0.58</v>
@@ -28458,7 +28467,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ132">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR132">
         <v>1.5</v>
@@ -28664,7 +28673,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ133">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AR133">
         <v>1.18</v>
@@ -28995,7 +29004,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q135">
         <v>3.35</v>
@@ -29613,7 +29622,7 @@
         <v>90</v>
       </c>
       <c r="P138" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q138">
         <v>5.25</v>
@@ -29819,7 +29828,7 @@
         <v>177</v>
       </c>
       <c r="P139" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q139">
         <v>2.32</v>
@@ -30231,7 +30240,7 @@
         <v>134</v>
       </c>
       <c r="P141" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q141">
         <v>3.81</v>
@@ -30312,7 +30321,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ141">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR141">
         <v>1.04</v>
@@ -30437,7 +30446,7 @@
         <v>90</v>
       </c>
       <c r="P142" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q142">
         <v>7</v>
@@ -30643,7 +30652,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q143">
         <v>2.2</v>
@@ -30930,7 +30939,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ144">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR144">
         <v>1.4</v>
@@ -31133,7 +31142,7 @@
         <v>1.14</v>
       </c>
       <c r="AP145">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AQ145">
         <v>0.82</v>
@@ -31467,7 +31476,7 @@
         <v>182</v>
       </c>
       <c r="P147" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q147">
         <v>1.71</v>
@@ -31545,7 +31554,7 @@
         <v>1.67</v>
       </c>
       <c r="AP147">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AQ147">
         <v>1.33</v>
@@ -31673,7 +31682,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q148">
         <v>1.93</v>
@@ -31879,7 +31888,7 @@
         <v>184</v>
       </c>
       <c r="P149" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q149">
         <v>5.66</v>
@@ -32163,7 +32172,7 @@
         <v>0.78</v>
       </c>
       <c r="AP150">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ150">
         <v>0.67</v>
@@ -32291,7 +32300,7 @@
         <v>185</v>
       </c>
       <c r="P151" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q151">
         <v>2.98</v>
@@ -32497,7 +32506,7 @@
         <v>186</v>
       </c>
       <c r="P152" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q152">
         <v>1.62</v>
@@ -33115,7 +33124,7 @@
         <v>188</v>
       </c>
       <c r="P155" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q155">
         <v>2.38</v>
@@ -33321,7 +33330,7 @@
         <v>90</v>
       </c>
       <c r="P156" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q156">
         <v>4.75</v>
@@ -33527,7 +33536,7 @@
         <v>189</v>
       </c>
       <c r="P157" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q157">
         <v>2.88</v>
@@ -34017,7 +34026,7 @@
         <v>0.8</v>
       </c>
       <c r="AP159">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AQ159">
         <v>0.67</v>
@@ -34351,7 +34360,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q161">
         <v>9</v>
@@ -34432,7 +34441,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ161">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AR161">
         <v>0.99</v>
@@ -34635,7 +34644,7 @@
         <v>0.9</v>
       </c>
       <c r="AP162">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AQ162">
         <v>0.75</v>
@@ -35256,7 +35265,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ165">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR165">
         <v>1.66</v>
@@ -35381,7 +35390,7 @@
         <v>197</v>
       </c>
       <c r="P166" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q166">
         <v>3.5</v>
@@ -35459,7 +35468,7 @@
         <v>1.7</v>
       </c>
       <c r="AP166">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AQ166">
         <v>1.77</v>
@@ -35587,7 +35596,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -35999,7 +36008,7 @@
         <v>90</v>
       </c>
       <c r="P169" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q169">
         <v>5.5</v>
@@ -36080,7 +36089,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ169">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AR169">
         <v>1.66</v>
@@ -36411,7 +36420,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q171">
         <v>1.75</v>
@@ -36489,7 +36498,7 @@
         <v>0.73</v>
       </c>
       <c r="AP171">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AQ171">
         <v>0.67</v>
@@ -36617,7 +36626,7 @@
         <v>90</v>
       </c>
       <c r="P172" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q172">
         <v>4.4</v>
@@ -36695,7 +36704,7 @@
         <v>2.6</v>
       </c>
       <c r="AP172">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ172">
         <v>2.42</v>
@@ -36823,7 +36832,7 @@
         <v>202</v>
       </c>
       <c r="P173" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q173">
         <v>3.5</v>
@@ -37110,7 +37119,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ174">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR174">
         <v>1.58</v>
@@ -37522,7 +37531,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ176">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AR176">
         <v>1.81</v>
@@ -37647,7 +37656,7 @@
         <v>97</v>
       </c>
       <c r="P177" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q177">
         <v>5</v>
@@ -37853,7 +37862,7 @@
         <v>206</v>
       </c>
       <c r="P178" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q178">
         <v>1.36</v>
@@ -37931,7 +37940,7 @@
         <v>0.9</v>
       </c>
       <c r="AP178">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AQ178">
         <v>0.82</v>
@@ -38059,7 +38068,7 @@
         <v>90</v>
       </c>
       <c r="P179" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q179">
         <v>6.28</v>
@@ -38265,7 +38274,7 @@
         <v>207</v>
       </c>
       <c r="P180" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q180">
         <v>4.8</v>
@@ -38471,7 +38480,7 @@
         <v>90</v>
       </c>
       <c r="P181" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q181">
         <v>3.5</v>
@@ -38883,7 +38892,7 @@
         <v>209</v>
       </c>
       <c r="P183" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q183">
         <v>1.44</v>
@@ -39089,7 +39098,7 @@
         <v>210</v>
       </c>
       <c r="P184" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q184">
         <v>4</v>
@@ -39295,7 +39304,7 @@
         <v>211</v>
       </c>
       <c r="P185" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q185">
         <v>2.75</v>
@@ -39501,7 +39510,7 @@
         <v>90</v>
       </c>
       <c r="P186" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q186">
         <v>2.25</v>
@@ -40119,7 +40128,7 @@
         <v>90</v>
       </c>
       <c r="P189" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40200,7 +40209,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ189">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR189">
         <v>1.24</v>
@@ -40406,7 +40415,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ190">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR190">
         <v>1.5</v>
@@ -40531,7 +40540,7 @@
         <v>214</v>
       </c>
       <c r="P191" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q191">
         <v>3.05</v>
@@ -41021,7 +41030,7 @@
         <v>1.92</v>
       </c>
       <c r="AP193">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ193">
         <v>1.77</v>
@@ -41100,6 +41109,624 @@
       </c>
       <c r="BP193">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="194" spans="1:68">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>7347949</v>
+      </c>
+      <c r="C194" t="s">
+        <v>68</v>
+      </c>
+      <c r="D194" t="s">
+        <v>69</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45548.33333333334</v>
+      </c>
+      <c r="F194">
+        <v>25</v>
+      </c>
+      <c r="G194" t="s">
+        <v>72</v>
+      </c>
+      <c r="H194" t="s">
+        <v>82</v>
+      </c>
+      <c r="I194">
+        <v>1</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>1</v>
+      </c>
+      <c r="L194">
+        <v>2</v>
+      </c>
+      <c r="M194">
+        <v>0</v>
+      </c>
+      <c r="N194">
+        <v>2</v>
+      </c>
+      <c r="O194" t="s">
+        <v>217</v>
+      </c>
+      <c r="P194" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q194">
+        <v>1.3</v>
+      </c>
+      <c r="R194">
+        <v>3.75</v>
+      </c>
+      <c r="S194">
+        <v>13</v>
+      </c>
+      <c r="T194">
+        <v>1.12</v>
+      </c>
+      <c r="U194">
+        <v>5.65</v>
+      </c>
+      <c r="V194">
+        <v>1.61</v>
+      </c>
+      <c r="W194">
+        <v>2.21</v>
+      </c>
+      <c r="X194">
+        <v>2.99</v>
+      </c>
+      <c r="Y194">
+        <v>1.36</v>
+      </c>
+      <c r="Z194">
+        <v>1.08</v>
+      </c>
+      <c r="AA194">
+        <v>10</v>
+      </c>
+      <c r="AB194">
+        <v>21</v>
+      </c>
+      <c r="AC194">
+        <v>1.01</v>
+      </c>
+      <c r="AD194">
+        <v>68</v>
+      </c>
+      <c r="AE194">
+        <v>1.01</v>
+      </c>
+      <c r="AF194">
+        <v>11</v>
+      </c>
+      <c r="AG194">
+        <v>1.13</v>
+      </c>
+      <c r="AH194">
+        <v>5.2</v>
+      </c>
+      <c r="AI194">
+        <v>1.87</v>
+      </c>
+      <c r="AJ194">
+        <v>1.9</v>
+      </c>
+      <c r="AK194">
+        <v>1.02</v>
+      </c>
+      <c r="AL194">
+        <v>1.03</v>
+      </c>
+      <c r="AM194">
+        <v>5.5</v>
+      </c>
+      <c r="AN194">
+        <v>2.83</v>
+      </c>
+      <c r="AO194">
+        <v>1</v>
+      </c>
+      <c r="AP194">
+        <v>2.85</v>
+      </c>
+      <c r="AQ194">
+        <v>0.92</v>
+      </c>
+      <c r="AR194">
+        <v>2.62</v>
+      </c>
+      <c r="AS194">
+        <v>1.41</v>
+      </c>
+      <c r="AT194">
+        <v>4.03</v>
+      </c>
+      <c r="AU194">
+        <v>7</v>
+      </c>
+      <c r="AV194">
+        <v>4</v>
+      </c>
+      <c r="AW194">
+        <v>8</v>
+      </c>
+      <c r="AX194">
+        <v>8</v>
+      </c>
+      <c r="AY194">
+        <v>15</v>
+      </c>
+      <c r="AZ194">
+        <v>12</v>
+      </c>
+      <c r="BA194">
+        <v>8</v>
+      </c>
+      <c r="BB194">
+        <v>0</v>
+      </c>
+      <c r="BC194">
+        <v>8</v>
+      </c>
+      <c r="BD194">
+        <v>1.1</v>
+      </c>
+      <c r="BE194">
+        <v>13</v>
+      </c>
+      <c r="BF194">
+        <v>8</v>
+      </c>
+      <c r="BG194">
+        <v>0</v>
+      </c>
+      <c r="BH194">
+        <v>0</v>
+      </c>
+      <c r="BI194">
+        <v>0</v>
+      </c>
+      <c r="BJ194">
+        <v>0</v>
+      </c>
+      <c r="BK194">
+        <v>1.85</v>
+      </c>
+      <c r="BL194">
+        <v>1.95</v>
+      </c>
+      <c r="BM194">
+        <v>2</v>
+      </c>
+      <c r="BN194">
+        <v>1.73</v>
+      </c>
+      <c r="BO194">
+        <v>2.45</v>
+      </c>
+      <c r="BP194">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="195" spans="1:68">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>7347950</v>
+      </c>
+      <c r="C195" t="s">
+        <v>68</v>
+      </c>
+      <c r="D195" t="s">
+        <v>69</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45548.35763888889</v>
+      </c>
+      <c r="F195">
+        <v>25</v>
+      </c>
+      <c r="G195" t="s">
+        <v>76</v>
+      </c>
+      <c r="H195" t="s">
+        <v>79</v>
+      </c>
+      <c r="I195">
+        <v>2</v>
+      </c>
+      <c r="J195">
+        <v>2</v>
+      </c>
+      <c r="K195">
+        <v>4</v>
+      </c>
+      <c r="L195">
+        <v>3</v>
+      </c>
+      <c r="M195">
+        <v>4</v>
+      </c>
+      <c r="N195">
+        <v>7</v>
+      </c>
+      <c r="O195" t="s">
+        <v>218</v>
+      </c>
+      <c r="P195" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q195">
+        <v>3.6</v>
+      </c>
+      <c r="R195">
+        <v>2.5</v>
+      </c>
+      <c r="S195">
+        <v>2.35</v>
+      </c>
+      <c r="T195">
+        <v>1.21</v>
+      </c>
+      <c r="U195">
+        <v>3.95</v>
+      </c>
+      <c r="V195">
+        <v>1.99</v>
+      </c>
+      <c r="W195">
+        <v>1.74</v>
+      </c>
+      <c r="X195">
+        <v>4.15</v>
+      </c>
+      <c r="Y195">
+        <v>1.2</v>
+      </c>
+      <c r="Z195">
+        <v>3.15</v>
+      </c>
+      <c r="AA195">
+        <v>4</v>
+      </c>
+      <c r="AB195">
+        <v>1.9</v>
+      </c>
+      <c r="AC195">
+        <v>1.02</v>
+      </c>
+      <c r="AD195">
+        <v>25</v>
+      </c>
+      <c r="AE195">
+        <v>1.08</v>
+      </c>
+      <c r="AF195">
+        <v>6.5</v>
+      </c>
+      <c r="AG195">
+        <v>1.36</v>
+      </c>
+      <c r="AH195">
+        <v>2.9</v>
+      </c>
+      <c r="AI195">
+        <v>1.36</v>
+      </c>
+      <c r="AJ195">
+        <v>3</v>
+      </c>
+      <c r="AK195">
+        <v>1.87</v>
+      </c>
+      <c r="AL195">
+        <v>1.18</v>
+      </c>
+      <c r="AM195">
+        <v>1.25</v>
+      </c>
+      <c r="AN195">
+        <v>2.08</v>
+      </c>
+      <c r="AO195">
+        <v>2.42</v>
+      </c>
+      <c r="AP195">
+        <v>1.92</v>
+      </c>
+      <c r="AQ195">
+        <v>2.46</v>
+      </c>
+      <c r="AR195">
+        <v>2.02</v>
+      </c>
+      <c r="AS195">
+        <v>1.72</v>
+      </c>
+      <c r="AT195">
+        <v>3.74</v>
+      </c>
+      <c r="AU195">
+        <v>8</v>
+      </c>
+      <c r="AV195">
+        <v>13</v>
+      </c>
+      <c r="AW195">
+        <v>11</v>
+      </c>
+      <c r="AX195">
+        <v>2</v>
+      </c>
+      <c r="AY195">
+        <v>19</v>
+      </c>
+      <c r="AZ195">
+        <v>15</v>
+      </c>
+      <c r="BA195">
+        <v>7</v>
+      </c>
+      <c r="BB195">
+        <v>5</v>
+      </c>
+      <c r="BC195">
+        <v>12</v>
+      </c>
+      <c r="BD195">
+        <v>2.2</v>
+      </c>
+      <c r="BE195">
+        <v>8</v>
+      </c>
+      <c r="BF195">
+        <v>1.91</v>
+      </c>
+      <c r="BG195">
+        <v>1.17</v>
+      </c>
+      <c r="BH195">
+        <v>4.2</v>
+      </c>
+      <c r="BI195">
+        <v>1.35</v>
+      </c>
+      <c r="BJ195">
+        <v>2.84</v>
+      </c>
+      <c r="BK195">
+        <v>1.77</v>
+      </c>
+      <c r="BL195">
+        <v>1.95</v>
+      </c>
+      <c r="BM195">
+        <v>2.01</v>
+      </c>
+      <c r="BN195">
+        <v>1.77</v>
+      </c>
+      <c r="BO195">
+        <v>2.67</v>
+      </c>
+      <c r="BP195">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="196" spans="1:68">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>7347951</v>
+      </c>
+      <c r="C196" t="s">
+        <v>68</v>
+      </c>
+      <c r="D196" t="s">
+        <v>69</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45548.375</v>
+      </c>
+      <c r="F196">
+        <v>25</v>
+      </c>
+      <c r="G196" t="s">
+        <v>70</v>
+      </c>
+      <c r="H196" t="s">
+        <v>71</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>1</v>
+      </c>
+      <c r="K196">
+        <v>1</v>
+      </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
+      <c r="M196">
+        <v>1</v>
+      </c>
+      <c r="N196">
+        <v>1</v>
+      </c>
+      <c r="O196" t="s">
+        <v>90</v>
+      </c>
+      <c r="P196" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q196">
+        <v>1.95</v>
+      </c>
+      <c r="R196">
+        <v>2.5</v>
+      </c>
+      <c r="S196">
+        <v>6</v>
+      </c>
+      <c r="T196">
+        <v>1.29</v>
+      </c>
+      <c r="U196">
+        <v>3.5</v>
+      </c>
+      <c r="V196">
+        <v>2.25</v>
+      </c>
+      <c r="W196">
+        <v>1.57</v>
+      </c>
+      <c r="X196">
+        <v>5.5</v>
+      </c>
+      <c r="Y196">
+        <v>1.14</v>
+      </c>
+      <c r="Z196">
+        <v>1.48</v>
+      </c>
+      <c r="AA196">
+        <v>4.1</v>
+      </c>
+      <c r="AB196">
+        <v>6.25</v>
+      </c>
+      <c r="AC196">
+        <v>1.01</v>
+      </c>
+      <c r="AD196">
+        <v>13</v>
+      </c>
+      <c r="AE196">
+        <v>1.15</v>
+      </c>
+      <c r="AF196">
+        <v>4.6</v>
+      </c>
+      <c r="AG196">
+        <v>1.57</v>
+      </c>
+      <c r="AH196">
+        <v>2.35</v>
+      </c>
+      <c r="AI196">
+        <v>1.7</v>
+      </c>
+      <c r="AJ196">
+        <v>2.05</v>
+      </c>
+      <c r="AK196">
+        <v>1.1</v>
+      </c>
+      <c r="AL196">
+        <v>1.18</v>
+      </c>
+      <c r="AM196">
+        <v>2.79</v>
+      </c>
+      <c r="AN196">
+        <v>1.91</v>
+      </c>
+      <c r="AO196">
+        <v>0.91</v>
+      </c>
+      <c r="AP196">
+        <v>1.75</v>
+      </c>
+      <c r="AQ196">
+        <v>1.08</v>
+      </c>
+      <c r="AR196">
+        <v>1.74</v>
+      </c>
+      <c r="AS196">
+        <v>1.22</v>
+      </c>
+      <c r="AT196">
+        <v>2.96</v>
+      </c>
+      <c r="AU196">
+        <v>8</v>
+      </c>
+      <c r="AV196">
+        <v>3</v>
+      </c>
+      <c r="AW196">
+        <v>10</v>
+      </c>
+      <c r="AX196">
+        <v>3</v>
+      </c>
+      <c r="AY196">
+        <v>18</v>
+      </c>
+      <c r="AZ196">
+        <v>6</v>
+      </c>
+      <c r="BA196">
+        <v>15</v>
+      </c>
+      <c r="BB196">
+        <v>8</v>
+      </c>
+      <c r="BC196">
+        <v>23</v>
+      </c>
+      <c r="BD196">
+        <v>1.33</v>
+      </c>
+      <c r="BE196">
+        <v>9.5</v>
+      </c>
+      <c r="BF196">
+        <v>4</v>
+      </c>
+      <c r="BG196">
+        <v>1.25</v>
+      </c>
+      <c r="BH196">
+        <v>3.42</v>
+      </c>
+      <c r="BI196">
+        <v>1.51</v>
+      </c>
+      <c r="BJ196">
+        <v>2.45</v>
+      </c>
+      <c r="BK196">
+        <v>1.88</v>
+      </c>
+      <c r="BL196">
+        <v>1.92</v>
+      </c>
+      <c r="BM196">
+        <v>2.36</v>
+      </c>
+      <c r="BN196">
+        <v>1.55</v>
+      </c>
+      <c r="BO196">
+        <v>3.18</v>
+      </c>
+      <c r="BP196">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="331">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -673,6 +673,21 @@
     <t>['4', '34', '67']</t>
   </si>
   <si>
+    <t>['24', '40']</t>
+  </si>
+  <si>
+    <t>['27', '80', '90+2']</t>
+  </si>
+  <si>
+    <t>['22']</t>
+  </si>
+  <si>
+    <t>['40', '45+7']</t>
+  </si>
+  <si>
+    <t>['32']</t>
+  </si>
+  <si>
     <t>['81', '90+3']</t>
   </si>
   <si>
@@ -986,6 +1001,12 @@
   </si>
   <si>
     <t>['39', '44', '47', '64']</t>
+  </si>
+  <si>
+    <t>['52', '69']</t>
+  </si>
+  <si>
+    <t>['36', '42']</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1368,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP196"/>
+  <dimension ref="A1:BP201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1606,7 +1627,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1812,7 +1833,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -1893,7 +1914,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ3">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2099,7 +2120,7 @@
         <v>2.85</v>
       </c>
       <c r="AQ4">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2302,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ5">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2430,7 +2451,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2508,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ6">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2714,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AQ7">
         <v>0.67</v>
@@ -3048,7 +3069,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -3332,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ10">
         <v>0.6899999999999999</v>
@@ -3666,7 +3687,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -3747,7 +3768,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ12">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3953,7 +3974,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ13">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR13">
         <v>2.48</v>
@@ -4284,7 +4305,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4365,7 +4386,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ15">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4568,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ16">
         <v>1.77</v>
@@ -4696,7 +4717,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4902,7 +4923,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -5108,7 +5129,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5189,7 +5210,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ19">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5392,10 +5413,10 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AQ20">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR20">
         <v>1.66</v>
@@ -5807,7 +5828,7 @@
         <v>2.85</v>
       </c>
       <c r="AQ22">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR22">
         <v>2.37</v>
@@ -5932,7 +5953,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -6010,7 +6031,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ23">
         <v>1.33</v>
@@ -6138,7 +6159,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6344,7 +6365,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6550,7 +6571,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6756,7 +6777,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -6834,7 +6855,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ27">
         <v>2.46</v>
@@ -6962,7 +6983,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7168,7 +7189,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -7246,7 +7267,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ29">
         <v>1.23</v>
@@ -7374,7 +7395,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7661,7 +7682,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ31">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR31">
         <v>1.04</v>
@@ -7786,7 +7807,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7864,7 +7885,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ32">
         <v>1.77</v>
@@ -7992,7 +8013,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q33">
         <v>1.73</v>
@@ -8198,7 +8219,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q34">
         <v>6.4</v>
@@ -8404,7 +8425,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q35">
         <v>1.96</v>
@@ -8485,7 +8506,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ35">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR35">
         <v>1.8</v>
@@ -8610,7 +8631,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q36">
         <v>1.98</v>
@@ -8816,7 +8837,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -8897,7 +8918,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ37">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR37">
         <v>2.37</v>
@@ -9022,7 +9043,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q38">
         <v>3.25</v>
@@ -9306,7 +9327,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ39">
         <v>0.6899999999999999</v>
@@ -9512,7 +9533,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AQ40">
         <v>0.58</v>
@@ -9846,7 +9867,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9927,7 +9948,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ42">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR42">
         <v>1.84</v>
@@ -10052,7 +10073,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q43">
         <v>2.3</v>
@@ -10133,7 +10154,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ43">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR43">
         <v>2.56</v>
@@ -10258,7 +10279,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q44">
         <v>4.75</v>
@@ -10336,7 +10357,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ44">
         <v>1.77</v>
@@ -10542,10 +10563,10 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ45">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR45">
         <v>1.43</v>
@@ -10670,7 +10691,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10876,7 +10897,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10954,7 +10975,7 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ47">
         <v>1.08</v>
@@ -11160,7 +11181,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ48">
         <v>0.58</v>
@@ -11369,7 +11390,7 @@
         <v>1</v>
       </c>
       <c r="AQ49">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR49">
         <v>1.41</v>
@@ -11494,7 +11515,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11906,7 +11927,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q52">
         <v>1.83</v>
@@ -11984,7 +12005,7 @@
         <v>2</v>
       </c>
       <c r="AP52">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AQ52">
         <v>0.92</v>
@@ -12318,7 +12339,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q54">
         <v>7.5</v>
@@ -12936,7 +12957,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13017,7 +13038,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ57">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR57">
         <v>1.14</v>
@@ -13142,7 +13163,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q58">
         <v>2.8</v>
@@ -13348,7 +13369,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q59">
         <v>3.15</v>
@@ -13554,7 +13575,7 @@
         <v>106</v>
       </c>
       <c r="P60" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13635,7 +13656,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ60">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR60">
         <v>1.57</v>
@@ -13760,7 +13781,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q61">
         <v>3.11</v>
@@ -13838,10 +13859,10 @@
         <v>0.67</v>
       </c>
       <c r="AP61">
+        <v>1.31</v>
+      </c>
+      <c r="AQ61">
         <v>1.17</v>
-      </c>
-      <c r="AQ61">
-        <v>1.27</v>
       </c>
       <c r="AR61">
         <v>1.2</v>
@@ -14044,10 +14065,10 @@
         <v>0.67</v>
       </c>
       <c r="AP62">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ62">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR62">
         <v>0.98</v>
@@ -14172,7 +14193,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q63">
         <v>2.75</v>
@@ -14250,7 +14271,7 @@
         <v>1.5</v>
       </c>
       <c r="AP63">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AQ63">
         <v>1.23</v>
@@ -14665,7 +14686,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ65">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR65">
         <v>2.08</v>
@@ -14868,10 +14889,10 @@
         <v>2.2</v>
       </c>
       <c r="AP66">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ66">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR66">
         <v>1.59</v>
@@ -14996,7 +15017,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q67">
         <v>2.38</v>
@@ -15077,7 +15098,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ67">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR67">
         <v>1.71</v>
@@ -15486,7 +15507,7 @@
         <v>1.5</v>
       </c>
       <c r="AP69">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ69">
         <v>0.92</v>
@@ -15614,7 +15635,7 @@
         <v>90</v>
       </c>
       <c r="P70" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q70">
         <v>5.5</v>
@@ -15692,7 +15713,7 @@
         <v>1.67</v>
       </c>
       <c r="AP70">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ70">
         <v>2.42</v>
@@ -15820,7 +15841,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q71">
         <v>2.45</v>
@@ -15898,10 +15919,10 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AQ71">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR71">
         <v>1.59</v>
@@ -16438,7 +16459,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q74">
         <v>2.65</v>
@@ -16644,7 +16665,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -17056,7 +17077,7 @@
         <v>133</v>
       </c>
       <c r="P77" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17674,7 +17695,7 @@
         <v>90</v>
       </c>
       <c r="P80" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -17880,7 +17901,7 @@
         <v>136</v>
       </c>
       <c r="P81" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17958,10 +17979,10 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ81">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR81">
         <v>1.34</v>
@@ -18086,7 +18107,7 @@
         <v>137</v>
       </c>
       <c r="P82" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q82">
         <v>1.91</v>
@@ -18164,10 +18185,10 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AQ82">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR82">
         <v>1.62</v>
@@ -18292,7 +18313,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q83">
         <v>1.62</v>
@@ -18576,7 +18597,7 @@
         <v>2.6</v>
       </c>
       <c r="AP84">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ84">
         <v>2.46</v>
@@ -18704,7 +18725,7 @@
         <v>99</v>
       </c>
       <c r="P85" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18910,7 +18931,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q86">
         <v>1.83</v>
@@ -18991,7 +19012,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ86">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR86">
         <v>1.8</v>
@@ -19116,7 +19137,7 @@
         <v>90</v>
       </c>
       <c r="P87" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -19194,7 +19215,7 @@
         <v>0.75</v>
       </c>
       <c r="AP87">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ87">
         <v>0.58</v>
@@ -19322,7 +19343,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19734,7 +19755,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q90">
         <v>1.61</v>
@@ -19940,7 +19961,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q91">
         <v>1.8</v>
@@ -20021,7 +20042,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ91">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR91">
         <v>1.74</v>
@@ -20146,7 +20167,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q92">
         <v>3.8</v>
@@ -20224,7 +20245,7 @@
         <v>2</v>
       </c>
       <c r="AP92">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ92">
         <v>1.33</v>
@@ -20352,7 +20373,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q93">
         <v>2.55</v>
@@ -20433,7 +20454,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ93">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR93">
         <v>1.57</v>
@@ -20558,7 +20579,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q94">
         <v>4.5</v>
@@ -20764,7 +20785,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q95">
         <v>4.5</v>
@@ -20842,10 +20863,10 @@
         <v>2.33</v>
       </c>
       <c r="AP95">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ95">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR95">
         <v>1.1</v>
@@ -20970,7 +20991,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q96">
         <v>9</v>
@@ -21382,7 +21403,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q98">
         <v>4.63</v>
@@ -21460,10 +21481,10 @@
         <v>2</v>
       </c>
       <c r="AP98">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ98">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR98">
         <v>1.45</v>
@@ -21588,7 +21609,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q99">
         <v>2.31</v>
@@ -21669,7 +21690,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ99">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR99">
         <v>1.77</v>
@@ -21794,7 +21815,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -22000,7 +22021,7 @@
         <v>151</v>
       </c>
       <c r="P101" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q101">
         <v>2.43</v>
@@ -22206,7 +22227,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -22284,7 +22305,7 @@
         <v>2</v>
       </c>
       <c r="AP102">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ102">
         <v>1.23</v>
@@ -22412,7 +22433,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -23111,7 +23132,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ106">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR106">
         <v>1.74</v>
@@ -23520,7 +23541,7 @@
         <v>2.14</v>
       </c>
       <c r="AP108">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ108">
         <v>1.33</v>
@@ -23648,7 +23669,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q109">
         <v>1.95</v>
@@ -23729,7 +23750,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ109">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR109">
         <v>1.9</v>
@@ -23932,10 +23953,10 @@
         <v>0.83</v>
       </c>
       <c r="AP110">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ110">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR110">
         <v>1.08</v>
@@ -24138,7 +24159,7 @@
         <v>1.17</v>
       </c>
       <c r="AP111">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AQ111">
         <v>1.08</v>
@@ -24678,7 +24699,7 @@
         <v>90</v>
       </c>
       <c r="P114" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -24756,7 +24777,7 @@
         <v>2.33</v>
       </c>
       <c r="AP114">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ114">
         <v>2.42</v>
@@ -24884,7 +24905,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -25090,7 +25111,7 @@
         <v>160</v>
       </c>
       <c r="P116" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q116">
         <v>1.95</v>
@@ -25296,7 +25317,7 @@
         <v>161</v>
       </c>
       <c r="P117" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q117">
         <v>3.1</v>
@@ -25377,7 +25398,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ117">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR117">
         <v>1.56</v>
@@ -25502,7 +25523,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q118">
         <v>3.75</v>
@@ -25580,7 +25601,7 @@
         <v>0.57</v>
       </c>
       <c r="AP118">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ118">
         <v>0.67</v>
@@ -25914,7 +25935,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q120">
         <v>3.6</v>
@@ -25995,7 +26016,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ120">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR120">
         <v>1.17</v>
@@ -26120,7 +26141,7 @@
         <v>163</v>
       </c>
       <c r="P121" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26738,7 +26759,7 @@
         <v>166</v>
       </c>
       <c r="P124" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26944,7 +26965,7 @@
         <v>90</v>
       </c>
       <c r="P125" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -27231,7 +27252,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ126">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR126">
         <v>2.25</v>
@@ -27356,7 +27377,7 @@
         <v>168</v>
       </c>
       <c r="P127" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q127">
         <v>4.75</v>
@@ -27434,7 +27455,7 @@
         <v>1.71</v>
       </c>
       <c r="AP127">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ127">
         <v>1.23</v>
@@ -27562,7 +27583,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q128">
         <v>5.5</v>
@@ -27640,7 +27661,7 @@
         <v>1.43</v>
       </c>
       <c r="AP128">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ128">
         <v>1.77</v>
@@ -27974,7 +27995,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q130">
         <v>2.2</v>
@@ -28055,7 +28076,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ130">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR130">
         <v>1.73</v>
@@ -28464,7 +28485,7 @@
         <v>1.38</v>
       </c>
       <c r="AP132">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ132">
         <v>0.92</v>
@@ -28876,7 +28897,7 @@
         <v>0.88</v>
       </c>
       <c r="AP134">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ134">
         <v>0.67</v>
@@ -29004,7 +29025,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q135">
         <v>3.35</v>
@@ -29085,7 +29106,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ135">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR135">
         <v>1.21</v>
@@ -29288,7 +29309,7 @@
         <v>0.75</v>
       </c>
       <c r="AP136">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AQ136">
         <v>0.83</v>
@@ -29622,7 +29643,7 @@
         <v>90</v>
       </c>
       <c r="P138" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q138">
         <v>5.25</v>
@@ -29828,7 +29849,7 @@
         <v>177</v>
       </c>
       <c r="P139" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q139">
         <v>2.32</v>
@@ -29906,7 +29927,7 @@
         <v>1</v>
       </c>
       <c r="AP139">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ139">
         <v>0.6899999999999999</v>
@@ -30240,7 +30261,7 @@
         <v>134</v>
       </c>
       <c r="P141" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q141">
         <v>3.81</v>
@@ -30318,7 +30339,7 @@
         <v>1.22</v>
       </c>
       <c r="AP141">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ141">
         <v>0.92</v>
@@ -30446,7 +30467,7 @@
         <v>90</v>
       </c>
       <c r="P142" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q142">
         <v>7</v>
@@ -30652,7 +30673,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q143">
         <v>2.2</v>
@@ -30733,7 +30754,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ143">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR143">
         <v>1.75</v>
@@ -30936,7 +30957,7 @@
         <v>0.88</v>
       </c>
       <c r="AP144">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ144">
         <v>1.08</v>
@@ -31145,7 +31166,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ145">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR145">
         <v>1.9</v>
@@ -31348,10 +31369,10 @@
         <v>1.56</v>
       </c>
       <c r="AP146">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ146">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR146">
         <v>1.03</v>
@@ -31476,7 +31497,7 @@
         <v>182</v>
       </c>
       <c r="P147" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q147">
         <v>1.71</v>
@@ -31557,7 +31578,7 @@
         <v>2.85</v>
       </c>
       <c r="AQ147">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR147">
         <v>2.38</v>
@@ -31682,7 +31703,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q148">
         <v>1.93</v>
@@ -31760,7 +31781,7 @@
         <v>1.78</v>
       </c>
       <c r="AP148">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AQ148">
         <v>1.33</v>
@@ -31888,7 +31909,7 @@
         <v>184</v>
       </c>
       <c r="P149" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q149">
         <v>5.66</v>
@@ -32300,7 +32321,7 @@
         <v>185</v>
       </c>
       <c r="P151" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q151">
         <v>2.98</v>
@@ -32381,7 +32402,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ151">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR151">
         <v>1.13</v>
@@ -32506,7 +32527,7 @@
         <v>186</v>
       </c>
       <c r="P152" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q152">
         <v>1.62</v>
@@ -32793,7 +32814,7 @@
         <v>1</v>
       </c>
       <c r="AQ153">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR153">
         <v>1.34</v>
@@ -33124,7 +33145,7 @@
         <v>188</v>
       </c>
       <c r="P155" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q155">
         <v>2.38</v>
@@ -33205,7 +33226,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ155">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR155">
         <v>1.25</v>
@@ -33330,7 +33351,7 @@
         <v>90</v>
       </c>
       <c r="P156" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q156">
         <v>4.75</v>
@@ -33536,7 +33557,7 @@
         <v>189</v>
       </c>
       <c r="P157" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q157">
         <v>2.88</v>
@@ -34360,7 +34381,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q161">
         <v>9</v>
@@ -34438,7 +34459,7 @@
         <v>2.56</v>
       </c>
       <c r="AP161">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ161">
         <v>2.46</v>
@@ -34647,7 +34668,7 @@
         <v>2.85</v>
       </c>
       <c r="AQ162">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR162">
         <v>2.53</v>
@@ -34853,7 +34874,7 @@
         <v>1</v>
       </c>
       <c r="AQ163">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR163">
         <v>1.3</v>
@@ -35056,7 +35077,7 @@
         <v>0.67</v>
       </c>
       <c r="AP164">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ164">
         <v>0.83</v>
@@ -35262,7 +35283,7 @@
         <v>0.78</v>
       </c>
       <c r="AP165">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ165">
         <v>1.08</v>
@@ -35390,7 +35411,7 @@
         <v>197</v>
       </c>
       <c r="P166" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q166">
         <v>3.5</v>
@@ -35596,7 +35617,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -35674,10 +35695,10 @@
         <v>1</v>
       </c>
       <c r="AP167">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ167">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR167">
         <v>1.43</v>
@@ -36008,7 +36029,7 @@
         <v>90</v>
       </c>
       <c r="P169" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q169">
         <v>5.5</v>
@@ -36420,7 +36441,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q171">
         <v>1.75</v>
@@ -36626,7 +36647,7 @@
         <v>90</v>
       </c>
       <c r="P172" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q172">
         <v>4.4</v>
@@ -36832,7 +36853,7 @@
         <v>202</v>
       </c>
       <c r="P173" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q173">
         <v>3.5</v>
@@ -37322,7 +37343,7 @@
         <v>0.82</v>
       </c>
       <c r="AP175">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AQ175">
         <v>0.6899999999999999</v>
@@ -37656,7 +37677,7 @@
         <v>97</v>
       </c>
       <c r="P177" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q177">
         <v>5</v>
@@ -37737,7 +37758,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ177">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR177">
         <v>1.21</v>
@@ -37862,7 +37883,7 @@
         <v>206</v>
       </c>
       <c r="P178" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q178">
         <v>1.36</v>
@@ -37943,7 +37964,7 @@
         <v>2.85</v>
       </c>
       <c r="AQ178">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR178">
         <v>2.55</v>
@@ -38068,7 +38089,7 @@
         <v>90</v>
       </c>
       <c r="P179" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q179">
         <v>6.28</v>
@@ -38274,7 +38295,7 @@
         <v>207</v>
       </c>
       <c r="P180" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q180">
         <v>4.8</v>
@@ -38352,7 +38373,7 @@
         <v>1.33</v>
       </c>
       <c r="AP180">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ180">
         <v>1.23</v>
@@ -38480,7 +38501,7 @@
         <v>90</v>
       </c>
       <c r="P181" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q181">
         <v>3.5</v>
@@ -38558,10 +38579,10 @@
         <v>1.1</v>
       </c>
       <c r="AP181">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ181">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR181">
         <v>1.48</v>
@@ -38764,10 +38785,10 @@
         <v>1.5</v>
       </c>
       <c r="AP182">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ182">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR182">
         <v>1.25</v>
@@ -38892,7 +38913,7 @@
         <v>209</v>
       </c>
       <c r="P183" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q183">
         <v>1.44</v>
@@ -38973,7 +38994,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ183">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR183">
         <v>2.21</v>
@@ -39098,7 +39119,7 @@
         <v>210</v>
       </c>
       <c r="P184" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q184">
         <v>4</v>
@@ -39179,7 +39200,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ184">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR184">
         <v>1.27</v>
@@ -39304,7 +39325,7 @@
         <v>211</v>
       </c>
       <c r="P185" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q185">
         <v>2.75</v>
@@ -39382,7 +39403,7 @@
         <v>0.6</v>
       </c>
       <c r="AP185">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ185">
         <v>0.58</v>
@@ -39510,7 +39531,7 @@
         <v>90</v>
       </c>
       <c r="P186" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q186">
         <v>2.25</v>
@@ -39794,10 +39815,10 @@
         <v>1.36</v>
       </c>
       <c r="AP187">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ187">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR187">
         <v>1.61</v>
@@ -40128,7 +40149,7 @@
         <v>90</v>
       </c>
       <c r="P189" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40412,7 +40433,7 @@
         <v>1.09</v>
       </c>
       <c r="AP190">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ190">
         <v>0.92</v>
@@ -40540,7 +40561,7 @@
         <v>214</v>
       </c>
       <c r="P191" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q191">
         <v>3.05</v>
@@ -41364,7 +41385,7 @@
         <v>218</v>
       </c>
       <c r="P195" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q195">
         <v>3.6</v>
@@ -41570,7 +41591,7 @@
         <v>90</v>
       </c>
       <c r="P196" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q196">
         <v>1.95</v>
@@ -41727,6 +41748,1036 @@
       </c>
       <c r="BP196">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="197" spans="1:68">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>7347953</v>
+      </c>
+      <c r="C197" t="s">
+        <v>68</v>
+      </c>
+      <c r="D197" t="s">
+        <v>69</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45549.35763888889</v>
+      </c>
+      <c r="F197">
+        <v>25</v>
+      </c>
+      <c r="G197" t="s">
+        <v>75</v>
+      </c>
+      <c r="H197" t="s">
+        <v>85</v>
+      </c>
+      <c r="I197">
+        <v>2</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>2</v>
+      </c>
+      <c r="L197">
+        <v>2</v>
+      </c>
+      <c r="M197">
+        <v>2</v>
+      </c>
+      <c r="N197">
+        <v>4</v>
+      </c>
+      <c r="O197" t="s">
+        <v>219</v>
+      </c>
+      <c r="P197" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q197">
+        <v>1.87</v>
+      </c>
+      <c r="R197">
+        <v>2.63</v>
+      </c>
+      <c r="S197">
+        <v>6.18</v>
+      </c>
+      <c r="T197">
+        <v>1.28</v>
+      </c>
+      <c r="U197">
+        <v>3.48</v>
+      </c>
+      <c r="V197">
+        <v>2.32</v>
+      </c>
+      <c r="W197">
+        <v>1.57</v>
+      </c>
+      <c r="X197">
+        <v>5.2</v>
+      </c>
+      <c r="Y197">
+        <v>1.14</v>
+      </c>
+      <c r="Z197">
+        <v>1.45</v>
+      </c>
+      <c r="AA197">
+        <v>4.3</v>
+      </c>
+      <c r="AB197">
+        <v>6.25</v>
+      </c>
+      <c r="AC197">
+        <v>1.03</v>
+      </c>
+      <c r="AD197">
+        <v>18.5</v>
+      </c>
+      <c r="AE197">
+        <v>1.14</v>
+      </c>
+      <c r="AF197">
+        <v>4.55</v>
+      </c>
+      <c r="AG197">
+        <v>1.57</v>
+      </c>
+      <c r="AH197">
+        <v>2.25</v>
+      </c>
+      <c r="AI197">
+        <v>1.7</v>
+      </c>
+      <c r="AJ197">
+        <v>2.03</v>
+      </c>
+      <c r="AK197">
+        <v>1.1</v>
+      </c>
+      <c r="AL197">
+        <v>1.17</v>
+      </c>
+      <c r="AM197">
+        <v>2.66</v>
+      </c>
+      <c r="AN197">
+        <v>2.55</v>
+      </c>
+      <c r="AO197">
+        <v>1.33</v>
+      </c>
+      <c r="AP197">
+        <v>2.42</v>
+      </c>
+      <c r="AQ197">
+        <v>1.31</v>
+      </c>
+      <c r="AR197">
+        <v>1.96</v>
+      </c>
+      <c r="AS197">
+        <v>1.11</v>
+      </c>
+      <c r="AT197">
+        <v>3.07</v>
+      </c>
+      <c r="AU197">
+        <v>7</v>
+      </c>
+      <c r="AV197">
+        <v>5</v>
+      </c>
+      <c r="AW197">
+        <v>3</v>
+      </c>
+      <c r="AX197">
+        <v>1</v>
+      </c>
+      <c r="AY197">
+        <v>10</v>
+      </c>
+      <c r="AZ197">
+        <v>6</v>
+      </c>
+      <c r="BA197">
+        <v>3</v>
+      </c>
+      <c r="BB197">
+        <v>3</v>
+      </c>
+      <c r="BC197">
+        <v>6</v>
+      </c>
+      <c r="BD197">
+        <v>1.25</v>
+      </c>
+      <c r="BE197">
+        <v>10</v>
+      </c>
+      <c r="BF197">
+        <v>4.5</v>
+      </c>
+      <c r="BG197">
+        <v>1.18</v>
+      </c>
+      <c r="BH197">
+        <v>4.1</v>
+      </c>
+      <c r="BI197">
+        <v>1.36</v>
+      </c>
+      <c r="BJ197">
+        <v>2.79</v>
+      </c>
+      <c r="BK197">
+        <v>1.88</v>
+      </c>
+      <c r="BL197">
+        <v>1.92</v>
+      </c>
+      <c r="BM197">
+        <v>2.09</v>
+      </c>
+      <c r="BN197">
+        <v>1.7</v>
+      </c>
+      <c r="BO197">
+        <v>2.67</v>
+      </c>
+      <c r="BP197">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="198" spans="1:68">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>7347955</v>
+      </c>
+      <c r="C198" t="s">
+        <v>68</v>
+      </c>
+      <c r="D198" t="s">
+        <v>69</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45549.35763888889</v>
+      </c>
+      <c r="F198">
+        <v>25</v>
+      </c>
+      <c r="G198" t="s">
+        <v>84</v>
+      </c>
+      <c r="H198" t="s">
+        <v>81</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+      <c r="J198">
+        <v>2</v>
+      </c>
+      <c r="K198">
+        <v>3</v>
+      </c>
+      <c r="L198">
+        <v>3</v>
+      </c>
+      <c r="M198">
+        <v>2</v>
+      </c>
+      <c r="N198">
+        <v>5</v>
+      </c>
+      <c r="O198" t="s">
+        <v>220</v>
+      </c>
+      <c r="P198" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q198">
+        <v>2.19</v>
+      </c>
+      <c r="R198">
+        <v>2.43</v>
+      </c>
+      <c r="S198">
+        <v>4.88</v>
+      </c>
+      <c r="T198">
+        <v>1.31</v>
+      </c>
+      <c r="U198">
+        <v>3.2</v>
+      </c>
+      <c r="V198">
+        <v>2.5</v>
+      </c>
+      <c r="W198">
+        <v>1.5</v>
+      </c>
+      <c r="X198">
+        <v>5.5</v>
+      </c>
+      <c r="Y198">
+        <v>1.12</v>
+      </c>
+      <c r="Z198">
+        <v>1.63</v>
+      </c>
+      <c r="AA198">
+        <v>3.85</v>
+      </c>
+      <c r="AB198">
+        <v>4.8</v>
+      </c>
+      <c r="AC198">
+        <v>1.01</v>
+      </c>
+      <c r="AD198">
+        <v>11</v>
+      </c>
+      <c r="AE198">
+        <v>1.2</v>
+      </c>
+      <c r="AF198">
+        <v>4.2</v>
+      </c>
+      <c r="AG198">
+        <v>1.7</v>
+      </c>
+      <c r="AH198">
+        <v>2</v>
+      </c>
+      <c r="AI198">
+        <v>1.65</v>
+      </c>
+      <c r="AJ198">
+        <v>2.15</v>
+      </c>
+      <c r="AK198">
+        <v>1.19</v>
+      </c>
+      <c r="AL198">
+        <v>1.23</v>
+      </c>
+      <c r="AM198">
+        <v>2.09</v>
+      </c>
+      <c r="AN198">
+        <v>1.36</v>
+      </c>
+      <c r="AO198">
+        <v>0.75</v>
+      </c>
+      <c r="AP198">
+        <v>1.5</v>
+      </c>
+      <c r="AQ198">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR198">
+        <v>1.21</v>
+      </c>
+      <c r="AS198">
+        <v>1.11</v>
+      </c>
+      <c r="AT198">
+        <v>2.32</v>
+      </c>
+      <c r="AU198">
+        <v>6</v>
+      </c>
+      <c r="AV198">
+        <v>6</v>
+      </c>
+      <c r="AW198">
+        <v>3</v>
+      </c>
+      <c r="AX198">
+        <v>3</v>
+      </c>
+      <c r="AY198">
+        <v>9</v>
+      </c>
+      <c r="AZ198">
+        <v>9</v>
+      </c>
+      <c r="BA198">
+        <v>5</v>
+      </c>
+      <c r="BB198">
+        <v>4</v>
+      </c>
+      <c r="BC198">
+        <v>9</v>
+      </c>
+      <c r="BD198">
+        <v>1.8</v>
+      </c>
+      <c r="BE198">
+        <v>8</v>
+      </c>
+      <c r="BF198">
+        <v>2.38</v>
+      </c>
+      <c r="BG198">
+        <v>1.35</v>
+      </c>
+      <c r="BH198">
+        <v>2.84</v>
+      </c>
+      <c r="BI198">
+        <v>1.7</v>
+      </c>
+      <c r="BJ198">
+        <v>2.05</v>
+      </c>
+      <c r="BK198">
+        <v>1.88</v>
+      </c>
+      <c r="BL198">
+        <v>1.92</v>
+      </c>
+      <c r="BM198">
+        <v>2.55</v>
+      </c>
+      <c r="BN198">
+        <v>1.48</v>
+      </c>
+      <c r="BO198">
+        <v>3.95</v>
+      </c>
+      <c r="BP198">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="199" spans="1:68">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>7347952</v>
+      </c>
+      <c r="C199" t="s">
+        <v>68</v>
+      </c>
+      <c r="D199" t="s">
+        <v>69</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45549.35763888889</v>
+      </c>
+      <c r="F199">
+        <v>25</v>
+      </c>
+      <c r="G199" t="s">
+        <v>73</v>
+      </c>
+      <c r="H199" t="s">
+        <v>80</v>
+      </c>
+      <c r="I199">
+        <v>1</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>1</v>
+      </c>
+      <c r="L199">
+        <v>1</v>
+      </c>
+      <c r="M199">
+        <v>0</v>
+      </c>
+      <c r="N199">
+        <v>1</v>
+      </c>
+      <c r="O199" t="s">
+        <v>221</v>
+      </c>
+      <c r="P199" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q199">
+        <v>2.66</v>
+      </c>
+      <c r="R199">
+        <v>2.29</v>
+      </c>
+      <c r="S199">
+        <v>3.87</v>
+      </c>
+      <c r="T199">
+        <v>1.33</v>
+      </c>
+      <c r="U199">
+        <v>3.17</v>
+      </c>
+      <c r="V199">
+        <v>2.69</v>
+      </c>
+      <c r="W199">
+        <v>1.44</v>
+      </c>
+      <c r="X199">
+        <v>6.55</v>
+      </c>
+      <c r="Y199">
+        <v>1.09</v>
+      </c>
+      <c r="Z199">
+        <v>2.08</v>
+      </c>
+      <c r="AA199">
+        <v>3.52</v>
+      </c>
+      <c r="AB199">
+        <v>3.28</v>
+      </c>
+      <c r="AC199">
+        <v>1.01</v>
+      </c>
+      <c r="AD199">
+        <v>9.9</v>
+      </c>
+      <c r="AE199">
+        <v>1.23</v>
+      </c>
+      <c r="AF199">
+        <v>3.56</v>
+      </c>
+      <c r="AG199">
+        <v>1.82</v>
+      </c>
+      <c r="AH199">
+        <v>1.96</v>
+      </c>
+      <c r="AI199">
+        <v>1.68</v>
+      </c>
+      <c r="AJ199">
+        <v>2.1</v>
+      </c>
+      <c r="AK199">
+        <v>1.31</v>
+      </c>
+      <c r="AL199">
+        <v>1.28</v>
+      </c>
+      <c r="AM199">
+        <v>1.71</v>
+      </c>
+      <c r="AN199">
+        <v>1.42</v>
+      </c>
+      <c r="AO199">
+        <v>1.27</v>
+      </c>
+      <c r="AP199">
+        <v>1.54</v>
+      </c>
+      <c r="AQ199">
+        <v>1.17</v>
+      </c>
+      <c r="AR199">
+        <v>1.6</v>
+      </c>
+      <c r="AS199">
+        <v>1.42</v>
+      </c>
+      <c r="AT199">
+        <v>3.02</v>
+      </c>
+      <c r="AU199">
+        <v>6</v>
+      </c>
+      <c r="AV199">
+        <v>6</v>
+      </c>
+      <c r="AW199">
+        <v>7</v>
+      </c>
+      <c r="AX199">
+        <v>4</v>
+      </c>
+      <c r="AY199">
+        <v>13</v>
+      </c>
+      <c r="AZ199">
+        <v>10</v>
+      </c>
+      <c r="BA199">
+        <v>2</v>
+      </c>
+      <c r="BB199">
+        <v>11</v>
+      </c>
+      <c r="BC199">
+        <v>13</v>
+      </c>
+      <c r="BD199">
+        <v>1.91</v>
+      </c>
+      <c r="BE199">
+        <v>8</v>
+      </c>
+      <c r="BF199">
+        <v>2.1</v>
+      </c>
+      <c r="BG199">
+        <v>1.18</v>
+      </c>
+      <c r="BH199">
+        <v>4.05</v>
+      </c>
+      <c r="BI199">
+        <v>1.36</v>
+      </c>
+      <c r="BJ199">
+        <v>2.79</v>
+      </c>
+      <c r="BK199">
+        <v>1.73</v>
+      </c>
+      <c r="BL199">
+        <v>2</v>
+      </c>
+      <c r="BM199">
+        <v>1.98</v>
+      </c>
+      <c r="BN199">
+        <v>1.8</v>
+      </c>
+      <c r="BO199">
+        <v>2.5</v>
+      </c>
+      <c r="BP199">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="200" spans="1:68">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>7347954</v>
+      </c>
+      <c r="C200" t="s">
+        <v>68</v>
+      </c>
+      <c r="D200" t="s">
+        <v>69</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45549.375</v>
+      </c>
+      <c r="F200">
+        <v>25</v>
+      </c>
+      <c r="G200" t="s">
+        <v>74</v>
+      </c>
+      <c r="H200" t="s">
+        <v>77</v>
+      </c>
+      <c r="I200">
+        <v>2</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>2</v>
+      </c>
+      <c r="L200">
+        <v>2</v>
+      </c>
+      <c r="M200">
+        <v>1</v>
+      </c>
+      <c r="N200">
+        <v>3</v>
+      </c>
+      <c r="O200" t="s">
+        <v>222</v>
+      </c>
+      <c r="P200" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q200">
+        <v>2.89</v>
+      </c>
+      <c r="R200">
+        <v>2.24</v>
+      </c>
+      <c r="S200">
+        <v>3.24</v>
+      </c>
+      <c r="T200">
+        <v>1.29</v>
+      </c>
+      <c r="U200">
+        <v>3.3</v>
+      </c>
+      <c r="V200">
+        <v>2.38</v>
+      </c>
+      <c r="W200">
+        <v>1.53</v>
+      </c>
+      <c r="X200">
+        <v>5.25</v>
+      </c>
+      <c r="Y200">
+        <v>1.12</v>
+      </c>
+      <c r="Z200">
+        <v>2.45</v>
+      </c>
+      <c r="AA200">
+        <v>3.3</v>
+      </c>
+      <c r="AB200">
+        <v>2.75</v>
+      </c>
+      <c r="AC200">
+        <v>1.01</v>
+      </c>
+      <c r="AD200">
+        <v>11</v>
+      </c>
+      <c r="AE200">
+        <v>1.2</v>
+      </c>
+      <c r="AF200">
+        <v>4</v>
+      </c>
+      <c r="AG200">
+        <v>1.7</v>
+      </c>
+      <c r="AH200">
+        <v>2</v>
+      </c>
+      <c r="AI200">
+        <v>1.56</v>
+      </c>
+      <c r="AJ200">
+        <v>2.27</v>
+      </c>
+      <c r="AK200">
+        <v>1.44</v>
+      </c>
+      <c r="AL200">
+        <v>1.27</v>
+      </c>
+      <c r="AM200">
+        <v>1.53</v>
+      </c>
+      <c r="AN200">
+        <v>1.17</v>
+      </c>
+      <c r="AO200">
+        <v>0.82</v>
+      </c>
+      <c r="AP200">
+        <v>1.31</v>
+      </c>
+      <c r="AQ200">
+        <v>0.75</v>
+      </c>
+      <c r="AR200">
+        <v>1.06</v>
+      </c>
+      <c r="AS200">
+        <v>1.18</v>
+      </c>
+      <c r="AT200">
+        <v>2.24</v>
+      </c>
+      <c r="AU200">
+        <v>6</v>
+      </c>
+      <c r="AV200">
+        <v>9</v>
+      </c>
+      <c r="AW200">
+        <v>5</v>
+      </c>
+      <c r="AX200">
+        <v>7</v>
+      </c>
+      <c r="AY200">
+        <v>11</v>
+      </c>
+      <c r="AZ200">
+        <v>16</v>
+      </c>
+      <c r="BA200">
+        <v>7</v>
+      </c>
+      <c r="BB200">
+        <v>14</v>
+      </c>
+      <c r="BC200">
+        <v>21</v>
+      </c>
+      <c r="BD200">
+        <v>2.1</v>
+      </c>
+      <c r="BE200">
+        <v>8</v>
+      </c>
+      <c r="BF200">
+        <v>1.91</v>
+      </c>
+      <c r="BG200">
+        <v>1.18</v>
+      </c>
+      <c r="BH200">
+        <v>4.1</v>
+      </c>
+      <c r="BI200">
+        <v>1.36</v>
+      </c>
+      <c r="BJ200">
+        <v>2.79</v>
+      </c>
+      <c r="BK200">
+        <v>1.7</v>
+      </c>
+      <c r="BL200">
+        <v>2.05</v>
+      </c>
+      <c r="BM200">
+        <v>2.09</v>
+      </c>
+      <c r="BN200">
+        <v>1.7</v>
+      </c>
+      <c r="BO200">
+        <v>2.71</v>
+      </c>
+      <c r="BP200">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="201" spans="1:68">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>7347956</v>
+      </c>
+      <c r="C201" t="s">
+        <v>68</v>
+      </c>
+      <c r="D201" t="s">
+        <v>69</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45550.33333333334</v>
+      </c>
+      <c r="F201">
+        <v>25</v>
+      </c>
+      <c r="G201" t="s">
+        <v>78</v>
+      </c>
+      <c r="H201" t="s">
+        <v>83</v>
+      </c>
+      <c r="I201">
+        <v>1</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>1</v>
+      </c>
+      <c r="L201">
+        <v>1</v>
+      </c>
+      <c r="M201">
+        <v>1</v>
+      </c>
+      <c r="N201">
+        <v>2</v>
+      </c>
+      <c r="O201" t="s">
+        <v>223</v>
+      </c>
+      <c r="P201" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q201">
+        <v>3.5</v>
+      </c>
+      <c r="R201">
+        <v>2.15</v>
+      </c>
+      <c r="S201">
+        <v>2.75</v>
+      </c>
+      <c r="T201">
+        <v>1.33</v>
+      </c>
+      <c r="U201">
+        <v>3.05</v>
+      </c>
+      <c r="V201">
+        <v>2.45</v>
+      </c>
+      <c r="W201">
+        <v>1.49</v>
+      </c>
+      <c r="X201">
+        <v>5.95</v>
+      </c>
+      <c r="Y201">
+        <v>1.1</v>
+      </c>
+      <c r="Z201">
+        <v>2.56</v>
+      </c>
+      <c r="AA201">
+        <v>3.35</v>
+      </c>
+      <c r="AB201">
+        <v>2.31</v>
+      </c>
+      <c r="AC201">
+        <v>1.01</v>
+      </c>
+      <c r="AD201">
+        <v>11</v>
+      </c>
+      <c r="AE201">
+        <v>1.22</v>
+      </c>
+      <c r="AF201">
+        <v>4</v>
+      </c>
+      <c r="AG201">
+        <v>1.73</v>
+      </c>
+      <c r="AH201">
+        <v>2</v>
+      </c>
+      <c r="AI201">
+        <v>1.57</v>
+      </c>
+      <c r="AJ201">
+        <v>2.35</v>
+      </c>
+      <c r="AK201">
+        <v>1.66</v>
+      </c>
+      <c r="AL201">
+        <v>1.25</v>
+      </c>
+      <c r="AM201">
+        <v>1.36</v>
+      </c>
+      <c r="AN201">
+        <v>1.42</v>
+      </c>
+      <c r="AO201">
+        <v>1.25</v>
+      </c>
+      <c r="AP201">
+        <v>1.38</v>
+      </c>
+      <c r="AQ201">
+        <v>1.23</v>
+      </c>
+      <c r="AR201">
+        <v>1.43</v>
+      </c>
+      <c r="AS201">
+        <v>1.27</v>
+      </c>
+      <c r="AT201">
+        <v>2.7</v>
+      </c>
+      <c r="AU201">
+        <v>2</v>
+      </c>
+      <c r="AV201">
+        <v>6</v>
+      </c>
+      <c r="AW201">
+        <v>8</v>
+      </c>
+      <c r="AX201">
+        <v>7</v>
+      </c>
+      <c r="AY201">
+        <v>10</v>
+      </c>
+      <c r="AZ201">
+        <v>13</v>
+      </c>
+      <c r="BA201">
+        <v>6</v>
+      </c>
+      <c r="BB201">
+        <v>3</v>
+      </c>
+      <c r="BC201">
+        <v>9</v>
+      </c>
+      <c r="BD201">
+        <v>2.5</v>
+      </c>
+      <c r="BE201">
+        <v>8</v>
+      </c>
+      <c r="BF201">
+        <v>1.73</v>
+      </c>
+      <c r="BG201">
+        <v>1.22</v>
+      </c>
+      <c r="BH201">
+        <v>4.1</v>
+      </c>
+      <c r="BI201">
+        <v>1.38</v>
+      </c>
+      <c r="BJ201">
+        <v>2.85</v>
+      </c>
+      <c r="BK201">
+        <v>1.85</v>
+      </c>
+      <c r="BL201">
+        <v>1.95</v>
+      </c>
+      <c r="BM201">
+        <v>2.11</v>
+      </c>
+      <c r="BN201">
+        <v>1.69</v>
+      </c>
+      <c r="BO201">
+        <v>2.6</v>
+      </c>
+      <c r="BP201">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -42714,13 +42714,13 @@
         <v>2.7</v>
       </c>
       <c r="AU201">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV201">
         <v>6</v>
       </c>
       <c r="AW201">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX201">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="335">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -688,6 +688,12 @@
     <t>['32']</t>
   </si>
   <si>
+    <t>['16', '48', '51']</t>
+  </si>
+  <si>
+    <t>['25', '77']</t>
+  </si>
+  <si>
     <t>['81', '90+3']</t>
   </si>
   <si>
@@ -1007,6 +1013,12 @@
   </si>
   <si>
     <t>['36', '42']</t>
+  </si>
+  <si>
+    <t>['11', '73', '89']</t>
+  </si>
+  <si>
+    <t>['7', '10', '29', '84']</t>
   </si>
 </sst>
 </file>
@@ -1368,7 +1380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP201"/>
+  <dimension ref="A1:BP204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1627,7 +1639,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1833,7 +1845,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -2451,7 +2463,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2532,7 +2544,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ6">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -3069,7 +3081,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -3147,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
         <v>2.46</v>
@@ -3687,7 +3699,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -3765,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ12">
         <v>0.75</v>
@@ -3974,7 +3986,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ13">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR13">
         <v>2.48</v>
@@ -4180,7 +4192,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ14">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AR14">
         <v>0.7</v>
@@ -4305,7 +4317,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4592,7 +4604,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ16">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR16">
         <v>1.14</v>
@@ -4717,7 +4729,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4923,7 +4935,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -5129,7 +5141,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5210,7 +5222,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ19">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5953,7 +5965,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -6031,7 +6043,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ23">
         <v>1.33</v>
@@ -6159,7 +6171,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6365,7 +6377,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6443,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ25">
         <v>0.58</v>
@@ -6571,7 +6583,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6777,7 +6789,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -6855,7 +6867,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ27">
         <v>2.46</v>
@@ -6983,7 +6995,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7061,7 +7073,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ28">
         <v>0.92</v>
@@ -7189,7 +7201,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -7395,7 +7407,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7476,7 +7488,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ30">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7807,7 +7819,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7888,7 +7900,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ32">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR32">
         <v>1.5</v>
@@ -8013,7 +8025,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q33">
         <v>1.73</v>
@@ -8219,7 +8231,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q34">
         <v>6.4</v>
@@ -8300,7 +8312,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ34">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AR34">
         <v>1</v>
@@ -8425,7 +8437,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q35">
         <v>1.96</v>
@@ -8631,7 +8643,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q36">
         <v>1.98</v>
@@ -8837,7 +8849,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -9043,7 +9055,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q38">
         <v>3.25</v>
@@ -9739,7 +9751,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ41">
         <v>0.67</v>
@@ -9867,7 +9879,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9945,7 +9957,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ42">
         <v>0.6899999999999999</v>
@@ -10073,7 +10085,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q43">
         <v>2.3</v>
@@ -10154,7 +10166,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ43">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR43">
         <v>2.56</v>
@@ -10279,7 +10291,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q44">
         <v>4.75</v>
@@ -10357,10 +10369,10 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ44">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR44">
         <v>1.03</v>
@@ -10691,7 +10703,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10897,7 +10909,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -11515,7 +11527,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11927,7 +11939,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q52">
         <v>1.83</v>
@@ -12339,7 +12351,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q54">
         <v>7.5</v>
@@ -12623,7 +12635,7 @@
         <v>0.33</v>
       </c>
       <c r="AP55">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ55">
         <v>0.67</v>
@@ -12957,7 +12969,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13163,7 +13175,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q58">
         <v>2.8</v>
@@ -13369,7 +13381,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q59">
         <v>3.15</v>
@@ -13575,7 +13587,7 @@
         <v>106</v>
       </c>
       <c r="P60" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13656,7 +13668,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ60">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR60">
         <v>1.57</v>
@@ -13781,7 +13793,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q61">
         <v>3.11</v>
@@ -14065,7 +14077,7 @@
         <v>0.67</v>
       </c>
       <c r="AP62">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ62">
         <v>0.75</v>
@@ -14193,7 +14205,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q63">
         <v>2.75</v>
@@ -14892,7 +14904,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ66">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR66">
         <v>1.59</v>
@@ -15017,7 +15029,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q67">
         <v>2.38</v>
@@ -15301,7 +15313,7 @@
         <v>0.75</v>
       </c>
       <c r="AP68">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ68">
         <v>1.08</v>
@@ -15507,7 +15519,7 @@
         <v>1.5</v>
       </c>
       <c r="AP69">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ69">
         <v>0.92</v>
@@ -15635,7 +15647,7 @@
         <v>90</v>
       </c>
       <c r="P70" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q70">
         <v>5.5</v>
@@ -15716,7 +15728,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ70">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AR70">
         <v>1.34</v>
@@ -15841,7 +15853,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q71">
         <v>2.45</v>
@@ -16459,7 +16471,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q74">
         <v>2.65</v>
@@ -16537,7 +16549,7 @@
         <v>1.8</v>
       </c>
       <c r="AP74">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ74">
         <v>1.33</v>
@@ -16665,7 +16677,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -17077,7 +17089,7 @@
         <v>133</v>
       </c>
       <c r="P77" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17155,7 +17167,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ77">
         <v>0.83</v>
@@ -17570,7 +17582,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ79">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR79">
         <v>2.06</v>
@@ -17695,7 +17707,7 @@
         <v>90</v>
       </c>
       <c r="P80" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -17776,7 +17788,7 @@
         <v>1</v>
       </c>
       <c r="AQ80">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AR80">
         <v>1.55</v>
@@ -17901,7 +17913,7 @@
         <v>136</v>
       </c>
       <c r="P81" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -18107,7 +18119,7 @@
         <v>137</v>
       </c>
       <c r="P82" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q82">
         <v>1.91</v>
@@ -18313,7 +18325,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q83">
         <v>1.62</v>
@@ -18725,7 +18737,7 @@
         <v>99</v>
       </c>
       <c r="P85" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18931,7 +18943,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q86">
         <v>1.83</v>
@@ -19137,7 +19149,7 @@
         <v>90</v>
       </c>
       <c r="P87" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -19343,7 +19355,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19755,7 +19767,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q90">
         <v>1.61</v>
@@ -19961,7 +19973,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q91">
         <v>1.8</v>
@@ -20167,7 +20179,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q92">
         <v>3.8</v>
@@ -20373,7 +20385,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q93">
         <v>2.55</v>
@@ -20451,7 +20463,7 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ93">
         <v>1.23</v>
@@ -20579,7 +20591,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q94">
         <v>4.5</v>
@@ -20657,10 +20669,10 @@
         <v>1.5</v>
       </c>
       <c r="AP94">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ94">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR94">
         <v>1.27</v>
@@ -20785,7 +20797,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q95">
         <v>4.5</v>
@@ -20863,10 +20875,10 @@
         <v>2.33</v>
       </c>
       <c r="AP95">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ95">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR95">
         <v>1.1</v>
@@ -20991,7 +21003,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q96">
         <v>9</v>
@@ -21072,7 +21084,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ96">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AR96">
         <v>0.98</v>
@@ -21275,7 +21287,7 @@
         <v>1.17</v>
       </c>
       <c r="AP97">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ97">
         <v>0.92</v>
@@ -21403,7 +21415,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q98">
         <v>4.63</v>
@@ -21484,7 +21496,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ98">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR98">
         <v>1.45</v>
@@ -21609,7 +21621,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q99">
         <v>2.31</v>
@@ -21815,7 +21827,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21893,7 +21905,7 @@
         <v>2.33</v>
       </c>
       <c r="AP100">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ100">
         <v>2.46</v>
@@ -22021,7 +22033,7 @@
         <v>151</v>
       </c>
       <c r="P101" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q101">
         <v>2.43</v>
@@ -22227,7 +22239,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -22433,7 +22445,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -22720,7 +22732,7 @@
         <v>2.85</v>
       </c>
       <c r="AQ104">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR104">
         <v>2.01</v>
@@ -23669,7 +23681,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q109">
         <v>1.95</v>
@@ -23953,7 +23965,7 @@
         <v>0.83</v>
       </c>
       <c r="AP110">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ110">
         <v>1.17</v>
@@ -24571,7 +24583,7 @@
         <v>1.83</v>
       </c>
       <c r="AP113">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ113">
         <v>1.23</v>
@@ -24699,7 +24711,7 @@
         <v>90</v>
       </c>
       <c r="P114" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -24780,7 +24792,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ114">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AR114">
         <v>1.55</v>
@@ -24905,7 +24917,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -25111,7 +25123,7 @@
         <v>160</v>
       </c>
       <c r="P116" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q116">
         <v>1.95</v>
@@ -25317,7 +25329,7 @@
         <v>161</v>
       </c>
       <c r="P117" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q117">
         <v>3.1</v>
@@ -25395,10 +25407,10 @@
         <v>1.88</v>
       </c>
       <c r="AP117">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ117">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR117">
         <v>1.56</v>
@@ -25523,7 +25535,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q118">
         <v>3.75</v>
@@ -25810,7 +25822,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ119">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR119">
         <v>2.45</v>
@@ -25935,7 +25947,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q120">
         <v>3.6</v>
@@ -26141,7 +26153,7 @@
         <v>163</v>
       </c>
       <c r="P121" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26219,10 +26231,10 @@
         <v>2.43</v>
       </c>
       <c r="AP121">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ121">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AR121">
         <v>1.25</v>
@@ -26425,7 +26437,7 @@
         <v>1</v>
       </c>
       <c r="AP122">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ122">
         <v>1.08</v>
@@ -26759,7 +26771,7 @@
         <v>166</v>
       </c>
       <c r="P124" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26965,7 +26977,7 @@
         <v>90</v>
       </c>
       <c r="P125" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -27046,7 +27058,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ125">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AR125">
         <v>1.79</v>
@@ -27377,7 +27389,7 @@
         <v>168</v>
       </c>
       <c r="P127" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q127">
         <v>4.75</v>
@@ -27455,7 +27467,7 @@
         <v>1.71</v>
       </c>
       <c r="AP127">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ127">
         <v>1.23</v>
@@ -27583,7 +27595,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q128">
         <v>5.5</v>
@@ -27664,7 +27676,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ128">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR128">
         <v>1.48</v>
@@ -27995,7 +28007,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q130">
         <v>2.2</v>
@@ -28897,7 +28909,7 @@
         <v>0.88</v>
       </c>
       <c r="AP134">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ134">
         <v>0.67</v>
@@ -29025,7 +29037,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q135">
         <v>3.35</v>
@@ -29103,7 +29115,7 @@
         <v>0.86</v>
       </c>
       <c r="AP135">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ135">
         <v>1.17</v>
@@ -29643,7 +29655,7 @@
         <v>90</v>
       </c>
       <c r="P138" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q138">
         <v>5.25</v>
@@ -29721,10 +29733,10 @@
         <v>2.56</v>
       </c>
       <c r="AP138">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ138">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AR138">
         <v>1.64</v>
@@ -29849,7 +29861,7 @@
         <v>177</v>
       </c>
       <c r="P139" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q139">
         <v>2.32</v>
@@ -30261,7 +30273,7 @@
         <v>134</v>
       </c>
       <c r="P141" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q141">
         <v>3.81</v>
@@ -30467,7 +30479,7 @@
         <v>90</v>
       </c>
       <c r="P142" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q142">
         <v>7</v>
@@ -30548,7 +30560,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ142">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR142">
         <v>1.24</v>
@@ -30673,7 +30685,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q143">
         <v>2.2</v>
@@ -31497,7 +31509,7 @@
         <v>182</v>
       </c>
       <c r="P147" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q147">
         <v>1.71</v>
@@ -31578,7 +31590,7 @@
         <v>2.85</v>
       </c>
       <c r="AQ147">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR147">
         <v>2.38</v>
@@ -31703,7 +31715,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q148">
         <v>1.93</v>
@@ -31909,7 +31921,7 @@
         <v>184</v>
       </c>
       <c r="P149" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q149">
         <v>5.66</v>
@@ -32321,7 +32333,7 @@
         <v>185</v>
       </c>
       <c r="P151" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q151">
         <v>2.98</v>
@@ -32399,7 +32411,7 @@
         <v>1</v>
       </c>
       <c r="AP151">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ151">
         <v>0.6899999999999999</v>
@@ -32527,7 +32539,7 @@
         <v>186</v>
       </c>
       <c r="P152" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q152">
         <v>1.62</v>
@@ -33020,7 +33032,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ154">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR154">
         <v>1.71</v>
@@ -33145,7 +33157,7 @@
         <v>188</v>
       </c>
       <c r="P155" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q155">
         <v>2.38</v>
@@ -33351,7 +33363,7 @@
         <v>90</v>
       </c>
       <c r="P156" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q156">
         <v>4.75</v>
@@ -33557,7 +33569,7 @@
         <v>189</v>
       </c>
       <c r="P157" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q157">
         <v>2.88</v>
@@ -34253,7 +34265,7 @@
         <v>0.67</v>
       </c>
       <c r="AP160">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ160">
         <v>0.58</v>
@@ -34381,7 +34393,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q161">
         <v>9</v>
@@ -34874,7 +34886,7 @@
         <v>1</v>
       </c>
       <c r="AQ163">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR163">
         <v>1.3</v>
@@ -35077,7 +35089,7 @@
         <v>0.67</v>
       </c>
       <c r="AP164">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ164">
         <v>0.83</v>
@@ -35411,7 +35423,7 @@
         <v>197</v>
       </c>
       <c r="P166" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q166">
         <v>3.5</v>
@@ -35492,7 +35504,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ166">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR166">
         <v>1.97</v>
@@ -35617,7 +35629,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -35901,7 +35913,7 @@
         <v>1.45</v>
       </c>
       <c r="AP168">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ168">
         <v>1.23</v>
@@ -36029,7 +36041,7 @@
         <v>90</v>
       </c>
       <c r="P169" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q169">
         <v>5.5</v>
@@ -36441,7 +36453,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q171">
         <v>1.75</v>
@@ -36647,7 +36659,7 @@
         <v>90</v>
       </c>
       <c r="P172" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q172">
         <v>4.4</v>
@@ -36728,7 +36740,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ172">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AR172">
         <v>1.91</v>
@@ -36853,7 +36865,7 @@
         <v>202</v>
       </c>
       <c r="P173" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q173">
         <v>3.5</v>
@@ -36931,7 +36943,7 @@
         <v>1.45</v>
       </c>
       <c r="AP173">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ173">
         <v>1.33</v>
@@ -37677,7 +37689,7 @@
         <v>97</v>
       </c>
       <c r="P177" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q177">
         <v>5</v>
@@ -37883,7 +37895,7 @@
         <v>206</v>
       </c>
       <c r="P178" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q178">
         <v>1.36</v>
@@ -38089,7 +38101,7 @@
         <v>90</v>
       </c>
       <c r="P179" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q179">
         <v>6.28</v>
@@ -38170,7 +38182,7 @@
         <v>1</v>
       </c>
       <c r="AQ179">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR179">
         <v>1.33</v>
@@ -38295,7 +38307,7 @@
         <v>207</v>
       </c>
       <c r="P180" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q180">
         <v>4.8</v>
@@ -38501,7 +38513,7 @@
         <v>90</v>
       </c>
       <c r="P181" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q181">
         <v>3.5</v>
@@ -38785,7 +38797,7 @@
         <v>1.5</v>
       </c>
       <c r="AP182">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ182">
         <v>1.23</v>
@@ -38913,7 +38925,7 @@
         <v>209</v>
       </c>
       <c r="P183" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q183">
         <v>1.44</v>
@@ -39119,7 +39131,7 @@
         <v>210</v>
       </c>
       <c r="P184" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q184">
         <v>4</v>
@@ -39200,7 +39212,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ184">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR184">
         <v>1.27</v>
@@ -39325,7 +39337,7 @@
         <v>211</v>
       </c>
       <c r="P185" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q185">
         <v>2.75</v>
@@ -39531,7 +39543,7 @@
         <v>90</v>
       </c>
       <c r="P186" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q186">
         <v>2.25</v>
@@ -39609,7 +39621,7 @@
         <v>0.64</v>
       </c>
       <c r="AP186">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ186">
         <v>0.83</v>
@@ -40149,7 +40161,7 @@
         <v>90</v>
       </c>
       <c r="P189" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40561,7 +40573,7 @@
         <v>214</v>
       </c>
       <c r="P191" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q191">
         <v>3.05</v>
@@ -40639,7 +40651,7 @@
         <v>0.75</v>
       </c>
       <c r="AP191">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ191">
         <v>0.6899999999999999</v>
@@ -40848,7 +40860,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ192">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AR192">
         <v>2.21</v>
@@ -41054,7 +41066,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ193">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR193">
         <v>1.79</v>
@@ -41385,7 +41397,7 @@
         <v>218</v>
       </c>
       <c r="P195" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q195">
         <v>3.6</v>
@@ -41591,7 +41603,7 @@
         <v>90</v>
       </c>
       <c r="P196" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q196">
         <v>1.95</v>
@@ -41797,7 +41809,7 @@
         <v>219</v>
       </c>
       <c r="P197" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q197">
         <v>1.87</v>
@@ -41878,7 +41890,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ197">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR197">
         <v>1.96</v>
@@ -42003,7 +42015,7 @@
         <v>220</v>
       </c>
       <c r="P198" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q198">
         <v>2.19</v>
@@ -42081,7 +42093,7 @@
         <v>0.75</v>
       </c>
       <c r="AP198">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ198">
         <v>0.6899999999999999</v>
@@ -42621,7 +42633,7 @@
         <v>223</v>
       </c>
       <c r="P201" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q201">
         <v>3.5</v>
@@ -42778,6 +42790,624 @@
       </c>
       <c r="BP201">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="202" spans="1:68">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>7347957</v>
+      </c>
+      <c r="C202" t="s">
+        <v>68</v>
+      </c>
+      <c r="D202" t="s">
+        <v>69</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45555.35763888889</v>
+      </c>
+      <c r="F202">
+        <v>26</v>
+      </c>
+      <c r="G202" t="s">
+        <v>77</v>
+      </c>
+      <c r="H202" t="s">
+        <v>85</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>1</v>
+      </c>
+      <c r="K202">
+        <v>1</v>
+      </c>
+      <c r="L202">
+        <v>1</v>
+      </c>
+      <c r="M202">
+        <v>3</v>
+      </c>
+      <c r="N202">
+        <v>4</v>
+      </c>
+      <c r="O202" t="s">
+        <v>87</v>
+      </c>
+      <c r="P202" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q202">
+        <v>3.84</v>
+      </c>
+      <c r="R202">
+        <v>2.36</v>
+      </c>
+      <c r="S202">
+        <v>2.38</v>
+      </c>
+      <c r="T202">
+        <v>1.27</v>
+      </c>
+      <c r="U202">
+        <v>3.54</v>
+      </c>
+      <c r="V202">
+        <v>2.27</v>
+      </c>
+      <c r="W202">
+        <v>1.59</v>
+      </c>
+      <c r="X202">
+        <v>5.15</v>
+      </c>
+      <c r="Y202">
+        <v>1.14</v>
+      </c>
+      <c r="Z202">
+        <v>3</v>
+      </c>
+      <c r="AA202">
+        <v>3.65</v>
+      </c>
+      <c r="AB202">
+        <v>2.05</v>
+      </c>
+      <c r="AC202">
+        <v>1.01</v>
+      </c>
+      <c r="AD202">
+        <v>13</v>
+      </c>
+      <c r="AE202">
+        <v>1.14</v>
+      </c>
+      <c r="AF202">
+        <v>4.65</v>
+      </c>
+      <c r="AG202">
+        <v>1.55</v>
+      </c>
+      <c r="AH202">
+        <v>2.3</v>
+      </c>
+      <c r="AI202">
+        <v>1.5</v>
+      </c>
+      <c r="AJ202">
+        <v>2.41</v>
+      </c>
+      <c r="AK202">
+        <v>1.83</v>
+      </c>
+      <c r="AL202">
+        <v>1.24</v>
+      </c>
+      <c r="AM202">
+        <v>1.28</v>
+      </c>
+      <c r="AN202">
+        <v>1.08</v>
+      </c>
+      <c r="AO202">
+        <v>1.31</v>
+      </c>
+      <c r="AP202">
+        <v>1</v>
+      </c>
+      <c r="AQ202">
+        <v>1.43</v>
+      </c>
+      <c r="AR202">
+        <v>1.27</v>
+      </c>
+      <c r="AS202">
+        <v>1.1</v>
+      </c>
+      <c r="AT202">
+        <v>2.37</v>
+      </c>
+      <c r="AU202">
+        <v>6</v>
+      </c>
+      <c r="AV202">
+        <v>6</v>
+      </c>
+      <c r="AW202">
+        <v>4</v>
+      </c>
+      <c r="AX202">
+        <v>4</v>
+      </c>
+      <c r="AY202">
+        <v>10</v>
+      </c>
+      <c r="AZ202">
+        <v>10</v>
+      </c>
+      <c r="BA202">
+        <v>4</v>
+      </c>
+      <c r="BB202">
+        <v>4</v>
+      </c>
+      <c r="BC202">
+        <v>8</v>
+      </c>
+      <c r="BD202">
+        <v>2.25</v>
+      </c>
+      <c r="BE202">
+        <v>8</v>
+      </c>
+      <c r="BF202">
+        <v>1.83</v>
+      </c>
+      <c r="BG202">
+        <v>1.13</v>
+      </c>
+      <c r="BH202">
+        <v>4.35</v>
+      </c>
+      <c r="BI202">
+        <v>1.29</v>
+      </c>
+      <c r="BJ202">
+        <v>3.04</v>
+      </c>
+      <c r="BK202">
+        <v>1.53</v>
+      </c>
+      <c r="BL202">
+        <v>2.4</v>
+      </c>
+      <c r="BM202">
+        <v>1.88</v>
+      </c>
+      <c r="BN202">
+        <v>1.92</v>
+      </c>
+      <c r="BO202">
+        <v>2.33</v>
+      </c>
+      <c r="BP202">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="203" spans="1:68">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>7347958</v>
+      </c>
+      <c r="C203" t="s">
+        <v>68</v>
+      </c>
+      <c r="D203" t="s">
+        <v>69</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45556.29166666666</v>
+      </c>
+      <c r="F203">
+        <v>26</v>
+      </c>
+      <c r="G203" t="s">
+        <v>84</v>
+      </c>
+      <c r="H203" t="s">
+        <v>72</v>
+      </c>
+      <c r="I203">
+        <v>1</v>
+      </c>
+      <c r="J203">
+        <v>3</v>
+      </c>
+      <c r="K203">
+        <v>4</v>
+      </c>
+      <c r="L203">
+        <v>3</v>
+      </c>
+      <c r="M203">
+        <v>4</v>
+      </c>
+      <c r="N203">
+        <v>7</v>
+      </c>
+      <c r="O203" t="s">
+        <v>224</v>
+      </c>
+      <c r="P203" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q203">
+        <v>6.5</v>
+      </c>
+      <c r="R203">
+        <v>3.05</v>
+      </c>
+      <c r="S203">
+        <v>1.6</v>
+      </c>
+      <c r="T203">
+        <v>1.15</v>
+      </c>
+      <c r="U203">
+        <v>5</v>
+      </c>
+      <c r="V203">
+        <v>1.78</v>
+      </c>
+      <c r="W203">
+        <v>1.97</v>
+      </c>
+      <c r="X203">
+        <v>3.4</v>
+      </c>
+      <c r="Y203">
+        <v>1.29</v>
+      </c>
+      <c r="Z203">
+        <v>7.75</v>
+      </c>
+      <c r="AA203">
+        <v>6</v>
+      </c>
+      <c r="AB203">
+        <v>1.3</v>
+      </c>
+      <c r="AC203">
+        <v>1.01</v>
+      </c>
+      <c r="AD203">
+        <v>47.5</v>
+      </c>
+      <c r="AE203">
+        <v>1.07</v>
+      </c>
+      <c r="AF203">
+        <v>9.6</v>
+      </c>
+      <c r="AG203">
+        <v>1.25</v>
+      </c>
+      <c r="AH203">
+        <v>3.56</v>
+      </c>
+      <c r="AI203">
+        <v>1.52</v>
+      </c>
+      <c r="AJ203">
+        <v>2.4</v>
+      </c>
+      <c r="AK203">
+        <v>3.7</v>
+      </c>
+      <c r="AL203">
+        <v>1.12</v>
+      </c>
+      <c r="AM203">
+        <v>1.09</v>
+      </c>
+      <c r="AN203">
+        <v>1.5</v>
+      </c>
+      <c r="AO203">
+        <v>2.42</v>
+      </c>
+      <c r="AP203">
+        <v>1.38</v>
+      </c>
+      <c r="AQ203">
+        <v>2.46</v>
+      </c>
+      <c r="AR203">
+        <v>1.23</v>
+      </c>
+      <c r="AS203">
+        <v>2.11</v>
+      </c>
+      <c r="AT203">
+        <v>3.34</v>
+      </c>
+      <c r="AU203">
+        <v>6</v>
+      </c>
+      <c r="AV203">
+        <v>8</v>
+      </c>
+      <c r="AW203">
+        <v>6</v>
+      </c>
+      <c r="AX203">
+        <v>2</v>
+      </c>
+      <c r="AY203">
+        <v>12</v>
+      </c>
+      <c r="AZ203">
+        <v>10</v>
+      </c>
+      <c r="BA203">
+        <v>6</v>
+      </c>
+      <c r="BB203">
+        <v>4</v>
+      </c>
+      <c r="BC203">
+        <v>10</v>
+      </c>
+      <c r="BD203">
+        <v>5</v>
+      </c>
+      <c r="BE203">
+        <v>10</v>
+      </c>
+      <c r="BF203">
+        <v>1.22</v>
+      </c>
+      <c r="BG203">
+        <v>1.22</v>
+      </c>
+      <c r="BH203">
+        <v>3.35</v>
+      </c>
+      <c r="BI203">
+        <v>1.44</v>
+      </c>
+      <c r="BJ203">
+        <v>2.43</v>
+      </c>
+      <c r="BK203">
+        <v>1.85</v>
+      </c>
+      <c r="BL203">
+        <v>1.95</v>
+      </c>
+      <c r="BM203">
+        <v>2.26</v>
+      </c>
+      <c r="BN203">
+        <v>1.51</v>
+      </c>
+      <c r="BO203">
+        <v>2.97</v>
+      </c>
+      <c r="BP203">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="204" spans="1:68">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>7347960</v>
+      </c>
+      <c r="C204" t="s">
+        <v>68</v>
+      </c>
+      <c r="D204" t="s">
+        <v>69</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45556.35763888889</v>
+      </c>
+      <c r="F204">
+        <v>26</v>
+      </c>
+      <c r="G204" t="s">
+        <v>80</v>
+      </c>
+      <c r="H204" t="s">
+        <v>75</v>
+      </c>
+      <c r="I204">
+        <v>1</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>1</v>
+      </c>
+      <c r="L204">
+        <v>2</v>
+      </c>
+      <c r="M204">
+        <v>0</v>
+      </c>
+      <c r="N204">
+        <v>2</v>
+      </c>
+      <c r="O204" t="s">
+        <v>225</v>
+      </c>
+      <c r="P204" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q204">
+        <v>5</v>
+      </c>
+      <c r="R204">
+        <v>2.25</v>
+      </c>
+      <c r="S204">
+        <v>2.1</v>
+      </c>
+      <c r="T204">
+        <v>1.33</v>
+      </c>
+      <c r="U204">
+        <v>3.05</v>
+      </c>
+      <c r="V204">
+        <v>2.5</v>
+      </c>
+      <c r="W204">
+        <v>1.47</v>
+      </c>
+      <c r="X204">
+        <v>5.95</v>
+      </c>
+      <c r="Y204">
+        <v>1.1</v>
+      </c>
+      <c r="Z204">
+        <v>5</v>
+      </c>
+      <c r="AA204">
+        <v>4.2</v>
+      </c>
+      <c r="AB204">
+        <v>1.57</v>
+      </c>
+      <c r="AC204">
+        <v>1.01</v>
+      </c>
+      <c r="AD204">
+        <v>11</v>
+      </c>
+      <c r="AE204">
+        <v>1.2</v>
+      </c>
+      <c r="AF204">
+        <v>4</v>
+      </c>
+      <c r="AG204">
+        <v>1.73</v>
+      </c>
+      <c r="AH204">
+        <v>2</v>
+      </c>
+      <c r="AI204">
+        <v>1.75</v>
+      </c>
+      <c r="AJ204">
+        <v>2.05</v>
+      </c>
+      <c r="AK204">
+        <v>2.3</v>
+      </c>
+      <c r="AL204">
+        <v>1.17</v>
+      </c>
+      <c r="AM204">
+        <v>1.14</v>
+      </c>
+      <c r="AN204">
+        <v>1.31</v>
+      </c>
+      <c r="AO204">
+        <v>1.77</v>
+      </c>
+      <c r="AP204">
+        <v>1.43</v>
+      </c>
+      <c r="AQ204">
+        <v>1.64</v>
+      </c>
+      <c r="AR204">
+        <v>1.55</v>
+      </c>
+      <c r="AS204">
+        <v>1.72</v>
+      </c>
+      <c r="AT204">
+        <v>3.27</v>
+      </c>
+      <c r="AU204">
+        <v>-1</v>
+      </c>
+      <c r="AV204">
+        <v>-1</v>
+      </c>
+      <c r="AW204">
+        <v>-1</v>
+      </c>
+      <c r="AX204">
+        <v>-1</v>
+      </c>
+      <c r="AY204">
+        <v>-1</v>
+      </c>
+      <c r="AZ204">
+        <v>-1</v>
+      </c>
+      <c r="BA204">
+        <v>-1</v>
+      </c>
+      <c r="BB204">
+        <v>-1</v>
+      </c>
+      <c r="BC204">
+        <v>-1</v>
+      </c>
+      <c r="BD204">
+        <v>2.88</v>
+      </c>
+      <c r="BE204">
+        <v>8.5</v>
+      </c>
+      <c r="BF204">
+        <v>1.53</v>
+      </c>
+      <c r="BG204">
+        <v>1.16</v>
+      </c>
+      <c r="BH204">
+        <v>3.88</v>
+      </c>
+      <c r="BI204">
+        <v>1.34</v>
+      </c>
+      <c r="BJ204">
+        <v>2.69</v>
+      </c>
+      <c r="BK204">
+        <v>1.63</v>
+      </c>
+      <c r="BL204">
+        <v>2.04</v>
+      </c>
+      <c r="BM204">
+        <v>2.09</v>
+      </c>
+      <c r="BN204">
+        <v>1.66</v>
+      </c>
+      <c r="BO204">
+        <v>2.69</v>
+      </c>
+      <c r="BP204">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="337">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -694,6 +694,9 @@
     <t>['25', '77']</t>
   </si>
   <si>
+    <t>['89', '90']</t>
+  </si>
+  <si>
     <t>['81', '90+3']</t>
   </si>
   <si>
@@ -1019,6 +1022,9 @@
   </si>
   <si>
     <t>['7', '10', '29', '84']</t>
+  </si>
+  <si>
+    <t>['3']</t>
   </si>
 </sst>
 </file>
@@ -1380,7 +1386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP204"/>
+  <dimension ref="A1:BP206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1639,7 +1645,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1717,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ2">
         <v>0.6899999999999999</v>
@@ -1845,7 +1851,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -2132,7 +2138,7 @@
         <v>2.85</v>
       </c>
       <c r="AQ4">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2463,7 +2469,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -3081,7 +3087,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -3571,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ11">
         <v>1.08</v>
@@ -3699,7 +3705,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -3983,7 +3989,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ13">
         <v>1.43</v>
@@ -4317,7 +4323,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4398,7 +4404,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ15">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4729,7 +4735,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4810,7 +4816,7 @@
         <v>1</v>
       </c>
       <c r="AQ17">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4935,7 +4941,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -5141,7 +5147,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5965,7 +5971,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -6046,7 +6052,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ23">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6171,7 +6177,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6249,7 +6255,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ24">
         <v>2.46</v>
@@ -6377,7 +6383,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6583,7 +6589,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6789,7 +6795,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -6995,7 +7001,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7201,7 +7207,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -7407,7 +7413,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7819,7 +7825,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -8025,7 +8031,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q33">
         <v>1.73</v>
@@ -8231,7 +8237,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q34">
         <v>6.4</v>
@@ -8437,7 +8443,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q35">
         <v>1.96</v>
@@ -8515,7 +8521,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ35">
         <v>1.17</v>
@@ -8643,7 +8649,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q36">
         <v>1.98</v>
@@ -8849,7 +8855,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -8927,10 +8933,10 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ37">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR37">
         <v>2.37</v>
@@ -9055,7 +9061,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q38">
         <v>3.25</v>
@@ -9136,7 +9142,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ38">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR38">
         <v>1.05</v>
@@ -9879,7 +9885,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -10085,7 +10091,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q43">
         <v>2.3</v>
@@ -10163,7 +10169,7 @@
         <v>2.33</v>
       </c>
       <c r="AP43">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ43">
         <v>1.43</v>
@@ -10291,7 +10297,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q44">
         <v>4.75</v>
@@ -10703,7 +10709,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10909,7 +10915,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -11402,7 +11408,7 @@
         <v>1</v>
       </c>
       <c r="AQ49">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR49">
         <v>1.41</v>
@@ -11527,7 +11533,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11608,7 +11614,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ50">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR50">
         <v>1.28</v>
@@ -11811,7 +11817,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ51">
         <v>0.83</v>
@@ -11939,7 +11945,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q52">
         <v>1.83</v>
@@ -12351,7 +12357,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q54">
         <v>7.5</v>
@@ -12969,7 +12975,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13175,7 +13181,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q58">
         <v>2.8</v>
@@ -13381,7 +13387,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q59">
         <v>3.15</v>
@@ -13462,7 +13468,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ59">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR59">
         <v>1.86</v>
@@ -13587,7 +13593,7 @@
         <v>106</v>
       </c>
       <c r="P60" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13793,7 +13799,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q61">
         <v>3.11</v>
@@ -14205,7 +14211,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q63">
         <v>2.75</v>
@@ -14695,7 +14701,7 @@
         <v>1.25</v>
       </c>
       <c r="AP65">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ65">
         <v>0.6899999999999999</v>
@@ -15029,7 +15035,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q67">
         <v>2.38</v>
@@ -15647,7 +15653,7 @@
         <v>90</v>
       </c>
       <c r="P70" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q70">
         <v>5.5</v>
@@ -15853,7 +15859,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q71">
         <v>2.45</v>
@@ -15934,7 +15940,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ71">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR71">
         <v>1.59</v>
@@ -16137,7 +16143,7 @@
         <v>1.33</v>
       </c>
       <c r="AP72">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ72">
         <v>0.83</v>
@@ -16471,7 +16477,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q74">
         <v>2.65</v>
@@ -16552,7 +16558,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ74">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR74">
         <v>1.58</v>
@@ -16677,7 +16683,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -16961,7 +16967,7 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ76">
         <v>0.58</v>
@@ -17089,7 +17095,7 @@
         <v>133</v>
       </c>
       <c r="P77" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17707,7 +17713,7 @@
         <v>90</v>
       </c>
       <c r="P80" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -17913,7 +17919,7 @@
         <v>136</v>
       </c>
       <c r="P81" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -18119,7 +18125,7 @@
         <v>137</v>
       </c>
       <c r="P82" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q82">
         <v>1.91</v>
@@ -18325,7 +18331,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q83">
         <v>1.62</v>
@@ -18737,7 +18743,7 @@
         <v>99</v>
       </c>
       <c r="P85" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18943,7 +18949,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q86">
         <v>1.83</v>
@@ -19149,7 +19155,7 @@
         <v>90</v>
       </c>
       <c r="P87" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -19355,7 +19361,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19639,7 +19645,7 @@
         <v>0.67</v>
       </c>
       <c r="AP89">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ89">
         <v>0.67</v>
@@ -19767,7 +19773,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q90">
         <v>1.61</v>
@@ -19845,7 +19851,7 @@
         <v>1.4</v>
       </c>
       <c r="AP90">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ90">
         <v>0.92</v>
@@ -19973,7 +19979,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q91">
         <v>1.8</v>
@@ -20179,7 +20185,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q92">
         <v>3.8</v>
@@ -20260,7 +20266,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ92">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR92">
         <v>1.07</v>
@@ -20385,7 +20391,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q93">
         <v>2.55</v>
@@ -20466,7 +20472,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ93">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR93">
         <v>1.57</v>
@@ -20591,7 +20597,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q94">
         <v>4.5</v>
@@ -20797,7 +20803,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q95">
         <v>4.5</v>
@@ -21003,7 +21009,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q96">
         <v>9</v>
@@ -21415,7 +21421,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q98">
         <v>4.63</v>
@@ -21621,7 +21627,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q99">
         <v>2.31</v>
@@ -21702,7 +21708,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ99">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR99">
         <v>1.77</v>
@@ -21827,7 +21833,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -22033,7 +22039,7 @@
         <v>151</v>
       </c>
       <c r="P101" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q101">
         <v>2.43</v>
@@ -22239,7 +22245,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -22445,7 +22451,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -22935,7 +22941,7 @@
         <v>1.2</v>
       </c>
       <c r="AP105">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ105">
         <v>0.58</v>
@@ -23556,7 +23562,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ108">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR108">
         <v>1.44</v>
@@ -23681,7 +23687,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q109">
         <v>1.95</v>
@@ -24711,7 +24717,7 @@
         <v>90</v>
       </c>
       <c r="P114" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -24917,7 +24923,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -25123,7 +25129,7 @@
         <v>160</v>
       </c>
       <c r="P116" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q116">
         <v>1.95</v>
@@ -25329,7 +25335,7 @@
         <v>161</v>
       </c>
       <c r="P117" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q117">
         <v>3.1</v>
@@ -25535,7 +25541,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q118">
         <v>3.75</v>
@@ -25819,7 +25825,7 @@
         <v>1.5</v>
       </c>
       <c r="AP119">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ119">
         <v>1.64</v>
@@ -25947,7 +25953,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q120">
         <v>3.6</v>
@@ -26028,7 +26034,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ120">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR120">
         <v>1.17</v>
@@ -26153,7 +26159,7 @@
         <v>163</v>
       </c>
       <c r="P121" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26646,7 +26652,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ123">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR123">
         <v>1.27</v>
@@ -26771,7 +26777,7 @@
         <v>166</v>
       </c>
       <c r="P124" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26977,7 +26983,7 @@
         <v>90</v>
       </c>
       <c r="P125" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -27261,7 +27267,7 @@
         <v>1.33</v>
       </c>
       <c r="AP126">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ126">
         <v>0.75</v>
@@ -27389,7 +27395,7 @@
         <v>168</v>
       </c>
       <c r="P127" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q127">
         <v>4.75</v>
@@ -27595,7 +27601,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q128">
         <v>5.5</v>
@@ -28007,7 +28013,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q130">
         <v>2.2</v>
@@ -29037,7 +29043,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q135">
         <v>3.35</v>
@@ -29655,7 +29661,7 @@
         <v>90</v>
       </c>
       <c r="P138" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q138">
         <v>5.25</v>
@@ -29861,7 +29867,7 @@
         <v>177</v>
       </c>
       <c r="P139" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q139">
         <v>2.32</v>
@@ -30145,7 +30151,7 @@
         <v>1.44</v>
       </c>
       <c r="AP140">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ140">
         <v>1.23</v>
@@ -30273,7 +30279,7 @@
         <v>134</v>
       </c>
       <c r="P141" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q141">
         <v>3.81</v>
@@ -30479,7 +30485,7 @@
         <v>90</v>
       </c>
       <c r="P142" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q142">
         <v>7</v>
@@ -30685,7 +30691,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q143">
         <v>2.2</v>
@@ -30766,7 +30772,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ143">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR143">
         <v>1.75</v>
@@ -31384,7 +31390,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ146">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR146">
         <v>1.03</v>
@@ -31509,7 +31515,7 @@
         <v>182</v>
       </c>
       <c r="P147" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q147">
         <v>1.71</v>
@@ -31715,7 +31721,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q148">
         <v>1.93</v>
@@ -31796,7 +31802,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ148">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR148">
         <v>1.81</v>
@@ -31921,7 +31927,7 @@
         <v>184</v>
       </c>
       <c r="P149" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q149">
         <v>5.66</v>
@@ -32205,7 +32211,7 @@
         <v>0.78</v>
       </c>
       <c r="AP150">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ150">
         <v>0.67</v>
@@ -32333,7 +32339,7 @@
         <v>185</v>
       </c>
       <c r="P151" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q151">
         <v>2.98</v>
@@ -32539,7 +32545,7 @@
         <v>186</v>
       </c>
       <c r="P152" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q152">
         <v>1.62</v>
@@ -32617,7 +32623,7 @@
         <v>1</v>
       </c>
       <c r="AP152">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ152">
         <v>0.6899999999999999</v>
@@ -33157,7 +33163,7 @@
         <v>188</v>
       </c>
       <c r="P155" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q155">
         <v>2.38</v>
@@ -33363,7 +33369,7 @@
         <v>90</v>
       </c>
       <c r="P156" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q156">
         <v>4.75</v>
@@ -33569,7 +33575,7 @@
         <v>189</v>
       </c>
       <c r="P157" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q157">
         <v>2.88</v>
@@ -33856,7 +33862,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ158">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR158">
         <v>1.84</v>
@@ -34393,7 +34399,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q161">
         <v>9</v>
@@ -35423,7 +35429,7 @@
         <v>197</v>
       </c>
       <c r="P166" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q166">
         <v>3.5</v>
@@ -35629,7 +35635,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -36041,7 +36047,7 @@
         <v>90</v>
       </c>
       <c r="P169" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q169">
         <v>5.5</v>
@@ -36453,7 +36459,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q171">
         <v>1.75</v>
@@ -36659,7 +36665,7 @@
         <v>90</v>
       </c>
       <c r="P172" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q172">
         <v>4.4</v>
@@ -36737,7 +36743,7 @@
         <v>2.6</v>
       </c>
       <c r="AP172">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ172">
         <v>2.46</v>
@@ -36865,7 +36871,7 @@
         <v>202</v>
       </c>
       <c r="P173" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q173">
         <v>3.5</v>
@@ -36946,7 +36952,7 @@
         <v>1</v>
       </c>
       <c r="AQ173">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR173">
         <v>1.18</v>
@@ -37689,7 +37695,7 @@
         <v>97</v>
       </c>
       <c r="P177" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q177">
         <v>5</v>
@@ -37895,7 +37901,7 @@
         <v>206</v>
       </c>
       <c r="P178" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q178">
         <v>1.36</v>
@@ -38101,7 +38107,7 @@
         <v>90</v>
       </c>
       <c r="P179" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q179">
         <v>6.28</v>
@@ -38307,7 +38313,7 @@
         <v>207</v>
       </c>
       <c r="P180" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q180">
         <v>4.8</v>
@@ -38513,7 +38519,7 @@
         <v>90</v>
       </c>
       <c r="P181" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q181">
         <v>3.5</v>
@@ -38800,7 +38806,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ182">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR182">
         <v>1.25</v>
@@ -38925,7 +38931,7 @@
         <v>209</v>
       </c>
       <c r="P183" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q183">
         <v>1.44</v>
@@ -39003,7 +39009,7 @@
         <v>0.82</v>
       </c>
       <c r="AP183">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ183">
         <v>0.6899999999999999</v>
@@ -39131,7 +39137,7 @@
         <v>210</v>
       </c>
       <c r="P184" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q184">
         <v>4</v>
@@ -39337,7 +39343,7 @@
         <v>211</v>
       </c>
       <c r="P185" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q185">
         <v>2.75</v>
@@ -39543,7 +39549,7 @@
         <v>90</v>
       </c>
       <c r="P186" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q186">
         <v>2.25</v>
@@ -39830,7 +39836,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ187">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR187">
         <v>1.61</v>
@@ -40161,7 +40167,7 @@
         <v>90</v>
       </c>
       <c r="P189" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40573,7 +40579,7 @@
         <v>214</v>
       </c>
       <c r="P191" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q191">
         <v>3.05</v>
@@ -40857,7 +40863,7 @@
         <v>2.64</v>
       </c>
       <c r="AP192">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ192">
         <v>2.46</v>
@@ -41063,7 +41069,7 @@
         <v>1.92</v>
       </c>
       <c r="AP193">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ193">
         <v>1.64</v>
@@ -41397,7 +41403,7 @@
         <v>218</v>
       </c>
       <c r="P195" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q195">
         <v>3.6</v>
@@ -41603,7 +41609,7 @@
         <v>90</v>
       </c>
       <c r="P196" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q196">
         <v>1.95</v>
@@ -41681,7 +41687,7 @@
         <v>0.91</v>
       </c>
       <c r="AP196">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ196">
         <v>1.08</v>
@@ -41809,7 +41815,7 @@
         <v>219</v>
       </c>
       <c r="P197" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q197">
         <v>1.87</v>
@@ -42015,7 +42021,7 @@
         <v>220</v>
       </c>
       <c r="P198" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q198">
         <v>2.19</v>
@@ -42633,7 +42639,7 @@
         <v>223</v>
       </c>
       <c r="P201" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q201">
         <v>3.5</v>
@@ -42714,7 +42720,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ201">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR201">
         <v>1.43</v>
@@ -42839,7 +42845,7 @@
         <v>87</v>
       </c>
       <c r="P202" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q202">
         <v>3.84</v>
@@ -43045,7 +43051,7 @@
         <v>224</v>
       </c>
       <c r="P203" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q203">
         <v>6.5</v>
@@ -43209,7 +43215,7 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>7347960</v>
+        <v>7347959</v>
       </c>
       <c r="C204" t="s">
         <v>68</v>
@@ -43224,70 +43230,70 @@
         <v>26</v>
       </c>
       <c r="G204" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H204" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="I204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J204">
         <v>0</v>
       </c>
       <c r="K204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L204">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M204">
         <v>0</v>
       </c>
       <c r="N204">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O204" t="s">
-        <v>225</v>
+        <v>90</v>
       </c>
       <c r="P204" t="s">
         <v>90</v>
       </c>
       <c r="Q204">
-        <v>5</v>
+        <v>2.63</v>
       </c>
       <c r="R204">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S204">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="T204">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="U204">
-        <v>3.05</v>
+        <v>3.22</v>
       </c>
       <c r="V204">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="W204">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X204">
-        <v>5.95</v>
+        <v>5.9</v>
       </c>
       <c r="Y204">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="Z204">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="AA204">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="AB204">
-        <v>1.57</v>
+        <v>3.15</v>
       </c>
       <c r="AC204">
         <v>1.01</v>
@@ -43296,118 +43302,530 @@
         <v>11</v>
       </c>
       <c r="AE204">
+        <v>1.17</v>
+      </c>
+      <c r="AF204">
+        <v>4.5</v>
+      </c>
+      <c r="AG204">
+        <v>1.67</v>
+      </c>
+      <c r="AH204">
+        <v>2.1</v>
+      </c>
+      <c r="AI204">
+        <v>1.53</v>
+      </c>
+      <c r="AJ204">
+        <v>2.45</v>
+      </c>
+      <c r="AK204">
+        <v>1.33</v>
+      </c>
+      <c r="AL204">
+        <v>1.3</v>
+      </c>
+      <c r="AM204">
+        <v>1.73</v>
+      </c>
+      <c r="AN204">
+        <v>1.75</v>
+      </c>
+      <c r="AO204">
+        <v>1.23</v>
+      </c>
+      <c r="AP204">
+        <v>1.69</v>
+      </c>
+      <c r="AQ204">
+        <v>1.21</v>
+      </c>
+      <c r="AR204">
+        <v>1.78</v>
+      </c>
+      <c r="AS204">
+        <v>1.29</v>
+      </c>
+      <c r="AT204">
+        <v>3.07</v>
+      </c>
+      <c r="AU204">
+        <v>3</v>
+      </c>
+      <c r="AV204">
+        <v>4</v>
+      </c>
+      <c r="AW204">
+        <v>7</v>
+      </c>
+      <c r="AX204">
+        <v>4</v>
+      </c>
+      <c r="AY204">
+        <v>10</v>
+      </c>
+      <c r="AZ204">
+        <v>8</v>
+      </c>
+      <c r="BA204">
+        <v>10</v>
+      </c>
+      <c r="BB204">
+        <v>4</v>
+      </c>
+      <c r="BC204">
+        <v>14</v>
+      </c>
+      <c r="BD204">
+        <v>1.67</v>
+      </c>
+      <c r="BE204">
+        <v>8</v>
+      </c>
+      <c r="BF204">
+        <v>2.5</v>
+      </c>
+      <c r="BG204">
+        <v>1.22</v>
+      </c>
+      <c r="BH204">
+        <v>3.35</v>
+      </c>
+      <c r="BI204">
+        <v>1.44</v>
+      </c>
+      <c r="BJ204">
+        <v>2.43</v>
+      </c>
+      <c r="BK204">
+        <v>1.85</v>
+      </c>
+      <c r="BL204">
+        <v>1.95</v>
+      </c>
+      <c r="BM204">
+        <v>2.26</v>
+      </c>
+      <c r="BN204">
+        <v>1.51</v>
+      </c>
+      <c r="BO204">
+        <v>2.97</v>
+      </c>
+      <c r="BP204">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="205" spans="1:68">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>7347960</v>
+      </c>
+      <c r="C205" t="s">
+        <v>68</v>
+      </c>
+      <c r="D205" t="s">
+        <v>69</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45556.35763888889</v>
+      </c>
+      <c r="F205">
+        <v>26</v>
+      </c>
+      <c r="G205" t="s">
+        <v>80</v>
+      </c>
+      <c r="H205" t="s">
+        <v>75</v>
+      </c>
+      <c r="I205">
+        <v>1</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>1</v>
+      </c>
+      <c r="L205">
+        <v>2</v>
+      </c>
+      <c r="M205">
+        <v>0</v>
+      </c>
+      <c r="N205">
+        <v>2</v>
+      </c>
+      <c r="O205" t="s">
+        <v>225</v>
+      </c>
+      <c r="P205" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q205">
+        <v>5</v>
+      </c>
+      <c r="R205">
+        <v>2.25</v>
+      </c>
+      <c r="S205">
+        <v>2.1</v>
+      </c>
+      <c r="T205">
+        <v>1.33</v>
+      </c>
+      <c r="U205">
+        <v>3.05</v>
+      </c>
+      <c r="V205">
+        <v>2.5</v>
+      </c>
+      <c r="W205">
+        <v>1.47</v>
+      </c>
+      <c r="X205">
+        <v>5.95</v>
+      </c>
+      <c r="Y205">
+        <v>1.1</v>
+      </c>
+      <c r="Z205">
+        <v>5</v>
+      </c>
+      <c r="AA205">
+        <v>4.2</v>
+      </c>
+      <c r="AB205">
+        <v>1.57</v>
+      </c>
+      <c r="AC205">
+        <v>1.01</v>
+      </c>
+      <c r="AD205">
+        <v>11</v>
+      </c>
+      <c r="AE205">
         <v>1.2</v>
       </c>
-      <c r="AF204">
+      <c r="AF205">
         <v>4</v>
       </c>
-      <c r="AG204">
+      <c r="AG205">
         <v>1.73</v>
       </c>
-      <c r="AH204">
-        <v>2</v>
-      </c>
-      <c r="AI204">
+      <c r="AH205">
+        <v>2</v>
+      </c>
+      <c r="AI205">
         <v>1.75</v>
       </c>
-      <c r="AJ204">
+      <c r="AJ205">
         <v>2.05</v>
       </c>
-      <c r="AK204">
+      <c r="AK205">
         <v>2.3</v>
       </c>
-      <c r="AL204">
+      <c r="AL205">
         <v>1.17</v>
       </c>
-      <c r="AM204">
+      <c r="AM205">
         <v>1.14</v>
       </c>
-      <c r="AN204">
+      <c r="AN205">
         <v>1.31</v>
       </c>
-      <c r="AO204">
+      <c r="AO205">
         <v>1.77</v>
       </c>
-      <c r="AP204">
+      <c r="AP205">
         <v>1.43</v>
       </c>
-      <c r="AQ204">
+      <c r="AQ205">
         <v>1.64</v>
       </c>
-      <c r="AR204">
+      <c r="AR205">
         <v>1.55</v>
       </c>
-      <c r="AS204">
+      <c r="AS205">
         <v>1.72</v>
       </c>
-      <c r="AT204">
+      <c r="AT205">
         <v>3.27</v>
       </c>
-      <c r="AU204">
-        <v>-1</v>
-      </c>
-      <c r="AV204">
-        <v>-1</v>
-      </c>
-      <c r="AW204">
-        <v>-1</v>
-      </c>
-      <c r="AX204">
-        <v>-1</v>
-      </c>
-      <c r="AY204">
-        <v>-1</v>
-      </c>
-      <c r="AZ204">
-        <v>-1</v>
-      </c>
-      <c r="BA204">
-        <v>-1</v>
-      </c>
-      <c r="BB204">
-        <v>-1</v>
-      </c>
-      <c r="BC204">
-        <v>-1</v>
-      </c>
-      <c r="BD204">
+      <c r="AU205">
+        <v>4</v>
+      </c>
+      <c r="AV205">
+        <v>3</v>
+      </c>
+      <c r="AW205">
+        <v>1</v>
+      </c>
+      <c r="AX205">
+        <v>2</v>
+      </c>
+      <c r="AY205">
+        <v>5</v>
+      </c>
+      <c r="AZ205">
+        <v>5</v>
+      </c>
+      <c r="BA205">
+        <v>3</v>
+      </c>
+      <c r="BB205">
+        <v>2</v>
+      </c>
+      <c r="BC205">
+        <v>5</v>
+      </c>
+      <c r="BD205">
         <v>2.88</v>
       </c>
-      <c r="BE204">
+      <c r="BE205">
         <v>8.5</v>
       </c>
-      <c r="BF204">
+      <c r="BF205">
         <v>1.53</v>
       </c>
-      <c r="BG204">
+      <c r="BG205">
         <v>1.16</v>
       </c>
-      <c r="BH204">
+      <c r="BH205">
         <v>3.88</v>
       </c>
-      <c r="BI204">
+      <c r="BI205">
         <v>1.34</v>
       </c>
-      <c r="BJ204">
+      <c r="BJ205">
         <v>2.69</v>
       </c>
-      <c r="BK204">
+      <c r="BK205">
         <v>1.63</v>
       </c>
-      <c r="BL204">
+      <c r="BL205">
         <v>2.04</v>
       </c>
-      <c r="BM204">
+      <c r="BM205">
         <v>2.09</v>
       </c>
-      <c r="BN204">
+      <c r="BN205">
         <v>1.66</v>
       </c>
-      <c r="BO204">
+      <c r="BO205">
         <v>2.69</v>
       </c>
-      <c r="BP204">
+      <c r="BP205">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="206" spans="1:68">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>7347961</v>
+      </c>
+      <c r="C206" t="s">
+        <v>68</v>
+      </c>
+      <c r="D206" t="s">
+        <v>69</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45556.375</v>
+      </c>
+      <c r="F206">
+        <v>26</v>
+      </c>
+      <c r="G206" t="s">
+        <v>79</v>
+      </c>
+      <c r="H206" t="s">
+        <v>73</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>1</v>
+      </c>
+      <c r="K206">
+        <v>1</v>
+      </c>
+      <c r="L206">
+        <v>2</v>
+      </c>
+      <c r="M206">
+        <v>1</v>
+      </c>
+      <c r="N206">
+        <v>3</v>
+      </c>
+      <c r="O206" t="s">
+        <v>226</v>
+      </c>
+      <c r="P206" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q206">
+        <v>1.79</v>
+      </c>
+      <c r="R206">
+        <v>2.59</v>
+      </c>
+      <c r="S206">
+        <v>6.2</v>
+      </c>
+      <c r="T206">
+        <v>1.25</v>
+      </c>
+      <c r="U206">
+        <v>3.72</v>
+      </c>
+      <c r="V206">
+        <v>2.18</v>
+      </c>
+      <c r="W206">
+        <v>1.64</v>
+      </c>
+      <c r="X206">
+        <v>4.75</v>
+      </c>
+      <c r="Y206">
+        <v>1.16</v>
+      </c>
+      <c r="Z206">
+        <v>1.35</v>
+      </c>
+      <c r="AA206">
+        <v>5</v>
+      </c>
+      <c r="AB206">
+        <v>7</v>
+      </c>
+      <c r="AC206">
+        <v>1.02</v>
+      </c>
+      <c r="AD206">
+        <v>24</v>
+      </c>
+      <c r="AE206">
+        <v>1.1</v>
+      </c>
+      <c r="AF206">
+        <v>5.05</v>
+      </c>
+      <c r="AG206">
+        <v>1.47</v>
+      </c>
+      <c r="AH206">
+        <v>2.5</v>
+      </c>
+      <c r="AI206">
+        <v>1.73</v>
+      </c>
+      <c r="AJ206">
+        <v>1.99</v>
+      </c>
+      <c r="AK206">
+        <v>1.07</v>
+      </c>
+      <c r="AL206">
+        <v>1.15</v>
+      </c>
+      <c r="AM206">
+        <v>3.12</v>
+      </c>
+      <c r="AN206">
+        <v>2.67</v>
+      </c>
+      <c r="AO206">
+        <v>1.33</v>
+      </c>
+      <c r="AP206">
+        <v>2.69</v>
+      </c>
+      <c r="AQ206">
+        <v>1.23</v>
+      </c>
+      <c r="AR206">
+        <v>2.21</v>
+      </c>
+      <c r="AS206">
+        <v>1.23</v>
+      </c>
+      <c r="AT206">
+        <v>3.44</v>
+      </c>
+      <c r="AU206">
+        <v>9</v>
+      </c>
+      <c r="AV206">
+        <v>5</v>
+      </c>
+      <c r="AW206">
+        <v>8</v>
+      </c>
+      <c r="AX206">
+        <v>2</v>
+      </c>
+      <c r="AY206">
+        <v>17</v>
+      </c>
+      <c r="AZ206">
+        <v>7</v>
+      </c>
+      <c r="BA206">
+        <v>13</v>
+      </c>
+      <c r="BB206">
+        <v>4</v>
+      </c>
+      <c r="BC206">
+        <v>17</v>
+      </c>
+      <c r="BD206">
+        <v>1.25</v>
+      </c>
+      <c r="BE206">
+        <v>10</v>
+      </c>
+      <c r="BF206">
+        <v>4.5</v>
+      </c>
+      <c r="BG206">
+        <v>1.18</v>
+      </c>
+      <c r="BH206">
+        <v>3.74</v>
+      </c>
+      <c r="BI206">
+        <v>1.37</v>
+      </c>
+      <c r="BJ206">
+        <v>2.66</v>
+      </c>
+      <c r="BK206">
+        <v>1.7</v>
+      </c>
+      <c r="BL206">
+        <v>2.03</v>
+      </c>
+      <c r="BM206">
+        <v>2.08</v>
+      </c>
+      <c r="BN206">
+        <v>1.6</v>
+      </c>
+      <c r="BO206">
+        <v>2.73</v>
+      </c>
+      <c r="BP206">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="343">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -697,6 +697,15 @@
     <t>['89', '90']</t>
   </si>
   <si>
+    <t>['21', '23', '89']</t>
+  </si>
+  <si>
+    <t>['26', '81']</t>
+  </si>
+  <si>
+    <t>['66', '75']</t>
+  </si>
+  <si>
     <t>['81', '90+3']</t>
   </si>
   <si>
@@ -1025,6 +1034,15 @@
   </si>
   <si>
     <t>['3']</t>
+  </si>
+  <si>
+    <t>['7', '13']</t>
+  </si>
+  <si>
+    <t>['54', '90+13']</t>
+  </si>
+  <si>
+    <t>['7', '24']</t>
   </si>
 </sst>
 </file>
@@ -1386,7 +1404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP206"/>
+  <dimension ref="A1:BP209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1645,7 +1663,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1851,7 +1869,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -1929,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ3">
         <v>1.17</v>
@@ -2469,7 +2487,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2756,7 +2774,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ7">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2959,10 +2977,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AQ8">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3087,7 +3105,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -3705,7 +3723,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -4195,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AQ14">
         <v>2.46</v>
@@ -4323,7 +4341,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4401,7 +4419,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AQ15">
         <v>1.21</v>
@@ -4735,7 +4753,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4941,7 +4959,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -5022,7 +5040,7 @@
         <v>1</v>
       </c>
       <c r="AQ18">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR18">
         <v>1.67</v>
@@ -5147,7 +5165,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5637,10 +5655,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ21">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR21">
         <v>0.99</v>
@@ -5971,7 +5989,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -6177,7 +6195,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6383,7 +6401,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6589,7 +6607,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6670,7 +6688,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ26">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR26">
         <v>0.87</v>
@@ -6795,7 +6813,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -7001,7 +7019,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7082,7 +7100,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ28">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR28">
         <v>2.4</v>
@@ -7207,7 +7225,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -7413,7 +7431,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7697,7 +7715,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AQ31">
         <v>0.75</v>
@@ -7825,7 +7843,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -8031,7 +8049,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q33">
         <v>1.73</v>
@@ -8109,7 +8127,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AQ33">
         <v>1.08</v>
@@ -8237,7 +8255,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q34">
         <v>6.4</v>
@@ -8315,7 +8333,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AQ34">
         <v>2.46</v>
@@ -8443,7 +8461,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q35">
         <v>1.96</v>
@@ -8649,7 +8667,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q36">
         <v>1.98</v>
@@ -8730,7 +8748,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ36">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR36">
         <v>1.16</v>
@@ -8855,7 +8873,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -9061,7 +9079,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q38">
         <v>3.25</v>
@@ -9139,7 +9157,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ38">
         <v>1.23</v>
@@ -9760,7 +9778,7 @@
         <v>1</v>
       </c>
       <c r="AQ41">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR41">
         <v>0.89</v>
@@ -9885,7 +9903,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -10091,7 +10109,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q43">
         <v>2.3</v>
@@ -10297,7 +10315,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q44">
         <v>4.75</v>
@@ -10709,7 +10727,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10915,7 +10933,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -11533,7 +11551,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11611,7 +11629,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AQ50">
         <v>1.23</v>
@@ -11820,7 +11838,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ51">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR51">
         <v>1.89</v>
@@ -11945,7 +11963,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q52">
         <v>1.83</v>
@@ -12026,7 +12044,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ52">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR52">
         <v>1.36</v>
@@ -12357,7 +12375,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q54">
         <v>7.5</v>
@@ -12435,7 +12453,7 @@
         <v>3</v>
       </c>
       <c r="AP54">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AQ54">
         <v>2.46</v>
@@ -12644,7 +12662,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ55">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR55">
         <v>1.53</v>
@@ -12975,7 +12993,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13053,7 +13071,7 @@
         <v>0.67</v>
       </c>
       <c r="AP57">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ57">
         <v>0.6899999999999999</v>
@@ -13181,7 +13199,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q58">
         <v>2.8</v>
@@ -13262,7 +13280,7 @@
         <v>1</v>
       </c>
       <c r="AQ58">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR58">
         <v>1.44</v>
@@ -13387,7 +13405,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q59">
         <v>3.15</v>
@@ -13593,7 +13611,7 @@
         <v>106</v>
       </c>
       <c r="P60" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13671,7 +13689,7 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AQ60">
         <v>1.43</v>
@@ -13799,7 +13817,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q61">
         <v>3.11</v>
@@ -14211,7 +14229,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q63">
         <v>2.75</v>
@@ -15035,7 +15053,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q67">
         <v>2.38</v>
@@ -15113,7 +15131,7 @@
         <v>1.25</v>
       </c>
       <c r="AP67">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AQ67">
         <v>1.17</v>
@@ -15528,7 +15546,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ69">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR69">
         <v>1.09</v>
@@ -15653,7 +15671,7 @@
         <v>90</v>
       </c>
       <c r="P70" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q70">
         <v>5.5</v>
@@ -15859,7 +15877,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q71">
         <v>2.45</v>
@@ -16146,7 +16164,7 @@
         <v>2.69</v>
       </c>
       <c r="AQ72">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR72">
         <v>2.16</v>
@@ -16349,7 +16367,7 @@
         <v>2</v>
       </c>
       <c r="AP73">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ73">
         <v>1.23</v>
@@ -16477,7 +16495,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q74">
         <v>2.65</v>
@@ -16683,7 +16701,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -16761,7 +16779,7 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AQ75">
         <v>0.6899999999999999</v>
@@ -17095,7 +17113,7 @@
         <v>133</v>
       </c>
       <c r="P77" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17176,7 +17194,7 @@
         <v>1</v>
       </c>
       <c r="AQ77">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR77">
         <v>1.1</v>
@@ -17382,7 +17400,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ78">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR78">
         <v>1.72</v>
@@ -17713,7 +17731,7 @@
         <v>90</v>
       </c>
       <c r="P80" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -17919,7 +17937,7 @@
         <v>136</v>
       </c>
       <c r="P81" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -18125,7 +18143,7 @@
         <v>137</v>
       </c>
       <c r="P82" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q82">
         <v>1.91</v>
@@ -18331,7 +18349,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q83">
         <v>1.62</v>
@@ -18743,7 +18761,7 @@
         <v>99</v>
       </c>
       <c r="P85" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18949,7 +18967,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q86">
         <v>1.83</v>
@@ -19155,7 +19173,7 @@
         <v>90</v>
       </c>
       <c r="P87" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -19361,7 +19379,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19648,7 +19666,7 @@
         <v>2.69</v>
       </c>
       <c r="AQ89">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR89">
         <v>2.42</v>
@@ -19773,7 +19791,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q90">
         <v>1.61</v>
@@ -19854,7 +19872,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ90">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR90">
         <v>2.05</v>
@@ -19979,7 +19997,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q91">
         <v>1.8</v>
@@ -20057,7 +20075,7 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AQ91">
         <v>0.6899999999999999</v>
@@ -20185,7 +20203,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q92">
         <v>3.8</v>
@@ -20391,7 +20409,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q93">
         <v>2.55</v>
@@ -20597,7 +20615,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q94">
         <v>4.5</v>
@@ -20803,7 +20821,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q95">
         <v>4.5</v>
@@ -21009,7 +21027,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q96">
         <v>9</v>
@@ -21087,7 +21105,7 @@
         <v>2.2</v>
       </c>
       <c r="AP96">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ96">
         <v>2.46</v>
@@ -21296,7 +21314,7 @@
         <v>1</v>
       </c>
       <c r="AQ97">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR97">
         <v>1.33</v>
@@ -21421,7 +21439,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q98">
         <v>4.63</v>
@@ -21627,7 +21645,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q99">
         <v>2.31</v>
@@ -21705,7 +21723,7 @@
         <v>1.33</v>
       </c>
       <c r="AP99">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AQ99">
         <v>1.21</v>
@@ -21833,7 +21851,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -22039,7 +22057,7 @@
         <v>151</v>
       </c>
       <c r="P101" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q101">
         <v>2.43</v>
@@ -22117,10 +22135,10 @@
         <v>1</v>
       </c>
       <c r="AP101">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AQ101">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR101">
         <v>1.06</v>
@@ -22245,7 +22263,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -22451,7 +22469,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -22529,7 +22547,7 @@
         <v>1.17</v>
       </c>
       <c r="AP103">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ103">
         <v>0.6899999999999999</v>
@@ -23687,7 +23705,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q109">
         <v>1.95</v>
@@ -24386,7 +24404,7 @@
         <v>2.85</v>
       </c>
       <c r="AQ112">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR112">
         <v>1.97</v>
@@ -24717,7 +24735,7 @@
         <v>90</v>
       </c>
       <c r="P114" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -24923,7 +24941,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -25001,10 +25019,10 @@
         <v>1.14</v>
       </c>
       <c r="AP115">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AQ115">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR115">
         <v>1.37</v>
@@ -25129,7 +25147,7 @@
         <v>160</v>
       </c>
       <c r="P116" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q116">
         <v>1.95</v>
@@ -25207,7 +25225,7 @@
         <v>1.14</v>
       </c>
       <c r="AP116">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AQ116">
         <v>0.6899999999999999</v>
@@ -25335,7 +25353,7 @@
         <v>161</v>
       </c>
       <c r="P117" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q117">
         <v>3.1</v>
@@ -25541,7 +25559,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q118">
         <v>3.75</v>
@@ -25622,7 +25640,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ118">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR118">
         <v>1.03</v>
@@ -25953,7 +25971,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q120">
         <v>3.6</v>
@@ -26031,7 +26049,7 @@
         <v>1.14</v>
       </c>
       <c r="AP120">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ120">
         <v>1.21</v>
@@ -26159,7 +26177,7 @@
         <v>163</v>
       </c>
       <c r="P121" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26649,7 +26667,7 @@
         <v>1.88</v>
       </c>
       <c r="AP123">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AQ123">
         <v>1.23</v>
@@ -26777,7 +26795,7 @@
         <v>166</v>
       </c>
       <c r="P124" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26983,7 +27001,7 @@
         <v>90</v>
       </c>
       <c r="P125" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -27395,7 +27413,7 @@
         <v>168</v>
       </c>
       <c r="P127" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q127">
         <v>4.75</v>
@@ -27601,7 +27619,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q128">
         <v>5.5</v>
@@ -27888,7 +27906,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ129">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR129">
         <v>1.86</v>
@@ -28013,7 +28031,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q130">
         <v>2.2</v>
@@ -28506,7 +28524,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ132">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR132">
         <v>1.5</v>
@@ -28709,7 +28727,7 @@
         <v>2.5</v>
       </c>
       <c r="AP133">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ133">
         <v>2.46</v>
@@ -28918,7 +28936,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ134">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR134">
         <v>1.14</v>
@@ -29043,7 +29061,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q135">
         <v>3.35</v>
@@ -29330,7 +29348,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ136">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR136">
         <v>1.73</v>
@@ -29661,7 +29679,7 @@
         <v>90</v>
       </c>
       <c r="P138" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q138">
         <v>5.25</v>
@@ -29867,7 +29885,7 @@
         <v>177</v>
       </c>
       <c r="P139" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q139">
         <v>2.32</v>
@@ -30279,7 +30297,7 @@
         <v>134</v>
       </c>
       <c r="P141" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q141">
         <v>3.81</v>
@@ -30360,7 +30378,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ141">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR141">
         <v>1.04</v>
@@ -30485,7 +30503,7 @@
         <v>90</v>
       </c>
       <c r="P142" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q142">
         <v>7</v>
@@ -30563,7 +30581,7 @@
         <v>1.63</v>
       </c>
       <c r="AP142">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AQ142">
         <v>1.64</v>
@@ -30691,7 +30709,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q143">
         <v>2.2</v>
@@ -31181,7 +31199,7 @@
         <v>1.14</v>
       </c>
       <c r="AP145">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AQ145">
         <v>0.75</v>
@@ -31515,7 +31533,7 @@
         <v>182</v>
       </c>
       <c r="P147" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q147">
         <v>1.71</v>
@@ -31721,7 +31739,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q148">
         <v>1.93</v>
@@ -31927,7 +31945,7 @@
         <v>184</v>
       </c>
       <c r="P149" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q149">
         <v>5.66</v>
@@ -32005,7 +32023,7 @@
         <v>0.75</v>
       </c>
       <c r="AP149">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ149">
         <v>0.58</v>
@@ -32214,7 +32232,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ150">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR150">
         <v>1.97</v>
@@ -32339,7 +32357,7 @@
         <v>185</v>
       </c>
       <c r="P151" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q151">
         <v>2.98</v>
@@ -32545,7 +32563,7 @@
         <v>186</v>
       </c>
       <c r="P152" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q152">
         <v>1.62</v>
@@ -33163,7 +33181,7 @@
         <v>188</v>
       </c>
       <c r="P155" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q155">
         <v>2.38</v>
@@ -33241,7 +33259,7 @@
         <v>1</v>
       </c>
       <c r="AP155">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ155">
         <v>0.75</v>
@@ -33369,7 +33387,7 @@
         <v>90</v>
       </c>
       <c r="P156" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q156">
         <v>4.75</v>
@@ -33447,7 +33465,7 @@
         <v>1.3</v>
       </c>
       <c r="AP156">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AQ156">
         <v>1.23</v>
@@ -33575,7 +33593,7 @@
         <v>189</v>
       </c>
       <c r="P157" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q157">
         <v>2.88</v>
@@ -34068,7 +34086,7 @@
         <v>2.85</v>
       </c>
       <c r="AQ159">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR159">
         <v>2.43</v>
@@ -34399,7 +34417,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q161">
         <v>9</v>
@@ -35098,7 +35116,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ164">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR164">
         <v>1.21</v>
@@ -35429,7 +35447,7 @@
         <v>197</v>
       </c>
       <c r="P166" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q166">
         <v>3.5</v>
@@ -35507,7 +35525,7 @@
         <v>1.7</v>
       </c>
       <c r="AP166">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AQ166">
         <v>1.64</v>
@@ -35635,7 +35653,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -36047,7 +36065,7 @@
         <v>90</v>
       </c>
       <c r="P169" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q169">
         <v>5.5</v>
@@ -36331,10 +36349,10 @@
         <v>0.6</v>
       </c>
       <c r="AP170">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ170">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR170">
         <v>1.28</v>
@@ -36459,7 +36477,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q171">
         <v>1.75</v>
@@ -36537,10 +36555,10 @@
         <v>0.73</v>
       </c>
       <c r="AP171">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AQ171">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR171">
         <v>1.89</v>
@@ -36665,7 +36683,7 @@
         <v>90</v>
       </c>
       <c r="P172" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q172">
         <v>4.4</v>
@@ -36871,7 +36889,7 @@
         <v>202</v>
       </c>
       <c r="P173" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q173">
         <v>3.5</v>
@@ -37158,7 +37176,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ174">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR174">
         <v>1.58</v>
@@ -37695,7 +37713,7 @@
         <v>97</v>
       </c>
       <c r="P177" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q177">
         <v>5</v>
@@ -37773,7 +37791,7 @@
         <v>1.11</v>
       </c>
       <c r="AP177">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AQ177">
         <v>1.17</v>
@@ -37901,7 +37919,7 @@
         <v>206</v>
       </c>
       <c r="P178" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q178">
         <v>1.36</v>
@@ -38107,7 +38125,7 @@
         <v>90</v>
       </c>
       <c r="P179" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q179">
         <v>6.28</v>
@@ -38313,7 +38331,7 @@
         <v>207</v>
       </c>
       <c r="P180" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q180">
         <v>4.8</v>
@@ -38519,7 +38537,7 @@
         <v>90</v>
       </c>
       <c r="P181" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q181">
         <v>3.5</v>
@@ -38931,7 +38949,7 @@
         <v>209</v>
       </c>
       <c r="P183" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q183">
         <v>1.44</v>
@@ -39137,7 +39155,7 @@
         <v>210</v>
       </c>
       <c r="P184" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q184">
         <v>4</v>
@@ -39215,7 +39233,7 @@
         <v>1.36</v>
       </c>
       <c r="AP184">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ184">
         <v>1.43</v>
@@ -39343,7 +39361,7 @@
         <v>211</v>
       </c>
       <c r="P185" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q185">
         <v>2.75</v>
@@ -39549,7 +39567,7 @@
         <v>90</v>
       </c>
       <c r="P186" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q186">
         <v>2.25</v>
@@ -39630,7 +39648,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ186">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR186">
         <v>1.53</v>
@@ -40167,7 +40185,7 @@
         <v>90</v>
       </c>
       <c r="P189" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40245,7 +40263,7 @@
         <v>0.7</v>
       </c>
       <c r="AP189">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AQ189">
         <v>1.08</v>
@@ -40454,7 +40472,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ190">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR190">
         <v>1.5</v>
@@ -40579,7 +40597,7 @@
         <v>214</v>
       </c>
       <c r="P191" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q191">
         <v>3.05</v>
@@ -41278,7 +41296,7 @@
         <v>2.85</v>
       </c>
       <c r="AQ194">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR194">
         <v>2.62</v>
@@ -41403,7 +41421,7 @@
         <v>218</v>
       </c>
       <c r="P195" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q195">
         <v>3.6</v>
@@ -41481,7 +41499,7 @@
         <v>2.42</v>
       </c>
       <c r="AP195">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AQ195">
         <v>2.46</v>
@@ -41609,7 +41627,7 @@
         <v>90</v>
       </c>
       <c r="P196" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q196">
         <v>1.95</v>
@@ -41815,7 +41833,7 @@
         <v>219</v>
       </c>
       <c r="P197" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q197">
         <v>1.87</v>
@@ -42021,7 +42039,7 @@
         <v>220</v>
       </c>
       <c r="P198" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q198">
         <v>2.19</v>
@@ -42639,7 +42657,7 @@
         <v>223</v>
       </c>
       <c r="P201" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q201">
         <v>3.5</v>
@@ -42845,7 +42863,7 @@
         <v>87</v>
       </c>
       <c r="P202" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q202">
         <v>3.84</v>
@@ -43051,7 +43069,7 @@
         <v>224</v>
       </c>
       <c r="P203" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q203">
         <v>6.5</v>
@@ -43669,7 +43687,7 @@
         <v>226</v>
       </c>
       <c r="P206" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q206">
         <v>1.79</v>
@@ -43826,6 +43844,624 @@
       </c>
       <c r="BP206">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="207" spans="1:68">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>7347962</v>
+      </c>
+      <c r="C207" t="s">
+        <v>68</v>
+      </c>
+      <c r="D207" t="s">
+        <v>69</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45557.1875</v>
+      </c>
+      <c r="F207">
+        <v>26</v>
+      </c>
+      <c r="G207" t="s">
+        <v>71</v>
+      </c>
+      <c r="H207" t="s">
+        <v>82</v>
+      </c>
+      <c r="I207">
+        <v>2</v>
+      </c>
+      <c r="J207">
+        <v>2</v>
+      </c>
+      <c r="K207">
+        <v>4</v>
+      </c>
+      <c r="L207">
+        <v>3</v>
+      </c>
+      <c r="M207">
+        <v>2</v>
+      </c>
+      <c r="N207">
+        <v>5</v>
+      </c>
+      <c r="O207" t="s">
+        <v>227</v>
+      </c>
+      <c r="P207" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q207">
+        <v>2.7</v>
+      </c>
+      <c r="R207">
+        <v>2.25</v>
+      </c>
+      <c r="S207">
+        <v>3.25</v>
+      </c>
+      <c r="T207">
+        <v>1.33</v>
+      </c>
+      <c r="U207">
+        <v>3.25</v>
+      </c>
+      <c r="V207">
+        <v>2.5</v>
+      </c>
+      <c r="W207">
+        <v>1.5</v>
+      </c>
+      <c r="X207">
+        <v>5.5</v>
+      </c>
+      <c r="Y207">
+        <v>1.12</v>
+      </c>
+      <c r="Z207">
+        <v>2.3</v>
+      </c>
+      <c r="AA207">
+        <v>3.3</v>
+      </c>
+      <c r="AB207">
+        <v>2.85</v>
+      </c>
+      <c r="AC207">
+        <v>1.04</v>
+      </c>
+      <c r="AD207">
+        <v>10.5</v>
+      </c>
+      <c r="AE207">
+        <v>1.21</v>
+      </c>
+      <c r="AF207">
+        <v>3.74</v>
+      </c>
+      <c r="AG207">
+        <v>1.76</v>
+      </c>
+      <c r="AH207">
+        <v>2.04</v>
+      </c>
+      <c r="AI207">
+        <v>1.62</v>
+      </c>
+      <c r="AJ207">
+        <v>2.2</v>
+      </c>
+      <c r="AK207">
+        <v>1.4</v>
+      </c>
+      <c r="AL207">
+        <v>1.29</v>
+      </c>
+      <c r="AM207">
+        <v>1.6</v>
+      </c>
+      <c r="AN207">
+        <v>0.92</v>
+      </c>
+      <c r="AO207">
+        <v>0.92</v>
+      </c>
+      <c r="AP207">
+        <v>1.07</v>
+      </c>
+      <c r="AQ207">
+        <v>0.86</v>
+      </c>
+      <c r="AR207">
+        <v>1.29</v>
+      </c>
+      <c r="AS207">
+        <v>1.39</v>
+      </c>
+      <c r="AT207">
+        <v>2.68</v>
+      </c>
+      <c r="AU207">
+        <v>6</v>
+      </c>
+      <c r="AV207">
+        <v>7</v>
+      </c>
+      <c r="AW207">
+        <v>4</v>
+      </c>
+      <c r="AX207">
+        <v>8</v>
+      </c>
+      <c r="AY207">
+        <v>10</v>
+      </c>
+      <c r="AZ207">
+        <v>15</v>
+      </c>
+      <c r="BA207">
+        <v>2</v>
+      </c>
+      <c r="BB207">
+        <v>1</v>
+      </c>
+      <c r="BC207">
+        <v>3</v>
+      </c>
+      <c r="BD207">
+        <v>1.95</v>
+      </c>
+      <c r="BE207">
+        <v>8</v>
+      </c>
+      <c r="BF207">
+        <v>2.1</v>
+      </c>
+      <c r="BG207">
+        <v>1.28</v>
+      </c>
+      <c r="BH207">
+        <v>3.67</v>
+      </c>
+      <c r="BI207">
+        <v>1.55</v>
+      </c>
+      <c r="BJ207">
+        <v>2.4</v>
+      </c>
+      <c r="BK207">
+        <v>1.92</v>
+      </c>
+      <c r="BL207">
+        <v>1.88</v>
+      </c>
+      <c r="BM207">
+        <v>2.41</v>
+      </c>
+      <c r="BN207">
+        <v>1.54</v>
+      </c>
+      <c r="BO207">
+        <v>3.15</v>
+      </c>
+      <c r="BP207">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="208" spans="1:68">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>7347963</v>
+      </c>
+      <c r="C208" t="s">
+        <v>68</v>
+      </c>
+      <c r="D208" t="s">
+        <v>69</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45557.33333333334</v>
+      </c>
+      <c r="F208">
+        <v>26</v>
+      </c>
+      <c r="G208" t="s">
+        <v>81</v>
+      </c>
+      <c r="H208" t="s">
+        <v>78</v>
+      </c>
+      <c r="I208">
+        <v>1</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <v>1</v>
+      </c>
+      <c r="L208">
+        <v>2</v>
+      </c>
+      <c r="M208">
+        <v>2</v>
+      </c>
+      <c r="N208">
+        <v>4</v>
+      </c>
+      <c r="O208" t="s">
+        <v>228</v>
+      </c>
+      <c r="P208" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q208">
+        <v>3.25</v>
+      </c>
+      <c r="R208">
+        <v>2.2</v>
+      </c>
+      <c r="S208">
+        <v>2.88</v>
+      </c>
+      <c r="T208">
+        <v>1.33</v>
+      </c>
+      <c r="U208">
+        <v>3.25</v>
+      </c>
+      <c r="V208">
+        <v>2.5</v>
+      </c>
+      <c r="W208">
+        <v>1.5</v>
+      </c>
+      <c r="X208">
+        <v>6</v>
+      </c>
+      <c r="Y208">
+        <v>1.11</v>
+      </c>
+      <c r="Z208">
+        <v>2.55</v>
+      </c>
+      <c r="AA208">
+        <v>3.4</v>
+      </c>
+      <c r="AB208">
+        <v>2.4</v>
+      </c>
+      <c r="AC208">
+        <v>1.02</v>
+      </c>
+      <c r="AD208">
+        <v>10</v>
+      </c>
+      <c r="AE208">
+        <v>1.25</v>
+      </c>
+      <c r="AF208">
+        <v>3.6</v>
+      </c>
+      <c r="AG208">
+        <v>1.77</v>
+      </c>
+      <c r="AH208">
+        <v>1.95</v>
+      </c>
+      <c r="AI208">
+        <v>1.6</v>
+      </c>
+      <c r="AJ208">
+        <v>2.2</v>
+      </c>
+      <c r="AK208">
+        <v>1.52</v>
+      </c>
+      <c r="AL208">
+        <v>1.32</v>
+      </c>
+      <c r="AM208">
+        <v>1.45</v>
+      </c>
+      <c r="AN208">
+        <v>0.5</v>
+      </c>
+      <c r="AO208">
+        <v>0.67</v>
+      </c>
+      <c r="AP208">
+        <v>0.54</v>
+      </c>
+      <c r="AQ208">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR208">
+        <v>1.24</v>
+      </c>
+      <c r="AS208">
+        <v>1.07</v>
+      </c>
+      <c r="AT208">
+        <v>2.31</v>
+      </c>
+      <c r="AU208">
+        <v>9</v>
+      </c>
+      <c r="AV208">
+        <v>6</v>
+      </c>
+      <c r="AW208">
+        <v>9</v>
+      </c>
+      <c r="AX208">
+        <v>5</v>
+      </c>
+      <c r="AY208">
+        <v>18</v>
+      </c>
+      <c r="AZ208">
+        <v>11</v>
+      </c>
+      <c r="BA208">
+        <v>6</v>
+      </c>
+      <c r="BB208">
+        <v>1</v>
+      </c>
+      <c r="BC208">
+        <v>7</v>
+      </c>
+      <c r="BD208">
+        <v>1.62</v>
+      </c>
+      <c r="BE208">
+        <v>8.5</v>
+      </c>
+      <c r="BF208">
+        <v>2.75</v>
+      </c>
+      <c r="BG208">
+        <v>1.18</v>
+      </c>
+      <c r="BH208">
+        <v>3.74</v>
+      </c>
+      <c r="BI208">
+        <v>1.38</v>
+      </c>
+      <c r="BJ208">
+        <v>2.62</v>
+      </c>
+      <c r="BK208">
+        <v>1.7</v>
+      </c>
+      <c r="BL208">
+        <v>2.03</v>
+      </c>
+      <c r="BM208">
+        <v>2.1</v>
+      </c>
+      <c r="BN208">
+        <v>1.59</v>
+      </c>
+      <c r="BO208">
+        <v>2.73</v>
+      </c>
+      <c r="BP208">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="209" spans="1:68">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>7347964</v>
+      </c>
+      <c r="C209" t="s">
+        <v>68</v>
+      </c>
+      <c r="D209" t="s">
+        <v>69</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45557.375</v>
+      </c>
+      <c r="F209">
+        <v>26</v>
+      </c>
+      <c r="G209" t="s">
+        <v>76</v>
+      </c>
+      <c r="H209" t="s">
+        <v>74</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>2</v>
+      </c>
+      <c r="K209">
+        <v>2</v>
+      </c>
+      <c r="L209">
+        <v>2</v>
+      </c>
+      <c r="M209">
+        <v>2</v>
+      </c>
+      <c r="N209">
+        <v>4</v>
+      </c>
+      <c r="O209" t="s">
+        <v>229</v>
+      </c>
+      <c r="P209" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q209">
+        <v>1.7</v>
+      </c>
+      <c r="R209">
+        <v>2.88</v>
+      </c>
+      <c r="S209">
+        <v>5.5</v>
+      </c>
+      <c r="T209">
+        <v>1.15</v>
+      </c>
+      <c r="U209">
+        <v>4.75</v>
+      </c>
+      <c r="V209">
+        <v>1.81</v>
+      </c>
+      <c r="W209">
+        <v>1.95</v>
+      </c>
+      <c r="X209">
+        <v>3.25</v>
+      </c>
+      <c r="Y209">
+        <v>1.33</v>
+      </c>
+      <c r="Z209">
+        <v>1.38</v>
+      </c>
+      <c r="AA209">
+        <v>5.25</v>
+      </c>
+      <c r="AB209">
+        <v>5.75</v>
+      </c>
+      <c r="AC209">
+        <v>1.01</v>
+      </c>
+      <c r="AD209">
+        <v>38.5</v>
+      </c>
+      <c r="AE209">
+        <v>1.05</v>
+      </c>
+      <c r="AF209">
+        <v>7.2</v>
+      </c>
+      <c r="AG209">
+        <v>1.26</v>
+      </c>
+      <c r="AH209">
+        <v>3.34</v>
+      </c>
+      <c r="AI209">
+        <v>1.44</v>
+      </c>
+      <c r="AJ209">
+        <v>2.62</v>
+      </c>
+      <c r="AK209">
+        <v>1.13</v>
+      </c>
+      <c r="AL209">
+        <v>1.15</v>
+      </c>
+      <c r="AM209">
+        <v>2.88</v>
+      </c>
+      <c r="AN209">
+        <v>1.92</v>
+      </c>
+      <c r="AO209">
+        <v>0.83</v>
+      </c>
+      <c r="AP209">
+        <v>1.86</v>
+      </c>
+      <c r="AQ209">
+        <v>0.85</v>
+      </c>
+      <c r="AR209">
+        <v>2.02</v>
+      </c>
+      <c r="AS209">
+        <v>0.95</v>
+      </c>
+      <c r="AT209">
+        <v>2.97</v>
+      </c>
+      <c r="AU209">
+        <v>11</v>
+      </c>
+      <c r="AV209">
+        <v>5</v>
+      </c>
+      <c r="AW209">
+        <v>17</v>
+      </c>
+      <c r="AX209">
+        <v>3</v>
+      </c>
+      <c r="AY209">
+        <v>28</v>
+      </c>
+      <c r="AZ209">
+        <v>8</v>
+      </c>
+      <c r="BA209">
+        <v>8</v>
+      </c>
+      <c r="BB209">
+        <v>1</v>
+      </c>
+      <c r="BC209">
+        <v>9</v>
+      </c>
+      <c r="BD209">
+        <v>1.22</v>
+      </c>
+      <c r="BE209">
+        <v>11</v>
+      </c>
+      <c r="BF209">
+        <v>5</v>
+      </c>
+      <c r="BG209">
+        <v>1.13</v>
+      </c>
+      <c r="BH209">
+        <v>4.25</v>
+      </c>
+      <c r="BI209">
+        <v>1.29</v>
+      </c>
+      <c r="BJ209">
+        <v>2.92</v>
+      </c>
+      <c r="BK209">
+        <v>1.8</v>
+      </c>
+      <c r="BL209">
+        <v>2</v>
+      </c>
+      <c r="BM209">
+        <v>1.96</v>
+      </c>
+      <c r="BN209">
+        <v>1.75</v>
+      </c>
+      <c r="BO209">
+        <v>2.49</v>
+      </c>
+      <c r="BP209">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="343">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1404,7 +1404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP209"/>
+  <dimension ref="A1:BP210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3186,7 +3186,7 @@
         <v>1</v>
       </c>
       <c r="AQ9">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3389,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ10">
         <v>0.6899999999999999</v>
@@ -6276,7 +6276,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ24">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AR24">
         <v>1.89</v>
@@ -6894,7 +6894,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ27">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AR27">
         <v>1.22</v>
@@ -7303,7 +7303,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ29">
         <v>1.23</v>
@@ -11217,7 +11217,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ48">
         <v>0.58</v>
@@ -12456,7 +12456,7 @@
         <v>0.54</v>
       </c>
       <c r="AQ54">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AR54">
         <v>0.95</v>
@@ -14516,7 +14516,7 @@
         <v>2.85</v>
       </c>
       <c r="AQ64">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AR64">
         <v>2.2</v>
@@ -15749,7 +15749,7 @@
         <v>1.67</v>
       </c>
       <c r="AP70">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ70">
         <v>2.46</v>
@@ -18015,7 +18015,7 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ81">
         <v>0.6899999999999999</v>
@@ -18636,7 +18636,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ84">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AR84">
         <v>1.89</v>
@@ -21517,7 +21517,7 @@
         <v>2</v>
       </c>
       <c r="AP98">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ98">
         <v>1.43</v>
@@ -21932,7 +21932,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ100">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AR100">
         <v>1.53</v>
@@ -23374,7 +23374,7 @@
         <v>1</v>
       </c>
       <c r="AQ107">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AR107">
         <v>1.26</v>
@@ -23577,7 +23577,7 @@
         <v>2.14</v>
       </c>
       <c r="AP108">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ108">
         <v>1.23</v>
@@ -27697,7 +27697,7 @@
         <v>1.43</v>
       </c>
       <c r="AP128">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ128">
         <v>1.64</v>
@@ -28730,7 +28730,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ133">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AR133">
         <v>1.18</v>
@@ -30993,7 +30993,7 @@
         <v>0.88</v>
       </c>
       <c r="AP144">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ144">
         <v>1.08</v>
@@ -34498,7 +34498,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ161">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AR161">
         <v>0.99</v>
@@ -35731,7 +35731,7 @@
         <v>1</v>
       </c>
       <c r="AP167">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ167">
         <v>0.75</v>
@@ -36146,7 +36146,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ169">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AR169">
         <v>1.66</v>
@@ -37588,7 +37588,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ176">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AR176">
         <v>1.81</v>
@@ -38615,7 +38615,7 @@
         <v>1.1</v>
       </c>
       <c r="AP181">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ181">
         <v>1.17</v>
@@ -40469,7 +40469,7 @@
         <v>1.09</v>
       </c>
       <c r="AP190">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ190">
         <v>0.86</v>
@@ -41502,7 +41502,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ195">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AR195">
         <v>2.02</v>
@@ -42735,7 +42735,7 @@
         <v>1.25</v>
       </c>
       <c r="AP201">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ201">
         <v>1.21</v>
@@ -44462,6 +44462,212 @@
       </c>
       <c r="BP209">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="210" spans="1:68">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>7347965</v>
+      </c>
+      <c r="C210" t="s">
+        <v>68</v>
+      </c>
+      <c r="D210" t="s">
+        <v>69</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45563.1875</v>
+      </c>
+      <c r="F210">
+        <v>27</v>
+      </c>
+      <c r="G210" t="s">
+        <v>78</v>
+      </c>
+      <c r="H210" t="s">
+        <v>79</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <v>1</v>
+      </c>
+      <c r="K210">
+        <v>1</v>
+      </c>
+      <c r="L210">
+        <v>0</v>
+      </c>
+      <c r="M210">
+        <v>1</v>
+      </c>
+      <c r="N210">
+        <v>1</v>
+      </c>
+      <c r="O210" t="s">
+        <v>90</v>
+      </c>
+      <c r="P210" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q210">
+        <v>6</v>
+      </c>
+      <c r="R210">
+        <v>2.5</v>
+      </c>
+      <c r="S210">
+        <v>1.8</v>
+      </c>
+      <c r="T210">
+        <v>1.25</v>
+      </c>
+      <c r="U210">
+        <v>3.72</v>
+      </c>
+      <c r="V210">
+        <v>2.18</v>
+      </c>
+      <c r="W210">
+        <v>1.64</v>
+      </c>
+      <c r="X210">
+        <v>4.7</v>
+      </c>
+      <c r="Y210">
+        <v>1.17</v>
+      </c>
+      <c r="Z210">
+        <v>7.7</v>
+      </c>
+      <c r="AA210">
+        <v>5.6</v>
+      </c>
+      <c r="AB210">
+        <v>1.34</v>
+      </c>
+      <c r="AC210">
+        <v>1.01</v>
+      </c>
+      <c r="AD210">
+        <v>17</v>
+      </c>
+      <c r="AE210">
+        <v>1.11</v>
+      </c>
+      <c r="AF210">
+        <v>5.5</v>
+      </c>
+      <c r="AG210">
+        <v>1.45</v>
+      </c>
+      <c r="AH210">
+        <v>2.55</v>
+      </c>
+      <c r="AI210">
+        <v>1.67</v>
+      </c>
+      <c r="AJ210">
+        <v>2.15</v>
+      </c>
+      <c r="AK210">
+        <v>3.2</v>
+      </c>
+      <c r="AL210">
+        <v>1.14</v>
+      </c>
+      <c r="AM210">
+        <v>1.07</v>
+      </c>
+      <c r="AN210">
+        <v>1.38</v>
+      </c>
+      <c r="AO210">
+        <v>2.46</v>
+      </c>
+      <c r="AP210">
+        <v>1.29</v>
+      </c>
+      <c r="AQ210">
+        <v>2.5</v>
+      </c>
+      <c r="AR210">
+        <v>1.41</v>
+      </c>
+      <c r="AS210">
+        <v>1.75</v>
+      </c>
+      <c r="AT210">
+        <v>3.16</v>
+      </c>
+      <c r="AU210">
+        <v>7</v>
+      </c>
+      <c r="AV210">
+        <v>4</v>
+      </c>
+      <c r="AW210">
+        <v>8</v>
+      </c>
+      <c r="AX210">
+        <v>5</v>
+      </c>
+      <c r="AY210">
+        <v>15</v>
+      </c>
+      <c r="AZ210">
+        <v>9</v>
+      </c>
+      <c r="BA210">
+        <v>5</v>
+      </c>
+      <c r="BB210">
+        <v>5</v>
+      </c>
+      <c r="BC210">
+        <v>10</v>
+      </c>
+      <c r="BD210">
+        <v>4.33</v>
+      </c>
+      <c r="BE210">
+        <v>10</v>
+      </c>
+      <c r="BF210">
+        <v>1.29</v>
+      </c>
+      <c r="BG210">
+        <v>1.16</v>
+      </c>
+      <c r="BH210">
+        <v>4.75</v>
+      </c>
+      <c r="BI210">
+        <v>1.31</v>
+      </c>
+      <c r="BJ210">
+        <v>3.25</v>
+      </c>
+      <c r="BK210">
+        <v>1.55</v>
+      </c>
+      <c r="BL210">
+        <v>2.23</v>
+      </c>
+      <c r="BM210">
+        <v>1.9</v>
+      </c>
+      <c r="BN210">
+        <v>1.85</v>
+      </c>
+      <c r="BO210">
+        <v>2.48</v>
+      </c>
+      <c r="BP210">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="351">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -706,6 +706,24 @@
     <t>['66', '75']</t>
   </si>
   <si>
+    <t>['43', '53']</t>
+  </si>
+  <si>
+    <t>['8', '25', '33', '41', '51', '72', '88', '90+4']</t>
+  </si>
+  <si>
+    <t>['10', '19', '59']</t>
+  </si>
+  <si>
+    <t>['69']</t>
+  </si>
+  <si>
+    <t>['36', '74', '90+1']</t>
+  </si>
+  <si>
+    <t>['14', '83']</t>
+  </si>
+  <si>
     <t>['81', '90+3']</t>
   </si>
   <si>
@@ -1039,10 +1057,16 @@
     <t>['7', '13']</t>
   </si>
   <si>
-    <t>['54', '90+13']</t>
+    <t>['7', '24']</t>
   </si>
   <si>
-    <t>['7', '24']</t>
+    <t>['1', '8']</t>
+  </si>
+  <si>
+    <t>['54', '77', '90+2', '90+6']</t>
+  </si>
+  <si>
+    <t>['8', '53']</t>
   </si>
 </sst>
 </file>
@@ -1404,7 +1428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP210"/>
+  <dimension ref="A1:BP217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1663,7 +1687,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1744,7 +1768,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ2">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1869,7 +1893,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -1950,7 +1974,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ3">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2153,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AQ4">
         <v>1.21</v>
@@ -2359,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ5">
         <v>0.6899999999999999</v>
@@ -2487,7 +2511,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2771,10 +2795,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ7">
-        <v>0.6899999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3105,7 +3129,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -3392,7 +3416,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ10">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3598,7 +3622,7 @@
         <v>2.69</v>
       </c>
       <c r="AQ11">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3723,7 +3747,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -3804,7 +3828,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ12">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4341,7 +4365,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4419,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.54</v>
+        <v>0.86</v>
       </c>
       <c r="AQ15">
         <v>1.21</v>
@@ -4753,7 +4777,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4831,7 +4855,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ17">
         <v>1.23</v>
@@ -4959,7 +4983,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -5037,10 +5061,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ18">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR18">
         <v>1.67</v>
@@ -5165,7 +5189,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5243,7 +5267,7 @@
         <v>2</v>
       </c>
       <c r="AP19">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ19">
         <v>1.43</v>
@@ -5449,7 +5473,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ20">
         <v>0.6899999999999999</v>
@@ -5658,7 +5682,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ21">
-        <v>0.6899999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="AR21">
         <v>0.99</v>
@@ -5861,10 +5885,10 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AQ22">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR22">
         <v>2.37</v>
@@ -5989,7 +6013,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -6195,7 +6219,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6401,7 +6425,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6482,7 +6506,7 @@
         <v>1</v>
       </c>
       <c r="AQ25">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR25">
         <v>0.67</v>
@@ -6607,7 +6631,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6685,10 +6709,10 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ26">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR26">
         <v>0.87</v>
@@ -6813,7 +6837,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -7019,7 +7043,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7225,7 +7249,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -7306,7 +7330,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ29">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR29">
         <v>1.72</v>
@@ -7431,7 +7455,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7509,7 +7533,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ30">
         <v>2.46</v>
@@ -7715,10 +7739,10 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>0.54</v>
+        <v>0.86</v>
       </c>
       <c r="AQ31">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR31">
         <v>1.04</v>
@@ -7843,7 +7867,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7921,7 +7945,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ32">
         <v>1.64</v>
@@ -8049,7 +8073,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q33">
         <v>1.73</v>
@@ -8130,7 +8154,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ33">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR33">
         <v>0.79</v>
@@ -8255,7 +8279,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q34">
         <v>6.4</v>
@@ -8333,7 +8357,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>0.54</v>
+        <v>0.86</v>
       </c>
       <c r="AQ34">
         <v>2.46</v>
@@ -8461,7 +8485,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q35">
         <v>1.96</v>
@@ -8542,7 +8566,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ35">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR35">
         <v>1.8</v>
@@ -8667,7 +8691,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q36">
         <v>1.98</v>
@@ -8745,7 +8769,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ36">
         <v>0.86</v>
@@ -8873,7 +8897,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -9079,7 +9103,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q38">
         <v>3.25</v>
@@ -9366,7 +9390,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ39">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR39">
         <v>1.09</v>
@@ -9569,10 +9593,10 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ40">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR40">
         <v>1.36</v>
@@ -9778,7 +9802,7 @@
         <v>1</v>
       </c>
       <c r="AQ41">
-        <v>0.6899999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="AR41">
         <v>0.89</v>
@@ -9903,7 +9927,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -10109,7 +10133,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q43">
         <v>2.3</v>
@@ -10315,7 +10339,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q44">
         <v>4.75</v>
@@ -10599,10 +10623,10 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ45">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR45">
         <v>1.43</v>
@@ -10727,7 +10751,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10805,10 +10829,10 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AQ46">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR46">
         <v>1.97</v>
@@ -10933,7 +10957,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -11014,7 +11038,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ47">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR47">
         <v>1.03</v>
@@ -11220,7 +11244,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ48">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR48">
         <v>1.33</v>
@@ -11423,7 +11447,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ49">
         <v>1.21</v>
@@ -11551,7 +11575,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11838,7 +11862,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ51">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR51">
         <v>1.89</v>
@@ -11963,7 +11987,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q52">
         <v>1.83</v>
@@ -12041,7 +12065,7 @@
         <v>2</v>
       </c>
       <c r="AP52">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ52">
         <v>0.86</v>
@@ -12247,10 +12271,10 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ53">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR53">
         <v>1.78</v>
@@ -12375,7 +12399,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q54">
         <v>7.5</v>
@@ -12453,7 +12477,7 @@
         <v>3</v>
       </c>
       <c r="AP54">
-        <v>0.54</v>
+        <v>0.86</v>
       </c>
       <c r="AQ54">
         <v>2.5</v>
@@ -12662,7 +12686,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ55">
-        <v>0.6899999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="AR55">
         <v>1.53</v>
@@ -12865,10 +12889,10 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ56">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR56">
         <v>1.29</v>
@@ -12993,7 +13017,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13199,7 +13223,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q58">
         <v>2.8</v>
@@ -13277,10 +13301,10 @@
         <v>0.25</v>
       </c>
       <c r="AP58">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ58">
-        <v>0.6899999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="AR58">
         <v>1.44</v>
@@ -13405,7 +13429,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q59">
         <v>3.15</v>
@@ -13483,7 +13507,7 @@
         <v>2.25</v>
       </c>
       <c r="AP59">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ59">
         <v>1.23</v>
@@ -13611,7 +13635,7 @@
         <v>106</v>
       </c>
       <c r="P60" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13817,7 +13841,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="Q61">
         <v>3.11</v>
@@ -13898,7 +13922,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ61">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR61">
         <v>1.2</v>
@@ -14104,7 +14128,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ62">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR62">
         <v>0.98</v>
@@ -14229,7 +14253,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q63">
         <v>2.75</v>
@@ -14307,10 +14331,10 @@
         <v>1.5</v>
       </c>
       <c r="AP63">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ63">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR63">
         <v>1.51</v>
@@ -14513,7 +14537,7 @@
         <v>3</v>
       </c>
       <c r="AP64">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AQ64">
         <v>2.5</v>
@@ -14925,7 +14949,7 @@
         <v>2.2</v>
       </c>
       <c r="AP66">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ66">
         <v>1.43</v>
@@ -15053,7 +15077,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q67">
         <v>2.38</v>
@@ -15134,7 +15158,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ67">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR67">
         <v>1.71</v>
@@ -15340,7 +15364,7 @@
         <v>1</v>
       </c>
       <c r="AQ68">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR68">
         <v>1.05</v>
@@ -15671,7 +15695,7 @@
         <v>90</v>
       </c>
       <c r="P70" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q70">
         <v>5.5</v>
@@ -15877,7 +15901,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q71">
         <v>2.45</v>
@@ -15955,7 +15979,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ71">
         <v>1.21</v>
@@ -16164,7 +16188,7 @@
         <v>2.69</v>
       </c>
       <c r="AQ72">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR72">
         <v>2.16</v>
@@ -16370,7 +16394,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ73">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR73">
         <v>1.06</v>
@@ -16495,7 +16519,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q74">
         <v>2.65</v>
@@ -16701,7 +16725,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -16779,10 +16803,10 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>0.54</v>
+        <v>0.86</v>
       </c>
       <c r="AQ75">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR75">
         <v>1</v>
@@ -16988,7 +17012,7 @@
         <v>2.69</v>
       </c>
       <c r="AQ76">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR76">
         <v>2.43</v>
@@ -17113,7 +17137,7 @@
         <v>133</v>
       </c>
       <c r="P77" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17194,7 +17218,7 @@
         <v>1</v>
       </c>
       <c r="AQ77">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR77">
         <v>1.1</v>
@@ -17397,10 +17421,10 @@
         <v>0.8</v>
       </c>
       <c r="AP78">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ78">
-        <v>0.6899999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="AR78">
         <v>1.72</v>
@@ -17603,7 +17627,7 @@
         <v>2</v>
       </c>
       <c r="AP79">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ79">
         <v>1.64</v>
@@ -17731,7 +17755,7 @@
         <v>90</v>
       </c>
       <c r="P80" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -17809,7 +17833,7 @@
         <v>2</v>
       </c>
       <c r="AP80">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ80">
         <v>2.46</v>
@@ -17937,7 +17961,7 @@
         <v>136</v>
       </c>
       <c r="P81" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -18143,7 +18167,7 @@
         <v>137</v>
       </c>
       <c r="P82" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="Q82">
         <v>1.91</v>
@@ -18221,10 +18245,10 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ82">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR82">
         <v>1.62</v>
@@ -18349,7 +18373,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="Q83">
         <v>1.62</v>
@@ -18427,10 +18451,10 @@
         <v>1.4</v>
       </c>
       <c r="AP83">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AQ83">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR83">
         <v>1.9</v>
@@ -18633,7 +18657,7 @@
         <v>2.6</v>
       </c>
       <c r="AP84">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ84">
         <v>2.5</v>
@@ -18761,7 +18785,7 @@
         <v>99</v>
       </c>
       <c r="P85" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18839,10 +18863,10 @@
         <v>1.75</v>
       </c>
       <c r="AP85">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ85">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR85">
         <v>1.84</v>
@@ -18967,7 +18991,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Q86">
         <v>1.83</v>
@@ -19045,10 +19069,10 @@
         <v>1.25</v>
       </c>
       <c r="AP86">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ86">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR86">
         <v>1.8</v>
@@ -19173,7 +19197,7 @@
         <v>90</v>
       </c>
       <c r="P87" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -19254,7 +19278,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ87">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR87">
         <v>1.16</v>
@@ -19379,7 +19403,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19457,10 +19481,10 @@
         <v>0.8</v>
       </c>
       <c r="AP88">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ88">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR88">
         <v>1.33</v>
@@ -19666,7 +19690,7 @@
         <v>2.69</v>
       </c>
       <c r="AQ89">
-        <v>0.6899999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="AR89">
         <v>2.42</v>
@@ -19791,7 +19815,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q90">
         <v>1.61</v>
@@ -19997,7 +20021,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Q91">
         <v>1.8</v>
@@ -20203,7 +20227,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="Q92">
         <v>3.8</v>
@@ -20409,7 +20433,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q93">
         <v>2.55</v>
@@ -20615,7 +20639,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="Q94">
         <v>4.5</v>
@@ -20821,7 +20845,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Q95">
         <v>4.5</v>
@@ -21027,7 +21051,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="Q96">
         <v>9</v>
@@ -21439,7 +21463,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q98">
         <v>4.63</v>
@@ -21645,7 +21669,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="Q99">
         <v>2.31</v>
@@ -21851,7 +21875,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -22057,7 +22081,7 @@
         <v>151</v>
       </c>
       <c r="P101" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q101">
         <v>2.43</v>
@@ -22135,10 +22159,10 @@
         <v>1</v>
       </c>
       <c r="AP101">
-        <v>0.54</v>
+        <v>0.86</v>
       </c>
       <c r="AQ101">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR101">
         <v>1.06</v>
@@ -22263,7 +22287,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -22341,10 +22365,10 @@
         <v>2</v>
       </c>
       <c r="AP102">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ102">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR102">
         <v>1.58</v>
@@ -22469,7 +22493,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -22550,7 +22574,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ103">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR103">
         <v>1</v>
@@ -22753,7 +22777,7 @@
         <v>1.8</v>
       </c>
       <c r="AP104">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AQ104">
         <v>1.64</v>
@@ -22962,7 +22986,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ105">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR105">
         <v>1.91</v>
@@ -23165,10 +23189,10 @@
         <v>1</v>
       </c>
       <c r="AP106">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ106">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR106">
         <v>1.74</v>
@@ -23371,7 +23395,7 @@
         <v>2.43</v>
       </c>
       <c r="AP107">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ107">
         <v>2.5</v>
@@ -23705,7 +23729,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q109">
         <v>1.95</v>
@@ -23783,7 +23807,7 @@
         <v>0.86</v>
       </c>
       <c r="AP109">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ109">
         <v>0.6899999999999999</v>
@@ -23992,7 +24016,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ110">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR110">
         <v>1.08</v>
@@ -24195,10 +24219,10 @@
         <v>1.17</v>
       </c>
       <c r="AP111">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ111">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR111">
         <v>1.64</v>
@@ -24401,10 +24425,10 @@
         <v>1</v>
       </c>
       <c r="AP112">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AQ112">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR112">
         <v>1.97</v>
@@ -24610,7 +24634,7 @@
         <v>1</v>
       </c>
       <c r="AQ113">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR113">
         <v>1.3</v>
@@ -24735,7 +24759,7 @@
         <v>90</v>
       </c>
       <c r="P114" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -24813,7 +24837,7 @@
         <v>2.33</v>
       </c>
       <c r="AP114">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ114">
         <v>2.46</v>
@@ -24941,7 +24965,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -25019,7 +25043,7 @@
         <v>1.14</v>
       </c>
       <c r="AP115">
-        <v>0.54</v>
+        <v>0.86</v>
       </c>
       <c r="AQ115">
         <v>0.86</v>
@@ -25147,7 +25171,7 @@
         <v>160</v>
       </c>
       <c r="P116" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Q116">
         <v>1.95</v>
@@ -25228,7 +25252,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ116">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR116">
         <v>1.76</v>
@@ -25353,7 +25377,7 @@
         <v>161</v>
       </c>
       <c r="P117" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="Q117">
         <v>3.1</v>
@@ -25559,7 +25583,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Q118">
         <v>3.75</v>
@@ -25640,7 +25664,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ118">
-        <v>0.6899999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="AR118">
         <v>1.03</v>
@@ -25971,7 +25995,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="Q120">
         <v>3.6</v>
@@ -26177,7 +26201,7 @@
         <v>163</v>
       </c>
       <c r="P121" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26464,7 +26488,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ122">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR122">
         <v>1.65</v>
@@ -26667,7 +26691,7 @@
         <v>1.88</v>
       </c>
       <c r="AP123">
-        <v>0.54</v>
+        <v>0.86</v>
       </c>
       <c r="AQ123">
         <v>1.23</v>
@@ -26795,7 +26819,7 @@
         <v>166</v>
       </c>
       <c r="P124" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26873,10 +26897,10 @@
         <v>1</v>
       </c>
       <c r="AP124">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ124">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR124">
         <v>1.28</v>
@@ -27001,7 +27025,7 @@
         <v>90</v>
       </c>
       <c r="P125" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -27079,7 +27103,7 @@
         <v>2.5</v>
       </c>
       <c r="AP125">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ125">
         <v>2.46</v>
@@ -27288,7 +27312,7 @@
         <v>2.69</v>
       </c>
       <c r="AQ126">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR126">
         <v>2.25</v>
@@ -27413,7 +27437,7 @@
         <v>168</v>
       </c>
       <c r="P127" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="Q127">
         <v>4.75</v>
@@ -27494,7 +27518,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ127">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR127">
         <v>1.13</v>
@@ -27619,7 +27643,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="Q128">
         <v>5.5</v>
@@ -27903,10 +27927,10 @@
         <v>0.86</v>
       </c>
       <c r="AP129">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ129">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR129">
         <v>1.86</v>
@@ -28031,7 +28055,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="Q130">
         <v>2.2</v>
@@ -28109,7 +28133,7 @@
         <v>0.75</v>
       </c>
       <c r="AP130">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ130">
         <v>0.6899999999999999</v>
@@ -28315,10 +28339,10 @@
         <v>0.86</v>
       </c>
       <c r="AP131">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AQ131">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR131">
         <v>2.36</v>
@@ -28521,7 +28545,7 @@
         <v>1.38</v>
       </c>
       <c r="AP132">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ132">
         <v>0.86</v>
@@ -28936,7 +28960,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ134">
-        <v>0.6899999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="AR134">
         <v>1.14</v>
@@ -29061,7 +29085,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="Q135">
         <v>3.35</v>
@@ -29142,7 +29166,7 @@
         <v>1</v>
       </c>
       <c r="AQ135">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR135">
         <v>1.21</v>
@@ -29345,10 +29369,10 @@
         <v>0.75</v>
       </c>
       <c r="AP136">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ136">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR136">
         <v>1.73</v>
@@ -29551,10 +29575,10 @@
         <v>1.63</v>
       </c>
       <c r="AP137">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ137">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR137">
         <v>1.83</v>
@@ -29679,7 +29703,7 @@
         <v>90</v>
       </c>
       <c r="P138" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q138">
         <v>5.25</v>
@@ -29885,7 +29909,7 @@
         <v>177</v>
       </c>
       <c r="P139" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="Q139">
         <v>2.32</v>
@@ -29963,10 +29987,10 @@
         <v>1</v>
       </c>
       <c r="AP139">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ139">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR139">
         <v>1.65</v>
@@ -30172,7 +30196,7 @@
         <v>2.69</v>
       </c>
       <c r="AQ140">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR140">
         <v>2.23</v>
@@ -30297,7 +30321,7 @@
         <v>134</v>
       </c>
       <c r="P141" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="Q141">
         <v>3.81</v>
@@ -30503,7 +30527,7 @@
         <v>90</v>
       </c>
       <c r="P142" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="Q142">
         <v>7</v>
@@ -30581,7 +30605,7 @@
         <v>1.63</v>
       </c>
       <c r="AP142">
-        <v>0.54</v>
+        <v>0.86</v>
       </c>
       <c r="AQ142">
         <v>1.64</v>
@@ -30709,7 +30733,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="Q143">
         <v>2.2</v>
@@ -30787,7 +30811,7 @@
         <v>1.38</v>
       </c>
       <c r="AP143">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ143">
         <v>1.21</v>
@@ -30996,7 +31020,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ144">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR144">
         <v>1.4</v>
@@ -31202,7 +31226,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ145">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR145">
         <v>1.9</v>
@@ -31533,7 +31557,7 @@
         <v>182</v>
       </c>
       <c r="P147" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="Q147">
         <v>1.71</v>
@@ -31611,7 +31635,7 @@
         <v>1.67</v>
       </c>
       <c r="AP147">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AQ147">
         <v>1.43</v>
@@ -31739,7 +31763,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="Q148">
         <v>1.93</v>
@@ -31817,7 +31841,7 @@
         <v>1.78</v>
       </c>
       <c r="AP148">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ148">
         <v>1.23</v>
@@ -31945,7 +31969,7 @@
         <v>184</v>
       </c>
       <c r="P149" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="Q149">
         <v>5.66</v>
@@ -32026,7 +32050,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ149">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR149">
         <v>1.16</v>
@@ -32232,7 +32256,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ150">
-        <v>0.6899999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="AR150">
         <v>1.97</v>
@@ -32357,7 +32381,7 @@
         <v>185</v>
       </c>
       <c r="P151" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q151">
         <v>2.98</v>
@@ -32563,7 +32587,7 @@
         <v>186</v>
       </c>
       <c r="P152" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="Q152">
         <v>1.62</v>
@@ -32644,7 +32668,7 @@
         <v>2.69</v>
       </c>
       <c r="AQ152">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR152">
         <v>2.2</v>
@@ -32847,10 +32871,10 @@
         <v>1.13</v>
       </c>
       <c r="AP153">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ153">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR153">
         <v>1.34</v>
@@ -33053,7 +33077,7 @@
         <v>1.78</v>
       </c>
       <c r="AP154">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ154">
         <v>1.64</v>
@@ -33181,7 +33205,7 @@
         <v>188</v>
       </c>
       <c r="P155" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="Q155">
         <v>2.38</v>
@@ -33262,7 +33286,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ155">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR155">
         <v>1.25</v>
@@ -33387,7 +33411,7 @@
         <v>90</v>
       </c>
       <c r="P156" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="Q156">
         <v>4.75</v>
@@ -33465,10 +33489,10 @@
         <v>1.3</v>
       </c>
       <c r="AP156">
-        <v>0.54</v>
+        <v>0.86</v>
       </c>
       <c r="AQ156">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR156">
         <v>1.24</v>
@@ -33593,7 +33617,7 @@
         <v>189</v>
       </c>
       <c r="P157" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q157">
         <v>2.88</v>
@@ -33671,10 +33695,10 @@
         <v>0.9</v>
       </c>
       <c r="AP157">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ157">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR157">
         <v>1.27</v>
@@ -33877,7 +33901,7 @@
         <v>1.6</v>
       </c>
       <c r="AP158">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ158">
         <v>1.23</v>
@@ -34083,10 +34107,10 @@
         <v>0.8</v>
       </c>
       <c r="AP159">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AQ159">
-        <v>0.6899999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="AR159">
         <v>2.43</v>
@@ -34292,7 +34316,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ160">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR160">
         <v>1.59</v>
@@ -34417,7 +34441,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="Q161">
         <v>9</v>
@@ -34701,7 +34725,7 @@
         <v>0.9</v>
       </c>
       <c r="AP162">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AQ162">
         <v>0.6899999999999999</v>
@@ -34907,7 +34931,7 @@
         <v>1.5</v>
       </c>
       <c r="AP163">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ163">
         <v>1.43</v>
@@ -35116,7 +35140,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ164">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR164">
         <v>1.21</v>
@@ -35319,10 +35343,10 @@
         <v>0.78</v>
       </c>
       <c r="AP165">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ165">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR165">
         <v>1.66</v>
@@ -35447,7 +35471,7 @@
         <v>197</v>
       </c>
       <c r="P166" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="Q166">
         <v>3.5</v>
@@ -35653,7 +35677,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -35734,7 +35758,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ167">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR167">
         <v>1.43</v>
@@ -35940,7 +35964,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ168">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR168">
         <v>1.58</v>
@@ -36065,7 +36089,7 @@
         <v>90</v>
       </c>
       <c r="P169" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="Q169">
         <v>5.5</v>
@@ -36143,7 +36167,7 @@
         <v>2.6</v>
       </c>
       <c r="AP169">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ169">
         <v>2.5</v>
@@ -36352,7 +36376,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ170">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR170">
         <v>1.28</v>
@@ -36477,7 +36501,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="Q171">
         <v>1.75</v>
@@ -36558,7 +36582,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ171">
-        <v>0.6899999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="AR171">
         <v>1.89</v>
@@ -36683,7 +36707,7 @@
         <v>90</v>
       </c>
       <c r="P172" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="Q172">
         <v>4.4</v>
@@ -36889,7 +36913,7 @@
         <v>202</v>
       </c>
       <c r="P173" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="Q173">
         <v>3.5</v>
@@ -37173,7 +37197,7 @@
         <v>1.2</v>
       </c>
       <c r="AP174">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ174">
         <v>0.86</v>
@@ -37379,10 +37403,10 @@
         <v>0.82</v>
       </c>
       <c r="AP175">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ175">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR175">
         <v>1.91</v>
@@ -37585,7 +37609,7 @@
         <v>2.64</v>
       </c>
       <c r="AP176">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ176">
         <v>2.5</v>
@@ -37713,7 +37737,7 @@
         <v>97</v>
       </c>
       <c r="P177" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="Q177">
         <v>5</v>
@@ -37791,10 +37815,10 @@
         <v>1.11</v>
       </c>
       <c r="AP177">
-        <v>0.54</v>
+        <v>0.86</v>
       </c>
       <c r="AQ177">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR177">
         <v>1.21</v>
@@ -37919,7 +37943,7 @@
         <v>206</v>
       </c>
       <c r="P178" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="Q178">
         <v>1.36</v>
@@ -37997,10 +38021,10 @@
         <v>0.9</v>
       </c>
       <c r="AP178">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AQ178">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR178">
         <v>2.55</v>
@@ -38125,7 +38149,7 @@
         <v>90</v>
       </c>
       <c r="P179" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="Q179">
         <v>6.28</v>
@@ -38203,7 +38227,7 @@
         <v>1.82</v>
       </c>
       <c r="AP179">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ179">
         <v>1.64</v>
@@ -38331,7 +38355,7 @@
         <v>207</v>
       </c>
       <c r="P180" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="Q180">
         <v>4.8</v>
@@ -38412,7 +38436,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ180">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR180">
         <v>0.97</v>
@@ -38537,7 +38561,7 @@
         <v>90</v>
       </c>
       <c r="P181" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="Q181">
         <v>3.5</v>
@@ -38618,7 +38642,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ181">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR181">
         <v>1.48</v>
@@ -38949,7 +38973,7 @@
         <v>209</v>
       </c>
       <c r="P183" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="Q183">
         <v>1.44</v>
@@ -39155,7 +39179,7 @@
         <v>210</v>
       </c>
       <c r="P184" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="Q184">
         <v>4</v>
@@ -39361,7 +39385,7 @@
         <v>211</v>
       </c>
       <c r="P185" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="Q185">
         <v>2.75</v>
@@ -39439,10 +39463,10 @@
         <v>0.6</v>
       </c>
       <c r="AP185">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ185">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR185">
         <v>1.65</v>
@@ -39567,7 +39591,7 @@
         <v>90</v>
       </c>
       <c r="P186" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="Q186">
         <v>2.25</v>
@@ -39648,7 +39672,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ186">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR186">
         <v>1.53</v>
@@ -39851,7 +39875,7 @@
         <v>1.36</v>
       </c>
       <c r="AP187">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ187">
         <v>1.21</v>
@@ -40057,10 +40081,10 @@
         <v>0.55</v>
       </c>
       <c r="AP188">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ188">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR188">
         <v>1.79</v>
@@ -40185,7 +40209,7 @@
         <v>90</v>
       </c>
       <c r="P189" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40263,10 +40287,10 @@
         <v>0.7</v>
       </c>
       <c r="AP189">
-        <v>0.54</v>
+        <v>0.86</v>
       </c>
       <c r="AQ189">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR189">
         <v>1.24</v>
@@ -40597,7 +40621,7 @@
         <v>214</v>
       </c>
       <c r="P191" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="Q191">
         <v>3.05</v>
@@ -40678,7 +40702,7 @@
         <v>1</v>
       </c>
       <c r="AQ191">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR191">
         <v>1.23</v>
@@ -41293,7 +41317,7 @@
         <v>1</v>
       </c>
       <c r="AP194">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AQ194">
         <v>0.86</v>
@@ -41421,7 +41445,7 @@
         <v>218</v>
       </c>
       <c r="P195" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="Q195">
         <v>3.6</v>
@@ -41627,7 +41651,7 @@
         <v>90</v>
       </c>
       <c r="P196" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q196">
         <v>1.95</v>
@@ -41708,7 +41732,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ196">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR196">
         <v>1.74</v>
@@ -41833,7 +41857,7 @@
         <v>219</v>
       </c>
       <c r="P197" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="Q197">
         <v>1.87</v>
@@ -41911,7 +41935,7 @@
         <v>1.33</v>
       </c>
       <c r="AP197">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ197">
         <v>1.43</v>
@@ -42039,7 +42063,7 @@
         <v>220</v>
       </c>
       <c r="P198" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="Q198">
         <v>2.19</v>
@@ -42323,10 +42347,10 @@
         <v>1.27</v>
       </c>
       <c r="AP199">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ199">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR199">
         <v>1.6</v>
@@ -42532,7 +42556,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ200">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR200">
         <v>1.06</v>
@@ -42657,7 +42681,7 @@
         <v>223</v>
       </c>
       <c r="P201" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Q201">
         <v>3.5</v>
@@ -42863,7 +42887,7 @@
         <v>87</v>
       </c>
       <c r="P202" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="Q202">
         <v>3.84</v>
@@ -43069,7 +43093,7 @@
         <v>224</v>
       </c>
       <c r="P203" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="Q203">
         <v>6.5</v>
@@ -43687,7 +43711,7 @@
         <v>226</v>
       </c>
       <c r="P206" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="Q206">
         <v>1.79</v>
@@ -43860,7 +43884,7 @@
         <v>69</v>
       </c>
       <c r="E207" s="2">
-        <v>45557.1875</v>
+        <v>45556.875</v>
       </c>
       <c r="F207">
         <v>26</v>
@@ -43893,7 +43917,7 @@
         <v>227</v>
       </c>
       <c r="P207" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="Q207">
         <v>2.7</v>
@@ -43986,31 +44010,31 @@
         <v>2.68</v>
       </c>
       <c r="AU207">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AV207">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AW207">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AX207">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AY207">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="AZ207">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="BA207">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BB207">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="BC207">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BD207">
         <v>1.95</v>
@@ -44066,7 +44090,7 @@
         <v>69</v>
       </c>
       <c r="E208" s="2">
-        <v>45557.33333333334</v>
+        <v>45556.875</v>
       </c>
       <c r="F208">
         <v>26</v>
@@ -44090,16 +44114,16 @@
         <v>2</v>
       </c>
       <c r="M208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N208">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O208" t="s">
         <v>228</v>
       </c>
       <c r="P208" t="s">
-        <v>341</v>
+        <v>258</v>
       </c>
       <c r="Q208">
         <v>3.25</v>
@@ -44177,10 +44201,10 @@
         <v>0.67</v>
       </c>
       <c r="AP208">
-        <v>0.54</v>
+        <v>0.86</v>
       </c>
       <c r="AQ208">
-        <v>0.6899999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="AR208">
         <v>1.24</v>
@@ -44192,22 +44216,22 @@
         <v>2.31</v>
       </c>
       <c r="AU208">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV208">
         <v>6</v>
       </c>
       <c r="AW208">
+        <v>13</v>
+      </c>
+      <c r="AX208">
         <v>9</v>
       </c>
-      <c r="AX208">
-        <v>5</v>
-      </c>
       <c r="AY208">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AZ208">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA208">
         <v>6</v>
@@ -44305,7 +44329,7 @@
         <v>229</v>
       </c>
       <c r="P209" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q209">
         <v>1.7</v>
@@ -44386,7 +44410,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ209">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR209">
         <v>2.02</v>
@@ -44469,7 +44493,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>7347965</v>
+        <v>7347966</v>
       </c>
       <c r="C210" t="s">
         <v>68</v>
@@ -44478,196 +44502,1638 @@
         <v>69</v>
       </c>
       <c r="E210" s="2">
-        <v>45563.1875</v>
+        <v>45562.875</v>
       </c>
       <c r="F210">
         <v>27</v>
       </c>
       <c r="G210" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H210" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K210">
         <v>1</v>
       </c>
       <c r="L210">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M210">
         <v>1</v>
       </c>
       <c r="N210">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O210" t="s">
-        <v>90</v>
+        <v>230</v>
       </c>
       <c r="P210" t="s">
-        <v>339</v>
+        <v>244</v>
       </c>
       <c r="Q210">
-        <v>6</v>
+        <v>1.29</v>
       </c>
       <c r="R210">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="S210">
-        <v>1.8</v>
+        <v>12</v>
       </c>
       <c r="T210">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="U210">
-        <v>3.72</v>
+        <v>5.75</v>
       </c>
       <c r="V210">
-        <v>2.18</v>
+        <v>1.57</v>
       </c>
       <c r="W210">
-        <v>1.64</v>
+        <v>2.25</v>
       </c>
       <c r="X210">
-        <v>4.7</v>
+        <v>2.8</v>
       </c>
       <c r="Y210">
-        <v>1.17</v>
+        <v>1.38</v>
       </c>
       <c r="Z210">
-        <v>7.7</v>
+        <v>1.1</v>
       </c>
       <c r="AA210">
-        <v>5.6</v>
+        <v>9.9</v>
       </c>
       <c r="AB210">
-        <v>1.34</v>
+        <v>17.25</v>
       </c>
       <c r="AC210">
         <v>1.01</v>
       </c>
       <c r="AD210">
+        <v>86</v>
+      </c>
+      <c r="AE210">
+        <v>1.01</v>
+      </c>
+      <c r="AF210">
+        <v>11</v>
+      </c>
+      <c r="AG210">
+        <v>1.16</v>
+      </c>
+      <c r="AH210">
+        <v>4.5</v>
+      </c>
+      <c r="AI210">
+        <v>1.73</v>
+      </c>
+      <c r="AJ210">
+        <v>2.1</v>
+      </c>
+      <c r="AK210">
+        <v>1.02</v>
+      </c>
+      <c r="AL210">
+        <v>1.02</v>
+      </c>
+      <c r="AM210">
+        <v>7.9</v>
+      </c>
+      <c r="AN210">
+        <v>2.85</v>
+      </c>
+      <c r="AO210">
+        <v>1.08</v>
+      </c>
+      <c r="AP210">
+        <v>2.86</v>
+      </c>
+      <c r="AQ210">
+        <v>1</v>
+      </c>
+      <c r="AR210">
+        <v>2.56</v>
+      </c>
+      <c r="AS210">
+        <v>1.19</v>
+      </c>
+      <c r="AT210">
+        <v>3.75</v>
+      </c>
+      <c r="AU210">
+        <v>12</v>
+      </c>
+      <c r="AV210">
+        <v>6</v>
+      </c>
+      <c r="AW210">
+        <v>12</v>
+      </c>
+      <c r="AX210">
+        <v>13</v>
+      </c>
+      <c r="AY210">
+        <v>24</v>
+      </c>
+      <c r="AZ210">
+        <v>19</v>
+      </c>
+      <c r="BA210">
+        <v>7</v>
+      </c>
+      <c r="BB210">
+        <v>7</v>
+      </c>
+      <c r="BC210">
+        <v>14</v>
+      </c>
+      <c r="BD210">
+        <v>1.11</v>
+      </c>
+      <c r="BE210">
+        <v>13</v>
+      </c>
+      <c r="BF210">
+        <v>7</v>
+      </c>
+      <c r="BG210">
+        <v>1.1</v>
+      </c>
+      <c r="BH210">
+        <v>5.7</v>
+      </c>
+      <c r="BI210">
+        <v>1.18</v>
+      </c>
+      <c r="BJ210">
+        <v>3.72</v>
+      </c>
+      <c r="BK210">
+        <v>1.35</v>
+      </c>
+      <c r="BL210">
+        <v>2.65</v>
+      </c>
+      <c r="BM210">
+        <v>1.85</v>
+      </c>
+      <c r="BN210">
+        <v>1.95</v>
+      </c>
+      <c r="BO210">
+        <v>2.05</v>
+      </c>
+      <c r="BP210">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="211" spans="1:68">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>7347965</v>
+      </c>
+      <c r="C211" t="s">
+        <v>68</v>
+      </c>
+      <c r="D211" t="s">
+        <v>69</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45563.1875</v>
+      </c>
+      <c r="F211">
+        <v>27</v>
+      </c>
+      <c r="G211" t="s">
+        <v>78</v>
+      </c>
+      <c r="H211" t="s">
+        <v>79</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>1</v>
+      </c>
+      <c r="K211">
+        <v>1</v>
+      </c>
+      <c r="L211">
+        <v>0</v>
+      </c>
+      <c r="M211">
+        <v>1</v>
+      </c>
+      <c r="N211">
+        <v>1</v>
+      </c>
+      <c r="O211" t="s">
+        <v>90</v>
+      </c>
+      <c r="P211" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q211">
+        <v>6</v>
+      </c>
+      <c r="R211">
+        <v>2.5</v>
+      </c>
+      <c r="S211">
+        <v>1.8</v>
+      </c>
+      <c r="T211">
+        <v>1.25</v>
+      </c>
+      <c r="U211">
+        <v>3.72</v>
+      </c>
+      <c r="V211">
+        <v>2.18</v>
+      </c>
+      <c r="W211">
+        <v>1.64</v>
+      </c>
+      <c r="X211">
+        <v>4.7</v>
+      </c>
+      <c r="Y211">
+        <v>1.17</v>
+      </c>
+      <c r="Z211">
+        <v>7.7</v>
+      </c>
+      <c r="AA211">
+        <v>5.6</v>
+      </c>
+      <c r="AB211">
+        <v>1.34</v>
+      </c>
+      <c r="AC211">
+        <v>1.01</v>
+      </c>
+      <c r="AD211">
         <v>17</v>
       </c>
-      <c r="AE210">
+      <c r="AE211">
         <v>1.11</v>
       </c>
-      <c r="AF210">
+      <c r="AF211">
         <v>5.5</v>
       </c>
-      <c r="AG210">
+      <c r="AG211">
         <v>1.45</v>
       </c>
-      <c r="AH210">
+      <c r="AH211">
         <v>2.55</v>
       </c>
-      <c r="AI210">
+      <c r="AI211">
         <v>1.67</v>
       </c>
-      <c r="AJ210">
+      <c r="AJ211">
         <v>2.15</v>
       </c>
-      <c r="AK210">
+      <c r="AK211">
         <v>3.2</v>
       </c>
-      <c r="AL210">
+      <c r="AL211">
         <v>1.14</v>
       </c>
-      <c r="AM210">
+      <c r="AM211">
         <v>1.07</v>
       </c>
-      <c r="AN210">
+      <c r="AN211">
         <v>1.38</v>
       </c>
-      <c r="AO210">
+      <c r="AO211">
         <v>2.46</v>
       </c>
-      <c r="AP210">
+      <c r="AP211">
         <v>1.29</v>
       </c>
-      <c r="AQ210">
+      <c r="AQ211">
         <v>2.5</v>
       </c>
-      <c r="AR210">
+      <c r="AR211">
         <v>1.41</v>
       </c>
-      <c r="AS210">
+      <c r="AS211">
         <v>1.75</v>
       </c>
-      <c r="AT210">
+      <c r="AT211">
         <v>3.16</v>
       </c>
-      <c r="AU210">
+      <c r="AU211">
         <v>7</v>
       </c>
-      <c r="AV210">
+      <c r="AV211">
         <v>4</v>
       </c>
-      <c r="AW210">
+      <c r="AW211">
         <v>8</v>
       </c>
-      <c r="AX210">
+      <c r="AX211">
         <v>5</v>
       </c>
-      <c r="AY210">
+      <c r="AY211">
         <v>15</v>
       </c>
-      <c r="AZ210">
+      <c r="AZ211">
         <v>9</v>
       </c>
-      <c r="BA210">
+      <c r="BA211">
         <v>5</v>
       </c>
-      <c r="BB210">
+      <c r="BB211">
         <v>5</v>
       </c>
-      <c r="BC210">
+      <c r="BC211">
         <v>10</v>
       </c>
-      <c r="BD210">
+      <c r="BD211">
         <v>4.33</v>
       </c>
-      <c r="BE210">
+      <c r="BE211">
         <v>10</v>
       </c>
-      <c r="BF210">
+      <c r="BF211">
         <v>1.29</v>
       </c>
-      <c r="BG210">
+      <c r="BG211">
         <v>1.16</v>
       </c>
-      <c r="BH210">
+      <c r="BH211">
         <v>4.75</v>
       </c>
-      <c r="BI210">
+      <c r="BI211">
         <v>1.31</v>
       </c>
-      <c r="BJ210">
+      <c r="BJ211">
         <v>3.25</v>
       </c>
-      <c r="BK210">
+      <c r="BK211">
         <v>1.55</v>
       </c>
-      <c r="BL210">
+      <c r="BL211">
         <v>2.23</v>
       </c>
-      <c r="BM210">
+      <c r="BM211">
         <v>1.9</v>
       </c>
-      <c r="BN210">
+      <c r="BN211">
         <v>1.85</v>
       </c>
-      <c r="BO210">
+      <c r="BO211">
         <v>2.48</v>
       </c>
-      <c r="BP210">
+      <c r="BP211">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:68">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>7347968</v>
+      </c>
+      <c r="C212" t="s">
+        <v>68</v>
+      </c>
+      <c r="D212" t="s">
+        <v>69</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45563.35763888889</v>
+      </c>
+      <c r="F212">
+        <v>27</v>
+      </c>
+      <c r="G212" t="s">
+        <v>85</v>
+      </c>
+      <c r="H212" t="s">
+        <v>84</v>
+      </c>
+      <c r="I212">
+        <v>4</v>
+      </c>
+      <c r="J212">
+        <v>1</v>
+      </c>
+      <c r="K212">
+        <v>5</v>
+      </c>
+      <c r="L212">
+        <v>8</v>
+      </c>
+      <c r="M212">
+        <v>1</v>
+      </c>
+      <c r="N212">
+        <v>9</v>
+      </c>
+      <c r="O212" t="s">
+        <v>231</v>
+      </c>
+      <c r="P212" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q212">
+        <v>2</v>
+      </c>
+      <c r="R212">
+        <v>2.5</v>
+      </c>
+      <c r="S212">
+        <v>4.75</v>
+      </c>
+      <c r="T212">
+        <v>1.25</v>
+      </c>
+      <c r="U212">
+        <v>3.72</v>
+      </c>
+      <c r="V212">
+        <v>2.18</v>
+      </c>
+      <c r="W212">
+        <v>1.64</v>
+      </c>
+      <c r="X212">
+        <v>4.8</v>
+      </c>
+      <c r="Y212">
+        <v>1.16</v>
+      </c>
+      <c r="Z212">
+        <v>1.49</v>
+      </c>
+      <c r="AA212">
+        <v>4.6</v>
+      </c>
+      <c r="AB212">
+        <v>5.5</v>
+      </c>
+      <c r="AC212">
+        <v>1.01</v>
+      </c>
+      <c r="AD212">
+        <v>17</v>
+      </c>
+      <c r="AE212">
+        <v>1.11</v>
+      </c>
+      <c r="AF212">
+        <v>5.5</v>
+      </c>
+      <c r="AG212">
+        <v>1.45</v>
+      </c>
+      <c r="AH212">
+        <v>2.56</v>
+      </c>
+      <c r="AI212">
+        <v>1.57</v>
+      </c>
+      <c r="AJ212">
+        <v>2.35</v>
+      </c>
+      <c r="AK212">
+        <v>1.12</v>
+      </c>
+      <c r="AL212">
+        <v>1.15</v>
+      </c>
+      <c r="AM212">
+        <v>2.4</v>
+      </c>
+      <c r="AN212">
+        <v>2.17</v>
+      </c>
+      <c r="AO212">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP212">
+        <v>2.23</v>
+      </c>
+      <c r="AQ212">
+        <v>0.64</v>
+      </c>
+      <c r="AR212">
+        <v>1.74</v>
+      </c>
+      <c r="AS212">
+        <v>1.07</v>
+      </c>
+      <c r="AT212">
+        <v>2.81</v>
+      </c>
+      <c r="AU212">
+        <v>10</v>
+      </c>
+      <c r="AV212">
+        <v>8</v>
+      </c>
+      <c r="AW212">
+        <v>1</v>
+      </c>
+      <c r="AX212">
+        <v>8</v>
+      </c>
+      <c r="AY212">
+        <v>11</v>
+      </c>
+      <c r="AZ212">
+        <v>16</v>
+      </c>
+      <c r="BA212">
+        <v>1</v>
+      </c>
+      <c r="BB212">
+        <v>8</v>
+      </c>
+      <c r="BC212">
+        <v>9</v>
+      </c>
+      <c r="BD212">
+        <v>1.36</v>
+      </c>
+      <c r="BE212">
+        <v>9</v>
+      </c>
+      <c r="BF212">
+        <v>3.75</v>
+      </c>
+      <c r="BG212">
+        <v>1.29</v>
+      </c>
+      <c r="BH212">
+        <v>3.4</v>
+      </c>
+      <c r="BI212">
+        <v>1.53</v>
+      </c>
+      <c r="BJ212">
+        <v>2.4</v>
+      </c>
+      <c r="BK212">
+        <v>1.96</v>
+      </c>
+      <c r="BL212">
+        <v>1.85</v>
+      </c>
+      <c r="BM212">
+        <v>2.5</v>
+      </c>
+      <c r="BN212">
+        <v>1.5</v>
+      </c>
+      <c r="BO212">
+        <v>3.4</v>
+      </c>
+      <c r="BP212">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="213" spans="1:68">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>7347967</v>
+      </c>
+      <c r="C213" t="s">
+        <v>68</v>
+      </c>
+      <c r="D213" t="s">
+        <v>69</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45563.35763888889</v>
+      </c>
+      <c r="F213">
+        <v>27</v>
+      </c>
+      <c r="G213" t="s">
+        <v>81</v>
+      </c>
+      <c r="H213" t="s">
+        <v>76</v>
+      </c>
+      <c r="I213">
+        <v>2</v>
+      </c>
+      <c r="J213">
+        <v>2</v>
+      </c>
+      <c r="K213">
+        <v>4</v>
+      </c>
+      <c r="L213">
+        <v>3</v>
+      </c>
+      <c r="M213">
+        <v>2</v>
+      </c>
+      <c r="N213">
+        <v>5</v>
+      </c>
+      <c r="O213" t="s">
+        <v>232</v>
+      </c>
+      <c r="P213" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q213">
+        <v>3.6</v>
+      </c>
+      <c r="R213">
+        <v>2.3</v>
+      </c>
+      <c r="S213">
+        <v>2.4</v>
+      </c>
+      <c r="T213">
+        <v>1.25</v>
+      </c>
+      <c r="U213">
+        <v>3.72</v>
+      </c>
+      <c r="V213">
+        <v>2.19</v>
+      </c>
+      <c r="W213">
+        <v>1.64</v>
+      </c>
+      <c r="X213">
+        <v>4.75</v>
+      </c>
+      <c r="Y213">
+        <v>1.16</v>
+      </c>
+      <c r="Z213">
+        <v>3.32</v>
+      </c>
+      <c r="AA213">
+        <v>3.9</v>
+      </c>
+      <c r="AB213">
+        <v>1.95</v>
+      </c>
+      <c r="AC213">
+        <v>1.01</v>
+      </c>
+      <c r="AD213">
+        <v>13</v>
+      </c>
+      <c r="AE213">
+        <v>1.11</v>
+      </c>
+      <c r="AF213">
+        <v>5.5</v>
+      </c>
+      <c r="AG213">
+        <v>1.44</v>
+      </c>
+      <c r="AH213">
+        <v>2.59</v>
+      </c>
+      <c r="AI213">
+        <v>1.44</v>
+      </c>
+      <c r="AJ213">
+        <v>2.7</v>
+      </c>
+      <c r="AK213">
+        <v>1.81</v>
+      </c>
+      <c r="AL213">
+        <v>1.25</v>
+      </c>
+      <c r="AM213">
+        <v>1.32</v>
+      </c>
+      <c r="AN213">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AO213">
+        <v>0.58</v>
+      </c>
+      <c r="AP213">
+        <v>0.86</v>
+      </c>
+      <c r="AQ213">
+        <v>0.54</v>
+      </c>
+      <c r="AR213">
+        <v>1.33</v>
+      </c>
+      <c r="AS213">
+        <v>1.75</v>
+      </c>
+      <c r="AT213">
+        <v>3.08</v>
+      </c>
+      <c r="AU213">
+        <v>7</v>
+      </c>
+      <c r="AV213">
+        <v>3</v>
+      </c>
+      <c r="AW213">
+        <v>10</v>
+      </c>
+      <c r="AX213">
+        <v>8</v>
+      </c>
+      <c r="AY213">
+        <v>17</v>
+      </c>
+      <c r="AZ213">
+        <v>11</v>
+      </c>
+      <c r="BA213">
+        <v>7</v>
+      </c>
+      <c r="BB213">
+        <v>6</v>
+      </c>
+      <c r="BC213">
+        <v>13</v>
+      </c>
+      <c r="BD213">
+        <v>2.38</v>
+      </c>
+      <c r="BE213">
+        <v>8.5</v>
+      </c>
+      <c r="BF213">
+        <v>1.8</v>
+      </c>
+      <c r="BG213">
+        <v>1.19</v>
+      </c>
+      <c r="BH213">
+        <v>4.35</v>
+      </c>
+      <c r="BI213">
+        <v>1.36</v>
+      </c>
+      <c r="BJ213">
+        <v>3</v>
+      </c>
+      <c r="BK213">
+        <v>1.62</v>
+      </c>
+      <c r="BL213">
+        <v>2.2</v>
+      </c>
+      <c r="BM213">
+        <v>2.05</v>
+      </c>
+      <c r="BN213">
+        <v>1.72</v>
+      </c>
+      <c r="BO213">
+        <v>2.7</v>
+      </c>
+      <c r="BP213">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="214" spans="1:68">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>7347969</v>
+      </c>
+      <c r="C214" t="s">
+        <v>68</v>
+      </c>
+      <c r="D214" t="s">
+        <v>69</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45563.375</v>
+      </c>
+      <c r="F214">
+        <v>27</v>
+      </c>
+      <c r="G214" t="s">
+        <v>82</v>
+      </c>
+      <c r="H214" t="s">
+        <v>70</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
+      <c r="L214">
+        <v>1</v>
+      </c>
+      <c r="M214">
+        <v>4</v>
+      </c>
+      <c r="N214">
+        <v>5</v>
+      </c>
+      <c r="O214" t="s">
+        <v>233</v>
+      </c>
+      <c r="P214" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q214">
+        <v>2.63</v>
+      </c>
+      <c r="R214">
+        <v>2.2</v>
+      </c>
+      <c r="S214">
+        <v>3.75</v>
+      </c>
+      <c r="T214">
+        <v>1.33</v>
+      </c>
+      <c r="U214">
+        <v>3.2</v>
+      </c>
+      <c r="V214">
+        <v>2.66</v>
+      </c>
+      <c r="W214">
+        <v>1.45</v>
+      </c>
+      <c r="X214">
+        <v>6.45</v>
+      </c>
+      <c r="Y214">
+        <v>1.09</v>
+      </c>
+      <c r="Z214">
+        <v>2.1</v>
+      </c>
+      <c r="AA214">
+        <v>3.5</v>
+      </c>
+      <c r="AB214">
+        <v>3.1</v>
+      </c>
+      <c r="AC214">
+        <v>1.02</v>
+      </c>
+      <c r="AD214">
+        <v>10</v>
+      </c>
+      <c r="AE214">
+        <v>1.2</v>
+      </c>
+      <c r="AF214">
+        <v>4</v>
+      </c>
+      <c r="AG214">
+        <v>1.75</v>
+      </c>
+      <c r="AH214">
+        <v>1.95</v>
+      </c>
+      <c r="AI214">
+        <v>1.65</v>
+      </c>
+      <c r="AJ214">
+        <v>2.2</v>
+      </c>
+      <c r="AK214">
+        <v>1.31</v>
+      </c>
+      <c r="AL214">
+        <v>1.29</v>
+      </c>
+      <c r="AM214">
+        <v>1.75</v>
+      </c>
+      <c r="AN214">
+        <v>1</v>
+      </c>
+      <c r="AO214">
+        <v>1.23</v>
+      </c>
+      <c r="AP214">
+        <v>0.92</v>
+      </c>
+      <c r="AQ214">
+        <v>1.36</v>
+      </c>
+      <c r="AR214">
+        <v>1.26</v>
+      </c>
+      <c r="AS214">
+        <v>1.6</v>
+      </c>
+      <c r="AT214">
+        <v>2.86</v>
+      </c>
+      <c r="AU214">
+        <v>4</v>
+      </c>
+      <c r="AV214">
+        <v>7</v>
+      </c>
+      <c r="AW214">
+        <v>11</v>
+      </c>
+      <c r="AX214">
+        <v>3</v>
+      </c>
+      <c r="AY214">
+        <v>15</v>
+      </c>
+      <c r="AZ214">
+        <v>10</v>
+      </c>
+      <c r="BA214">
+        <v>6</v>
+      </c>
+      <c r="BB214">
+        <v>5</v>
+      </c>
+      <c r="BC214">
+        <v>11</v>
+      </c>
+      <c r="BD214">
+        <v>1.83</v>
+      </c>
+      <c r="BE214">
+        <v>8</v>
+      </c>
+      <c r="BF214">
+        <v>2.25</v>
+      </c>
+      <c r="BG214">
+        <v>1.21</v>
+      </c>
+      <c r="BH214">
+        <v>4.15</v>
+      </c>
+      <c r="BI214">
+        <v>1.39</v>
+      </c>
+      <c r="BJ214">
+        <v>2.85</v>
+      </c>
+      <c r="BK214">
+        <v>1.9</v>
+      </c>
+      <c r="BL214">
+        <v>1.9</v>
+      </c>
+      <c r="BM214">
+        <v>2.15</v>
+      </c>
+      <c r="BN214">
+        <v>1.65</v>
+      </c>
+      <c r="BO214">
+        <v>2.8</v>
+      </c>
+      <c r="BP214">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:68">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>7347970</v>
+      </c>
+      <c r="C215" t="s">
+        <v>68</v>
+      </c>
+      <c r="D215" t="s">
+        <v>69</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45564.35763888889</v>
+      </c>
+      <c r="F215">
+        <v>27</v>
+      </c>
+      <c r="G215" t="s">
+        <v>73</v>
+      </c>
+      <c r="H215" t="s">
+        <v>74</v>
+      </c>
+      <c r="I215">
+        <v>1</v>
+      </c>
+      <c r="J215">
+        <v>1</v>
+      </c>
+      <c r="K215">
+        <v>2</v>
+      </c>
+      <c r="L215">
+        <v>3</v>
+      </c>
+      <c r="M215">
+        <v>2</v>
+      </c>
+      <c r="N215">
+        <v>5</v>
+      </c>
+      <c r="O215" t="s">
+        <v>234</v>
+      </c>
+      <c r="P215" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q215">
+        <v>2.35</v>
+      </c>
+      <c r="R215">
+        <v>2.25</v>
+      </c>
+      <c r="S215">
+        <v>4.1</v>
+      </c>
+      <c r="T215">
+        <v>1.31</v>
+      </c>
+      <c r="U215">
+        <v>3.2</v>
+      </c>
+      <c r="V215">
+        <v>2.5</v>
+      </c>
+      <c r="W215">
+        <v>1.48</v>
+      </c>
+      <c r="X215">
+        <v>5.5</v>
+      </c>
+      <c r="Y215">
+        <v>1.12</v>
+      </c>
+      <c r="Z215">
+        <v>1.75</v>
+      </c>
+      <c r="AA215">
+        <v>3.6</v>
+      </c>
+      <c r="AB215">
+        <v>4</v>
+      </c>
+      <c r="AC215">
+        <v>1.04</v>
+      </c>
+      <c r="AD215">
+        <v>15.5</v>
+      </c>
+      <c r="AE215">
+        <v>1.22</v>
+      </c>
+      <c r="AF215">
+        <v>4</v>
+      </c>
+      <c r="AG215">
+        <v>1.7</v>
+      </c>
+      <c r="AH215">
+        <v>2.1</v>
+      </c>
+      <c r="AI215">
+        <v>1.65</v>
+      </c>
+      <c r="AJ215">
+        <v>2.15</v>
+      </c>
+      <c r="AK215">
+        <v>1.22</v>
+      </c>
+      <c r="AL215">
+        <v>1.29</v>
+      </c>
+      <c r="AM215">
+        <v>1.91</v>
+      </c>
+      <c r="AN215">
+        <v>1.54</v>
+      </c>
+      <c r="AO215">
+        <v>0.85</v>
+      </c>
+      <c r="AP215">
+        <v>1.64</v>
+      </c>
+      <c r="AQ215">
+        <v>0.79</v>
+      </c>
+      <c r="AR215">
+        <v>1.58</v>
+      </c>
+      <c r="AS215">
+        <v>0.95</v>
+      </c>
+      <c r="AT215">
+        <v>2.53</v>
+      </c>
+      <c r="AU215">
+        <v>13</v>
+      </c>
+      <c r="AV215">
+        <v>5</v>
+      </c>
+      <c r="AW215">
+        <v>19</v>
+      </c>
+      <c r="AX215">
+        <v>3</v>
+      </c>
+      <c r="AY215">
+        <v>32</v>
+      </c>
+      <c r="AZ215">
+        <v>8</v>
+      </c>
+      <c r="BA215">
+        <v>13</v>
+      </c>
+      <c r="BB215">
+        <v>2</v>
+      </c>
+      <c r="BC215">
+        <v>15</v>
+      </c>
+      <c r="BD215">
+        <v>1.57</v>
+      </c>
+      <c r="BE215">
+        <v>8.5</v>
+      </c>
+      <c r="BF215">
+        <v>2.88</v>
+      </c>
+      <c r="BG215">
+        <v>1.19</v>
+      </c>
+      <c r="BH215">
+        <v>4.35</v>
+      </c>
+      <c r="BI215">
+        <v>1.36</v>
+      </c>
+      <c r="BJ215">
+        <v>3</v>
+      </c>
+      <c r="BK215">
+        <v>1.92</v>
+      </c>
+      <c r="BL215">
+        <v>1.88</v>
+      </c>
+      <c r="BM215">
+        <v>2.05</v>
+      </c>
+      <c r="BN215">
+        <v>1.72</v>
+      </c>
+      <c r="BO215">
+        <v>2.7</v>
+      </c>
+      <c r="BP215">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="216" spans="1:68">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>7347971</v>
+      </c>
+      <c r="C216" t="s">
+        <v>68</v>
+      </c>
+      <c r="D216" t="s">
+        <v>69</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45564.35763888889</v>
+      </c>
+      <c r="F216">
+        <v>27</v>
+      </c>
+      <c r="G216" t="s">
+        <v>75</v>
+      </c>
+      <c r="H216" t="s">
+        <v>77</v>
+      </c>
+      <c r="I216">
+        <v>1</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>1</v>
+      </c>
+      <c r="L216">
+        <v>2</v>
+      </c>
+      <c r="M216">
+        <v>0</v>
+      </c>
+      <c r="N216">
+        <v>2</v>
+      </c>
+      <c r="O216" t="s">
+        <v>235</v>
+      </c>
+      <c r="P216" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q216">
+        <v>1.55</v>
+      </c>
+      <c r="R216">
+        <v>3.1</v>
+      </c>
+      <c r="S216">
+        <v>7.5</v>
+      </c>
+      <c r="T216">
+        <v>1.19</v>
+      </c>
+      <c r="U216">
+        <v>4.35</v>
+      </c>
+      <c r="V216">
+        <v>1.95</v>
+      </c>
+      <c r="W216">
+        <v>1.8</v>
+      </c>
+      <c r="X216">
+        <v>3.98</v>
+      </c>
+      <c r="Y216">
+        <v>1.22</v>
+      </c>
+      <c r="Z216">
+        <v>1.2</v>
+      </c>
+      <c r="AA216">
+        <v>6</v>
+      </c>
+      <c r="AB216">
+        <v>9</v>
+      </c>
+      <c r="AC216">
+        <v>0</v>
+      </c>
+      <c r="AD216">
+        <v>33.5</v>
+      </c>
+      <c r="AE216">
+        <v>1.09</v>
+      </c>
+      <c r="AF216">
+        <v>7.1</v>
+      </c>
+      <c r="AG216">
+        <v>1.33</v>
+      </c>
+      <c r="AH216">
+        <v>3</v>
+      </c>
+      <c r="AI216">
+        <v>1.73</v>
+      </c>
+      <c r="AJ216">
+        <v>2</v>
+      </c>
+      <c r="AK216">
+        <v>1.04</v>
+      </c>
+      <c r="AL216">
+        <v>1.11</v>
+      </c>
+      <c r="AM216">
+        <v>4.2</v>
+      </c>
+      <c r="AN216">
+        <v>2.42</v>
+      </c>
+      <c r="AO216">
+        <v>0.75</v>
+      </c>
+      <c r="AP216">
+        <v>2.46</v>
+      </c>
+      <c r="AQ216">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR216">
+        <v>1.91</v>
+      </c>
+      <c r="AS216">
+        <v>1.26</v>
+      </c>
+      <c r="AT216">
+        <v>3.17</v>
+      </c>
+      <c r="AU216">
+        <v>5</v>
+      </c>
+      <c r="AV216">
+        <v>4</v>
+      </c>
+      <c r="AW216">
+        <v>6</v>
+      </c>
+      <c r="AX216">
+        <v>4</v>
+      </c>
+      <c r="AY216">
+        <v>11</v>
+      </c>
+      <c r="AZ216">
+        <v>8</v>
+      </c>
+      <c r="BA216">
+        <v>8</v>
+      </c>
+      <c r="BB216">
+        <v>3</v>
+      </c>
+      <c r="BC216">
+        <v>11</v>
+      </c>
+      <c r="BD216">
+        <v>1.14</v>
+      </c>
+      <c r="BE216">
+        <v>12</v>
+      </c>
+      <c r="BF216">
+        <v>6</v>
+      </c>
+      <c r="BG216">
+        <v>1.16</v>
+      </c>
+      <c r="BH216">
+        <v>4.75</v>
+      </c>
+      <c r="BI216">
+        <v>1.31</v>
+      </c>
+      <c r="BJ216">
+        <v>3.25</v>
+      </c>
+      <c r="BK216">
+        <v>1.55</v>
+      </c>
+      <c r="BL216">
+        <v>2.35</v>
+      </c>
+      <c r="BM216">
+        <v>1.95</v>
+      </c>
+      <c r="BN216">
+        <v>1.85</v>
+      </c>
+      <c r="BO216">
+        <v>2.5</v>
+      </c>
+      <c r="BP216">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:68">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>7347972</v>
+      </c>
+      <c r="C217" t="s">
+        <v>68</v>
+      </c>
+      <c r="D217" t="s">
+        <v>69</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45564.375</v>
+      </c>
+      <c r="F217">
+        <v>27</v>
+      </c>
+      <c r="G217" t="s">
+        <v>83</v>
+      </c>
+      <c r="H217" t="s">
+        <v>80</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>0</v>
+      </c>
+      <c r="L217">
+        <v>1</v>
+      </c>
+      <c r="M217">
+        <v>0</v>
+      </c>
+      <c r="N217">
+        <v>1</v>
+      </c>
+      <c r="O217" t="s">
+        <v>116</v>
+      </c>
+      <c r="P217" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q217">
+        <v>2.75</v>
+      </c>
+      <c r="R217">
+        <v>2.15</v>
+      </c>
+      <c r="S217">
+        <v>3.6</v>
+      </c>
+      <c r="T217">
+        <v>1.36</v>
+      </c>
+      <c r="U217">
+        <v>2.9</v>
+      </c>
+      <c r="V217">
+        <v>2.65</v>
+      </c>
+      <c r="W217">
+        <v>1.42</v>
+      </c>
+      <c r="X217">
+        <v>5.8</v>
+      </c>
+      <c r="Y217">
+        <v>1.1</v>
+      </c>
+      <c r="Z217">
+        <v>2.1</v>
+      </c>
+      <c r="AA217">
+        <v>3.2</v>
+      </c>
+      <c r="AB217">
+        <v>3</v>
+      </c>
+      <c r="AC217">
+        <v>1.03</v>
+      </c>
+      <c r="AD217">
+        <v>12</v>
+      </c>
+      <c r="AE217">
+        <v>1.25</v>
+      </c>
+      <c r="AF217">
+        <v>3.57</v>
+      </c>
+      <c r="AG217">
+        <v>1.8</v>
+      </c>
+      <c r="AH217">
+        <v>1.83</v>
+      </c>
+      <c r="AI217">
+        <v>1.65</v>
+      </c>
+      <c r="AJ217">
+        <v>2.1</v>
+      </c>
+      <c r="AK217">
+        <v>1.35</v>
+      </c>
+      <c r="AL217">
+        <v>1.33</v>
+      </c>
+      <c r="AM217">
+        <v>1.65</v>
+      </c>
+      <c r="AN217">
+        <v>0.92</v>
+      </c>
+      <c r="AO217">
+        <v>1.17</v>
+      </c>
+      <c r="AP217">
+        <v>1.08</v>
+      </c>
+      <c r="AQ217">
+        <v>1.08</v>
+      </c>
+      <c r="AR217">
+        <v>1.59</v>
+      </c>
+      <c r="AS217">
+        <v>1.43</v>
+      </c>
+      <c r="AT217">
+        <v>3.02</v>
+      </c>
+      <c r="AU217">
+        <v>9</v>
+      </c>
+      <c r="AV217">
+        <v>2</v>
+      </c>
+      <c r="AW217">
+        <v>7</v>
+      </c>
+      <c r="AX217">
+        <v>0</v>
+      </c>
+      <c r="AY217">
+        <v>16</v>
+      </c>
+      <c r="AZ217">
+        <v>2</v>
+      </c>
+      <c r="BA217">
+        <v>6</v>
+      </c>
+      <c r="BB217">
+        <v>1</v>
+      </c>
+      <c r="BC217">
+        <v>7</v>
+      </c>
+      <c r="BD217">
+        <v>1.91</v>
+      </c>
+      <c r="BE217">
+        <v>8</v>
+      </c>
+      <c r="BF217">
+        <v>2.1</v>
+      </c>
+      <c r="BG217">
+        <v>1.19</v>
+      </c>
+      <c r="BH217">
+        <v>4.35</v>
+      </c>
+      <c r="BI217">
+        <v>1.36</v>
+      </c>
+      <c r="BJ217">
+        <v>3</v>
+      </c>
+      <c r="BK217">
+        <v>1.62</v>
+      </c>
+      <c r="BL217">
+        <v>2.2</v>
+      </c>
+      <c r="BM217">
+        <v>2.05</v>
+      </c>
+      <c r="BN217">
+        <v>1.72</v>
+      </c>
+      <c r="BO217">
+        <v>2.7</v>
+      </c>
+      <c r="BP217">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -706,16 +706,16 @@
     <t>['66', '75']</t>
   </si>
   <si>
-    <t>['43', '53']</t>
+    <t>['8', '25', '33', '41', '51', '72', '88', '90+4']</t>
   </si>
   <si>
-    <t>['8', '25', '33', '41', '51', '72', '88', '90+4']</t>
+    <t>['69']</t>
   </si>
   <si>
     <t>['10', '19', '59']</t>
   </si>
   <si>
-    <t>['69']</t>
+    <t>['43', '53']</t>
   </si>
   <si>
     <t>['36', '74', '90+1']</t>
@@ -1060,10 +1060,10 @@
     <t>['7', '24']</t>
   </si>
   <si>
-    <t>['1', '8']</t>
+    <t>['54', '77', '90+2', '90+6']</t>
   </si>
   <si>
-    <t>['54', '77', '90+2', '90+6']</t>
+    <t>['1', '8']</t>
   </si>
   <si>
     <t>['8', '53']</t>
@@ -44296,7 +44296,7 @@
         <v>69</v>
       </c>
       <c r="E209" s="2">
-        <v>45557.375</v>
+        <v>45556.875</v>
       </c>
       <c r="F209">
         <v>26</v>
@@ -44422,31 +44422,31 @@
         <v>2.97</v>
       </c>
       <c r="AU209">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="AV209">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AW209">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="AX209">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AY209">
-        <v>28</v>
+        <v>-1</v>
       </c>
       <c r="AZ209">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BA209">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BB209">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="BC209">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="BD209">
         <v>1.22</v>
@@ -44493,7 +44493,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>7347966</v>
+        <v>7347968</v>
       </c>
       <c r="C210" t="s">
         <v>68</v>
@@ -44508,190 +44508,190 @@
         <v>27</v>
       </c>
       <c r="G210" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H210" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="I210">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K210">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L210">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M210">
         <v>1</v>
       </c>
       <c r="N210">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O210" t="s">
         <v>230</v>
       </c>
       <c r="P210" t="s">
-        <v>244</v>
+        <v>313</v>
       </c>
       <c r="Q210">
-        <v>1.29</v>
+        <v>2</v>
       </c>
       <c r="R210">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="S210">
-        <v>12</v>
+        <v>4.75</v>
       </c>
       <c r="T210">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="U210">
-        <v>5.75</v>
+        <v>3.72</v>
       </c>
       <c r="V210">
-        <v>1.57</v>
+        <v>2.18</v>
       </c>
       <c r="W210">
-        <v>2.25</v>
+        <v>1.64</v>
       </c>
       <c r="X210">
-        <v>2.8</v>
+        <v>4.8</v>
       </c>
       <c r="Y210">
-        <v>1.38</v>
+        <v>1.16</v>
       </c>
       <c r="Z210">
-        <v>1.1</v>
+        <v>1.49</v>
       </c>
       <c r="AA210">
-        <v>9.9</v>
+        <v>4.6</v>
       </c>
       <c r="AB210">
-        <v>17.25</v>
+        <v>5.5</v>
       </c>
       <c r="AC210">
         <v>1.01</v>
       </c>
       <c r="AD210">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="AE210">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="AF210">
+        <v>5.5</v>
+      </c>
+      <c r="AG210">
+        <v>1.45</v>
+      </c>
+      <c r="AH210">
+        <v>2.56</v>
+      </c>
+      <c r="AI210">
+        <v>1.57</v>
+      </c>
+      <c r="AJ210">
+        <v>2.35</v>
+      </c>
+      <c r="AK210">
+        <v>1.12</v>
+      </c>
+      <c r="AL210">
+        <v>1.15</v>
+      </c>
+      <c r="AM210">
+        <v>2.4</v>
+      </c>
+      <c r="AN210">
+        <v>2.17</v>
+      </c>
+      <c r="AO210">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP210">
+        <v>2.23</v>
+      </c>
+      <c r="AQ210">
+        <v>0.64</v>
+      </c>
+      <c r="AR210">
+        <v>1.74</v>
+      </c>
+      <c r="AS210">
+        <v>1.07</v>
+      </c>
+      <c r="AT210">
+        <v>2.81</v>
+      </c>
+      <c r="AU210">
         <v>11</v>
       </c>
-      <c r="AG210">
-        <v>1.16</v>
-      </c>
-      <c r="AH210">
-        <v>4.5</v>
-      </c>
-      <c r="AI210">
-        <v>1.73</v>
-      </c>
-      <c r="AJ210">
-        <v>2.1</v>
-      </c>
-      <c r="AK210">
-        <v>1.02</v>
-      </c>
-      <c r="AL210">
-        <v>1.02</v>
-      </c>
-      <c r="AM210">
-        <v>7.9</v>
-      </c>
-      <c r="AN210">
-        <v>2.85</v>
-      </c>
-      <c r="AO210">
-        <v>1.08</v>
-      </c>
-      <c r="AP210">
-        <v>2.86</v>
-      </c>
-      <c r="AQ210">
-        <v>1</v>
-      </c>
-      <c r="AR210">
-        <v>2.56</v>
-      </c>
-      <c r="AS210">
-        <v>1.19</v>
-      </c>
-      <c r="AT210">
+      <c r="AV210">
+        <v>7</v>
+      </c>
+      <c r="AW210">
+        <v>3</v>
+      </c>
+      <c r="AX210">
+        <v>15</v>
+      </c>
+      <c r="AY210">
+        <v>14</v>
+      </c>
+      <c r="AZ210">
+        <v>22</v>
+      </c>
+      <c r="BA210">
+        <v>1</v>
+      </c>
+      <c r="BB210">
+        <v>8</v>
+      </c>
+      <c r="BC210">
+        <v>9</v>
+      </c>
+      <c r="BD210">
+        <v>1.36</v>
+      </c>
+      <c r="BE210">
+        <v>9</v>
+      </c>
+      <c r="BF210">
         <v>3.75</v>
       </c>
-      <c r="AU210">
-        <v>12</v>
-      </c>
-      <c r="AV210">
-        <v>6</v>
-      </c>
-      <c r="AW210">
-        <v>12</v>
-      </c>
-      <c r="AX210">
-        <v>13</v>
-      </c>
-      <c r="AY210">
-        <v>24</v>
-      </c>
-      <c r="AZ210">
-        <v>19</v>
-      </c>
-      <c r="BA210">
-        <v>7</v>
-      </c>
-      <c r="BB210">
-        <v>7</v>
-      </c>
-      <c r="BC210">
-        <v>14</v>
-      </c>
-      <c r="BD210">
-        <v>1.11</v>
-      </c>
-      <c r="BE210">
-        <v>13</v>
-      </c>
-      <c r="BF210">
-        <v>7</v>
-      </c>
       <c r="BG210">
-        <v>1.1</v>
+        <v>1.29</v>
       </c>
       <c r="BH210">
-        <v>5.7</v>
+        <v>3.4</v>
       </c>
       <c r="BI210">
-        <v>1.18</v>
+        <v>1.53</v>
       </c>
       <c r="BJ210">
-        <v>3.72</v>
+        <v>2.4</v>
       </c>
       <c r="BK210">
-        <v>1.35</v>
+        <v>1.96</v>
       </c>
       <c r="BL210">
-        <v>2.65</v>
+        <v>1.85</v>
       </c>
       <c r="BM210">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="BN210">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="BO210">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="BP210">
-        <v>1.74</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="211" spans="1:68">
@@ -44699,7 +44699,7 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>7347965</v>
+        <v>7347969</v>
       </c>
       <c r="C211" t="s">
         <v>68</v>
@@ -44708,196 +44708,196 @@
         <v>69</v>
       </c>
       <c r="E211" s="2">
-        <v>45563.1875</v>
+        <v>45562.875</v>
       </c>
       <c r="F211">
         <v>27</v>
       </c>
       <c r="G211" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H211" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I211">
         <v>0</v>
       </c>
       <c r="J211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M211">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N211">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O211" t="s">
-        <v>90</v>
+        <v>231</v>
       </c>
       <c r="P211" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q211">
-        <v>6</v>
+        <v>2.63</v>
       </c>
       <c r="R211">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="S211">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="T211">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="U211">
-        <v>3.72</v>
+        <v>3.2</v>
       </c>
       <c r="V211">
-        <v>2.18</v>
+        <v>2.66</v>
       </c>
       <c r="W211">
-        <v>1.64</v>
+        <v>1.45</v>
       </c>
       <c r="X211">
-        <v>4.7</v>
+        <v>6.45</v>
       </c>
       <c r="Y211">
-        <v>1.17</v>
+        <v>1.09</v>
       </c>
       <c r="Z211">
-        <v>7.7</v>
+        <v>2.1</v>
       </c>
       <c r="AA211">
-        <v>5.6</v>
+        <v>3.5</v>
       </c>
       <c r="AB211">
-        <v>1.34</v>
+        <v>3.1</v>
       </c>
       <c r="AC211">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD211">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AE211">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AF211">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="AG211">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="AH211">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="AI211">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="AJ211">
+        <v>2.2</v>
+      </c>
+      <c r="AK211">
+        <v>1.31</v>
+      </c>
+      <c r="AL211">
+        <v>1.29</v>
+      </c>
+      <c r="AM211">
+        <v>1.75</v>
+      </c>
+      <c r="AN211">
+        <v>1</v>
+      </c>
+      <c r="AO211">
+        <v>1.23</v>
+      </c>
+      <c r="AP211">
+        <v>0.92</v>
+      </c>
+      <c r="AQ211">
+        <v>1.36</v>
+      </c>
+      <c r="AR211">
+        <v>1.26</v>
+      </c>
+      <c r="AS211">
+        <v>1.6</v>
+      </c>
+      <c r="AT211">
+        <v>2.86</v>
+      </c>
+      <c r="AU211">
+        <v>-1</v>
+      </c>
+      <c r="AV211">
+        <v>-1</v>
+      </c>
+      <c r="AW211">
+        <v>-1</v>
+      </c>
+      <c r="AX211">
+        <v>-1</v>
+      </c>
+      <c r="AY211">
+        <v>-1</v>
+      </c>
+      <c r="AZ211">
+        <v>-1</v>
+      </c>
+      <c r="BA211">
+        <v>-1</v>
+      </c>
+      <c r="BB211">
+        <v>-1</v>
+      </c>
+      <c r="BC211">
+        <v>-1</v>
+      </c>
+      <c r="BD211">
+        <v>1.83</v>
+      </c>
+      <c r="BE211">
+        <v>8</v>
+      </c>
+      <c r="BF211">
+        <v>2.25</v>
+      </c>
+      <c r="BG211">
+        <v>1.21</v>
+      </c>
+      <c r="BH211">
+        <v>4.15</v>
+      </c>
+      <c r="BI211">
+        <v>1.39</v>
+      </c>
+      <c r="BJ211">
+        <v>2.85</v>
+      </c>
+      <c r="BK211">
+        <v>1.9</v>
+      </c>
+      <c r="BL211">
+        <v>1.9</v>
+      </c>
+      <c r="BM211">
         <v>2.15</v>
       </c>
-      <c r="AK211">
-        <v>3.2</v>
-      </c>
-      <c r="AL211">
-        <v>1.14</v>
-      </c>
-      <c r="AM211">
-        <v>1.07</v>
-      </c>
-      <c r="AN211">
-        <v>1.38</v>
-      </c>
-      <c r="AO211">
-        <v>2.46</v>
-      </c>
-      <c r="AP211">
-        <v>1.29</v>
-      </c>
-      <c r="AQ211">
-        <v>2.5</v>
-      </c>
-      <c r="AR211">
-        <v>1.41</v>
-      </c>
-      <c r="AS211">
-        <v>1.75</v>
-      </c>
-      <c r="AT211">
-        <v>3.16</v>
-      </c>
-      <c r="AU211">
-        <v>7</v>
-      </c>
-      <c r="AV211">
-        <v>4</v>
-      </c>
-      <c r="AW211">
-        <v>8</v>
-      </c>
-      <c r="AX211">
-        <v>5</v>
-      </c>
-      <c r="AY211">
-        <v>15</v>
-      </c>
-      <c r="AZ211">
-        <v>9</v>
-      </c>
-      <c r="BA211">
-        <v>5</v>
-      </c>
-      <c r="BB211">
-        <v>5</v>
-      </c>
-      <c r="BC211">
-        <v>10</v>
-      </c>
-      <c r="BD211">
-        <v>4.33</v>
-      </c>
-      <c r="BE211">
-        <v>10</v>
-      </c>
-      <c r="BF211">
-        <v>1.29</v>
-      </c>
-      <c r="BG211">
-        <v>1.16</v>
-      </c>
-      <c r="BH211">
-        <v>4.75</v>
-      </c>
-      <c r="BI211">
-        <v>1.31</v>
-      </c>
-      <c r="BJ211">
-        <v>3.25</v>
-      </c>
-      <c r="BK211">
-        <v>1.55</v>
-      </c>
-      <c r="BL211">
-        <v>2.23</v>
-      </c>
-      <c r="BM211">
-        <v>1.9</v>
-      </c>
       <c r="BN211">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="BO211">
-        <v>2.48</v>
+        <v>2.8</v>
       </c>
       <c r="BP211">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="212" spans="1:68">
@@ -44905,7 +44905,7 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>7347968</v>
+        <v>7347967</v>
       </c>
       <c r="C212" t="s">
         <v>68</v>
@@ -44914,49 +44914,49 @@
         <v>69</v>
       </c>
       <c r="E212" s="2">
-        <v>45563.35763888889</v>
+        <v>45562.875</v>
       </c>
       <c r="F212">
         <v>27</v>
       </c>
       <c r="G212" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H212" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I212">
+        <v>2</v>
+      </c>
+      <c r="J212">
+        <v>2</v>
+      </c>
+      <c r="K212">
         <v>4</v>
       </c>
-      <c r="J212">
-        <v>1</v>
-      </c>
-      <c r="K212">
+      <c r="L212">
+        <v>3</v>
+      </c>
+      <c r="M212">
+        <v>2</v>
+      </c>
+      <c r="N212">
         <v>5</v>
       </c>
-      <c r="L212">
-        <v>8</v>
-      </c>
-      <c r="M212">
-        <v>1</v>
-      </c>
-      <c r="N212">
-        <v>9</v>
-      </c>
       <c r="O212" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P212" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="Q212">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="R212">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="S212">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="T212">
         <v>1.25</v>
@@ -44965,31 +44965,31 @@
         <v>3.72</v>
       </c>
       <c r="V212">
-        <v>2.18</v>
+        <v>2.19</v>
       </c>
       <c r="W212">
         <v>1.64</v>
       </c>
       <c r="X212">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="Y212">
         <v>1.16</v>
       </c>
       <c r="Z212">
-        <v>1.49</v>
+        <v>3.32</v>
       </c>
       <c r="AA212">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="AB212">
-        <v>5.5</v>
+        <v>1.95</v>
       </c>
       <c r="AC212">
         <v>1.01</v>
       </c>
       <c r="AD212">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE212">
         <v>1.11</v>
@@ -44998,112 +44998,112 @@
         <v>5.5</v>
       </c>
       <c r="AG212">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AH212">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AI212">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AJ212">
-        <v>2.35</v>
+        <v>2.7</v>
       </c>
       <c r="AK212">
-        <v>1.12</v>
+        <v>1.81</v>
       </c>
       <c r="AL212">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="AM212">
-        <v>2.4</v>
+        <v>1.32</v>
       </c>
       <c r="AN212">
-        <v>2.17</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AO212">
-        <v>0.6899999999999999</v>
+        <v>0.58</v>
       </c>
       <c r="AP212">
-        <v>2.23</v>
+        <v>0.86</v>
       </c>
       <c r="AQ212">
-        <v>0.64</v>
+        <v>0.54</v>
       </c>
       <c r="AR212">
-        <v>1.74</v>
+        <v>1.33</v>
       </c>
       <c r="AS212">
-        <v>1.07</v>
+        <v>1.75</v>
       </c>
       <c r="AT212">
-        <v>2.81</v>
+        <v>3.08</v>
       </c>
       <c r="AU212">
+        <v>7</v>
+      </c>
+      <c r="AV212">
+        <v>4</v>
+      </c>
+      <c r="AW212">
+        <v>14</v>
+      </c>
+      <c r="AX212">
         <v>10</v>
       </c>
-      <c r="AV212">
-        <v>8</v>
-      </c>
-      <c r="AW212">
-        <v>1</v>
-      </c>
-      <c r="AX212">
-        <v>8</v>
-      </c>
       <c r="AY212">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AZ212">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA212">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BB212">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BC212">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BD212">
+        <v>2.38</v>
+      </c>
+      <c r="BE212">
+        <v>8.5</v>
+      </c>
+      <c r="BF212">
+        <v>1.8</v>
+      </c>
+      <c r="BG212">
+        <v>1.19</v>
+      </c>
+      <c r="BH212">
+        <v>4.35</v>
+      </c>
+      <c r="BI212">
         <v>1.36</v>
       </c>
-      <c r="BE212">
-        <v>9</v>
-      </c>
-      <c r="BF212">
-        <v>3.75</v>
-      </c>
-      <c r="BG212">
-        <v>1.29</v>
-      </c>
-      <c r="BH212">
-        <v>3.4</v>
-      </c>
-      <c r="BI212">
-        <v>1.53</v>
-      </c>
       <c r="BJ212">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="BK212">
-        <v>1.96</v>
+        <v>1.62</v>
       </c>
       <c r="BL212">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="BM212">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="BN212">
-        <v>1.5</v>
+        <v>1.72</v>
       </c>
       <c r="BO212">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="BP212">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="213" spans="1:68">
@@ -45111,7 +45111,7 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>7347967</v>
+        <v>7347965</v>
       </c>
       <c r="C213" t="s">
         <v>68</v>
@@ -45120,49 +45120,49 @@
         <v>69</v>
       </c>
       <c r="E213" s="2">
-        <v>45563.35763888889</v>
+        <v>45562.875</v>
       </c>
       <c r="F213">
         <v>27</v>
       </c>
       <c r="G213" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H213" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I213">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K213">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L213">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N213">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O213" t="s">
-        <v>232</v>
+        <v>90</v>
       </c>
       <c r="P213" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="Q213">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="R213">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="S213">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="T213">
         <v>1.25</v>
@@ -45171,31 +45171,31 @@
         <v>3.72</v>
       </c>
       <c r="V213">
-        <v>2.19</v>
+        <v>2.18</v>
       </c>
       <c r="W213">
         <v>1.64</v>
       </c>
       <c r="X213">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="Y213">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="Z213">
-        <v>3.32</v>
+        <v>7.7</v>
       </c>
       <c r="AA213">
-        <v>3.9</v>
+        <v>5.6</v>
       </c>
       <c r="AB213">
-        <v>1.95</v>
+        <v>1.34</v>
       </c>
       <c r="AC213">
         <v>1.01</v>
       </c>
       <c r="AD213">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE213">
         <v>1.11</v>
@@ -45204,112 +45204,112 @@
         <v>5.5</v>
       </c>
       <c r="AG213">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="AH213">
-        <v>2.59</v>
+        <v>2.55</v>
       </c>
       <c r="AI213">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="AJ213">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="AK213">
-        <v>1.81</v>
+        <v>3.2</v>
       </c>
       <c r="AL213">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="AM213">
-        <v>1.32</v>
+        <v>1.07</v>
       </c>
       <c r="AN213">
-        <v>0.6899999999999999</v>
+        <v>1.38</v>
       </c>
       <c r="AO213">
-        <v>0.58</v>
+        <v>2.46</v>
       </c>
       <c r="AP213">
-        <v>0.86</v>
+        <v>1.29</v>
       </c>
       <c r="AQ213">
-        <v>0.54</v>
+        <v>2.5</v>
       </c>
       <c r="AR213">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AS213">
         <v>1.75</v>
       </c>
       <c r="AT213">
-        <v>3.08</v>
+        <v>3.16</v>
       </c>
       <c r="AU213">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV213">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW213">
+        <v>8</v>
+      </c>
+      <c r="AX213">
+        <v>9</v>
+      </c>
+      <c r="AY213">
+        <v>16</v>
+      </c>
+      <c r="AZ213">
+        <v>13</v>
+      </c>
+      <c r="BA213">
+        <v>5</v>
+      </c>
+      <c r="BB213">
+        <v>5</v>
+      </c>
+      <c r="BC213">
         <v>10</v>
       </c>
-      <c r="AX213">
-        <v>8</v>
-      </c>
-      <c r="AY213">
-        <v>17</v>
-      </c>
-      <c r="AZ213">
-        <v>11</v>
-      </c>
-      <c r="BA213">
-        <v>7</v>
-      </c>
-      <c r="BB213">
-        <v>6</v>
-      </c>
-      <c r="BC213">
-        <v>13</v>
-      </c>
       <c r="BD213">
-        <v>2.38</v>
+        <v>4.33</v>
       </c>
       <c r="BE213">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="BF213">
-        <v>1.8</v>
+        <v>1.29</v>
       </c>
       <c r="BG213">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="BH213">
-        <v>4.35</v>
+        <v>4.75</v>
       </c>
       <c r="BI213">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="BJ213">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="BK213">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="BL213">
-        <v>2.2</v>
+        <v>2.23</v>
       </c>
       <c r="BM213">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="BN213">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="BO213">
-        <v>2.7</v>
+        <v>2.48</v>
       </c>
       <c r="BP213">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="214" spans="1:68">
@@ -45317,7 +45317,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>7347969</v>
+        <v>7347966</v>
       </c>
       <c r="C214" t="s">
         <v>68</v>
@@ -45326,196 +45326,196 @@
         <v>69</v>
       </c>
       <c r="E214" s="2">
-        <v>45563.375</v>
+        <v>45562.875</v>
       </c>
       <c r="F214">
         <v>27</v>
       </c>
       <c r="G214" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H214" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214">
         <v>0</v>
       </c>
       <c r="K214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M214">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N214">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O214" t="s">
         <v>233</v>
       </c>
       <c r="P214" t="s">
-        <v>349</v>
+        <v>244</v>
       </c>
       <c r="Q214">
-        <v>2.63</v>
+        <v>1.29</v>
       </c>
       <c r="R214">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="S214">
+        <v>12</v>
+      </c>
+      <c r="T214">
+        <v>1.1</v>
+      </c>
+      <c r="U214">
+        <v>5.75</v>
+      </c>
+      <c r="V214">
+        <v>1.57</v>
+      </c>
+      <c r="W214">
+        <v>2.25</v>
+      </c>
+      <c r="X214">
+        <v>2.8</v>
+      </c>
+      <c r="Y214">
+        <v>1.38</v>
+      </c>
+      <c r="Z214">
+        <v>1.1</v>
+      </c>
+      <c r="AA214">
+        <v>9.9</v>
+      </c>
+      <c r="AB214">
+        <v>17.25</v>
+      </c>
+      <c r="AC214">
+        <v>1.01</v>
+      </c>
+      <c r="AD214">
+        <v>86</v>
+      </c>
+      <c r="AE214">
+        <v>1.01</v>
+      </c>
+      <c r="AF214">
+        <v>11</v>
+      </c>
+      <c r="AG214">
+        <v>1.16</v>
+      </c>
+      <c r="AH214">
+        <v>4.5</v>
+      </c>
+      <c r="AI214">
+        <v>1.73</v>
+      </c>
+      <c r="AJ214">
+        <v>2.1</v>
+      </c>
+      <c r="AK214">
+        <v>1.02</v>
+      </c>
+      <c r="AL214">
+        <v>1.02</v>
+      </c>
+      <c r="AM214">
+        <v>7.9</v>
+      </c>
+      <c r="AN214">
+        <v>2.85</v>
+      </c>
+      <c r="AO214">
+        <v>1.08</v>
+      </c>
+      <c r="AP214">
+        <v>2.86</v>
+      </c>
+      <c r="AQ214">
+        <v>1</v>
+      </c>
+      <c r="AR214">
+        <v>2.56</v>
+      </c>
+      <c r="AS214">
+        <v>1.19</v>
+      </c>
+      <c r="AT214">
         <v>3.75</v>
       </c>
-      <c r="T214">
-        <v>1.33</v>
-      </c>
-      <c r="U214">
-        <v>3.2</v>
-      </c>
-      <c r="V214">
-        <v>2.66</v>
-      </c>
-      <c r="W214">
-        <v>1.45</v>
-      </c>
-      <c r="X214">
-        <v>6.45</v>
-      </c>
-      <c r="Y214">
-        <v>1.09</v>
-      </c>
-      <c r="Z214">
-        <v>2.1</v>
-      </c>
-      <c r="AA214">
-        <v>3.5</v>
-      </c>
-      <c r="AB214">
-        <v>3.1</v>
-      </c>
-      <c r="AC214">
-        <v>1.02</v>
-      </c>
-      <c r="AD214">
-        <v>10</v>
-      </c>
-      <c r="AE214">
-        <v>1.2</v>
-      </c>
-      <c r="AF214">
-        <v>4</v>
-      </c>
-      <c r="AG214">
-        <v>1.75</v>
-      </c>
-      <c r="AH214">
+      <c r="AU214">
+        <v>12</v>
+      </c>
+      <c r="AV214">
+        <v>6</v>
+      </c>
+      <c r="AW214">
+        <v>12</v>
+      </c>
+      <c r="AX214">
+        <v>13</v>
+      </c>
+      <c r="AY214">
+        <v>24</v>
+      </c>
+      <c r="AZ214">
+        <v>19</v>
+      </c>
+      <c r="BA214">
+        <v>7</v>
+      </c>
+      <c r="BB214">
+        <v>7</v>
+      </c>
+      <c r="BC214">
+        <v>14</v>
+      </c>
+      <c r="BD214">
+        <v>1.11</v>
+      </c>
+      <c r="BE214">
+        <v>13</v>
+      </c>
+      <c r="BF214">
+        <v>7</v>
+      </c>
+      <c r="BG214">
+        <v>1.1</v>
+      </c>
+      <c r="BH214">
+        <v>5.7</v>
+      </c>
+      <c r="BI214">
+        <v>1.18</v>
+      </c>
+      <c r="BJ214">
+        <v>3.72</v>
+      </c>
+      <c r="BK214">
+        <v>1.35</v>
+      </c>
+      <c r="BL214">
+        <v>2.65</v>
+      </c>
+      <c r="BM214">
+        <v>1.85</v>
+      </c>
+      <c r="BN214">
         <v>1.95</v>
       </c>
-      <c r="AI214">
-        <v>1.65</v>
-      </c>
-      <c r="AJ214">
-        <v>2.2</v>
-      </c>
-      <c r="AK214">
-        <v>1.31</v>
-      </c>
-      <c r="AL214">
-        <v>1.29</v>
-      </c>
-      <c r="AM214">
-        <v>1.75</v>
-      </c>
-      <c r="AN214">
-        <v>1</v>
-      </c>
-      <c r="AO214">
-        <v>1.23</v>
-      </c>
-      <c r="AP214">
-        <v>0.92</v>
-      </c>
-      <c r="AQ214">
-        <v>1.36</v>
-      </c>
-      <c r="AR214">
-        <v>1.26</v>
-      </c>
-      <c r="AS214">
-        <v>1.6</v>
-      </c>
-      <c r="AT214">
-        <v>2.86</v>
-      </c>
-      <c r="AU214">
-        <v>4</v>
-      </c>
-      <c r="AV214">
-        <v>7</v>
-      </c>
-      <c r="AW214">
-        <v>11</v>
-      </c>
-      <c r="AX214">
-        <v>3</v>
-      </c>
-      <c r="AY214">
-        <v>15</v>
-      </c>
-      <c r="AZ214">
-        <v>10</v>
-      </c>
-      <c r="BA214">
-        <v>6</v>
-      </c>
-      <c r="BB214">
-        <v>5</v>
-      </c>
-      <c r="BC214">
-        <v>11</v>
-      </c>
-      <c r="BD214">
-        <v>1.83</v>
-      </c>
-      <c r="BE214">
-        <v>8</v>
-      </c>
-      <c r="BF214">
-        <v>2.25</v>
-      </c>
-      <c r="BG214">
-        <v>1.21</v>
-      </c>
-      <c r="BH214">
-        <v>4.15</v>
-      </c>
-      <c r="BI214">
-        <v>1.39</v>
-      </c>
-      <c r="BJ214">
-        <v>2.85</v>
-      </c>
-      <c r="BK214">
-        <v>1.9</v>
-      </c>
-      <c r="BL214">
-        <v>1.9</v>
-      </c>
-      <c r="BM214">
-        <v>2.15</v>
-      </c>
-      <c r="BN214">
-        <v>1.65</v>
-      </c>
       <c r="BO214">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="BP214">
-        <v>1.4</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="215" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -721,7 +721,7 @@
     <t>['36', '74', '90+1']</t>
   </si>
   <si>
-    <t>['14', '83']</t>
+    <t>['13', '83']</t>
   </si>
   <si>
     <t>['81', '90+3']</t>
@@ -45532,7 +45532,7 @@
         <v>69</v>
       </c>
       <c r="E215" s="2">
-        <v>45564.35763888889</v>
+        <v>45563.875</v>
       </c>
       <c r="F215">
         <v>27</v>
@@ -45658,31 +45658,31 @@
         <v>2.53</v>
       </c>
       <c r="AU215">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="AV215">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AW215">
-        <v>19</v>
+        <v>-1</v>
       </c>
       <c r="AX215">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AY215">
-        <v>32</v>
+        <v>-1</v>
       </c>
       <c r="AZ215">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BA215">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="BB215">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BC215">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="BD215">
         <v>1.57</v>
@@ -45738,7 +45738,7 @@
         <v>69</v>
       </c>
       <c r="E216" s="2">
-        <v>45564.35763888889</v>
+        <v>45563.875</v>
       </c>
       <c r="F216">
         <v>27</v>
@@ -45864,31 +45864,31 @@
         <v>3.17</v>
       </c>
       <c r="AU216">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AV216">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AW216">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AX216">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AY216">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="AZ216">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BA216">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BB216">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BC216">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="BD216">
         <v>1.14</v>
@@ -45944,7 +45944,7 @@
         <v>69</v>
       </c>
       <c r="E217" s="2">
-        <v>45564.375</v>
+        <v>45563.875</v>
       </c>
       <c r="F217">
         <v>27</v>
@@ -46070,31 +46070,31 @@
         <v>3.02</v>
       </c>
       <c r="AU217">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AV217">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AW217">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AX217">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AY217">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="AZ217">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BA217">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BB217">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="BC217">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BD217">
         <v>1.91</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -706,16 +706,16 @@
     <t>['66', '75']</t>
   </si>
   <si>
-    <t>['8', '25', '33', '41', '51', '72', '88', '90+4']</t>
+    <t>['43', '53']</t>
   </si>
   <si>
-    <t>['69']</t>
+    <t>['8', '25', '33', '41', '51', '72', '88', '90+4']</t>
   </si>
   <si>
     <t>['10', '19', '59']</t>
   </si>
   <si>
-    <t>['43', '53']</t>
+    <t>['69']</t>
   </si>
   <si>
     <t>['36', '74', '90+1']</t>
@@ -1060,10 +1060,10 @@
     <t>['7', '24']</t>
   </si>
   <si>
-    <t>['54', '77', '90+2', '90+6']</t>
+    <t>['1', '8']</t>
   </si>
   <si>
-    <t>['1', '8']</t>
+    <t>['54', '77', '90+2', '90+6']</t>
   </si>
   <si>
     <t>['8', '53']</t>
@@ -1792,10 +1792,10 @@
         <v>1</v>
       </c>
       <c r="AY2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AZ2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA2">
         <v>13</v>
@@ -1998,10 +1998,10 @@
         <v>4</v>
       </c>
       <c r="AY3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AZ3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA3">
         <v>3</v>
@@ -2204,10 +2204,10 @@
         <v>2</v>
       </c>
       <c r="AY4">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AZ4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA4">
         <v>9</v>
@@ -2413,7 +2413,7 @@
         <v>14</v>
       </c>
       <c r="AZ5">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BA5">
         <v>3</v>
@@ -2616,10 +2616,10 @@
         <v>6</v>
       </c>
       <c r="AY6">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AZ6">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA6">
         <v>5</v>
@@ -2822,10 +2822,10 @@
         <v>6</v>
       </c>
       <c r="AY7">
+        <v>19</v>
+      </c>
+      <c r="AZ7">
         <v>12</v>
-      </c>
-      <c r="AZ7">
-        <v>8</v>
       </c>
       <c r="BA7">
         <v>12</v>
@@ -3028,10 +3028,10 @@
         <v>15</v>
       </c>
       <c r="AY8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AZ8">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="BA8">
         <v>3</v>
@@ -3234,10 +3234,10 @@
         <v>7</v>
       </c>
       <c r="AY9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AZ9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="BA9">
         <v>3</v>
@@ -3440,7 +3440,7 @@
         <v>4</v>
       </c>
       <c r="AY10">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ10">
         <v>6</v>
@@ -3646,10 +3646,10 @@
         <v>4</v>
       </c>
       <c r="AY11">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AZ11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA11">
         <v>4</v>
@@ -3852,10 +3852,10 @@
         <v>1</v>
       </c>
       <c r="AY12">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AZ12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA12">
         <v>10</v>
@@ -4058,10 +4058,10 @@
         <v>5</v>
       </c>
       <c r="AY13">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AZ13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA13">
         <v>5</v>
@@ -4264,10 +4264,10 @@
         <v>5</v>
       </c>
       <c r="AY14">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ14">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BA14">
         <v>2</v>
@@ -4470,7 +4470,7 @@
         <v>6</v>
       </c>
       <c r="AY15">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ15">
         <v>13</v>
@@ -4676,10 +4676,10 @@
         <v>4</v>
       </c>
       <c r="AY16">
+        <v>12</v>
+      </c>
+      <c r="AZ16">
         <v>9</v>
-      </c>
-      <c r="AZ16">
-        <v>7</v>
       </c>
       <c r="BA16">
         <v>6</v>
@@ -4882,10 +4882,10 @@
         <v>5</v>
       </c>
       <c r="AY17">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ17">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA17">
         <v>6</v>
@@ -5088,10 +5088,10 @@
         <v>3</v>
       </c>
       <c r="AY18">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ18">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA18">
         <v>6</v>
@@ -5294,10 +5294,10 @@
         <v>6</v>
       </c>
       <c r="AY19">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ19">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BA19">
         <v>3</v>
@@ -5500,10 +5500,10 @@
         <v>3</v>
       </c>
       <c r="AY20">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ20">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA20">
         <v>4</v>
@@ -5706,10 +5706,10 @@
         <v>11</v>
       </c>
       <c r="AY21">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ21">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BA21">
         <v>1</v>
@@ -5912,10 +5912,10 @@
         <v>6</v>
       </c>
       <c r="AY22">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AZ22">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA22">
         <v>7</v>
@@ -6118,10 +6118,10 @@
         <v>4</v>
       </c>
       <c r="AY23">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ23">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA23">
         <v>4</v>
@@ -6324,10 +6324,10 @@
         <v>3</v>
       </c>
       <c r="AY24">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AZ24">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA24">
         <v>7</v>
@@ -6530,10 +6530,10 @@
         <v>8</v>
       </c>
       <c r="AY25">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ25">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="BA25">
         <v>1</v>
@@ -6736,10 +6736,10 @@
         <v>2</v>
       </c>
       <c r="AY26">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AZ26">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BA26">
         <v>8</v>
@@ -6942,10 +6942,10 @@
         <v>8</v>
       </c>
       <c r="AY27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ27">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="BA27">
         <v>3</v>
@@ -7148,10 +7148,10 @@
         <v>4</v>
       </c>
       <c r="AY28">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ28">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA28">
         <v>6</v>
@@ -7354,10 +7354,10 @@
         <v>2</v>
       </c>
       <c r="AY29">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ29">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="BA29">
         <v>2</v>
@@ -7560,10 +7560,10 @@
         <v>10</v>
       </c>
       <c r="AY30">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ30">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="BA30">
         <v>6</v>
@@ -7766,10 +7766,10 @@
         <v>5</v>
       </c>
       <c r="AY31">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AZ31">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA31">
         <v>1</v>
@@ -7972,10 +7972,10 @@
         <v>10</v>
       </c>
       <c r="AY32">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ32">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA32">
         <v>4</v>
@@ -8178,10 +8178,10 @@
         <v>7</v>
       </c>
       <c r="AY33">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AZ33">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BA33">
         <v>14</v>
@@ -8387,7 +8387,7 @@
         <v>7</v>
       </c>
       <c r="AZ34">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA34">
         <v>3</v>
@@ -8590,7 +8590,7 @@
         <v>2</v>
       </c>
       <c r="AY35">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AZ35">
         <v>5</v>
@@ -8796,10 +8796,10 @@
         <v>1</v>
       </c>
       <c r="AY36">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AZ36">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA36">
         <v>10</v>
@@ -9002,10 +9002,10 @@
         <v>5</v>
       </c>
       <c r="AY37">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AZ37">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA37">
         <v>11</v>
@@ -9208,10 +9208,10 @@
         <v>5</v>
       </c>
       <c r="AY38">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ38">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA38">
         <v>5</v>
@@ -9414,10 +9414,10 @@
         <v>3</v>
       </c>
       <c r="AY39">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ39">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA39">
         <v>2</v>
@@ -9620,10 +9620,10 @@
         <v>6</v>
       </c>
       <c r="AY40">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ40">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA40">
         <v>6</v>
@@ -9826,10 +9826,10 @@
         <v>4</v>
       </c>
       <c r="AY41">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ41">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA41">
         <v>5</v>
@@ -10032,10 +10032,10 @@
         <v>9</v>
       </c>
       <c r="AY42">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ42">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="BA42">
         <v>6</v>
@@ -10238,10 +10238,10 @@
         <v>5</v>
       </c>
       <c r="AY43">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ43">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA43">
         <v>5</v>
@@ -10447,7 +10447,7 @@
         <v>7</v>
       </c>
       <c r="AZ44">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA44">
         <v>2</v>
@@ -10650,10 +10650,10 @@
         <v>3</v>
       </c>
       <c r="AY45">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ45">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA45">
         <v>11</v>
@@ -10856,10 +10856,10 @@
         <v>5</v>
       </c>
       <c r="AY46">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AZ46">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BA46">
         <v>7</v>
@@ -11062,10 +11062,10 @@
         <v>8</v>
       </c>
       <c r="AY47">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ47">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="BA47">
         <v>2</v>
@@ -11268,10 +11268,10 @@
         <v>7</v>
       </c>
       <c r="AY48">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ48">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="BA48">
         <v>6</v>
@@ -11477,7 +11477,7 @@
         <v>8</v>
       </c>
       <c r="AZ49">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA49">
         <v>4</v>
@@ -11680,10 +11680,10 @@
         <v>6</v>
       </c>
       <c r="AY50">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AZ50">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA50">
         <v>9</v>
@@ -11886,10 +11886,10 @@
         <v>4</v>
       </c>
       <c r="AY51">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AZ51">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA51">
         <v>9</v>
@@ -12092,7 +12092,7 @@
         <v>1</v>
       </c>
       <c r="AY52">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AZ52">
         <v>5</v>
@@ -12298,7 +12298,7 @@
         <v>2</v>
       </c>
       <c r="AY53">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AZ53">
         <v>2</v>
@@ -12504,10 +12504,10 @@
         <v>2</v>
       </c>
       <c r="AY54">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ54">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA54">
         <v>9</v>
@@ -12710,10 +12710,10 @@
         <v>4</v>
       </c>
       <c r="AY55">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AZ55">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA55">
         <v>11</v>
@@ -12916,7 +12916,7 @@
         <v>4</v>
       </c>
       <c r="AY56">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AZ56">
         <v>9</v>
@@ -13125,7 +13125,7 @@
         <v>4</v>
       </c>
       <c r="AZ57">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA57">
         <v>4</v>
@@ -13328,10 +13328,10 @@
         <v>4</v>
       </c>
       <c r="AY58">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ58">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA58">
         <v>6</v>
@@ -13534,10 +13534,10 @@
         <v>1</v>
       </c>
       <c r="AY59">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ59">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA59">
         <v>4</v>
@@ -13740,10 +13740,10 @@
         <v>3</v>
       </c>
       <c r="AY60">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AZ60">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA60">
         <v>10</v>
@@ -13946,10 +13946,10 @@
         <v>9</v>
       </c>
       <c r="AY61">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ61">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BA61">
         <v>4</v>
@@ -14152,10 +14152,10 @@
         <v>4</v>
       </c>
       <c r="AY62">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ62">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA62">
         <v>7</v>
@@ -14358,10 +14358,10 @@
         <v>1</v>
       </c>
       <c r="AY63">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AZ63">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA63">
         <v>5</v>
@@ -14564,10 +14564,10 @@
         <v>5</v>
       </c>
       <c r="AY64">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ64">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA64">
         <v>10</v>
@@ -14770,10 +14770,10 @@
         <v>7</v>
       </c>
       <c r="AY65">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ65">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA65">
         <v>6</v>
@@ -14976,10 +14976,10 @@
         <v>4</v>
       </c>
       <c r="AY66">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AZ66">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA66">
         <v>12</v>
@@ -15182,10 +15182,10 @@
         <v>5</v>
       </c>
       <c r="AY67">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AZ67">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA67">
         <v>7</v>
@@ -15388,10 +15388,10 @@
         <v>5</v>
       </c>
       <c r="AY68">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ68">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA68">
         <v>5</v>
@@ -15594,10 +15594,10 @@
         <v>3</v>
       </c>
       <c r="AY69">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ69">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA69">
         <v>3</v>
@@ -15800,10 +15800,10 @@
         <v>7</v>
       </c>
       <c r="AY70">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ70">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="BA70">
         <v>7</v>
@@ -16006,10 +16006,10 @@
         <v>0</v>
       </c>
       <c r="AY71">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ71">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA71">
         <v>8</v>
@@ -16212,10 +16212,10 @@
         <v>6</v>
       </c>
       <c r="AY72">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AZ72">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA72">
         <v>5</v>
@@ -16418,10 +16418,10 @@
         <v>9</v>
       </c>
       <c r="AY73">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AZ73">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="BA73">
         <v>5</v>
@@ -16624,10 +16624,10 @@
         <v>5</v>
       </c>
       <c r="AY74">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ74">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA74">
         <v>8</v>
@@ -16830,10 +16830,10 @@
         <v>4</v>
       </c>
       <c r="AY75">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AZ75">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA75">
         <v>0</v>
@@ -17036,10 +17036,10 @@
         <v>10</v>
       </c>
       <c r="AY76">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AZ76">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA76">
         <v>7</v>
@@ -17242,10 +17242,10 @@
         <v>7</v>
       </c>
       <c r="AY77">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AZ77">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA77">
         <v>8</v>
@@ -17448,7 +17448,7 @@
         <v>3</v>
       </c>
       <c r="AY78">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AZ78">
         <v>9</v>
@@ -17654,10 +17654,10 @@
         <v>10</v>
       </c>
       <c r="AY79">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ79">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BA79">
         <v>2</v>
@@ -17860,10 +17860,10 @@
         <v>11</v>
       </c>
       <c r="AY80">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AZ80">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="BA80">
         <v>9</v>
@@ -18066,10 +18066,10 @@
         <v>6</v>
       </c>
       <c r="AY81">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AZ81">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA81">
         <v>7</v>
@@ -18272,10 +18272,10 @@
         <v>4</v>
       </c>
       <c r="AY82">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ82">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA82">
         <v>7</v>
@@ -18478,10 +18478,10 @@
         <v>8</v>
       </c>
       <c r="AY83">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AZ83">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA83">
         <v>4</v>
@@ -18684,10 +18684,10 @@
         <v>6</v>
       </c>
       <c r="AY84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ84">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA84">
         <v>2</v>
@@ -18890,10 +18890,10 @@
         <v>4</v>
       </c>
       <c r="AY85">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ85">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA85">
         <v>4</v>
@@ -19096,7 +19096,7 @@
         <v>2</v>
       </c>
       <c r="AY86">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AZ86">
         <v>6</v>
@@ -19302,10 +19302,10 @@
         <v>15</v>
       </c>
       <c r="AY87">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ87">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="BA87">
         <v>3</v>
@@ -19508,10 +19508,10 @@
         <v>7</v>
       </c>
       <c r="AY88">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ88">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA88">
         <v>7</v>
@@ -19714,10 +19714,10 @@
         <v>2</v>
       </c>
       <c r="AY89">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AZ89">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA89">
         <v>10</v>
@@ -19920,10 +19920,10 @@
         <v>3</v>
       </c>
       <c r="AY90">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ90">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA90">
         <v>1</v>
@@ -20126,10 +20126,10 @@
         <v>3</v>
       </c>
       <c r="AY91">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ91">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA91">
         <v>8</v>
@@ -20332,10 +20332,10 @@
         <v>2</v>
       </c>
       <c r="AY92">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ92">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA92">
         <v>5</v>
@@ -20538,10 +20538,10 @@
         <v>4</v>
       </c>
       <c r="AY93">
+        <v>11</v>
+      </c>
+      <c r="AZ93">
         <v>10</v>
-      </c>
-      <c r="AZ93">
-        <v>8</v>
       </c>
       <c r="BA93">
         <v>11</v>
@@ -20744,10 +20744,10 @@
         <v>2</v>
       </c>
       <c r="AY94">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ94">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA94">
         <v>6</v>
@@ -20950,7 +20950,7 @@
         <v>6</v>
       </c>
       <c r="AY95">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ95">
         <v>8</v>
@@ -21159,7 +21159,7 @@
         <v>8</v>
       </c>
       <c r="AZ96">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="BA96">
         <v>1</v>
@@ -21362,10 +21362,10 @@
         <v>10</v>
       </c>
       <c r="AY97">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AZ97">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BA97">
         <v>1</v>
@@ -21568,10 +21568,10 @@
         <v>11</v>
       </c>
       <c r="AY98">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ98">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA98">
         <v>5</v>
@@ -21774,10 +21774,10 @@
         <v>8</v>
       </c>
       <c r="AY99">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ99">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA99">
         <v>2</v>
@@ -21980,10 +21980,10 @@
         <v>6</v>
       </c>
       <c r="AY100">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ100">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA100">
         <v>10</v>
@@ -22186,7 +22186,7 @@
         <v>2</v>
       </c>
       <c r="AY101">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AZ101">
         <v>4</v>
@@ -22392,10 +22392,10 @@
         <v>14</v>
       </c>
       <c r="AY102">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AZ102">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="BA102">
         <v>5</v>
@@ -22598,10 +22598,10 @@
         <v>6</v>
       </c>
       <c r="AY103">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AZ103">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA103">
         <v>3</v>
@@ -22804,10 +22804,10 @@
         <v>6</v>
       </c>
       <c r="AY104">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AZ104">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA104">
         <v>2</v>
@@ -23010,10 +23010,10 @@
         <v>14</v>
       </c>
       <c r="AY105">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AZ105">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="BA105">
         <v>11</v>
@@ -23216,10 +23216,10 @@
         <v>9</v>
       </c>
       <c r="AY106">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AZ106">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BA106">
         <v>9</v>
@@ -23422,10 +23422,10 @@
         <v>3</v>
       </c>
       <c r="AY107">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ107">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA107">
         <v>7</v>
@@ -23628,10 +23628,10 @@
         <v>8</v>
       </c>
       <c r="AY108">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ108">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA108">
         <v>7</v>
@@ -23834,10 +23834,10 @@
         <v>10</v>
       </c>
       <c r="AY109">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ109">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BA109">
         <v>7</v>
@@ -24040,10 +24040,10 @@
         <v>9</v>
       </c>
       <c r="AY110">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ110">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA110">
         <v>3</v>
@@ -24246,10 +24246,10 @@
         <v>4</v>
       </c>
       <c r="AY111">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AZ111">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA111">
         <v>4</v>
@@ -24452,10 +24452,10 @@
         <v>6</v>
       </c>
       <c r="AY112">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AZ112">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA112">
         <v>13</v>
@@ -24658,10 +24658,10 @@
         <v>7</v>
       </c>
       <c r="AY113">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ113">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA113">
         <v>4</v>
@@ -24864,10 +24864,10 @@
         <v>6</v>
       </c>
       <c r="AY114">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ114">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA114">
         <v>3</v>
@@ -25070,10 +25070,10 @@
         <v>8</v>
       </c>
       <c r="AY115">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AZ115">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA115">
         <v>3</v>
@@ -25276,10 +25276,10 @@
         <v>5</v>
       </c>
       <c r="AY116">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="AZ116">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BA116">
         <v>9</v>
@@ -25482,10 +25482,10 @@
         <v>3</v>
       </c>
       <c r="AY117">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AZ117">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA117">
         <v>10</v>
@@ -25688,10 +25688,10 @@
         <v>5</v>
       </c>
       <c r="AY118">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ118">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA118">
         <v>3</v>
@@ -25894,10 +25894,10 @@
         <v>4</v>
       </c>
       <c r="AY119">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ119">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BA119">
         <v>6</v>
@@ -26100,10 +26100,10 @@
         <v>7</v>
       </c>
       <c r="AY120">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ120">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="BA120">
         <v>2</v>
@@ -26306,10 +26306,10 @@
         <v>6</v>
       </c>
       <c r="AY121">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ121">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BA121">
         <v>5</v>
@@ -26512,10 +26512,10 @@
         <v>3</v>
       </c>
       <c r="AY122">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ122">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA122">
         <v>8</v>
@@ -26718,10 +26718,10 @@
         <v>6</v>
       </c>
       <c r="AY123">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ123">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="BA123">
         <v>0</v>
@@ -26924,10 +26924,10 @@
         <v>2</v>
       </c>
       <c r="AY124">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ124">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="BA124">
         <v>4</v>
@@ -27130,10 +27130,10 @@
         <v>7</v>
       </c>
       <c r="AY125">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AZ125">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BA125">
         <v>2</v>
@@ -27336,10 +27336,10 @@
         <v>4</v>
       </c>
       <c r="AY126">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AZ126">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA126">
         <v>7</v>
@@ -27542,10 +27542,10 @@
         <v>6</v>
       </c>
       <c r="AY127">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="AZ127">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA127">
         <v>7</v>
@@ -27748,10 +27748,10 @@
         <v>7</v>
       </c>
       <c r="AY128">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ128">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BA128">
         <v>2</v>
@@ -27954,10 +27954,10 @@
         <v>5</v>
       </c>
       <c r="AY129">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AZ129">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA129">
         <v>3</v>
@@ -28160,10 +28160,10 @@
         <v>0</v>
       </c>
       <c r="AY130">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ130">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA130">
         <v>9</v>
@@ -28366,10 +28366,10 @@
         <v>7</v>
       </c>
       <c r="AY131">
+        <v>18</v>
+      </c>
+      <c r="AZ131">
         <v>17</v>
-      </c>
-      <c r="AZ131">
-        <v>13</v>
       </c>
       <c r="BA131">
         <v>9</v>
@@ -28572,10 +28572,10 @@
         <v>5</v>
       </c>
       <c r="AY132">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AZ132">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA132">
         <v>9</v>
@@ -28781,7 +28781,7 @@
         <v>9</v>
       </c>
       <c r="AZ133">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="BA133">
         <v>4</v>
@@ -28984,10 +28984,10 @@
         <v>7</v>
       </c>
       <c r="AY134">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ134">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA134">
         <v>6</v>
@@ -29190,10 +29190,10 @@
         <v>11</v>
       </c>
       <c r="AY135">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ135">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="BA135">
         <v>2</v>
@@ -29396,10 +29396,10 @@
         <v>3</v>
       </c>
       <c r="AY136">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AZ136">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA136">
         <v>3</v>
@@ -29602,10 +29602,10 @@
         <v>9</v>
       </c>
       <c r="AY137">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ137">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="BA137">
         <v>2</v>
@@ -29808,10 +29808,10 @@
         <v>3</v>
       </c>
       <c r="AY138">
+        <v>15</v>
+      </c>
+      <c r="AZ138">
         <v>10</v>
-      </c>
-      <c r="AZ138">
-        <v>9</v>
       </c>
       <c r="BA138">
         <v>9</v>
@@ -30014,10 +30014,10 @@
         <v>5</v>
       </c>
       <c r="AY139">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AZ139">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA139">
         <v>12</v>
@@ -30220,7 +30220,7 @@
         <v>5</v>
       </c>
       <c r="AY140">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AZ140">
         <v>5</v>
@@ -30426,10 +30426,10 @@
         <v>7</v>
       </c>
       <c r="AY141">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AZ141">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BA141">
         <v>3</v>
@@ -30632,10 +30632,10 @@
         <v>2</v>
       </c>
       <c r="AY142">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ142">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA142">
         <v>3</v>
@@ -30838,10 +30838,10 @@
         <v>2</v>
       </c>
       <c r="AY143">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AZ143">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA143">
         <v>8</v>
@@ -31044,10 +31044,10 @@
         <v>10</v>
       </c>
       <c r="AY144">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ144">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="BA144">
         <v>3</v>
@@ -31250,10 +31250,10 @@
         <v>4</v>
       </c>
       <c r="AY145">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AZ145">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA145">
         <v>6</v>
@@ -31456,10 +31456,10 @@
         <v>4</v>
       </c>
       <c r="AY146">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ146">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA146">
         <v>5</v>
@@ -31662,10 +31662,10 @@
         <v>5</v>
       </c>
       <c r="AY147">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AZ147">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA147">
         <v>8</v>
@@ -31868,10 +31868,10 @@
         <v>1</v>
       </c>
       <c r="AY148">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AZ148">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BA148">
         <v>12</v>
@@ -32074,10 +32074,10 @@
         <v>8</v>
       </c>
       <c r="AY149">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AZ149">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BA149">
         <v>7</v>
@@ -32280,10 +32280,10 @@
         <v>2</v>
       </c>
       <c r="AY150">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ150">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA150">
         <v>7</v>
@@ -32486,10 +32486,10 @@
         <v>3</v>
       </c>
       <c r="AY151">
+        <v>14</v>
+      </c>
+      <c r="AZ151">
         <v>13</v>
-      </c>
-      <c r="AZ151">
-        <v>7</v>
       </c>
       <c r="BA151">
         <v>10</v>
@@ -32692,10 +32692,10 @@
         <v>5</v>
       </c>
       <c r="AY152">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AZ152">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA152">
         <v>7</v>
@@ -32901,7 +32901,7 @@
         <v>8</v>
       </c>
       <c r="AZ153">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BA153">
         <v>1</v>
@@ -33104,10 +33104,10 @@
         <v>6</v>
       </c>
       <c r="AY154">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ154">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="BA154">
         <v>5</v>
@@ -33310,10 +33310,10 @@
         <v>5</v>
       </c>
       <c r="AY155">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ155">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA155">
         <v>6</v>
@@ -33516,10 +33516,10 @@
         <v>4</v>
       </c>
       <c r="AY156">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AZ156">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA156">
         <v>2</v>
@@ -33722,10 +33722,10 @@
         <v>1</v>
       </c>
       <c r="AY157">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ157">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA157">
         <v>2</v>
@@ -33928,10 +33928,10 @@
         <v>3</v>
       </c>
       <c r="AY158">
+        <v>15</v>
+      </c>
+      <c r="AZ158">
         <v>12</v>
-      </c>
-      <c r="AZ158">
-        <v>7</v>
       </c>
       <c r="BA158">
         <v>4</v>
@@ -34134,10 +34134,10 @@
         <v>1</v>
       </c>
       <c r="AY159">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AZ159">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BA159">
         <v>11</v>
@@ -34340,10 +34340,10 @@
         <v>13</v>
       </c>
       <c r="AY160">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ160">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="BA160">
         <v>8</v>
@@ -34549,7 +34549,7 @@
         <v>7</v>
       </c>
       <c r="AZ161">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA161">
         <v>2</v>
@@ -34752,10 +34752,10 @@
         <v>2</v>
       </c>
       <c r="AY162">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AZ162">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BA162">
         <v>2</v>
@@ -34958,10 +34958,10 @@
         <v>6</v>
       </c>
       <c r="AY163">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AZ163">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA163">
         <v>7</v>
@@ -35164,10 +35164,10 @@
         <v>4</v>
       </c>
       <c r="AY164">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AZ164">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA164">
         <v>5</v>
@@ -35370,10 +35370,10 @@
         <v>4</v>
       </c>
       <c r="AY165">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ165">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA165">
         <v>2</v>
@@ -35576,10 +35576,10 @@
         <v>10</v>
       </c>
       <c r="AY166">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AZ166">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="BA166">
         <v>3</v>
@@ -35782,10 +35782,10 @@
         <v>7</v>
       </c>
       <c r="AY167">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ167">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="BA167">
         <v>6</v>
@@ -35991,7 +35991,7 @@
         <v>8</v>
       </c>
       <c r="AZ168">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="BA168">
         <v>5</v>
@@ -36194,10 +36194,10 @@
         <v>3</v>
       </c>
       <c r="AY169">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AZ169">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA169">
         <v>2</v>
@@ -36400,10 +36400,10 @@
         <v>3</v>
       </c>
       <c r="AY170">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ170">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA170">
         <v>2</v>
@@ -36606,10 +36606,10 @@
         <v>2</v>
       </c>
       <c r="AY171">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="AZ171">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA171">
         <v>10</v>
@@ -36812,10 +36812,10 @@
         <v>12</v>
       </c>
       <c r="AY172">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AZ172">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BA172">
         <v>5</v>
@@ -37018,10 +37018,10 @@
         <v>4</v>
       </c>
       <c r="AY173">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ173">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA173">
         <v>8</v>
@@ -37224,10 +37224,10 @@
         <v>3</v>
       </c>
       <c r="AY174">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ174">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="BA174">
         <v>6</v>
@@ -37430,10 +37430,10 @@
         <v>0</v>
       </c>
       <c r="AY175">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AZ175">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BA175">
         <v>4</v>
@@ -37636,10 +37636,10 @@
         <v>5</v>
       </c>
       <c r="AY176">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ176">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA176">
         <v>2</v>
@@ -37842,7 +37842,7 @@
         <v>5</v>
       </c>
       <c r="AY177">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ177">
         <v>9</v>
@@ -38048,10 +38048,10 @@
         <v>4</v>
       </c>
       <c r="AY178">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AZ178">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA178">
         <v>10</v>
@@ -38254,10 +38254,10 @@
         <v>5</v>
       </c>
       <c r="AY179">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ179">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA179">
         <v>3</v>
@@ -38460,10 +38460,10 @@
         <v>5</v>
       </c>
       <c r="AY180">
+        <v>19</v>
+      </c>
+      <c r="AZ180">
         <v>15</v>
-      </c>
-      <c r="AZ180">
-        <v>13</v>
       </c>
       <c r="BA180">
         <v>7</v>
@@ -38666,10 +38666,10 @@
         <v>5</v>
       </c>
       <c r="AY181">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ181">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA181">
         <v>8</v>
@@ -38872,10 +38872,10 @@
         <v>7</v>
       </c>
       <c r="AY182">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ182">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA182">
         <v>2</v>
@@ -39078,10 +39078,10 @@
         <v>0</v>
       </c>
       <c r="AY183">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AZ183">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA183">
         <v>13</v>
@@ -39287,7 +39287,7 @@
         <v>11</v>
       </c>
       <c r="AZ184">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA184">
         <v>8</v>
@@ -39490,10 +39490,10 @@
         <v>7</v>
       </c>
       <c r="AY185">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ185">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="BA185">
         <v>1</v>
@@ -39696,10 +39696,10 @@
         <v>3</v>
       </c>
       <c r="AY186">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ186">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA186">
         <v>8</v>
@@ -39902,10 +39902,10 @@
         <v>1</v>
       </c>
       <c r="AY187">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ187">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BA187">
         <v>3</v>
@@ -40108,10 +40108,10 @@
         <v>5</v>
       </c>
       <c r="AY188">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ188">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA188">
         <v>5</v>
@@ -40314,10 +40314,10 @@
         <v>4</v>
       </c>
       <c r="AY189">
+        <v>15</v>
+      </c>
+      <c r="AZ189">
         <v>12</v>
-      </c>
-      <c r="AZ189">
-        <v>11</v>
       </c>
       <c r="BA189">
         <v>4</v>
@@ -40520,10 +40520,10 @@
         <v>7</v>
       </c>
       <c r="AY190">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ190">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA190">
         <v>0</v>
@@ -40726,10 +40726,10 @@
         <v>6</v>
       </c>
       <c r="AY191">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ191">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA191">
         <v>2</v>
@@ -40932,7 +40932,7 @@
         <v>8</v>
       </c>
       <c r="AY192">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ192">
         <v>11</v>
@@ -41141,7 +41141,7 @@
         <v>9</v>
       </c>
       <c r="AZ193">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="BA193">
         <v>1</v>
@@ -41344,10 +41344,10 @@
         <v>8</v>
       </c>
       <c r="AY194">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ194">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA194">
         <v>8</v>
@@ -41550,7 +41550,7 @@
         <v>2</v>
       </c>
       <c r="AY195">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AZ195">
         <v>15</v>
@@ -41756,7 +41756,7 @@
         <v>3</v>
       </c>
       <c r="AY196">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AZ196">
         <v>6</v>
@@ -41962,10 +41962,10 @@
         <v>1</v>
       </c>
       <c r="AY197">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ197">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA197">
         <v>3</v>
@@ -42168,10 +42168,10 @@
         <v>3</v>
       </c>
       <c r="AY198">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ198">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BA198">
         <v>5</v>
@@ -42374,10 +42374,10 @@
         <v>4</v>
       </c>
       <c r="AY199">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ199">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA199">
         <v>2</v>
@@ -42583,7 +42583,7 @@
         <v>11</v>
       </c>
       <c r="AZ200">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="BA200">
         <v>7</v>
@@ -42789,7 +42789,7 @@
         <v>10</v>
       </c>
       <c r="AZ201">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA201">
         <v>6</v>
@@ -42995,7 +42995,7 @@
         <v>10</v>
       </c>
       <c r="AZ202">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA202">
         <v>4</v>
@@ -43198,10 +43198,10 @@
         <v>2</v>
       </c>
       <c r="AY203">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ203">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA203">
         <v>6</v>
@@ -43404,10 +43404,10 @@
         <v>4</v>
       </c>
       <c r="AY204">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ204">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BA204">
         <v>10</v>
@@ -43610,10 +43610,10 @@
         <v>2</v>
       </c>
       <c r="AY205">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ205">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BA205">
         <v>3</v>
@@ -43816,10 +43816,10 @@
         <v>2</v>
       </c>
       <c r="AY206">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="AZ206">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA206">
         <v>13</v>
@@ -43884,7 +43884,7 @@
         <v>69</v>
       </c>
       <c r="E207" s="2">
-        <v>45556.875</v>
+        <v>45557.1875</v>
       </c>
       <c r="F207">
         <v>26</v>
@@ -44010,31 +44010,31 @@
         <v>2.68</v>
       </c>
       <c r="AU207">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV207">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AW207">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX207">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AY207">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AZ207">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="BA207">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BB207">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BC207">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BD207">
         <v>1.95</v>
@@ -44090,7 +44090,7 @@
         <v>69</v>
       </c>
       <c r="E208" s="2">
-        <v>45556.875</v>
+        <v>45557.33333333334</v>
       </c>
       <c r="F208">
         <v>26</v>
@@ -44216,19 +44216,19 @@
         <v>2.31</v>
       </c>
       <c r="AU208">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV208">
         <v>6</v>
       </c>
       <c r="AW208">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AX208">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AY208">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ208">
         <v>15</v>
@@ -44296,7 +44296,7 @@
         <v>69</v>
       </c>
       <c r="E209" s="2">
-        <v>45556.875</v>
+        <v>45557.375</v>
       </c>
       <c r="F209">
         <v>26</v>
@@ -44422,31 +44422,31 @@
         <v>2.97</v>
       </c>
       <c r="AU209">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AV209">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW209">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="AX209">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY209">
-        <v>-1</v>
+        <v>43</v>
       </c>
       <c r="AZ209">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BA209">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BB209">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BC209">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD209">
         <v>1.22</v>
@@ -44493,7 +44493,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>7347968</v>
+        <v>7347965</v>
       </c>
       <c r="C210" t="s">
         <v>68</v>
@@ -44502,49 +44502,49 @@
         <v>69</v>
       </c>
       <c r="E210" s="2">
-        <v>45562.875</v>
+        <v>45563.1875</v>
       </c>
       <c r="F210">
         <v>27</v>
       </c>
       <c r="G210" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H210" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I210">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J210">
         <v>1</v>
       </c>
       <c r="K210">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L210">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M210">
         <v>1</v>
       </c>
       <c r="N210">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="O210" t="s">
-        <v>230</v>
+        <v>90</v>
       </c>
       <c r="P210" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="Q210">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R210">
         <v>2.5</v>
       </c>
       <c r="S210">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="T210">
         <v>1.25</v>
@@ -44559,19 +44559,19 @@
         <v>1.64</v>
       </c>
       <c r="X210">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y210">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="Z210">
-        <v>1.49</v>
+        <v>7.7</v>
       </c>
       <c r="AA210">
-        <v>4.6</v>
+        <v>5.6</v>
       </c>
       <c r="AB210">
-        <v>5.5</v>
+        <v>1.34</v>
       </c>
       <c r="AC210">
         <v>1.01</v>
@@ -44589,109 +44589,109 @@
         <v>1.45</v>
       </c>
       <c r="AH210">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="AI210">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AJ210">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="AK210">
-        <v>1.12</v>
+        <v>3.2</v>
       </c>
       <c r="AL210">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AM210">
-        <v>2.4</v>
+        <v>1.07</v>
       </c>
       <c r="AN210">
-        <v>2.17</v>
+        <v>1.38</v>
       </c>
       <c r="AO210">
-        <v>0.6899999999999999</v>
+        <v>2.46</v>
       </c>
       <c r="AP210">
+        <v>1.29</v>
+      </c>
+      <c r="AQ210">
+        <v>2.5</v>
+      </c>
+      <c r="AR210">
+        <v>1.41</v>
+      </c>
+      <c r="AS210">
+        <v>1.75</v>
+      </c>
+      <c r="AT210">
+        <v>3.16</v>
+      </c>
+      <c r="AU210">
+        <v>7</v>
+      </c>
+      <c r="AV210">
+        <v>4</v>
+      </c>
+      <c r="AW210">
+        <v>8</v>
+      </c>
+      <c r="AX210">
+        <v>5</v>
+      </c>
+      <c r="AY210">
+        <v>16</v>
+      </c>
+      <c r="AZ210">
+        <v>13</v>
+      </c>
+      <c r="BA210">
+        <v>5</v>
+      </c>
+      <c r="BB210">
+        <v>5</v>
+      </c>
+      <c r="BC210">
+        <v>10</v>
+      </c>
+      <c r="BD210">
+        <v>4.33</v>
+      </c>
+      <c r="BE210">
+        <v>10</v>
+      </c>
+      <c r="BF210">
+        <v>1.29</v>
+      </c>
+      <c r="BG210">
+        <v>1.16</v>
+      </c>
+      <c r="BH210">
+        <v>4.75</v>
+      </c>
+      <c r="BI210">
+        <v>1.31</v>
+      </c>
+      <c r="BJ210">
+        <v>3.25</v>
+      </c>
+      <c r="BK210">
+        <v>1.55</v>
+      </c>
+      <c r="BL210">
         <v>2.23</v>
       </c>
-      <c r="AQ210">
-        <v>0.64</v>
-      </c>
-      <c r="AR210">
-        <v>1.74</v>
-      </c>
-      <c r="AS210">
-        <v>1.07</v>
-      </c>
-      <c r="AT210">
-        <v>2.81</v>
-      </c>
-      <c r="AU210">
-        <v>11</v>
-      </c>
-      <c r="AV210">
-        <v>7</v>
-      </c>
-      <c r="AW210">
-        <v>3</v>
-      </c>
-      <c r="AX210">
-        <v>15</v>
-      </c>
-      <c r="AY210">
-        <v>14</v>
-      </c>
-      <c r="AZ210">
-        <v>22</v>
-      </c>
-      <c r="BA210">
-        <v>1</v>
-      </c>
-      <c r="BB210">
-        <v>8</v>
-      </c>
-      <c r="BC210">
-        <v>9</v>
-      </c>
-      <c r="BD210">
-        <v>1.36</v>
-      </c>
-      <c r="BE210">
-        <v>9</v>
-      </c>
-      <c r="BF210">
-        <v>3.75</v>
-      </c>
-      <c r="BG210">
-        <v>1.29</v>
-      </c>
-      <c r="BH210">
-        <v>3.4</v>
-      </c>
-      <c r="BI210">
-        <v>1.53</v>
-      </c>
-      <c r="BJ210">
-        <v>2.4</v>
-      </c>
-      <c r="BK210">
-        <v>1.96</v>
-      </c>
-      <c r="BL210">
+      <c r="BM210">
+        <v>1.9</v>
+      </c>
+      <c r="BN210">
         <v>1.85</v>
       </c>
-      <c r="BM210">
-        <v>2.5</v>
-      </c>
-      <c r="BN210">
+      <c r="BO210">
+        <v>2.48</v>
+      </c>
+      <c r="BP210">
         <v>1.5</v>
-      </c>
-      <c r="BO210">
-        <v>3.4</v>
-      </c>
-      <c r="BP210">
-        <v>1.29</v>
       </c>
     </row>
     <row r="211" spans="1:68">
@@ -44699,7 +44699,7 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>7347969</v>
+        <v>7347966</v>
       </c>
       <c r="C211" t="s">
         <v>68</v>
@@ -44708,196 +44708,196 @@
         <v>69</v>
       </c>
       <c r="E211" s="2">
-        <v>45562.875</v>
+        <v>45563.29166666666</v>
       </c>
       <c r="F211">
         <v>27</v>
       </c>
       <c r="G211" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H211" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211">
         <v>0</v>
       </c>
       <c r="K211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M211">
+        <v>1</v>
+      </c>
+      <c r="N211">
+        <v>3</v>
+      </c>
+      <c r="O211" t="s">
+        <v>230</v>
+      </c>
+      <c r="P211" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q211">
+        <v>1.29</v>
+      </c>
+      <c r="R211">
         <v>4</v>
       </c>
-      <c r="N211">
+      <c r="S211">
+        <v>12</v>
+      </c>
+      <c r="T211">
+        <v>1.1</v>
+      </c>
+      <c r="U211">
+        <v>5.75</v>
+      </c>
+      <c r="V211">
+        <v>1.57</v>
+      </c>
+      <c r="W211">
+        <v>2.25</v>
+      </c>
+      <c r="X211">
+        <v>2.8</v>
+      </c>
+      <c r="Y211">
+        <v>1.38</v>
+      </c>
+      <c r="Z211">
+        <v>1.1</v>
+      </c>
+      <c r="AA211">
+        <v>9.9</v>
+      </c>
+      <c r="AB211">
+        <v>17.25</v>
+      </c>
+      <c r="AC211">
+        <v>1.01</v>
+      </c>
+      <c r="AD211">
+        <v>86</v>
+      </c>
+      <c r="AE211">
+        <v>1.01</v>
+      </c>
+      <c r="AF211">
+        <v>11</v>
+      </c>
+      <c r="AG211">
+        <v>1.16</v>
+      </c>
+      <c r="AH211">
+        <v>4.5</v>
+      </c>
+      <c r="AI211">
+        <v>1.73</v>
+      </c>
+      <c r="AJ211">
+        <v>2.1</v>
+      </c>
+      <c r="AK211">
+        <v>1.02</v>
+      </c>
+      <c r="AL211">
+        <v>1.02</v>
+      </c>
+      <c r="AM211">
+        <v>7.9</v>
+      </c>
+      <c r="AN211">
+        <v>2.85</v>
+      </c>
+      <c r="AO211">
+        <v>1.08</v>
+      </c>
+      <c r="AP211">
+        <v>2.86</v>
+      </c>
+      <c r="AQ211">
+        <v>1</v>
+      </c>
+      <c r="AR211">
+        <v>2.56</v>
+      </c>
+      <c r="AS211">
+        <v>1.19</v>
+      </c>
+      <c r="AT211">
+        <v>3.75</v>
+      </c>
+      <c r="AU211">
+        <v>12</v>
+      </c>
+      <c r="AV211">
         <v>5</v>
       </c>
-      <c r="O211" t="s">
-        <v>231</v>
-      </c>
-      <c r="P211" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q211">
-        <v>2.63</v>
-      </c>
-      <c r="R211">
-        <v>2.2</v>
-      </c>
-      <c r="S211">
-        <v>3.75</v>
-      </c>
-      <c r="T211">
-        <v>1.33</v>
-      </c>
-      <c r="U211">
-        <v>3.2</v>
-      </c>
-      <c r="V211">
-        <v>2.66</v>
-      </c>
-      <c r="W211">
-        <v>1.45</v>
-      </c>
-      <c r="X211">
-        <v>6.45</v>
-      </c>
-      <c r="Y211">
-        <v>1.09</v>
-      </c>
-      <c r="Z211">
-        <v>2.1</v>
-      </c>
-      <c r="AA211">
-        <v>3.5</v>
-      </c>
-      <c r="AB211">
-        <v>3.1</v>
-      </c>
-      <c r="AC211">
-        <v>1.02</v>
-      </c>
-      <c r="AD211">
-        <v>10</v>
-      </c>
-      <c r="AE211">
-        <v>1.2</v>
-      </c>
-      <c r="AF211">
-        <v>4</v>
-      </c>
-      <c r="AG211">
-        <v>1.75</v>
-      </c>
-      <c r="AH211">
+      <c r="AW211">
+        <v>5</v>
+      </c>
+      <c r="AX211">
+        <v>6</v>
+      </c>
+      <c r="AY211">
+        <v>22</v>
+      </c>
+      <c r="AZ211">
+        <v>18</v>
+      </c>
+      <c r="BA211">
+        <v>7</v>
+      </c>
+      <c r="BB211">
+        <v>7</v>
+      </c>
+      <c r="BC211">
+        <v>14</v>
+      </c>
+      <c r="BD211">
+        <v>1.11</v>
+      </c>
+      <c r="BE211">
+        <v>13</v>
+      </c>
+      <c r="BF211">
+        <v>7</v>
+      </c>
+      <c r="BG211">
+        <v>1.1</v>
+      </c>
+      <c r="BH211">
+        <v>5.7</v>
+      </c>
+      <c r="BI211">
+        <v>1.18</v>
+      </c>
+      <c r="BJ211">
+        <v>3.72</v>
+      </c>
+      <c r="BK211">
+        <v>1.35</v>
+      </c>
+      <c r="BL211">
+        <v>2.65</v>
+      </c>
+      <c r="BM211">
+        <v>1.85</v>
+      </c>
+      <c r="BN211">
         <v>1.95</v>
       </c>
-      <c r="AI211">
-        <v>1.65</v>
-      </c>
-      <c r="AJ211">
-        <v>2.2</v>
-      </c>
-      <c r="AK211">
-        <v>1.31</v>
-      </c>
-      <c r="AL211">
-        <v>1.29</v>
-      </c>
-      <c r="AM211">
-        <v>1.75</v>
-      </c>
-      <c r="AN211">
-        <v>1</v>
-      </c>
-      <c r="AO211">
-        <v>1.23</v>
-      </c>
-      <c r="AP211">
-        <v>0.92</v>
-      </c>
-      <c r="AQ211">
-        <v>1.36</v>
-      </c>
-      <c r="AR211">
-        <v>1.26</v>
-      </c>
-      <c r="AS211">
-        <v>1.6</v>
-      </c>
-      <c r="AT211">
-        <v>2.86</v>
-      </c>
-      <c r="AU211">
-        <v>-1</v>
-      </c>
-      <c r="AV211">
-        <v>-1</v>
-      </c>
-      <c r="AW211">
-        <v>-1</v>
-      </c>
-      <c r="AX211">
-        <v>-1</v>
-      </c>
-      <c r="AY211">
-        <v>-1</v>
-      </c>
-      <c r="AZ211">
-        <v>-1</v>
-      </c>
-      <c r="BA211">
-        <v>-1</v>
-      </c>
-      <c r="BB211">
-        <v>-1</v>
-      </c>
-      <c r="BC211">
-        <v>-1</v>
-      </c>
-      <c r="BD211">
-        <v>1.83</v>
-      </c>
-      <c r="BE211">
-        <v>8</v>
-      </c>
-      <c r="BF211">
-        <v>2.25</v>
-      </c>
-      <c r="BG211">
-        <v>1.21</v>
-      </c>
-      <c r="BH211">
-        <v>4.15</v>
-      </c>
-      <c r="BI211">
-        <v>1.39</v>
-      </c>
-      <c r="BJ211">
-        <v>2.85</v>
-      </c>
-      <c r="BK211">
-        <v>1.9</v>
-      </c>
-      <c r="BL211">
-        <v>1.9</v>
-      </c>
-      <c r="BM211">
-        <v>2.15</v>
-      </c>
-      <c r="BN211">
-        <v>1.65</v>
-      </c>
       <c r="BO211">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="BP211">
-        <v>1.4</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="212" spans="1:68">
@@ -44905,7 +44905,7 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>7347967</v>
+        <v>7347968</v>
       </c>
       <c r="C212" t="s">
         <v>68</v>
@@ -44914,49 +44914,49 @@
         <v>69</v>
       </c>
       <c r="E212" s="2">
-        <v>45562.875</v>
+        <v>45563.35763888889</v>
       </c>
       <c r="F212">
         <v>27</v>
       </c>
       <c r="G212" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H212" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="I212">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K212">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L212">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N212">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O212" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P212" t="s">
-        <v>349</v>
+        <v>313</v>
       </c>
       <c r="Q212">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="R212">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="S212">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="T212">
         <v>1.25</v>
@@ -44965,31 +44965,31 @@
         <v>3.72</v>
       </c>
       <c r="V212">
-        <v>2.19</v>
+        <v>2.18</v>
       </c>
       <c r="W212">
         <v>1.64</v>
       </c>
       <c r="X212">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="Y212">
         <v>1.16</v>
       </c>
       <c r="Z212">
-        <v>3.32</v>
+        <v>1.49</v>
       </c>
       <c r="AA212">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="AB212">
-        <v>1.95</v>
+        <v>5.5</v>
       </c>
       <c r="AC212">
         <v>1.01</v>
       </c>
       <c r="AD212">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE212">
         <v>1.11</v>
@@ -44998,112 +44998,112 @@
         <v>5.5</v>
       </c>
       <c r="AG212">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="AH212">
-        <v>2.59</v>
+        <v>2.56</v>
       </c>
       <c r="AI212">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AJ212">
-        <v>2.7</v>
+        <v>2.35</v>
       </c>
       <c r="AK212">
-        <v>1.81</v>
+        <v>1.12</v>
       </c>
       <c r="AL212">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AM212">
-        <v>1.32</v>
+        <v>2.4</v>
       </c>
       <c r="AN212">
+        <v>2.17</v>
+      </c>
+      <c r="AO212">
         <v>0.6899999999999999</v>
       </c>
-      <c r="AO212">
-        <v>0.58</v>
-      </c>
       <c r="AP212">
-        <v>0.86</v>
+        <v>2.23</v>
       </c>
       <c r="AQ212">
-        <v>0.54</v>
+        <v>0.64</v>
       </c>
       <c r="AR212">
-        <v>1.33</v>
+        <v>1.74</v>
       </c>
       <c r="AS212">
-        <v>1.75</v>
+        <v>1.07</v>
       </c>
       <c r="AT212">
-        <v>3.08</v>
+        <v>2.81</v>
       </c>
       <c r="AU212">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AV212">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AW212">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AX212">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AY212">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AZ212">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="BA212">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BB212">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BC212">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BD212">
-        <v>2.38</v>
+        <v>1.36</v>
       </c>
       <c r="BE212">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="BF212">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="BG212">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="BH212">
-        <v>4.35</v>
+        <v>3.4</v>
       </c>
       <c r="BI212">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="BJ212">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="BK212">
-        <v>1.62</v>
+        <v>1.96</v>
       </c>
       <c r="BL212">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="BM212">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="BN212">
-        <v>1.72</v>
+        <v>1.5</v>
       </c>
       <c r="BO212">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="BP212">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="213" spans="1:68">
@@ -45111,7 +45111,7 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>7347965</v>
+        <v>7347967</v>
       </c>
       <c r="C213" t="s">
         <v>68</v>
@@ -45120,49 +45120,49 @@
         <v>69</v>
       </c>
       <c r="E213" s="2">
-        <v>45562.875</v>
+        <v>45563.35763888889</v>
       </c>
       <c r="F213">
         <v>27</v>
       </c>
       <c r="G213" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H213" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K213">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L213">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N213">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O213" t="s">
-        <v>90</v>
+        <v>232</v>
       </c>
       <c r="P213" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q213">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="R213">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="S213">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="T213">
         <v>1.25</v>
@@ -45171,31 +45171,31 @@
         <v>3.72</v>
       </c>
       <c r="V213">
-        <v>2.18</v>
+        <v>2.19</v>
       </c>
       <c r="W213">
         <v>1.64</v>
       </c>
       <c r="X213">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="Y213">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="Z213">
-        <v>7.7</v>
+        <v>3.32</v>
       </c>
       <c r="AA213">
-        <v>5.6</v>
+        <v>3.9</v>
       </c>
       <c r="AB213">
-        <v>1.34</v>
+        <v>1.95</v>
       </c>
       <c r="AC213">
         <v>1.01</v>
       </c>
       <c r="AD213">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE213">
         <v>1.11</v>
@@ -45204,112 +45204,112 @@
         <v>5.5</v>
       </c>
       <c r="AG213">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AH213">
-        <v>2.55</v>
+        <v>2.59</v>
       </c>
       <c r="AI213">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="AJ213">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="AK213">
-        <v>3.2</v>
+        <v>1.81</v>
       </c>
       <c r="AL213">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="AM213">
-        <v>1.07</v>
+        <v>1.32</v>
       </c>
       <c r="AN213">
-        <v>1.38</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AO213">
-        <v>2.46</v>
+        <v>0.58</v>
       </c>
       <c r="AP213">
-        <v>1.29</v>
+        <v>0.86</v>
       </c>
       <c r="AQ213">
-        <v>2.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR213">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="AS213">
         <v>1.75</v>
       </c>
       <c r="AT213">
-        <v>3.16</v>
+        <v>3.07</v>
       </c>
       <c r="AU213">
+        <v>7</v>
+      </c>
+      <c r="AV213">
+        <v>3</v>
+      </c>
+      <c r="AW213">
+        <v>10</v>
+      </c>
+      <c r="AX213">
         <v>8</v>
       </c>
-      <c r="AV213">
-        <v>4</v>
-      </c>
-      <c r="AW213">
-        <v>8</v>
-      </c>
-      <c r="AX213">
-        <v>9</v>
-      </c>
       <c r="AY213">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AZ213">
         <v>13</v>
       </c>
       <c r="BA213">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB213">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC213">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BD213">
-        <v>4.33</v>
+        <v>2.38</v>
       </c>
       <c r="BE213">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="BF213">
-        <v>1.29</v>
+        <v>1.8</v>
       </c>
       <c r="BG213">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="BH213">
-        <v>4.75</v>
+        <v>4.35</v>
       </c>
       <c r="BI213">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="BJ213">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="BK213">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="BL213">
-        <v>2.23</v>
+        <v>2.2</v>
       </c>
       <c r="BM213">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="BN213">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="BO213">
-        <v>2.48</v>
+        <v>2.7</v>
       </c>
       <c r="BP213">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="214" spans="1:68">
@@ -45317,7 +45317,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>7347966</v>
+        <v>7347969</v>
       </c>
       <c r="C214" t="s">
         <v>68</v>
@@ -45326,196 +45326,196 @@
         <v>69</v>
       </c>
       <c r="E214" s="2">
-        <v>45562.875</v>
+        <v>45563.375</v>
       </c>
       <c r="F214">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="G214" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H214" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214">
         <v>0</v>
       </c>
       <c r="K214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M214">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N214">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O214" t="s">
         <v>233</v>
       </c>
       <c r="P214" t="s">
-        <v>244</v>
+        <v>349</v>
       </c>
       <c r="Q214">
+        <v>2.63</v>
+      </c>
+      <c r="R214">
+        <v>2.2</v>
+      </c>
+      <c r="S214">
+        <v>3.75</v>
+      </c>
+      <c r="T214">
+        <v>1.33</v>
+      </c>
+      <c r="U214">
+        <v>3.2</v>
+      </c>
+      <c r="V214">
+        <v>2.66</v>
+      </c>
+      <c r="W214">
+        <v>1.45</v>
+      </c>
+      <c r="X214">
+        <v>6.45</v>
+      </c>
+      <c r="Y214">
+        <v>1.09</v>
+      </c>
+      <c r="Z214">
+        <v>2.1</v>
+      </c>
+      <c r="AA214">
+        <v>3.5</v>
+      </c>
+      <c r="AB214">
+        <v>3.1</v>
+      </c>
+      <c r="AC214">
+        <v>1.02</v>
+      </c>
+      <c r="AD214">
+        <v>10</v>
+      </c>
+      <c r="AE214">
+        <v>1.2</v>
+      </c>
+      <c r="AF214">
+        <v>4</v>
+      </c>
+      <c r="AG214">
+        <v>1.75</v>
+      </c>
+      <c r="AH214">
+        <v>1.95</v>
+      </c>
+      <c r="AI214">
+        <v>1.65</v>
+      </c>
+      <c r="AJ214">
+        <v>2.2</v>
+      </c>
+      <c r="AK214">
+        <v>1.31</v>
+      </c>
+      <c r="AL214">
         <v>1.29</v>
       </c>
-      <c r="R214">
+      <c r="AM214">
+        <v>1.75</v>
+      </c>
+      <c r="AN214">
+        <v>1</v>
+      </c>
+      <c r="AO214">
+        <v>1.23</v>
+      </c>
+      <c r="AP214">
+        <v>0.92</v>
+      </c>
+      <c r="AQ214">
+        <v>1.36</v>
+      </c>
+      <c r="AR214">
+        <v>1.26</v>
+      </c>
+      <c r="AS214">
+        <v>1.6</v>
+      </c>
+      <c r="AT214">
+        <v>2.86</v>
+      </c>
+      <c r="AU214">
         <v>4</v>
       </c>
-      <c r="S214">
-        <v>12</v>
-      </c>
-      <c r="T214">
-        <v>1.1</v>
-      </c>
-      <c r="U214">
-        <v>5.75</v>
-      </c>
-      <c r="V214">
-        <v>1.57</v>
-      </c>
-      <c r="W214">
+      <c r="AV214">
+        <v>7</v>
+      </c>
+      <c r="AW214">
+        <v>11</v>
+      </c>
+      <c r="AX214">
+        <v>3</v>
+      </c>
+      <c r="AY214">
+        <v>18</v>
+      </c>
+      <c r="AZ214">
+        <v>13</v>
+      </c>
+      <c r="BA214">
+        <v>6</v>
+      </c>
+      <c r="BB214">
+        <v>5</v>
+      </c>
+      <c r="BC214">
+        <v>11</v>
+      </c>
+      <c r="BD214">
+        <v>1.83</v>
+      </c>
+      <c r="BE214">
+        <v>8</v>
+      </c>
+      <c r="BF214">
         <v>2.25</v>
       </c>
-      <c r="X214">
+      <c r="BG214">
+        <v>1.21</v>
+      </c>
+      <c r="BH214">
+        <v>4.15</v>
+      </c>
+      <c r="BI214">
+        <v>1.39</v>
+      </c>
+      <c r="BJ214">
+        <v>2.85</v>
+      </c>
+      <c r="BK214">
+        <v>1.9</v>
+      </c>
+      <c r="BL214">
+        <v>1.9</v>
+      </c>
+      <c r="BM214">
+        <v>2.15</v>
+      </c>
+      <c r="BN214">
+        <v>1.65</v>
+      </c>
+      <c r="BO214">
         <v>2.8</v>
       </c>
-      <c r="Y214">
-        <v>1.38</v>
-      </c>
-      <c r="Z214">
-        <v>1.1</v>
-      </c>
-      <c r="AA214">
-        <v>9.9</v>
-      </c>
-      <c r="AB214">
-        <v>17.25</v>
-      </c>
-      <c r="AC214">
-        <v>1.01</v>
-      </c>
-      <c r="AD214">
-        <v>86</v>
-      </c>
-      <c r="AE214">
-        <v>1.01</v>
-      </c>
-      <c r="AF214">
-        <v>11</v>
-      </c>
-      <c r="AG214">
-        <v>1.16</v>
-      </c>
-      <c r="AH214">
-        <v>4.5</v>
-      </c>
-      <c r="AI214">
-        <v>1.73</v>
-      </c>
-      <c r="AJ214">
-        <v>2.1</v>
-      </c>
-      <c r="AK214">
-        <v>1.02</v>
-      </c>
-      <c r="AL214">
-        <v>1.02</v>
-      </c>
-      <c r="AM214">
-        <v>7.9</v>
-      </c>
-      <c r="AN214">
-        <v>2.85</v>
-      </c>
-      <c r="AO214">
-        <v>1.08</v>
-      </c>
-      <c r="AP214">
-        <v>2.86</v>
-      </c>
-      <c r="AQ214">
-        <v>1</v>
-      </c>
-      <c r="AR214">
-        <v>2.56</v>
-      </c>
-      <c r="AS214">
-        <v>1.19</v>
-      </c>
-      <c r="AT214">
-        <v>3.75</v>
-      </c>
-      <c r="AU214">
-        <v>12</v>
-      </c>
-      <c r="AV214">
-        <v>6</v>
-      </c>
-      <c r="AW214">
-        <v>12</v>
-      </c>
-      <c r="AX214">
-        <v>13</v>
-      </c>
-      <c r="AY214">
-        <v>24</v>
-      </c>
-      <c r="AZ214">
-        <v>19</v>
-      </c>
-      <c r="BA214">
-        <v>7</v>
-      </c>
-      <c r="BB214">
-        <v>7</v>
-      </c>
-      <c r="BC214">
-        <v>14</v>
-      </c>
-      <c r="BD214">
-        <v>1.11</v>
-      </c>
-      <c r="BE214">
-        <v>13</v>
-      </c>
-      <c r="BF214">
-        <v>7</v>
-      </c>
-      <c r="BG214">
-        <v>1.1</v>
-      </c>
-      <c r="BH214">
-        <v>5.7</v>
-      </c>
-      <c r="BI214">
-        <v>1.18</v>
-      </c>
-      <c r="BJ214">
-        <v>3.72</v>
-      </c>
-      <c r="BK214">
-        <v>1.35</v>
-      </c>
-      <c r="BL214">
-        <v>2.65</v>
-      </c>
-      <c r="BM214">
-        <v>1.85</v>
-      </c>
-      <c r="BN214">
-        <v>1.95</v>
-      </c>
-      <c r="BO214">
-        <v>2.05</v>
-      </c>
       <c r="BP214">
-        <v>1.74</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="215" spans="1:68">
@@ -45532,7 +45532,7 @@
         <v>69</v>
       </c>
       <c r="E215" s="2">
-        <v>45563.875</v>
+        <v>45564.35763888889</v>
       </c>
       <c r="F215">
         <v>27</v>
@@ -45658,31 +45658,31 @@
         <v>2.53</v>
       </c>
       <c r="AU215">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AV215">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW215">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="AX215">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY215">
-        <v>-1</v>
+        <v>38</v>
       </c>
       <c r="AZ215">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BA215">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BB215">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC215">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BD215">
         <v>1.57</v>
@@ -45738,7 +45738,7 @@
         <v>69</v>
       </c>
       <c r="E216" s="2">
-        <v>45563.875</v>
+        <v>45564.35763888889</v>
       </c>
       <c r="F216">
         <v>27</v>
@@ -45864,31 +45864,31 @@
         <v>3.17</v>
       </c>
       <c r="AU216">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV216">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW216">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX216">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY216">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="AZ216">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BA216">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BB216">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC216">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD216">
         <v>1.14</v>
@@ -45944,7 +45944,7 @@
         <v>69</v>
       </c>
       <c r="E217" s="2">
-        <v>45563.875</v>
+        <v>45564.375</v>
       </c>
       <c r="F217">
         <v>27</v>
@@ -46070,31 +46070,31 @@
         <v>3.02</v>
       </c>
       <c r="AU217">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AV217">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW217">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX217">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AY217">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="AZ217">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BA217">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB217">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BC217">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BD217">
         <v>1.91</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="357">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -724,6 +724,18 @@
     <t>['13', '83']</t>
   </si>
   <si>
+    <t>['17', '37', '47', '63']</t>
+  </si>
+  <si>
+    <t>['64', '89']</t>
+  </si>
+  <si>
+    <t>['21', '28', '43']</t>
+  </si>
+  <si>
+    <t>['43', '56', '61', '90+3']</t>
+  </si>
+  <si>
     <t>['81', '90+3']</t>
   </si>
   <si>
@@ -1067,6 +1079,12 @@
   </si>
   <si>
     <t>['8', '53']</t>
+  </si>
+  <si>
+    <t>['20', '90+3']</t>
+  </si>
+  <si>
+    <t>['46']</t>
   </si>
 </sst>
 </file>
@@ -1428,7 +1446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP217"/>
+  <dimension ref="A1:BP222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1687,7 +1705,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1765,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ2">
         <v>0.64</v>
@@ -1893,7 +1911,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -1974,7 +1992,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ3">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2511,7 +2529,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2795,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AQ7">
         <v>0.62</v>
@@ -3129,7 +3147,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -3619,10 +3637,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3747,7 +3765,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -4031,7 +4049,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ13">
         <v>1.43</v>
@@ -4240,7 +4258,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ14">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AR14">
         <v>0.7</v>
@@ -4365,7 +4383,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4777,7 +4795,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4858,7 +4876,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ17">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4983,7 +5001,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -5189,7 +5207,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5267,7 +5285,7 @@
         <v>2</v>
       </c>
       <c r="AP19">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
         <v>1.43</v>
@@ -5473,7 +5491,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AQ20">
         <v>0.6899999999999999</v>
@@ -5888,7 +5906,7 @@
         <v>2.86</v>
       </c>
       <c r="AQ22">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR22">
         <v>2.37</v>
@@ -6013,7 +6031,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -6091,10 +6109,10 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ23">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6219,7 +6237,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6297,7 +6315,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ24">
         <v>2.5</v>
@@ -6425,7 +6443,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6506,7 +6524,7 @@
         <v>1</v>
       </c>
       <c r="AQ25">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR25">
         <v>0.67</v>
@@ -6631,7 +6649,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6709,7 +6727,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ26">
         <v>0.79</v>
@@ -6837,7 +6855,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -6915,7 +6933,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ27">
         <v>2.5</v>
@@ -7043,7 +7061,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7249,7 +7267,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -7455,7 +7473,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7536,7 +7554,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ30">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7867,7 +7885,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -8073,7 +8091,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q33">
         <v>1.73</v>
@@ -8154,7 +8172,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ33">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR33">
         <v>0.79</v>
@@ -8279,7 +8297,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q34">
         <v>6.4</v>
@@ -8360,7 +8378,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ34">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AR34">
         <v>1</v>
@@ -8485,7 +8503,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q35">
         <v>1.96</v>
@@ -8563,10 +8581,10 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ35">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR35">
         <v>1.8</v>
@@ -8691,7 +8709,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q36">
         <v>1.98</v>
@@ -8897,7 +8915,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -8975,7 +8993,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AQ37">
         <v>1.21</v>
@@ -9103,7 +9121,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q38">
         <v>3.25</v>
@@ -9184,7 +9202,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ38">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR38">
         <v>1.05</v>
@@ -9593,10 +9611,10 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AQ40">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR40">
         <v>1.36</v>
@@ -9927,7 +9945,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -10133,7 +10151,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q43">
         <v>2.3</v>
@@ -10211,7 +10229,7 @@
         <v>2.33</v>
       </c>
       <c r="AP43">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AQ43">
         <v>1.43</v>
@@ -10339,7 +10357,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q44">
         <v>4.75</v>
@@ -10417,7 +10435,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ44">
         <v>1.64</v>
@@ -10751,7 +10769,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10957,7 +10975,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -11038,7 +11056,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ47">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR47">
         <v>1.03</v>
@@ -11244,7 +11262,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ48">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR48">
         <v>1.33</v>
@@ -11575,7 +11593,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11656,7 +11674,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ50">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR50">
         <v>1.28</v>
@@ -11859,7 +11877,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ51">
         <v>0.79</v>
@@ -11987,7 +12005,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q52">
         <v>1.83</v>
@@ -12065,7 +12083,7 @@
         <v>2</v>
       </c>
       <c r="AP52">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AQ52">
         <v>0.86</v>
@@ -12271,7 +12289,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ53">
         <v>0.64</v>
@@ -12399,7 +12417,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q54">
         <v>7.5</v>
@@ -12892,7 +12910,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ56">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR56">
         <v>1.29</v>
@@ -13017,7 +13035,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13223,7 +13241,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q58">
         <v>2.8</v>
@@ -13429,7 +13447,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q59">
         <v>3.15</v>
@@ -13507,10 +13525,10 @@
         <v>2.25</v>
       </c>
       <c r="AP59">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ59">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR59">
         <v>1.86</v>
@@ -13635,7 +13653,7 @@
         <v>106</v>
       </c>
       <c r="P60" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13841,7 +13859,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q61">
         <v>3.11</v>
@@ -13922,7 +13940,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ61">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR61">
         <v>1.2</v>
@@ -14125,7 +14143,7 @@
         <v>0.67</v>
       </c>
       <c r="AP62">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ62">
         <v>0.6899999999999999</v>
@@ -14253,7 +14271,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q63">
         <v>2.75</v>
@@ -14331,7 +14349,7 @@
         <v>1.5</v>
       </c>
       <c r="AP63">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AQ63">
         <v>1.36</v>
@@ -14743,7 +14761,7 @@
         <v>1.25</v>
       </c>
       <c r="AP65">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ65">
         <v>0.6899999999999999</v>
@@ -15077,7 +15095,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q67">
         <v>2.38</v>
@@ -15158,7 +15176,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ67">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR67">
         <v>1.71</v>
@@ -15364,7 +15382,7 @@
         <v>1</v>
       </c>
       <c r="AQ68">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR68">
         <v>1.05</v>
@@ -15567,7 +15585,7 @@
         <v>1.5</v>
       </c>
       <c r="AP69">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ69">
         <v>0.86</v>
@@ -15695,7 +15713,7 @@
         <v>90</v>
       </c>
       <c r="P70" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q70">
         <v>5.5</v>
@@ -15776,7 +15794,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ70">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AR70">
         <v>1.34</v>
@@ -15901,7 +15919,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q71">
         <v>2.45</v>
@@ -15979,7 +15997,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AQ71">
         <v>1.21</v>
@@ -16185,7 +16203,7 @@
         <v>1.33</v>
       </c>
       <c r="AP72">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AQ72">
         <v>0.79</v>
@@ -16519,7 +16537,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q74">
         <v>2.65</v>
@@ -16600,7 +16618,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ74">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR74">
         <v>1.58</v>
@@ -16725,7 +16743,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -17009,10 +17027,10 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AQ76">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR76">
         <v>2.43</v>
@@ -17137,7 +17155,7 @@
         <v>133</v>
       </c>
       <c r="P77" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17421,7 +17439,7 @@
         <v>0.8</v>
       </c>
       <c r="AP78">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ78">
         <v>0.62</v>
@@ -17755,7 +17773,7 @@
         <v>90</v>
       </c>
       <c r="P80" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -17836,7 +17854,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ80">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AR80">
         <v>1.55</v>
@@ -17961,7 +17979,7 @@
         <v>136</v>
       </c>
       <c r="P81" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -18167,7 +18185,7 @@
         <v>137</v>
       </c>
       <c r="P82" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q82">
         <v>1.91</v>
@@ -18245,10 +18263,10 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AQ82">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR82">
         <v>1.62</v>
@@ -18373,7 +18391,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q83">
         <v>1.62</v>
@@ -18785,7 +18803,7 @@
         <v>99</v>
       </c>
       <c r="P85" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18863,7 +18881,7 @@
         <v>1.75</v>
       </c>
       <c r="AP85">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ85">
         <v>1.36</v>
@@ -18991,7 +19009,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q86">
         <v>1.83</v>
@@ -19197,7 +19215,7 @@
         <v>90</v>
       </c>
       <c r="P87" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -19278,7 +19296,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ87">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR87">
         <v>1.16</v>
@@ -19403,7 +19421,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19484,7 +19502,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ88">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR88">
         <v>1.33</v>
@@ -19687,7 +19705,7 @@
         <v>0.67</v>
       </c>
       <c r="AP89">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AQ89">
         <v>0.62</v>
@@ -19815,7 +19833,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q90">
         <v>1.61</v>
@@ -19893,7 +19911,7 @@
         <v>1.4</v>
       </c>
       <c r="AP90">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ90">
         <v>0.86</v>
@@ -20021,7 +20039,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q91">
         <v>1.8</v>
@@ -20227,7 +20245,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q92">
         <v>3.8</v>
@@ -20308,7 +20326,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ92">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR92">
         <v>1.07</v>
@@ -20433,7 +20451,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q93">
         <v>2.55</v>
@@ -20639,7 +20657,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q94">
         <v>4.5</v>
@@ -20845,7 +20863,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q95">
         <v>4.5</v>
@@ -20923,7 +20941,7 @@
         <v>2.33</v>
       </c>
       <c r="AP95">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ95">
         <v>1.43</v>
@@ -21051,7 +21069,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q96">
         <v>9</v>
@@ -21132,7 +21150,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ96">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AR96">
         <v>0.98</v>
@@ -21463,7 +21481,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q98">
         <v>4.63</v>
@@ -21669,7 +21687,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q99">
         <v>2.31</v>
@@ -21875,7 +21893,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -22081,7 +22099,7 @@
         <v>151</v>
       </c>
       <c r="P101" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q101">
         <v>2.43</v>
@@ -22287,7 +22305,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -22493,7 +22511,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -22983,10 +23001,10 @@
         <v>1.2</v>
       </c>
       <c r="AP105">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ105">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR105">
         <v>1.91</v>
@@ -23189,7 +23207,7 @@
         <v>1</v>
       </c>
       <c r="AP106">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ106">
         <v>0.6899999999999999</v>
@@ -23604,7 +23622,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ108">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR108">
         <v>1.44</v>
@@ -23729,7 +23747,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q109">
         <v>1.95</v>
@@ -24013,10 +24031,10 @@
         <v>0.83</v>
       </c>
       <c r="AP110">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ110">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR110">
         <v>1.08</v>
@@ -24219,10 +24237,10 @@
         <v>1.17</v>
       </c>
       <c r="AP111">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AQ111">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR111">
         <v>1.64</v>
@@ -24759,7 +24777,7 @@
         <v>90</v>
       </c>
       <c r="P114" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -24840,7 +24858,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ114">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AR114">
         <v>1.55</v>
@@ -24965,7 +24983,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -25171,7 +25189,7 @@
         <v>160</v>
       </c>
       <c r="P116" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q116">
         <v>1.95</v>
@@ -25377,7 +25395,7 @@
         <v>161</v>
       </c>
       <c r="P117" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q117">
         <v>3.1</v>
@@ -25583,7 +25601,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q118">
         <v>3.75</v>
@@ -25867,7 +25885,7 @@
         <v>1.5</v>
       </c>
       <c r="AP119">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AQ119">
         <v>1.64</v>
@@ -25995,7 +26013,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q120">
         <v>3.6</v>
@@ -26201,7 +26219,7 @@
         <v>163</v>
       </c>
       <c r="P121" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26282,7 +26300,7 @@
         <v>1</v>
       </c>
       <c r="AQ121">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AR121">
         <v>1.25</v>
@@ -26488,7 +26506,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ122">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR122">
         <v>1.65</v>
@@ -26694,7 +26712,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ123">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR123">
         <v>1.27</v>
@@ -26819,7 +26837,7 @@
         <v>166</v>
       </c>
       <c r="P124" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26900,7 +26918,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ124">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR124">
         <v>1.28</v>
@@ -27025,7 +27043,7 @@
         <v>90</v>
       </c>
       <c r="P125" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -27103,10 +27121,10 @@
         <v>2.5</v>
       </c>
       <c r="AP125">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ125">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AR125">
         <v>1.79</v>
@@ -27309,7 +27327,7 @@
         <v>1.33</v>
       </c>
       <c r="AP126">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AQ126">
         <v>0.6899999999999999</v>
@@ -27437,7 +27455,7 @@
         <v>168</v>
       </c>
       <c r="P127" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q127">
         <v>4.75</v>
@@ -27515,7 +27533,7 @@
         <v>1.71</v>
       </c>
       <c r="AP127">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ127">
         <v>1.36</v>
@@ -27643,7 +27661,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q128">
         <v>5.5</v>
@@ -28055,7 +28073,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q130">
         <v>2.2</v>
@@ -28133,7 +28151,7 @@
         <v>0.75</v>
       </c>
       <c r="AP130">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ130">
         <v>0.6899999999999999</v>
@@ -28342,7 +28360,7 @@
         <v>2.86</v>
       </c>
       <c r="AQ131">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR131">
         <v>2.36</v>
@@ -28957,7 +28975,7 @@
         <v>0.88</v>
       </c>
       <c r="AP134">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ134">
         <v>0.62</v>
@@ -29085,7 +29103,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q135">
         <v>3.35</v>
@@ -29166,7 +29184,7 @@
         <v>1</v>
       </c>
       <c r="AQ135">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR135">
         <v>1.21</v>
@@ -29369,7 +29387,7 @@
         <v>0.75</v>
       </c>
       <c r="AP136">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AQ136">
         <v>0.79</v>
@@ -29703,7 +29721,7 @@
         <v>90</v>
       </c>
       <c r="P138" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q138">
         <v>5.25</v>
@@ -29784,7 +29802,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ138">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AR138">
         <v>1.64</v>
@@ -29909,7 +29927,7 @@
         <v>177</v>
       </c>
       <c r="P139" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q139">
         <v>2.32</v>
@@ -30193,7 +30211,7 @@
         <v>1.44</v>
       </c>
       <c r="AP140">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AQ140">
         <v>1.36</v>
@@ -30321,7 +30339,7 @@
         <v>134</v>
       </c>
       <c r="P141" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q141">
         <v>3.81</v>
@@ -30527,7 +30545,7 @@
         <v>90</v>
       </c>
       <c r="P142" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q142">
         <v>7</v>
@@ -30733,7 +30751,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q143">
         <v>2.2</v>
@@ -31020,7 +31038,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ144">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR144">
         <v>1.4</v>
@@ -31557,7 +31575,7 @@
         <v>182</v>
       </c>
       <c r="P147" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q147">
         <v>1.71</v>
@@ -31763,7 +31781,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q148">
         <v>1.93</v>
@@ -31841,10 +31859,10 @@
         <v>1.78</v>
       </c>
       <c r="AP148">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AQ148">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR148">
         <v>1.81</v>
@@ -31969,7 +31987,7 @@
         <v>184</v>
       </c>
       <c r="P149" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q149">
         <v>5.66</v>
@@ -32050,7 +32068,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ149">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR149">
         <v>1.16</v>
@@ -32253,7 +32271,7 @@
         <v>0.78</v>
       </c>
       <c r="AP150">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ150">
         <v>0.62</v>
@@ -32381,7 +32399,7 @@
         <v>185</v>
       </c>
       <c r="P151" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q151">
         <v>2.98</v>
@@ -32587,7 +32605,7 @@
         <v>186</v>
       </c>
       <c r="P152" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q152">
         <v>1.62</v>
@@ -32665,7 +32683,7 @@
         <v>1</v>
       </c>
       <c r="AP152">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AQ152">
         <v>0.64</v>
@@ -32874,7 +32892,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ153">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR153">
         <v>1.34</v>
@@ -33077,7 +33095,7 @@
         <v>1.78</v>
       </c>
       <c r="AP154">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ154">
         <v>1.64</v>
@@ -33205,7 +33223,7 @@
         <v>188</v>
       </c>
       <c r="P155" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q155">
         <v>2.38</v>
@@ -33411,7 +33429,7 @@
         <v>90</v>
       </c>
       <c r="P156" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q156">
         <v>4.75</v>
@@ -33617,7 +33635,7 @@
         <v>189</v>
       </c>
       <c r="P157" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q157">
         <v>2.88</v>
@@ -33904,7 +33922,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ158">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR158">
         <v>1.84</v>
@@ -34316,7 +34334,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ160">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR160">
         <v>1.59</v>
@@ -34441,7 +34459,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q161">
         <v>9</v>
@@ -35137,7 +35155,7 @@
         <v>0.67</v>
       </c>
       <c r="AP164">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ164">
         <v>0.79</v>
@@ -35346,7 +35364,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ165">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR165">
         <v>1.66</v>
@@ -35471,7 +35489,7 @@
         <v>197</v>
       </c>
       <c r="P166" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q166">
         <v>3.5</v>
@@ -35677,7 +35695,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -36089,7 +36107,7 @@
         <v>90</v>
       </c>
       <c r="P169" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q169">
         <v>5.5</v>
@@ -36167,7 +36185,7 @@
         <v>2.6</v>
       </c>
       <c r="AP169">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ169">
         <v>2.5</v>
@@ -36501,7 +36519,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q171">
         <v>1.75</v>
@@ -36707,7 +36725,7 @@
         <v>90</v>
       </c>
       <c r="P172" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q172">
         <v>4.4</v>
@@ -36785,10 +36803,10 @@
         <v>2.6</v>
       </c>
       <c r="AP172">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ172">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AR172">
         <v>1.91</v>
@@ -36913,7 +36931,7 @@
         <v>202</v>
       </c>
       <c r="P173" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q173">
         <v>3.5</v>
@@ -36994,7 +37012,7 @@
         <v>1</v>
       </c>
       <c r="AQ173">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR173">
         <v>1.18</v>
@@ -37197,7 +37215,7 @@
         <v>1.2</v>
       </c>
       <c r="AP174">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ174">
         <v>0.86</v>
@@ -37403,7 +37421,7 @@
         <v>0.82</v>
       </c>
       <c r="AP175">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AQ175">
         <v>0.64</v>
@@ -37737,7 +37755,7 @@
         <v>97</v>
       </c>
       <c r="P177" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q177">
         <v>5</v>
@@ -37818,7 +37836,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ177">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR177">
         <v>1.21</v>
@@ -37943,7 +37961,7 @@
         <v>206</v>
       </c>
       <c r="P178" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q178">
         <v>1.36</v>
@@ -38149,7 +38167,7 @@
         <v>90</v>
       </c>
       <c r="P179" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q179">
         <v>6.28</v>
@@ -38355,7 +38373,7 @@
         <v>207</v>
       </c>
       <c r="P180" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q180">
         <v>4.8</v>
@@ -38561,7 +38579,7 @@
         <v>90</v>
       </c>
       <c r="P181" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q181">
         <v>3.5</v>
@@ -38642,7 +38660,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ181">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR181">
         <v>1.48</v>
@@ -38845,7 +38863,7 @@
         <v>1.5</v>
       </c>
       <c r="AP182">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ182">
         <v>1.21</v>
@@ -38973,7 +38991,7 @@
         <v>209</v>
       </c>
       <c r="P183" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q183">
         <v>1.44</v>
@@ -39051,7 +39069,7 @@
         <v>0.82</v>
       </c>
       <c r="AP183">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AQ183">
         <v>0.6899999999999999</v>
@@ -39179,7 +39197,7 @@
         <v>210</v>
       </c>
       <c r="P184" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q184">
         <v>4</v>
@@ -39385,7 +39403,7 @@
         <v>211</v>
       </c>
       <c r="P185" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q185">
         <v>2.75</v>
@@ -39466,7 +39484,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ185">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR185">
         <v>1.65</v>
@@ -39591,7 +39609,7 @@
         <v>90</v>
       </c>
       <c r="P186" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q186">
         <v>2.25</v>
@@ -40084,7 +40102,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ188">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR188">
         <v>1.79</v>
@@ -40209,7 +40227,7 @@
         <v>90</v>
       </c>
       <c r="P189" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40290,7 +40308,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ189">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR189">
         <v>1.24</v>
@@ -40621,7 +40639,7 @@
         <v>214</v>
       </c>
       <c r="P191" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q191">
         <v>3.05</v>
@@ -40905,10 +40923,10 @@
         <v>2.64</v>
       </c>
       <c r="AP192">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AQ192">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AR192">
         <v>2.21</v>
@@ -41111,7 +41129,7 @@
         <v>1.92</v>
       </c>
       <c r="AP193">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ193">
         <v>1.64</v>
@@ -41445,7 +41463,7 @@
         <v>218</v>
       </c>
       <c r="P195" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q195">
         <v>3.6</v>
@@ -41651,7 +41669,7 @@
         <v>90</v>
       </c>
       <c r="P196" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q196">
         <v>1.95</v>
@@ -41729,10 +41747,10 @@
         <v>0.91</v>
       </c>
       <c r="AP196">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ196">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR196">
         <v>1.74</v>
@@ -41857,7 +41875,7 @@
         <v>219</v>
       </c>
       <c r="P197" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q197">
         <v>1.87</v>
@@ -41935,7 +41953,7 @@
         <v>1.33</v>
       </c>
       <c r="AP197">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AQ197">
         <v>1.43</v>
@@ -42063,7 +42081,7 @@
         <v>220</v>
       </c>
       <c r="P198" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q198">
         <v>2.19</v>
@@ -42141,7 +42159,7 @@
         <v>0.75</v>
       </c>
       <c r="AP198">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ198">
         <v>0.6899999999999999</v>
@@ -42350,7 +42368,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ199">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR199">
         <v>1.6</v>
@@ -42681,7 +42699,7 @@
         <v>223</v>
       </c>
       <c r="P201" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q201">
         <v>3.5</v>
@@ -42887,7 +42905,7 @@
         <v>87</v>
       </c>
       <c r="P202" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q202">
         <v>3.84</v>
@@ -43093,7 +43111,7 @@
         <v>224</v>
       </c>
       <c r="P203" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q203">
         <v>6.5</v>
@@ -43171,10 +43189,10 @@
         <v>2.42</v>
       </c>
       <c r="AP203">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ203">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AR203">
         <v>1.23</v>
@@ -43377,7 +43395,7 @@
         <v>1.23</v>
       </c>
       <c r="AP204">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ204">
         <v>1.21</v>
@@ -43711,7 +43729,7 @@
         <v>226</v>
       </c>
       <c r="P206" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q206">
         <v>1.79</v>
@@ -43789,10 +43807,10 @@
         <v>1.33</v>
       </c>
       <c r="AP206">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AQ206">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR206">
         <v>2.21</v>
@@ -43917,7 +43935,7 @@
         <v>227</v>
       </c>
       <c r="P207" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q207">
         <v>2.7</v>
@@ -44123,7 +44141,7 @@
         <v>228</v>
       </c>
       <c r="P208" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q208">
         <v>3.25</v>
@@ -44329,7 +44347,7 @@
         <v>229</v>
       </c>
       <c r="P209" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q209">
         <v>1.7</v>
@@ -44535,7 +44553,7 @@
         <v>90</v>
       </c>
       <c r="P210" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q210">
         <v>6</v>
@@ -44741,7 +44759,7 @@
         <v>230</v>
       </c>
       <c r="P211" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q211">
         <v>1.29</v>
@@ -44822,7 +44840,7 @@
         <v>2.86</v>
       </c>
       <c r="AQ211">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR211">
         <v>2.56</v>
@@ -44947,7 +44965,7 @@
         <v>231</v>
       </c>
       <c r="P212" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q212">
         <v>2</v>
@@ -45153,7 +45171,7 @@
         <v>232</v>
       </c>
       <c r="P213" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Q213">
         <v>3.6</v>
@@ -45234,7 +45252,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ213">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR213">
         <v>1.32</v>
@@ -45359,7 +45377,7 @@
         <v>233</v>
       </c>
       <c r="P214" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q214">
         <v>2.63</v>
@@ -45565,7 +45583,7 @@
         <v>234</v>
       </c>
       <c r="P215" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q215">
         <v>2.35</v>
@@ -45849,7 +45867,7 @@
         <v>0.75</v>
       </c>
       <c r="AP216">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AQ216">
         <v>0.6899999999999999</v>
@@ -46055,10 +46073,10 @@
         <v>1.17</v>
       </c>
       <c r="AP217">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ217">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR217">
         <v>1.59</v>
@@ -46134,6 +46152,1036 @@
       </c>
       <c r="BP217">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="218" spans="1:68">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>7347973</v>
+      </c>
+      <c r="C218" t="s">
+        <v>68</v>
+      </c>
+      <c r="D218" t="s">
+        <v>69</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45582.875</v>
+      </c>
+      <c r="F218">
+        <v>28</v>
+      </c>
+      <c r="G218" t="s">
+        <v>83</v>
+      </c>
+      <c r="H218" t="s">
+        <v>76</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>1</v>
+      </c>
+      <c r="K218">
+        <v>1</v>
+      </c>
+      <c r="L218">
+        <v>0</v>
+      </c>
+      <c r="M218">
+        <v>2</v>
+      </c>
+      <c r="N218">
+        <v>2</v>
+      </c>
+      <c r="O218" t="s">
+        <v>90</v>
+      </c>
+      <c r="P218" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q218">
+        <v>2.8</v>
+      </c>
+      <c r="R218">
+        <v>2.35</v>
+      </c>
+      <c r="S218">
+        <v>3</v>
+      </c>
+      <c r="T218">
+        <v>1.24</v>
+      </c>
+      <c r="U218">
+        <v>3.7</v>
+      </c>
+      <c r="V218">
+        <v>2.08</v>
+      </c>
+      <c r="W218">
+        <v>1.68</v>
+      </c>
+      <c r="X218">
+        <v>4.45</v>
+      </c>
+      <c r="Y218">
+        <v>1.17</v>
+      </c>
+      <c r="Z218">
+        <v>2.3</v>
+      </c>
+      <c r="AA218">
+        <v>3.8</v>
+      </c>
+      <c r="AB218">
+        <v>2.5</v>
+      </c>
+      <c r="AC218">
+        <v>1.01</v>
+      </c>
+      <c r="AD218">
+        <v>17</v>
+      </c>
+      <c r="AE218">
+        <v>1.07</v>
+      </c>
+      <c r="AF218">
+        <v>5.45</v>
+      </c>
+      <c r="AG218">
+        <v>1.41</v>
+      </c>
+      <c r="AH218">
+        <v>2.69</v>
+      </c>
+      <c r="AI218">
+        <v>1.36</v>
+      </c>
+      <c r="AJ218">
+        <v>3</v>
+      </c>
+      <c r="AK218">
+        <v>1.45</v>
+      </c>
+      <c r="AL218">
+        <v>1.22</v>
+      </c>
+      <c r="AM218">
+        <v>1.57</v>
+      </c>
+      <c r="AN218">
+        <v>1.08</v>
+      </c>
+      <c r="AO218">
+        <v>0.54</v>
+      </c>
+      <c r="AP218">
+        <v>1</v>
+      </c>
+      <c r="AQ218">
+        <v>0.71</v>
+      </c>
+      <c r="AR218">
+        <v>1.63</v>
+      </c>
+      <c r="AS218">
+        <v>1.71</v>
+      </c>
+      <c r="AT218">
+        <v>3.34</v>
+      </c>
+      <c r="AU218">
+        <v>3</v>
+      </c>
+      <c r="AV218">
+        <v>6</v>
+      </c>
+      <c r="AW218">
+        <v>7</v>
+      </c>
+      <c r="AX218">
+        <v>4</v>
+      </c>
+      <c r="AY218">
+        <v>21</v>
+      </c>
+      <c r="AZ218">
+        <v>11</v>
+      </c>
+      <c r="BA218">
+        <v>7</v>
+      </c>
+      <c r="BB218">
+        <v>5</v>
+      </c>
+      <c r="BC218">
+        <v>12</v>
+      </c>
+      <c r="BD218">
+        <v>0</v>
+      </c>
+      <c r="BE218">
+        <v>0</v>
+      </c>
+      <c r="BF218">
+        <v>0</v>
+      </c>
+      <c r="BG218">
+        <v>0</v>
+      </c>
+      <c r="BH218">
+        <v>0</v>
+      </c>
+      <c r="BI218">
+        <v>0</v>
+      </c>
+      <c r="BJ218">
+        <v>0</v>
+      </c>
+      <c r="BK218">
+        <v>2</v>
+      </c>
+      <c r="BL218">
+        <v>0</v>
+      </c>
+      <c r="BM218">
+        <v>0</v>
+      </c>
+      <c r="BN218">
+        <v>0</v>
+      </c>
+      <c r="BO218">
+        <v>0</v>
+      </c>
+      <c r="BP218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:68">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>7347974</v>
+      </c>
+      <c r="C219" t="s">
+        <v>68</v>
+      </c>
+      <c r="D219" t="s">
+        <v>69</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45582.875</v>
+      </c>
+      <c r="F219">
+        <v>28</v>
+      </c>
+      <c r="G219" t="s">
+        <v>70</v>
+      </c>
+      <c r="H219" t="s">
+        <v>73</v>
+      </c>
+      <c r="I219">
+        <v>2</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <v>2</v>
+      </c>
+      <c r="L219">
+        <v>4</v>
+      </c>
+      <c r="M219">
+        <v>1</v>
+      </c>
+      <c r="N219">
+        <v>5</v>
+      </c>
+      <c r="O219" t="s">
+        <v>236</v>
+      </c>
+      <c r="P219" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q219">
+        <v>2.38</v>
+      </c>
+      <c r="R219">
+        <v>2.4</v>
+      </c>
+      <c r="S219">
+        <v>4.33</v>
+      </c>
+      <c r="T219">
+        <v>1.3</v>
+      </c>
+      <c r="U219">
+        <v>3.4</v>
+      </c>
+      <c r="V219">
+        <v>2.38</v>
+      </c>
+      <c r="W219">
+        <v>1.53</v>
+      </c>
+      <c r="X219">
+        <v>6</v>
+      </c>
+      <c r="Y219">
+        <v>1.13</v>
+      </c>
+      <c r="Z219">
+        <v>1.8</v>
+      </c>
+      <c r="AA219">
+        <v>3.8</v>
+      </c>
+      <c r="AB219">
+        <v>3.6</v>
+      </c>
+      <c r="AC219">
+        <v>0</v>
+      </c>
+      <c r="AD219">
+        <v>0</v>
+      </c>
+      <c r="AE219">
+        <v>0</v>
+      </c>
+      <c r="AF219">
+        <v>0</v>
+      </c>
+      <c r="AG219">
+        <v>1.58</v>
+      </c>
+      <c r="AH219">
+        <v>2.3</v>
+      </c>
+      <c r="AI219">
+        <v>1.62</v>
+      </c>
+      <c r="AJ219">
+        <v>2.2</v>
+      </c>
+      <c r="AK219">
+        <v>0</v>
+      </c>
+      <c r="AL219">
+        <v>0</v>
+      </c>
+      <c r="AM219">
+        <v>0</v>
+      </c>
+      <c r="AN219">
+        <v>1.69</v>
+      </c>
+      <c r="AO219">
+        <v>1.23</v>
+      </c>
+      <c r="AP219">
+        <v>1.79</v>
+      </c>
+      <c r="AQ219">
+        <v>1.14</v>
+      </c>
+      <c r="AR219">
+        <v>1.74</v>
+      </c>
+      <c r="AS219">
+        <v>1.22</v>
+      </c>
+      <c r="AT219">
+        <v>2.96</v>
+      </c>
+      <c r="AU219">
+        <v>12</v>
+      </c>
+      <c r="AV219">
+        <v>3</v>
+      </c>
+      <c r="AW219">
+        <v>4</v>
+      </c>
+      <c r="AX219">
+        <v>7</v>
+      </c>
+      <c r="AY219">
+        <v>20</v>
+      </c>
+      <c r="AZ219">
+        <v>11</v>
+      </c>
+      <c r="BA219">
+        <v>7</v>
+      </c>
+      <c r="BB219">
+        <v>6</v>
+      </c>
+      <c r="BC219">
+        <v>13</v>
+      </c>
+      <c r="BD219">
+        <v>0</v>
+      </c>
+      <c r="BE219">
+        <v>0</v>
+      </c>
+      <c r="BF219">
+        <v>0</v>
+      </c>
+      <c r="BG219">
+        <v>0</v>
+      </c>
+      <c r="BH219">
+        <v>0</v>
+      </c>
+      <c r="BI219">
+        <v>0</v>
+      </c>
+      <c r="BJ219">
+        <v>0</v>
+      </c>
+      <c r="BK219">
+        <v>0</v>
+      </c>
+      <c r="BL219">
+        <v>0</v>
+      </c>
+      <c r="BM219">
+        <v>0</v>
+      </c>
+      <c r="BN219">
+        <v>0</v>
+      </c>
+      <c r="BO219">
+        <v>0</v>
+      </c>
+      <c r="BP219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:68">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>7347975</v>
+      </c>
+      <c r="C220" t="s">
+        <v>68</v>
+      </c>
+      <c r="D220" t="s">
+        <v>69</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45582.875</v>
+      </c>
+      <c r="F220">
+        <v>28</v>
+      </c>
+      <c r="G220" t="s">
+        <v>79</v>
+      </c>
+      <c r="H220" t="s">
+        <v>80</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>0</v>
+      </c>
+      <c r="L220">
+        <v>2</v>
+      </c>
+      <c r="M220">
+        <v>1</v>
+      </c>
+      <c r="N220">
+        <v>3</v>
+      </c>
+      <c r="O220" t="s">
+        <v>237</v>
+      </c>
+      <c r="P220" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q220">
+        <v>1.65</v>
+      </c>
+      <c r="R220">
+        <v>2.75</v>
+      </c>
+      <c r="S220">
+        <v>7</v>
+      </c>
+      <c r="T220">
+        <v>1.24</v>
+      </c>
+      <c r="U220">
+        <v>3.7</v>
+      </c>
+      <c r="V220">
+        <v>2.17</v>
+      </c>
+      <c r="W220">
+        <v>1.63</v>
+      </c>
+      <c r="X220">
+        <v>4.7</v>
+      </c>
+      <c r="Y220">
+        <v>1.16</v>
+      </c>
+      <c r="Z220">
+        <v>1.22</v>
+      </c>
+      <c r="AA220">
+        <v>5.5</v>
+      </c>
+      <c r="AB220">
+        <v>10</v>
+      </c>
+      <c r="AC220">
+        <v>1.01</v>
+      </c>
+      <c r="AD220">
+        <v>17</v>
+      </c>
+      <c r="AE220">
+        <v>1.1</v>
+      </c>
+      <c r="AF220">
+        <v>4.8</v>
+      </c>
+      <c r="AG220">
+        <v>1.49</v>
+      </c>
+      <c r="AH220">
+        <v>2.44</v>
+      </c>
+      <c r="AI220">
+        <v>1.9</v>
+      </c>
+      <c r="AJ220">
+        <v>1.83</v>
+      </c>
+      <c r="AK220">
+        <v>1.01</v>
+      </c>
+      <c r="AL220">
+        <v>1.08</v>
+      </c>
+      <c r="AM220">
+        <v>3.75</v>
+      </c>
+      <c r="AN220">
+        <v>2.69</v>
+      </c>
+      <c r="AO220">
+        <v>1.08</v>
+      </c>
+      <c r="AP220">
+        <v>2.71</v>
+      </c>
+      <c r="AQ220">
+        <v>1</v>
+      </c>
+      <c r="AR220">
+        <v>2.2</v>
+      </c>
+      <c r="AS220">
+        <v>1.35</v>
+      </c>
+      <c r="AT220">
+        <v>3.55</v>
+      </c>
+      <c r="AU220">
+        <v>-1</v>
+      </c>
+      <c r="AV220">
+        <v>-1</v>
+      </c>
+      <c r="AW220">
+        <v>-1</v>
+      </c>
+      <c r="AX220">
+        <v>-1</v>
+      </c>
+      <c r="AY220">
+        <v>-1</v>
+      </c>
+      <c r="AZ220">
+        <v>-1</v>
+      </c>
+      <c r="BA220">
+        <v>11</v>
+      </c>
+      <c r="BB220">
+        <v>5</v>
+      </c>
+      <c r="BC220">
+        <v>16</v>
+      </c>
+      <c r="BD220">
+        <v>0</v>
+      </c>
+      <c r="BE220">
+        <v>0</v>
+      </c>
+      <c r="BF220">
+        <v>0</v>
+      </c>
+      <c r="BG220">
+        <v>0</v>
+      </c>
+      <c r="BH220">
+        <v>0</v>
+      </c>
+      <c r="BI220">
+        <v>0</v>
+      </c>
+      <c r="BJ220">
+        <v>0</v>
+      </c>
+      <c r="BK220">
+        <v>0</v>
+      </c>
+      <c r="BL220">
+        <v>0</v>
+      </c>
+      <c r="BM220">
+        <v>0</v>
+      </c>
+      <c r="BN220">
+        <v>0</v>
+      </c>
+      <c r="BO220">
+        <v>0</v>
+      </c>
+      <c r="BP220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:68">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>7347976</v>
+      </c>
+      <c r="C221" t="s">
+        <v>68</v>
+      </c>
+      <c r="D221" t="s">
+        <v>69</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45583.375</v>
+      </c>
+      <c r="F221">
+        <v>28</v>
+      </c>
+      <c r="G221" t="s">
+        <v>75</v>
+      </c>
+      <c r="H221" t="s">
+        <v>72</v>
+      </c>
+      <c r="I221">
+        <v>3</v>
+      </c>
+      <c r="J221">
+        <v>1</v>
+      </c>
+      <c r="K221">
+        <v>4</v>
+      </c>
+      <c r="L221">
+        <v>3</v>
+      </c>
+      <c r="M221">
+        <v>1</v>
+      </c>
+      <c r="N221">
+        <v>4</v>
+      </c>
+      <c r="O221" t="s">
+        <v>238</v>
+      </c>
+      <c r="P221" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q221">
+        <v>3.5</v>
+      </c>
+      <c r="R221">
+        <v>2.5</v>
+      </c>
+      <c r="S221">
+        <v>2.6</v>
+      </c>
+      <c r="T221">
+        <v>1.25</v>
+      </c>
+      <c r="U221">
+        <v>3.75</v>
+      </c>
+      <c r="V221">
+        <v>2.2</v>
+      </c>
+      <c r="W221">
+        <v>1.62</v>
+      </c>
+      <c r="X221">
+        <v>5</v>
+      </c>
+      <c r="Y221">
+        <v>1.17</v>
+      </c>
+      <c r="Z221">
+        <v>3.4</v>
+      </c>
+      <c r="AA221">
+        <v>3.6</v>
+      </c>
+      <c r="AB221">
+        <v>2.05</v>
+      </c>
+      <c r="AC221">
+        <v>0</v>
+      </c>
+      <c r="AD221">
+        <v>0</v>
+      </c>
+      <c r="AE221">
+        <v>0</v>
+      </c>
+      <c r="AF221">
+        <v>0</v>
+      </c>
+      <c r="AG221">
+        <v>1.5</v>
+      </c>
+      <c r="AH221">
+        <v>2.5</v>
+      </c>
+      <c r="AI221">
+        <v>1.44</v>
+      </c>
+      <c r="AJ221">
+        <v>2.63</v>
+      </c>
+      <c r="AK221">
+        <v>0</v>
+      </c>
+      <c r="AL221">
+        <v>0</v>
+      </c>
+      <c r="AM221">
+        <v>0</v>
+      </c>
+      <c r="AN221">
+        <v>2.46</v>
+      </c>
+      <c r="AO221">
+        <v>2.46</v>
+      </c>
+      <c r="AP221">
+        <v>2.5</v>
+      </c>
+      <c r="AQ221">
+        <v>2.29</v>
+      </c>
+      <c r="AR221">
+        <v>1.88</v>
+      </c>
+      <c r="AS221">
+        <v>2.07</v>
+      </c>
+      <c r="AT221">
+        <v>3.95</v>
+      </c>
+      <c r="AU221">
+        <v>6</v>
+      </c>
+      <c r="AV221">
+        <v>6</v>
+      </c>
+      <c r="AW221">
+        <v>5</v>
+      </c>
+      <c r="AX221">
+        <v>4</v>
+      </c>
+      <c r="AY221">
+        <v>15</v>
+      </c>
+      <c r="AZ221">
+        <v>16</v>
+      </c>
+      <c r="BA221">
+        <v>7</v>
+      </c>
+      <c r="BB221">
+        <v>12</v>
+      </c>
+      <c r="BC221">
+        <v>19</v>
+      </c>
+      <c r="BD221">
+        <v>0</v>
+      </c>
+      <c r="BE221">
+        <v>0</v>
+      </c>
+      <c r="BF221">
+        <v>0</v>
+      </c>
+      <c r="BG221">
+        <v>0</v>
+      </c>
+      <c r="BH221">
+        <v>0</v>
+      </c>
+      <c r="BI221">
+        <v>0</v>
+      </c>
+      <c r="BJ221">
+        <v>0</v>
+      </c>
+      <c r="BK221">
+        <v>2.2</v>
+      </c>
+      <c r="BL221">
+        <v>0</v>
+      </c>
+      <c r="BM221">
+        <v>0</v>
+      </c>
+      <c r="BN221">
+        <v>0</v>
+      </c>
+      <c r="BO221">
+        <v>0</v>
+      </c>
+      <c r="BP221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:68">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>7347977</v>
+      </c>
+      <c r="C222" t="s">
+        <v>68</v>
+      </c>
+      <c r="D222" t="s">
+        <v>69</v>
+      </c>
+      <c r="E222" s="2">
+        <v>45584.1875</v>
+      </c>
+      <c r="F222">
+        <v>28</v>
+      </c>
+      <c r="G222" t="s">
+        <v>84</v>
+      </c>
+      <c r="H222" t="s">
+        <v>71</v>
+      </c>
+      <c r="I222">
+        <v>1</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>1</v>
+      </c>
+      <c r="L222">
+        <v>4</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>4</v>
+      </c>
+      <c r="O222" t="s">
+        <v>239</v>
+      </c>
+      <c r="P222" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q222">
+        <v>2.5</v>
+      </c>
+      <c r="R222">
+        <v>2.5</v>
+      </c>
+      <c r="S222">
+        <v>3.75</v>
+      </c>
+      <c r="T222">
+        <v>1.25</v>
+      </c>
+      <c r="U222">
+        <v>3.75</v>
+      </c>
+      <c r="V222">
+        <v>2.2</v>
+      </c>
+      <c r="W222">
+        <v>1.62</v>
+      </c>
+      <c r="X222">
+        <v>5</v>
+      </c>
+      <c r="Y222">
+        <v>1.17</v>
+      </c>
+      <c r="Z222">
+        <v>1.62</v>
+      </c>
+      <c r="AA222">
+        <v>3.55</v>
+      </c>
+      <c r="AB222">
+        <v>3.55</v>
+      </c>
+      <c r="AC222">
+        <v>1.01</v>
+      </c>
+      <c r="AD222">
+        <v>17</v>
+      </c>
+      <c r="AE222">
+        <v>1.09</v>
+      </c>
+      <c r="AF222">
+        <v>4.95</v>
+      </c>
+      <c r="AG222">
+        <v>1.4</v>
+      </c>
+      <c r="AH222">
+        <v>2.75</v>
+      </c>
+      <c r="AI222">
+        <v>1.44</v>
+      </c>
+      <c r="AJ222">
+        <v>2.63</v>
+      </c>
+      <c r="AK222">
+        <v>1.33</v>
+      </c>
+      <c r="AL222">
+        <v>1.22</v>
+      </c>
+      <c r="AM222">
+        <v>1.72</v>
+      </c>
+      <c r="AN222">
+        <v>1.38</v>
+      </c>
+      <c r="AO222">
+        <v>1</v>
+      </c>
+      <c r="AP222">
+        <v>1.5</v>
+      </c>
+      <c r="AQ222">
+        <v>0.93</v>
+      </c>
+      <c r="AR222">
+        <v>1.25</v>
+      </c>
+      <c r="AS222">
+        <v>1.2</v>
+      </c>
+      <c r="AT222">
+        <v>2.45</v>
+      </c>
+      <c r="AU222">
+        <v>6</v>
+      </c>
+      <c r="AV222">
+        <v>2</v>
+      </c>
+      <c r="AW222">
+        <v>8</v>
+      </c>
+      <c r="AX222">
+        <v>1</v>
+      </c>
+      <c r="AY222">
+        <v>18</v>
+      </c>
+      <c r="AZ222">
+        <v>5</v>
+      </c>
+      <c r="BA222">
+        <v>3</v>
+      </c>
+      <c r="BB222">
+        <v>3</v>
+      </c>
+      <c r="BC222">
+        <v>6</v>
+      </c>
+      <c r="BD222">
+        <v>0</v>
+      </c>
+      <c r="BE222">
+        <v>0</v>
+      </c>
+      <c r="BF222">
+        <v>0</v>
+      </c>
+      <c r="BG222">
+        <v>0</v>
+      </c>
+      <c r="BH222">
+        <v>0</v>
+      </c>
+      <c r="BI222">
+        <v>0</v>
+      </c>
+      <c r="BJ222">
+        <v>0</v>
+      </c>
+      <c r="BK222">
+        <v>2.38</v>
+      </c>
+      <c r="BL222">
+        <v>0</v>
+      </c>
+      <c r="BM222">
+        <v>0</v>
+      </c>
+      <c r="BN222">
+        <v>0</v>
+      </c>
+      <c r="BO222">
+        <v>0</v>
+      </c>
+      <c r="BP222">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="359">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -736,6 +736,9 @@
     <t>['43', '56', '61', '90+3']</t>
   </si>
   <si>
+    <t>['18', '26', '47', '60', '66', '89']</t>
+  </si>
+  <si>
     <t>['81', '90+3']</t>
   </si>
   <si>
@@ -1085,6 +1088,9 @@
   </si>
   <si>
     <t>['46']</t>
+  </si>
+  <si>
+    <t>['31']</t>
   </si>
 </sst>
 </file>
@@ -1446,7 +1452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP222"/>
+  <dimension ref="A1:BP223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1705,7 +1711,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1911,7 +1917,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -2529,7 +2535,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2816,7 +2822,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ7">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3147,7 +3153,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -3765,7 +3771,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -4383,7 +4389,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4795,7 +4801,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -5001,7 +5007,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -5207,7 +5213,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5700,7 +5706,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ21">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR21">
         <v>0.99</v>
@@ -6031,7 +6037,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -6237,7 +6243,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6443,7 +6449,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6649,7 +6655,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6855,7 +6861,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -7061,7 +7067,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7267,7 +7273,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -7473,7 +7479,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7551,7 +7557,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ30">
         <v>2.29</v>
@@ -7885,7 +7891,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -8091,7 +8097,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q33">
         <v>1.73</v>
@@ -8297,7 +8303,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q34">
         <v>6.4</v>
@@ -8503,7 +8509,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q35">
         <v>1.96</v>
@@ -8709,7 +8715,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q36">
         <v>1.98</v>
@@ -8787,7 +8793,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ36">
         <v>0.86</v>
@@ -8915,7 +8921,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -9121,7 +9127,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q38">
         <v>3.25</v>
@@ -9820,7 +9826,7 @@
         <v>1</v>
       </c>
       <c r="AQ41">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR41">
         <v>0.89</v>
@@ -9945,7 +9951,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -10151,7 +10157,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q43">
         <v>2.3</v>
@@ -10357,7 +10363,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q44">
         <v>4.75</v>
@@ -10769,7 +10775,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10975,7 +10981,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -11593,7 +11599,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -12005,7 +12011,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>270</v>
+    